--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10101_Login.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10101_Login.xlsx
@@ -1,41 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869D9A40-D34E-4C0A-8B56-F5A794B83D20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213F1C8A-D2ED-4290-94F3-29D86AAB1932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2820" windowWidth="24000" windowHeight="10710" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="14" state="hidden" r:id="rId2"/>
-    <sheet name="目次" sheetId="30" r:id="rId3"/>
-    <sheet name="1.  画面取引定義" sheetId="13" r:id="rId4"/>
-    <sheet name="2. WA10101(ログイン画面)" sheetId="31" r:id="rId5"/>
-    <sheet name="データ" sheetId="29" r:id="rId6"/>
+    <sheet name="Contents" sheetId="30" r:id="rId3"/>
+    <sheet name="1 Screen subfunction definition" sheetId="13" r:id="rId4"/>
+    <sheet name="2. WA10101 (login screen)" sheetId="31" r:id="rId5"/>
+    <sheet name="Data" sheetId="29" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2. WA10101(ログイン画面)'!#REF!</definedName>
-    <definedName name="_Toc46209822" localSheetId="3">'1.  画面取引定義'!$B$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1.  画面取引定義'!$A$3:$AI$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10101(ログイン画面)'!$A$1:$AI$155</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">データ!$A$1:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2. WA10101 (login screen)'!#REF!</definedName>
+    <definedName name="_Toc46209822" localSheetId="3">'1 Screen subfunction definition'!$B$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1 Screen subfunction definition'!$A$3:$AI$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10101 (login screen)'!$A$1:$AI$155</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$2:$AI$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Data!$A$1:$E$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$2:$AI$18</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.  画面取引定義'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. WA10101(ログイン画面)'!$1:$4</definedName>
-    <definedName name="引継項目格納先">データ!$B$2:$B$2</definedName>
-    <definedName name="画面項目種類">データ!$A$2:$A$12</definedName>
-    <definedName name="種別一覧">データ!$C$2:$C$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1 Screen subfunction definition'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. WA10101 (login screen)'!$1:$4</definedName>
+    <definedName name="引継項目格納先">Data!$B$2:$B$2</definedName>
+    <definedName name="画面項目種類">Data!$A$2:$A$12</definedName>
+    <definedName name="種別一覧">Data!$C$2:$C$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -280,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="179">
   <si>
     <t>PJ名</t>
   </si>
@@ -409,9 +411,6 @@
     <t>TIS</t>
   </si>
   <si>
-    <t>Contents</t>
-  </si>
-  <si>
     <t>2. WA10101 (login screen)</t>
   </si>
   <si>
@@ -814,6 +813,18 @@
   </si>
   <si>
     <t>Required</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Contents</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1 Screen subfunction definition</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2. WA10101 (login screen)</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1894,6 +1905,111 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1930,24 +2046,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1957,24 +2055,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2011,74 +2091,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2098,78 +2181,6 @@
     <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2224,46 +2235,19 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2272,153 +2256,45 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2437,6 +2313,21 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2472,37 +2363,157 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2566,8 +2577,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7905750" y="285750"/>
-          <a:ext cx="1390650" cy="590550"/>
+          <a:off x="7953375" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -3984,57 +3995,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="190" t="s">
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="223" t="s">
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="221"/>
+      <c r="O1" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="225"/>
-      <c r="S1" s="202" t="s">
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="225" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="203"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="203"/>
-      <c r="W1" s="203"/>
-      <c r="X1" s="203"/>
-      <c r="Y1" s="203"/>
-      <c r="Z1" s="204"/>
-      <c r="AA1" s="220" t="s">
+      <c r="T1" s="226"/>
+      <c r="U1" s="226"/>
+      <c r="V1" s="226"/>
+      <c r="W1" s="226"/>
+      <c r="X1" s="226"/>
+      <c r="Y1" s="226"/>
+      <c r="Z1" s="227"/>
+      <c r="AA1" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="222"/>
-      <c r="AC1" s="172" t="str">
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="207" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-      <c r="AF1" s="174"/>
-      <c r="AG1" s="178">
+      <c r="AD1" s="208"/>
+      <c r="AE1" s="208"/>
+      <c r="AF1" s="209"/>
+      <c r="AG1" s="213">
         <f>IF(D8="","",D8)</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="179"/>
-      <c r="AI1" s="180"/>
+      <c r="AH1" s="214"/>
+      <c r="AI1" s="215"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -4042,53 +4053,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="220" t="s">
+      <c r="A2" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="190" t="s">
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="219" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="226"/>
-      <c r="P2" s="227"/>
-      <c r="Q2" s="227"/>
-      <c r="R2" s="228"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="207"/>
-      <c r="AA2" s="220" t="s">
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="221"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="179"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="228"/>
+      <c r="T2" s="229"/>
+      <c r="U2" s="229"/>
+      <c r="V2" s="229"/>
+      <c r="W2" s="229"/>
+      <c r="X2" s="229"/>
+      <c r="Y2" s="229"/>
+      <c r="Z2" s="230"/>
+      <c r="AA2" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="222"/>
-      <c r="AC2" s="181" t="str">
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="216" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="182"/>
-      <c r="AE2" s="182"/>
-      <c r="AF2" s="183"/>
-      <c r="AG2" s="178" t="str">
+      <c r="AD2" s="217"/>
+      <c r="AE2" s="217"/>
+      <c r="AF2" s="218"/>
+      <c r="AG2" s="213" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="179"/>
-      <c r="AI2" s="180"/>
+      <c r="AH2" s="214"/>
+      <c r="AI2" s="215"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -4096,45 +4107,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="221"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="190" t="s">
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="219" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="229"/>
-      <c r="P3" s="230"/>
-      <c r="Q3" s="230"/>
-      <c r="R3" s="231"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="232"/>
-      <c r="AB3" s="233"/>
-      <c r="AC3" s="172"/>
-      <c r="AD3" s="173"/>
-      <c r="AE3" s="173"/>
-      <c r="AF3" s="174"/>
-      <c r="AG3" s="178"/>
-      <c r="AH3" s="179"/>
-      <c r="AI3" s="180"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="221"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="231"/>
+      <c r="T3" s="232"/>
+      <c r="U3" s="232"/>
+      <c r="V3" s="232"/>
+      <c r="W3" s="232"/>
+      <c r="X3" s="232"/>
+      <c r="Y3" s="232"/>
+      <c r="Z3" s="233"/>
+      <c r="AA3" s="184"/>
+      <c r="AB3" s="185"/>
+      <c r="AC3" s="207"/>
+      <c r="AD3" s="208"/>
+      <c r="AE3" s="208"/>
+      <c r="AF3" s="209"/>
+      <c r="AG3" s="213"/>
+      <c r="AH3" s="214"/>
+      <c r="AI3" s="215"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -4273,1028 +4284,1028 @@
       <c r="A7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="187" t="s">
+      <c r="C7" s="199"/>
+      <c r="D7" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="188"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="187" t="s">
+      <c r="E7" s="200"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="188"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="187" t="s">
+      <c r="H7" s="200"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="188"/>
-      <c r="L7" s="188"/>
-      <c r="M7" s="188"/>
-      <c r="N7" s="188"/>
-      <c r="O7" s="188"/>
-      <c r="P7" s="189"/>
-      <c r="Q7" s="187" t="s">
+      <c r="K7" s="200"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="199"/>
+      <c r="Q7" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="188"/>
-      <c r="S7" s="188"/>
-      <c r="T7" s="188"/>
-      <c r="U7" s="188"/>
-      <c r="V7" s="188"/>
-      <c r="W7" s="188"/>
-      <c r="X7" s="188"/>
-      <c r="Y7" s="188"/>
-      <c r="Z7" s="188"/>
-      <c r="AA7" s="188"/>
-      <c r="AB7" s="188"/>
-      <c r="AC7" s="188"/>
-      <c r="AD7" s="188"/>
-      <c r="AE7" s="189"/>
-      <c r="AF7" s="187" t="s">
+      <c r="R7" s="200"/>
+      <c r="S7" s="200"/>
+      <c r="T7" s="200"/>
+      <c r="U7" s="200"/>
+      <c r="V7" s="200"/>
+      <c r="W7" s="200"/>
+      <c r="X7" s="200"/>
+      <c r="Y7" s="200"/>
+      <c r="Z7" s="200"/>
+      <c r="AA7" s="200"/>
+      <c r="AB7" s="200"/>
+      <c r="AC7" s="200"/>
+      <c r="AD7" s="200"/>
+      <c r="AE7" s="199"/>
+      <c r="AF7" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="188"/>
-      <c r="AH7" s="188"/>
-      <c r="AI7" s="189"/>
+      <c r="AG7" s="200"/>
+      <c r="AH7" s="200"/>
+      <c r="AI7" s="199"/>
     </row>
     <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="214" t="s">
+      <c r="B8" s="201" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="215"/>
-      <c r="D8" s="216">
+      <c r="C8" s="202"/>
+      <c r="D8" s="203">
         <v>43656</v>
       </c>
-      <c r="E8" s="217"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="214" t="s">
+      <c r="E8" s="204"/>
+      <c r="F8" s="205"/>
+      <c r="G8" s="201" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="219"/>
-      <c r="I8" s="215"/>
-      <c r="J8" s="199" t="s">
+      <c r="H8" s="206"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="222" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="200"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="200"/>
-      <c r="N8" s="200"/>
-      <c r="O8" s="200"/>
-      <c r="P8" s="201"/>
-      <c r="Q8" s="175" t="s">
+      <c r="K8" s="223"/>
+      <c r="L8" s="223"/>
+      <c r="M8" s="223"/>
+      <c r="N8" s="223"/>
+      <c r="O8" s="223"/>
+      <c r="P8" s="224"/>
+      <c r="Q8" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="176"/>
-      <c r="S8" s="176"/>
-      <c r="T8" s="176"/>
-      <c r="U8" s="176"/>
-      <c r="V8" s="176"/>
-      <c r="W8" s="176"/>
-      <c r="X8" s="176"/>
-      <c r="Y8" s="176"/>
-      <c r="Z8" s="176"/>
-      <c r="AA8" s="176"/>
-      <c r="AB8" s="176"/>
-      <c r="AC8" s="176"/>
-      <c r="AD8" s="176"/>
-      <c r="AE8" s="177"/>
-      <c r="AF8" s="199" t="s">
+      <c r="R8" s="211"/>
+      <c r="S8" s="211"/>
+      <c r="T8" s="211"/>
+      <c r="U8" s="211"/>
+      <c r="V8" s="211"/>
+      <c r="W8" s="211"/>
+      <c r="X8" s="211"/>
+      <c r="Y8" s="211"/>
+      <c r="Z8" s="211"/>
+      <c r="AA8" s="211"/>
+      <c r="AB8" s="211"/>
+      <c r="AC8" s="211"/>
+      <c r="AD8" s="211"/>
+      <c r="AE8" s="212"/>
+      <c r="AF8" s="222" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="200"/>
-      <c r="AH8" s="200"/>
-      <c r="AI8" s="201"/>
+      <c r="AG8" s="223"/>
+      <c r="AH8" s="223"/>
+      <c r="AI8" s="224"/>
     </row>
     <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
-      <c r="B9" s="184"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="212"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="197"/>
-      <c r="M9" s="197"/>
-      <c r="N9" s="197"/>
-      <c r="O9" s="197"/>
-      <c r="P9" s="198"/>
-      <c r="Q9" s="193"/>
-      <c r="R9" s="194"/>
-      <c r="S9" s="194"/>
-      <c r="T9" s="194"/>
-      <c r="U9" s="194"/>
-      <c r="V9" s="194"/>
-      <c r="W9" s="194"/>
-      <c r="X9" s="194"/>
-      <c r="Y9" s="194"/>
-      <c r="Z9" s="194"/>
-      <c r="AA9" s="194"/>
-      <c r="AB9" s="194"/>
-      <c r="AC9" s="194"/>
-      <c r="AD9" s="194"/>
-      <c r="AE9" s="195"/>
-      <c r="AF9" s="196"/>
-      <c r="AG9" s="197"/>
-      <c r="AH9" s="197"/>
-      <c r="AI9" s="198"/>
+      <c r="B9" s="192"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="189"/>
+      <c r="K9" s="190"/>
+      <c r="L9" s="190"/>
+      <c r="M9" s="190"/>
+      <c r="N9" s="190"/>
+      <c r="O9" s="190"/>
+      <c r="P9" s="191"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="187"/>
+      <c r="S9" s="187"/>
+      <c r="T9" s="187"/>
+      <c r="U9" s="187"/>
+      <c r="V9" s="187"/>
+      <c r="W9" s="187"/>
+      <c r="X9" s="187"/>
+      <c r="Y9" s="187"/>
+      <c r="Z9" s="187"/>
+      <c r="AA9" s="187"/>
+      <c r="AB9" s="187"/>
+      <c r="AC9" s="187"/>
+      <c r="AD9" s="187"/>
+      <c r="AE9" s="188"/>
+      <c r="AF9" s="189"/>
+      <c r="AG9" s="190"/>
+      <c r="AH9" s="190"/>
+      <c r="AI9" s="191"/>
     </row>
     <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
-      <c r="B10" s="184"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="212"/>
-      <c r="F10" s="213"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="197"/>
-      <c r="L10" s="197"/>
-      <c r="M10" s="197"/>
-      <c r="N10" s="197"/>
-      <c r="O10" s="197"/>
-      <c r="P10" s="198"/>
-      <c r="Q10" s="193"/>
-      <c r="R10" s="194"/>
-      <c r="S10" s="194"/>
-      <c r="T10" s="194"/>
-      <c r="U10" s="194"/>
-      <c r="V10" s="194"/>
-      <c r="W10" s="194"/>
-      <c r="X10" s="194"/>
-      <c r="Y10" s="194"/>
-      <c r="Z10" s="194"/>
-      <c r="AA10" s="194"/>
-      <c r="AB10" s="194"/>
-      <c r="AC10" s="194"/>
-      <c r="AD10" s="194"/>
-      <c r="AE10" s="195"/>
-      <c r="AF10" s="196"/>
-      <c r="AG10" s="197"/>
-      <c r="AH10" s="197"/>
-      <c r="AI10" s="198"/>
+      <c r="B10" s="192"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="190"/>
+      <c r="L10" s="190"/>
+      <c r="M10" s="190"/>
+      <c r="N10" s="190"/>
+      <c r="O10" s="190"/>
+      <c r="P10" s="191"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="187"/>
+      <c r="S10" s="187"/>
+      <c r="T10" s="187"/>
+      <c r="U10" s="187"/>
+      <c r="V10" s="187"/>
+      <c r="W10" s="187"/>
+      <c r="X10" s="187"/>
+      <c r="Y10" s="187"/>
+      <c r="Z10" s="187"/>
+      <c r="AA10" s="187"/>
+      <c r="AB10" s="187"/>
+      <c r="AC10" s="187"/>
+      <c r="AD10" s="187"/>
+      <c r="AE10" s="188"/>
+      <c r="AF10" s="189"/>
+      <c r="AG10" s="190"/>
+      <c r="AH10" s="190"/>
+      <c r="AI10" s="191"/>
     </row>
     <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
-      <c r="B11" s="184"/>
-      <c r="C11" s="186"/>
-      <c r="D11" s="211"/>
-      <c r="E11" s="212"/>
-      <c r="F11" s="213"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="197"/>
-      <c r="L11" s="197"/>
-      <c r="M11" s="197"/>
-      <c r="N11" s="197"/>
-      <c r="O11" s="197"/>
-      <c r="P11" s="198"/>
-      <c r="Q11" s="193"/>
-      <c r="R11" s="194"/>
-      <c r="S11" s="194"/>
-      <c r="T11" s="194"/>
-      <c r="U11" s="194"/>
-      <c r="V11" s="194"/>
-      <c r="W11" s="194"/>
-      <c r="X11" s="194"/>
-      <c r="Y11" s="194"/>
-      <c r="Z11" s="194"/>
-      <c r="AA11" s="194"/>
-      <c r="AB11" s="194"/>
-      <c r="AC11" s="194"/>
-      <c r="AD11" s="194"/>
-      <c r="AE11" s="195"/>
-      <c r="AF11" s="196"/>
-      <c r="AG11" s="197"/>
-      <c r="AH11" s="197"/>
-      <c r="AI11" s="198"/>
+      <c r="B11" s="192"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="194"/>
+      <c r="E11" s="195"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="193"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="190"/>
+      <c r="M11" s="190"/>
+      <c r="N11" s="190"/>
+      <c r="O11" s="190"/>
+      <c r="P11" s="191"/>
+      <c r="Q11" s="186"/>
+      <c r="R11" s="187"/>
+      <c r="S11" s="187"/>
+      <c r="T11" s="187"/>
+      <c r="U11" s="187"/>
+      <c r="V11" s="187"/>
+      <c r="W11" s="187"/>
+      <c r="X11" s="187"/>
+      <c r="Y11" s="187"/>
+      <c r="Z11" s="187"/>
+      <c r="AA11" s="187"/>
+      <c r="AB11" s="187"/>
+      <c r="AC11" s="187"/>
+      <c r="AD11" s="187"/>
+      <c r="AE11" s="188"/>
+      <c r="AF11" s="189"/>
+      <c r="AG11" s="190"/>
+      <c r="AH11" s="190"/>
+      <c r="AI11" s="191"/>
     </row>
     <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
-      <c r="B12" s="184"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="211"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="213"/>
-      <c r="G12" s="184"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="186"/>
-      <c r="J12" s="196"/>
-      <c r="K12" s="197"/>
-      <c r="L12" s="197"/>
-      <c r="M12" s="197"/>
-      <c r="N12" s="197"/>
-      <c r="O12" s="197"/>
-      <c r="P12" s="198"/>
-      <c r="Q12" s="193"/>
-      <c r="R12" s="194"/>
-      <c r="S12" s="194"/>
-      <c r="T12" s="194"/>
-      <c r="U12" s="194"/>
-      <c r="V12" s="194"/>
-      <c r="W12" s="194"/>
-      <c r="X12" s="194"/>
-      <c r="Y12" s="194"/>
-      <c r="Z12" s="194"/>
-      <c r="AA12" s="194"/>
-      <c r="AB12" s="194"/>
-      <c r="AC12" s="194"/>
-      <c r="AD12" s="194"/>
-      <c r="AE12" s="195"/>
-      <c r="AF12" s="196"/>
-      <c r="AG12" s="197"/>
-      <c r="AH12" s="197"/>
-      <c r="AI12" s="198"/>
+      <c r="B12" s="192"/>
+      <c r="C12" s="193"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="190"/>
+      <c r="O12" s="190"/>
+      <c r="P12" s="191"/>
+      <c r="Q12" s="186"/>
+      <c r="R12" s="187"/>
+      <c r="S12" s="187"/>
+      <c r="T12" s="187"/>
+      <c r="U12" s="187"/>
+      <c r="V12" s="187"/>
+      <c r="W12" s="187"/>
+      <c r="X12" s="187"/>
+      <c r="Y12" s="187"/>
+      <c r="Z12" s="187"/>
+      <c r="AA12" s="187"/>
+      <c r="AB12" s="187"/>
+      <c r="AC12" s="187"/>
+      <c r="AD12" s="187"/>
+      <c r="AE12" s="188"/>
+      <c r="AF12" s="189"/>
+      <c r="AG12" s="190"/>
+      <c r="AH12" s="190"/>
+      <c r="AI12" s="191"/>
     </row>
     <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
-      <c r="B13" s="184"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="211"/>
-      <c r="E13" s="212"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="197"/>
-      <c r="L13" s="197"/>
-      <c r="M13" s="197"/>
-      <c r="N13" s="197"/>
-      <c r="O13" s="197"/>
-      <c r="P13" s="198"/>
-      <c r="Q13" s="193"/>
-      <c r="R13" s="194"/>
-      <c r="S13" s="194"/>
-      <c r="T13" s="194"/>
-      <c r="U13" s="194"/>
-      <c r="V13" s="194"/>
-      <c r="W13" s="194"/>
-      <c r="X13" s="194"/>
-      <c r="Y13" s="194"/>
-      <c r="Z13" s="194"/>
-      <c r="AA13" s="194"/>
-      <c r="AB13" s="194"/>
-      <c r="AC13" s="194"/>
-      <c r="AD13" s="194"/>
-      <c r="AE13" s="195"/>
-      <c r="AF13" s="196"/>
-      <c r="AG13" s="197"/>
-      <c r="AH13" s="197"/>
-      <c r="AI13" s="198"/>
+      <c r="B13" s="192"/>
+      <c r="C13" s="193"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="190"/>
+      <c r="M13" s="190"/>
+      <c r="N13" s="190"/>
+      <c r="O13" s="190"/>
+      <c r="P13" s="191"/>
+      <c r="Q13" s="186"/>
+      <c r="R13" s="187"/>
+      <c r="S13" s="187"/>
+      <c r="T13" s="187"/>
+      <c r="U13" s="187"/>
+      <c r="V13" s="187"/>
+      <c r="W13" s="187"/>
+      <c r="X13" s="187"/>
+      <c r="Y13" s="187"/>
+      <c r="Z13" s="187"/>
+      <c r="AA13" s="187"/>
+      <c r="AB13" s="187"/>
+      <c r="AC13" s="187"/>
+      <c r="AD13" s="187"/>
+      <c r="AE13" s="188"/>
+      <c r="AF13" s="189"/>
+      <c r="AG13" s="190"/>
+      <c r="AH13" s="190"/>
+      <c r="AI13" s="191"/>
     </row>
     <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
-      <c r="B14" s="184"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="211"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="213"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="196"/>
-      <c r="K14" s="197"/>
-      <c r="L14" s="197"/>
-      <c r="M14" s="197"/>
-      <c r="N14" s="197"/>
-      <c r="O14" s="197"/>
-      <c r="P14" s="198"/>
-      <c r="Q14" s="193"/>
-      <c r="R14" s="194"/>
-      <c r="S14" s="194"/>
-      <c r="T14" s="194"/>
-      <c r="U14" s="194"/>
-      <c r="V14" s="194"/>
-      <c r="W14" s="194"/>
-      <c r="X14" s="194"/>
-      <c r="Y14" s="194"/>
-      <c r="Z14" s="194"/>
-      <c r="AA14" s="194"/>
-      <c r="AB14" s="194"/>
-      <c r="AC14" s="194"/>
-      <c r="AD14" s="194"/>
-      <c r="AE14" s="195"/>
-      <c r="AF14" s="196"/>
-      <c r="AG14" s="197"/>
-      <c r="AH14" s="197"/>
-      <c r="AI14" s="198"/>
+      <c r="B14" s="192"/>
+      <c r="C14" s="193"/>
+      <c r="D14" s="194"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="192"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="190"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="190"/>
+      <c r="N14" s="190"/>
+      <c r="O14" s="190"/>
+      <c r="P14" s="191"/>
+      <c r="Q14" s="186"/>
+      <c r="R14" s="187"/>
+      <c r="S14" s="187"/>
+      <c r="T14" s="187"/>
+      <c r="U14" s="187"/>
+      <c r="V14" s="187"/>
+      <c r="W14" s="187"/>
+      <c r="X14" s="187"/>
+      <c r="Y14" s="187"/>
+      <c r="Z14" s="187"/>
+      <c r="AA14" s="187"/>
+      <c r="AB14" s="187"/>
+      <c r="AC14" s="187"/>
+      <c r="AD14" s="187"/>
+      <c r="AE14" s="188"/>
+      <c r="AF14" s="189"/>
+      <c r="AG14" s="190"/>
+      <c r="AH14" s="190"/>
+      <c r="AI14" s="191"/>
     </row>
     <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
-      <c r="B15" s="184"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="211"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="213"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="196"/>
-      <c r="K15" s="197"/>
-      <c r="L15" s="197"/>
-      <c r="M15" s="197"/>
-      <c r="N15" s="197"/>
-      <c r="O15" s="197"/>
-      <c r="P15" s="198"/>
-      <c r="Q15" s="193"/>
-      <c r="R15" s="194"/>
-      <c r="S15" s="194"/>
-      <c r="T15" s="194"/>
-      <c r="U15" s="194"/>
-      <c r="V15" s="194"/>
-      <c r="W15" s="194"/>
-      <c r="X15" s="194"/>
-      <c r="Y15" s="194"/>
-      <c r="Z15" s="194"/>
-      <c r="AA15" s="194"/>
-      <c r="AB15" s="194"/>
-      <c r="AC15" s="194"/>
-      <c r="AD15" s="194"/>
-      <c r="AE15" s="195"/>
-      <c r="AF15" s="196"/>
-      <c r="AG15" s="197"/>
-      <c r="AH15" s="197"/>
-      <c r="AI15" s="198"/>
+      <c r="B15" s="192"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="194"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="190"/>
+      <c r="M15" s="190"/>
+      <c r="N15" s="190"/>
+      <c r="O15" s="190"/>
+      <c r="P15" s="191"/>
+      <c r="Q15" s="186"/>
+      <c r="R15" s="187"/>
+      <c r="S15" s="187"/>
+      <c r="T15" s="187"/>
+      <c r="U15" s="187"/>
+      <c r="V15" s="187"/>
+      <c r="W15" s="187"/>
+      <c r="X15" s="187"/>
+      <c r="Y15" s="187"/>
+      <c r="Z15" s="187"/>
+      <c r="AA15" s="187"/>
+      <c r="AB15" s="187"/>
+      <c r="AC15" s="187"/>
+      <c r="AD15" s="187"/>
+      <c r="AE15" s="188"/>
+      <c r="AF15" s="189"/>
+      <c r="AG15" s="190"/>
+      <c r="AH15" s="190"/>
+      <c r="AI15" s="191"/>
     </row>
     <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
-      <c r="B16" s="184"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="211"/>
-      <c r="E16" s="212"/>
-      <c r="F16" s="213"/>
-      <c r="G16" s="184"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="196"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="197"/>
-      <c r="N16" s="197"/>
-      <c r="O16" s="197"/>
-      <c r="P16" s="198"/>
-      <c r="Q16" s="193"/>
-      <c r="R16" s="194"/>
-      <c r="S16" s="194"/>
-      <c r="T16" s="194"/>
-      <c r="U16" s="194"/>
-      <c r="V16" s="194"/>
-      <c r="W16" s="194"/>
-      <c r="X16" s="194"/>
-      <c r="Y16" s="194"/>
-      <c r="Z16" s="194"/>
-      <c r="AA16" s="194"/>
-      <c r="AB16" s="194"/>
-      <c r="AC16" s="194"/>
-      <c r="AD16" s="194"/>
-      <c r="AE16" s="195"/>
-      <c r="AF16" s="196"/>
-      <c r="AG16" s="197"/>
-      <c r="AH16" s="197"/>
-      <c r="AI16" s="198"/>
+      <c r="B16" s="192"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="192"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="190"/>
+      <c r="M16" s="190"/>
+      <c r="N16" s="190"/>
+      <c r="O16" s="190"/>
+      <c r="P16" s="191"/>
+      <c r="Q16" s="186"/>
+      <c r="R16" s="187"/>
+      <c r="S16" s="187"/>
+      <c r="T16" s="187"/>
+      <c r="U16" s="187"/>
+      <c r="V16" s="187"/>
+      <c r="W16" s="187"/>
+      <c r="X16" s="187"/>
+      <c r="Y16" s="187"/>
+      <c r="Z16" s="187"/>
+      <c r="AA16" s="187"/>
+      <c r="AB16" s="187"/>
+      <c r="AC16" s="187"/>
+      <c r="AD16" s="187"/>
+      <c r="AE16" s="188"/>
+      <c r="AF16" s="189"/>
+      <c r="AG16" s="190"/>
+      <c r="AH16" s="190"/>
+      <c r="AI16" s="191"/>
     </row>
     <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
-      <c r="B17" s="184"/>
-      <c r="C17" s="186"/>
-      <c r="D17" s="211"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="184"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="196"/>
-      <c r="K17" s="197"/>
-      <c r="L17" s="197"/>
-      <c r="M17" s="197"/>
-      <c r="N17" s="197"/>
-      <c r="O17" s="197"/>
-      <c r="P17" s="198"/>
-      <c r="Q17" s="193"/>
-      <c r="R17" s="194"/>
-      <c r="S17" s="194"/>
-      <c r="T17" s="194"/>
-      <c r="U17" s="194"/>
-      <c r="V17" s="194"/>
-      <c r="W17" s="194"/>
-      <c r="X17" s="194"/>
-      <c r="Y17" s="194"/>
-      <c r="Z17" s="194"/>
-      <c r="AA17" s="194"/>
-      <c r="AB17" s="194"/>
-      <c r="AC17" s="194"/>
-      <c r="AD17" s="194"/>
-      <c r="AE17" s="195"/>
-      <c r="AF17" s="196"/>
-      <c r="AG17" s="197"/>
-      <c r="AH17" s="197"/>
-      <c r="AI17" s="198"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="196"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="190"/>
+      <c r="L17" s="190"/>
+      <c r="M17" s="190"/>
+      <c r="N17" s="190"/>
+      <c r="O17" s="190"/>
+      <c r="P17" s="191"/>
+      <c r="Q17" s="186"/>
+      <c r="R17" s="187"/>
+      <c r="S17" s="187"/>
+      <c r="T17" s="187"/>
+      <c r="U17" s="187"/>
+      <c r="V17" s="187"/>
+      <c r="W17" s="187"/>
+      <c r="X17" s="187"/>
+      <c r="Y17" s="187"/>
+      <c r="Z17" s="187"/>
+      <c r="AA17" s="187"/>
+      <c r="AB17" s="187"/>
+      <c r="AC17" s="187"/>
+      <c r="AD17" s="187"/>
+      <c r="AE17" s="188"/>
+      <c r="AF17" s="189"/>
+      <c r="AG17" s="190"/>
+      <c r="AH17" s="190"/>
+      <c r="AI17" s="191"/>
     </row>
     <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
-      <c r="B18" s="184"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="211"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="213"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="196"/>
-      <c r="K18" s="197"/>
-      <c r="L18" s="197"/>
-      <c r="M18" s="197"/>
-      <c r="N18" s="197"/>
-      <c r="O18" s="197"/>
-      <c r="P18" s="198"/>
-      <c r="Q18" s="193"/>
-      <c r="R18" s="194"/>
-      <c r="S18" s="194"/>
-      <c r="T18" s="194"/>
-      <c r="U18" s="194"/>
-      <c r="V18" s="194"/>
-      <c r="W18" s="194"/>
-      <c r="X18" s="194"/>
-      <c r="Y18" s="194"/>
-      <c r="Z18" s="194"/>
-      <c r="AA18" s="194"/>
-      <c r="AB18" s="194"/>
-      <c r="AC18" s="194"/>
-      <c r="AD18" s="194"/>
-      <c r="AE18" s="195"/>
-      <c r="AF18" s="196"/>
-      <c r="AG18" s="197"/>
-      <c r="AH18" s="197"/>
-      <c r="AI18" s="198"/>
+      <c r="B18" s="192"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="190"/>
+      <c r="L18" s="190"/>
+      <c r="M18" s="190"/>
+      <c r="N18" s="190"/>
+      <c r="O18" s="190"/>
+      <c r="P18" s="191"/>
+      <c r="Q18" s="186"/>
+      <c r="R18" s="187"/>
+      <c r="S18" s="187"/>
+      <c r="T18" s="187"/>
+      <c r="U18" s="187"/>
+      <c r="V18" s="187"/>
+      <c r="W18" s="187"/>
+      <c r="X18" s="187"/>
+      <c r="Y18" s="187"/>
+      <c r="Z18" s="187"/>
+      <c r="AA18" s="187"/>
+      <c r="AB18" s="187"/>
+      <c r="AC18" s="187"/>
+      <c r="AD18" s="187"/>
+      <c r="AE18" s="188"/>
+      <c r="AF18" s="189"/>
+      <c r="AG18" s="190"/>
+      <c r="AH18" s="190"/>
+      <c r="AI18" s="191"/>
     </row>
     <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
-      <c r="B19" s="184"/>
-      <c r="C19" s="186"/>
-      <c r="D19" s="211"/>
-      <c r="E19" s="212"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="196"/>
-      <c r="K19" s="197"/>
-      <c r="L19" s="197"/>
-      <c r="M19" s="197"/>
-      <c r="N19" s="197"/>
-      <c r="O19" s="197"/>
-      <c r="P19" s="198"/>
-      <c r="Q19" s="193"/>
-      <c r="R19" s="194"/>
-      <c r="S19" s="194"/>
-      <c r="T19" s="194"/>
-      <c r="U19" s="194"/>
-      <c r="V19" s="194"/>
-      <c r="W19" s="194"/>
-      <c r="X19" s="194"/>
-      <c r="Y19" s="194"/>
-      <c r="Z19" s="194"/>
-      <c r="AA19" s="194"/>
-      <c r="AB19" s="194"/>
-      <c r="AC19" s="194"/>
-      <c r="AD19" s="194"/>
-      <c r="AE19" s="195"/>
-      <c r="AF19" s="196"/>
-      <c r="AG19" s="197"/>
-      <c r="AH19" s="197"/>
-      <c r="AI19" s="198"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="193"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="193"/>
+      <c r="J19" s="189"/>
+      <c r="K19" s="190"/>
+      <c r="L19" s="190"/>
+      <c r="M19" s="190"/>
+      <c r="N19" s="190"/>
+      <c r="O19" s="190"/>
+      <c r="P19" s="191"/>
+      <c r="Q19" s="186"/>
+      <c r="R19" s="187"/>
+      <c r="S19" s="187"/>
+      <c r="T19" s="187"/>
+      <c r="U19" s="187"/>
+      <c r="V19" s="187"/>
+      <c r="W19" s="187"/>
+      <c r="X19" s="187"/>
+      <c r="Y19" s="187"/>
+      <c r="Z19" s="187"/>
+      <c r="AA19" s="187"/>
+      <c r="AB19" s="187"/>
+      <c r="AC19" s="187"/>
+      <c r="AD19" s="187"/>
+      <c r="AE19" s="188"/>
+      <c r="AF19" s="189"/>
+      <c r="AG19" s="190"/>
+      <c r="AH19" s="190"/>
+      <c r="AI19" s="191"/>
     </row>
     <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
-      <c r="B20" s="184"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="211"/>
-      <c r="E20" s="212"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="185"/>
-      <c r="I20" s="186"/>
-      <c r="J20" s="196"/>
-      <c r="K20" s="197"/>
-      <c r="L20" s="197"/>
-      <c r="M20" s="197"/>
-      <c r="N20" s="197"/>
-      <c r="O20" s="197"/>
-      <c r="P20" s="198"/>
-      <c r="Q20" s="193"/>
-      <c r="R20" s="194"/>
-      <c r="S20" s="194"/>
-      <c r="T20" s="194"/>
-      <c r="U20" s="194"/>
-      <c r="V20" s="194"/>
-      <c r="W20" s="194"/>
-      <c r="X20" s="194"/>
-      <c r="Y20" s="194"/>
-      <c r="Z20" s="194"/>
-      <c r="AA20" s="194"/>
-      <c r="AB20" s="194"/>
-      <c r="AC20" s="194"/>
-      <c r="AD20" s="194"/>
-      <c r="AE20" s="195"/>
-      <c r="AF20" s="196"/>
-      <c r="AG20" s="197"/>
-      <c r="AH20" s="197"/>
-      <c r="AI20" s="198"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="193"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="196"/>
+      <c r="G20" s="192"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="193"/>
+      <c r="J20" s="189"/>
+      <c r="K20" s="190"/>
+      <c r="L20" s="190"/>
+      <c r="M20" s="190"/>
+      <c r="N20" s="190"/>
+      <c r="O20" s="190"/>
+      <c r="P20" s="191"/>
+      <c r="Q20" s="186"/>
+      <c r="R20" s="187"/>
+      <c r="S20" s="187"/>
+      <c r="T20" s="187"/>
+      <c r="U20" s="187"/>
+      <c r="V20" s="187"/>
+      <c r="W20" s="187"/>
+      <c r="X20" s="187"/>
+      <c r="Y20" s="187"/>
+      <c r="Z20" s="187"/>
+      <c r="AA20" s="187"/>
+      <c r="AB20" s="187"/>
+      <c r="AC20" s="187"/>
+      <c r="AD20" s="187"/>
+      <c r="AE20" s="188"/>
+      <c r="AF20" s="189"/>
+      <c r="AG20" s="190"/>
+      <c r="AH20" s="190"/>
+      <c r="AI20" s="191"/>
     </row>
     <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
-      <c r="B21" s="184"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="211"/>
-      <c r="E21" s="212"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="184"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="196"/>
-      <c r="K21" s="197"/>
-      <c r="L21" s="197"/>
-      <c r="M21" s="197"/>
-      <c r="N21" s="197"/>
-      <c r="O21" s="197"/>
-      <c r="P21" s="198"/>
-      <c r="Q21" s="193"/>
-      <c r="R21" s="194"/>
-      <c r="S21" s="194"/>
-      <c r="T21" s="194"/>
-      <c r="U21" s="194"/>
-      <c r="V21" s="194"/>
-      <c r="W21" s="194"/>
-      <c r="X21" s="194"/>
-      <c r="Y21" s="194"/>
-      <c r="Z21" s="194"/>
-      <c r="AA21" s="194"/>
-      <c r="AB21" s="194"/>
-      <c r="AC21" s="194"/>
-      <c r="AD21" s="194"/>
-      <c r="AE21" s="195"/>
-      <c r="AF21" s="196"/>
-      <c r="AG21" s="197"/>
-      <c r="AH21" s="197"/>
-      <c r="AI21" s="198"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="192"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="193"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="190"/>
+      <c r="L21" s="190"/>
+      <c r="M21" s="190"/>
+      <c r="N21" s="190"/>
+      <c r="O21" s="190"/>
+      <c r="P21" s="191"/>
+      <c r="Q21" s="186"/>
+      <c r="R21" s="187"/>
+      <c r="S21" s="187"/>
+      <c r="T21" s="187"/>
+      <c r="U21" s="187"/>
+      <c r="V21" s="187"/>
+      <c r="W21" s="187"/>
+      <c r="X21" s="187"/>
+      <c r="Y21" s="187"/>
+      <c r="Z21" s="187"/>
+      <c r="AA21" s="187"/>
+      <c r="AB21" s="187"/>
+      <c r="AC21" s="187"/>
+      <c r="AD21" s="187"/>
+      <c r="AE21" s="188"/>
+      <c r="AF21" s="189"/>
+      <c r="AG21" s="190"/>
+      <c r="AH21" s="190"/>
+      <c r="AI21" s="191"/>
     </row>
     <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
-      <c r="B22" s="184"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="211"/>
-      <c r="E22" s="212"/>
-      <c r="F22" s="213"/>
-      <c r="G22" s="184"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="186"/>
-      <c r="J22" s="196"/>
-      <c r="K22" s="197"/>
-      <c r="L22" s="197"/>
-      <c r="M22" s="197"/>
-      <c r="N22" s="197"/>
-      <c r="O22" s="197"/>
-      <c r="P22" s="198"/>
-      <c r="Q22" s="193"/>
-      <c r="R22" s="194"/>
-      <c r="S22" s="194"/>
-      <c r="T22" s="194"/>
-      <c r="U22" s="194"/>
-      <c r="V22" s="194"/>
-      <c r="W22" s="194"/>
-      <c r="X22" s="194"/>
-      <c r="Y22" s="194"/>
-      <c r="Z22" s="194"/>
-      <c r="AA22" s="194"/>
-      <c r="AB22" s="194"/>
-      <c r="AC22" s="194"/>
-      <c r="AD22" s="194"/>
-      <c r="AE22" s="195"/>
-      <c r="AF22" s="196"/>
-      <c r="AG22" s="197"/>
-      <c r="AH22" s="197"/>
-      <c r="AI22" s="198"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="193"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="192"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="193"/>
+      <c r="J22" s="189"/>
+      <c r="K22" s="190"/>
+      <c r="L22" s="190"/>
+      <c r="M22" s="190"/>
+      <c r="N22" s="190"/>
+      <c r="O22" s="190"/>
+      <c r="P22" s="191"/>
+      <c r="Q22" s="186"/>
+      <c r="R22" s="187"/>
+      <c r="S22" s="187"/>
+      <c r="T22" s="187"/>
+      <c r="U22" s="187"/>
+      <c r="V22" s="187"/>
+      <c r="W22" s="187"/>
+      <c r="X22" s="187"/>
+      <c r="Y22" s="187"/>
+      <c r="Z22" s="187"/>
+      <c r="AA22" s="187"/>
+      <c r="AB22" s="187"/>
+      <c r="AC22" s="187"/>
+      <c r="AD22" s="187"/>
+      <c r="AE22" s="188"/>
+      <c r="AF22" s="189"/>
+      <c r="AG22" s="190"/>
+      <c r="AH22" s="190"/>
+      <c r="AI22" s="191"/>
     </row>
     <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
-      <c r="B23" s="184"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="211"/>
-      <c r="E23" s="212"/>
-      <c r="F23" s="213"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="196"/>
-      <c r="K23" s="197"/>
-      <c r="L23" s="197"/>
-      <c r="M23" s="197"/>
-      <c r="N23" s="197"/>
-      <c r="O23" s="197"/>
-      <c r="P23" s="198"/>
-      <c r="Q23" s="193"/>
-      <c r="R23" s="194"/>
-      <c r="S23" s="194"/>
-      <c r="T23" s="194"/>
-      <c r="U23" s="194"/>
-      <c r="V23" s="194"/>
-      <c r="W23" s="194"/>
-      <c r="X23" s="194"/>
-      <c r="Y23" s="194"/>
-      <c r="Z23" s="194"/>
-      <c r="AA23" s="194"/>
-      <c r="AB23" s="194"/>
-      <c r="AC23" s="194"/>
-      <c r="AD23" s="194"/>
-      <c r="AE23" s="195"/>
-      <c r="AF23" s="196"/>
-      <c r="AG23" s="197"/>
-      <c r="AH23" s="197"/>
-      <c r="AI23" s="198"/>
+      <c r="B23" s="192"/>
+      <c r="C23" s="193"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="192"/>
+      <c r="H23" s="197"/>
+      <c r="I23" s="193"/>
+      <c r="J23" s="189"/>
+      <c r="K23" s="190"/>
+      <c r="L23" s="190"/>
+      <c r="M23" s="190"/>
+      <c r="N23" s="190"/>
+      <c r="O23" s="190"/>
+      <c r="P23" s="191"/>
+      <c r="Q23" s="186"/>
+      <c r="R23" s="187"/>
+      <c r="S23" s="187"/>
+      <c r="T23" s="187"/>
+      <c r="U23" s="187"/>
+      <c r="V23" s="187"/>
+      <c r="W23" s="187"/>
+      <c r="X23" s="187"/>
+      <c r="Y23" s="187"/>
+      <c r="Z23" s="187"/>
+      <c r="AA23" s="187"/>
+      <c r="AB23" s="187"/>
+      <c r="AC23" s="187"/>
+      <c r="AD23" s="187"/>
+      <c r="AE23" s="188"/>
+      <c r="AF23" s="189"/>
+      <c r="AG23" s="190"/>
+      <c r="AH23" s="190"/>
+      <c r="AI23" s="191"/>
     </row>
     <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
-      <c r="B24" s="184"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="211"/>
-      <c r="E24" s="212"/>
-      <c r="F24" s="213"/>
-      <c r="G24" s="184"/>
-      <c r="H24" s="185"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="196"/>
-      <c r="K24" s="197"/>
-      <c r="L24" s="197"/>
-      <c r="M24" s="197"/>
-      <c r="N24" s="197"/>
-      <c r="O24" s="197"/>
-      <c r="P24" s="198"/>
-      <c r="Q24" s="193"/>
-      <c r="R24" s="194"/>
-      <c r="S24" s="194"/>
-      <c r="T24" s="194"/>
-      <c r="U24" s="194"/>
-      <c r="V24" s="194"/>
-      <c r="W24" s="194"/>
-      <c r="X24" s="194"/>
-      <c r="Y24" s="194"/>
-      <c r="Z24" s="194"/>
-      <c r="AA24" s="194"/>
-      <c r="AB24" s="194"/>
-      <c r="AC24" s="194"/>
-      <c r="AD24" s="194"/>
-      <c r="AE24" s="195"/>
-      <c r="AF24" s="196"/>
-      <c r="AG24" s="197"/>
-      <c r="AH24" s="197"/>
-      <c r="AI24" s="198"/>
+      <c r="B24" s="192"/>
+      <c r="C24" s="193"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="196"/>
+      <c r="G24" s="192"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="193"/>
+      <c r="J24" s="189"/>
+      <c r="K24" s="190"/>
+      <c r="L24" s="190"/>
+      <c r="M24" s="190"/>
+      <c r="N24" s="190"/>
+      <c r="O24" s="190"/>
+      <c r="P24" s="191"/>
+      <c r="Q24" s="186"/>
+      <c r="R24" s="187"/>
+      <c r="S24" s="187"/>
+      <c r="T24" s="187"/>
+      <c r="U24" s="187"/>
+      <c r="V24" s="187"/>
+      <c r="W24" s="187"/>
+      <c r="X24" s="187"/>
+      <c r="Y24" s="187"/>
+      <c r="Z24" s="187"/>
+      <c r="AA24" s="187"/>
+      <c r="AB24" s="187"/>
+      <c r="AC24" s="187"/>
+      <c r="AD24" s="187"/>
+      <c r="AE24" s="188"/>
+      <c r="AF24" s="189"/>
+      <c r="AG24" s="190"/>
+      <c r="AH24" s="190"/>
+      <c r="AI24" s="191"/>
     </row>
     <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
-      <c r="B25" s="184"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="211"/>
-      <c r="E25" s="212"/>
-      <c r="F25" s="213"/>
-      <c r="G25" s="184"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="196"/>
-      <c r="K25" s="197"/>
-      <c r="L25" s="197"/>
-      <c r="M25" s="197"/>
-      <c r="N25" s="197"/>
-      <c r="O25" s="197"/>
-      <c r="P25" s="198"/>
-      <c r="Q25" s="193"/>
-      <c r="R25" s="194"/>
-      <c r="S25" s="194"/>
-      <c r="T25" s="194"/>
-      <c r="U25" s="194"/>
-      <c r="V25" s="194"/>
-      <c r="W25" s="194"/>
-      <c r="X25" s="194"/>
-      <c r="Y25" s="194"/>
-      <c r="Z25" s="194"/>
-      <c r="AA25" s="194"/>
-      <c r="AB25" s="194"/>
-      <c r="AC25" s="194"/>
-      <c r="AD25" s="194"/>
-      <c r="AE25" s="195"/>
-      <c r="AF25" s="196"/>
-      <c r="AG25" s="197"/>
-      <c r="AH25" s="197"/>
-      <c r="AI25" s="198"/>
+      <c r="B25" s="192"/>
+      <c r="C25" s="193"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="192"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="193"/>
+      <c r="J25" s="189"/>
+      <c r="K25" s="190"/>
+      <c r="L25" s="190"/>
+      <c r="M25" s="190"/>
+      <c r="N25" s="190"/>
+      <c r="O25" s="190"/>
+      <c r="P25" s="191"/>
+      <c r="Q25" s="186"/>
+      <c r="R25" s="187"/>
+      <c r="S25" s="187"/>
+      <c r="T25" s="187"/>
+      <c r="U25" s="187"/>
+      <c r="V25" s="187"/>
+      <c r="W25" s="187"/>
+      <c r="X25" s="187"/>
+      <c r="Y25" s="187"/>
+      <c r="Z25" s="187"/>
+      <c r="AA25" s="187"/>
+      <c r="AB25" s="187"/>
+      <c r="AC25" s="187"/>
+      <c r="AD25" s="187"/>
+      <c r="AE25" s="188"/>
+      <c r="AF25" s="189"/>
+      <c r="AG25" s="190"/>
+      <c r="AH25" s="190"/>
+      <c r="AI25" s="191"/>
     </row>
     <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
-      <c r="B26" s="184"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="211"/>
-      <c r="E26" s="212"/>
-      <c r="F26" s="213"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="185"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="196"/>
-      <c r="K26" s="197"/>
-      <c r="L26" s="197"/>
-      <c r="M26" s="197"/>
-      <c r="N26" s="197"/>
-      <c r="O26" s="197"/>
-      <c r="P26" s="198"/>
-      <c r="Q26" s="193"/>
-      <c r="R26" s="194"/>
-      <c r="S26" s="194"/>
-      <c r="T26" s="194"/>
-      <c r="U26" s="194"/>
-      <c r="V26" s="194"/>
-      <c r="W26" s="194"/>
-      <c r="X26" s="194"/>
-      <c r="Y26" s="194"/>
-      <c r="Z26" s="194"/>
-      <c r="AA26" s="194"/>
-      <c r="AB26" s="194"/>
-      <c r="AC26" s="194"/>
-      <c r="AD26" s="194"/>
-      <c r="AE26" s="195"/>
-      <c r="AF26" s="196"/>
-      <c r="AG26" s="197"/>
-      <c r="AH26" s="197"/>
-      <c r="AI26" s="198"/>
+      <c r="B26" s="192"/>
+      <c r="C26" s="193"/>
+      <c r="D26" s="194"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="192"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="193"/>
+      <c r="J26" s="189"/>
+      <c r="K26" s="190"/>
+      <c r="L26" s="190"/>
+      <c r="M26" s="190"/>
+      <c r="N26" s="190"/>
+      <c r="O26" s="190"/>
+      <c r="P26" s="191"/>
+      <c r="Q26" s="186"/>
+      <c r="R26" s="187"/>
+      <c r="S26" s="187"/>
+      <c r="T26" s="187"/>
+      <c r="U26" s="187"/>
+      <c r="V26" s="187"/>
+      <c r="W26" s="187"/>
+      <c r="X26" s="187"/>
+      <c r="Y26" s="187"/>
+      <c r="Z26" s="187"/>
+      <c r="AA26" s="187"/>
+      <c r="AB26" s="187"/>
+      <c r="AC26" s="187"/>
+      <c r="AD26" s="187"/>
+      <c r="AE26" s="188"/>
+      <c r="AF26" s="189"/>
+      <c r="AG26" s="190"/>
+      <c r="AH26" s="190"/>
+      <c r="AI26" s="191"/>
     </row>
     <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="186"/>
-      <c r="D27" s="211"/>
-      <c r="E27" s="212"/>
-      <c r="F27" s="213"/>
-      <c r="G27" s="184"/>
-      <c r="H27" s="185"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="196"/>
-      <c r="K27" s="197"/>
-      <c r="L27" s="197"/>
-      <c r="M27" s="197"/>
-      <c r="N27" s="197"/>
-      <c r="O27" s="197"/>
-      <c r="P27" s="198"/>
-      <c r="Q27" s="193"/>
-      <c r="R27" s="194"/>
-      <c r="S27" s="194"/>
-      <c r="T27" s="194"/>
-      <c r="U27" s="194"/>
-      <c r="V27" s="194"/>
-      <c r="W27" s="194"/>
-      <c r="X27" s="194"/>
-      <c r="Y27" s="194"/>
-      <c r="Z27" s="194"/>
-      <c r="AA27" s="194"/>
-      <c r="AB27" s="194"/>
-      <c r="AC27" s="194"/>
-      <c r="AD27" s="194"/>
-      <c r="AE27" s="195"/>
-      <c r="AF27" s="196"/>
-      <c r="AG27" s="197"/>
-      <c r="AH27" s="197"/>
-      <c r="AI27" s="198"/>
+      <c r="B27" s="192"/>
+      <c r="C27" s="193"/>
+      <c r="D27" s="194"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="192"/>
+      <c r="H27" s="197"/>
+      <c r="I27" s="193"/>
+      <c r="J27" s="189"/>
+      <c r="K27" s="190"/>
+      <c r="L27" s="190"/>
+      <c r="M27" s="190"/>
+      <c r="N27" s="190"/>
+      <c r="O27" s="190"/>
+      <c r="P27" s="191"/>
+      <c r="Q27" s="186"/>
+      <c r="R27" s="187"/>
+      <c r="S27" s="187"/>
+      <c r="T27" s="187"/>
+      <c r="U27" s="187"/>
+      <c r="V27" s="187"/>
+      <c r="W27" s="187"/>
+      <c r="X27" s="187"/>
+      <c r="Y27" s="187"/>
+      <c r="Z27" s="187"/>
+      <c r="AA27" s="187"/>
+      <c r="AB27" s="187"/>
+      <c r="AC27" s="187"/>
+      <c r="AD27" s="187"/>
+      <c r="AE27" s="188"/>
+      <c r="AF27" s="189"/>
+      <c r="AG27" s="190"/>
+      <c r="AH27" s="190"/>
+      <c r="AI27" s="191"/>
     </row>
     <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
-      <c r="B28" s="184"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="211"/>
-      <c r="E28" s="212"/>
-      <c r="F28" s="213"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="196"/>
-      <c r="K28" s="197"/>
-      <c r="L28" s="197"/>
-      <c r="M28" s="197"/>
-      <c r="N28" s="197"/>
-      <c r="O28" s="197"/>
-      <c r="P28" s="198"/>
-      <c r="Q28" s="193"/>
-      <c r="R28" s="194"/>
-      <c r="S28" s="194"/>
-      <c r="T28" s="194"/>
-      <c r="U28" s="194"/>
-      <c r="V28" s="194"/>
-      <c r="W28" s="194"/>
-      <c r="X28" s="194"/>
-      <c r="Y28" s="194"/>
-      <c r="Z28" s="194"/>
-      <c r="AA28" s="194"/>
-      <c r="AB28" s="194"/>
-      <c r="AC28" s="194"/>
-      <c r="AD28" s="194"/>
-      <c r="AE28" s="195"/>
-      <c r="AF28" s="196"/>
-      <c r="AG28" s="197"/>
-      <c r="AH28" s="197"/>
-      <c r="AI28" s="198"/>
+      <c r="B28" s="192"/>
+      <c r="C28" s="193"/>
+      <c r="D28" s="194"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="196"/>
+      <c r="G28" s="192"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="193"/>
+      <c r="J28" s="189"/>
+      <c r="K28" s="190"/>
+      <c r="L28" s="190"/>
+      <c r="M28" s="190"/>
+      <c r="N28" s="190"/>
+      <c r="O28" s="190"/>
+      <c r="P28" s="191"/>
+      <c r="Q28" s="186"/>
+      <c r="R28" s="187"/>
+      <c r="S28" s="187"/>
+      <c r="T28" s="187"/>
+      <c r="U28" s="187"/>
+      <c r="V28" s="187"/>
+      <c r="W28" s="187"/>
+      <c r="X28" s="187"/>
+      <c r="Y28" s="187"/>
+      <c r="Z28" s="187"/>
+      <c r="AA28" s="187"/>
+      <c r="AB28" s="187"/>
+      <c r="AC28" s="187"/>
+      <c r="AD28" s="187"/>
+      <c r="AE28" s="188"/>
+      <c r="AF28" s="189"/>
+      <c r="AG28" s="190"/>
+      <c r="AH28" s="190"/>
+      <c r="AI28" s="191"/>
     </row>
     <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
-      <c r="B29" s="184"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="211"/>
-      <c r="E29" s="212"/>
-      <c r="F29" s="213"/>
-      <c r="G29" s="184"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="186"/>
-      <c r="J29" s="196"/>
-      <c r="K29" s="197"/>
-      <c r="L29" s="197"/>
-      <c r="M29" s="197"/>
-      <c r="N29" s="197"/>
-      <c r="O29" s="197"/>
-      <c r="P29" s="198"/>
-      <c r="Q29" s="193"/>
-      <c r="R29" s="194"/>
-      <c r="S29" s="194"/>
-      <c r="T29" s="194"/>
-      <c r="U29" s="194"/>
-      <c r="V29" s="194"/>
-      <c r="W29" s="194"/>
-      <c r="X29" s="194"/>
-      <c r="Y29" s="194"/>
-      <c r="Z29" s="194"/>
-      <c r="AA29" s="194"/>
-      <c r="AB29" s="194"/>
-      <c r="AC29" s="194"/>
-      <c r="AD29" s="194"/>
-      <c r="AE29" s="195"/>
-      <c r="AF29" s="196"/>
-      <c r="AG29" s="197"/>
-      <c r="AH29" s="197"/>
-      <c r="AI29" s="198"/>
+      <c r="B29" s="192"/>
+      <c r="C29" s="193"/>
+      <c r="D29" s="194"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="192"/>
+      <c r="H29" s="197"/>
+      <c r="I29" s="193"/>
+      <c r="J29" s="189"/>
+      <c r="K29" s="190"/>
+      <c r="L29" s="190"/>
+      <c r="M29" s="190"/>
+      <c r="N29" s="190"/>
+      <c r="O29" s="190"/>
+      <c r="P29" s="191"/>
+      <c r="Q29" s="186"/>
+      <c r="R29" s="187"/>
+      <c r="S29" s="187"/>
+      <c r="T29" s="187"/>
+      <c r="U29" s="187"/>
+      <c r="V29" s="187"/>
+      <c r="W29" s="187"/>
+      <c r="X29" s="187"/>
+      <c r="Y29" s="187"/>
+      <c r="Z29" s="187"/>
+      <c r="AA29" s="187"/>
+      <c r="AB29" s="187"/>
+      <c r="AC29" s="187"/>
+      <c r="AD29" s="187"/>
+      <c r="AE29" s="188"/>
+      <c r="AF29" s="189"/>
+      <c r="AG29" s="190"/>
+      <c r="AH29" s="190"/>
+      <c r="AI29" s="191"/>
     </row>
     <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
-      <c r="B30" s="184"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="211"/>
-      <c r="E30" s="212"/>
-      <c r="F30" s="213"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="196"/>
-      <c r="K30" s="197"/>
-      <c r="L30" s="197"/>
-      <c r="M30" s="197"/>
-      <c r="N30" s="197"/>
-      <c r="O30" s="197"/>
-      <c r="P30" s="198"/>
-      <c r="Q30" s="193"/>
-      <c r="R30" s="194"/>
-      <c r="S30" s="194"/>
-      <c r="T30" s="194"/>
-      <c r="U30" s="194"/>
-      <c r="V30" s="194"/>
-      <c r="W30" s="194"/>
-      <c r="X30" s="194"/>
-      <c r="Y30" s="194"/>
-      <c r="Z30" s="194"/>
-      <c r="AA30" s="194"/>
-      <c r="AB30" s="194"/>
-      <c r="AC30" s="194"/>
-      <c r="AD30" s="194"/>
-      <c r="AE30" s="195"/>
-      <c r="AF30" s="196"/>
-      <c r="AG30" s="197"/>
-      <c r="AH30" s="197"/>
-      <c r="AI30" s="198"/>
+      <c r="B30" s="192"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="192"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="193"/>
+      <c r="J30" s="189"/>
+      <c r="K30" s="190"/>
+      <c r="L30" s="190"/>
+      <c r="M30" s="190"/>
+      <c r="N30" s="190"/>
+      <c r="O30" s="190"/>
+      <c r="P30" s="191"/>
+      <c r="Q30" s="186"/>
+      <c r="R30" s="187"/>
+      <c r="S30" s="187"/>
+      <c r="T30" s="187"/>
+      <c r="U30" s="187"/>
+      <c r="V30" s="187"/>
+      <c r="W30" s="187"/>
+      <c r="X30" s="187"/>
+      <c r="Y30" s="187"/>
+      <c r="Z30" s="187"/>
+      <c r="AA30" s="187"/>
+      <c r="AB30" s="187"/>
+      <c r="AC30" s="187"/>
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="188"/>
+      <c r="AF30" s="189"/>
+      <c r="AG30" s="190"/>
+      <c r="AH30" s="190"/>
+      <c r="AI30" s="191"/>
     </row>
     <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
-      <c r="B31" s="184"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="211"/>
-      <c r="E31" s="212"/>
-      <c r="F31" s="213"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="196"/>
-      <c r="K31" s="197"/>
-      <c r="L31" s="197"/>
-      <c r="M31" s="197"/>
-      <c r="N31" s="197"/>
-      <c r="O31" s="197"/>
-      <c r="P31" s="198"/>
-      <c r="Q31" s="193"/>
-      <c r="R31" s="194"/>
-      <c r="S31" s="194"/>
-      <c r="T31" s="194"/>
-      <c r="U31" s="194"/>
-      <c r="V31" s="194"/>
-      <c r="W31" s="194"/>
-      <c r="X31" s="194"/>
-      <c r="Y31" s="194"/>
-      <c r="Z31" s="194"/>
-      <c r="AA31" s="194"/>
-      <c r="AB31" s="194"/>
-      <c r="AC31" s="194"/>
-      <c r="AD31" s="194"/>
-      <c r="AE31" s="195"/>
-      <c r="AF31" s="196"/>
-      <c r="AG31" s="197"/>
-      <c r="AH31" s="197"/>
-      <c r="AI31" s="198"/>
+      <c r="B31" s="192"/>
+      <c r="C31" s="193"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="192"/>
+      <c r="H31" s="197"/>
+      <c r="I31" s="193"/>
+      <c r="J31" s="189"/>
+      <c r="K31" s="190"/>
+      <c r="L31" s="190"/>
+      <c r="M31" s="190"/>
+      <c r="N31" s="190"/>
+      <c r="O31" s="190"/>
+      <c r="P31" s="191"/>
+      <c r="Q31" s="186"/>
+      <c r="R31" s="187"/>
+      <c r="S31" s="187"/>
+      <c r="T31" s="187"/>
+      <c r="U31" s="187"/>
+      <c r="V31" s="187"/>
+      <c r="W31" s="187"/>
+      <c r="X31" s="187"/>
+      <c r="Y31" s="187"/>
+      <c r="Z31" s="187"/>
+      <c r="AA31" s="187"/>
+      <c r="AB31" s="187"/>
+      <c r="AC31" s="187"/>
+      <c r="AD31" s="187"/>
+      <c r="AE31" s="188"/>
+      <c r="AF31" s="189"/>
+      <c r="AG31" s="190"/>
+      <c r="AH31" s="190"/>
+      <c r="AI31" s="191"/>
     </row>
     <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
-      <c r="B32" s="184"/>
-      <c r="C32" s="186"/>
-      <c r="D32" s="211"/>
-      <c r="E32" s="212"/>
-      <c r="F32" s="213"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="185"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="196"/>
-      <c r="K32" s="197"/>
-      <c r="L32" s="197"/>
-      <c r="M32" s="197"/>
-      <c r="N32" s="197"/>
-      <c r="O32" s="197"/>
-      <c r="P32" s="198"/>
-      <c r="Q32" s="193"/>
-      <c r="R32" s="194"/>
-      <c r="S32" s="194"/>
-      <c r="T32" s="194"/>
-      <c r="U32" s="194"/>
-      <c r="V32" s="194"/>
-      <c r="W32" s="194"/>
-      <c r="X32" s="194"/>
-      <c r="Y32" s="194"/>
-      <c r="Z32" s="194"/>
-      <c r="AA32" s="194"/>
-      <c r="AB32" s="194"/>
-      <c r="AC32" s="194"/>
-      <c r="AD32" s="194"/>
-      <c r="AE32" s="195"/>
-      <c r="AF32" s="196"/>
-      <c r="AG32" s="197"/>
-      <c r="AH32" s="197"/>
-      <c r="AI32" s="198"/>
+      <c r="B32" s="192"/>
+      <c r="C32" s="193"/>
+      <c r="D32" s="194"/>
+      <c r="E32" s="195"/>
+      <c r="F32" s="196"/>
+      <c r="G32" s="192"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="189"/>
+      <c r="K32" s="190"/>
+      <c r="L32" s="190"/>
+      <c r="M32" s="190"/>
+      <c r="N32" s="190"/>
+      <c r="O32" s="190"/>
+      <c r="P32" s="191"/>
+      <c r="Q32" s="186"/>
+      <c r="R32" s="187"/>
+      <c r="S32" s="187"/>
+      <c r="T32" s="187"/>
+      <c r="U32" s="187"/>
+      <c r="V32" s="187"/>
+      <c r="W32" s="187"/>
+      <c r="X32" s="187"/>
+      <c r="Y32" s="187"/>
+      <c r="Z32" s="187"/>
+      <c r="AA32" s="187"/>
+      <c r="AB32" s="187"/>
+      <c r="AC32" s="187"/>
+      <c r="AD32" s="187"/>
+      <c r="AE32" s="188"/>
+      <c r="AF32" s="189"/>
+      <c r="AG32" s="190"/>
+      <c r="AH32" s="190"/>
+      <c r="AI32" s="191"/>
     </row>
     <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="211"/>
-      <c r="E33" s="212"/>
-      <c r="F33" s="213"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="185"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="196"/>
-      <c r="K33" s="197"/>
-      <c r="L33" s="197"/>
-      <c r="M33" s="197"/>
-      <c r="N33" s="197"/>
-      <c r="O33" s="197"/>
-      <c r="P33" s="198"/>
-      <c r="Q33" s="193"/>
-      <c r="R33" s="194"/>
-      <c r="S33" s="194"/>
-      <c r="T33" s="194"/>
-      <c r="U33" s="194"/>
-      <c r="V33" s="194"/>
-      <c r="W33" s="194"/>
-      <c r="X33" s="194"/>
-      <c r="Y33" s="194"/>
-      <c r="Z33" s="194"/>
-      <c r="AA33" s="194"/>
-      <c r="AB33" s="194"/>
-      <c r="AC33" s="194"/>
-      <c r="AD33" s="194"/>
-      <c r="AE33" s="195"/>
-      <c r="AF33" s="196"/>
-      <c r="AG33" s="197"/>
-      <c r="AH33" s="197"/>
-      <c r="AI33" s="198"/>
+      <c r="B33" s="192"/>
+      <c r="C33" s="193"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="192"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="189"/>
+      <c r="K33" s="190"/>
+      <c r="L33" s="190"/>
+      <c r="M33" s="190"/>
+      <c r="N33" s="190"/>
+      <c r="O33" s="190"/>
+      <c r="P33" s="191"/>
+      <c r="Q33" s="186"/>
+      <c r="R33" s="187"/>
+      <c r="S33" s="187"/>
+      <c r="T33" s="187"/>
+      <c r="U33" s="187"/>
+      <c r="V33" s="187"/>
+      <c r="W33" s="187"/>
+      <c r="X33" s="187"/>
+      <c r="Y33" s="187"/>
+      <c r="Z33" s="187"/>
+      <c r="AA33" s="187"/>
+      <c r="AB33" s="187"/>
+      <c r="AC33" s="187"/>
+      <c r="AD33" s="187"/>
+      <c r="AE33" s="188"/>
+      <c r="AF33" s="189"/>
+      <c r="AG33" s="190"/>
+      <c r="AH33" s="190"/>
+      <c r="AI33" s="191"/>
     </row>
     <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
@@ -5335,6 +5346,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -5359,161 +5525,6 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -5669,158 +5680,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="240" t="str">
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
-      <c r="N1" s="242"/>
-      <c r="O1" s="246" t="s">
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="247"/>
-      <c r="Q1" s="247"/>
-      <c r="R1" s="248"/>
-      <c r="S1" s="255" t="str">
+      <c r="P1" s="238"/>
+      <c r="Q1" s="238"/>
+      <c r="R1" s="239"/>
+      <c r="S1" s="246" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="243" t="s">
+      <c r="T1" s="247"/>
+      <c r="U1" s="247"/>
+      <c r="V1" s="247"/>
+      <c r="W1" s="247"/>
+      <c r="X1" s="247"/>
+      <c r="Y1" s="247"/>
+      <c r="Z1" s="248"/>
+      <c r="AA1" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="245"/>
-      <c r="AC1" s="234" t="str">
+      <c r="AB1" s="236"/>
+      <c r="AC1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="235"/>
-      <c r="AE1" s="235"/>
-      <c r="AF1" s="236"/>
-      <c r="AG1" s="237">
+      <c r="AD1" s="259"/>
+      <c r="AE1" s="259"/>
+      <c r="AF1" s="260"/>
+      <c r="AG1" s="261">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="239"/>
+      <c r="AH1" s="262"/>
+      <c r="AI1" s="263"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="240" t="str">
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
-      <c r="J2" s="241"/>
-      <c r="K2" s="241"/>
-      <c r="L2" s="241"/>
-      <c r="M2" s="241"/>
-      <c r="N2" s="242"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="250"/>
-      <c r="Q2" s="250"/>
-      <c r="R2" s="251"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="243" t="s">
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="240"/>
+      <c r="P2" s="241"/>
+      <c r="Q2" s="241"/>
+      <c r="R2" s="242"/>
+      <c r="S2" s="249"/>
+      <c r="T2" s="250"/>
+      <c r="U2" s="250"/>
+      <c r="V2" s="250"/>
+      <c r="W2" s="250"/>
+      <c r="X2" s="250"/>
+      <c r="Y2" s="250"/>
+      <c r="Z2" s="251"/>
+      <c r="AA2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="245"/>
-      <c r="AC2" s="234" t="str">
+      <c r="AB2" s="236"/>
+      <c r="AC2" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="235"/>
-      <c r="AE2" s="235"/>
-      <c r="AF2" s="236"/>
-      <c r="AG2" s="237" t="str">
+      <c r="AD2" s="259"/>
+      <c r="AE2" s="259"/>
+      <c r="AF2" s="260"/>
+      <c r="AG2" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="238"/>
-      <c r="AI2" s="239"/>
+      <c r="AH2" s="262"/>
+      <c r="AI2" s="263"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="240" t="str">
+      <c r="B3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="241"/>
-      <c r="G3" s="241"/>
-      <c r="H3" s="241"/>
-      <c r="I3" s="241"/>
-      <c r="J3" s="241"/>
-      <c r="K3" s="241"/>
-      <c r="L3" s="241"/>
-      <c r="M3" s="241"/>
-      <c r="N3" s="242"/>
-      <c r="O3" s="252"/>
-      <c r="P3" s="253"/>
-      <c r="Q3" s="253"/>
-      <c r="R3" s="254"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="243"/>
-      <c r="AB3" s="245"/>
-      <c r="AC3" s="234" t="str">
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="243"/>
+      <c r="P3" s="244"/>
+      <c r="Q3" s="244"/>
+      <c r="R3" s="245"/>
+      <c r="S3" s="252"/>
+      <c r="T3" s="253"/>
+      <c r="U3" s="253"/>
+      <c r="V3" s="253"/>
+      <c r="W3" s="253"/>
+      <c r="X3" s="253"/>
+      <c r="Y3" s="253"/>
+      <c r="Z3" s="254"/>
+      <c r="AA3" s="234"/>
+      <c r="AB3" s="236"/>
+      <c r="AC3" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="235"/>
-      <c r="AE3" s="235"/>
-      <c r="AF3" s="236"/>
-      <c r="AG3" s="237" t="str">
+      <c r="AD3" s="259"/>
+      <c r="AE3" s="259"/>
+      <c r="AF3" s="260"/>
+      <c r="AG3" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="238"/>
-      <c r="AI3" s="239"/>
+      <c r="AH3" s="262"/>
+      <c r="AI3" s="263"/>
     </row>
     <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
@@ -5877,7 +5888,7 @@
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="41" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="R5" s="38"/>
       <c r="S5" s="38"/>
@@ -5938,7 +5949,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="42"/>
       <c r="B7" s="43" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="44"/>
@@ -5978,7 +5989,7 @@
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
@@ -6053,7 +6064,7 @@
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42"/>
       <c r="B10" s="53" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="42"/>
@@ -6093,7 +6104,7 @@
       <c r="A11" s="42"/>
       <c r="B11" s="44"/>
       <c r="C11" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="44"/>
@@ -6132,7 +6143,7 @@
       <c r="A12" s="42"/>
       <c r="B12" s="44"/>
       <c r="C12" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="48"/>
       <c r="J12" s="44"/>
@@ -6166,7 +6177,7 @@
       <c r="A13" s="42"/>
       <c r="B13" s="48"/>
       <c r="C13" s="54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
@@ -6205,7 +6216,7 @@
       <c r="A14" s="42"/>
       <c r="B14" s="53"/>
       <c r="C14" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
@@ -6244,7 +6255,7 @@
       <c r="A15" s="42"/>
       <c r="B15" s="53"/>
       <c r="C15" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="44"/>
       <c r="I15" s="38"/>
@@ -6279,7 +6290,7 @@
       <c r="A16" s="42"/>
       <c r="B16" s="38"/>
       <c r="C16" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
@@ -6702,6 +6713,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6711,14 +6730,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -6744,181 +6755,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="240" t="str">
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
-      <c r="N1" s="242"/>
-      <c r="O1" s="246" t="s">
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="237" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="247"/>
-      <c r="Q1" s="247"/>
-      <c r="R1" s="248"/>
-      <c r="S1" s="255" t="str">
+      <c r="P1" s="238"/>
+      <c r="Q1" s="238"/>
+      <c r="R1" s="239"/>
+      <c r="S1" s="246" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="243" t="s">
+      <c r="T1" s="247"/>
+      <c r="U1" s="247"/>
+      <c r="V1" s="247"/>
+      <c r="W1" s="247"/>
+      <c r="X1" s="247"/>
+      <c r="Y1" s="247"/>
+      <c r="Z1" s="248"/>
+      <c r="AA1" s="234" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="245"/>
-      <c r="AC1" s="234" t="str">
+      <c r="AB1" s="236"/>
+      <c r="AC1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="235"/>
-      <c r="AE1" s="235"/>
-      <c r="AF1" s="236"/>
-      <c r="AG1" s="237">
+      <c r="AD1" s="259"/>
+      <c r="AE1" s="259"/>
+      <c r="AF1" s="260"/>
+      <c r="AG1" s="261">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="239"/>
+      <c r="AH1" s="262"/>
+      <c r="AI1" s="263"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="240" t="str">
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
-      <c r="J2" s="241"/>
-      <c r="K2" s="241"/>
-      <c r="L2" s="241"/>
-      <c r="M2" s="241"/>
-      <c r="N2" s="242"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="250"/>
-      <c r="Q2" s="250"/>
-      <c r="R2" s="251"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="243" t="s">
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="240"/>
+      <c r="P2" s="241"/>
+      <c r="Q2" s="241"/>
+      <c r="R2" s="242"/>
+      <c r="S2" s="249"/>
+      <c r="T2" s="250"/>
+      <c r="U2" s="250"/>
+      <c r="V2" s="250"/>
+      <c r="W2" s="250"/>
+      <c r="X2" s="250"/>
+      <c r="Y2" s="250"/>
+      <c r="Z2" s="251"/>
+      <c r="AA2" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="245"/>
-      <c r="AC2" s="234" t="str">
+      <c r="AB2" s="236"/>
+      <c r="AC2" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="235"/>
-      <c r="AE2" s="235"/>
-      <c r="AF2" s="236"/>
-      <c r="AG2" s="237" t="str">
+      <c r="AD2" s="259"/>
+      <c r="AE2" s="259"/>
+      <c r="AF2" s="260"/>
+      <c r="AG2" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="238"/>
-      <c r="AI2" s="239"/>
+      <c r="AH2" s="262"/>
+      <c r="AI2" s="263"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="240" t="str">
+      <c r="B3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="241"/>
-      <c r="G3" s="241"/>
-      <c r="H3" s="241"/>
-      <c r="I3" s="241"/>
-      <c r="J3" s="241"/>
-      <c r="K3" s="241"/>
-      <c r="L3" s="241"/>
-      <c r="M3" s="241"/>
-      <c r="N3" s="242"/>
-      <c r="O3" s="252"/>
-      <c r="P3" s="253"/>
-      <c r="Q3" s="253"/>
-      <c r="R3" s="254"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="243"/>
-      <c r="AB3" s="245"/>
-      <c r="AC3" s="234" t="str">
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="243"/>
+      <c r="P3" s="244"/>
+      <c r="Q3" s="244"/>
+      <c r="R3" s="245"/>
+      <c r="S3" s="252"/>
+      <c r="T3" s="253"/>
+      <c r="U3" s="253"/>
+      <c r="V3" s="253"/>
+      <c r="W3" s="253"/>
+      <c r="X3" s="253"/>
+      <c r="Y3" s="253"/>
+      <c r="Z3" s="254"/>
+      <c r="AA3" s="234"/>
+      <c r="AB3" s="236"/>
+      <c r="AC3" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="235"/>
-      <c r="AE3" s="235"/>
-      <c r="AF3" s="236"/>
-      <c r="AG3" s="237" t="str">
+      <c r="AD3" s="259"/>
+      <c r="AE3" s="259"/>
+      <c r="AF3" s="260"/>
+      <c r="AG3" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="238"/>
-      <c r="AI3" s="239"/>
+      <c r="AH3" s="262"/>
+      <c r="AI3" s="263"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="81"/>
       <c r="C8" s="274" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" s="275"/>
       <c r="E8" s="275"/>
       <c r="F8" s="276"/>
       <c r="G8" s="277" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="278"/>
       <c r="I8" s="278"/>
@@ -6950,13 +6961,13 @@
     <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="81"/>
       <c r="C9" s="279" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" s="280"/>
       <c r="E9" s="280"/>
       <c r="F9" s="281"/>
       <c r="G9" s="277" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="275"/>
       <c r="I9" s="275"/>
@@ -6988,13 +6999,13 @@
     <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="81"/>
       <c r="C10" s="265" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D10" s="266"/>
       <c r="E10" s="266"/>
       <c r="F10" s="267"/>
       <c r="G10" s="82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="83"/>
       <c r="I10" s="83"/>
@@ -7128,13 +7139,13 @@
     <row r="14" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="81"/>
       <c r="C14" s="264" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="264"/>
       <c r="E14" s="264"/>
       <c r="F14" s="264"/>
       <c r="G14" s="91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" s="92"/>
       <c r="I14" s="92"/>
@@ -7203,6 +7214,18 @@
     <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7214,18 +7237,6 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7256,171 +7267,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="319" t="s">
+      <c r="A1" s="371" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="240" t="str">
+      <c r="B1" s="372"/>
+      <c r="C1" s="372"/>
+      <c r="D1" s="373"/>
+      <c r="E1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
-      <c r="N1" s="242"/>
-      <c r="O1" s="246" t="s">
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="237" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="247"/>
-      <c r="Q1" s="247"/>
-      <c r="R1" s="248"/>
-      <c r="S1" s="255" t="str">
+      <c r="P1" s="238"/>
+      <c r="Q1" s="238"/>
+      <c r="R1" s="239"/>
+      <c r="S1" s="246" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="243" t="s">
+      <c r="T1" s="247"/>
+      <c r="U1" s="247"/>
+      <c r="V1" s="247"/>
+      <c r="W1" s="247"/>
+      <c r="X1" s="247"/>
+      <c r="Y1" s="247"/>
+      <c r="Z1" s="248"/>
+      <c r="AA1" s="234" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="245"/>
-      <c r="AC1" s="234" t="str">
+      <c r="AB1" s="236"/>
+      <c r="AC1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="235"/>
-      <c r="AE1" s="235"/>
-      <c r="AF1" s="236"/>
-      <c r="AG1" s="316">
+      <c r="AD1" s="259"/>
+      <c r="AE1" s="259"/>
+      <c r="AF1" s="260"/>
+      <c r="AG1" s="368">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="317"/>
-      <c r="AI1" s="318"/>
+      <c r="AH1" s="369"/>
+      <c r="AI1" s="370"/>
       <c r="AJ1" s="94"/>
     </row>
     <row r="2" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="319" t="s">
+      <c r="A2" s="371" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="320"/>
-      <c r="C2" s="320"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="240" t="str">
+      <c r="B2" s="372"/>
+      <c r="C2" s="372"/>
+      <c r="D2" s="373"/>
+      <c r="E2" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
-      <c r="J2" s="241"/>
-      <c r="K2" s="241"/>
-      <c r="L2" s="241"/>
-      <c r="M2" s="241"/>
-      <c r="N2" s="242"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="250"/>
-      <c r="Q2" s="250"/>
-      <c r="R2" s="251"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="243" t="s">
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="240"/>
+      <c r="P2" s="241"/>
+      <c r="Q2" s="241"/>
+      <c r="R2" s="242"/>
+      <c r="S2" s="249"/>
+      <c r="T2" s="250"/>
+      <c r="U2" s="250"/>
+      <c r="V2" s="250"/>
+      <c r="W2" s="250"/>
+      <c r="X2" s="250"/>
+      <c r="Y2" s="250"/>
+      <c r="Z2" s="251"/>
+      <c r="AA2" s="234" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="245"/>
-      <c r="AC2" s="234" t="str">
+      <c r="AB2" s="236"/>
+      <c r="AC2" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="235"/>
-      <c r="AE2" s="235"/>
-      <c r="AF2" s="236"/>
-      <c r="AG2" s="316" t="str">
+      <c r="AD2" s="259"/>
+      <c r="AE2" s="259"/>
+      <c r="AF2" s="260"/>
+      <c r="AG2" s="368" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="317"/>
-      <c r="AI2" s="318"/>
+      <c r="AH2" s="369"/>
+      <c r="AI2" s="370"/>
       <c r="AJ2" s="94"/>
     </row>
     <row r="3" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="319" t="s">
+      <c r="A3" s="371" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="320"/>
-      <c r="C3" s="320"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="240" t="str">
+      <c r="B3" s="372"/>
+      <c r="C3" s="372"/>
+      <c r="D3" s="373"/>
+      <c r="E3" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="241"/>
-      <c r="G3" s="241"/>
-      <c r="H3" s="241"/>
-      <c r="I3" s="241"/>
-      <c r="J3" s="241"/>
-      <c r="K3" s="241"/>
-      <c r="L3" s="241"/>
-      <c r="M3" s="241"/>
-      <c r="N3" s="242"/>
-      <c r="O3" s="252"/>
-      <c r="P3" s="253"/>
-      <c r="Q3" s="253"/>
-      <c r="R3" s="254"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="243"/>
-      <c r="AB3" s="245"/>
-      <c r="AC3" s="234" t="str">
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="243"/>
+      <c r="P3" s="244"/>
+      <c r="Q3" s="244"/>
+      <c r="R3" s="245"/>
+      <c r="S3" s="252"/>
+      <c r="T3" s="253"/>
+      <c r="U3" s="253"/>
+      <c r="V3" s="253"/>
+      <c r="W3" s="253"/>
+      <c r="X3" s="253"/>
+      <c r="Y3" s="253"/>
+      <c r="Z3" s="254"/>
+      <c r="AA3" s="234"/>
+      <c r="AB3" s="236"/>
+      <c r="AC3" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="235"/>
-      <c r="AE3" s="235"/>
-      <c r="AF3" s="236"/>
-      <c r="AG3" s="316" t="str">
+      <c r="AD3" s="259"/>
+      <c r="AE3" s="259"/>
+      <c r="AF3" s="260"/>
+      <c r="AG3" s="368" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="317"/>
-      <c r="AI3" s="318"/>
+      <c r="AH3" s="369"/>
+      <c r="AI3" s="370"/>
       <c r="AJ3" s="94"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7491,7 +7502,7 @@
     </row>
     <row r="41" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C41" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="96"/>
       <c r="E41" s="96"/>
@@ -7561,39 +7572,39 @@
       <c r="D43" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="282" t="s">
+      <c r="E43" s="374" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="374"/>
+      <c r="G43" s="374"/>
+      <c r="H43" s="374"/>
+      <c r="I43" s="374"/>
+      <c r="J43" s="374"/>
+      <c r="K43" s="374"/>
+      <c r="L43" s="374"/>
+      <c r="M43" s="374"/>
+      <c r="N43" s="374" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="282"/>
-      <c r="G43" s="282"/>
-      <c r="H43" s="282"/>
-      <c r="I43" s="282"/>
-      <c r="J43" s="282"/>
-      <c r="K43" s="282"/>
-      <c r="L43" s="282"/>
-      <c r="M43" s="282"/>
-      <c r="N43" s="282" t="s">
+      <c r="O43" s="374"/>
+      <c r="P43" s="374"/>
+      <c r="Q43" s="374" t="s">
         <v>56</v>
       </c>
-      <c r="O43" s="282"/>
-      <c r="P43" s="282"/>
-      <c r="Q43" s="282" t="s">
+      <c r="R43" s="374"/>
+      <c r="S43" s="374"/>
+      <c r="T43" s="374"/>
+      <c r="U43" s="374"/>
+      <c r="V43" s="374" t="s">
         <v>57</v>
       </c>
-      <c r="R43" s="282"/>
-      <c r="S43" s="282"/>
-      <c r="T43" s="282"/>
-      <c r="U43" s="282"/>
-      <c r="V43" s="282" t="s">
-        <v>58</v>
-      </c>
-      <c r="W43" s="282"/>
-      <c r="X43" s="282"/>
-      <c r="Y43" s="282"/>
-      <c r="Z43" s="282"/>
-      <c r="AA43" s="282"/>
-      <c r="AB43" s="282"/>
-      <c r="AC43" s="282"/>
+      <c r="W43" s="374"/>
+      <c r="X43" s="374"/>
+      <c r="Y43" s="374"/>
+      <c r="Z43" s="374"/>
+      <c r="AA43" s="374"/>
+      <c r="AB43" s="374"/>
+      <c r="AC43" s="374"/>
       <c r="AD43" s="96"/>
       <c r="AE43" s="96"/>
       <c r="AF43" s="96"/>
@@ -7604,39 +7615,39 @@
       <c r="D44" s="98">
         <v>1</v>
       </c>
-      <c r="E44" s="283" t="s">
+      <c r="E44" s="375" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="283"/>
-      <c r="G44" s="283"/>
-      <c r="H44" s="283"/>
-      <c r="I44" s="283"/>
-      <c r="J44" s="283"/>
-      <c r="K44" s="283"/>
-      <c r="L44" s="283"/>
-      <c r="M44" s="283"/>
-      <c r="N44" s="283" t="s">
+      <c r="F44" s="375"/>
+      <c r="G44" s="375"/>
+      <c r="H44" s="375"/>
+      <c r="I44" s="375"/>
+      <c r="J44" s="375"/>
+      <c r="K44" s="375"/>
+      <c r="L44" s="375"/>
+      <c r="M44" s="375"/>
+      <c r="N44" s="375" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="283"/>
-      <c r="P44" s="283"/>
-      <c r="Q44" s="315" t="s">
+      <c r="O44" s="375"/>
+      <c r="P44" s="375"/>
+      <c r="Q44" s="332" t="s">
         <v>39</v>
       </c>
-      <c r="R44" s="315"/>
-      <c r="S44" s="315"/>
-      <c r="T44" s="315"/>
-      <c r="U44" s="315"/>
-      <c r="V44" s="315" t="s">
+      <c r="R44" s="332"/>
+      <c r="S44" s="332"/>
+      <c r="T44" s="332"/>
+      <c r="U44" s="332"/>
+      <c r="V44" s="332" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="315"/>
-      <c r="X44" s="315"/>
-      <c r="Y44" s="315"/>
-      <c r="Z44" s="315"/>
-      <c r="AA44" s="315"/>
-      <c r="AB44" s="315"/>
-      <c r="AC44" s="315"/>
+      <c r="W44" s="332"/>
+      <c r="X44" s="332"/>
+      <c r="Y44" s="332"/>
+      <c r="Z44" s="332"/>
+      <c r="AA44" s="332"/>
+      <c r="AB44" s="332"/>
+      <c r="AC44" s="332"/>
       <c r="AM44" s="40"/>
     </row>
     <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7673,7 +7684,7 @@
     </row>
     <row r="47" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C47" s="54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK47" s="81"/>
       <c r="AL47" s="81"/>
@@ -7713,38 +7724,38 @@
       <c r="AZ48" s="49"/>
     </row>
     <row r="49" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="309" t="s">
+      <c r="D49" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="306" t="s">
+      <c r="E49" s="363" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="364"/>
+      <c r="G49" s="364"/>
+      <c r="H49" s="364"/>
+      <c r="I49" s="364"/>
+      <c r="J49" s="364"/>
+      <c r="K49" s="364"/>
+      <c r="L49" s="364"/>
+      <c r="M49" s="364"/>
+      <c r="N49" s="364"/>
+      <c r="O49" s="364"/>
+      <c r="P49" s="364"/>
+      <c r="Q49" s="364"/>
+      <c r="R49" s="364"/>
+      <c r="S49" s="364"/>
+      <c r="T49" s="364"/>
+      <c r="U49" s="364"/>
+      <c r="V49" s="364"/>
+      <c r="W49" s="364"/>
+      <c r="X49" s="364"/>
+      <c r="Y49" s="364"/>
+      <c r="Z49" s="364"/>
+      <c r="AA49" s="364"/>
+      <c r="AB49" s="364"/>
+      <c r="AC49" s="365"/>
+      <c r="AD49" s="265" t="s">
         <v>59</v>
-      </c>
-      <c r="F49" s="307"/>
-      <c r="G49" s="307"/>
-      <c r="H49" s="307"/>
-      <c r="I49" s="307"/>
-      <c r="J49" s="307"/>
-      <c r="K49" s="307"/>
-      <c r="L49" s="307"/>
-      <c r="M49" s="307"/>
-      <c r="N49" s="307"/>
-      <c r="O49" s="307"/>
-      <c r="P49" s="307"/>
-      <c r="Q49" s="307"/>
-      <c r="R49" s="307"/>
-      <c r="S49" s="307"/>
-      <c r="T49" s="307"/>
-      <c r="U49" s="307"/>
-      <c r="V49" s="307"/>
-      <c r="W49" s="307"/>
-      <c r="X49" s="307"/>
-      <c r="Y49" s="307"/>
-      <c r="Z49" s="307"/>
-      <c r="AA49" s="307"/>
-      <c r="AB49" s="307"/>
-      <c r="AC49" s="308"/>
-      <c r="AD49" s="265" t="s">
-        <v>60</v>
       </c>
       <c r="AE49" s="266"/>
       <c r="AF49" s="266"/>
@@ -7753,50 +7764,50 @@
       <c r="AI49" s="49"/>
       <c r="AJ49" s="49"/>
       <c r="AK49" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL49" s="49"/>
       <c r="AM49" s="49"/>
       <c r="AN49" s="49"/>
     </row>
     <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="331"/>
+      <c r="D50" s="333"/>
       <c r="E50" s="265" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F50" s="266"/>
       <c r="G50" s="266"/>
       <c r="H50" s="267"/>
-      <c r="I50" s="300" t="s">
+      <c r="I50" s="334" t="s">
+        <v>62</v>
+      </c>
+      <c r="J50" s="335"/>
+      <c r="K50" s="335"/>
+      <c r="L50" s="336"/>
+      <c r="M50" s="334" t="s">
         <v>63</v>
       </c>
-      <c r="J50" s="301"/>
-      <c r="K50" s="301"/>
-      <c r="L50" s="302"/>
-      <c r="M50" s="300" t="s">
+      <c r="N50" s="335"/>
+      <c r="O50" s="335"/>
+      <c r="P50" s="335"/>
+      <c r="Q50" s="335"/>
+      <c r="R50" s="335"/>
+      <c r="S50" s="335"/>
+      <c r="T50" s="336"/>
+      <c r="U50" s="265" t="s">
         <v>64</v>
-      </c>
-      <c r="N50" s="301"/>
-      <c r="O50" s="301"/>
-      <c r="P50" s="301"/>
-      <c r="Q50" s="301"/>
-      <c r="R50" s="301"/>
-      <c r="S50" s="301"/>
-      <c r="T50" s="302"/>
-      <c r="U50" s="265" t="s">
-        <v>65</v>
       </c>
       <c r="V50" s="266"/>
       <c r="W50" s="266"/>
       <c r="X50" s="266"/>
       <c r="Y50" s="267"/>
       <c r="Z50" s="265" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA50" s="266"/>
       <c r="AB50" s="267"/>
-      <c r="AC50" s="309" t="s">
-        <v>176</v>
+      <c r="AC50" s="289" t="s">
+        <v>175</v>
       </c>
       <c r="AD50" s="268"/>
       <c r="AE50" s="269"/>
@@ -7817,23 +7828,23 @@
       <c r="AT50" s="49"/>
     </row>
     <row r="51" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="310"/>
+      <c r="D51" s="290"/>
       <c r="E51" s="271"/>
       <c r="F51" s="272"/>
       <c r="G51" s="272"/>
       <c r="H51" s="273"/>
-      <c r="I51" s="303"/>
-      <c r="J51" s="304"/>
-      <c r="K51" s="304"/>
-      <c r="L51" s="305"/>
-      <c r="M51" s="303"/>
-      <c r="N51" s="304"/>
-      <c r="O51" s="304"/>
-      <c r="P51" s="304"/>
-      <c r="Q51" s="304"/>
-      <c r="R51" s="304"/>
-      <c r="S51" s="304"/>
-      <c r="T51" s="305"/>
+      <c r="I51" s="337"/>
+      <c r="J51" s="338"/>
+      <c r="K51" s="338"/>
+      <c r="L51" s="339"/>
+      <c r="M51" s="337"/>
+      <c r="N51" s="338"/>
+      <c r="O51" s="338"/>
+      <c r="P51" s="338"/>
+      <c r="Q51" s="338"/>
+      <c r="R51" s="338"/>
+      <c r="S51" s="338"/>
+      <c r="T51" s="339"/>
       <c r="U51" s="271"/>
       <c r="V51" s="272"/>
       <c r="W51" s="272"/>
@@ -7842,7 +7853,7 @@
       <c r="Z51" s="271"/>
       <c r="AA51" s="272"/>
       <c r="AB51" s="273"/>
-      <c r="AC51" s="310"/>
+      <c r="AC51" s="290"/>
       <c r="AD51" s="271"/>
       <c r="AE51" s="272"/>
       <c r="AF51" s="272"/>
@@ -7852,7 +7863,7 @@
       <c r="AJ51" s="49"/>
       <c r="AK51" s="49"/>
       <c r="AL51" s="101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AM51" s="102"/>
       <c r="AN51" s="102"/>
@@ -7868,54 +7879,54 @@
         <v>1</v>
       </c>
       <c r="E52" s="277" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F52" s="278"/>
       <c r="G52" s="278"/>
-      <c r="H52" s="299"/>
-      <c r="I52" s="298" t="s">
+      <c r="H52" s="366"/>
+      <c r="I52" s="367" t="s">
+        <v>68</v>
+      </c>
+      <c r="J52" s="367"/>
+      <c r="K52" s="367"/>
+      <c r="L52" s="367"/>
+      <c r="M52" s="380" t="s">
+        <v>39</v>
+      </c>
+      <c r="N52" s="380"/>
+      <c r="O52" s="380"/>
+      <c r="P52" s="380"/>
+      <c r="Q52" s="380"/>
+      <c r="R52" s="380"/>
+      <c r="S52" s="380"/>
+      <c r="T52" s="380"/>
+      <c r="U52" s="356" t="s">
+        <v>39</v>
+      </c>
+      <c r="V52" s="356"/>
+      <c r="W52" s="356"/>
+      <c r="X52" s="356"/>
+      <c r="Y52" s="356"/>
+      <c r="Z52" s="356" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA52" s="356"/>
+      <c r="AB52" s="356"/>
+      <c r="AC52" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="J52" s="298"/>
-      <c r="K52" s="298"/>
-      <c r="L52" s="298"/>
-      <c r="M52" s="314" t="s">
-        <v>39</v>
-      </c>
-      <c r="N52" s="314"/>
-      <c r="O52" s="314"/>
-      <c r="P52" s="314"/>
-      <c r="Q52" s="314"/>
-      <c r="R52" s="314"/>
-      <c r="S52" s="314"/>
-      <c r="T52" s="314"/>
-      <c r="U52" s="294" t="s">
-        <v>39</v>
-      </c>
-      <c r="V52" s="294"/>
-      <c r="W52" s="294"/>
-      <c r="X52" s="294"/>
-      <c r="Y52" s="294"/>
-      <c r="Z52" s="294" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA52" s="294"/>
-      <c r="AB52" s="294"/>
-      <c r="AC52" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD52" s="295" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE52" s="296"/>
-      <c r="AF52" s="296"/>
-      <c r="AG52" s="297"/>
+      <c r="AD52" s="350" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE52" s="287"/>
+      <c r="AF52" s="287"/>
+      <c r="AG52" s="288"/>
       <c r="AH52" s="49"/>
       <c r="AI52" s="49"/>
       <c r="AJ52" s="49"/>
       <c r="AK52" s="49"/>
       <c r="AL52" s="91" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AM52" s="92"/>
       <c r="AN52" s="92"/>
@@ -7931,54 +7942,54 @@
         <v>2</v>
       </c>
       <c r="E53" s="277" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F53" s="278"/>
       <c r="G53" s="278"/>
-      <c r="H53" s="299"/>
-      <c r="I53" s="298" t="s">
+      <c r="H53" s="366"/>
+      <c r="I53" s="367" t="s">
+        <v>72</v>
+      </c>
+      <c r="J53" s="367"/>
+      <c r="K53" s="367"/>
+      <c r="L53" s="367"/>
+      <c r="M53" s="312" t="s">
+        <v>39</v>
+      </c>
+      <c r="N53" s="313"/>
+      <c r="O53" s="313"/>
+      <c r="P53" s="313"/>
+      <c r="Q53" s="313"/>
+      <c r="R53" s="313"/>
+      <c r="S53" s="313"/>
+      <c r="T53" s="314"/>
+      <c r="U53" s="350" t="s">
         <v>73</v>
       </c>
-      <c r="J53" s="298"/>
-      <c r="K53" s="298"/>
-      <c r="L53" s="298"/>
-      <c r="M53" s="311" t="s">
+      <c r="V53" s="287"/>
+      <c r="W53" s="287"/>
+      <c r="X53" s="287"/>
+      <c r="Y53" s="288"/>
+      <c r="Z53" s="356" t="s">
         <v>39</v>
       </c>
-      <c r="N53" s="312"/>
-      <c r="O53" s="312"/>
-      <c r="P53" s="312"/>
-      <c r="Q53" s="312"/>
-      <c r="R53" s="312"/>
-      <c r="S53" s="312"/>
-      <c r="T53" s="313"/>
-      <c r="U53" s="295" t="s">
+      <c r="AA53" s="356"/>
+      <c r="AB53" s="356"/>
+      <c r="AC53" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD53" s="350" t="s">
         <v>74</v>
       </c>
-      <c r="V53" s="296"/>
-      <c r="W53" s="296"/>
-      <c r="X53" s="296"/>
-      <c r="Y53" s="297"/>
-      <c r="Z53" s="294" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA53" s="294"/>
-      <c r="AB53" s="294"/>
-      <c r="AC53" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD53" s="295" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE53" s="296"/>
-      <c r="AF53" s="296"/>
-      <c r="AG53" s="297"/>
+      <c r="AE53" s="287"/>
+      <c r="AF53" s="287"/>
+      <c r="AG53" s="288"/>
       <c r="AH53" s="49"/>
       <c r="AI53" s="49"/>
       <c r="AJ53" s="49"/>
       <c r="AK53" s="49"/>
       <c r="AL53" s="91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AM53" s="92"/>
       <c r="AN53" s="92"/>
@@ -8036,7 +8047,7 @@
     </row>
     <row r="56" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C56" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D56" s="106"/>
       <c r="E56" s="107"/>
@@ -8097,49 +8108,49 @@
       <c r="AW57" s="42"/>
     </row>
     <row r="58" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D58" s="332" t="s">
+      <c r="D58" s="340" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="286" t="s">
+      <c r="E58" s="342" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="343"/>
+      <c r="G58" s="343"/>
+      <c r="H58" s="343"/>
+      <c r="I58" s="343"/>
+      <c r="J58" s="344"/>
+      <c r="K58" s="342" t="s">
         <v>77</v>
       </c>
-      <c r="F58" s="287"/>
-      <c r="G58" s="287"/>
-      <c r="H58" s="287"/>
-      <c r="I58" s="287"/>
-      <c r="J58" s="288"/>
-      <c r="K58" s="286" t="s">
+      <c r="L58" s="343"/>
+      <c r="M58" s="343"/>
+      <c r="N58" s="344"/>
+      <c r="O58" s="376" t="s">
         <v>78</v>
       </c>
-      <c r="L58" s="287"/>
-      <c r="M58" s="287"/>
-      <c r="N58" s="288"/>
-      <c r="O58" s="284" t="s">
+      <c r="P58" s="110" t="s">
         <v>79</v>
-      </c>
-      <c r="P58" s="110" t="s">
-        <v>80</v>
       </c>
       <c r="Q58" s="111"/>
       <c r="R58" s="111"/>
       <c r="S58" s="111"/>
       <c r="T58" s="111"/>
       <c r="U58" s="111"/>
-      <c r="V58" s="286" t="s">
-        <v>58</v>
-      </c>
-      <c r="W58" s="287"/>
-      <c r="X58" s="287"/>
-      <c r="Y58" s="287"/>
-      <c r="Z58" s="287"/>
-      <c r="AA58" s="287"/>
-      <c r="AB58" s="287"/>
-      <c r="AC58" s="287"/>
-      <c r="AD58" s="287"/>
-      <c r="AE58" s="287"/>
-      <c r="AF58" s="287"/>
-      <c r="AG58" s="287"/>
-      <c r="AH58" s="288"/>
+      <c r="V58" s="342" t="s">
+        <v>57</v>
+      </c>
+      <c r="W58" s="343"/>
+      <c r="X58" s="343"/>
+      <c r="Y58" s="343"/>
+      <c r="Z58" s="343"/>
+      <c r="AA58" s="343"/>
+      <c r="AB58" s="343"/>
+      <c r="AC58" s="343"/>
+      <c r="AD58" s="343"/>
+      <c r="AE58" s="343"/>
+      <c r="AF58" s="343"/>
+      <c r="AG58" s="343"/>
+      <c r="AH58" s="344"/>
       <c r="AK58" s="42"/>
       <c r="AL58" s="42"/>
       <c r="AM58" s="42"/>
@@ -8155,47 +8166,47 @@
       <c r="AW58" s="42"/>
     </row>
     <row r="59" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D59" s="333"/>
-      <c r="E59" s="289"/>
-      <c r="F59" s="290"/>
-      <c r="G59" s="290"/>
-      <c r="H59" s="290"/>
-      <c r="I59" s="290"/>
-      <c r="J59" s="291"/>
-      <c r="K59" s="289"/>
-      <c r="L59" s="290"/>
-      <c r="M59" s="290"/>
-      <c r="N59" s="291"/>
-      <c r="O59" s="285"/>
+      <c r="D59" s="341"/>
+      <c r="E59" s="345"/>
+      <c r="F59" s="346"/>
+      <c r="G59" s="346"/>
+      <c r="H59" s="346"/>
+      <c r="I59" s="346"/>
+      <c r="J59" s="347"/>
+      <c r="K59" s="345"/>
+      <c r="L59" s="346"/>
+      <c r="M59" s="346"/>
+      <c r="N59" s="347"/>
+      <c r="O59" s="377"/>
       <c r="P59" s="112" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q59" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="Q59" s="112" t="s">
+      <c r="R59" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="R59" s="112" t="s">
+      <c r="S59" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="S59" s="112" t="s">
+      <c r="T59" s="378" t="s">
         <v>84</v>
       </c>
-      <c r="T59" s="292" t="s">
-        <v>85</v>
-      </c>
-      <c r="U59" s="293"/>
-      <c r="V59" s="289"/>
-      <c r="W59" s="290"/>
-      <c r="X59" s="290"/>
-      <c r="Y59" s="290"/>
-      <c r="Z59" s="290"/>
-      <c r="AA59" s="290"/>
-      <c r="AB59" s="290"/>
-      <c r="AC59" s="290"/>
-      <c r="AD59" s="290"/>
-      <c r="AE59" s="290"/>
-      <c r="AF59" s="290"/>
-      <c r="AG59" s="290"/>
-      <c r="AH59" s="291"/>
+      <c r="U59" s="379"/>
+      <c r="V59" s="345"/>
+      <c r="W59" s="346"/>
+      <c r="X59" s="346"/>
+      <c r="Y59" s="346"/>
+      <c r="Z59" s="346"/>
+      <c r="AA59" s="346"/>
+      <c r="AB59" s="346"/>
+      <c r="AC59" s="346"/>
+      <c r="AD59" s="346"/>
+      <c r="AE59" s="346"/>
+      <c r="AF59" s="346"/>
+      <c r="AG59" s="346"/>
+      <c r="AH59" s="347"/>
       <c r="AK59" s="42"/>
       <c r="AL59" s="42"/>
       <c r="AM59" s="42"/>
@@ -8214,54 +8225,54 @@
       <c r="D60" s="113">
         <v>1</v>
       </c>
-      <c r="E60" s="338" t="s">
+      <c r="E60" s="303" t="s">
+        <v>85</v>
+      </c>
+      <c r="F60" s="304"/>
+      <c r="G60" s="304"/>
+      <c r="H60" s="304"/>
+      <c r="I60" s="304"/>
+      <c r="J60" s="305"/>
+      <c r="K60" s="350" t="s">
         <v>86</v>
       </c>
-      <c r="F60" s="339"/>
-      <c r="G60" s="339"/>
-      <c r="H60" s="339"/>
-      <c r="I60" s="339"/>
-      <c r="J60" s="340"/>
-      <c r="K60" s="295" t="s">
+      <c r="L60" s="287"/>
+      <c r="M60" s="287"/>
+      <c r="N60" s="288"/>
+      <c r="O60" s="114" t="s">
         <v>87</v>
-      </c>
-      <c r="L60" s="296"/>
-      <c r="M60" s="296"/>
-      <c r="N60" s="297"/>
-      <c r="O60" s="114" t="s">
-        <v>88</v>
       </c>
       <c r="P60" s="115" t="s">
         <v>39</v>
       </c>
       <c r="Q60" s="115" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R60" s="115" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S60" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="T60" s="341" t="s">
+      <c r="T60" s="351" t="s">
         <v>39</v>
       </c>
-      <c r="U60" s="342"/>
-      <c r="V60" s="295" t="s">
+      <c r="U60" s="352"/>
+      <c r="V60" s="350" t="s">
         <v>39</v>
       </c>
-      <c r="W60" s="296"/>
-      <c r="X60" s="296"/>
-      <c r="Y60" s="296"/>
-      <c r="Z60" s="296"/>
-      <c r="AA60" s="296"/>
-      <c r="AB60" s="296"/>
-      <c r="AC60" s="296"/>
-      <c r="AD60" s="296"/>
-      <c r="AE60" s="296"/>
-      <c r="AF60" s="296"/>
-      <c r="AG60" s="296"/>
-      <c r="AH60" s="297"/>
+      <c r="W60" s="287"/>
+      <c r="X60" s="287"/>
+      <c r="Y60" s="287"/>
+      <c r="Z60" s="287"/>
+      <c r="AA60" s="287"/>
+      <c r="AB60" s="287"/>
+      <c r="AC60" s="287"/>
+      <c r="AD60" s="287"/>
+      <c r="AE60" s="287"/>
+      <c r="AF60" s="287"/>
+      <c r="AG60" s="287"/>
+      <c r="AH60" s="288"/>
       <c r="AK60" s="42"/>
       <c r="AL60" s="42"/>
       <c r="AM60" s="42"/>
@@ -8370,7 +8381,7 @@
     </row>
     <row r="63" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C63" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AS63" s="42"/>
       <c r="AT63" s="42"/>
@@ -8387,136 +8398,136 @@
       <c r="D65" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="E65" s="334" t="s">
+      <c r="E65" s="348" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" s="315"/>
+      <c r="G65" s="315"/>
+      <c r="H65" s="315"/>
+      <c r="I65" s="315"/>
+      <c r="J65" s="349"/>
+      <c r="K65" s="348" t="s">
         <v>89</v>
       </c>
-      <c r="F65" s="335"/>
-      <c r="G65" s="335"/>
-      <c r="H65" s="335"/>
-      <c r="I65" s="335"/>
-      <c r="J65" s="336"/>
-      <c r="K65" s="334" t="s">
+      <c r="L65" s="315"/>
+      <c r="M65" s="315"/>
+      <c r="N65" s="315"/>
+      <c r="O65" s="315"/>
+      <c r="P65" s="315"/>
+      <c r="Q65" s="316"/>
+      <c r="R65" s="274" t="s">
         <v>90</v>
       </c>
-      <c r="L65" s="335"/>
-      <c r="M65" s="335"/>
-      <c r="N65" s="335"/>
-      <c r="O65" s="335"/>
-      <c r="P65" s="335"/>
-      <c r="Q65" s="337"/>
-      <c r="R65" s="274" t="s">
+      <c r="S65" s="315"/>
+      <c r="T65" s="315"/>
+      <c r="U65" s="315"/>
+      <c r="V65" s="315"/>
+      <c r="W65" s="315"/>
+      <c r="X65" s="315"/>
+      <c r="Y65" s="316"/>
+      <c r="Z65" s="363" t="s">
         <v>91</v>
       </c>
-      <c r="S65" s="335"/>
-      <c r="T65" s="335"/>
-      <c r="U65" s="335"/>
-      <c r="V65" s="335"/>
-      <c r="W65" s="335"/>
-      <c r="X65" s="335"/>
-      <c r="Y65" s="337"/>
-      <c r="Z65" s="306" t="s">
+      <c r="AA65" s="364"/>
+      <c r="AB65" s="364"/>
+      <c r="AC65" s="364"/>
+      <c r="AD65" s="365"/>
+      <c r="AE65" s="360" t="s">
         <v>92</v>
       </c>
-      <c r="AA65" s="307"/>
-      <c r="AB65" s="307"/>
-      <c r="AC65" s="307"/>
-      <c r="AD65" s="308"/>
-      <c r="AE65" s="325" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF65" s="326"/>
-      <c r="AG65" s="326"/>
-      <c r="AH65" s="327"/>
+      <c r="AF65" s="361"/>
+      <c r="AG65" s="361"/>
+      <c r="AH65" s="362"/>
     </row>
     <row r="66" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D66" s="121">
         <v>1</v>
       </c>
-      <c r="E66" s="328" t="s">
+      <c r="E66" s="353" t="s">
+        <v>93</v>
+      </c>
+      <c r="F66" s="354"/>
+      <c r="G66" s="354"/>
+      <c r="H66" s="354"/>
+      <c r="I66" s="354"/>
+      <c r="J66" s="355"/>
+      <c r="K66" s="350" t="s">
+        <v>39</v>
+      </c>
+      <c r="L66" s="287"/>
+      <c r="M66" s="287"/>
+      <c r="N66" s="287"/>
+      <c r="O66" s="287"/>
+      <c r="P66" s="287"/>
+      <c r="Q66" s="288"/>
+      <c r="R66" s="350" t="s">
         <v>94</v>
       </c>
-      <c r="F66" s="329"/>
-      <c r="G66" s="329"/>
-      <c r="H66" s="329"/>
-      <c r="I66" s="329"/>
-      <c r="J66" s="330"/>
-      <c r="K66" s="295" t="s">
+      <c r="S66" s="287"/>
+      <c r="T66" s="287"/>
+      <c r="U66" s="287"/>
+      <c r="V66" s="287"/>
+      <c r="W66" s="287"/>
+      <c r="X66" s="287"/>
+      <c r="Y66" s="288"/>
+      <c r="Z66" s="350" t="s">
         <v>39</v>
       </c>
-      <c r="L66" s="296"/>
-      <c r="M66" s="296"/>
-      <c r="N66" s="296"/>
-      <c r="O66" s="296"/>
-      <c r="P66" s="296"/>
-      <c r="Q66" s="297"/>
-      <c r="R66" s="295" t="s">
+      <c r="AA66" s="287"/>
+      <c r="AB66" s="287"/>
+      <c r="AC66" s="287"/>
+      <c r="AD66" s="288"/>
+      <c r="AE66" s="357" t="s">
         <v>95</v>
       </c>
-      <c r="S66" s="296"/>
-      <c r="T66" s="296"/>
-      <c r="U66" s="296"/>
-      <c r="V66" s="296"/>
-      <c r="W66" s="296"/>
-      <c r="X66" s="296"/>
-      <c r="Y66" s="297"/>
-      <c r="Z66" s="295" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA66" s="296"/>
-      <c r="AB66" s="296"/>
-      <c r="AC66" s="296"/>
-      <c r="AD66" s="297"/>
-      <c r="AE66" s="322" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF66" s="323"/>
-      <c r="AG66" s="323"/>
-      <c r="AH66" s="324"/>
+      <c r="AF66" s="358"/>
+      <c r="AG66" s="358"/>
+      <c r="AH66" s="359"/>
     </row>
     <row r="67" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D67" s="121">
         <v>2</v>
       </c>
-      <c r="E67" s="328" t="s">
-        <v>51</v>
-      </c>
-      <c r="F67" s="329"/>
-      <c r="G67" s="329"/>
-      <c r="H67" s="329"/>
-      <c r="I67" s="329"/>
-      <c r="J67" s="330"/>
-      <c r="K67" s="295" t="s">
+      <c r="E67" s="353" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67" s="354"/>
+      <c r="G67" s="354"/>
+      <c r="H67" s="354"/>
+      <c r="I67" s="354"/>
+      <c r="J67" s="355"/>
+      <c r="K67" s="350" t="s">
+        <v>96</v>
+      </c>
+      <c r="L67" s="287"/>
+      <c r="M67" s="287"/>
+      <c r="N67" s="287"/>
+      <c r="O67" s="287"/>
+      <c r="P67" s="287"/>
+      <c r="Q67" s="288"/>
+      <c r="R67" s="350" t="s">
         <v>97</v>
       </c>
-      <c r="L67" s="296"/>
-      <c r="M67" s="296"/>
-      <c r="N67" s="296"/>
-      <c r="O67" s="296"/>
-      <c r="P67" s="296"/>
-      <c r="Q67" s="297"/>
-      <c r="R67" s="295" t="s">
+      <c r="S67" s="287"/>
+      <c r="T67" s="287"/>
+      <c r="U67" s="287"/>
+      <c r="V67" s="287"/>
+      <c r="W67" s="287"/>
+      <c r="X67" s="287"/>
+      <c r="Y67" s="288"/>
+      <c r="Z67" s="350" t="s">
         <v>98</v>
       </c>
-      <c r="S67" s="296"/>
-      <c r="T67" s="296"/>
-      <c r="U67" s="296"/>
-      <c r="V67" s="296"/>
-      <c r="W67" s="296"/>
-      <c r="X67" s="296"/>
-      <c r="Y67" s="297"/>
-      <c r="Z67" s="295" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA67" s="296"/>
-      <c r="AB67" s="296"/>
-      <c r="AC67" s="296"/>
-      <c r="AD67" s="297"/>
-      <c r="AE67" s="322" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF67" s="323"/>
-      <c r="AG67" s="323"/>
-      <c r="AH67" s="324"/>
+      <c r="AA67" s="287"/>
+      <c r="AB67" s="287"/>
+      <c r="AC67" s="287"/>
+      <c r="AD67" s="288"/>
+      <c r="AE67" s="357" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF67" s="358"/>
+      <c r="AG67" s="358"/>
+      <c r="AH67" s="359"/>
     </row>
     <row r="68" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D68" s="122"/>
@@ -8608,7 +8619,7 @@
     </row>
     <row r="70" spans="1:58" x14ac:dyDescent="0.2">
       <c r="C70" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D70" s="124"/>
       <c r="E70" s="124"/>
@@ -8635,7 +8646,7 @@
     <row r="71" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="42"/>
       <c r="D71" s="124" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E71" s="124"/>
       <c r="AP71" s="42"/>
@@ -8678,7 +8689,7 @@
       <c r="C73" s="38"/>
       <c r="D73" s="124"/>
       <c r="E73" s="124" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP73" s="38"/>
     </row>
@@ -8693,7 +8704,7 @@
       <c r="D75" s="124"/>
       <c r="E75" s="124"/>
       <c r="F75" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP75" s="42"/>
     </row>
@@ -8761,7 +8772,7 @@
     </row>
     <row r="78" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E78" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G78" s="44"/>
       <c r="AJ78" s="128"/>
@@ -8817,7 +8828,7 @@
     <row r="80" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E80" s="66"/>
       <c r="F80" s="66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ80" s="128"/>
       <c r="AK80" s="128"/>
@@ -8900,7 +8911,7 @@
     <row r="83" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="42"/>
       <c r="D83" s="124" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E83" s="124"/>
       <c r="AP83" s="42"/>
@@ -8943,7 +8954,7 @@
       <c r="C85" s="38"/>
       <c r="D85" s="124"/>
       <c r="E85" s="124" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP85" s="38"/>
     </row>
@@ -8960,42 +8971,42 @@
         <v>30</v>
       </c>
       <c r="G87" s="274" t="s">
+        <v>104</v>
+      </c>
+      <c r="H87" s="315"/>
+      <c r="I87" s="315"/>
+      <c r="J87" s="315"/>
+      <c r="K87" s="315"/>
+      <c r="L87" s="316"/>
+      <c r="M87" s="274" t="s">
         <v>105</v>
       </c>
-      <c r="H87" s="335"/>
-      <c r="I87" s="335"/>
-      <c r="J87" s="335"/>
-      <c r="K87" s="335"/>
-      <c r="L87" s="337"/>
-      <c r="M87" s="274" t="s">
+      <c r="N87" s="315"/>
+      <c r="O87" s="315"/>
+      <c r="P87" s="315"/>
+      <c r="Q87" s="315"/>
+      <c r="R87" s="315"/>
+      <c r="S87" s="315"/>
+      <c r="T87" s="315"/>
+      <c r="U87" s="315"/>
+      <c r="V87" s="316"/>
+      <c r="W87" s="326" t="s">
         <v>106</v>
       </c>
-      <c r="N87" s="335"/>
-      <c r="O87" s="335"/>
-      <c r="P87" s="335"/>
-      <c r="Q87" s="335"/>
-      <c r="R87" s="335"/>
-      <c r="S87" s="335"/>
-      <c r="T87" s="335"/>
-      <c r="U87" s="335"/>
-      <c r="V87" s="337"/>
-      <c r="W87" s="364" t="s">
+      <c r="X87" s="327"/>
+      <c r="Y87" s="328"/>
+      <c r="Z87" s="326" t="s">
         <v>107</v>
       </c>
-      <c r="X87" s="365"/>
-      <c r="Y87" s="366"/>
-      <c r="Z87" s="364" t="s">
+      <c r="AA87" s="327"/>
+      <c r="AB87" s="327"/>
+      <c r="AC87" s="328"/>
+      <c r="AD87" s="309" t="s">
         <v>108</v>
       </c>
-      <c r="AA87" s="365"/>
-      <c r="AB87" s="365"/>
-      <c r="AC87" s="366"/>
-      <c r="AD87" s="352" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE87" s="353"/>
-      <c r="AF87" s="353"/>
-      <c r="AG87" s="354"/>
+      <c r="AE87" s="310"/>
+      <c r="AF87" s="310"/>
+      <c r="AG87" s="311"/>
       <c r="AJ87" s="127"/>
       <c r="AK87" s="127"/>
       <c r="AL87" s="127"/>
@@ -9025,43 +9036,43 @@
       <c r="F88" s="131">
         <v>1</v>
       </c>
-      <c r="G88" s="311" t="s">
+      <c r="G88" s="312" t="s">
+        <v>109</v>
+      </c>
+      <c r="H88" s="313"/>
+      <c r="I88" s="313"/>
+      <c r="J88" s="313"/>
+      <c r="K88" s="313"/>
+      <c r="L88" s="314"/>
+      <c r="M88" s="312" t="s">
         <v>110</v>
       </c>
-      <c r="H88" s="312"/>
-      <c r="I88" s="312"/>
-      <c r="J88" s="312"/>
-      <c r="K88" s="312"/>
-      <c r="L88" s="313"/>
-      <c r="M88" s="311" t="s">
+      <c r="N88" s="313"/>
+      <c r="O88" s="313"/>
+      <c r="P88" s="313"/>
+      <c r="Q88" s="313"/>
+      <c r="R88" s="313"/>
+      <c r="S88" s="313"/>
+      <c r="T88" s="313"/>
+      <c r="U88" s="313"/>
+      <c r="V88" s="314"/>
+      <c r="W88" s="317" t="s">
         <v>111</v>
       </c>
-      <c r="N88" s="312"/>
-      <c r="O88" s="312"/>
-      <c r="P88" s="312"/>
-      <c r="Q88" s="312"/>
-      <c r="R88" s="312"/>
-      <c r="S88" s="312"/>
-      <c r="T88" s="312"/>
-      <c r="U88" s="312"/>
-      <c r="V88" s="313"/>
-      <c r="W88" s="355" t="s">
+      <c r="X88" s="318"/>
+      <c r="Y88" s="319"/>
+      <c r="Z88" s="323" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA88" s="324"/>
+      <c r="AB88" s="324"/>
+      <c r="AC88" s="325"/>
+      <c r="AD88" s="312" t="s">
         <v>112</v>
       </c>
-      <c r="X88" s="356"/>
-      <c r="Y88" s="357"/>
-      <c r="Z88" s="361" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA88" s="362"/>
-      <c r="AB88" s="362"/>
-      <c r="AC88" s="363"/>
-      <c r="AD88" s="311" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE88" s="312"/>
-      <c r="AF88" s="312"/>
-      <c r="AG88" s="313"/>
+      <c r="AE88" s="313"/>
+      <c r="AF88" s="313"/>
+      <c r="AG88" s="314"/>
       <c r="AI88" s="127"/>
       <c r="AJ88" s="127"/>
       <c r="AK88" s="127"/>
@@ -9146,7 +9157,7 @@
       <c r="D90" s="38"/>
       <c r="E90" s="124"/>
       <c r="F90" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -9199,81 +9210,81 @@
     </row>
     <row r="94" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E94" s="54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F95" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="5:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G97" s="294" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="97" spans="5:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G97" s="367" t="s">
+      <c r="H97" s="295"/>
+      <c r="I97" s="295"/>
+      <c r="J97" s="295"/>
+      <c r="K97" s="295"/>
+      <c r="L97" s="295"/>
+      <c r="M97" s="295"/>
+      <c r="N97" s="295"/>
+      <c r="O97" s="295"/>
+      <c r="P97" s="296"/>
+      <c r="Q97" s="329" t="s">
         <v>117</v>
       </c>
-      <c r="H97" s="368"/>
-      <c r="I97" s="368"/>
-      <c r="J97" s="368"/>
-      <c r="K97" s="368"/>
-      <c r="L97" s="368"/>
-      <c r="M97" s="368"/>
-      <c r="N97" s="368"/>
-      <c r="O97" s="368"/>
-      <c r="P97" s="369"/>
-      <c r="Q97" s="370" t="s">
-        <v>118</v>
-      </c>
-      <c r="R97" s="371"/>
-      <c r="S97" s="371"/>
-      <c r="T97" s="371"/>
-      <c r="U97" s="371"/>
-      <c r="V97" s="371"/>
-      <c r="W97" s="371"/>
-      <c r="X97" s="371"/>
-      <c r="Y97" s="371"/>
-      <c r="Z97" s="372"/>
+      <c r="R97" s="330"/>
+      <c r="S97" s="330"/>
+      <c r="T97" s="330"/>
+      <c r="U97" s="330"/>
+      <c r="V97" s="330"/>
+      <c r="W97" s="330"/>
+      <c r="X97" s="330"/>
+      <c r="Y97" s="330"/>
+      <c r="Z97" s="331"/>
     </row>
     <row r="98" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G98" s="343" t="s">
-        <v>86</v>
-      </c>
-      <c r="H98" s="344"/>
-      <c r="I98" s="344"/>
-      <c r="J98" s="344"/>
-      <c r="K98" s="344"/>
-      <c r="L98" s="344"/>
-      <c r="M98" s="344"/>
-      <c r="N98" s="344"/>
-      <c r="O98" s="344"/>
-      <c r="P98" s="345"/>
-      <c r="Q98" s="338" t="s">
-        <v>68</v>
-      </c>
-      <c r="R98" s="339"/>
-      <c r="S98" s="339"/>
-      <c r="T98" s="339"/>
-      <c r="U98" s="339"/>
-      <c r="V98" s="339"/>
-      <c r="W98" s="339"/>
-      <c r="X98" s="339"/>
-      <c r="Y98" s="339"/>
-      <c r="Z98" s="340"/>
+      <c r="G98" s="297" t="s">
+        <v>85</v>
+      </c>
+      <c r="H98" s="298"/>
+      <c r="I98" s="298"/>
+      <c r="J98" s="298"/>
+      <c r="K98" s="298"/>
+      <c r="L98" s="298"/>
+      <c r="M98" s="298"/>
+      <c r="N98" s="298"/>
+      <c r="O98" s="298"/>
+      <c r="P98" s="299"/>
+      <c r="Q98" s="303" t="s">
+        <v>67</v>
+      </c>
+      <c r="R98" s="304"/>
+      <c r="S98" s="304"/>
+      <c r="T98" s="304"/>
+      <c r="U98" s="304"/>
+      <c r="V98" s="304"/>
+      <c r="W98" s="304"/>
+      <c r="X98" s="304"/>
+      <c r="Y98" s="304"/>
+      <c r="Z98" s="305"/>
       <c r="AG98" s="132"/>
       <c r="AH98" s="132"/>
     </row>
     <row r="99" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G99" s="346"/>
-      <c r="H99" s="347"/>
-      <c r="I99" s="347"/>
-      <c r="J99" s="347"/>
-      <c r="K99" s="347"/>
-      <c r="L99" s="347"/>
-      <c r="M99" s="347"/>
-      <c r="N99" s="347"/>
-      <c r="O99" s="347"/>
-      <c r="P99" s="348"/>
+      <c r="G99" s="300"/>
+      <c r="H99" s="301"/>
+      <c r="I99" s="301"/>
+      <c r="J99" s="301"/>
+      <c r="K99" s="301"/>
+      <c r="L99" s="301"/>
+      <c r="M99" s="301"/>
+      <c r="N99" s="301"/>
+      <c r="O99" s="301"/>
+      <c r="P99" s="302"/>
       <c r="Q99" s="133" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R99" s="134"/>
       <c r="S99" s="134"/>
@@ -9288,18 +9299,18 @@
       <c r="AH99" s="132"/>
     </row>
     <row r="100" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G100" s="346"/>
-      <c r="H100" s="347"/>
-      <c r="I100" s="347"/>
-      <c r="J100" s="347"/>
-      <c r="K100" s="347"/>
-      <c r="L100" s="347"/>
-      <c r="M100" s="347"/>
-      <c r="N100" s="347"/>
-      <c r="O100" s="347"/>
-      <c r="P100" s="348"/>
+      <c r="G100" s="300"/>
+      <c r="H100" s="301"/>
+      <c r="I100" s="301"/>
+      <c r="J100" s="301"/>
+      <c r="K100" s="301"/>
+      <c r="L100" s="301"/>
+      <c r="M100" s="301"/>
+      <c r="N100" s="301"/>
+      <c r="O100" s="301"/>
+      <c r="P100" s="302"/>
       <c r="Q100" s="133" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R100" s="134"/>
       <c r="S100" s="134"/>
@@ -9314,18 +9325,18 @@
       <c r="AH100" s="132"/>
     </row>
     <row r="101" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G101" s="346"/>
-      <c r="H101" s="347"/>
-      <c r="I101" s="347"/>
-      <c r="J101" s="347"/>
-      <c r="K101" s="347"/>
-      <c r="L101" s="347"/>
-      <c r="M101" s="347"/>
-      <c r="N101" s="347"/>
-      <c r="O101" s="347"/>
-      <c r="P101" s="348"/>
+      <c r="G101" s="300"/>
+      <c r="H101" s="301"/>
+      <c r="I101" s="301"/>
+      <c r="J101" s="301"/>
+      <c r="K101" s="301"/>
+      <c r="L101" s="301"/>
+      <c r="M101" s="301"/>
+      <c r="N101" s="301"/>
+      <c r="O101" s="301"/>
+      <c r="P101" s="302"/>
       <c r="Q101" s="133" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R101" s="134"/>
       <c r="S101" s="134"/>
@@ -9340,54 +9351,54 @@
       <c r="AH101" s="132"/>
     </row>
     <row r="102" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G102" s="346"/>
-      <c r="H102" s="347"/>
-      <c r="I102" s="347"/>
-      <c r="J102" s="347"/>
-      <c r="K102" s="347"/>
-      <c r="L102" s="347"/>
-      <c r="M102" s="347"/>
-      <c r="N102" s="347"/>
-      <c r="O102" s="347"/>
-      <c r="P102" s="348"/>
-      <c r="Q102" s="338" t="s">
-        <v>121</v>
-      </c>
-      <c r="R102" s="339"/>
-      <c r="S102" s="339"/>
-      <c r="T102" s="339"/>
-      <c r="U102" s="339"/>
-      <c r="V102" s="339"/>
-      <c r="W102" s="339"/>
-      <c r="X102" s="339"/>
-      <c r="Y102" s="339"/>
-      <c r="Z102" s="340"/>
+      <c r="G102" s="300"/>
+      <c r="H102" s="301"/>
+      <c r="I102" s="301"/>
+      <c r="J102" s="301"/>
+      <c r="K102" s="301"/>
+      <c r="L102" s="301"/>
+      <c r="M102" s="301"/>
+      <c r="N102" s="301"/>
+      <c r="O102" s="301"/>
+      <c r="P102" s="302"/>
+      <c r="Q102" s="303" t="s">
+        <v>120</v>
+      </c>
+      <c r="R102" s="304"/>
+      <c r="S102" s="304"/>
+      <c r="T102" s="304"/>
+      <c r="U102" s="304"/>
+      <c r="V102" s="304"/>
+      <c r="W102" s="304"/>
+      <c r="X102" s="304"/>
+      <c r="Y102" s="304"/>
+      <c r="Z102" s="305"/>
       <c r="AG102" s="132"/>
       <c r="AH102" s="132"/>
     </row>
     <row r="103" spans="5:58" x14ac:dyDescent="0.2">
-      <c r="G103" s="346"/>
-      <c r="H103" s="347"/>
-      <c r="I103" s="347"/>
-      <c r="J103" s="347"/>
-      <c r="K103" s="347"/>
-      <c r="L103" s="347"/>
-      <c r="M103" s="347"/>
-      <c r="N103" s="347"/>
-      <c r="O103" s="347"/>
-      <c r="P103" s="348"/>
-      <c r="Q103" s="338" t="s">
-        <v>122</v>
-      </c>
-      <c r="R103" s="339"/>
-      <c r="S103" s="339"/>
-      <c r="T103" s="339"/>
-      <c r="U103" s="339"/>
-      <c r="V103" s="339"/>
-      <c r="W103" s="339"/>
-      <c r="X103" s="339"/>
-      <c r="Y103" s="339"/>
-      <c r="Z103" s="340"/>
+      <c r="G103" s="300"/>
+      <c r="H103" s="301"/>
+      <c r="I103" s="301"/>
+      <c r="J103" s="301"/>
+      <c r="K103" s="301"/>
+      <c r="L103" s="301"/>
+      <c r="M103" s="301"/>
+      <c r="N103" s="301"/>
+      <c r="O103" s="301"/>
+      <c r="P103" s="302"/>
+      <c r="Q103" s="303" t="s">
+        <v>121</v>
+      </c>
+      <c r="R103" s="304"/>
+      <c r="S103" s="304"/>
+      <c r="T103" s="304"/>
+      <c r="U103" s="304"/>
+      <c r="V103" s="304"/>
+      <c r="W103" s="304"/>
+      <c r="X103" s="304"/>
+      <c r="Y103" s="304"/>
+      <c r="Z103" s="305"/>
       <c r="AC103" s="128"/>
       <c r="AD103" s="128"/>
       <c r="AE103" s="128"/>
@@ -9406,30 +9417,30 @@
       <c r="AY103" s="128"/>
     </row>
     <row r="104" spans="5:58" x14ac:dyDescent="0.2">
-      <c r="G104" s="343" t="s">
+      <c r="G104" s="297" t="s">
+        <v>122</v>
+      </c>
+      <c r="H104" s="298"/>
+      <c r="I104" s="298"/>
+      <c r="J104" s="298"/>
+      <c r="K104" s="298"/>
+      <c r="L104" s="298"/>
+      <c r="M104" s="298"/>
+      <c r="N104" s="298"/>
+      <c r="O104" s="298"/>
+      <c r="P104" s="299"/>
+      <c r="Q104" s="303" t="s">
         <v>123</v>
       </c>
-      <c r="H104" s="344"/>
-      <c r="I104" s="344"/>
-      <c r="J104" s="344"/>
-      <c r="K104" s="344"/>
-      <c r="L104" s="344"/>
-      <c r="M104" s="344"/>
-      <c r="N104" s="344"/>
-      <c r="O104" s="344"/>
-      <c r="P104" s="345"/>
-      <c r="Q104" s="338" t="s">
-        <v>124</v>
-      </c>
-      <c r="R104" s="339"/>
-      <c r="S104" s="339"/>
-      <c r="T104" s="339"/>
-      <c r="U104" s="339"/>
-      <c r="V104" s="339"/>
-      <c r="W104" s="339"/>
-      <c r="X104" s="339"/>
-      <c r="Y104" s="339"/>
-      <c r="Z104" s="340"/>
+      <c r="R104" s="304"/>
+      <c r="S104" s="304"/>
+      <c r="T104" s="304"/>
+      <c r="U104" s="304"/>
+      <c r="V104" s="304"/>
+      <c r="W104" s="304"/>
+      <c r="X104" s="304"/>
+      <c r="Y104" s="304"/>
+      <c r="Z104" s="305"/>
       <c r="AC104" s="128"/>
       <c r="AD104" s="128"/>
       <c r="AE104" s="128"/>
@@ -9448,28 +9459,28 @@
       <c r="AY104" s="128"/>
     </row>
     <row r="105" spans="5:58" x14ac:dyDescent="0.2">
-      <c r="G105" s="358"/>
-      <c r="H105" s="359"/>
-      <c r="I105" s="359"/>
-      <c r="J105" s="359"/>
-      <c r="K105" s="359"/>
-      <c r="L105" s="359"/>
-      <c r="M105" s="359"/>
-      <c r="N105" s="359"/>
-      <c r="O105" s="359"/>
-      <c r="P105" s="360"/>
-      <c r="Q105" s="338" t="s">
-        <v>125</v>
-      </c>
-      <c r="R105" s="339"/>
-      <c r="S105" s="339"/>
-      <c r="T105" s="339"/>
-      <c r="U105" s="339"/>
-      <c r="V105" s="339"/>
-      <c r="W105" s="339"/>
-      <c r="X105" s="339"/>
-      <c r="Y105" s="339"/>
-      <c r="Z105" s="340"/>
+      <c r="G105" s="320"/>
+      <c r="H105" s="321"/>
+      <c r="I105" s="321"/>
+      <c r="J105" s="321"/>
+      <c r="K105" s="321"/>
+      <c r="L105" s="321"/>
+      <c r="M105" s="321"/>
+      <c r="N105" s="321"/>
+      <c r="O105" s="321"/>
+      <c r="P105" s="322"/>
+      <c r="Q105" s="303" t="s">
+        <v>124</v>
+      </c>
+      <c r="R105" s="304"/>
+      <c r="S105" s="304"/>
+      <c r="T105" s="304"/>
+      <c r="U105" s="304"/>
+      <c r="V105" s="304"/>
+      <c r="W105" s="304"/>
+      <c r="X105" s="304"/>
+      <c r="Y105" s="304"/>
+      <c r="Z105" s="305"/>
       <c r="AC105" s="128"/>
       <c r="AD105" s="128"/>
       <c r="AE105" s="128"/>
@@ -9488,28 +9499,28 @@
       <c r="AY105" s="128"/>
     </row>
     <row r="106" spans="5:58" x14ac:dyDescent="0.2">
-      <c r="G106" s="349" t="s">
-        <v>126</v>
-      </c>
-      <c r="H106" s="350"/>
-      <c r="I106" s="350"/>
-      <c r="J106" s="350"/>
-      <c r="K106" s="350"/>
-      <c r="L106" s="350"/>
-      <c r="M106" s="350"/>
-      <c r="N106" s="350"/>
-      <c r="O106" s="350"/>
-      <c r="P106" s="350"/>
-      <c r="Q106" s="350"/>
-      <c r="R106" s="350"/>
-      <c r="S106" s="350"/>
-      <c r="T106" s="350"/>
-      <c r="U106" s="350"/>
-      <c r="V106" s="350"/>
-      <c r="W106" s="350"/>
-      <c r="X106" s="350"/>
-      <c r="Y106" s="350"/>
-      <c r="Z106" s="351"/>
+      <c r="G106" s="306" t="s">
+        <v>125</v>
+      </c>
+      <c r="H106" s="307"/>
+      <c r="I106" s="307"/>
+      <c r="J106" s="307"/>
+      <c r="K106" s="307"/>
+      <c r="L106" s="307"/>
+      <c r="M106" s="307"/>
+      <c r="N106" s="307"/>
+      <c r="O106" s="307"/>
+      <c r="P106" s="307"/>
+      <c r="Q106" s="307"/>
+      <c r="R106" s="307"/>
+      <c r="S106" s="307"/>
+      <c r="T106" s="307"/>
+      <c r="U106" s="307"/>
+      <c r="V106" s="307"/>
+      <c r="W106" s="307"/>
+      <c r="X106" s="307"/>
+      <c r="Y106" s="307"/>
+      <c r="Z106" s="308"/>
       <c r="AJ106" s="128"/>
       <c r="AK106" s="128"/>
       <c r="AL106" s="128"/>
@@ -9582,7 +9593,7 @@
     <row r="108" spans="5:58" x14ac:dyDescent="0.2">
       <c r="G108" s="139"/>
       <c r="H108" s="140" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I108" s="140"/>
       <c r="J108" s="140"/>
@@ -9590,10 +9601,10 @@
       <c r="L108" s="141"/>
       <c r="N108" s="140"/>
       <c r="O108" s="141" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q108" s="140" t="s">
         <v>128</v>
-      </c>
-      <c r="Q108" s="140" t="s">
-        <v>129</v>
       </c>
       <c r="R108" s="140"/>
       <c r="S108" s="140"/>
@@ -9745,7 +9756,7 @@
     </row>
     <row r="112" spans="5:58" x14ac:dyDescent="0.2">
       <c r="E112" s="54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G112" s="44"/>
       <c r="AJ112" s="128"/>
@@ -9779,7 +9790,7 @@
     <row r="114" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E114" s="66"/>
       <c r="F114" s="66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ114" s="128"/>
       <c r="AK114" s="128"/>
@@ -9809,7 +9820,7 @@
       <c r="E115" s="66"/>
       <c r="F115" s="129"/>
       <c r="G115" s="66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ115" s="128"/>
       <c r="AK115" s="128"/>
@@ -9839,7 +9850,7 @@
       <c r="E116" s="66"/>
       <c r="F116" s="129"/>
       <c r="H116" s="73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I116" s="150"/>
       <c r="J116" s="150"/>
@@ -9903,7 +9914,7 @@
     <row r="118" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E118" s="66"/>
       <c r="F118" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ118" s="128"/>
       <c r="AK118" s="128"/>
@@ -9932,35 +9943,35 @@
     <row r="119" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E119" s="66"/>
       <c r="F119" s="129"/>
-      <c r="G119" s="373" t="s">
-        <v>135</v>
-      </c>
-      <c r="H119" s="373"/>
-      <c r="I119" s="373"/>
-      <c r="J119" s="373"/>
-      <c r="K119" s="373"/>
-      <c r="L119" s="373"/>
-      <c r="M119" s="373"/>
-      <c r="N119" s="373"/>
-      <c r="O119" s="373"/>
-      <c r="P119" s="373"/>
-      <c r="Q119" s="373"/>
-      <c r="R119" s="373"/>
-      <c r="S119" s="373"/>
-      <c r="T119" s="373"/>
-      <c r="U119" s="373"/>
-      <c r="V119" s="373"/>
-      <c r="W119" s="373"/>
-      <c r="X119" s="373"/>
-      <c r="Y119" s="373"/>
-      <c r="Z119" s="373"/>
-      <c r="AA119" s="373"/>
-      <c r="AB119" s="373"/>
-      <c r="AC119" s="373"/>
-      <c r="AD119" s="373"/>
-      <c r="AE119" s="373"/>
-      <c r="AF119" s="373"/>
-      <c r="AG119" s="373"/>
+      <c r="G119" s="282" t="s">
+        <v>134</v>
+      </c>
+      <c r="H119" s="282"/>
+      <c r="I119" s="282"/>
+      <c r="J119" s="282"/>
+      <c r="K119" s="282"/>
+      <c r="L119" s="282"/>
+      <c r="M119" s="282"/>
+      <c r="N119" s="282"/>
+      <c r="O119" s="282"/>
+      <c r="P119" s="282"/>
+      <c r="Q119" s="282"/>
+      <c r="R119" s="282"/>
+      <c r="S119" s="282"/>
+      <c r="T119" s="282"/>
+      <c r="U119" s="282"/>
+      <c r="V119" s="282"/>
+      <c r="W119" s="282"/>
+      <c r="X119" s="282"/>
+      <c r="Y119" s="282"/>
+      <c r="Z119" s="282"/>
+      <c r="AA119" s="282"/>
+      <c r="AB119" s="282"/>
+      <c r="AC119" s="282"/>
+      <c r="AD119" s="282"/>
+      <c r="AE119" s="282"/>
+      <c r="AF119" s="282"/>
+      <c r="AG119" s="282"/>
       <c r="AJ119" s="128"/>
       <c r="AK119" s="128"/>
       <c r="AL119" s="128"/>
@@ -9988,33 +9999,33 @@
     <row r="120" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E120" s="66"/>
       <c r="F120" s="129"/>
-      <c r="G120" s="373"/>
-      <c r="H120" s="373"/>
-      <c r="I120" s="373"/>
-      <c r="J120" s="373"/>
-      <c r="K120" s="373"/>
-      <c r="L120" s="373"/>
-      <c r="M120" s="373"/>
-      <c r="N120" s="373"/>
-      <c r="O120" s="373"/>
-      <c r="P120" s="373"/>
-      <c r="Q120" s="373"/>
-      <c r="R120" s="373"/>
-      <c r="S120" s="373"/>
-      <c r="T120" s="373"/>
-      <c r="U120" s="373"/>
-      <c r="V120" s="373"/>
-      <c r="W120" s="373"/>
-      <c r="X120" s="373"/>
-      <c r="Y120" s="373"/>
-      <c r="Z120" s="373"/>
-      <c r="AA120" s="373"/>
-      <c r="AB120" s="373"/>
-      <c r="AC120" s="373"/>
-      <c r="AD120" s="373"/>
-      <c r="AE120" s="373"/>
-      <c r="AF120" s="373"/>
-      <c r="AG120" s="373"/>
+      <c r="G120" s="282"/>
+      <c r="H120" s="282"/>
+      <c r="I120" s="282"/>
+      <c r="J120" s="282"/>
+      <c r="K120" s="282"/>
+      <c r="L120" s="282"/>
+      <c r="M120" s="282"/>
+      <c r="N120" s="282"/>
+      <c r="O120" s="282"/>
+      <c r="P120" s="282"/>
+      <c r="Q120" s="282"/>
+      <c r="R120" s="282"/>
+      <c r="S120" s="282"/>
+      <c r="T120" s="282"/>
+      <c r="U120" s="282"/>
+      <c r="V120" s="282"/>
+      <c r="W120" s="282"/>
+      <c r="X120" s="282"/>
+      <c r="Y120" s="282"/>
+      <c r="Z120" s="282"/>
+      <c r="AA120" s="282"/>
+      <c r="AB120" s="282"/>
+      <c r="AC120" s="282"/>
+      <c r="AD120" s="282"/>
+      <c r="AE120" s="282"/>
+      <c r="AF120" s="282"/>
+      <c r="AG120" s="282"/>
       <c r="AJ120" s="128"/>
       <c r="AK120" s="128"/>
       <c r="AL120" s="128"/>
@@ -10044,7 +10055,7 @@
       <c r="F121" s="129"/>
       <c r="G121" s="66"/>
       <c r="H121" s="73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ121" s="128"/>
       <c r="AK121" s="128"/>
@@ -10073,7 +10084,7 @@
     <row r="122" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E122" s="66"/>
       <c r="F122" s="66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ122" s="128"/>
       <c r="AK122" s="128"/>
@@ -10103,7 +10114,7 @@
       <c r="E123" s="66"/>
       <c r="F123" s="129"/>
       <c r="G123" s="66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ123" s="128"/>
       <c r="AK123" s="128"/>
@@ -10133,7 +10144,7 @@
       <c r="E124" s="66"/>
       <c r="F124" s="129"/>
       <c r="H124" s="73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I124" s="150"/>
       <c r="J124" s="150"/>
@@ -10196,7 +10207,7 @@
     <row r="126" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E126" s="66"/>
       <c r="F126" s="66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ126" s="128"/>
       <c r="AK126" s="128"/>
@@ -10225,35 +10236,35 @@
     <row r="127" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E127" s="66"/>
       <c r="F127" s="129"/>
-      <c r="G127" s="373" t="s">
-        <v>139</v>
-      </c>
-      <c r="H127" s="373"/>
-      <c r="I127" s="373"/>
-      <c r="J127" s="373"/>
-      <c r="K127" s="373"/>
-      <c r="L127" s="373"/>
-      <c r="M127" s="373"/>
-      <c r="N127" s="373"/>
-      <c r="O127" s="373"/>
-      <c r="P127" s="373"/>
-      <c r="Q127" s="373"/>
-      <c r="R127" s="373"/>
-      <c r="S127" s="373"/>
-      <c r="T127" s="373"/>
-      <c r="U127" s="373"/>
-      <c r="V127" s="373"/>
-      <c r="W127" s="373"/>
-      <c r="X127" s="373"/>
-      <c r="Y127" s="373"/>
-      <c r="Z127" s="373"/>
-      <c r="AA127" s="373"/>
-      <c r="AB127" s="373"/>
-      <c r="AC127" s="373"/>
-      <c r="AD127" s="373"/>
-      <c r="AE127" s="373"/>
-      <c r="AF127" s="373"/>
-      <c r="AG127" s="373"/>
+      <c r="G127" s="282" t="s">
+        <v>138</v>
+      </c>
+      <c r="H127" s="282"/>
+      <c r="I127" s="282"/>
+      <c r="J127" s="282"/>
+      <c r="K127" s="282"/>
+      <c r="L127" s="282"/>
+      <c r="M127" s="282"/>
+      <c r="N127" s="282"/>
+      <c r="O127" s="282"/>
+      <c r="P127" s="282"/>
+      <c r="Q127" s="282"/>
+      <c r="R127" s="282"/>
+      <c r="S127" s="282"/>
+      <c r="T127" s="282"/>
+      <c r="U127" s="282"/>
+      <c r="V127" s="282"/>
+      <c r="W127" s="282"/>
+      <c r="X127" s="282"/>
+      <c r="Y127" s="282"/>
+      <c r="Z127" s="282"/>
+      <c r="AA127" s="282"/>
+      <c r="AB127" s="282"/>
+      <c r="AC127" s="282"/>
+      <c r="AD127" s="282"/>
+      <c r="AE127" s="282"/>
+      <c r="AF127" s="282"/>
+      <c r="AG127" s="282"/>
       <c r="AJ127" s="128"/>
       <c r="AK127" s="128"/>
       <c r="AL127" s="128"/>
@@ -10281,33 +10292,33 @@
     <row r="128" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E128" s="66"/>
       <c r="F128" s="129"/>
-      <c r="G128" s="373"/>
-      <c r="H128" s="373"/>
-      <c r="I128" s="373"/>
-      <c r="J128" s="373"/>
-      <c r="K128" s="373"/>
-      <c r="L128" s="373"/>
-      <c r="M128" s="373"/>
-      <c r="N128" s="373"/>
-      <c r="O128" s="373"/>
-      <c r="P128" s="373"/>
-      <c r="Q128" s="373"/>
-      <c r="R128" s="373"/>
-      <c r="S128" s="373"/>
-      <c r="T128" s="373"/>
-      <c r="U128" s="373"/>
-      <c r="V128" s="373"/>
-      <c r="W128" s="373"/>
-      <c r="X128" s="373"/>
-      <c r="Y128" s="373"/>
-      <c r="Z128" s="373"/>
-      <c r="AA128" s="373"/>
-      <c r="AB128" s="373"/>
-      <c r="AC128" s="373"/>
-      <c r="AD128" s="373"/>
-      <c r="AE128" s="373"/>
-      <c r="AF128" s="373"/>
-      <c r="AG128" s="373"/>
+      <c r="G128" s="282"/>
+      <c r="H128" s="282"/>
+      <c r="I128" s="282"/>
+      <c r="J128" s="282"/>
+      <c r="K128" s="282"/>
+      <c r="L128" s="282"/>
+      <c r="M128" s="282"/>
+      <c r="N128" s="282"/>
+      <c r="O128" s="282"/>
+      <c r="P128" s="282"/>
+      <c r="Q128" s="282"/>
+      <c r="R128" s="282"/>
+      <c r="S128" s="282"/>
+      <c r="T128" s="282"/>
+      <c r="U128" s="282"/>
+      <c r="V128" s="282"/>
+      <c r="W128" s="282"/>
+      <c r="X128" s="282"/>
+      <c r="Y128" s="282"/>
+      <c r="Z128" s="282"/>
+      <c r="AA128" s="282"/>
+      <c r="AB128" s="282"/>
+      <c r="AC128" s="282"/>
+      <c r="AD128" s="282"/>
+      <c r="AE128" s="282"/>
+      <c r="AF128" s="282"/>
+      <c r="AG128" s="282"/>
       <c r="AJ128" s="128"/>
       <c r="AK128" s="128"/>
       <c r="AL128" s="128"/>
@@ -10336,7 +10347,7 @@
       <c r="E129" s="66"/>
       <c r="F129" s="129"/>
       <c r="H129" s="73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I129" s="150"/>
       <c r="J129" s="150"/>
@@ -10397,32 +10408,32 @@
       <c r="BF130" s="128"/>
     </row>
     <row r="131" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H131" s="309" t="s">
+      <c r="H131" s="289" t="s">
         <v>30</v>
       </c>
       <c r="I131" s="265" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J131" s="266"/>
       <c r="K131" s="266"/>
       <c r="L131" s="266"/>
       <c r="M131" s="266"/>
       <c r="N131" s="267"/>
-      <c r="O131" s="378" t="s">
-        <v>141</v>
-      </c>
-      <c r="P131" s="379"/>
-      <c r="Q131" s="379"/>
-      <c r="R131" s="379"/>
-      <c r="S131" s="379"/>
-      <c r="T131" s="379"/>
-      <c r="U131" s="379"/>
-      <c r="V131" s="379"/>
-      <c r="W131" s="379"/>
-      <c r="X131" s="379"/>
-      <c r="Y131" s="380"/>
+      <c r="O131" s="291" t="s">
+        <v>140</v>
+      </c>
+      <c r="P131" s="292"/>
+      <c r="Q131" s="292"/>
+      <c r="R131" s="292"/>
+      <c r="S131" s="292"/>
+      <c r="T131" s="292"/>
+      <c r="U131" s="292"/>
+      <c r="V131" s="292"/>
+      <c r="W131" s="292"/>
+      <c r="X131" s="292"/>
+      <c r="Y131" s="293"/>
       <c r="Z131" s="265" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA131" s="266"/>
       <c r="AB131" s="266"/>
@@ -10430,34 +10441,34 @@
       <c r="AD131" s="266"/>
       <c r="AE131" s="267"/>
       <c r="AF131" s="151" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG131" s="152"/>
       <c r="AH131" s="153"/>
     </row>
     <row r="132" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H132" s="310"/>
+      <c r="H132" s="290"/>
       <c r="I132" s="271"/>
       <c r="J132" s="272"/>
       <c r="K132" s="272"/>
       <c r="L132" s="272"/>
       <c r="M132" s="272"/>
       <c r="N132" s="273"/>
-      <c r="O132" s="378" t="s">
-        <v>64</v>
-      </c>
-      <c r="P132" s="379"/>
-      <c r="Q132" s="379"/>
-      <c r="R132" s="379"/>
-      <c r="S132" s="380"/>
-      <c r="T132" s="367" t="s">
-        <v>142</v>
-      </c>
-      <c r="U132" s="368"/>
-      <c r="V132" s="368"/>
-      <c r="W132" s="368"/>
-      <c r="X132" s="368"/>
-      <c r="Y132" s="369"/>
+      <c r="O132" s="291" t="s">
+        <v>63</v>
+      </c>
+      <c r="P132" s="292"/>
+      <c r="Q132" s="292"/>
+      <c r="R132" s="292"/>
+      <c r="S132" s="293"/>
+      <c r="T132" s="294" t="s">
+        <v>141</v>
+      </c>
+      <c r="U132" s="295"/>
+      <c r="V132" s="295"/>
+      <c r="W132" s="295"/>
+      <c r="X132" s="295"/>
+      <c r="Y132" s="296"/>
       <c r="Z132" s="271"/>
       <c r="AA132" s="272"/>
       <c r="AB132" s="272"/>
@@ -10472,44 +10483,44 @@
       <c r="H133" s="104">
         <v>1</v>
       </c>
-      <c r="I133" s="374" t="s">
-        <v>120</v>
-      </c>
-      <c r="J133" s="375"/>
-      <c r="K133" s="375"/>
-      <c r="L133" s="375"/>
-      <c r="M133" s="375"/>
-      <c r="N133" s="376"/>
+      <c r="I133" s="283" t="s">
+        <v>119</v>
+      </c>
+      <c r="J133" s="284"/>
+      <c r="K133" s="284"/>
+      <c r="L133" s="284"/>
+      <c r="M133" s="284"/>
+      <c r="N133" s="285"/>
       <c r="O133" s="157" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P133" s="158"/>
       <c r="Q133" s="158"/>
       <c r="R133" s="158"/>
       <c r="S133" s="159"/>
-      <c r="T133" s="374" t="s">
+      <c r="T133" s="283" t="s">
         <v>39</v>
       </c>
-      <c r="U133" s="375"/>
-      <c r="V133" s="375"/>
-      <c r="W133" s="375"/>
-      <c r="X133" s="375"/>
-      <c r="Y133" s="376"/>
-      <c r="Z133" s="377" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA133" s="296"/>
-      <c r="AB133" s="296"/>
-      <c r="AC133" s="296"/>
-      <c r="AD133" s="296"/>
-      <c r="AE133" s="297"/>
+      <c r="U133" s="284"/>
+      <c r="V133" s="284"/>
+      <c r="W133" s="284"/>
+      <c r="X133" s="284"/>
+      <c r="Y133" s="285"/>
+      <c r="Z133" s="286" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA133" s="287"/>
+      <c r="AB133" s="287"/>
+      <c r="AC133" s="287"/>
+      <c r="AD133" s="287"/>
+      <c r="AE133" s="288"/>
       <c r="AF133" s="160"/>
       <c r="AG133" s="161"/>
       <c r="AH133" s="162"/>
     </row>
     <row r="134" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H134" s="163" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I134" s="164"/>
       <c r="J134" s="164"/>
@@ -10616,7 +10627,7 @@
     <row r="136" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H136" s="139"/>
       <c r="I136" s="140" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J136" s="140"/>
       <c r="K136" s="140"/>
@@ -10624,10 +10635,10 @@
       <c r="M136" s="141"/>
       <c r="O136" s="140"/>
       <c r="P136" s="141" t="s">
+        <v>127</v>
+      </c>
+      <c r="R136" s="140" t="s">
         <v>128</v>
-      </c>
-      <c r="R136" s="140" t="s">
-        <v>129</v>
       </c>
       <c r="S136" s="140"/>
       <c r="T136" s="140"/>
@@ -10752,35 +10763,35 @@
     <row r="139" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E139" s="66"/>
       <c r="F139" s="129"/>
-      <c r="G139" s="373" t="s">
-        <v>144</v>
-      </c>
-      <c r="H139" s="373"/>
-      <c r="I139" s="373"/>
-      <c r="J139" s="373"/>
-      <c r="K139" s="373"/>
-      <c r="L139" s="373"/>
-      <c r="M139" s="373"/>
-      <c r="N139" s="373"/>
-      <c r="O139" s="373"/>
-      <c r="P139" s="373"/>
-      <c r="Q139" s="373"/>
-      <c r="R139" s="373"/>
-      <c r="S139" s="373"/>
-      <c r="T139" s="373"/>
-      <c r="U139" s="373"/>
-      <c r="V139" s="373"/>
-      <c r="W139" s="373"/>
-      <c r="X139" s="373"/>
-      <c r="Y139" s="373"/>
-      <c r="Z139" s="373"/>
-      <c r="AA139" s="373"/>
-      <c r="AB139" s="373"/>
-      <c r="AC139" s="373"/>
-      <c r="AD139" s="373"/>
-      <c r="AE139" s="373"/>
-      <c r="AF139" s="373"/>
-      <c r="AG139" s="373"/>
+      <c r="G139" s="282" t="s">
+        <v>143</v>
+      </c>
+      <c r="H139" s="282"/>
+      <c r="I139" s="282"/>
+      <c r="J139" s="282"/>
+      <c r="K139" s="282"/>
+      <c r="L139" s="282"/>
+      <c r="M139" s="282"/>
+      <c r="N139" s="282"/>
+      <c r="O139" s="282"/>
+      <c r="P139" s="282"/>
+      <c r="Q139" s="282"/>
+      <c r="R139" s="282"/>
+      <c r="S139" s="282"/>
+      <c r="T139" s="282"/>
+      <c r="U139" s="282"/>
+      <c r="V139" s="282"/>
+      <c r="W139" s="282"/>
+      <c r="X139" s="282"/>
+      <c r="Y139" s="282"/>
+      <c r="Z139" s="282"/>
+      <c r="AA139" s="282"/>
+      <c r="AB139" s="282"/>
+      <c r="AC139" s="282"/>
+      <c r="AD139" s="282"/>
+      <c r="AE139" s="282"/>
+      <c r="AF139" s="282"/>
+      <c r="AG139" s="282"/>
       <c r="AJ139" s="128"/>
       <c r="AK139" s="128"/>
       <c r="AL139" s="128"/>
@@ -10808,33 +10819,33 @@
     <row r="140" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E140" s="66"/>
       <c r="F140" s="129"/>
-      <c r="G140" s="373"/>
-      <c r="H140" s="373"/>
-      <c r="I140" s="373"/>
-      <c r="J140" s="373"/>
-      <c r="K140" s="373"/>
-      <c r="L140" s="373"/>
-      <c r="M140" s="373"/>
-      <c r="N140" s="373"/>
-      <c r="O140" s="373"/>
-      <c r="P140" s="373"/>
-      <c r="Q140" s="373"/>
-      <c r="R140" s="373"/>
-      <c r="S140" s="373"/>
-      <c r="T140" s="373"/>
-      <c r="U140" s="373"/>
-      <c r="V140" s="373"/>
-      <c r="W140" s="373"/>
-      <c r="X140" s="373"/>
-      <c r="Y140" s="373"/>
-      <c r="Z140" s="373"/>
-      <c r="AA140" s="373"/>
-      <c r="AB140" s="373"/>
-      <c r="AC140" s="373"/>
-      <c r="AD140" s="373"/>
-      <c r="AE140" s="373"/>
-      <c r="AF140" s="373"/>
-      <c r="AG140" s="373"/>
+      <c r="G140" s="282"/>
+      <c r="H140" s="282"/>
+      <c r="I140" s="282"/>
+      <c r="J140" s="282"/>
+      <c r="K140" s="282"/>
+      <c r="L140" s="282"/>
+      <c r="M140" s="282"/>
+      <c r="N140" s="282"/>
+      <c r="O140" s="282"/>
+      <c r="P140" s="282"/>
+      <c r="Q140" s="282"/>
+      <c r="R140" s="282"/>
+      <c r="S140" s="282"/>
+      <c r="T140" s="282"/>
+      <c r="U140" s="282"/>
+      <c r="V140" s="282"/>
+      <c r="W140" s="282"/>
+      <c r="X140" s="282"/>
+      <c r="Y140" s="282"/>
+      <c r="Z140" s="282"/>
+      <c r="AA140" s="282"/>
+      <c r="AB140" s="282"/>
+      <c r="AC140" s="282"/>
+      <c r="AD140" s="282"/>
+      <c r="AE140" s="282"/>
+      <c r="AF140" s="282"/>
+      <c r="AG140" s="282"/>
       <c r="AJ140" s="128"/>
       <c r="AK140" s="128"/>
       <c r="AL140" s="128"/>
@@ -10860,32 +10871,32 @@
       <c r="BF140" s="128"/>
     </row>
     <row r="141" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H141" s="309" t="s">
+      <c r="H141" s="289" t="s">
         <v>30</v>
       </c>
       <c r="I141" s="265" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J141" s="266"/>
       <c r="K141" s="266"/>
       <c r="L141" s="266"/>
       <c r="M141" s="266"/>
       <c r="N141" s="267"/>
-      <c r="O141" s="378" t="s">
-        <v>141</v>
-      </c>
-      <c r="P141" s="379"/>
-      <c r="Q141" s="379"/>
-      <c r="R141" s="379"/>
-      <c r="S141" s="379"/>
-      <c r="T141" s="379"/>
-      <c r="U141" s="379"/>
-      <c r="V141" s="379"/>
-      <c r="W141" s="379"/>
-      <c r="X141" s="379"/>
-      <c r="Y141" s="380"/>
+      <c r="O141" s="291" t="s">
+        <v>140</v>
+      </c>
+      <c r="P141" s="292"/>
+      <c r="Q141" s="292"/>
+      <c r="R141" s="292"/>
+      <c r="S141" s="292"/>
+      <c r="T141" s="292"/>
+      <c r="U141" s="292"/>
+      <c r="V141" s="292"/>
+      <c r="W141" s="292"/>
+      <c r="X141" s="292"/>
+      <c r="Y141" s="293"/>
       <c r="Z141" s="265" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA141" s="266"/>
       <c r="AB141" s="266"/>
@@ -10893,34 +10904,34 @@
       <c r="AD141" s="266"/>
       <c r="AE141" s="267"/>
       <c r="AF141" s="151" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG141" s="152"/>
       <c r="AH141" s="153"/>
     </row>
     <row r="142" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H142" s="310"/>
+      <c r="H142" s="290"/>
       <c r="I142" s="271"/>
       <c r="J142" s="272"/>
       <c r="K142" s="272"/>
       <c r="L142" s="272"/>
       <c r="M142" s="272"/>
       <c r="N142" s="273"/>
-      <c r="O142" s="378" t="s">
-        <v>64</v>
-      </c>
-      <c r="P142" s="379"/>
-      <c r="Q142" s="379"/>
-      <c r="R142" s="379"/>
-      <c r="S142" s="380"/>
-      <c r="T142" s="367" t="s">
-        <v>142</v>
-      </c>
-      <c r="U142" s="368"/>
-      <c r="V142" s="368"/>
-      <c r="W142" s="368"/>
-      <c r="X142" s="368"/>
-      <c r="Y142" s="369"/>
+      <c r="O142" s="291" t="s">
+        <v>63</v>
+      </c>
+      <c r="P142" s="292"/>
+      <c r="Q142" s="292"/>
+      <c r="R142" s="292"/>
+      <c r="S142" s="293"/>
+      <c r="T142" s="294" t="s">
+        <v>141</v>
+      </c>
+      <c r="U142" s="295"/>
+      <c r="V142" s="295"/>
+      <c r="W142" s="295"/>
+      <c r="X142" s="295"/>
+      <c r="Y142" s="296"/>
       <c r="Z142" s="271"/>
       <c r="AA142" s="272"/>
       <c r="AB142" s="272"/>
@@ -10935,14 +10946,14 @@
       <c r="H143" s="104">
         <v>1</v>
       </c>
-      <c r="I143" s="374" t="s">
-        <v>145</v>
-      </c>
-      <c r="J143" s="375"/>
-      <c r="K143" s="375"/>
-      <c r="L143" s="375"/>
-      <c r="M143" s="375"/>
-      <c r="N143" s="376"/>
+      <c r="I143" s="283" t="s">
+        <v>144</v>
+      </c>
+      <c r="J143" s="284"/>
+      <c r="K143" s="284"/>
+      <c r="L143" s="284"/>
+      <c r="M143" s="284"/>
+      <c r="N143" s="285"/>
       <c r="O143" s="157" t="s">
         <v>39</v>
       </c>
@@ -10950,22 +10961,22 @@
       <c r="Q143" s="158"/>
       <c r="R143" s="158"/>
       <c r="S143" s="159"/>
-      <c r="T143" s="374" t="s">
+      <c r="T143" s="283" t="s">
         <v>39</v>
       </c>
-      <c r="U143" s="375"/>
-      <c r="V143" s="375"/>
-      <c r="W143" s="375"/>
-      <c r="X143" s="375"/>
-      <c r="Y143" s="376"/>
-      <c r="Z143" s="377" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA143" s="296"/>
-      <c r="AB143" s="296"/>
-      <c r="AC143" s="296"/>
-      <c r="AD143" s="296"/>
-      <c r="AE143" s="297"/>
+      <c r="U143" s="284"/>
+      <c r="V143" s="284"/>
+      <c r="W143" s="284"/>
+      <c r="X143" s="284"/>
+      <c r="Y143" s="285"/>
+      <c r="Z143" s="286" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA143" s="287"/>
+      <c r="AB143" s="287"/>
+      <c r="AC143" s="287"/>
+      <c r="AD143" s="287"/>
+      <c r="AE143" s="288"/>
       <c r="AF143" s="160"/>
       <c r="AG143" s="161"/>
       <c r="AH143" s="162"/>
@@ -10974,14 +10985,14 @@
       <c r="H144" s="104">
         <v>2</v>
       </c>
-      <c r="I144" s="374" t="s">
-        <v>120</v>
-      </c>
-      <c r="J144" s="375"/>
-      <c r="K144" s="375"/>
-      <c r="L144" s="375"/>
-      <c r="M144" s="375"/>
-      <c r="N144" s="376"/>
+      <c r="I144" s="283" t="s">
+        <v>119</v>
+      </c>
+      <c r="J144" s="284"/>
+      <c r="K144" s="284"/>
+      <c r="L144" s="284"/>
+      <c r="M144" s="284"/>
+      <c r="N144" s="285"/>
       <c r="O144" s="157" t="s">
         <v>39</v>
       </c>
@@ -10989,29 +11000,29 @@
       <c r="Q144" s="158"/>
       <c r="R144" s="158"/>
       <c r="S144" s="159"/>
-      <c r="T144" s="374" t="s">
+      <c r="T144" s="283" t="s">
         <v>39</v>
       </c>
-      <c r="U144" s="375"/>
-      <c r="V144" s="375"/>
-      <c r="W144" s="375"/>
-      <c r="X144" s="375"/>
-      <c r="Y144" s="376"/>
-      <c r="Z144" s="377">
+      <c r="U144" s="284"/>
+      <c r="V144" s="284"/>
+      <c r="W144" s="284"/>
+      <c r="X144" s="284"/>
+      <c r="Y144" s="285"/>
+      <c r="Z144" s="286">
         <v>0</v>
       </c>
-      <c r="AA144" s="296"/>
-      <c r="AB144" s="296"/>
-      <c r="AC144" s="296"/>
-      <c r="AD144" s="296"/>
-      <c r="AE144" s="297"/>
+      <c r="AA144" s="287"/>
+      <c r="AB144" s="287"/>
+      <c r="AC144" s="287"/>
+      <c r="AD144" s="287"/>
+      <c r="AE144" s="288"/>
       <c r="AF144" s="160"/>
       <c r="AG144" s="161"/>
       <c r="AH144" s="162"/>
     </row>
     <row r="145" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H145" s="163" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I145" s="164"/>
       <c r="J145" s="164"/>
@@ -11118,7 +11129,7 @@
     <row r="147" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H147" s="139"/>
       <c r="I147" s="140" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J147" s="140"/>
       <c r="K147" s="140"/>
@@ -11126,10 +11137,10 @@
       <c r="M147" s="141"/>
       <c r="O147" s="140"/>
       <c r="P147" s="141" t="s">
+        <v>127</v>
+      </c>
+      <c r="R147" s="140" t="s">
         <v>128</v>
-      </c>
-      <c r="R147" s="140" t="s">
-        <v>129</v>
       </c>
       <c r="S147" s="140"/>
       <c r="T147" s="140"/>
@@ -11255,7 +11266,7 @@
       <c r="E150" s="66"/>
       <c r="F150" s="129"/>
       <c r="G150" s="66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ150" s="128"/>
       <c r="AK150" s="128"/>
@@ -11312,7 +11323,7 @@
     <row r="152" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E152" s="66"/>
       <c r="F152" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AJ152" s="128"/>
       <c r="AK152" s="128"/>
@@ -11477,6 +11488,97 @@
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="V43:AC43"/>
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="V58:AH59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="AD49:AG51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AD53:AG53"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="U50:Y51"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="I50:L51"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="E49:AC49"/>
+    <mergeCell ref="Z50:AB51"/>
+    <mergeCell ref="AC50:AC51"/>
+    <mergeCell ref="M53:T53"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AE67:AH67"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="AE65:AH65"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="AE66:AH66"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="R67:Y67"/>
+    <mergeCell ref="Z67:AD67"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:J59"/>
+    <mergeCell ref="K58:N59"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="R65:Y65"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:AH60"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="R66:Y66"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="G98:P103"/>
+    <mergeCell ref="Q98:Z98"/>
+    <mergeCell ref="Q103:Z103"/>
+    <mergeCell ref="G106:Z106"/>
+    <mergeCell ref="AD87:AG87"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="G87:L87"/>
+    <mergeCell ref="G88:L88"/>
+    <mergeCell ref="M87:V87"/>
+    <mergeCell ref="W88:Y88"/>
+    <mergeCell ref="Q102:Z102"/>
+    <mergeCell ref="G104:P105"/>
+    <mergeCell ref="Q104:Z104"/>
+    <mergeCell ref="Q105:Z105"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="Z87:AC87"/>
+    <mergeCell ref="M88:V88"/>
+    <mergeCell ref="G97:P97"/>
+    <mergeCell ref="Q97:Z97"/>
+    <mergeCell ref="W87:Y87"/>
     <mergeCell ref="G139:AG140"/>
     <mergeCell ref="G127:AG128"/>
     <mergeCell ref="G119:AG120"/>
@@ -11501,97 +11603,6 @@
     <mergeCell ref="Z131:AE132"/>
     <mergeCell ref="O132:S132"/>
     <mergeCell ref="T132:Y132"/>
-    <mergeCell ref="G98:P103"/>
-    <mergeCell ref="Q98:Z98"/>
-    <mergeCell ref="Q103:Z103"/>
-    <mergeCell ref="G106:Z106"/>
-    <mergeCell ref="AD87:AG87"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="G87:L87"/>
-    <mergeCell ref="G88:L88"/>
-    <mergeCell ref="M87:V87"/>
-    <mergeCell ref="W88:Y88"/>
-    <mergeCell ref="Q102:Z102"/>
-    <mergeCell ref="G104:P105"/>
-    <mergeCell ref="Q104:Z104"/>
-    <mergeCell ref="Q105:Z105"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="Z87:AC87"/>
-    <mergeCell ref="M88:V88"/>
-    <mergeCell ref="G97:P97"/>
-    <mergeCell ref="Q97:Z97"/>
-    <mergeCell ref="W87:Y87"/>
-    <mergeCell ref="V44:AC44"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:J59"/>
-    <mergeCell ref="K58:N59"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="R65:Y65"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:AH60"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="R66:Y66"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="AE67:AH67"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="AE65:AH65"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="AE66:AH66"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="R67:Y67"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="V43:AC43"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="V58:AH59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="AD49:AG51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AD53:AG53"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="U50:Y51"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="I50:L51"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="E49:AC49"/>
-    <mergeCell ref="Z50:AB51"/>
-    <mergeCell ref="AC50:AC51"/>
-    <mergeCell ref="M53:T53"/>
-    <mergeCell ref="M52:T52"/>
-    <mergeCell ref="Q44:U44"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
@@ -11629,7 +11640,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
           <x14:formula1>
-            <xm:f>データ!$D$2:$D$4</xm:f>
+            <xm:f>Data!$D$2:$D$4</xm:f>
           </x14:formula1>
           <xm:sqref>AH68 AE66:AH67</xm:sqref>
         </x14:dataValidation>
@@ -11659,16 +11670,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="166" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="167" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="168" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" s="168" t="s">
-        <v>150</v>
-      </c>
       <c r="D1" s="168" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -11676,93 +11687,93 @@
         <v>39</v>
       </c>
       <c r="B2" s="169" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="170" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="114" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="169" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="169" t="s">
+      <c r="C3" s="114" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="114" t="s">
         <v>153</v>
-      </c>
-      <c r="C3" s="114" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="114" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="114" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="114" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="114" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="D4" s="114" t="s">
         <v>156</v>
-      </c>
-      <c r="D4" s="114" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="114" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="114" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="C5" s="114" t="s">
         <v>159</v>
-      </c>
-      <c r="C5" s="114" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="114" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="114" t="s">
         <v>161</v>
-      </c>
-      <c r="C6" s="114" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="114" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="114" t="s">
         <v>163</v>
-      </c>
-      <c r="C7" s="114" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="114" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="114" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="114" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10101_Login.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10101_Login.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61302F54-3226-47F7-A6CB-72E526AA52C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0A9AA9-FBE2-4A0D-98DA-55E389DDBC5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21270" windowHeight="10575" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -35,7 +35,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1514,7 +1516,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="382">
+  <cellXfs count="387">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1926,6 +1928,111 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1962,24 +2069,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1989,24 +2078,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2043,74 +2114,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2130,78 +2204,6 @@
     <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2256,46 +2258,19 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2304,153 +2279,45 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2469,6 +2336,21 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2504,37 +2386,172 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3322,42 +3339,42 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -3368,7 +3385,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -3377,7 +3394,7 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -3389,7 +3406,7 @@
       <c r="K25" s="172"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -3398,7 +3415,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -3407,7 +3424,7 @@
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -3416,7 +3433,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="19"/>
@@ -3424,7 +3441,7 @@
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -3433,7 +3450,7 @@
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -3442,7 +3459,7 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="6:12" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -3451,7 +3468,7 @@
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="19"/>
@@ -3463,7 +3480,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="19"/>
@@ -3478,515 +3495,515 @@
       <c r="R34" s="33"/>
       <c r="S34" s="33"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="33"/>
       <c r="R35" s="33"/>
       <c r="S35" s="33"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="34"/>
       <c r="P36" s="33"/>
       <c r="Q36" s="34"/>
       <c r="R36" s="33"/>
       <c r="S36" s="31"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="35"/>
       <c r="P37" s="36"/>
       <c r="Q37" s="35"/>
       <c r="R37" s="36"/>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="36"/>
       <c r="P38" s="36"/>
       <c r="Q38" s="36"/>
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
       <c r="Q39" s="36"/>
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -4010,63 +4027,63 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="26"/>
+    <col min="1" max="16384" width="4.83203125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="191" t="s">
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="224" t="s">
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="222"/>
+      <c r="O1" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="225"/>
-      <c r="Q1" s="225"/>
-      <c r="R1" s="226"/>
-      <c r="S1" s="203" t="s">
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="204"/>
-      <c r="U1" s="204"/>
-      <c r="V1" s="204"/>
-      <c r="W1" s="204"/>
-      <c r="X1" s="204"/>
-      <c r="Y1" s="204"/>
-      <c r="Z1" s="205"/>
-      <c r="AA1" s="221" t="s">
+      <c r="T1" s="227"/>
+      <c r="U1" s="227"/>
+      <c r="V1" s="227"/>
+      <c r="W1" s="227"/>
+      <c r="X1" s="227"/>
+      <c r="Y1" s="227"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="223"/>
-      <c r="AC1" s="173" t="str">
+      <c r="AB1" s="175"/>
+      <c r="AC1" s="208" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-      <c r="AF1" s="175"/>
-      <c r="AG1" s="179">
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="210"/>
+      <c r="AG1" s="214">
         <f>IF(D8="","",D8)</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="180"/>
-      <c r="AI1" s="181"/>
+      <c r="AH1" s="215"/>
+      <c r="AI1" s="216"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -4074,53 +4091,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="221" t="s">
+      <c r="A2" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="191" t="s">
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="220" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="192"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="227"/>
-      <c r="P2" s="228"/>
-      <c r="Q2" s="228"/>
-      <c r="R2" s="229"/>
-      <c r="S2" s="206"/>
-      <c r="T2" s="207"/>
-      <c r="U2" s="207"/>
-      <c r="V2" s="207"/>
-      <c r="W2" s="207"/>
-      <c r="X2" s="207"/>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="221" t="s">
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="222"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="229"/>
+      <c r="T2" s="230"/>
+      <c r="U2" s="230"/>
+      <c r="V2" s="230"/>
+      <c r="W2" s="230"/>
+      <c r="X2" s="230"/>
+      <c r="Y2" s="230"/>
+      <c r="Z2" s="231"/>
+      <c r="AA2" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="223"/>
-      <c r="AC2" s="182" t="str">
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="217" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="183"/>
-      <c r="AE2" s="183"/>
-      <c r="AF2" s="184"/>
-      <c r="AG2" s="179" t="str">
+      <c r="AD2" s="218"/>
+      <c r="AE2" s="218"/>
+      <c r="AF2" s="219"/>
+      <c r="AG2" s="214" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="180"/>
-      <c r="AI2" s="181"/>
+      <c r="AH2" s="215"/>
+      <c r="AI2" s="216"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -4128,45 +4145,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="221" t="s">
+      <c r="A3" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="222"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="191" t="s">
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="193"/>
-      <c r="O3" s="230"/>
-      <c r="P3" s="231"/>
-      <c r="Q3" s="231"/>
-      <c r="R3" s="232"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="210"/>
-      <c r="U3" s="210"/>
-      <c r="V3" s="210"/>
-      <c r="W3" s="210"/>
-      <c r="X3" s="210"/>
-      <c r="Y3" s="210"/>
-      <c r="Z3" s="211"/>
-      <c r="AA3" s="233"/>
-      <c r="AB3" s="234"/>
-      <c r="AC3" s="173"/>
-      <c r="AD3" s="174"/>
-      <c r="AE3" s="174"/>
-      <c r="AF3" s="175"/>
-      <c r="AG3" s="179"/>
-      <c r="AH3" s="180"/>
-      <c r="AI3" s="181"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="222"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="184"/>
+      <c r="S3" s="232"/>
+      <c r="T3" s="233"/>
+      <c r="U3" s="233"/>
+      <c r="V3" s="233"/>
+      <c r="W3" s="233"/>
+      <c r="X3" s="233"/>
+      <c r="Y3" s="233"/>
+      <c r="Z3" s="234"/>
+      <c r="AA3" s="185"/>
+      <c r="AB3" s="186"/>
+      <c r="AC3" s="208"/>
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="210"/>
+      <c r="AG3" s="214"/>
+      <c r="AH3" s="215"/>
+      <c r="AI3" s="216"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -4305,1028 +4322,1028 @@
       <c r="A7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="188" t="s">
+      <c r="B7" s="199" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="188" t="s">
+      <c r="C7" s="200"/>
+      <c r="D7" s="199" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="188" t="s">
+      <c r="E7" s="201"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="199" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="189"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="188" t="s">
+      <c r="H7" s="201"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="189"/>
-      <c r="L7" s="189"/>
-      <c r="M7" s="189"/>
-      <c r="N7" s="189"/>
-      <c r="O7" s="189"/>
-      <c r="P7" s="190"/>
-      <c r="Q7" s="188" t="s">
+      <c r="K7" s="201"/>
+      <c r="L7" s="201"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="199" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="189"/>
-      <c r="S7" s="189"/>
-      <c r="T7" s="189"/>
-      <c r="U7" s="189"/>
-      <c r="V7" s="189"/>
-      <c r="W7" s="189"/>
-      <c r="X7" s="189"/>
-      <c r="Y7" s="189"/>
-      <c r="Z7" s="189"/>
-      <c r="AA7" s="189"/>
-      <c r="AB7" s="189"/>
-      <c r="AC7" s="189"/>
-      <c r="AD7" s="189"/>
-      <c r="AE7" s="190"/>
-      <c r="AF7" s="188" t="s">
+      <c r="R7" s="201"/>
+      <c r="S7" s="201"/>
+      <c r="T7" s="201"/>
+      <c r="U7" s="201"/>
+      <c r="V7" s="201"/>
+      <c r="W7" s="201"/>
+      <c r="X7" s="201"/>
+      <c r="Y7" s="201"/>
+      <c r="Z7" s="201"/>
+      <c r="AA7" s="201"/>
+      <c r="AB7" s="201"/>
+      <c r="AC7" s="201"/>
+      <c r="AD7" s="201"/>
+      <c r="AE7" s="200"/>
+      <c r="AF7" s="199" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="189"/>
-      <c r="AH7" s="189"/>
-      <c r="AI7" s="190"/>
+      <c r="AG7" s="201"/>
+      <c r="AH7" s="201"/>
+      <c r="AI7" s="200"/>
     </row>
     <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="215" t="s">
+      <c r="B8" s="202" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="216"/>
-      <c r="D8" s="217">
+      <c r="C8" s="203"/>
+      <c r="D8" s="204">
         <v>43656</v>
       </c>
-      <c r="E8" s="218"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="215" t="s">
+      <c r="E8" s="205"/>
+      <c r="F8" s="206"/>
+      <c r="G8" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="220"/>
-      <c r="I8" s="216"/>
-      <c r="J8" s="200" t="s">
+      <c r="H8" s="207"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="201"/>
-      <c r="L8" s="201"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="201"/>
-      <c r="O8" s="201"/>
-      <c r="P8" s="202"/>
-      <c r="Q8" s="176" t="s">
+      <c r="K8" s="224"/>
+      <c r="L8" s="224"/>
+      <c r="M8" s="224"/>
+      <c r="N8" s="224"/>
+      <c r="O8" s="224"/>
+      <c r="P8" s="225"/>
+      <c r="Q8" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="177"/>
-      <c r="S8" s="177"/>
-      <c r="T8" s="177"/>
-      <c r="U8" s="177"/>
-      <c r="V8" s="177"/>
-      <c r="W8" s="177"/>
-      <c r="X8" s="177"/>
-      <c r="Y8" s="177"/>
-      <c r="Z8" s="177"/>
-      <c r="AA8" s="177"/>
-      <c r="AB8" s="177"/>
-      <c r="AC8" s="177"/>
-      <c r="AD8" s="177"/>
-      <c r="AE8" s="178"/>
-      <c r="AF8" s="200" t="s">
+      <c r="R8" s="212"/>
+      <c r="S8" s="212"/>
+      <c r="T8" s="212"/>
+      <c r="U8" s="212"/>
+      <c r="V8" s="212"/>
+      <c r="W8" s="212"/>
+      <c r="X8" s="212"/>
+      <c r="Y8" s="212"/>
+      <c r="Z8" s="212"/>
+      <c r="AA8" s="212"/>
+      <c r="AB8" s="212"/>
+      <c r="AC8" s="212"/>
+      <c r="AD8" s="212"/>
+      <c r="AE8" s="213"/>
+      <c r="AF8" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="201"/>
-      <c r="AH8" s="201"/>
-      <c r="AI8" s="202"/>
+      <c r="AG8" s="224"/>
+      <c r="AH8" s="224"/>
+      <c r="AI8" s="225"/>
     </row>
     <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
-      <c r="B9" s="185"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="212"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="187"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="198"/>
-      <c r="L9" s="198"/>
-      <c r="M9" s="198"/>
-      <c r="N9" s="198"/>
-      <c r="O9" s="198"/>
-      <c r="P9" s="199"/>
-      <c r="Q9" s="194"/>
-      <c r="R9" s="195"/>
-      <c r="S9" s="195"/>
-      <c r="T9" s="195"/>
-      <c r="U9" s="195"/>
-      <c r="V9" s="195"/>
-      <c r="W9" s="195"/>
-      <c r="X9" s="195"/>
-      <c r="Y9" s="195"/>
-      <c r="Z9" s="195"/>
-      <c r="AA9" s="195"/>
-      <c r="AB9" s="195"/>
-      <c r="AC9" s="195"/>
-      <c r="AD9" s="195"/>
-      <c r="AE9" s="196"/>
-      <c r="AF9" s="197"/>
-      <c r="AG9" s="198"/>
-      <c r="AH9" s="198"/>
-      <c r="AI9" s="199"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="198"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="190"/>
+      <c r="K9" s="191"/>
+      <c r="L9" s="191"/>
+      <c r="M9" s="191"/>
+      <c r="N9" s="191"/>
+      <c r="O9" s="191"/>
+      <c r="P9" s="192"/>
+      <c r="Q9" s="187"/>
+      <c r="R9" s="188"/>
+      <c r="S9" s="188"/>
+      <c r="T9" s="188"/>
+      <c r="U9" s="188"/>
+      <c r="V9" s="188"/>
+      <c r="W9" s="188"/>
+      <c r="X9" s="188"/>
+      <c r="Y9" s="188"/>
+      <c r="Z9" s="188"/>
+      <c r="AA9" s="188"/>
+      <c r="AB9" s="188"/>
+      <c r="AC9" s="188"/>
+      <c r="AD9" s="188"/>
+      <c r="AE9" s="189"/>
+      <c r="AF9" s="190"/>
+      <c r="AG9" s="191"/>
+      <c r="AH9" s="191"/>
+      <c r="AI9" s="192"/>
     </row>
     <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
-      <c r="B10" s="185"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="213"/>
-      <c r="F10" s="214"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="198"/>
-      <c r="M10" s="198"/>
-      <c r="N10" s="198"/>
-      <c r="O10" s="198"/>
-      <c r="P10" s="199"/>
-      <c r="Q10" s="194"/>
-      <c r="R10" s="195"/>
-      <c r="S10" s="195"/>
-      <c r="T10" s="195"/>
-      <c r="U10" s="195"/>
-      <c r="V10" s="195"/>
-      <c r="W10" s="195"/>
-      <c r="X10" s="195"/>
-      <c r="Y10" s="195"/>
-      <c r="Z10" s="195"/>
-      <c r="AA10" s="195"/>
-      <c r="AB10" s="195"/>
-      <c r="AC10" s="195"/>
-      <c r="AD10" s="195"/>
-      <c r="AE10" s="196"/>
-      <c r="AF10" s="197"/>
-      <c r="AG10" s="198"/>
-      <c r="AH10" s="198"/>
-      <c r="AI10" s="199"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="191"/>
+      <c r="L10" s="191"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="191"/>
+      <c r="O10" s="191"/>
+      <c r="P10" s="192"/>
+      <c r="Q10" s="187"/>
+      <c r="R10" s="188"/>
+      <c r="S10" s="188"/>
+      <c r="T10" s="188"/>
+      <c r="U10" s="188"/>
+      <c r="V10" s="188"/>
+      <c r="W10" s="188"/>
+      <c r="X10" s="188"/>
+      <c r="Y10" s="188"/>
+      <c r="Z10" s="188"/>
+      <c r="AA10" s="188"/>
+      <c r="AB10" s="188"/>
+      <c r="AC10" s="188"/>
+      <c r="AD10" s="188"/>
+      <c r="AE10" s="189"/>
+      <c r="AF10" s="190"/>
+      <c r="AG10" s="191"/>
+      <c r="AH10" s="191"/>
+      <c r="AI10" s="192"/>
     </row>
     <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
-      <c r="B11" s="185"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="213"/>
-      <c r="F11" s="214"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="187"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="198"/>
-      <c r="M11" s="198"/>
-      <c r="N11" s="198"/>
-      <c r="O11" s="198"/>
-      <c r="P11" s="199"/>
-      <c r="Q11" s="194"/>
-      <c r="R11" s="195"/>
-      <c r="S11" s="195"/>
-      <c r="T11" s="195"/>
-      <c r="U11" s="195"/>
-      <c r="V11" s="195"/>
-      <c r="W11" s="195"/>
-      <c r="X11" s="195"/>
-      <c r="Y11" s="195"/>
-      <c r="Z11" s="195"/>
-      <c r="AA11" s="195"/>
-      <c r="AB11" s="195"/>
-      <c r="AC11" s="195"/>
-      <c r="AD11" s="195"/>
-      <c r="AE11" s="196"/>
-      <c r="AF11" s="197"/>
-      <c r="AG11" s="198"/>
-      <c r="AH11" s="198"/>
-      <c r="AI11" s="199"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="197"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="191"/>
+      <c r="L11" s="191"/>
+      <c r="M11" s="191"/>
+      <c r="N11" s="191"/>
+      <c r="O11" s="191"/>
+      <c r="P11" s="192"/>
+      <c r="Q11" s="187"/>
+      <c r="R11" s="188"/>
+      <c r="S11" s="188"/>
+      <c r="T11" s="188"/>
+      <c r="U11" s="188"/>
+      <c r="V11" s="188"/>
+      <c r="W11" s="188"/>
+      <c r="X11" s="188"/>
+      <c r="Y11" s="188"/>
+      <c r="Z11" s="188"/>
+      <c r="AA11" s="188"/>
+      <c r="AB11" s="188"/>
+      <c r="AC11" s="188"/>
+      <c r="AD11" s="188"/>
+      <c r="AE11" s="189"/>
+      <c r="AF11" s="190"/>
+      <c r="AG11" s="191"/>
+      <c r="AH11" s="191"/>
+      <c r="AI11" s="192"/>
     </row>
     <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
-      <c r="B12" s="185"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="212"/>
-      <c r="E12" s="213"/>
-      <c r="F12" s="214"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="187"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="198"/>
-      <c r="L12" s="198"/>
-      <c r="M12" s="198"/>
-      <c r="N12" s="198"/>
-      <c r="O12" s="198"/>
-      <c r="P12" s="199"/>
-      <c r="Q12" s="194"/>
-      <c r="R12" s="195"/>
-      <c r="S12" s="195"/>
-      <c r="T12" s="195"/>
-      <c r="U12" s="195"/>
-      <c r="V12" s="195"/>
-      <c r="W12" s="195"/>
-      <c r="X12" s="195"/>
-      <c r="Y12" s="195"/>
-      <c r="Z12" s="195"/>
-      <c r="AA12" s="195"/>
-      <c r="AB12" s="195"/>
-      <c r="AC12" s="195"/>
-      <c r="AD12" s="195"/>
-      <c r="AE12" s="196"/>
-      <c r="AF12" s="197"/>
-      <c r="AG12" s="198"/>
-      <c r="AH12" s="198"/>
-      <c r="AI12" s="199"/>
+      <c r="B12" s="193"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="195"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="198"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="191"/>
+      <c r="L12" s="191"/>
+      <c r="M12" s="191"/>
+      <c r="N12" s="191"/>
+      <c r="O12" s="191"/>
+      <c r="P12" s="192"/>
+      <c r="Q12" s="187"/>
+      <c r="R12" s="188"/>
+      <c r="S12" s="188"/>
+      <c r="T12" s="188"/>
+      <c r="U12" s="188"/>
+      <c r="V12" s="188"/>
+      <c r="W12" s="188"/>
+      <c r="X12" s="188"/>
+      <c r="Y12" s="188"/>
+      <c r="Z12" s="188"/>
+      <c r="AA12" s="188"/>
+      <c r="AB12" s="188"/>
+      <c r="AC12" s="188"/>
+      <c r="AD12" s="188"/>
+      <c r="AE12" s="189"/>
+      <c r="AF12" s="190"/>
+      <c r="AG12" s="191"/>
+      <c r="AH12" s="191"/>
+      <c r="AI12" s="192"/>
     </row>
     <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
-      <c r="B13" s="185"/>
-      <c r="C13" s="187"/>
-      <c r="D13" s="212"/>
-      <c r="E13" s="213"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="187"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="198"/>
-      <c r="L13" s="198"/>
-      <c r="M13" s="198"/>
-      <c r="N13" s="198"/>
-      <c r="O13" s="198"/>
-      <c r="P13" s="199"/>
-      <c r="Q13" s="194"/>
-      <c r="R13" s="195"/>
-      <c r="S13" s="195"/>
-      <c r="T13" s="195"/>
-      <c r="U13" s="195"/>
-      <c r="V13" s="195"/>
-      <c r="W13" s="195"/>
-      <c r="X13" s="195"/>
-      <c r="Y13" s="195"/>
-      <c r="Z13" s="195"/>
-      <c r="AA13" s="195"/>
-      <c r="AB13" s="195"/>
-      <c r="AC13" s="195"/>
-      <c r="AD13" s="195"/>
-      <c r="AE13" s="196"/>
-      <c r="AF13" s="197"/>
-      <c r="AG13" s="198"/>
-      <c r="AH13" s="198"/>
-      <c r="AI13" s="199"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="198"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="191"/>
+      <c r="L13" s="191"/>
+      <c r="M13" s="191"/>
+      <c r="N13" s="191"/>
+      <c r="O13" s="191"/>
+      <c r="P13" s="192"/>
+      <c r="Q13" s="187"/>
+      <c r="R13" s="188"/>
+      <c r="S13" s="188"/>
+      <c r="T13" s="188"/>
+      <c r="U13" s="188"/>
+      <c r="V13" s="188"/>
+      <c r="W13" s="188"/>
+      <c r="X13" s="188"/>
+      <c r="Y13" s="188"/>
+      <c r="Z13" s="188"/>
+      <c r="AA13" s="188"/>
+      <c r="AB13" s="188"/>
+      <c r="AC13" s="188"/>
+      <c r="AD13" s="188"/>
+      <c r="AE13" s="189"/>
+      <c r="AF13" s="190"/>
+      <c r="AG13" s="191"/>
+      <c r="AH13" s="191"/>
+      <c r="AI13" s="192"/>
     </row>
     <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
-      <c r="B14" s="185"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="212"/>
-      <c r="E14" s="213"/>
-      <c r="F14" s="214"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="187"/>
-      <c r="J14" s="197"/>
-      <c r="K14" s="198"/>
-      <c r="L14" s="198"/>
-      <c r="M14" s="198"/>
-      <c r="N14" s="198"/>
-      <c r="O14" s="198"/>
-      <c r="P14" s="199"/>
-      <c r="Q14" s="194"/>
-      <c r="R14" s="195"/>
-      <c r="S14" s="195"/>
-      <c r="T14" s="195"/>
-      <c r="U14" s="195"/>
-      <c r="V14" s="195"/>
-      <c r="W14" s="195"/>
-      <c r="X14" s="195"/>
-      <c r="Y14" s="195"/>
-      <c r="Z14" s="195"/>
-      <c r="AA14" s="195"/>
-      <c r="AB14" s="195"/>
-      <c r="AC14" s="195"/>
-      <c r="AD14" s="195"/>
-      <c r="AE14" s="196"/>
-      <c r="AF14" s="197"/>
-      <c r="AG14" s="198"/>
-      <c r="AH14" s="198"/>
-      <c r="AI14" s="199"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="195"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="198"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="191"/>
+      <c r="L14" s="191"/>
+      <c r="M14" s="191"/>
+      <c r="N14" s="191"/>
+      <c r="O14" s="191"/>
+      <c r="P14" s="192"/>
+      <c r="Q14" s="187"/>
+      <c r="R14" s="188"/>
+      <c r="S14" s="188"/>
+      <c r="T14" s="188"/>
+      <c r="U14" s="188"/>
+      <c r="V14" s="188"/>
+      <c r="W14" s="188"/>
+      <c r="X14" s="188"/>
+      <c r="Y14" s="188"/>
+      <c r="Z14" s="188"/>
+      <c r="AA14" s="188"/>
+      <c r="AB14" s="188"/>
+      <c r="AC14" s="188"/>
+      <c r="AD14" s="188"/>
+      <c r="AE14" s="189"/>
+      <c r="AF14" s="190"/>
+      <c r="AG14" s="191"/>
+      <c r="AH14" s="191"/>
+      <c r="AI14" s="192"/>
     </row>
     <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
-      <c r="B15" s="185"/>
-      <c r="C15" s="187"/>
-      <c r="D15" s="212"/>
-      <c r="E15" s="213"/>
-      <c r="F15" s="214"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="198"/>
-      <c r="O15" s="198"/>
-      <c r="P15" s="199"/>
-      <c r="Q15" s="194"/>
-      <c r="R15" s="195"/>
-      <c r="S15" s="195"/>
-      <c r="T15" s="195"/>
-      <c r="U15" s="195"/>
-      <c r="V15" s="195"/>
-      <c r="W15" s="195"/>
-      <c r="X15" s="195"/>
-      <c r="Y15" s="195"/>
-      <c r="Z15" s="195"/>
-      <c r="AA15" s="195"/>
-      <c r="AB15" s="195"/>
-      <c r="AC15" s="195"/>
-      <c r="AD15" s="195"/>
-      <c r="AE15" s="196"/>
-      <c r="AF15" s="197"/>
-      <c r="AG15" s="198"/>
-      <c r="AH15" s="198"/>
-      <c r="AI15" s="199"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="195"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="194"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="191"/>
+      <c r="L15" s="191"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="191"/>
+      <c r="O15" s="191"/>
+      <c r="P15" s="192"/>
+      <c r="Q15" s="187"/>
+      <c r="R15" s="188"/>
+      <c r="S15" s="188"/>
+      <c r="T15" s="188"/>
+      <c r="U15" s="188"/>
+      <c r="V15" s="188"/>
+      <c r="W15" s="188"/>
+      <c r="X15" s="188"/>
+      <c r="Y15" s="188"/>
+      <c r="Z15" s="188"/>
+      <c r="AA15" s="188"/>
+      <c r="AB15" s="188"/>
+      <c r="AC15" s="188"/>
+      <c r="AD15" s="188"/>
+      <c r="AE15" s="189"/>
+      <c r="AF15" s="190"/>
+      <c r="AG15" s="191"/>
+      <c r="AH15" s="191"/>
+      <c r="AI15" s="192"/>
     </row>
     <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
-      <c r="B16" s="185"/>
-      <c r="C16" s="187"/>
-      <c r="D16" s="212"/>
-      <c r="E16" s="213"/>
-      <c r="F16" s="214"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="198"/>
-      <c r="L16" s="198"/>
-      <c r="M16" s="198"/>
-      <c r="N16" s="198"/>
-      <c r="O16" s="198"/>
-      <c r="P16" s="199"/>
-      <c r="Q16" s="194"/>
-      <c r="R16" s="195"/>
-      <c r="S16" s="195"/>
-      <c r="T16" s="195"/>
-      <c r="U16" s="195"/>
-      <c r="V16" s="195"/>
-      <c r="W16" s="195"/>
-      <c r="X16" s="195"/>
-      <c r="Y16" s="195"/>
-      <c r="Z16" s="195"/>
-      <c r="AA16" s="195"/>
-      <c r="AB16" s="195"/>
-      <c r="AC16" s="195"/>
-      <c r="AD16" s="195"/>
-      <c r="AE16" s="196"/>
-      <c r="AF16" s="197"/>
-      <c r="AG16" s="198"/>
-      <c r="AH16" s="198"/>
-      <c r="AI16" s="199"/>
+      <c r="B16" s="193"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="195"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="198"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="191"/>
+      <c r="L16" s="191"/>
+      <c r="M16" s="191"/>
+      <c r="N16" s="191"/>
+      <c r="O16" s="191"/>
+      <c r="P16" s="192"/>
+      <c r="Q16" s="187"/>
+      <c r="R16" s="188"/>
+      <c r="S16" s="188"/>
+      <c r="T16" s="188"/>
+      <c r="U16" s="188"/>
+      <c r="V16" s="188"/>
+      <c r="W16" s="188"/>
+      <c r="X16" s="188"/>
+      <c r="Y16" s="188"/>
+      <c r="Z16" s="188"/>
+      <c r="AA16" s="188"/>
+      <c r="AB16" s="188"/>
+      <c r="AC16" s="188"/>
+      <c r="AD16" s="188"/>
+      <c r="AE16" s="189"/>
+      <c r="AF16" s="190"/>
+      <c r="AG16" s="191"/>
+      <c r="AH16" s="191"/>
+      <c r="AI16" s="192"/>
     </row>
     <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
-      <c r="B17" s="185"/>
-      <c r="C17" s="187"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="213"/>
-      <c r="F17" s="214"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="198"/>
-      <c r="L17" s="198"/>
-      <c r="M17" s="198"/>
-      <c r="N17" s="198"/>
-      <c r="O17" s="198"/>
-      <c r="P17" s="199"/>
-      <c r="Q17" s="194"/>
-      <c r="R17" s="195"/>
-      <c r="S17" s="195"/>
-      <c r="T17" s="195"/>
-      <c r="U17" s="195"/>
-      <c r="V17" s="195"/>
-      <c r="W17" s="195"/>
-      <c r="X17" s="195"/>
-      <c r="Y17" s="195"/>
-      <c r="Z17" s="195"/>
-      <c r="AA17" s="195"/>
-      <c r="AB17" s="195"/>
-      <c r="AC17" s="195"/>
-      <c r="AD17" s="195"/>
-      <c r="AE17" s="196"/>
-      <c r="AF17" s="197"/>
-      <c r="AG17" s="198"/>
-      <c r="AH17" s="198"/>
-      <c r="AI17" s="199"/>
+      <c r="B17" s="193"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="196"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="190"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="191"/>
+      <c r="M17" s="191"/>
+      <c r="N17" s="191"/>
+      <c r="O17" s="191"/>
+      <c r="P17" s="192"/>
+      <c r="Q17" s="187"/>
+      <c r="R17" s="188"/>
+      <c r="S17" s="188"/>
+      <c r="T17" s="188"/>
+      <c r="U17" s="188"/>
+      <c r="V17" s="188"/>
+      <c r="W17" s="188"/>
+      <c r="X17" s="188"/>
+      <c r="Y17" s="188"/>
+      <c r="Z17" s="188"/>
+      <c r="AA17" s="188"/>
+      <c r="AB17" s="188"/>
+      <c r="AC17" s="188"/>
+      <c r="AD17" s="188"/>
+      <c r="AE17" s="189"/>
+      <c r="AF17" s="190"/>
+      <c r="AG17" s="191"/>
+      <c r="AH17" s="191"/>
+      <c r="AI17" s="192"/>
     </row>
     <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
-      <c r="B18" s="185"/>
-      <c r="C18" s="187"/>
-      <c r="D18" s="212"/>
-      <c r="E18" s="213"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="198"/>
-      <c r="L18" s="198"/>
-      <c r="M18" s="198"/>
-      <c r="N18" s="198"/>
-      <c r="O18" s="198"/>
-      <c r="P18" s="199"/>
-      <c r="Q18" s="194"/>
-      <c r="R18" s="195"/>
-      <c r="S18" s="195"/>
-      <c r="T18" s="195"/>
-      <c r="U18" s="195"/>
-      <c r="V18" s="195"/>
-      <c r="W18" s="195"/>
-      <c r="X18" s="195"/>
-      <c r="Y18" s="195"/>
-      <c r="Z18" s="195"/>
-      <c r="AA18" s="195"/>
-      <c r="AB18" s="195"/>
-      <c r="AC18" s="195"/>
-      <c r="AD18" s="195"/>
-      <c r="AE18" s="196"/>
-      <c r="AF18" s="197"/>
-      <c r="AG18" s="198"/>
-      <c r="AH18" s="198"/>
-      <c r="AI18" s="199"/>
+      <c r="B18" s="193"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="196"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="198"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="190"/>
+      <c r="K18" s="191"/>
+      <c r="L18" s="191"/>
+      <c r="M18" s="191"/>
+      <c r="N18" s="191"/>
+      <c r="O18" s="191"/>
+      <c r="P18" s="192"/>
+      <c r="Q18" s="187"/>
+      <c r="R18" s="188"/>
+      <c r="S18" s="188"/>
+      <c r="T18" s="188"/>
+      <c r="U18" s="188"/>
+      <c r="V18" s="188"/>
+      <c r="W18" s="188"/>
+      <c r="X18" s="188"/>
+      <c r="Y18" s="188"/>
+      <c r="Z18" s="188"/>
+      <c r="AA18" s="188"/>
+      <c r="AB18" s="188"/>
+      <c r="AC18" s="188"/>
+      <c r="AD18" s="188"/>
+      <c r="AE18" s="189"/>
+      <c r="AF18" s="190"/>
+      <c r="AG18" s="191"/>
+      <c r="AH18" s="191"/>
+      <c r="AI18" s="192"/>
     </row>
     <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
-      <c r="B19" s="185"/>
-      <c r="C19" s="187"/>
-      <c r="D19" s="212"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="197"/>
-      <c r="K19" s="198"/>
-      <c r="L19" s="198"/>
-      <c r="M19" s="198"/>
-      <c r="N19" s="198"/>
-      <c r="O19" s="198"/>
-      <c r="P19" s="199"/>
-      <c r="Q19" s="194"/>
-      <c r="R19" s="195"/>
-      <c r="S19" s="195"/>
-      <c r="T19" s="195"/>
-      <c r="U19" s="195"/>
-      <c r="V19" s="195"/>
-      <c r="W19" s="195"/>
-      <c r="X19" s="195"/>
-      <c r="Y19" s="195"/>
-      <c r="Z19" s="195"/>
-      <c r="AA19" s="195"/>
-      <c r="AB19" s="195"/>
-      <c r="AC19" s="195"/>
-      <c r="AD19" s="195"/>
-      <c r="AE19" s="196"/>
-      <c r="AF19" s="197"/>
-      <c r="AG19" s="198"/>
-      <c r="AH19" s="198"/>
-      <c r="AI19" s="199"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="195"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="198"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="190"/>
+      <c r="K19" s="191"/>
+      <c r="L19" s="191"/>
+      <c r="M19" s="191"/>
+      <c r="N19" s="191"/>
+      <c r="O19" s="191"/>
+      <c r="P19" s="192"/>
+      <c r="Q19" s="187"/>
+      <c r="R19" s="188"/>
+      <c r="S19" s="188"/>
+      <c r="T19" s="188"/>
+      <c r="U19" s="188"/>
+      <c r="V19" s="188"/>
+      <c r="W19" s="188"/>
+      <c r="X19" s="188"/>
+      <c r="Y19" s="188"/>
+      <c r="Z19" s="188"/>
+      <c r="AA19" s="188"/>
+      <c r="AB19" s="188"/>
+      <c r="AC19" s="188"/>
+      <c r="AD19" s="188"/>
+      <c r="AE19" s="189"/>
+      <c r="AF19" s="190"/>
+      <c r="AG19" s="191"/>
+      <c r="AH19" s="191"/>
+      <c r="AI19" s="192"/>
     </row>
     <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
-      <c r="B20" s="185"/>
-      <c r="C20" s="187"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="213"/>
-      <c r="F20" s="214"/>
-      <c r="G20" s="185"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="197"/>
-      <c r="K20" s="198"/>
-      <c r="L20" s="198"/>
-      <c r="M20" s="198"/>
-      <c r="N20" s="198"/>
-      <c r="O20" s="198"/>
-      <c r="P20" s="199"/>
-      <c r="Q20" s="194"/>
-      <c r="R20" s="195"/>
-      <c r="S20" s="195"/>
-      <c r="T20" s="195"/>
-      <c r="U20" s="195"/>
-      <c r="V20" s="195"/>
-      <c r="W20" s="195"/>
-      <c r="X20" s="195"/>
-      <c r="Y20" s="195"/>
-      <c r="Z20" s="195"/>
-      <c r="AA20" s="195"/>
-      <c r="AB20" s="195"/>
-      <c r="AC20" s="195"/>
-      <c r="AD20" s="195"/>
-      <c r="AE20" s="196"/>
-      <c r="AF20" s="197"/>
-      <c r="AG20" s="198"/>
-      <c r="AH20" s="198"/>
-      <c r="AI20" s="199"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="195"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="197"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="198"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="190"/>
+      <c r="K20" s="191"/>
+      <c r="L20" s="191"/>
+      <c r="M20" s="191"/>
+      <c r="N20" s="191"/>
+      <c r="O20" s="191"/>
+      <c r="P20" s="192"/>
+      <c r="Q20" s="187"/>
+      <c r="R20" s="188"/>
+      <c r="S20" s="188"/>
+      <c r="T20" s="188"/>
+      <c r="U20" s="188"/>
+      <c r="V20" s="188"/>
+      <c r="W20" s="188"/>
+      <c r="X20" s="188"/>
+      <c r="Y20" s="188"/>
+      <c r="Z20" s="188"/>
+      <c r="AA20" s="188"/>
+      <c r="AB20" s="188"/>
+      <c r="AC20" s="188"/>
+      <c r="AD20" s="188"/>
+      <c r="AE20" s="189"/>
+      <c r="AF20" s="190"/>
+      <c r="AG20" s="191"/>
+      <c r="AH20" s="191"/>
+      <c r="AI20" s="192"/>
     </row>
     <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
-      <c r="B21" s="185"/>
-      <c r="C21" s="187"/>
-      <c r="D21" s="212"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="197"/>
-      <c r="K21" s="198"/>
-      <c r="L21" s="198"/>
-      <c r="M21" s="198"/>
-      <c r="N21" s="198"/>
-      <c r="O21" s="198"/>
-      <c r="P21" s="199"/>
-      <c r="Q21" s="194"/>
-      <c r="R21" s="195"/>
-      <c r="S21" s="195"/>
-      <c r="T21" s="195"/>
-      <c r="U21" s="195"/>
-      <c r="V21" s="195"/>
-      <c r="W21" s="195"/>
-      <c r="X21" s="195"/>
-      <c r="Y21" s="195"/>
-      <c r="Z21" s="195"/>
-      <c r="AA21" s="195"/>
-      <c r="AB21" s="195"/>
-      <c r="AC21" s="195"/>
-      <c r="AD21" s="195"/>
-      <c r="AE21" s="196"/>
-      <c r="AF21" s="197"/>
-      <c r="AG21" s="198"/>
-      <c r="AH21" s="198"/>
-      <c r="AI21" s="199"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="195"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="198"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="190"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="191"/>
+      <c r="M21" s="191"/>
+      <c r="N21" s="191"/>
+      <c r="O21" s="191"/>
+      <c r="P21" s="192"/>
+      <c r="Q21" s="187"/>
+      <c r="R21" s="188"/>
+      <c r="S21" s="188"/>
+      <c r="T21" s="188"/>
+      <c r="U21" s="188"/>
+      <c r="V21" s="188"/>
+      <c r="W21" s="188"/>
+      <c r="X21" s="188"/>
+      <c r="Y21" s="188"/>
+      <c r="Z21" s="188"/>
+      <c r="AA21" s="188"/>
+      <c r="AB21" s="188"/>
+      <c r="AC21" s="188"/>
+      <c r="AD21" s="188"/>
+      <c r="AE21" s="189"/>
+      <c r="AF21" s="190"/>
+      <c r="AG21" s="191"/>
+      <c r="AH21" s="191"/>
+      <c r="AI21" s="192"/>
     </row>
     <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
-      <c r="B22" s="185"/>
-      <c r="C22" s="187"/>
-      <c r="D22" s="212"/>
-      <c r="E22" s="213"/>
-      <c r="F22" s="214"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="187"/>
-      <c r="J22" s="197"/>
-      <c r="K22" s="198"/>
-      <c r="L22" s="198"/>
-      <c r="M22" s="198"/>
-      <c r="N22" s="198"/>
-      <c r="O22" s="198"/>
-      <c r="P22" s="199"/>
-      <c r="Q22" s="194"/>
-      <c r="R22" s="195"/>
-      <c r="S22" s="195"/>
-      <c r="T22" s="195"/>
-      <c r="U22" s="195"/>
-      <c r="V22" s="195"/>
-      <c r="W22" s="195"/>
-      <c r="X22" s="195"/>
-      <c r="Y22" s="195"/>
-      <c r="Z22" s="195"/>
-      <c r="AA22" s="195"/>
-      <c r="AB22" s="195"/>
-      <c r="AC22" s="195"/>
-      <c r="AD22" s="195"/>
-      <c r="AE22" s="196"/>
-      <c r="AF22" s="197"/>
-      <c r="AG22" s="198"/>
-      <c r="AH22" s="198"/>
-      <c r="AI22" s="199"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="195"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="193"/>
+      <c r="H22" s="198"/>
+      <c r="I22" s="194"/>
+      <c r="J22" s="190"/>
+      <c r="K22" s="191"/>
+      <c r="L22" s="191"/>
+      <c r="M22" s="191"/>
+      <c r="N22" s="191"/>
+      <c r="O22" s="191"/>
+      <c r="P22" s="192"/>
+      <c r="Q22" s="187"/>
+      <c r="R22" s="188"/>
+      <c r="S22" s="188"/>
+      <c r="T22" s="188"/>
+      <c r="U22" s="188"/>
+      <c r="V22" s="188"/>
+      <c r="W22" s="188"/>
+      <c r="X22" s="188"/>
+      <c r="Y22" s="188"/>
+      <c r="Z22" s="188"/>
+      <c r="AA22" s="188"/>
+      <c r="AB22" s="188"/>
+      <c r="AC22" s="188"/>
+      <c r="AD22" s="188"/>
+      <c r="AE22" s="189"/>
+      <c r="AF22" s="190"/>
+      <c r="AG22" s="191"/>
+      <c r="AH22" s="191"/>
+      <c r="AI22" s="192"/>
     </row>
     <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
-      <c r="B23" s="185"/>
-      <c r="C23" s="187"/>
-      <c r="D23" s="212"/>
-      <c r="E23" s="213"/>
-      <c r="F23" s="214"/>
-      <c r="G23" s="185"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="197"/>
-      <c r="K23" s="198"/>
-      <c r="L23" s="198"/>
-      <c r="M23" s="198"/>
-      <c r="N23" s="198"/>
-      <c r="O23" s="198"/>
-      <c r="P23" s="199"/>
-      <c r="Q23" s="194"/>
-      <c r="R23" s="195"/>
-      <c r="S23" s="195"/>
-      <c r="T23" s="195"/>
-      <c r="U23" s="195"/>
-      <c r="V23" s="195"/>
-      <c r="W23" s="195"/>
-      <c r="X23" s="195"/>
-      <c r="Y23" s="195"/>
-      <c r="Z23" s="195"/>
-      <c r="AA23" s="195"/>
-      <c r="AB23" s="195"/>
-      <c r="AC23" s="195"/>
-      <c r="AD23" s="195"/>
-      <c r="AE23" s="196"/>
-      <c r="AF23" s="197"/>
-      <c r="AG23" s="198"/>
-      <c r="AH23" s="198"/>
-      <c r="AI23" s="199"/>
+      <c r="B23" s="193"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="195"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="197"/>
+      <c r="G23" s="193"/>
+      <c r="H23" s="198"/>
+      <c r="I23" s="194"/>
+      <c r="J23" s="190"/>
+      <c r="K23" s="191"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="191"/>
+      <c r="O23" s="191"/>
+      <c r="P23" s="192"/>
+      <c r="Q23" s="187"/>
+      <c r="R23" s="188"/>
+      <c r="S23" s="188"/>
+      <c r="T23" s="188"/>
+      <c r="U23" s="188"/>
+      <c r="V23" s="188"/>
+      <c r="W23" s="188"/>
+      <c r="X23" s="188"/>
+      <c r="Y23" s="188"/>
+      <c r="Z23" s="188"/>
+      <c r="AA23" s="188"/>
+      <c r="AB23" s="188"/>
+      <c r="AC23" s="188"/>
+      <c r="AD23" s="188"/>
+      <c r="AE23" s="189"/>
+      <c r="AF23" s="190"/>
+      <c r="AG23" s="191"/>
+      <c r="AH23" s="191"/>
+      <c r="AI23" s="192"/>
     </row>
     <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
-      <c r="B24" s="185"/>
-      <c r="C24" s="187"/>
-      <c r="D24" s="212"/>
-      <c r="E24" s="213"/>
-      <c r="F24" s="214"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="197"/>
-      <c r="K24" s="198"/>
-      <c r="L24" s="198"/>
-      <c r="M24" s="198"/>
-      <c r="N24" s="198"/>
-      <c r="O24" s="198"/>
-      <c r="P24" s="199"/>
-      <c r="Q24" s="194"/>
-      <c r="R24" s="195"/>
-      <c r="S24" s="195"/>
-      <c r="T24" s="195"/>
-      <c r="U24" s="195"/>
-      <c r="V24" s="195"/>
-      <c r="W24" s="195"/>
-      <c r="X24" s="195"/>
-      <c r="Y24" s="195"/>
-      <c r="Z24" s="195"/>
-      <c r="AA24" s="195"/>
-      <c r="AB24" s="195"/>
-      <c r="AC24" s="195"/>
-      <c r="AD24" s="195"/>
-      <c r="AE24" s="196"/>
-      <c r="AF24" s="197"/>
-      <c r="AG24" s="198"/>
-      <c r="AH24" s="198"/>
-      <c r="AI24" s="199"/>
+      <c r="B24" s="193"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="195"/>
+      <c r="E24" s="196"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="193"/>
+      <c r="H24" s="198"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="190"/>
+      <c r="K24" s="191"/>
+      <c r="L24" s="191"/>
+      <c r="M24" s="191"/>
+      <c r="N24" s="191"/>
+      <c r="O24" s="191"/>
+      <c r="P24" s="192"/>
+      <c r="Q24" s="187"/>
+      <c r="R24" s="188"/>
+      <c r="S24" s="188"/>
+      <c r="T24" s="188"/>
+      <c r="U24" s="188"/>
+      <c r="V24" s="188"/>
+      <c r="W24" s="188"/>
+      <c r="X24" s="188"/>
+      <c r="Y24" s="188"/>
+      <c r="Z24" s="188"/>
+      <c r="AA24" s="188"/>
+      <c r="AB24" s="188"/>
+      <c r="AC24" s="188"/>
+      <c r="AD24" s="188"/>
+      <c r="AE24" s="189"/>
+      <c r="AF24" s="190"/>
+      <c r="AG24" s="191"/>
+      <c r="AH24" s="191"/>
+      <c r="AI24" s="192"/>
     </row>
     <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
-      <c r="B25" s="185"/>
-      <c r="C25" s="187"/>
-      <c r="D25" s="212"/>
-      <c r="E25" s="213"/>
-      <c r="F25" s="214"/>
-      <c r="G25" s="185"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="197"/>
-      <c r="K25" s="198"/>
-      <c r="L25" s="198"/>
-      <c r="M25" s="198"/>
-      <c r="N25" s="198"/>
-      <c r="O25" s="198"/>
-      <c r="P25" s="199"/>
-      <c r="Q25" s="194"/>
-      <c r="R25" s="195"/>
-      <c r="S25" s="195"/>
-      <c r="T25" s="195"/>
-      <c r="U25" s="195"/>
-      <c r="V25" s="195"/>
-      <c r="W25" s="195"/>
-      <c r="X25" s="195"/>
-      <c r="Y25" s="195"/>
-      <c r="Z25" s="195"/>
-      <c r="AA25" s="195"/>
-      <c r="AB25" s="195"/>
-      <c r="AC25" s="195"/>
-      <c r="AD25" s="195"/>
-      <c r="AE25" s="196"/>
-      <c r="AF25" s="197"/>
-      <c r="AG25" s="198"/>
-      <c r="AH25" s="198"/>
-      <c r="AI25" s="199"/>
+      <c r="B25" s="193"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="196"/>
+      <c r="F25" s="197"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="198"/>
+      <c r="I25" s="194"/>
+      <c r="J25" s="190"/>
+      <c r="K25" s="191"/>
+      <c r="L25" s="191"/>
+      <c r="M25" s="191"/>
+      <c r="N25" s="191"/>
+      <c r="O25" s="191"/>
+      <c r="P25" s="192"/>
+      <c r="Q25" s="187"/>
+      <c r="R25" s="188"/>
+      <c r="S25" s="188"/>
+      <c r="T25" s="188"/>
+      <c r="U25" s="188"/>
+      <c r="V25" s="188"/>
+      <c r="W25" s="188"/>
+      <c r="X25" s="188"/>
+      <c r="Y25" s="188"/>
+      <c r="Z25" s="188"/>
+      <c r="AA25" s="188"/>
+      <c r="AB25" s="188"/>
+      <c r="AC25" s="188"/>
+      <c r="AD25" s="188"/>
+      <c r="AE25" s="189"/>
+      <c r="AF25" s="190"/>
+      <c r="AG25" s="191"/>
+      <c r="AH25" s="191"/>
+      <c r="AI25" s="192"/>
     </row>
     <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
-      <c r="B26" s="185"/>
-      <c r="C26" s="187"/>
-      <c r="D26" s="212"/>
-      <c r="E26" s="213"/>
-      <c r="F26" s="214"/>
-      <c r="G26" s="185"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="187"/>
-      <c r="J26" s="197"/>
-      <c r="K26" s="198"/>
-      <c r="L26" s="198"/>
-      <c r="M26" s="198"/>
-      <c r="N26" s="198"/>
-      <c r="O26" s="198"/>
-      <c r="P26" s="199"/>
-      <c r="Q26" s="194"/>
-      <c r="R26" s="195"/>
-      <c r="S26" s="195"/>
-      <c r="T26" s="195"/>
-      <c r="U26" s="195"/>
-      <c r="V26" s="195"/>
-      <c r="W26" s="195"/>
-      <c r="X26" s="195"/>
-      <c r="Y26" s="195"/>
-      <c r="Z26" s="195"/>
-      <c r="AA26" s="195"/>
-      <c r="AB26" s="195"/>
-      <c r="AC26" s="195"/>
-      <c r="AD26" s="195"/>
-      <c r="AE26" s="196"/>
-      <c r="AF26" s="197"/>
-      <c r="AG26" s="198"/>
-      <c r="AH26" s="198"/>
-      <c r="AI26" s="199"/>
+      <c r="B26" s="193"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="195"/>
+      <c r="E26" s="196"/>
+      <c r="F26" s="197"/>
+      <c r="G26" s="193"/>
+      <c r="H26" s="198"/>
+      <c r="I26" s="194"/>
+      <c r="J26" s="190"/>
+      <c r="K26" s="191"/>
+      <c r="L26" s="191"/>
+      <c r="M26" s="191"/>
+      <c r="N26" s="191"/>
+      <c r="O26" s="191"/>
+      <c r="P26" s="192"/>
+      <c r="Q26" s="187"/>
+      <c r="R26" s="188"/>
+      <c r="S26" s="188"/>
+      <c r="T26" s="188"/>
+      <c r="U26" s="188"/>
+      <c r="V26" s="188"/>
+      <c r="W26" s="188"/>
+      <c r="X26" s="188"/>
+      <c r="Y26" s="188"/>
+      <c r="Z26" s="188"/>
+      <c r="AA26" s="188"/>
+      <c r="AB26" s="188"/>
+      <c r="AC26" s="188"/>
+      <c r="AD26" s="188"/>
+      <c r="AE26" s="189"/>
+      <c r="AF26" s="190"/>
+      <c r="AG26" s="191"/>
+      <c r="AH26" s="191"/>
+      <c r="AI26" s="192"/>
     </row>
     <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
-      <c r="B27" s="185"/>
-      <c r="C27" s="187"/>
-      <c r="D27" s="212"/>
-      <c r="E27" s="213"/>
-      <c r="F27" s="214"/>
-      <c r="G27" s="185"/>
-      <c r="H27" s="186"/>
-      <c r="I27" s="187"/>
-      <c r="J27" s="197"/>
-      <c r="K27" s="198"/>
-      <c r="L27" s="198"/>
-      <c r="M27" s="198"/>
-      <c r="N27" s="198"/>
-      <c r="O27" s="198"/>
-      <c r="P27" s="199"/>
-      <c r="Q27" s="194"/>
-      <c r="R27" s="195"/>
-      <c r="S27" s="195"/>
-      <c r="T27" s="195"/>
-      <c r="U27" s="195"/>
-      <c r="V27" s="195"/>
-      <c r="W27" s="195"/>
-      <c r="X27" s="195"/>
-      <c r="Y27" s="195"/>
-      <c r="Z27" s="195"/>
-      <c r="AA27" s="195"/>
-      <c r="AB27" s="195"/>
-      <c r="AC27" s="195"/>
-      <c r="AD27" s="195"/>
-      <c r="AE27" s="196"/>
-      <c r="AF27" s="197"/>
-      <c r="AG27" s="198"/>
-      <c r="AH27" s="198"/>
-      <c r="AI27" s="199"/>
+      <c r="B27" s="193"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="195"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="197"/>
+      <c r="G27" s="193"/>
+      <c r="H27" s="198"/>
+      <c r="I27" s="194"/>
+      <c r="J27" s="190"/>
+      <c r="K27" s="191"/>
+      <c r="L27" s="191"/>
+      <c r="M27" s="191"/>
+      <c r="N27" s="191"/>
+      <c r="O27" s="191"/>
+      <c r="P27" s="192"/>
+      <c r="Q27" s="187"/>
+      <c r="R27" s="188"/>
+      <c r="S27" s="188"/>
+      <c r="T27" s="188"/>
+      <c r="U27" s="188"/>
+      <c r="V27" s="188"/>
+      <c r="W27" s="188"/>
+      <c r="X27" s="188"/>
+      <c r="Y27" s="188"/>
+      <c r="Z27" s="188"/>
+      <c r="AA27" s="188"/>
+      <c r="AB27" s="188"/>
+      <c r="AC27" s="188"/>
+      <c r="AD27" s="188"/>
+      <c r="AE27" s="189"/>
+      <c r="AF27" s="190"/>
+      <c r="AG27" s="191"/>
+      <c r="AH27" s="191"/>
+      <c r="AI27" s="192"/>
     </row>
     <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
-      <c r="B28" s="185"/>
-      <c r="C28" s="187"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="213"/>
-      <c r="F28" s="214"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="187"/>
-      <c r="J28" s="197"/>
-      <c r="K28" s="198"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="198"/>
-      <c r="N28" s="198"/>
-      <c r="O28" s="198"/>
-      <c r="P28" s="199"/>
-      <c r="Q28" s="194"/>
-      <c r="R28" s="195"/>
-      <c r="S28" s="195"/>
-      <c r="T28" s="195"/>
-      <c r="U28" s="195"/>
-      <c r="V28" s="195"/>
-      <c r="W28" s="195"/>
-      <c r="X28" s="195"/>
-      <c r="Y28" s="195"/>
-      <c r="Z28" s="195"/>
-      <c r="AA28" s="195"/>
-      <c r="AB28" s="195"/>
-      <c r="AC28" s="195"/>
-      <c r="AD28" s="195"/>
-      <c r="AE28" s="196"/>
-      <c r="AF28" s="197"/>
-      <c r="AG28" s="198"/>
-      <c r="AH28" s="198"/>
-      <c r="AI28" s="199"/>
+      <c r="B28" s="193"/>
+      <c r="C28" s="194"/>
+      <c r="D28" s="195"/>
+      <c r="E28" s="196"/>
+      <c r="F28" s="197"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="198"/>
+      <c r="I28" s="194"/>
+      <c r="J28" s="190"/>
+      <c r="K28" s="191"/>
+      <c r="L28" s="191"/>
+      <c r="M28" s="191"/>
+      <c r="N28" s="191"/>
+      <c r="O28" s="191"/>
+      <c r="P28" s="192"/>
+      <c r="Q28" s="187"/>
+      <c r="R28" s="188"/>
+      <c r="S28" s="188"/>
+      <c r="T28" s="188"/>
+      <c r="U28" s="188"/>
+      <c r="V28" s="188"/>
+      <c r="W28" s="188"/>
+      <c r="X28" s="188"/>
+      <c r="Y28" s="188"/>
+      <c r="Z28" s="188"/>
+      <c r="AA28" s="188"/>
+      <c r="AB28" s="188"/>
+      <c r="AC28" s="188"/>
+      <c r="AD28" s="188"/>
+      <c r="AE28" s="189"/>
+      <c r="AF28" s="190"/>
+      <c r="AG28" s="191"/>
+      <c r="AH28" s="191"/>
+      <c r="AI28" s="192"/>
     </row>
     <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
-      <c r="B29" s="185"/>
-      <c r="C29" s="187"/>
-      <c r="D29" s="212"/>
-      <c r="E29" s="213"/>
-      <c r="F29" s="214"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="187"/>
-      <c r="J29" s="197"/>
-      <c r="K29" s="198"/>
-      <c r="L29" s="198"/>
-      <c r="M29" s="198"/>
-      <c r="N29" s="198"/>
-      <c r="O29" s="198"/>
-      <c r="P29" s="199"/>
-      <c r="Q29" s="194"/>
-      <c r="R29" s="195"/>
-      <c r="S29" s="195"/>
-      <c r="T29" s="195"/>
-      <c r="U29" s="195"/>
-      <c r="V29" s="195"/>
-      <c r="W29" s="195"/>
-      <c r="X29" s="195"/>
-      <c r="Y29" s="195"/>
-      <c r="Z29" s="195"/>
-      <c r="AA29" s="195"/>
-      <c r="AB29" s="195"/>
-      <c r="AC29" s="195"/>
-      <c r="AD29" s="195"/>
-      <c r="AE29" s="196"/>
-      <c r="AF29" s="197"/>
-      <c r="AG29" s="198"/>
-      <c r="AH29" s="198"/>
-      <c r="AI29" s="199"/>
+      <c r="B29" s="193"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="195"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="197"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="198"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="190"/>
+      <c r="K29" s="191"/>
+      <c r="L29" s="191"/>
+      <c r="M29" s="191"/>
+      <c r="N29" s="191"/>
+      <c r="O29" s="191"/>
+      <c r="P29" s="192"/>
+      <c r="Q29" s="187"/>
+      <c r="R29" s="188"/>
+      <c r="S29" s="188"/>
+      <c r="T29" s="188"/>
+      <c r="U29" s="188"/>
+      <c r="V29" s="188"/>
+      <c r="W29" s="188"/>
+      <c r="X29" s="188"/>
+      <c r="Y29" s="188"/>
+      <c r="Z29" s="188"/>
+      <c r="AA29" s="188"/>
+      <c r="AB29" s="188"/>
+      <c r="AC29" s="188"/>
+      <c r="AD29" s="188"/>
+      <c r="AE29" s="189"/>
+      <c r="AF29" s="190"/>
+      <c r="AG29" s="191"/>
+      <c r="AH29" s="191"/>
+      <c r="AI29" s="192"/>
     </row>
     <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
-      <c r="B30" s="185"/>
-      <c r="C30" s="187"/>
-      <c r="D30" s="212"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="214"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="186"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="197"/>
-      <c r="K30" s="198"/>
-      <c r="L30" s="198"/>
-      <c r="M30" s="198"/>
-      <c r="N30" s="198"/>
-      <c r="O30" s="198"/>
-      <c r="P30" s="199"/>
-      <c r="Q30" s="194"/>
-      <c r="R30" s="195"/>
-      <c r="S30" s="195"/>
-      <c r="T30" s="195"/>
-      <c r="U30" s="195"/>
-      <c r="V30" s="195"/>
-      <c r="W30" s="195"/>
-      <c r="X30" s="195"/>
-      <c r="Y30" s="195"/>
-      <c r="Z30" s="195"/>
-      <c r="AA30" s="195"/>
-      <c r="AB30" s="195"/>
-      <c r="AC30" s="195"/>
-      <c r="AD30" s="195"/>
-      <c r="AE30" s="196"/>
-      <c r="AF30" s="197"/>
-      <c r="AG30" s="198"/>
-      <c r="AH30" s="198"/>
-      <c r="AI30" s="199"/>
+      <c r="B30" s="193"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="195"/>
+      <c r="E30" s="196"/>
+      <c r="F30" s="197"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="198"/>
+      <c r="I30" s="194"/>
+      <c r="J30" s="190"/>
+      <c r="K30" s="191"/>
+      <c r="L30" s="191"/>
+      <c r="M30" s="191"/>
+      <c r="N30" s="191"/>
+      <c r="O30" s="191"/>
+      <c r="P30" s="192"/>
+      <c r="Q30" s="187"/>
+      <c r="R30" s="188"/>
+      <c r="S30" s="188"/>
+      <c r="T30" s="188"/>
+      <c r="U30" s="188"/>
+      <c r="V30" s="188"/>
+      <c r="W30" s="188"/>
+      <c r="X30" s="188"/>
+      <c r="Y30" s="188"/>
+      <c r="Z30" s="188"/>
+      <c r="AA30" s="188"/>
+      <c r="AB30" s="188"/>
+      <c r="AC30" s="188"/>
+      <c r="AD30" s="188"/>
+      <c r="AE30" s="189"/>
+      <c r="AF30" s="190"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="192"/>
     </row>
     <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
-      <c r="B31" s="185"/>
-      <c r="C31" s="187"/>
-      <c r="D31" s="212"/>
-      <c r="E31" s="213"/>
-      <c r="F31" s="214"/>
-      <c r="G31" s="185"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="187"/>
-      <c r="J31" s="197"/>
-      <c r="K31" s="198"/>
-      <c r="L31" s="198"/>
-      <c r="M31" s="198"/>
-      <c r="N31" s="198"/>
-      <c r="O31" s="198"/>
-      <c r="P31" s="199"/>
-      <c r="Q31" s="194"/>
-      <c r="R31" s="195"/>
-      <c r="S31" s="195"/>
-      <c r="T31" s="195"/>
-      <c r="U31" s="195"/>
-      <c r="V31" s="195"/>
-      <c r="W31" s="195"/>
-      <c r="X31" s="195"/>
-      <c r="Y31" s="195"/>
-      <c r="Z31" s="195"/>
-      <c r="AA31" s="195"/>
-      <c r="AB31" s="195"/>
-      <c r="AC31" s="195"/>
-      <c r="AD31" s="195"/>
-      <c r="AE31" s="196"/>
-      <c r="AF31" s="197"/>
-      <c r="AG31" s="198"/>
-      <c r="AH31" s="198"/>
-      <c r="AI31" s="199"/>
+      <c r="B31" s="193"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="197"/>
+      <c r="G31" s="193"/>
+      <c r="H31" s="198"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="190"/>
+      <c r="K31" s="191"/>
+      <c r="L31" s="191"/>
+      <c r="M31" s="191"/>
+      <c r="N31" s="191"/>
+      <c r="O31" s="191"/>
+      <c r="P31" s="192"/>
+      <c r="Q31" s="187"/>
+      <c r="R31" s="188"/>
+      <c r="S31" s="188"/>
+      <c r="T31" s="188"/>
+      <c r="U31" s="188"/>
+      <c r="V31" s="188"/>
+      <c r="W31" s="188"/>
+      <c r="X31" s="188"/>
+      <c r="Y31" s="188"/>
+      <c r="Z31" s="188"/>
+      <c r="AA31" s="188"/>
+      <c r="AB31" s="188"/>
+      <c r="AC31" s="188"/>
+      <c r="AD31" s="188"/>
+      <c r="AE31" s="189"/>
+      <c r="AF31" s="190"/>
+      <c r="AG31" s="191"/>
+      <c r="AH31" s="191"/>
+      <c r="AI31" s="192"/>
     </row>
     <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
-      <c r="B32" s="185"/>
-      <c r="C32" s="187"/>
-      <c r="D32" s="212"/>
-      <c r="E32" s="213"/>
-      <c r="F32" s="214"/>
-      <c r="G32" s="185"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="187"/>
-      <c r="J32" s="197"/>
-      <c r="K32" s="198"/>
-      <c r="L32" s="198"/>
-      <c r="M32" s="198"/>
-      <c r="N32" s="198"/>
-      <c r="O32" s="198"/>
-      <c r="P32" s="199"/>
-      <c r="Q32" s="194"/>
-      <c r="R32" s="195"/>
-      <c r="S32" s="195"/>
-      <c r="T32" s="195"/>
-      <c r="U32" s="195"/>
-      <c r="V32" s="195"/>
-      <c r="W32" s="195"/>
-      <c r="X32" s="195"/>
-      <c r="Y32" s="195"/>
-      <c r="Z32" s="195"/>
-      <c r="AA32" s="195"/>
-      <c r="AB32" s="195"/>
-      <c r="AC32" s="195"/>
-      <c r="AD32" s="195"/>
-      <c r="AE32" s="196"/>
-      <c r="AF32" s="197"/>
-      <c r="AG32" s="198"/>
-      <c r="AH32" s="198"/>
-      <c r="AI32" s="199"/>
+      <c r="B32" s="193"/>
+      <c r="C32" s="194"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="193"/>
+      <c r="H32" s="198"/>
+      <c r="I32" s="194"/>
+      <c r="J32" s="190"/>
+      <c r="K32" s="191"/>
+      <c r="L32" s="191"/>
+      <c r="M32" s="191"/>
+      <c r="N32" s="191"/>
+      <c r="O32" s="191"/>
+      <c r="P32" s="192"/>
+      <c r="Q32" s="187"/>
+      <c r="R32" s="188"/>
+      <c r="S32" s="188"/>
+      <c r="T32" s="188"/>
+      <c r="U32" s="188"/>
+      <c r="V32" s="188"/>
+      <c r="W32" s="188"/>
+      <c r="X32" s="188"/>
+      <c r="Y32" s="188"/>
+      <c r="Z32" s="188"/>
+      <c r="AA32" s="188"/>
+      <c r="AB32" s="188"/>
+      <c r="AC32" s="188"/>
+      <c r="AD32" s="188"/>
+      <c r="AE32" s="189"/>
+      <c r="AF32" s="190"/>
+      <c r="AG32" s="191"/>
+      <c r="AH32" s="191"/>
+      <c r="AI32" s="192"/>
     </row>
     <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
-      <c r="B33" s="185"/>
-      <c r="C33" s="187"/>
-      <c r="D33" s="212"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="214"/>
-      <c r="G33" s="185"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="197"/>
-      <c r="K33" s="198"/>
-      <c r="L33" s="198"/>
-      <c r="M33" s="198"/>
-      <c r="N33" s="198"/>
-      <c r="O33" s="198"/>
-      <c r="P33" s="199"/>
-      <c r="Q33" s="194"/>
-      <c r="R33" s="195"/>
-      <c r="S33" s="195"/>
-      <c r="T33" s="195"/>
-      <c r="U33" s="195"/>
-      <c r="V33" s="195"/>
-      <c r="W33" s="195"/>
-      <c r="X33" s="195"/>
-      <c r="Y33" s="195"/>
-      <c r="Z33" s="195"/>
-      <c r="AA33" s="195"/>
-      <c r="AB33" s="195"/>
-      <c r="AC33" s="195"/>
-      <c r="AD33" s="195"/>
-      <c r="AE33" s="196"/>
-      <c r="AF33" s="197"/>
-      <c r="AG33" s="198"/>
-      <c r="AH33" s="198"/>
-      <c r="AI33" s="199"/>
+      <c r="B33" s="193"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="193"/>
+      <c r="H33" s="198"/>
+      <c r="I33" s="194"/>
+      <c r="J33" s="190"/>
+      <c r="K33" s="191"/>
+      <c r="L33" s="191"/>
+      <c r="M33" s="191"/>
+      <c r="N33" s="191"/>
+      <c r="O33" s="191"/>
+      <c r="P33" s="192"/>
+      <c r="Q33" s="187"/>
+      <c r="R33" s="188"/>
+      <c r="S33" s="188"/>
+      <c r="T33" s="188"/>
+      <c r="U33" s="188"/>
+      <c r="V33" s="188"/>
+      <c r="W33" s="188"/>
+      <c r="X33" s="188"/>
+      <c r="Y33" s="188"/>
+      <c r="Z33" s="188"/>
+      <c r="AA33" s="188"/>
+      <c r="AB33" s="188"/>
+      <c r="AC33" s="188"/>
+      <c r="AD33" s="188"/>
+      <c r="AE33" s="189"/>
+      <c r="AF33" s="190"/>
+      <c r="AG33" s="191"/>
+      <c r="AH33" s="191"/>
+      <c r="AI33" s="192"/>
     </row>
     <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
@@ -5367,6 +5384,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -5391,161 +5563,6 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -5565,296 +5582,296 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.875" style="49" customWidth="1"/>
-    <col min="17" max="17" width="4.875" style="57" customWidth="1"/>
-    <col min="18" max="33" width="4.875" style="49" customWidth="1"/>
-    <col min="34" max="34" width="4.875" style="57" customWidth="1"/>
-    <col min="35" max="256" width="4.875" style="49"/>
-    <col min="257" max="290" width="4.875" style="49" customWidth="1"/>
-    <col min="291" max="512" width="4.875" style="49"/>
-    <col min="513" max="546" width="4.875" style="49" customWidth="1"/>
-    <col min="547" max="768" width="4.875" style="49"/>
-    <col min="769" max="802" width="4.875" style="49" customWidth="1"/>
-    <col min="803" max="1024" width="4.875" style="49"/>
-    <col min="1025" max="1058" width="4.875" style="49" customWidth="1"/>
-    <col min="1059" max="1280" width="4.875" style="49"/>
-    <col min="1281" max="1314" width="4.875" style="49" customWidth="1"/>
-    <col min="1315" max="1536" width="4.875" style="49"/>
-    <col min="1537" max="1570" width="4.875" style="49" customWidth="1"/>
-    <col min="1571" max="1792" width="4.875" style="49"/>
-    <col min="1793" max="1826" width="4.875" style="49" customWidth="1"/>
-    <col min="1827" max="2048" width="4.875" style="49"/>
-    <col min="2049" max="2082" width="4.875" style="49" customWidth="1"/>
-    <col min="2083" max="2304" width="4.875" style="49"/>
-    <col min="2305" max="2338" width="4.875" style="49" customWidth="1"/>
-    <col min="2339" max="2560" width="4.875" style="49"/>
-    <col min="2561" max="2594" width="4.875" style="49" customWidth="1"/>
-    <col min="2595" max="2816" width="4.875" style="49"/>
-    <col min="2817" max="2850" width="4.875" style="49" customWidth="1"/>
-    <col min="2851" max="3072" width="4.875" style="49"/>
-    <col min="3073" max="3106" width="4.875" style="49" customWidth="1"/>
-    <col min="3107" max="3328" width="4.875" style="49"/>
-    <col min="3329" max="3362" width="4.875" style="49" customWidth="1"/>
-    <col min="3363" max="3584" width="4.875" style="49"/>
-    <col min="3585" max="3618" width="4.875" style="49" customWidth="1"/>
-    <col min="3619" max="3840" width="4.875" style="49"/>
-    <col min="3841" max="3874" width="4.875" style="49" customWidth="1"/>
-    <col min="3875" max="4096" width="4.875" style="49"/>
-    <col min="4097" max="4130" width="4.875" style="49" customWidth="1"/>
-    <col min="4131" max="4352" width="4.875" style="49"/>
-    <col min="4353" max="4386" width="4.875" style="49" customWidth="1"/>
-    <col min="4387" max="4608" width="4.875" style="49"/>
-    <col min="4609" max="4642" width="4.875" style="49" customWidth="1"/>
-    <col min="4643" max="4864" width="4.875" style="49"/>
-    <col min="4865" max="4898" width="4.875" style="49" customWidth="1"/>
-    <col min="4899" max="5120" width="4.875" style="49"/>
-    <col min="5121" max="5154" width="4.875" style="49" customWidth="1"/>
-    <col min="5155" max="5376" width="4.875" style="49"/>
-    <col min="5377" max="5410" width="4.875" style="49" customWidth="1"/>
-    <col min="5411" max="5632" width="4.875" style="49"/>
-    <col min="5633" max="5666" width="4.875" style="49" customWidth="1"/>
-    <col min="5667" max="5888" width="4.875" style="49"/>
-    <col min="5889" max="5922" width="4.875" style="49" customWidth="1"/>
-    <col min="5923" max="6144" width="4.875" style="49"/>
-    <col min="6145" max="6178" width="4.875" style="49" customWidth="1"/>
-    <col min="6179" max="6400" width="4.875" style="49"/>
-    <col min="6401" max="6434" width="4.875" style="49" customWidth="1"/>
-    <col min="6435" max="6656" width="4.875" style="49"/>
-    <col min="6657" max="6690" width="4.875" style="49" customWidth="1"/>
-    <col min="6691" max="6912" width="4.875" style="49"/>
-    <col min="6913" max="6946" width="4.875" style="49" customWidth="1"/>
-    <col min="6947" max="7168" width="4.875" style="49"/>
-    <col min="7169" max="7202" width="4.875" style="49" customWidth="1"/>
-    <col min="7203" max="7424" width="4.875" style="49"/>
-    <col min="7425" max="7458" width="4.875" style="49" customWidth="1"/>
-    <col min="7459" max="7680" width="4.875" style="49"/>
-    <col min="7681" max="7714" width="4.875" style="49" customWidth="1"/>
-    <col min="7715" max="7936" width="4.875" style="49"/>
-    <col min="7937" max="7970" width="4.875" style="49" customWidth="1"/>
-    <col min="7971" max="8192" width="4.875" style="49"/>
-    <col min="8193" max="8226" width="4.875" style="49" customWidth="1"/>
-    <col min="8227" max="8448" width="4.875" style="49"/>
-    <col min="8449" max="8482" width="4.875" style="49" customWidth="1"/>
-    <col min="8483" max="8704" width="4.875" style="49"/>
-    <col min="8705" max="8738" width="4.875" style="49" customWidth="1"/>
-    <col min="8739" max="8960" width="4.875" style="49"/>
-    <col min="8961" max="8994" width="4.875" style="49" customWidth="1"/>
-    <col min="8995" max="9216" width="4.875" style="49"/>
-    <col min="9217" max="9250" width="4.875" style="49" customWidth="1"/>
-    <col min="9251" max="9472" width="4.875" style="49"/>
-    <col min="9473" max="9506" width="4.875" style="49" customWidth="1"/>
-    <col min="9507" max="9728" width="4.875" style="49"/>
-    <col min="9729" max="9762" width="4.875" style="49" customWidth="1"/>
-    <col min="9763" max="9984" width="4.875" style="49"/>
-    <col min="9985" max="10018" width="4.875" style="49" customWidth="1"/>
-    <col min="10019" max="10240" width="4.875" style="49"/>
-    <col min="10241" max="10274" width="4.875" style="49" customWidth="1"/>
-    <col min="10275" max="10496" width="4.875" style="49"/>
-    <col min="10497" max="10530" width="4.875" style="49" customWidth="1"/>
-    <col min="10531" max="10752" width="4.875" style="49"/>
-    <col min="10753" max="10786" width="4.875" style="49" customWidth="1"/>
-    <col min="10787" max="11008" width="4.875" style="49"/>
-    <col min="11009" max="11042" width="4.875" style="49" customWidth="1"/>
-    <col min="11043" max="11264" width="4.875" style="49"/>
-    <col min="11265" max="11298" width="4.875" style="49" customWidth="1"/>
-    <col min="11299" max="11520" width="4.875" style="49"/>
-    <col min="11521" max="11554" width="4.875" style="49" customWidth="1"/>
-    <col min="11555" max="11776" width="4.875" style="49"/>
-    <col min="11777" max="11810" width="4.875" style="49" customWidth="1"/>
-    <col min="11811" max="12032" width="4.875" style="49"/>
-    <col min="12033" max="12066" width="4.875" style="49" customWidth="1"/>
-    <col min="12067" max="12288" width="4.875" style="49"/>
-    <col min="12289" max="12322" width="4.875" style="49" customWidth="1"/>
-    <col min="12323" max="12544" width="4.875" style="49"/>
-    <col min="12545" max="12578" width="4.875" style="49" customWidth="1"/>
-    <col min="12579" max="12800" width="4.875" style="49"/>
-    <col min="12801" max="12834" width="4.875" style="49" customWidth="1"/>
-    <col min="12835" max="13056" width="4.875" style="49"/>
-    <col min="13057" max="13090" width="4.875" style="49" customWidth="1"/>
-    <col min="13091" max="13312" width="4.875" style="49"/>
-    <col min="13313" max="13346" width="4.875" style="49" customWidth="1"/>
-    <col min="13347" max="13568" width="4.875" style="49"/>
-    <col min="13569" max="13602" width="4.875" style="49" customWidth="1"/>
-    <col min="13603" max="13824" width="4.875" style="49"/>
-    <col min="13825" max="13858" width="4.875" style="49" customWidth="1"/>
-    <col min="13859" max="14080" width="4.875" style="49"/>
-    <col min="14081" max="14114" width="4.875" style="49" customWidth="1"/>
-    <col min="14115" max="14336" width="4.875" style="49"/>
-    <col min="14337" max="14370" width="4.875" style="49" customWidth="1"/>
-    <col min="14371" max="14592" width="4.875" style="49"/>
-    <col min="14593" max="14626" width="4.875" style="49" customWidth="1"/>
-    <col min="14627" max="14848" width="4.875" style="49"/>
-    <col min="14849" max="14882" width="4.875" style="49" customWidth="1"/>
-    <col min="14883" max="15104" width="4.875" style="49"/>
-    <col min="15105" max="15138" width="4.875" style="49" customWidth="1"/>
-    <col min="15139" max="15360" width="4.875" style="49"/>
-    <col min="15361" max="15394" width="4.875" style="49" customWidth="1"/>
-    <col min="15395" max="15616" width="4.875" style="49"/>
-    <col min="15617" max="15650" width="4.875" style="49" customWidth="1"/>
-    <col min="15651" max="15872" width="4.875" style="49"/>
-    <col min="15873" max="15906" width="4.875" style="49" customWidth="1"/>
-    <col min="15907" max="16128" width="4.875" style="49"/>
-    <col min="16129" max="16162" width="4.875" style="49" customWidth="1"/>
-    <col min="16163" max="16384" width="4.875" style="49"/>
+    <col min="1" max="16" width="4.83203125" style="49" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="57" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="49" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="57" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="49"/>
+    <col min="257" max="290" width="4.83203125" style="49" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="49"/>
+    <col min="513" max="546" width="4.83203125" style="49" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="49"/>
+    <col min="769" max="802" width="4.83203125" style="49" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="49"/>
+    <col min="1025" max="1058" width="4.83203125" style="49" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="49"/>
+    <col min="1281" max="1314" width="4.83203125" style="49" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="49"/>
+    <col min="1537" max="1570" width="4.83203125" style="49" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="49"/>
+    <col min="1793" max="1826" width="4.83203125" style="49" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="49"/>
+    <col min="2049" max="2082" width="4.83203125" style="49" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="49"/>
+    <col min="2305" max="2338" width="4.83203125" style="49" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="49"/>
+    <col min="2561" max="2594" width="4.83203125" style="49" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="49"/>
+    <col min="2817" max="2850" width="4.83203125" style="49" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="49"/>
+    <col min="3073" max="3106" width="4.83203125" style="49" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="49"/>
+    <col min="3329" max="3362" width="4.83203125" style="49" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="49"/>
+    <col min="3585" max="3618" width="4.83203125" style="49" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="49"/>
+    <col min="3841" max="3874" width="4.83203125" style="49" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="49"/>
+    <col min="4097" max="4130" width="4.83203125" style="49" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="49"/>
+    <col min="4353" max="4386" width="4.83203125" style="49" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="49"/>
+    <col min="4609" max="4642" width="4.83203125" style="49" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="49"/>
+    <col min="4865" max="4898" width="4.83203125" style="49" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="49"/>
+    <col min="5121" max="5154" width="4.83203125" style="49" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="49"/>
+    <col min="5377" max="5410" width="4.83203125" style="49" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="49"/>
+    <col min="5633" max="5666" width="4.83203125" style="49" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="49"/>
+    <col min="5889" max="5922" width="4.83203125" style="49" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="49"/>
+    <col min="6145" max="6178" width="4.83203125" style="49" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="49"/>
+    <col min="6401" max="6434" width="4.83203125" style="49" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="49"/>
+    <col min="6657" max="6690" width="4.83203125" style="49" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="49"/>
+    <col min="6913" max="6946" width="4.83203125" style="49" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="49"/>
+    <col min="7169" max="7202" width="4.83203125" style="49" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="49"/>
+    <col min="7425" max="7458" width="4.83203125" style="49" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="49"/>
+    <col min="7681" max="7714" width="4.83203125" style="49" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="49"/>
+    <col min="7937" max="7970" width="4.83203125" style="49" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="49"/>
+    <col min="8193" max="8226" width="4.83203125" style="49" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="49"/>
+    <col min="8449" max="8482" width="4.83203125" style="49" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="49"/>
+    <col min="8705" max="8738" width="4.83203125" style="49" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="49"/>
+    <col min="8961" max="8994" width="4.83203125" style="49" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="49"/>
+    <col min="9217" max="9250" width="4.83203125" style="49" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="49"/>
+    <col min="9473" max="9506" width="4.83203125" style="49" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="49"/>
+    <col min="9729" max="9762" width="4.83203125" style="49" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="49"/>
+    <col min="9985" max="10018" width="4.83203125" style="49" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="49"/>
+    <col min="10241" max="10274" width="4.83203125" style="49" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="49"/>
+    <col min="10497" max="10530" width="4.83203125" style="49" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="49"/>
+    <col min="10753" max="10786" width="4.83203125" style="49" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="49"/>
+    <col min="11009" max="11042" width="4.83203125" style="49" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="49"/>
+    <col min="11265" max="11298" width="4.83203125" style="49" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="49"/>
+    <col min="11521" max="11554" width="4.83203125" style="49" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="49"/>
+    <col min="11777" max="11810" width="4.83203125" style="49" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="49"/>
+    <col min="12033" max="12066" width="4.83203125" style="49" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="49"/>
+    <col min="12289" max="12322" width="4.83203125" style="49" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="49"/>
+    <col min="12545" max="12578" width="4.83203125" style="49" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="49"/>
+    <col min="12801" max="12834" width="4.83203125" style="49" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="49"/>
+    <col min="13057" max="13090" width="4.83203125" style="49" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="49"/>
+    <col min="13313" max="13346" width="4.83203125" style="49" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="49"/>
+    <col min="13569" max="13602" width="4.83203125" style="49" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="49"/>
+    <col min="13825" max="13858" width="4.83203125" style="49" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="49"/>
+    <col min="14081" max="14114" width="4.83203125" style="49" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="49"/>
+    <col min="14337" max="14370" width="4.83203125" style="49" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="49"/>
+    <col min="14593" max="14626" width="4.83203125" style="49" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="49"/>
+    <col min="14849" max="14882" width="4.83203125" style="49" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="49"/>
+    <col min="15105" max="15138" width="4.83203125" style="49" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="49"/>
+    <col min="15361" max="15394" width="4.83203125" style="49" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="49"/>
+    <col min="15617" max="15650" width="4.83203125" style="49" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="49"/>
+    <col min="15873" max="15906" width="4.83203125" style="49" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="49"/>
+    <col min="16129" max="16162" width="4.83203125" style="49" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="241" t="str">
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
-      <c r="N1" s="243"/>
-      <c r="O1" s="247" t="s">
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
+      <c r="M1" s="257"/>
+      <c r="N1" s="258"/>
+      <c r="O1" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="256" t="str">
+      <c r="P1" s="239"/>
+      <c r="Q1" s="239"/>
+      <c r="R1" s="240"/>
+      <c r="S1" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="257"/>
-      <c r="U1" s="257"/>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
-      <c r="X1" s="257"/>
-      <c r="Y1" s="257"/>
-      <c r="Z1" s="258"/>
-      <c r="AA1" s="244" t="s">
+      <c r="T1" s="248"/>
+      <c r="U1" s="248"/>
+      <c r="V1" s="248"/>
+      <c r="W1" s="248"/>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="248"/>
+      <c r="Z1" s="249"/>
+      <c r="AA1" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="246"/>
-      <c r="AC1" s="235" t="str">
+      <c r="AB1" s="237"/>
+      <c r="AC1" s="259" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="236"/>
-      <c r="AE1" s="236"/>
-      <c r="AF1" s="237"/>
-      <c r="AG1" s="238">
+      <c r="AD1" s="260"/>
+      <c r="AE1" s="260"/>
+      <c r="AF1" s="261"/>
+      <c r="AG1" s="262">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="239"/>
-      <c r="AI1" s="240"/>
+      <c r="AH1" s="263"/>
+      <c r="AI1" s="264"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="235" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="241" t="str">
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="242"/>
-      <c r="M2" s="242"/>
-      <c r="N2" s="243"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="252"/>
-      <c r="S2" s="259"/>
-      <c r="T2" s="260"/>
-      <c r="U2" s="260"/>
-      <c r="V2" s="260"/>
-      <c r="W2" s="260"/>
-      <c r="X2" s="260"/>
-      <c r="Y2" s="260"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="244" t="s">
+      <c r="F2" s="257"/>
+      <c r="G2" s="257"/>
+      <c r="H2" s="257"/>
+      <c r="I2" s="257"/>
+      <c r="J2" s="257"/>
+      <c r="K2" s="257"/>
+      <c r="L2" s="257"/>
+      <c r="M2" s="257"/>
+      <c r="N2" s="258"/>
+      <c r="O2" s="241"/>
+      <c r="P2" s="242"/>
+      <c r="Q2" s="242"/>
+      <c r="R2" s="243"/>
+      <c r="S2" s="250"/>
+      <c r="T2" s="251"/>
+      <c r="U2" s="251"/>
+      <c r="V2" s="251"/>
+      <c r="W2" s="251"/>
+      <c r="X2" s="251"/>
+      <c r="Y2" s="251"/>
+      <c r="Z2" s="252"/>
+      <c r="AA2" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="246"/>
-      <c r="AC2" s="235" t="str">
+      <c r="AB2" s="237"/>
+      <c r="AC2" s="259" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="236"/>
-      <c r="AE2" s="236"/>
-      <c r="AF2" s="237"/>
-      <c r="AG2" s="238" t="str">
+      <c r="AD2" s="260"/>
+      <c r="AE2" s="260"/>
+      <c r="AF2" s="261"/>
+      <c r="AG2" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="239"/>
-      <c r="AI2" s="240"/>
+      <c r="AH2" s="263"/>
+      <c r="AI2" s="264"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="241" t="str">
+      <c r="B3" s="236"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="242"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="243"/>
-      <c r="O3" s="253"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="255"/>
-      <c r="S3" s="262"/>
-      <c r="T3" s="263"/>
-      <c r="U3" s="263"/>
-      <c r="V3" s="263"/>
-      <c r="W3" s="263"/>
-      <c r="X3" s="263"/>
-      <c r="Y3" s="263"/>
-      <c r="Z3" s="264"/>
-      <c r="AA3" s="244"/>
-      <c r="AB3" s="246"/>
-      <c r="AC3" s="235" t="str">
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="257"/>
+      <c r="M3" s="257"/>
+      <c r="N3" s="258"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="245"/>
+      <c r="Q3" s="245"/>
+      <c r="R3" s="246"/>
+      <c r="S3" s="253"/>
+      <c r="T3" s="254"/>
+      <c r="U3" s="254"/>
+      <c r="V3" s="254"/>
+      <c r="W3" s="254"/>
+      <c r="X3" s="254"/>
+      <c r="Y3" s="254"/>
+      <c r="Z3" s="255"/>
+      <c r="AA3" s="235"/>
+      <c r="AB3" s="237"/>
+      <c r="AC3" s="259" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="236"/>
-      <c r="AE3" s="236"/>
-      <c r="AF3" s="237"/>
-      <c r="AG3" s="238" t="str">
+      <c r="AD3" s="260"/>
+      <c r="AE3" s="260"/>
+      <c r="AF3" s="261"/>
+      <c r="AG3" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="239"/>
-      <c r="AI3" s="240"/>
-    </row>
-    <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH3" s="263"/>
+      <c r="AI3" s="264"/>
+    </row>
+    <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -5891,7 +5908,7 @@
       <c r="AH4" s="38"/>
       <c r="AI4" s="38"/>
     </row>
-    <row r="5" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -5930,7 +5947,7 @@
       <c r="AH5" s="38"/>
       <c r="AI5" s="38"/>
     </row>
-    <row r="6" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -5967,7 +5984,7 @@
       <c r="AH6" s="38"/>
       <c r="AI6" s="38"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="42"/>
       <c r="B7" s="43" t="s">
         <v>170</v>
@@ -6006,7 +6023,7 @@
       <c r="AH7" s="47"/>
       <c r="AI7" s="48"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
@@ -6045,7 +6062,7 @@
       <c r="AH8" s="51"/>
       <c r="AI8" s="48"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="42"/>
       <c r="B9" s="44"/>
       <c r="C9" s="43"/>
@@ -6082,7 +6099,7 @@
       <c r="AH9" s="52"/>
       <c r="AI9" s="42"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42"/>
       <c r="B10" s="53" t="s">
         <v>171</v>
@@ -6121,7 +6138,7 @@
       <c r="AH10" s="47"/>
       <c r="AI10" s="48"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42"/>
       <c r="B11" s="44"/>
       <c r="C11" s="53" t="s">
@@ -6160,7 +6177,7 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="48"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="42"/>
       <c r="B12" s="44"/>
       <c r="C12" s="42" t="s">
@@ -6194,7 +6211,7 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="48"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="42"/>
       <c r="B13" s="48"/>
       <c r="C13" s="54" t="s">
@@ -6233,7 +6250,7 @@
       <c r="AH13" s="47"/>
       <c r="AI13" s="48"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="42"/>
       <c r="B14" s="53"/>
       <c r="C14" s="54" t="s">
@@ -6272,7 +6289,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="48"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="42"/>
       <c r="B15" s="53"/>
       <c r="C15" s="54" t="s">
@@ -6307,7 +6324,7 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="48"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="42"/>
       <c r="B16" s="38"/>
       <c r="C16" s="42" t="s">
@@ -6346,7 +6363,7 @@
       <c r="AH16" s="47"/>
       <c r="AI16" s="48"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="42"/>
       <c r="B17" s="38"/>
       <c r="C17" s="56"/>
@@ -6382,7 +6399,7 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="48"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="58"/>
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
@@ -6419,7 +6436,7 @@
       <c r="AH18" s="64"/>
       <c r="AI18" s="65"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="66"/>
       <c r="E19" s="66"/>
       <c r="F19" s="66"/>
@@ -6453,7 +6470,7 @@
       <c r="AH19" s="64"/>
       <c r="AI19" s="65"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J20" s="66"/>
       <c r="K20" s="59"/>
       <c r="L20" s="59"/>
@@ -6481,7 +6498,7 @@
       <c r="AH20" s="64"/>
       <c r="AI20" s="65"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K21" s="58"/>
       <c r="L21" s="58"/>
       <c r="M21" s="58"/>
@@ -6734,6 +6751,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6743,14 +6768,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -6770,178 +6787,178 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="54"/>
+    <col min="1" max="16384" width="4.83203125" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="241" t="str">
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
-      <c r="N1" s="243"/>
-      <c r="O1" s="247" t="s">
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
+      <c r="M1" s="257"/>
+      <c r="N1" s="258"/>
+      <c r="O1" s="238" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="256" t="str">
+      <c r="P1" s="239"/>
+      <c r="Q1" s="239"/>
+      <c r="R1" s="240"/>
+      <c r="S1" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="257"/>
-      <c r="U1" s="257"/>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
-      <c r="X1" s="257"/>
-      <c r="Y1" s="257"/>
-      <c r="Z1" s="258"/>
-      <c r="AA1" s="244" t="s">
+      <c r="T1" s="248"/>
+      <c r="U1" s="248"/>
+      <c r="V1" s="248"/>
+      <c r="W1" s="248"/>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="248"/>
+      <c r="Z1" s="249"/>
+      <c r="AA1" s="235" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="246"/>
-      <c r="AC1" s="235" t="str">
+      <c r="AB1" s="237"/>
+      <c r="AC1" s="259" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="236"/>
-      <c r="AE1" s="236"/>
-      <c r="AF1" s="237"/>
-      <c r="AG1" s="238">
+      <c r="AD1" s="260"/>
+      <c r="AE1" s="260"/>
+      <c r="AF1" s="261"/>
+      <c r="AG1" s="262">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="239"/>
-      <c r="AI1" s="240"/>
+      <c r="AH1" s="263"/>
+      <c r="AI1" s="264"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="235" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="241" t="str">
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="242"/>
-      <c r="M2" s="242"/>
-      <c r="N2" s="243"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="252"/>
-      <c r="S2" s="259"/>
-      <c r="T2" s="260"/>
-      <c r="U2" s="260"/>
-      <c r="V2" s="260"/>
-      <c r="W2" s="260"/>
-      <c r="X2" s="260"/>
-      <c r="Y2" s="260"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="244" t="s">
+      <c r="F2" s="257"/>
+      <c r="G2" s="257"/>
+      <c r="H2" s="257"/>
+      <c r="I2" s="257"/>
+      <c r="J2" s="257"/>
+      <c r="K2" s="257"/>
+      <c r="L2" s="257"/>
+      <c r="M2" s="257"/>
+      <c r="N2" s="258"/>
+      <c r="O2" s="241"/>
+      <c r="P2" s="242"/>
+      <c r="Q2" s="242"/>
+      <c r="R2" s="243"/>
+      <c r="S2" s="250"/>
+      <c r="T2" s="251"/>
+      <c r="U2" s="251"/>
+      <c r="V2" s="251"/>
+      <c r="W2" s="251"/>
+      <c r="X2" s="251"/>
+      <c r="Y2" s="251"/>
+      <c r="Z2" s="252"/>
+      <c r="AA2" s="235" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="246"/>
-      <c r="AC2" s="235" t="str">
+      <c r="AB2" s="237"/>
+      <c r="AC2" s="259" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="236"/>
-      <c r="AE2" s="236"/>
-      <c r="AF2" s="237"/>
-      <c r="AG2" s="238" t="str">
+      <c r="AD2" s="260"/>
+      <c r="AE2" s="260"/>
+      <c r="AF2" s="261"/>
+      <c r="AG2" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="239"/>
-      <c r="AI2" s="240"/>
+      <c r="AH2" s="263"/>
+      <c r="AI2" s="264"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="241" t="str">
+      <c r="B3" s="236"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="242"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="243"/>
-      <c r="O3" s="253"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="255"/>
-      <c r="S3" s="262"/>
-      <c r="T3" s="263"/>
-      <c r="U3" s="263"/>
-      <c r="V3" s="263"/>
-      <c r="W3" s="263"/>
-      <c r="X3" s="263"/>
-      <c r="Y3" s="263"/>
-      <c r="Z3" s="264"/>
-      <c r="AA3" s="244"/>
-      <c r="AB3" s="246"/>
-      <c r="AC3" s="235" t="str">
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="257"/>
+      <c r="M3" s="257"/>
+      <c r="N3" s="258"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="245"/>
+      <c r="Q3" s="245"/>
+      <c r="R3" s="246"/>
+      <c r="S3" s="253"/>
+      <c r="T3" s="254"/>
+      <c r="U3" s="254"/>
+      <c r="V3" s="254"/>
+      <c r="W3" s="254"/>
+      <c r="X3" s="254"/>
+      <c r="Y3" s="254"/>
+      <c r="Z3" s="255"/>
+      <c r="AA3" s="235"/>
+      <c r="AB3" s="237"/>
+      <c r="AC3" s="259" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="236"/>
-      <c r="AE3" s="236"/>
-      <c r="AF3" s="237"/>
-      <c r="AG3" s="238" t="str">
+      <c r="AD3" s="260"/>
+      <c r="AE3" s="260"/>
+      <c r="AF3" s="261"/>
+      <c r="AG3" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="239"/>
-      <c r="AI3" s="240"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH3" s="263"/>
+      <c r="AI3" s="264"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="58" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="58" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="81"/>
       <c r="C8" s="275" t="s">
         <v>165</v>
@@ -6979,7 +6996,7 @@
       <c r="AF8" s="276"/>
       <c r="AG8" s="277"/>
     </row>
-    <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="81"/>
       <c r="C9" s="280" t="s">
         <v>166</v>
@@ -7017,7 +7034,7 @@
       <c r="AF9" s="276"/>
       <c r="AG9" s="277"/>
     </row>
-    <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="81"/>
       <c r="C10" s="266" t="s">
         <v>167</v>
@@ -7055,7 +7072,7 @@
       <c r="AF10" s="83"/>
       <c r="AG10" s="84"/>
     </row>
-    <row r="11" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="81"/>
       <c r="C11" s="269"/>
       <c r="D11" s="270"/>
@@ -7089,7 +7106,7 @@
       <c r="AF11" s="40"/>
       <c r="AG11" s="86"/>
     </row>
-    <row r="12" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="81"/>
       <c r="C12" s="269"/>
       <c r="D12" s="270"/>
@@ -7123,7 +7140,7 @@
       <c r="AF12" s="40"/>
       <c r="AG12" s="86"/>
     </row>
-    <row r="13" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="81"/>
       <c r="C13" s="272"/>
       <c r="D13" s="273"/>
@@ -7157,7 +7174,7 @@
       <c r="AF13" s="89"/>
       <c r="AG13" s="90"/>
     </row>
-    <row r="14" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="81"/>
       <c r="C14" s="265" t="s">
         <v>52</v>
@@ -7195,46 +7212,58 @@
       <c r="AF14" s="92"/>
       <c r="AG14" s="93"/>
     </row>
-    <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7246,18 +7275,6 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7280,215 +7297,215 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="4.875" style="54"/>
-    <col min="8" max="9" width="4.875" style="54" customWidth="1"/>
-    <col min="10" max="16384" width="4.875" style="54"/>
+    <col min="1" max="7" width="4.83203125" style="54"/>
+    <col min="8" max="9" width="4.83203125" style="54" customWidth="1"/>
+    <col min="10" max="16384" width="4.83203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="320" t="s">
+    <row r="1" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="372" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="322"/>
-      <c r="E1" s="241" t="str">
+      <c r="B1" s="373"/>
+      <c r="C1" s="373"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
-      <c r="N1" s="243"/>
-      <c r="O1" s="247" t="s">
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
+      <c r="M1" s="257"/>
+      <c r="N1" s="258"/>
+      <c r="O1" s="238" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="256" t="str">
+      <c r="P1" s="239"/>
+      <c r="Q1" s="239"/>
+      <c r="R1" s="240"/>
+      <c r="S1" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="257"/>
-      <c r="U1" s="257"/>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
-      <c r="X1" s="257"/>
-      <c r="Y1" s="257"/>
-      <c r="Z1" s="258"/>
-      <c r="AA1" s="244" t="s">
+      <c r="T1" s="248"/>
+      <c r="U1" s="248"/>
+      <c r="V1" s="248"/>
+      <c r="W1" s="248"/>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="248"/>
+      <c r="Z1" s="249"/>
+      <c r="AA1" s="235" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="246"/>
-      <c r="AC1" s="235" t="str">
+      <c r="AB1" s="237"/>
+      <c r="AC1" s="259" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="236"/>
-      <c r="AE1" s="236"/>
-      <c r="AF1" s="237"/>
-      <c r="AG1" s="317">
+      <c r="AD1" s="260"/>
+      <c r="AE1" s="260"/>
+      <c r="AF1" s="261"/>
+      <c r="AG1" s="369">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="318"/>
-      <c r="AI1" s="319"/>
+      <c r="AH1" s="370"/>
+      <c r="AI1" s="371"/>
       <c r="AJ1" s="94"/>
     </row>
-    <row r="2" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="320" t="s">
+    <row r="2" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="372" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="321"/>
-      <c r="C2" s="321"/>
-      <c r="D2" s="322"/>
-      <c r="E2" s="241" t="str">
+      <c r="B2" s="373"/>
+      <c r="C2" s="373"/>
+      <c r="D2" s="374"/>
+      <c r="E2" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="242"/>
-      <c r="M2" s="242"/>
-      <c r="N2" s="243"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="252"/>
-      <c r="S2" s="259"/>
-      <c r="T2" s="260"/>
-      <c r="U2" s="260"/>
-      <c r="V2" s="260"/>
-      <c r="W2" s="260"/>
-      <c r="X2" s="260"/>
-      <c r="Y2" s="260"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="244" t="s">
+      <c r="F2" s="257"/>
+      <c r="G2" s="257"/>
+      <c r="H2" s="257"/>
+      <c r="I2" s="257"/>
+      <c r="J2" s="257"/>
+      <c r="K2" s="257"/>
+      <c r="L2" s="257"/>
+      <c r="M2" s="257"/>
+      <c r="N2" s="258"/>
+      <c r="O2" s="241"/>
+      <c r="P2" s="242"/>
+      <c r="Q2" s="242"/>
+      <c r="R2" s="243"/>
+      <c r="S2" s="250"/>
+      <c r="T2" s="251"/>
+      <c r="U2" s="251"/>
+      <c r="V2" s="251"/>
+      <c r="W2" s="251"/>
+      <c r="X2" s="251"/>
+      <c r="Y2" s="251"/>
+      <c r="Z2" s="252"/>
+      <c r="AA2" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="246"/>
-      <c r="AC2" s="235" t="str">
+      <c r="AB2" s="237"/>
+      <c r="AC2" s="259" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="236"/>
-      <c r="AE2" s="236"/>
-      <c r="AF2" s="237"/>
-      <c r="AG2" s="317" t="str">
+      <c r="AD2" s="260"/>
+      <c r="AE2" s="260"/>
+      <c r="AF2" s="261"/>
+      <c r="AG2" s="369" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="318"/>
-      <c r="AI2" s="319"/>
+      <c r="AH2" s="370"/>
+      <c r="AI2" s="371"/>
       <c r="AJ2" s="94"/>
     </row>
-    <row r="3" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="320" t="s">
+    <row r="3" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="372" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="321"/>
-      <c r="C3" s="321"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="241" t="str">
+      <c r="B3" s="373"/>
+      <c r="C3" s="373"/>
+      <c r="D3" s="374"/>
+      <c r="E3" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="242"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="243"/>
-      <c r="O3" s="253"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="255"/>
-      <c r="S3" s="262"/>
-      <c r="T3" s="263"/>
-      <c r="U3" s="263"/>
-      <c r="V3" s="263"/>
-      <c r="W3" s="263"/>
-      <c r="X3" s="263"/>
-      <c r="Y3" s="263"/>
-      <c r="Z3" s="264"/>
-      <c r="AA3" s="244"/>
-      <c r="AB3" s="246"/>
-      <c r="AC3" s="235" t="str">
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="257"/>
+      <c r="M3" s="257"/>
+      <c r="N3" s="258"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="245"/>
+      <c r="Q3" s="245"/>
+      <c r="R3" s="246"/>
+      <c r="S3" s="253"/>
+      <c r="T3" s="254"/>
+      <c r="U3" s="254"/>
+      <c r="V3" s="254"/>
+      <c r="W3" s="254"/>
+      <c r="X3" s="254"/>
+      <c r="Y3" s="254"/>
+      <c r="Z3" s="255"/>
+      <c r="AA3" s="235"/>
+      <c r="AB3" s="237"/>
+      <c r="AC3" s="259" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="236"/>
-      <c r="AE3" s="236"/>
-      <c r="AF3" s="237"/>
-      <c r="AG3" s="317" t="str">
+      <c r="AD3" s="260"/>
+      <c r="AE3" s="260"/>
+      <c r="AF3" s="261"/>
+      <c r="AG3" s="369" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="318"/>
-      <c r="AI3" s="319"/>
+      <c r="AH3" s="370"/>
+      <c r="AI3" s="371"/>
       <c r="AJ3" s="94"/>
     </row>
-    <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="95" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="54" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D40" s="96"/>
       <c r="E40" s="96"/>
       <c r="F40" s="96"/>
@@ -7521,7 +7538,7 @@
       <c r="AG40" s="96"/>
       <c r="AH40" s="96"/>
     </row>
-    <row r="41" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C41" s="40" t="s">
         <v>44</v>
       </c>
@@ -7556,7 +7573,7 @@
       <c r="AG41" s="96"/>
       <c r="AH41" s="96"/>
     </row>
-    <row r="42" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C42" s="40"/>
       <c r="D42" s="96"/>
       <c r="E42" s="96"/>
@@ -7589,89 +7606,89 @@
       <c r="AG42" s="96"/>
       <c r="AH42" s="96"/>
     </row>
-    <row r="43" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D43" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="283" t="s">
+      <c r="E43" s="375" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="283"/>
-      <c r="G43" s="283"/>
-      <c r="H43" s="283"/>
-      <c r="I43" s="283"/>
-      <c r="J43" s="283"/>
-      <c r="K43" s="283"/>
-      <c r="L43" s="283"/>
-      <c r="M43" s="283"/>
-      <c r="N43" s="283" t="s">
+      <c r="F43" s="375"/>
+      <c r="G43" s="375"/>
+      <c r="H43" s="375"/>
+      <c r="I43" s="375"/>
+      <c r="J43" s="375"/>
+      <c r="K43" s="375"/>
+      <c r="L43" s="375"/>
+      <c r="M43" s="375"/>
+      <c r="N43" s="375" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="283"/>
-      <c r="P43" s="283"/>
-      <c r="Q43" s="283" t="s">
+      <c r="O43" s="375"/>
+      <c r="P43" s="375"/>
+      <c r="Q43" s="375" t="s">
         <v>56</v>
       </c>
-      <c r="R43" s="283"/>
-      <c r="S43" s="283"/>
-      <c r="T43" s="283"/>
-      <c r="U43" s="283"/>
-      <c r="V43" s="283" t="s">
+      <c r="R43" s="375"/>
+      <c r="S43" s="375"/>
+      <c r="T43" s="375"/>
+      <c r="U43" s="375"/>
+      <c r="V43" s="375" t="s">
         <v>57</v>
       </c>
-      <c r="W43" s="283"/>
-      <c r="X43" s="283"/>
-      <c r="Y43" s="283"/>
-      <c r="Z43" s="283"/>
-      <c r="AA43" s="283"/>
-      <c r="AB43" s="283"/>
-      <c r="AC43" s="283"/>
+      <c r="W43" s="375"/>
+      <c r="X43" s="375"/>
+      <c r="Y43" s="375"/>
+      <c r="Z43" s="375"/>
+      <c r="AA43" s="375"/>
+      <c r="AB43" s="375"/>
+      <c r="AC43" s="375"/>
       <c r="AD43" s="96"/>
       <c r="AE43" s="96"/>
       <c r="AF43" s="96"/>
       <c r="AG43" s="96"/>
       <c r="AH43" s="96"/>
     </row>
-    <row r="44" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D44" s="98">
         <v>1</v>
       </c>
-      <c r="E44" s="284" t="s">
+      <c r="E44" s="376" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="284"/>
-      <c r="G44" s="284"/>
-      <c r="H44" s="284"/>
-      <c r="I44" s="284"/>
-      <c r="J44" s="284"/>
-      <c r="K44" s="284"/>
-      <c r="L44" s="284"/>
-      <c r="M44" s="284"/>
-      <c r="N44" s="284" t="s">
+      <c r="F44" s="376"/>
+      <c r="G44" s="376"/>
+      <c r="H44" s="376"/>
+      <c r="I44" s="376"/>
+      <c r="J44" s="376"/>
+      <c r="K44" s="376"/>
+      <c r="L44" s="376"/>
+      <c r="M44" s="376"/>
+      <c r="N44" s="376" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="284"/>
-      <c r="P44" s="284"/>
-      <c r="Q44" s="316" t="s">
+      <c r="O44" s="376"/>
+      <c r="P44" s="376"/>
+      <c r="Q44" s="333" t="s">
         <v>39</v>
       </c>
-      <c r="R44" s="316"/>
-      <c r="S44" s="316"/>
-      <c r="T44" s="316"/>
-      <c r="U44" s="316"/>
-      <c r="V44" s="316" t="s">
+      <c r="R44" s="333"/>
+      <c r="S44" s="333"/>
+      <c r="T44" s="333"/>
+      <c r="U44" s="333"/>
+      <c r="V44" s="333" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="316"/>
-      <c r="X44" s="316"/>
-      <c r="Y44" s="316"/>
-      <c r="Z44" s="316"/>
-      <c r="AA44" s="316"/>
-      <c r="AB44" s="316"/>
-      <c r="AC44" s="316"/>
+      <c r="W44" s="333"/>
+      <c r="X44" s="333"/>
+      <c r="Y44" s="333"/>
+      <c r="Z44" s="333"/>
+      <c r="AA44" s="333"/>
+      <c r="AB44" s="333"/>
+      <c r="AC44" s="333"/>
       <c r="AM44" s="40"/>
     </row>
-    <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D45" s="99"/>
       <c r="E45" s="100"/>
       <c r="F45" s="100"/>
@@ -7700,10 +7717,10 @@
       <c r="AC45" s="96"/>
       <c r="AM45" s="40"/>
     </row>
-    <row r="46" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O46" s="100"/>
     </row>
-    <row r="47" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C47" s="54" t="s">
         <v>45</v>
       </c>
@@ -7725,7 +7742,7 @@
       <c r="AZ47" s="81"/>
       <c r="BA47" s="81"/>
     </row>
-    <row r="48" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="AJ48" s="49"/>
       <c r="AK48" s="49"/>
       <c r="AL48" s="49"/>
@@ -7744,37 +7761,37 @@
       <c r="AY48" s="49"/>
       <c r="AZ48" s="49"/>
     </row>
-    <row r="49" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="310" t="s">
+    <row r="49" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="290" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="307" t="s">
+      <c r="E49" s="364" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="308"/>
-      <c r="G49" s="308"/>
-      <c r="H49" s="308"/>
-      <c r="I49" s="308"/>
-      <c r="J49" s="308"/>
-      <c r="K49" s="308"/>
-      <c r="L49" s="308"/>
-      <c r="M49" s="308"/>
-      <c r="N49" s="308"/>
-      <c r="O49" s="308"/>
-      <c r="P49" s="308"/>
-      <c r="Q49" s="308"/>
-      <c r="R49" s="308"/>
-      <c r="S49" s="308"/>
-      <c r="T49" s="308"/>
-      <c r="U49" s="308"/>
-      <c r="V49" s="308"/>
-      <c r="W49" s="308"/>
-      <c r="X49" s="308"/>
-      <c r="Y49" s="308"/>
-      <c r="Z49" s="308"/>
-      <c r="AA49" s="308"/>
-      <c r="AB49" s="308"/>
-      <c r="AC49" s="309"/>
+      <c r="F49" s="365"/>
+      <c r="G49" s="365"/>
+      <c r="H49" s="365"/>
+      <c r="I49" s="365"/>
+      <c r="J49" s="365"/>
+      <c r="K49" s="365"/>
+      <c r="L49" s="365"/>
+      <c r="M49" s="365"/>
+      <c r="N49" s="365"/>
+      <c r="O49" s="365"/>
+      <c r="P49" s="365"/>
+      <c r="Q49" s="365"/>
+      <c r="R49" s="365"/>
+      <c r="S49" s="365"/>
+      <c r="T49" s="365"/>
+      <c r="U49" s="365"/>
+      <c r="V49" s="365"/>
+      <c r="W49" s="365"/>
+      <c r="X49" s="365"/>
+      <c r="Y49" s="365"/>
+      <c r="Z49" s="365"/>
+      <c r="AA49" s="365"/>
+      <c r="AB49" s="365"/>
+      <c r="AC49" s="366"/>
       <c r="AD49" s="266" t="s">
         <v>59</v>
       </c>
@@ -7791,30 +7808,30 @@
       <c r="AM49" s="49"/>
       <c r="AN49" s="49"/>
     </row>
-    <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="332"/>
+    <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="334"/>
       <c r="E50" s="266" t="s">
         <v>61</v>
       </c>
       <c r="F50" s="267"/>
       <c r="G50" s="267"/>
       <c r="H50" s="268"/>
-      <c r="I50" s="301" t="s">
+      <c r="I50" s="335" t="s">
         <v>62</v>
       </c>
-      <c r="J50" s="302"/>
-      <c r="K50" s="302"/>
-      <c r="L50" s="303"/>
-      <c r="M50" s="301" t="s">
+      <c r="J50" s="336"/>
+      <c r="K50" s="336"/>
+      <c r="L50" s="337"/>
+      <c r="M50" s="335" t="s">
         <v>63</v>
       </c>
-      <c r="N50" s="302"/>
-      <c r="O50" s="302"/>
-      <c r="P50" s="302"/>
-      <c r="Q50" s="302"/>
-      <c r="R50" s="302"/>
-      <c r="S50" s="302"/>
-      <c r="T50" s="303"/>
+      <c r="N50" s="336"/>
+      <c r="O50" s="336"/>
+      <c r="P50" s="336"/>
+      <c r="Q50" s="336"/>
+      <c r="R50" s="336"/>
+      <c r="S50" s="336"/>
+      <c r="T50" s="337"/>
       <c r="U50" s="266" t="s">
         <v>64</v>
       </c>
@@ -7827,7 +7844,7 @@
       </c>
       <c r="AA50" s="267"/>
       <c r="AB50" s="268"/>
-      <c r="AC50" s="310" t="s">
+      <c r="AC50" s="382" t="s">
         <v>168</v>
       </c>
       <c r="AD50" s="269"/>
@@ -7848,24 +7865,24 @@
       <c r="AS50" s="49"/>
       <c r="AT50" s="49"/>
     </row>
-    <row r="51" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="311"/>
+    <row r="51" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="291"/>
       <c r="E51" s="272"/>
       <c r="F51" s="273"/>
       <c r="G51" s="273"/>
       <c r="H51" s="274"/>
-      <c r="I51" s="304"/>
-      <c r="J51" s="305"/>
-      <c r="K51" s="305"/>
-      <c r="L51" s="306"/>
-      <c r="M51" s="304"/>
-      <c r="N51" s="305"/>
-      <c r="O51" s="305"/>
-      <c r="P51" s="305"/>
-      <c r="Q51" s="305"/>
-      <c r="R51" s="305"/>
-      <c r="S51" s="305"/>
-      <c r="T51" s="306"/>
+      <c r="I51" s="338"/>
+      <c r="J51" s="339"/>
+      <c r="K51" s="339"/>
+      <c r="L51" s="340"/>
+      <c r="M51" s="338"/>
+      <c r="N51" s="339"/>
+      <c r="O51" s="339"/>
+      <c r="P51" s="339"/>
+      <c r="Q51" s="339"/>
+      <c r="R51" s="339"/>
+      <c r="S51" s="339"/>
+      <c r="T51" s="340"/>
       <c r="U51" s="272"/>
       <c r="V51" s="273"/>
       <c r="W51" s="273"/>
@@ -7874,7 +7891,7 @@
       <c r="Z51" s="272"/>
       <c r="AA51" s="273"/>
       <c r="AB51" s="274"/>
-      <c r="AC51" s="311"/>
+      <c r="AC51" s="383"/>
       <c r="AD51" s="272"/>
       <c r="AE51" s="273"/>
       <c r="AF51" s="273"/>
@@ -7895,7 +7912,7 @@
       <c r="AS51" s="49"/>
       <c r="AT51" s="49"/>
     </row>
-    <row r="52" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D52" s="104">
         <v>1</v>
       </c>
@@ -7904,44 +7921,44 @@
       </c>
       <c r="F52" s="279"/>
       <c r="G52" s="279"/>
-      <c r="H52" s="300"/>
-      <c r="I52" s="299" t="s">
+      <c r="H52" s="367"/>
+      <c r="I52" s="368" t="s">
         <v>68</v>
       </c>
-      <c r="J52" s="299"/>
-      <c r="K52" s="299"/>
-      <c r="L52" s="299"/>
-      <c r="M52" s="315" t="s">
+      <c r="J52" s="368"/>
+      <c r="K52" s="368"/>
+      <c r="L52" s="368"/>
+      <c r="M52" s="381" t="s">
         <v>39</v>
       </c>
-      <c r="N52" s="315"/>
-      <c r="O52" s="315"/>
-      <c r="P52" s="315"/>
-      <c r="Q52" s="315"/>
-      <c r="R52" s="315"/>
-      <c r="S52" s="315"/>
-      <c r="T52" s="315"/>
-      <c r="U52" s="295" t="s">
+      <c r="N52" s="381"/>
+      <c r="O52" s="381"/>
+      <c r="P52" s="381"/>
+      <c r="Q52" s="381"/>
+      <c r="R52" s="381"/>
+      <c r="S52" s="381"/>
+      <c r="T52" s="381"/>
+      <c r="U52" s="357" t="s">
         <v>39</v>
       </c>
-      <c r="V52" s="295"/>
-      <c r="W52" s="295"/>
-      <c r="X52" s="295"/>
-      <c r="Y52" s="295"/>
-      <c r="Z52" s="295" t="s">
+      <c r="V52" s="357"/>
+      <c r="W52" s="357"/>
+      <c r="X52" s="357"/>
+      <c r="Y52" s="357"/>
+      <c r="Z52" s="357" t="s">
         <v>39</v>
       </c>
-      <c r="AA52" s="295"/>
-      <c r="AB52" s="295"/>
+      <c r="AA52" s="357"/>
+      <c r="AB52" s="357"/>
       <c r="AC52" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="AD52" s="296" t="s">
+      <c r="AD52" s="351" t="s">
         <v>67</v>
       </c>
-      <c r="AE52" s="297"/>
-      <c r="AF52" s="297"/>
-      <c r="AG52" s="298"/>
+      <c r="AE52" s="288"/>
+      <c r="AF52" s="288"/>
+      <c r="AG52" s="289"/>
       <c r="AH52" s="49"/>
       <c r="AI52" s="49"/>
       <c r="AJ52" s="49"/>
@@ -7958,7 +7975,7 @@
       <c r="AS52" s="49"/>
       <c r="AT52" s="49"/>
     </row>
-    <row r="53" spans="3:53" s="58" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:53" s="58" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D53" s="104">
         <v>2</v>
       </c>
@@ -7967,44 +7984,44 @@
       </c>
       <c r="F53" s="279"/>
       <c r="G53" s="279"/>
-      <c r="H53" s="300"/>
-      <c r="I53" s="299" t="s">
+      <c r="H53" s="367"/>
+      <c r="I53" s="368" t="s">
         <v>72</v>
       </c>
-      <c r="J53" s="299"/>
-      <c r="K53" s="299"/>
-      <c r="L53" s="299"/>
-      <c r="M53" s="312" t="s">
+      <c r="J53" s="368"/>
+      <c r="K53" s="368"/>
+      <c r="L53" s="368"/>
+      <c r="M53" s="313" t="s">
         <v>39</v>
       </c>
-      <c r="N53" s="313"/>
-      <c r="O53" s="313"/>
-      <c r="P53" s="313"/>
-      <c r="Q53" s="313"/>
-      <c r="R53" s="313"/>
-      <c r="S53" s="313"/>
-      <c r="T53" s="314"/>
-      <c r="U53" s="296" t="s">
+      <c r="N53" s="314"/>
+      <c r="O53" s="314"/>
+      <c r="P53" s="314"/>
+      <c r="Q53" s="314"/>
+      <c r="R53" s="314"/>
+      <c r="S53" s="314"/>
+      <c r="T53" s="315"/>
+      <c r="U53" s="351" t="s">
         <v>73</v>
       </c>
-      <c r="V53" s="297"/>
-      <c r="W53" s="297"/>
-      <c r="X53" s="297"/>
-      <c r="Y53" s="298"/>
-      <c r="Z53" s="295" t="s">
+      <c r="V53" s="288"/>
+      <c r="W53" s="288"/>
+      <c r="X53" s="288"/>
+      <c r="Y53" s="289"/>
+      <c r="Z53" s="357" t="s">
         <v>39</v>
       </c>
-      <c r="AA53" s="295"/>
-      <c r="AB53" s="295"/>
+      <c r="AA53" s="357"/>
+      <c r="AB53" s="357"/>
       <c r="AC53" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="AD53" s="296" t="s">
+      <c r="AD53" s="351" t="s">
         <v>74</v>
       </c>
-      <c r="AE53" s="297"/>
-      <c r="AF53" s="297"/>
-      <c r="AG53" s="298"/>
+      <c r="AE53" s="288"/>
+      <c r="AF53" s="288"/>
+      <c r="AG53" s="289"/>
       <c r="AH53" s="49"/>
       <c r="AI53" s="49"/>
       <c r="AJ53" s="49"/>
@@ -8021,10 +8038,10 @@
       <c r="AS53" s="49"/>
       <c r="AT53" s="49"/>
     </row>
-    <row r="54" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AY54" s="56"/>
     </row>
-    <row r="55" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D55" s="106"/>
       <c r="E55" s="107"/>
       <c r="F55" s="108"/>
@@ -8066,7 +8083,7 @@
       <c r="AR55" s="42"/>
       <c r="AS55" s="42"/>
     </row>
-    <row r="56" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C56" s="54" t="s">
         <v>46</v>
       </c>
@@ -8111,7 +8128,7 @@
       <c r="AR56" s="42"/>
       <c r="AS56" s="42"/>
     </row>
-    <row r="57" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AI57" s="108"/>
       <c r="AJ57" s="108"/>
       <c r="AK57" s="42"/>
@@ -8128,25 +8145,25 @@
       <c r="AV57" s="42"/>
       <c r="AW57" s="42"/>
     </row>
-    <row r="58" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="D58" s="333" t="s">
+    <row r="58" spans="3:53" x14ac:dyDescent="0.2">
+      <c r="D58" s="341" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="287" t="s">
+      <c r="E58" s="343" t="s">
         <v>76</v>
       </c>
-      <c r="F58" s="288"/>
-      <c r="G58" s="288"/>
-      <c r="H58" s="288"/>
-      <c r="I58" s="288"/>
-      <c r="J58" s="289"/>
-      <c r="K58" s="287" t="s">
+      <c r="F58" s="344"/>
+      <c r="G58" s="344"/>
+      <c r="H58" s="344"/>
+      <c r="I58" s="344"/>
+      <c r="J58" s="345"/>
+      <c r="K58" s="343" t="s">
         <v>77</v>
       </c>
-      <c r="L58" s="288"/>
-      <c r="M58" s="288"/>
-      <c r="N58" s="289"/>
-      <c r="O58" s="285" t="s">
+      <c r="L58" s="344"/>
+      <c r="M58" s="344"/>
+      <c r="N58" s="345"/>
+      <c r="O58" s="377" t="s">
         <v>78</v>
       </c>
       <c r="P58" s="110" t="s">
@@ -8157,21 +8174,21 @@
       <c r="S58" s="111"/>
       <c r="T58" s="111"/>
       <c r="U58" s="111"/>
-      <c r="V58" s="287" t="s">
+      <c r="V58" s="343" t="s">
         <v>57</v>
       </c>
-      <c r="W58" s="288"/>
-      <c r="X58" s="288"/>
-      <c r="Y58" s="288"/>
-      <c r="Z58" s="288"/>
-      <c r="AA58" s="288"/>
-      <c r="AB58" s="288"/>
-      <c r="AC58" s="288"/>
-      <c r="AD58" s="288"/>
-      <c r="AE58" s="288"/>
-      <c r="AF58" s="288"/>
-      <c r="AG58" s="288"/>
-      <c r="AH58" s="289"/>
+      <c r="W58" s="344"/>
+      <c r="X58" s="344"/>
+      <c r="Y58" s="344"/>
+      <c r="Z58" s="344"/>
+      <c r="AA58" s="344"/>
+      <c r="AB58" s="344"/>
+      <c r="AC58" s="344"/>
+      <c r="AD58" s="344"/>
+      <c r="AE58" s="344"/>
+      <c r="AF58" s="344"/>
+      <c r="AG58" s="344"/>
+      <c r="AH58" s="345"/>
       <c r="AK58" s="42"/>
       <c r="AL58" s="42"/>
       <c r="AM58" s="42"/>
@@ -8186,19 +8203,19 @@
       <c r="AV58" s="42"/>
       <c r="AW58" s="42"/>
     </row>
-    <row r="59" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="D59" s="334"/>
-      <c r="E59" s="290"/>
-      <c r="F59" s="291"/>
-      <c r="G59" s="291"/>
-      <c r="H59" s="291"/>
-      <c r="I59" s="291"/>
-      <c r="J59" s="292"/>
-      <c r="K59" s="290"/>
-      <c r="L59" s="291"/>
-      <c r="M59" s="291"/>
-      <c r="N59" s="292"/>
-      <c r="O59" s="286"/>
+    <row r="59" spans="3:53" x14ac:dyDescent="0.2">
+      <c r="D59" s="342"/>
+      <c r="E59" s="346"/>
+      <c r="F59" s="347"/>
+      <c r="G59" s="347"/>
+      <c r="H59" s="347"/>
+      <c r="I59" s="347"/>
+      <c r="J59" s="348"/>
+      <c r="K59" s="346"/>
+      <c r="L59" s="347"/>
+      <c r="M59" s="347"/>
+      <c r="N59" s="348"/>
+      <c r="O59" s="378"/>
       <c r="P59" s="112" t="s">
         <v>80</v>
       </c>
@@ -8211,23 +8228,23 @@
       <c r="S59" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="T59" s="293" t="s">
+      <c r="T59" s="379" t="s">
         <v>84</v>
       </c>
-      <c r="U59" s="294"/>
-      <c r="V59" s="290"/>
-      <c r="W59" s="291"/>
-      <c r="X59" s="291"/>
-      <c r="Y59" s="291"/>
-      <c r="Z59" s="291"/>
-      <c r="AA59" s="291"/>
-      <c r="AB59" s="291"/>
-      <c r="AC59" s="291"/>
-      <c r="AD59" s="291"/>
-      <c r="AE59" s="291"/>
-      <c r="AF59" s="291"/>
-      <c r="AG59" s="291"/>
-      <c r="AH59" s="292"/>
+      <c r="U59" s="380"/>
+      <c r="V59" s="346"/>
+      <c r="W59" s="347"/>
+      <c r="X59" s="347"/>
+      <c r="Y59" s="347"/>
+      <c r="Z59" s="347"/>
+      <c r="AA59" s="347"/>
+      <c r="AB59" s="347"/>
+      <c r="AC59" s="347"/>
+      <c r="AD59" s="347"/>
+      <c r="AE59" s="347"/>
+      <c r="AF59" s="347"/>
+      <c r="AG59" s="347"/>
+      <c r="AH59" s="348"/>
       <c r="AK59" s="42"/>
       <c r="AL59" s="42"/>
       <c r="AM59" s="42"/>
@@ -8242,24 +8259,24 @@
       <c r="AV59" s="42"/>
       <c r="AW59" s="42"/>
     </row>
-    <row r="60" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D60" s="113">
         <v>1</v>
       </c>
-      <c r="E60" s="339" t="s">
+      <c r="E60" s="304" t="s">
         <v>85</v>
       </c>
-      <c r="F60" s="340"/>
-      <c r="G60" s="340"/>
-      <c r="H60" s="340"/>
-      <c r="I60" s="340"/>
-      <c r="J60" s="341"/>
-      <c r="K60" s="296" t="s">
+      <c r="F60" s="305"/>
+      <c r="G60" s="305"/>
+      <c r="H60" s="305"/>
+      <c r="I60" s="305"/>
+      <c r="J60" s="306"/>
+      <c r="K60" s="351" t="s">
         <v>86</v>
       </c>
-      <c r="L60" s="297"/>
-      <c r="M60" s="297"/>
-      <c r="N60" s="298"/>
+      <c r="L60" s="288"/>
+      <c r="M60" s="288"/>
+      <c r="N60" s="289"/>
       <c r="O60" s="114" t="s">
         <v>87</v>
       </c>
@@ -8275,25 +8292,25 @@
       <c r="S60" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="T60" s="342" t="s">
+      <c r="T60" s="352" t="s">
         <v>39</v>
       </c>
-      <c r="U60" s="343"/>
-      <c r="V60" s="296" t="s">
+      <c r="U60" s="353"/>
+      <c r="V60" s="351" t="s">
         <v>39</v>
       </c>
-      <c r="W60" s="297"/>
-      <c r="X60" s="297"/>
-      <c r="Y60" s="297"/>
-      <c r="Z60" s="297"/>
-      <c r="AA60" s="297"/>
-      <c r="AB60" s="297"/>
-      <c r="AC60" s="297"/>
-      <c r="AD60" s="297"/>
-      <c r="AE60" s="297"/>
-      <c r="AF60" s="297"/>
-      <c r="AG60" s="297"/>
-      <c r="AH60" s="298"/>
+      <c r="W60" s="288"/>
+      <c r="X60" s="288"/>
+      <c r="Y60" s="288"/>
+      <c r="Z60" s="288"/>
+      <c r="AA60" s="288"/>
+      <c r="AB60" s="288"/>
+      <c r="AC60" s="288"/>
+      <c r="AD60" s="288"/>
+      <c r="AE60" s="288"/>
+      <c r="AF60" s="288"/>
+      <c r="AG60" s="288"/>
+      <c r="AH60" s="289"/>
       <c r="AK60" s="42"/>
       <c r="AL60" s="42"/>
       <c r="AM60" s="42"/>
@@ -8308,7 +8325,7 @@
       <c r="AV60" s="42"/>
       <c r="AW60" s="42"/>
     </row>
-    <row r="61" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D61" s="116"/>
       <c r="E61" s="117"/>
       <c r="F61" s="117"/>
@@ -8356,7 +8373,7 @@
       <c r="AZ61" s="42"/>
       <c r="BA61" s="42"/>
     </row>
-    <row r="62" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D62" s="106"/>
       <c r="E62" s="107"/>
       <c r="F62" s="108"/>
@@ -8400,7 +8417,7 @@
       <c r="AZ62" s="42"/>
       <c r="BA62" s="42"/>
     </row>
-    <row r="63" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C63" s="54" t="s">
         <v>47</v>
       </c>
@@ -8414,143 +8431,143 @@
       <c r="AZ63" s="42"/>
       <c r="BA63" s="42"/>
     </row>
-    <row r="65" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="119"/>
       <c r="D65" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="E65" s="335" t="s">
+      <c r="E65" s="349" t="s">
         <v>88</v>
       </c>
-      <c r="F65" s="336"/>
-      <c r="G65" s="336"/>
-      <c r="H65" s="336"/>
-      <c r="I65" s="336"/>
-      <c r="J65" s="337"/>
-      <c r="K65" s="335" t="s">
+      <c r="F65" s="316"/>
+      <c r="G65" s="316"/>
+      <c r="H65" s="316"/>
+      <c r="I65" s="316"/>
+      <c r="J65" s="350"/>
+      <c r="K65" s="349" t="s">
         <v>89</v>
       </c>
-      <c r="L65" s="336"/>
-      <c r="M65" s="336"/>
-      <c r="N65" s="336"/>
-      <c r="O65" s="336"/>
-      <c r="P65" s="336"/>
-      <c r="Q65" s="338"/>
+      <c r="L65" s="316"/>
+      <c r="M65" s="316"/>
+      <c r="N65" s="316"/>
+      <c r="O65" s="316"/>
+      <c r="P65" s="316"/>
+      <c r="Q65" s="317"/>
       <c r="R65" s="275" t="s">
         <v>90</v>
       </c>
-      <c r="S65" s="336"/>
-      <c r="T65" s="336"/>
-      <c r="U65" s="336"/>
-      <c r="V65" s="336"/>
-      <c r="W65" s="336"/>
-      <c r="X65" s="336"/>
-      <c r="Y65" s="338"/>
-      <c r="Z65" s="307" t="s">
+      <c r="S65" s="316"/>
+      <c r="T65" s="316"/>
+      <c r="U65" s="316"/>
+      <c r="V65" s="316"/>
+      <c r="W65" s="316"/>
+      <c r="X65" s="316"/>
+      <c r="Y65" s="317"/>
+      <c r="Z65" s="364" t="s">
         <v>91</v>
       </c>
-      <c r="AA65" s="308"/>
-      <c r="AB65" s="308"/>
-      <c r="AC65" s="308"/>
-      <c r="AD65" s="309"/>
-      <c r="AE65" s="326" t="s">
+      <c r="AA65" s="365"/>
+      <c r="AB65" s="365"/>
+      <c r="AC65" s="365"/>
+      <c r="AD65" s="366"/>
+      <c r="AE65" s="361" t="s">
         <v>92</v>
       </c>
-      <c r="AF65" s="327"/>
-      <c r="AG65" s="327"/>
-      <c r="AH65" s="328"/>
-    </row>
-    <row r="66" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF65" s="362"/>
+      <c r="AG65" s="362"/>
+      <c r="AH65" s="363"/>
+    </row>
+    <row r="66" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D66" s="121">
         <v>1</v>
       </c>
-      <c r="E66" s="329" t="s">
+      <c r="E66" s="354" t="s">
         <v>93</v>
       </c>
-      <c r="F66" s="330"/>
-      <c r="G66" s="330"/>
-      <c r="H66" s="330"/>
-      <c r="I66" s="330"/>
-      <c r="J66" s="331"/>
-      <c r="K66" s="296" t="s">
+      <c r="F66" s="355"/>
+      <c r="G66" s="355"/>
+      <c r="H66" s="355"/>
+      <c r="I66" s="355"/>
+      <c r="J66" s="356"/>
+      <c r="K66" s="351" t="s">
         <v>39</v>
       </c>
-      <c r="L66" s="297"/>
-      <c r="M66" s="297"/>
-      <c r="N66" s="297"/>
-      <c r="O66" s="297"/>
-      <c r="P66" s="297"/>
-      <c r="Q66" s="298"/>
-      <c r="R66" s="296" t="s">
+      <c r="L66" s="288"/>
+      <c r="M66" s="288"/>
+      <c r="N66" s="288"/>
+      <c r="O66" s="288"/>
+      <c r="P66" s="288"/>
+      <c r="Q66" s="289"/>
+      <c r="R66" s="351" t="s">
         <v>94</v>
       </c>
-      <c r="S66" s="297"/>
-      <c r="T66" s="297"/>
-      <c r="U66" s="297"/>
-      <c r="V66" s="297"/>
-      <c r="W66" s="297"/>
-      <c r="X66" s="297"/>
-      <c r="Y66" s="298"/>
-      <c r="Z66" s="296" t="s">
+      <c r="S66" s="288"/>
+      <c r="T66" s="288"/>
+      <c r="U66" s="288"/>
+      <c r="V66" s="288"/>
+      <c r="W66" s="288"/>
+      <c r="X66" s="288"/>
+      <c r="Y66" s="289"/>
+      <c r="Z66" s="351" t="s">
         <v>39</v>
       </c>
-      <c r="AA66" s="297"/>
-      <c r="AB66" s="297"/>
-      <c r="AC66" s="297"/>
-      <c r="AD66" s="298"/>
-      <c r="AE66" s="323" t="s">
+      <c r="AA66" s="288"/>
+      <c r="AB66" s="288"/>
+      <c r="AC66" s="288"/>
+      <c r="AD66" s="289"/>
+      <c r="AE66" s="358" t="s">
         <v>95</v>
       </c>
-      <c r="AF66" s="324"/>
-      <c r="AG66" s="324"/>
-      <c r="AH66" s="325"/>
-    </row>
-    <row r="67" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF66" s="359"/>
+      <c r="AG66" s="359"/>
+      <c r="AH66" s="360"/>
+    </row>
+    <row r="67" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D67" s="121">
         <v>2</v>
       </c>
-      <c r="E67" s="329" t="s">
+      <c r="E67" s="354" t="s">
         <v>50</v>
       </c>
-      <c r="F67" s="330"/>
-      <c r="G67" s="330"/>
-      <c r="H67" s="330"/>
-      <c r="I67" s="330"/>
-      <c r="J67" s="331"/>
-      <c r="K67" s="296" t="s">
+      <c r="F67" s="355"/>
+      <c r="G67" s="355"/>
+      <c r="H67" s="355"/>
+      <c r="I67" s="355"/>
+      <c r="J67" s="356"/>
+      <c r="K67" s="351" t="s">
         <v>96</v>
       </c>
-      <c r="L67" s="297"/>
-      <c r="M67" s="297"/>
-      <c r="N67" s="297"/>
-      <c r="O67" s="297"/>
-      <c r="P67" s="297"/>
-      <c r="Q67" s="298"/>
-      <c r="R67" s="296" t="s">
+      <c r="L67" s="288"/>
+      <c r="M67" s="288"/>
+      <c r="N67" s="288"/>
+      <c r="O67" s="288"/>
+      <c r="P67" s="288"/>
+      <c r="Q67" s="289"/>
+      <c r="R67" s="351" t="s">
         <v>97</v>
       </c>
-      <c r="S67" s="297"/>
-      <c r="T67" s="297"/>
-      <c r="U67" s="297"/>
-      <c r="V67" s="297"/>
-      <c r="W67" s="297"/>
-      <c r="X67" s="297"/>
-      <c r="Y67" s="298"/>
-      <c r="Z67" s="296" t="s">
+      <c r="S67" s="288"/>
+      <c r="T67" s="288"/>
+      <c r="U67" s="288"/>
+      <c r="V67" s="288"/>
+      <c r="W67" s="288"/>
+      <c r="X67" s="288"/>
+      <c r="Y67" s="289"/>
+      <c r="Z67" s="351" t="s">
         <v>98</v>
       </c>
-      <c r="AA67" s="297"/>
-      <c r="AB67" s="297"/>
-      <c r="AC67" s="297"/>
-      <c r="AD67" s="298"/>
-      <c r="AE67" s="323" t="s">
+      <c r="AA67" s="288"/>
+      <c r="AB67" s="288"/>
+      <c r="AC67" s="288"/>
+      <c r="AD67" s="289"/>
+      <c r="AE67" s="358" t="s">
         <v>95</v>
       </c>
-      <c r="AF67" s="324"/>
-      <c r="AG67" s="324"/>
-      <c r="AH67" s="325"/>
-    </row>
-    <row r="68" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF67" s="359"/>
+      <c r="AG67" s="359"/>
+      <c r="AH67" s="360"/>
+    </row>
+    <row r="68" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D68" s="122"/>
       <c r="E68" s="123"/>
       <c r="F68" s="123"/>
@@ -8586,7 +8603,7 @@
       <c r="AO68" s="38"/>
       <c r="AP68" s="38"/>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A69" s="42"/>
       <c r="B69" s="42"/>
       <c r="C69" s="42"/>
@@ -8638,7 +8655,7 @@
       <c r="BA69" s="42"/>
       <c r="BB69" s="42"/>
     </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.2">
       <c r="C70" s="42" t="s">
         <v>48</v>
       </c>
@@ -8664,7 +8681,7 @@
       <c r="BC70" s="42"/>
       <c r="BD70" s="42"/>
     </row>
-    <row r="71" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="42"/>
       <c r="D71" s="124" t="s">
         <v>99</v>
@@ -8686,7 +8703,7 @@
       <c r="BC71" s="42"/>
       <c r="BD71" s="42"/>
     </row>
-    <row r="72" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="42"/>
       <c r="D72" s="124"/>
       <c r="E72" s="124"/>
@@ -8706,7 +8723,7 @@
       <c r="BC72" s="42"/>
       <c r="BD72" s="42"/>
     </row>
-    <row r="73" spans="1:58" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:58" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="38"/>
       <c r="D73" s="124"/>
       <c r="E73" s="124" t="s">
@@ -8714,13 +8731,13 @@
       </c>
       <c r="AP73" s="38"/>
     </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.2">
       <c r="C74" s="42"/>
       <c r="D74" s="124"/>
       <c r="E74" s="124"/>
       <c r="F74" s="124"/>
     </row>
-    <row r="75" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="42"/>
       <c r="D75" s="124"/>
       <c r="E75" s="124"/>
@@ -8729,7 +8746,7 @@
       </c>
       <c r="AP75" s="42"/>
     </row>
-    <row r="76" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="38"/>
       <c r="B76" s="44"/>
       <c r="C76" s="38"/>
@@ -8766,7 +8783,7 @@
       <c r="AI76" s="126"/>
       <c r="AJ76" s="107"/>
     </row>
-    <row r="77" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="AI77" s="127"/>
       <c r="AJ77" s="127"/>
       <c r="AK77" s="127"/>
@@ -8791,7 +8808,7 @@
       <c r="BD77" s="127"/>
       <c r="BE77" s="127"/>
     </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E78" s="54" t="s">
         <v>102</v>
       </c>
@@ -8820,7 +8837,7 @@
       <c r="BE78" s="128"/>
       <c r="BF78" s="128"/>
     </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.2">
       <c r="H79" s="44"/>
       <c r="AJ79" s="128"/>
       <c r="AK79" s="128"/>
@@ -8846,7 +8863,7 @@
       <c r="BE79" s="128"/>
       <c r="BF79" s="128"/>
     </row>
-    <row r="80" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E80" s="66"/>
       <c r="F80" s="66" t="s">
         <v>94</v>
@@ -8875,7 +8892,7 @@
       <c r="BE80" s="128"/>
       <c r="BF80" s="128"/>
     </row>
-    <row r="81" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E81" s="66"/>
       <c r="F81" s="129"/>
       <c r="G81" s="66"/>
@@ -8903,7 +8920,7 @@
       <c r="BE81" s="128"/>
       <c r="BF81" s="128"/>
     </row>
-    <row r="82" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E82" s="66"/>
       <c r="AJ82" s="128"/>
       <c r="AK82" s="128"/>
@@ -8929,7 +8946,7 @@
       <c r="BE82" s="128"/>
       <c r="BF82" s="128"/>
     </row>
-    <row r="83" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="42"/>
       <c r="D83" s="124" t="s">
         <v>103</v>
@@ -8951,7 +8968,7 @@
       <c r="BC83" s="42"/>
       <c r="BD83" s="42"/>
     </row>
-    <row r="84" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="42"/>
       <c r="D84" s="124"/>
       <c r="E84" s="124"/>
@@ -8971,7 +8988,7 @@
       <c r="BC84" s="42"/>
       <c r="BD84" s="42"/>
     </row>
-    <row r="85" spans="1:58" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:58" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="38"/>
       <c r="D85" s="124"/>
       <c r="E85" s="124" t="s">
@@ -8979,13 +8996,13 @@
       </c>
       <c r="AP85" s="38"/>
     </row>
-    <row r="86" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:58" x14ac:dyDescent="0.2">
       <c r="C86" s="42"/>
       <c r="D86" s="124"/>
       <c r="E86" s="124"/>
       <c r="F86" s="124"/>
     </row>
-    <row r="87" spans="1:58" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:58" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D87" s="42"/>
       <c r="E87" s="124"/>
       <c r="F87" s="130" t="s">
@@ -8994,40 +9011,40 @@
       <c r="G87" s="275" t="s">
         <v>104</v>
       </c>
-      <c r="H87" s="336"/>
-      <c r="I87" s="336"/>
-      <c r="J87" s="336"/>
-      <c r="K87" s="336"/>
-      <c r="L87" s="338"/>
+      <c r="H87" s="316"/>
+      <c r="I87" s="316"/>
+      <c r="J87" s="316"/>
+      <c r="K87" s="316"/>
+      <c r="L87" s="317"/>
       <c r="M87" s="275" t="s">
         <v>105</v>
       </c>
-      <c r="N87" s="336"/>
-      <c r="O87" s="336"/>
-      <c r="P87" s="336"/>
-      <c r="Q87" s="336"/>
-      <c r="R87" s="336"/>
-      <c r="S87" s="336"/>
-      <c r="T87" s="336"/>
-      <c r="U87" s="336"/>
-      <c r="V87" s="338"/>
-      <c r="W87" s="365" t="s">
+      <c r="N87" s="316"/>
+      <c r="O87" s="316"/>
+      <c r="P87" s="316"/>
+      <c r="Q87" s="316"/>
+      <c r="R87" s="316"/>
+      <c r="S87" s="316"/>
+      <c r="T87" s="316"/>
+      <c r="U87" s="316"/>
+      <c r="V87" s="317"/>
+      <c r="W87" s="327" t="s">
         <v>106</v>
       </c>
-      <c r="X87" s="366"/>
-      <c r="Y87" s="367"/>
-      <c r="Z87" s="365" t="s">
+      <c r="X87" s="328"/>
+      <c r="Y87" s="329"/>
+      <c r="Z87" s="384" t="s">
         <v>107</v>
       </c>
-      <c r="AA87" s="366"/>
-      <c r="AB87" s="366"/>
-      <c r="AC87" s="367"/>
-      <c r="AD87" s="353" t="s">
+      <c r="AA87" s="385"/>
+      <c r="AB87" s="385"/>
+      <c r="AC87" s="386"/>
+      <c r="AD87" s="310" t="s">
         <v>108</v>
       </c>
-      <c r="AE87" s="354"/>
-      <c r="AF87" s="354"/>
-      <c r="AG87" s="355"/>
+      <c r="AE87" s="311"/>
+      <c r="AF87" s="311"/>
+      <c r="AG87" s="312"/>
       <c r="AJ87" s="127"/>
       <c r="AK87" s="127"/>
       <c r="AL87" s="127"/>
@@ -9051,49 +9068,49 @@
       <c r="BD87" s="128"/>
       <c r="BE87" s="128"/>
     </row>
-    <row r="88" spans="1:58" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:58" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D88" s="42"/>
       <c r="E88" s="124"/>
       <c r="F88" s="131">
         <v>1</v>
       </c>
-      <c r="G88" s="312" t="s">
+      <c r="G88" s="313" t="s">
         <v>109</v>
       </c>
-      <c r="H88" s="313"/>
-      <c r="I88" s="313"/>
-      <c r="J88" s="313"/>
-      <c r="K88" s="313"/>
-      <c r="L88" s="314"/>
-      <c r="M88" s="312" t="s">
+      <c r="H88" s="314"/>
+      <c r="I88" s="314"/>
+      <c r="J88" s="314"/>
+      <c r="K88" s="314"/>
+      <c r="L88" s="315"/>
+      <c r="M88" s="313" t="s">
         <v>110</v>
       </c>
-      <c r="N88" s="313"/>
-      <c r="O88" s="313"/>
-      <c r="P88" s="313"/>
-      <c r="Q88" s="313"/>
-      <c r="R88" s="313"/>
-      <c r="S88" s="313"/>
-      <c r="T88" s="313"/>
-      <c r="U88" s="313"/>
-      <c r="V88" s="314"/>
-      <c r="W88" s="356" t="s">
+      <c r="N88" s="314"/>
+      <c r="O88" s="314"/>
+      <c r="P88" s="314"/>
+      <c r="Q88" s="314"/>
+      <c r="R88" s="314"/>
+      <c r="S88" s="314"/>
+      <c r="T88" s="314"/>
+      <c r="U88" s="314"/>
+      <c r="V88" s="315"/>
+      <c r="W88" s="318" t="s">
         <v>111</v>
       </c>
-      <c r="X88" s="357"/>
-      <c r="Y88" s="358"/>
-      <c r="Z88" s="362" t="s">
+      <c r="X88" s="319"/>
+      <c r="Y88" s="320"/>
+      <c r="Z88" s="324" t="s">
         <v>111</v>
       </c>
-      <c r="AA88" s="363"/>
-      <c r="AB88" s="363"/>
-      <c r="AC88" s="364"/>
-      <c r="AD88" s="312" t="s">
+      <c r="AA88" s="325"/>
+      <c r="AB88" s="325"/>
+      <c r="AC88" s="326"/>
+      <c r="AD88" s="313" t="s">
         <v>112</v>
       </c>
-      <c r="AE88" s="313"/>
-      <c r="AF88" s="313"/>
-      <c r="AG88" s="314"/>
+      <c r="AE88" s="314"/>
+      <c r="AF88" s="314"/>
+      <c r="AG88" s="315"/>
       <c r="AI88" s="127"/>
       <c r="AJ88" s="127"/>
       <c r="AK88" s="127"/>
@@ -9118,7 +9135,7 @@
       <c r="BD88" s="128"/>
       <c r="BE88" s="128"/>
     </row>
-    <row r="89" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D89" s="42"/>
       <c r="E89" s="124"/>
       <c r="F89" s="56"/>
@@ -9174,19 +9191,19 @@
       <c r="BD89" s="128"/>
       <c r="BE89" s="128"/>
     </row>
-    <row r="90" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D90" s="38"/>
       <c r="E90" s="124"/>
       <c r="F90" s="56" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D91" s="38"/>
       <c r="E91" s="124"/>
       <c r="F91" s="124"/>
     </row>
-    <row r="92" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="38"/>
       <c r="B92" s="44"/>
       <c r="C92" s="38"/>
@@ -9223,87 +9240,87 @@
       <c r="AI92" s="126"/>
       <c r="AJ92" s="107"/>
     </row>
-    <row r="93" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="42"/>
       <c r="D93" s="124"/>
       <c r="E93" s="124"/>
       <c r="AP93" s="42"/>
     </row>
-    <row r="94" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E94" s="54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F95" s="54" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="5:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G97" s="368" t="s">
+    <row r="97" spans="5:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G97" s="295" t="s">
         <v>116</v>
       </c>
-      <c r="H97" s="369"/>
-      <c r="I97" s="369"/>
-      <c r="J97" s="369"/>
-      <c r="K97" s="369"/>
-      <c r="L97" s="369"/>
-      <c r="M97" s="369"/>
-      <c r="N97" s="369"/>
-      <c r="O97" s="369"/>
-      <c r="P97" s="370"/>
-      <c r="Q97" s="371" t="s">
+      <c r="H97" s="296"/>
+      <c r="I97" s="296"/>
+      <c r="J97" s="296"/>
+      <c r="K97" s="296"/>
+      <c r="L97" s="296"/>
+      <c r="M97" s="296"/>
+      <c r="N97" s="296"/>
+      <c r="O97" s="296"/>
+      <c r="P97" s="297"/>
+      <c r="Q97" s="330" t="s">
         <v>117</v>
       </c>
-      <c r="R97" s="372"/>
-      <c r="S97" s="372"/>
-      <c r="T97" s="372"/>
-      <c r="U97" s="372"/>
-      <c r="V97" s="372"/>
-      <c r="W97" s="372"/>
-      <c r="X97" s="372"/>
-      <c r="Y97" s="372"/>
-      <c r="Z97" s="373"/>
-    </row>
-    <row r="98" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G98" s="344" t="s">
+      <c r="R97" s="331"/>
+      <c r="S97" s="331"/>
+      <c r="T97" s="331"/>
+      <c r="U97" s="331"/>
+      <c r="V97" s="331"/>
+      <c r="W97" s="331"/>
+      <c r="X97" s="331"/>
+      <c r="Y97" s="331"/>
+      <c r="Z97" s="332"/>
+    </row>
+    <row r="98" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G98" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="H98" s="345"/>
-      <c r="I98" s="345"/>
-      <c r="J98" s="345"/>
-      <c r="K98" s="345"/>
-      <c r="L98" s="345"/>
-      <c r="M98" s="345"/>
-      <c r="N98" s="345"/>
-      <c r="O98" s="345"/>
-      <c r="P98" s="346"/>
-      <c r="Q98" s="339" t="s">
+      <c r="H98" s="299"/>
+      <c r="I98" s="299"/>
+      <c r="J98" s="299"/>
+      <c r="K98" s="299"/>
+      <c r="L98" s="299"/>
+      <c r="M98" s="299"/>
+      <c r="N98" s="299"/>
+      <c r="O98" s="299"/>
+      <c r="P98" s="300"/>
+      <c r="Q98" s="304" t="s">
         <v>173</v>
       </c>
-      <c r="R98" s="340"/>
-      <c r="S98" s="340"/>
-      <c r="T98" s="340"/>
-      <c r="U98" s="340"/>
-      <c r="V98" s="340"/>
-      <c r="W98" s="340"/>
-      <c r="X98" s="340"/>
-      <c r="Y98" s="340"/>
-      <c r="Z98" s="341"/>
+      <c r="R98" s="305"/>
+      <c r="S98" s="305"/>
+      <c r="T98" s="305"/>
+      <c r="U98" s="305"/>
+      <c r="V98" s="305"/>
+      <c r="W98" s="305"/>
+      <c r="X98" s="305"/>
+      <c r="Y98" s="305"/>
+      <c r="Z98" s="306"/>
       <c r="AG98" s="132"/>
       <c r="AH98" s="132"/>
     </row>
-    <row r="99" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G99" s="347"/>
-      <c r="H99" s="348"/>
-      <c r="I99" s="348"/>
-      <c r="J99" s="348"/>
-      <c r="K99" s="348"/>
-      <c r="L99" s="348"/>
-      <c r="M99" s="348"/>
-      <c r="N99" s="348"/>
-      <c r="O99" s="348"/>
-      <c r="P99" s="349"/>
+    <row r="99" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G99" s="301"/>
+      <c r="H99" s="302"/>
+      <c r="I99" s="302"/>
+      <c r="J99" s="302"/>
+      <c r="K99" s="302"/>
+      <c r="L99" s="302"/>
+      <c r="M99" s="302"/>
+      <c r="N99" s="302"/>
+      <c r="O99" s="302"/>
+      <c r="P99" s="303"/>
       <c r="Q99" s="133" t="s">
         <v>174</v>
       </c>
@@ -9319,17 +9336,17 @@
       <c r="AG99" s="132"/>
       <c r="AH99" s="132"/>
     </row>
-    <row r="100" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G100" s="347"/>
-      <c r="H100" s="348"/>
-      <c r="I100" s="348"/>
-      <c r="J100" s="348"/>
-      <c r="K100" s="348"/>
-      <c r="L100" s="348"/>
-      <c r="M100" s="348"/>
-      <c r="N100" s="348"/>
-      <c r="O100" s="348"/>
-      <c r="P100" s="349"/>
+    <row r="100" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G100" s="301"/>
+      <c r="H100" s="302"/>
+      <c r="I100" s="302"/>
+      <c r="J100" s="302"/>
+      <c r="K100" s="302"/>
+      <c r="L100" s="302"/>
+      <c r="M100" s="302"/>
+      <c r="N100" s="302"/>
+      <c r="O100" s="302"/>
+      <c r="P100" s="303"/>
       <c r="Q100" s="133" t="s">
         <v>175</v>
       </c>
@@ -9345,17 +9362,17 @@
       <c r="AG100" s="132"/>
       <c r="AH100" s="132"/>
     </row>
-    <row r="101" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G101" s="347"/>
-      <c r="H101" s="348"/>
-      <c r="I101" s="348"/>
-      <c r="J101" s="348"/>
-      <c r="K101" s="348"/>
-      <c r="L101" s="348"/>
-      <c r="M101" s="348"/>
-      <c r="N101" s="348"/>
-      <c r="O101" s="348"/>
-      <c r="P101" s="349"/>
+    <row r="101" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G101" s="301"/>
+      <c r="H101" s="302"/>
+      <c r="I101" s="302"/>
+      <c r="J101" s="302"/>
+      <c r="K101" s="302"/>
+      <c r="L101" s="302"/>
+      <c r="M101" s="302"/>
+      <c r="N101" s="302"/>
+      <c r="O101" s="302"/>
+      <c r="P101" s="303"/>
       <c r="Q101" s="171" t="s">
         <v>176</v>
       </c>
@@ -9371,55 +9388,55 @@
       <c r="AG101" s="132"/>
       <c r="AH101" s="132"/>
     </row>
-    <row r="102" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G102" s="347"/>
-      <c r="H102" s="348"/>
-      <c r="I102" s="348"/>
-      <c r="J102" s="348"/>
-      <c r="K102" s="348"/>
-      <c r="L102" s="348"/>
-      <c r="M102" s="348"/>
-      <c r="N102" s="348"/>
-      <c r="O102" s="348"/>
-      <c r="P102" s="349"/>
-      <c r="Q102" s="339" t="s">
+    <row r="102" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G102" s="301"/>
+      <c r="H102" s="302"/>
+      <c r="I102" s="302"/>
+      <c r="J102" s="302"/>
+      <c r="K102" s="302"/>
+      <c r="L102" s="302"/>
+      <c r="M102" s="302"/>
+      <c r="N102" s="302"/>
+      <c r="O102" s="302"/>
+      <c r="P102" s="303"/>
+      <c r="Q102" s="304" t="s">
         <v>177</v>
       </c>
-      <c r="R102" s="340"/>
-      <c r="S102" s="340"/>
-      <c r="T102" s="340"/>
-      <c r="U102" s="340"/>
-      <c r="V102" s="340"/>
-      <c r="W102" s="340"/>
-      <c r="X102" s="340"/>
-      <c r="Y102" s="340"/>
-      <c r="Z102" s="341"/>
+      <c r="R102" s="305"/>
+      <c r="S102" s="305"/>
+      <c r="T102" s="305"/>
+      <c r="U102" s="305"/>
+      <c r="V102" s="305"/>
+      <c r="W102" s="305"/>
+      <c r="X102" s="305"/>
+      <c r="Y102" s="305"/>
+      <c r="Z102" s="306"/>
       <c r="AG102" s="132"/>
       <c r="AH102" s="132"/>
     </row>
-    <row r="103" spans="5:58" x14ac:dyDescent="0.25">
-      <c r="G103" s="347"/>
-      <c r="H103" s="348"/>
-      <c r="I103" s="348"/>
-      <c r="J103" s="348"/>
-      <c r="K103" s="348"/>
-      <c r="L103" s="348"/>
-      <c r="M103" s="348"/>
-      <c r="N103" s="348"/>
-      <c r="O103" s="348"/>
-      <c r="P103" s="349"/>
-      <c r="Q103" s="339" t="s">
+    <row r="103" spans="5:58" x14ac:dyDescent="0.2">
+      <c r="G103" s="301"/>
+      <c r="H103" s="302"/>
+      <c r="I103" s="302"/>
+      <c r="J103" s="302"/>
+      <c r="K103" s="302"/>
+      <c r="L103" s="302"/>
+      <c r="M103" s="302"/>
+      <c r="N103" s="302"/>
+      <c r="O103" s="302"/>
+      <c r="P103" s="303"/>
+      <c r="Q103" s="304" t="s">
         <v>178</v>
       </c>
-      <c r="R103" s="340"/>
-      <c r="S103" s="340"/>
-      <c r="T103" s="340"/>
-      <c r="U103" s="340"/>
-      <c r="V103" s="340"/>
-      <c r="W103" s="340"/>
-      <c r="X103" s="340"/>
-      <c r="Y103" s="340"/>
-      <c r="Z103" s="341"/>
+      <c r="R103" s="305"/>
+      <c r="S103" s="305"/>
+      <c r="T103" s="305"/>
+      <c r="U103" s="305"/>
+      <c r="V103" s="305"/>
+      <c r="W103" s="305"/>
+      <c r="X103" s="305"/>
+      <c r="Y103" s="305"/>
+      <c r="Z103" s="306"/>
       <c r="AC103" s="128"/>
       <c r="AD103" s="128"/>
       <c r="AE103" s="128"/>
@@ -9437,31 +9454,31 @@
       <c r="AX103" s="128"/>
       <c r="AY103" s="128"/>
     </row>
-    <row r="104" spans="5:58" x14ac:dyDescent="0.25">
-      <c r="G104" s="344" t="s">
+    <row r="104" spans="5:58" x14ac:dyDescent="0.2">
+      <c r="G104" s="298" t="s">
         <v>179</v>
       </c>
-      <c r="H104" s="345"/>
-      <c r="I104" s="345"/>
-      <c r="J104" s="345"/>
-      <c r="K104" s="345"/>
-      <c r="L104" s="345"/>
-      <c r="M104" s="345"/>
-      <c r="N104" s="345"/>
-      <c r="O104" s="345"/>
-      <c r="P104" s="346"/>
-      <c r="Q104" s="339" t="s">
+      <c r="H104" s="299"/>
+      <c r="I104" s="299"/>
+      <c r="J104" s="299"/>
+      <c r="K104" s="299"/>
+      <c r="L104" s="299"/>
+      <c r="M104" s="299"/>
+      <c r="N104" s="299"/>
+      <c r="O104" s="299"/>
+      <c r="P104" s="300"/>
+      <c r="Q104" s="304" t="s">
         <v>180</v>
       </c>
-      <c r="R104" s="340"/>
-      <c r="S104" s="340"/>
-      <c r="T104" s="340"/>
-      <c r="U104" s="340"/>
-      <c r="V104" s="340"/>
-      <c r="W104" s="340"/>
-      <c r="X104" s="340"/>
-      <c r="Y104" s="340"/>
-      <c r="Z104" s="341"/>
+      <c r="R104" s="305"/>
+      <c r="S104" s="305"/>
+      <c r="T104" s="305"/>
+      <c r="U104" s="305"/>
+      <c r="V104" s="305"/>
+      <c r="W104" s="305"/>
+      <c r="X104" s="305"/>
+      <c r="Y104" s="305"/>
+      <c r="Z104" s="306"/>
       <c r="AC104" s="128"/>
       <c r="AD104" s="128"/>
       <c r="AE104" s="128"/>
@@ -9479,29 +9496,29 @@
       <c r="AX104" s="128"/>
       <c r="AY104" s="128"/>
     </row>
-    <row r="105" spans="5:58" x14ac:dyDescent="0.25">
-      <c r="G105" s="359"/>
-      <c r="H105" s="360"/>
-      <c r="I105" s="360"/>
-      <c r="J105" s="360"/>
-      <c r="K105" s="360"/>
-      <c r="L105" s="360"/>
-      <c r="M105" s="360"/>
-      <c r="N105" s="360"/>
-      <c r="O105" s="360"/>
-      <c r="P105" s="361"/>
-      <c r="Q105" s="339" t="s">
+    <row r="105" spans="5:58" x14ac:dyDescent="0.2">
+      <c r="G105" s="321"/>
+      <c r="H105" s="322"/>
+      <c r="I105" s="322"/>
+      <c r="J105" s="322"/>
+      <c r="K105" s="322"/>
+      <c r="L105" s="322"/>
+      <c r="M105" s="322"/>
+      <c r="N105" s="322"/>
+      <c r="O105" s="322"/>
+      <c r="P105" s="323"/>
+      <c r="Q105" s="304" t="s">
         <v>181</v>
       </c>
-      <c r="R105" s="340"/>
-      <c r="S105" s="340"/>
-      <c r="T105" s="340"/>
-      <c r="U105" s="340"/>
-      <c r="V105" s="340"/>
-      <c r="W105" s="340"/>
-      <c r="X105" s="340"/>
-      <c r="Y105" s="340"/>
-      <c r="Z105" s="341"/>
+      <c r="R105" s="305"/>
+      <c r="S105" s="305"/>
+      <c r="T105" s="305"/>
+      <c r="U105" s="305"/>
+      <c r="V105" s="305"/>
+      <c r="W105" s="305"/>
+      <c r="X105" s="305"/>
+      <c r="Y105" s="305"/>
+      <c r="Z105" s="306"/>
       <c r="AC105" s="128"/>
       <c r="AD105" s="128"/>
       <c r="AE105" s="128"/>
@@ -9519,29 +9536,29 @@
       <c r="AX105" s="128"/>
       <c r="AY105" s="128"/>
     </row>
-    <row r="106" spans="5:58" x14ac:dyDescent="0.25">
-      <c r="G106" s="350" t="s">
+    <row r="106" spans="5:58" x14ac:dyDescent="0.2">
+      <c r="G106" s="307" t="s">
         <v>119</v>
       </c>
-      <c r="H106" s="351"/>
-      <c r="I106" s="351"/>
-      <c r="J106" s="351"/>
-      <c r="K106" s="351"/>
-      <c r="L106" s="351"/>
-      <c r="M106" s="351"/>
-      <c r="N106" s="351"/>
-      <c r="O106" s="351"/>
-      <c r="P106" s="351"/>
-      <c r="Q106" s="351"/>
-      <c r="R106" s="351"/>
-      <c r="S106" s="351"/>
-      <c r="T106" s="351"/>
-      <c r="U106" s="351"/>
-      <c r="V106" s="351"/>
-      <c r="W106" s="351"/>
-      <c r="X106" s="351"/>
-      <c r="Y106" s="351"/>
-      <c r="Z106" s="352"/>
+      <c r="H106" s="308"/>
+      <c r="I106" s="308"/>
+      <c r="J106" s="308"/>
+      <c r="K106" s="308"/>
+      <c r="L106" s="308"/>
+      <c r="M106" s="308"/>
+      <c r="N106" s="308"/>
+      <c r="O106" s="308"/>
+      <c r="P106" s="308"/>
+      <c r="Q106" s="308"/>
+      <c r="R106" s="308"/>
+      <c r="S106" s="308"/>
+      <c r="T106" s="308"/>
+      <c r="U106" s="308"/>
+      <c r="V106" s="308"/>
+      <c r="W106" s="308"/>
+      <c r="X106" s="308"/>
+      <c r="Y106" s="308"/>
+      <c r="Z106" s="309"/>
       <c r="AJ106" s="128"/>
       <c r="AK106" s="128"/>
       <c r="AL106" s="128"/>
@@ -9566,7 +9583,7 @@
       <c r="BE106" s="128"/>
       <c r="BF106" s="128"/>
     </row>
-    <row r="107" spans="5:58" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:58" x14ac:dyDescent="0.2">
       <c r="G107" s="136"/>
       <c r="H107" s="137"/>
       <c r="I107" s="137"/>
@@ -9611,7 +9628,7 @@
       <c r="BE107" s="128"/>
       <c r="BF107" s="128"/>
     </row>
-    <row r="108" spans="5:58" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:58" x14ac:dyDescent="0.2">
       <c r="G108" s="139"/>
       <c r="H108" s="140" t="s">
         <v>182</v>
@@ -9660,7 +9677,7 @@
       <c r="BE108" s="128"/>
       <c r="BF108" s="128"/>
     </row>
-    <row r="109" spans="5:58" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:58" x14ac:dyDescent="0.2">
       <c r="G109" s="144"/>
       <c r="H109" s="145"/>
       <c r="I109" s="145"/>
@@ -9705,7 +9722,7 @@
       <c r="BE109" s="128"/>
       <c r="BF109" s="128"/>
     </row>
-    <row r="110" spans="5:58" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:58" x14ac:dyDescent="0.2">
       <c r="G110" s="140"/>
       <c r="H110" s="140"/>
       <c r="I110" s="140"/>
@@ -9750,7 +9767,7 @@
       <c r="BE110" s="128"/>
       <c r="BF110" s="128"/>
     </row>
-    <row r="111" spans="5:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="AI111" s="127"/>
       <c r="AJ111" s="127"/>
       <c r="AK111" s="127"/>
@@ -9775,7 +9792,7 @@
       <c r="BD111" s="127"/>
       <c r="BE111" s="127"/>
     </row>
-    <row r="112" spans="5:58" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:58" x14ac:dyDescent="0.2">
       <c r="E112" s="54" t="s">
         <v>122</v>
       </c>
@@ -9804,11 +9821,11 @@
       <c r="BE112" s="128"/>
       <c r="BF112" s="128"/>
     </row>
-    <row r="113" spans="4:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D113" s="38"/>
       <c r="E113" s="124"/>
     </row>
-    <row r="114" spans="4:58" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E114" s="66"/>
       <c r="F114" s="66" t="s">
         <v>123</v>
@@ -9837,7 +9854,7 @@
       <c r="BE114" s="128"/>
       <c r="BF114" s="128"/>
     </row>
-    <row r="115" spans="4:58" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E115" s="66"/>
       <c r="F115" s="129"/>
       <c r="G115" s="66" t="s">
@@ -9867,7 +9884,7 @@
       <c r="BE115" s="128"/>
       <c r="BF115" s="128"/>
     </row>
-    <row r="116" spans="4:58" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E116" s="66"/>
       <c r="F116" s="129"/>
       <c r="H116" s="73" t="s">
@@ -9904,7 +9921,7 @@
       <c r="BE116" s="128"/>
       <c r="BF116" s="128"/>
     </row>
-    <row r="117" spans="4:58" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E117" s="66"/>
       <c r="F117" s="129"/>
       <c r="G117" s="66"/>
@@ -9932,7 +9949,7 @@
       <c r="BE117" s="128"/>
       <c r="BF117" s="128"/>
     </row>
-    <row r="118" spans="4:58" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E118" s="66"/>
       <c r="F118" s="66" t="s">
         <v>126</v>
@@ -9961,38 +9978,38 @@
       <c r="BE118" s="128"/>
       <c r="BF118" s="128"/>
     </row>
-    <row r="119" spans="4:58" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E119" s="66"/>
       <c r="F119" s="129"/>
-      <c r="G119" s="374" t="s">
+      <c r="G119" s="283" t="s">
         <v>127</v>
       </c>
-      <c r="H119" s="374"/>
-      <c r="I119" s="374"/>
-      <c r="J119" s="374"/>
-      <c r="K119" s="374"/>
-      <c r="L119" s="374"/>
-      <c r="M119" s="374"/>
-      <c r="N119" s="374"/>
-      <c r="O119" s="374"/>
-      <c r="P119" s="374"/>
-      <c r="Q119" s="374"/>
-      <c r="R119" s="374"/>
-      <c r="S119" s="374"/>
-      <c r="T119" s="374"/>
-      <c r="U119" s="374"/>
-      <c r="V119" s="374"/>
-      <c r="W119" s="374"/>
-      <c r="X119" s="374"/>
-      <c r="Y119" s="374"/>
-      <c r="Z119" s="374"/>
-      <c r="AA119" s="374"/>
-      <c r="AB119" s="374"/>
-      <c r="AC119" s="374"/>
-      <c r="AD119" s="374"/>
-      <c r="AE119" s="374"/>
-      <c r="AF119" s="374"/>
-      <c r="AG119" s="374"/>
+      <c r="H119" s="283"/>
+      <c r="I119" s="283"/>
+      <c r="J119" s="283"/>
+      <c r="K119" s="283"/>
+      <c r="L119" s="283"/>
+      <c r="M119" s="283"/>
+      <c r="N119" s="283"/>
+      <c r="O119" s="283"/>
+      <c r="P119" s="283"/>
+      <c r="Q119" s="283"/>
+      <c r="R119" s="283"/>
+      <c r="S119" s="283"/>
+      <c r="T119" s="283"/>
+      <c r="U119" s="283"/>
+      <c r="V119" s="283"/>
+      <c r="W119" s="283"/>
+      <c r="X119" s="283"/>
+      <c r="Y119" s="283"/>
+      <c r="Z119" s="283"/>
+      <c r="AA119" s="283"/>
+      <c r="AB119" s="283"/>
+      <c r="AC119" s="283"/>
+      <c r="AD119" s="283"/>
+      <c r="AE119" s="283"/>
+      <c r="AF119" s="283"/>
+      <c r="AG119" s="283"/>
       <c r="AJ119" s="128"/>
       <c r="AK119" s="128"/>
       <c r="AL119" s="128"/>
@@ -10017,36 +10034,36 @@
       <c r="BE119" s="128"/>
       <c r="BF119" s="128"/>
     </row>
-    <row r="120" spans="4:58" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E120" s="66"/>
       <c r="F120" s="129"/>
-      <c r="G120" s="374"/>
-      <c r="H120" s="374"/>
-      <c r="I120" s="374"/>
-      <c r="J120" s="374"/>
-      <c r="K120" s="374"/>
-      <c r="L120" s="374"/>
-      <c r="M120" s="374"/>
-      <c r="N120" s="374"/>
-      <c r="O120" s="374"/>
-      <c r="P120" s="374"/>
-      <c r="Q120" s="374"/>
-      <c r="R120" s="374"/>
-      <c r="S120" s="374"/>
-      <c r="T120" s="374"/>
-      <c r="U120" s="374"/>
-      <c r="V120" s="374"/>
-      <c r="W120" s="374"/>
-      <c r="X120" s="374"/>
-      <c r="Y120" s="374"/>
-      <c r="Z120" s="374"/>
-      <c r="AA120" s="374"/>
-      <c r="AB120" s="374"/>
-      <c r="AC120" s="374"/>
-      <c r="AD120" s="374"/>
-      <c r="AE120" s="374"/>
-      <c r="AF120" s="374"/>
-      <c r="AG120" s="374"/>
+      <c r="G120" s="283"/>
+      <c r="H120" s="283"/>
+      <c r="I120" s="283"/>
+      <c r="J120" s="283"/>
+      <c r="K120" s="283"/>
+      <c r="L120" s="283"/>
+      <c r="M120" s="283"/>
+      <c r="N120" s="283"/>
+      <c r="O120" s="283"/>
+      <c r="P120" s="283"/>
+      <c r="Q120" s="283"/>
+      <c r="R120" s="283"/>
+      <c r="S120" s="283"/>
+      <c r="T120" s="283"/>
+      <c r="U120" s="283"/>
+      <c r="V120" s="283"/>
+      <c r="W120" s="283"/>
+      <c r="X120" s="283"/>
+      <c r="Y120" s="283"/>
+      <c r="Z120" s="283"/>
+      <c r="AA120" s="283"/>
+      <c r="AB120" s="283"/>
+      <c r="AC120" s="283"/>
+      <c r="AD120" s="283"/>
+      <c r="AE120" s="283"/>
+      <c r="AF120" s="283"/>
+      <c r="AG120" s="283"/>
       <c r="AJ120" s="128"/>
       <c r="AK120" s="128"/>
       <c r="AL120" s="128"/>
@@ -10071,7 +10088,7 @@
       <c r="BE120" s="128"/>
       <c r="BF120" s="128"/>
     </row>
-    <row r="121" spans="4:58" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E121" s="66"/>
       <c r="F121" s="129"/>
       <c r="G121" s="66"/>
@@ -10102,7 +10119,7 @@
       <c r="BE121" s="128"/>
       <c r="BF121" s="128"/>
     </row>
-    <row r="122" spans="4:58" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E122" s="66"/>
       <c r="F122" s="66" t="s">
         <v>128</v>
@@ -10131,7 +10148,7 @@
       <c r="BE122" s="128"/>
       <c r="BF122" s="128"/>
     </row>
-    <row r="123" spans="4:58" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E123" s="66"/>
       <c r="F123" s="129"/>
       <c r="G123" s="66" t="s">
@@ -10161,7 +10178,7 @@
       <c r="BE123" s="128"/>
       <c r="BF123" s="128"/>
     </row>
-    <row r="124" spans="4:58" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E124" s="66"/>
       <c r="F124" s="129"/>
       <c r="H124" s="73" t="s">
@@ -10197,7 +10214,7 @@
       <c r="BE124" s="128"/>
       <c r="BF124" s="128"/>
     </row>
-    <row r="125" spans="4:58" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E125" s="66"/>
       <c r="F125" s="129"/>
       <c r="G125" s="66"/>
@@ -10225,7 +10242,7 @@
       <c r="BE125" s="128"/>
       <c r="BF125" s="128"/>
     </row>
-    <row r="126" spans="4:58" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E126" s="66"/>
       <c r="F126" s="66" t="s">
         <v>130</v>
@@ -10254,38 +10271,38 @@
       <c r="BE126" s="128"/>
       <c r="BF126" s="128"/>
     </row>
-    <row r="127" spans="4:58" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E127" s="66"/>
       <c r="F127" s="129"/>
-      <c r="G127" s="374" t="s">
+      <c r="G127" s="283" t="s">
         <v>131</v>
       </c>
-      <c r="H127" s="374"/>
-      <c r="I127" s="374"/>
-      <c r="J127" s="374"/>
-      <c r="K127" s="374"/>
-      <c r="L127" s="374"/>
-      <c r="M127" s="374"/>
-      <c r="N127" s="374"/>
-      <c r="O127" s="374"/>
-      <c r="P127" s="374"/>
-      <c r="Q127" s="374"/>
-      <c r="R127" s="374"/>
-      <c r="S127" s="374"/>
-      <c r="T127" s="374"/>
-      <c r="U127" s="374"/>
-      <c r="V127" s="374"/>
-      <c r="W127" s="374"/>
-      <c r="X127" s="374"/>
-      <c r="Y127" s="374"/>
-      <c r="Z127" s="374"/>
-      <c r="AA127" s="374"/>
-      <c r="AB127" s="374"/>
-      <c r="AC127" s="374"/>
-      <c r="AD127" s="374"/>
-      <c r="AE127" s="374"/>
-      <c r="AF127" s="374"/>
-      <c r="AG127" s="374"/>
+      <c r="H127" s="283"/>
+      <c r="I127" s="283"/>
+      <c r="J127" s="283"/>
+      <c r="K127" s="283"/>
+      <c r="L127" s="283"/>
+      <c r="M127" s="283"/>
+      <c r="N127" s="283"/>
+      <c r="O127" s="283"/>
+      <c r="P127" s="283"/>
+      <c r="Q127" s="283"/>
+      <c r="R127" s="283"/>
+      <c r="S127" s="283"/>
+      <c r="T127" s="283"/>
+      <c r="U127" s="283"/>
+      <c r="V127" s="283"/>
+      <c r="W127" s="283"/>
+      <c r="X127" s="283"/>
+      <c r="Y127" s="283"/>
+      <c r="Z127" s="283"/>
+      <c r="AA127" s="283"/>
+      <c r="AB127" s="283"/>
+      <c r="AC127" s="283"/>
+      <c r="AD127" s="283"/>
+      <c r="AE127" s="283"/>
+      <c r="AF127" s="283"/>
+      <c r="AG127" s="283"/>
       <c r="AJ127" s="128"/>
       <c r="AK127" s="128"/>
       <c r="AL127" s="128"/>
@@ -10310,36 +10327,36 @@
       <c r="BE127" s="128"/>
       <c r="BF127" s="128"/>
     </row>
-    <row r="128" spans="4:58" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E128" s="66"/>
       <c r="F128" s="129"/>
-      <c r="G128" s="374"/>
-      <c r="H128" s="374"/>
-      <c r="I128" s="374"/>
-      <c r="J128" s="374"/>
-      <c r="K128" s="374"/>
-      <c r="L128" s="374"/>
-      <c r="M128" s="374"/>
-      <c r="N128" s="374"/>
-      <c r="O128" s="374"/>
-      <c r="P128" s="374"/>
-      <c r="Q128" s="374"/>
-      <c r="R128" s="374"/>
-      <c r="S128" s="374"/>
-      <c r="T128" s="374"/>
-      <c r="U128" s="374"/>
-      <c r="V128" s="374"/>
-      <c r="W128" s="374"/>
-      <c r="X128" s="374"/>
-      <c r="Y128" s="374"/>
-      <c r="Z128" s="374"/>
-      <c r="AA128" s="374"/>
-      <c r="AB128" s="374"/>
-      <c r="AC128" s="374"/>
-      <c r="AD128" s="374"/>
-      <c r="AE128" s="374"/>
-      <c r="AF128" s="374"/>
-      <c r="AG128" s="374"/>
+      <c r="G128" s="283"/>
+      <c r="H128" s="283"/>
+      <c r="I128" s="283"/>
+      <c r="J128" s="283"/>
+      <c r="K128" s="283"/>
+      <c r="L128" s="283"/>
+      <c r="M128" s="283"/>
+      <c r="N128" s="283"/>
+      <c r="O128" s="283"/>
+      <c r="P128" s="283"/>
+      <c r="Q128" s="283"/>
+      <c r="R128" s="283"/>
+      <c r="S128" s="283"/>
+      <c r="T128" s="283"/>
+      <c r="U128" s="283"/>
+      <c r="V128" s="283"/>
+      <c r="W128" s="283"/>
+      <c r="X128" s="283"/>
+      <c r="Y128" s="283"/>
+      <c r="Z128" s="283"/>
+      <c r="AA128" s="283"/>
+      <c r="AB128" s="283"/>
+      <c r="AC128" s="283"/>
+      <c r="AD128" s="283"/>
+      <c r="AE128" s="283"/>
+      <c r="AF128" s="283"/>
+      <c r="AG128" s="283"/>
       <c r="AJ128" s="128"/>
       <c r="AK128" s="128"/>
       <c r="AL128" s="128"/>
@@ -10364,7 +10381,7 @@
       <c r="BE128" s="128"/>
       <c r="BF128" s="128"/>
     </row>
-    <row r="129" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E129" s="66"/>
       <c r="F129" s="129"/>
       <c r="H129" s="73" t="s">
@@ -10400,7 +10417,7 @@
       <c r="BE129" s="128"/>
       <c r="BF129" s="128"/>
     </row>
-    <row r="130" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E130" s="66"/>
       <c r="F130" s="129"/>
       <c r="G130" s="66"/>
@@ -10428,8 +10445,8 @@
       <c r="BE130" s="128"/>
       <c r="BF130" s="128"/>
     </row>
-    <row r="131" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H131" s="310" t="s">
+    <row r="131" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H131" s="290" t="s">
         <v>30</v>
       </c>
       <c r="I131" s="266" t="s">
@@ -10440,19 +10457,19 @@
       <c r="L131" s="267"/>
       <c r="M131" s="267"/>
       <c r="N131" s="268"/>
-      <c r="O131" s="379" t="s">
+      <c r="O131" s="292" t="s">
         <v>133</v>
       </c>
-      <c r="P131" s="380"/>
-      <c r="Q131" s="380"/>
-      <c r="R131" s="380"/>
-      <c r="S131" s="380"/>
-      <c r="T131" s="380"/>
-      <c r="U131" s="380"/>
-      <c r="V131" s="380"/>
-      <c r="W131" s="380"/>
-      <c r="X131" s="380"/>
-      <c r="Y131" s="381"/>
+      <c r="P131" s="293"/>
+      <c r="Q131" s="293"/>
+      <c r="R131" s="293"/>
+      <c r="S131" s="293"/>
+      <c r="T131" s="293"/>
+      <c r="U131" s="293"/>
+      <c r="V131" s="293"/>
+      <c r="W131" s="293"/>
+      <c r="X131" s="293"/>
+      <c r="Y131" s="294"/>
       <c r="Z131" s="266" t="s">
         <v>64</v>
       </c>
@@ -10467,29 +10484,29 @@
       <c r="AG131" s="152"/>
       <c r="AH131" s="153"/>
     </row>
-    <row r="132" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H132" s="311"/>
+    <row r="132" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H132" s="291"/>
       <c r="I132" s="272"/>
       <c r="J132" s="273"/>
       <c r="K132" s="273"/>
       <c r="L132" s="273"/>
       <c r="M132" s="273"/>
       <c r="N132" s="274"/>
-      <c r="O132" s="379" t="s">
+      <c r="O132" s="292" t="s">
         <v>63</v>
       </c>
-      <c r="P132" s="380"/>
-      <c r="Q132" s="380"/>
-      <c r="R132" s="380"/>
-      <c r="S132" s="381"/>
-      <c r="T132" s="368" t="s">
+      <c r="P132" s="293"/>
+      <c r="Q132" s="293"/>
+      <c r="R132" s="293"/>
+      <c r="S132" s="294"/>
+      <c r="T132" s="295" t="s">
         <v>134</v>
       </c>
-      <c r="U132" s="369"/>
-      <c r="V132" s="369"/>
-      <c r="W132" s="369"/>
-      <c r="X132" s="369"/>
-      <c r="Y132" s="370"/>
+      <c r="U132" s="296"/>
+      <c r="V132" s="296"/>
+      <c r="W132" s="296"/>
+      <c r="X132" s="296"/>
+      <c r="Y132" s="297"/>
       <c r="Z132" s="272"/>
       <c r="AA132" s="273"/>
       <c r="AB132" s="273"/>
@@ -10500,18 +10517,18 @@
       <c r="AG132" s="155"/>
       <c r="AH132" s="156"/>
     </row>
-    <row r="133" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H133" s="104">
         <v>1</v>
       </c>
-      <c r="I133" s="375" t="s">
+      <c r="I133" s="284" t="s">
         <v>118</v>
       </c>
-      <c r="J133" s="376"/>
-      <c r="K133" s="376"/>
-      <c r="L133" s="376"/>
-      <c r="M133" s="376"/>
-      <c r="N133" s="377"/>
+      <c r="J133" s="285"/>
+      <c r="K133" s="285"/>
+      <c r="L133" s="285"/>
+      <c r="M133" s="285"/>
+      <c r="N133" s="286"/>
       <c r="O133" s="157" t="s">
         <v>85</v>
       </c>
@@ -10519,27 +10536,27 @@
       <c r="Q133" s="158"/>
       <c r="R133" s="158"/>
       <c r="S133" s="159"/>
-      <c r="T133" s="375" t="s">
+      <c r="T133" s="284" t="s">
         <v>39</v>
       </c>
-      <c r="U133" s="376"/>
-      <c r="V133" s="376"/>
-      <c r="W133" s="376"/>
-      <c r="X133" s="376"/>
-      <c r="Y133" s="377"/>
-      <c r="Z133" s="378" t="s">
+      <c r="U133" s="285"/>
+      <c r="V133" s="285"/>
+      <c r="W133" s="285"/>
+      <c r="X133" s="285"/>
+      <c r="Y133" s="286"/>
+      <c r="Z133" s="287" t="s">
         <v>135</v>
       </c>
-      <c r="AA133" s="297"/>
-      <c r="AB133" s="297"/>
-      <c r="AC133" s="297"/>
-      <c r="AD133" s="297"/>
-      <c r="AE133" s="298"/>
+      <c r="AA133" s="288"/>
+      <c r="AB133" s="288"/>
+      <c r="AC133" s="288"/>
+      <c r="AD133" s="288"/>
+      <c r="AE133" s="289"/>
       <c r="AF133" s="160"/>
       <c r="AG133" s="161"/>
       <c r="AH133" s="162"/>
     </row>
-    <row r="134" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H134" s="163" t="s">
         <v>119</v>
       </c>
@@ -10593,7 +10610,7 @@
       <c r="BF134" s="128"/>
       <c r="BG134" s="128"/>
     </row>
-    <row r="135" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H135" s="136"/>
       <c r="I135" s="137"/>
       <c r="J135" s="137"/>
@@ -10645,7 +10662,7 @@
       <c r="BF135" s="128"/>
       <c r="BG135" s="128"/>
     </row>
-    <row r="136" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H136" s="139"/>
       <c r="I136" s="140" t="s">
         <v>182</v>
@@ -10701,7 +10718,7 @@
       <c r="BF136" s="128"/>
       <c r="BG136" s="128"/>
     </row>
-    <row r="137" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H137" s="144"/>
       <c r="I137" s="145"/>
       <c r="J137" s="145"/>
@@ -10753,7 +10770,7 @@
       <c r="BF137" s="128"/>
       <c r="BG137" s="128"/>
     </row>
-    <row r="138" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E138" s="66"/>
       <c r="F138" s="129"/>
       <c r="G138" s="66"/>
@@ -10781,38 +10798,38 @@
       <c r="BE138" s="128"/>
       <c r="BF138" s="128"/>
     </row>
-    <row r="139" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E139" s="66"/>
       <c r="F139" s="129"/>
-      <c r="G139" s="374" t="s">
+      <c r="G139" s="283" t="s">
         <v>136</v>
       </c>
-      <c r="H139" s="374"/>
-      <c r="I139" s="374"/>
-      <c r="J139" s="374"/>
-      <c r="K139" s="374"/>
-      <c r="L139" s="374"/>
-      <c r="M139" s="374"/>
-      <c r="N139" s="374"/>
-      <c r="O139" s="374"/>
-      <c r="P139" s="374"/>
-      <c r="Q139" s="374"/>
-      <c r="R139" s="374"/>
-      <c r="S139" s="374"/>
-      <c r="T139" s="374"/>
-      <c r="U139" s="374"/>
-      <c r="V139" s="374"/>
-      <c r="W139" s="374"/>
-      <c r="X139" s="374"/>
-      <c r="Y139" s="374"/>
-      <c r="Z139" s="374"/>
-      <c r="AA139" s="374"/>
-      <c r="AB139" s="374"/>
-      <c r="AC139" s="374"/>
-      <c r="AD139" s="374"/>
-      <c r="AE139" s="374"/>
-      <c r="AF139" s="374"/>
-      <c r="AG139" s="374"/>
+      <c r="H139" s="283"/>
+      <c r="I139" s="283"/>
+      <c r="J139" s="283"/>
+      <c r="K139" s="283"/>
+      <c r="L139" s="283"/>
+      <c r="M139" s="283"/>
+      <c r="N139" s="283"/>
+      <c r="O139" s="283"/>
+      <c r="P139" s="283"/>
+      <c r="Q139" s="283"/>
+      <c r="R139" s="283"/>
+      <c r="S139" s="283"/>
+      <c r="T139" s="283"/>
+      <c r="U139" s="283"/>
+      <c r="V139" s="283"/>
+      <c r="W139" s="283"/>
+      <c r="X139" s="283"/>
+      <c r="Y139" s="283"/>
+      <c r="Z139" s="283"/>
+      <c r="AA139" s="283"/>
+      <c r="AB139" s="283"/>
+      <c r="AC139" s="283"/>
+      <c r="AD139" s="283"/>
+      <c r="AE139" s="283"/>
+      <c r="AF139" s="283"/>
+      <c r="AG139" s="283"/>
       <c r="AJ139" s="128"/>
       <c r="AK139" s="128"/>
       <c r="AL139" s="128"/>
@@ -10837,36 +10854,36 @@
       <c r="BE139" s="128"/>
       <c r="BF139" s="128"/>
     </row>
-    <row r="140" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E140" s="66"/>
       <c r="F140" s="129"/>
-      <c r="G140" s="374"/>
-      <c r="H140" s="374"/>
-      <c r="I140" s="374"/>
-      <c r="J140" s="374"/>
-      <c r="K140" s="374"/>
-      <c r="L140" s="374"/>
-      <c r="M140" s="374"/>
-      <c r="N140" s="374"/>
-      <c r="O140" s="374"/>
-      <c r="P140" s="374"/>
-      <c r="Q140" s="374"/>
-      <c r="R140" s="374"/>
-      <c r="S140" s="374"/>
-      <c r="T140" s="374"/>
-      <c r="U140" s="374"/>
-      <c r="V140" s="374"/>
-      <c r="W140" s="374"/>
-      <c r="X140" s="374"/>
-      <c r="Y140" s="374"/>
-      <c r="Z140" s="374"/>
-      <c r="AA140" s="374"/>
-      <c r="AB140" s="374"/>
-      <c r="AC140" s="374"/>
-      <c r="AD140" s="374"/>
-      <c r="AE140" s="374"/>
-      <c r="AF140" s="374"/>
-      <c r="AG140" s="374"/>
+      <c r="G140" s="283"/>
+      <c r="H140" s="283"/>
+      <c r="I140" s="283"/>
+      <c r="J140" s="283"/>
+      <c r="K140" s="283"/>
+      <c r="L140" s="283"/>
+      <c r="M140" s="283"/>
+      <c r="N140" s="283"/>
+      <c r="O140" s="283"/>
+      <c r="P140" s="283"/>
+      <c r="Q140" s="283"/>
+      <c r="R140" s="283"/>
+      <c r="S140" s="283"/>
+      <c r="T140" s="283"/>
+      <c r="U140" s="283"/>
+      <c r="V140" s="283"/>
+      <c r="W140" s="283"/>
+      <c r="X140" s="283"/>
+      <c r="Y140" s="283"/>
+      <c r="Z140" s="283"/>
+      <c r="AA140" s="283"/>
+      <c r="AB140" s="283"/>
+      <c r="AC140" s="283"/>
+      <c r="AD140" s="283"/>
+      <c r="AE140" s="283"/>
+      <c r="AF140" s="283"/>
+      <c r="AG140" s="283"/>
       <c r="AJ140" s="128"/>
       <c r="AK140" s="128"/>
       <c r="AL140" s="128"/>
@@ -10891,8 +10908,8 @@
       <c r="BE140" s="128"/>
       <c r="BF140" s="128"/>
     </row>
-    <row r="141" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H141" s="310" t="s">
+    <row r="141" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H141" s="290" t="s">
         <v>30</v>
       </c>
       <c r="I141" s="266" t="s">
@@ -10903,19 +10920,19 @@
       <c r="L141" s="267"/>
       <c r="M141" s="267"/>
       <c r="N141" s="268"/>
-      <c r="O141" s="379" t="s">
+      <c r="O141" s="292" t="s">
         <v>133</v>
       </c>
-      <c r="P141" s="380"/>
-      <c r="Q141" s="380"/>
-      <c r="R141" s="380"/>
-      <c r="S141" s="380"/>
-      <c r="T141" s="380"/>
-      <c r="U141" s="380"/>
-      <c r="V141" s="380"/>
-      <c r="W141" s="380"/>
-      <c r="X141" s="380"/>
-      <c r="Y141" s="381"/>
+      <c r="P141" s="293"/>
+      <c r="Q141" s="293"/>
+      <c r="R141" s="293"/>
+      <c r="S141" s="293"/>
+      <c r="T141" s="293"/>
+      <c r="U141" s="293"/>
+      <c r="V141" s="293"/>
+      <c r="W141" s="293"/>
+      <c r="X141" s="293"/>
+      <c r="Y141" s="294"/>
       <c r="Z141" s="266" t="s">
         <v>64</v>
       </c>
@@ -10930,29 +10947,29 @@
       <c r="AG141" s="152"/>
       <c r="AH141" s="153"/>
     </row>
-    <row r="142" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H142" s="311"/>
+    <row r="142" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H142" s="291"/>
       <c r="I142" s="272"/>
       <c r="J142" s="273"/>
       <c r="K142" s="273"/>
       <c r="L142" s="273"/>
       <c r="M142" s="273"/>
       <c r="N142" s="274"/>
-      <c r="O142" s="379" t="s">
+      <c r="O142" s="292" t="s">
         <v>63</v>
       </c>
-      <c r="P142" s="380"/>
-      <c r="Q142" s="380"/>
-      <c r="R142" s="380"/>
-      <c r="S142" s="381"/>
-      <c r="T142" s="368" t="s">
+      <c r="P142" s="293"/>
+      <c r="Q142" s="293"/>
+      <c r="R142" s="293"/>
+      <c r="S142" s="294"/>
+      <c r="T142" s="295" t="s">
         <v>134</v>
       </c>
-      <c r="U142" s="369"/>
-      <c r="V142" s="369"/>
-      <c r="W142" s="369"/>
-      <c r="X142" s="369"/>
-      <c r="Y142" s="370"/>
+      <c r="U142" s="296"/>
+      <c r="V142" s="296"/>
+      <c r="W142" s="296"/>
+      <c r="X142" s="296"/>
+      <c r="Y142" s="297"/>
       <c r="Z142" s="272"/>
       <c r="AA142" s="273"/>
       <c r="AB142" s="273"/>
@@ -10963,18 +10980,18 @@
       <c r="AG142" s="155"/>
       <c r="AH142" s="156"/>
     </row>
-    <row r="143" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H143" s="104">
         <v>1</v>
       </c>
-      <c r="I143" s="375" t="s">
+      <c r="I143" s="284" t="s">
         <v>137</v>
       </c>
-      <c r="J143" s="376"/>
-      <c r="K143" s="376"/>
-      <c r="L143" s="376"/>
-      <c r="M143" s="376"/>
-      <c r="N143" s="377"/>
+      <c r="J143" s="285"/>
+      <c r="K143" s="285"/>
+      <c r="L143" s="285"/>
+      <c r="M143" s="285"/>
+      <c r="N143" s="286"/>
       <c r="O143" s="157" t="s">
         <v>39</v>
       </c>
@@ -10982,38 +10999,38 @@
       <c r="Q143" s="158"/>
       <c r="R143" s="158"/>
       <c r="S143" s="159"/>
-      <c r="T143" s="375" t="s">
+      <c r="T143" s="284" t="s">
         <v>39</v>
       </c>
-      <c r="U143" s="376"/>
-      <c r="V143" s="376"/>
-      <c r="W143" s="376"/>
-      <c r="X143" s="376"/>
-      <c r="Y143" s="377"/>
-      <c r="Z143" s="378" t="s">
+      <c r="U143" s="285"/>
+      <c r="V143" s="285"/>
+      <c r="W143" s="285"/>
+      <c r="X143" s="285"/>
+      <c r="Y143" s="286"/>
+      <c r="Z143" s="287" t="s">
         <v>138</v>
       </c>
-      <c r="AA143" s="297"/>
-      <c r="AB143" s="297"/>
-      <c r="AC143" s="297"/>
-      <c r="AD143" s="297"/>
-      <c r="AE143" s="298"/>
+      <c r="AA143" s="288"/>
+      <c r="AB143" s="288"/>
+      <c r="AC143" s="288"/>
+      <c r="AD143" s="288"/>
+      <c r="AE143" s="289"/>
       <c r="AF143" s="160"/>
       <c r="AG143" s="161"/>
       <c r="AH143" s="162"/>
     </row>
-    <row r="144" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H144" s="104">
         <v>2</v>
       </c>
-      <c r="I144" s="375" t="s">
+      <c r="I144" s="284" t="s">
         <v>118</v>
       </c>
-      <c r="J144" s="376"/>
-      <c r="K144" s="376"/>
-      <c r="L144" s="376"/>
-      <c r="M144" s="376"/>
-      <c r="N144" s="377"/>
+      <c r="J144" s="285"/>
+      <c r="K144" s="285"/>
+      <c r="L144" s="285"/>
+      <c r="M144" s="285"/>
+      <c r="N144" s="286"/>
       <c r="O144" s="157" t="s">
         <v>39</v>
       </c>
@@ -11021,27 +11038,27 @@
       <c r="Q144" s="158"/>
       <c r="R144" s="158"/>
       <c r="S144" s="159"/>
-      <c r="T144" s="375" t="s">
+      <c r="T144" s="284" t="s">
         <v>39</v>
       </c>
-      <c r="U144" s="376"/>
-      <c r="V144" s="376"/>
-      <c r="W144" s="376"/>
-      <c r="X144" s="376"/>
-      <c r="Y144" s="377"/>
-      <c r="Z144" s="378">
+      <c r="U144" s="285"/>
+      <c r="V144" s="285"/>
+      <c r="W144" s="285"/>
+      <c r="X144" s="285"/>
+      <c r="Y144" s="286"/>
+      <c r="Z144" s="287">
         <v>0</v>
       </c>
-      <c r="AA144" s="297"/>
-      <c r="AB144" s="297"/>
-      <c r="AC144" s="297"/>
-      <c r="AD144" s="297"/>
-      <c r="AE144" s="298"/>
+      <c r="AA144" s="288"/>
+      <c r="AB144" s="288"/>
+      <c r="AC144" s="288"/>
+      <c r="AD144" s="288"/>
+      <c r="AE144" s="289"/>
       <c r="AF144" s="160"/>
       <c r="AG144" s="161"/>
       <c r="AH144" s="162"/>
     </row>
-    <row r="145" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H145" s="163" t="s">
         <v>119</v>
       </c>
@@ -11095,7 +11112,7 @@
       <c r="BF145" s="128"/>
       <c r="BG145" s="128"/>
     </row>
-    <row r="146" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H146" s="136"/>
       <c r="I146" s="137"/>
       <c r="J146" s="137"/>
@@ -11147,7 +11164,7 @@
       <c r="BF146" s="128"/>
       <c r="BG146" s="128"/>
     </row>
-    <row r="147" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H147" s="139"/>
       <c r="I147" s="140" t="s">
         <v>182</v>
@@ -11203,7 +11220,7 @@
       <c r="BF147" s="128"/>
       <c r="BG147" s="128"/>
     </row>
-    <row r="148" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H148" s="144"/>
       <c r="I148" s="145"/>
       <c r="J148" s="145"/>
@@ -11255,7 +11272,7 @@
       <c r="BF148" s="128"/>
       <c r="BG148" s="128"/>
     </row>
-    <row r="149" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E149" s="66"/>
       <c r="F149" s="129"/>
       <c r="G149" s="66"/>
@@ -11283,7 +11300,7 @@
       <c r="BE149" s="128"/>
       <c r="BF149" s="128"/>
     </row>
-    <row r="150" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E150" s="66"/>
       <c r="F150" s="129"/>
       <c r="G150" s="66" t="s">
@@ -11313,7 +11330,7 @@
       <c r="BE150" s="128"/>
       <c r="BF150" s="128"/>
     </row>
-    <row r="151" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E151" s="66"/>
       <c r="F151" s="129"/>
       <c r="G151" s="66"/>
@@ -11341,7 +11358,7 @@
       <c r="BE151" s="128"/>
       <c r="BF151" s="128"/>
     </row>
-    <row r="152" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E152" s="66"/>
       <c r="F152" s="66" t="s">
         <v>140</v>
@@ -11370,7 +11387,7 @@
       <c r="BE152" s="128"/>
       <c r="BF152" s="128"/>
     </row>
-    <row r="153" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E153" s="66"/>
       <c r="F153" s="129"/>
       <c r="G153" s="66"/>
@@ -11398,7 +11415,7 @@
       <c r="BE153" s="128"/>
       <c r="BF153" s="128"/>
     </row>
-    <row r="154" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E154" s="66"/>
       <c r="F154" s="66"/>
       <c r="AJ154" s="128"/>
@@ -11425,7 +11442,7 @@
       <c r="BE154" s="128"/>
       <c r="BF154" s="128"/>
     </row>
-    <row r="155" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E155" s="66"/>
       <c r="F155" s="129"/>
       <c r="G155" s="66"/>
@@ -11453,7 +11470,7 @@
       <c r="BE155" s="128"/>
       <c r="BF155" s="128"/>
     </row>
-    <row r="156" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E156" s="66"/>
       <c r="F156" s="129"/>
       <c r="G156" s="66"/>
@@ -11481,7 +11498,7 @@
       <c r="BE156" s="128"/>
       <c r="BF156" s="128"/>
     </row>
-    <row r="157" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E157" s="66"/>
       <c r="AJ157" s="128"/>
       <c r="AK157" s="128"/>
@@ -11509,6 +11526,97 @@
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="V43:AC43"/>
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="V58:AH59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="AD49:AG51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AD53:AG53"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="U50:Y51"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="I50:L51"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="E49:AC49"/>
+    <mergeCell ref="Z50:AB51"/>
+    <mergeCell ref="AC50:AC51"/>
+    <mergeCell ref="M53:T53"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AE67:AH67"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="AE65:AH65"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="AE66:AH66"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="R67:Y67"/>
+    <mergeCell ref="Z67:AD67"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:J59"/>
+    <mergeCell ref="K58:N59"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="R65:Y65"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:AH60"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="R66:Y66"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="G98:P103"/>
+    <mergeCell ref="Q98:Z98"/>
+    <mergeCell ref="Q103:Z103"/>
+    <mergeCell ref="G106:Z106"/>
+    <mergeCell ref="AD87:AG87"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="G87:L87"/>
+    <mergeCell ref="G88:L88"/>
+    <mergeCell ref="M87:V87"/>
+    <mergeCell ref="W88:Y88"/>
+    <mergeCell ref="Q102:Z102"/>
+    <mergeCell ref="G104:P105"/>
+    <mergeCell ref="Q104:Z104"/>
+    <mergeCell ref="Q105:Z105"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="Z87:AC87"/>
+    <mergeCell ref="M88:V88"/>
+    <mergeCell ref="G97:P97"/>
+    <mergeCell ref="Q97:Z97"/>
+    <mergeCell ref="W87:Y87"/>
     <mergeCell ref="G139:AG140"/>
     <mergeCell ref="G127:AG128"/>
     <mergeCell ref="G119:AG120"/>
@@ -11533,97 +11641,6 @@
     <mergeCell ref="Z131:AE132"/>
     <mergeCell ref="O132:S132"/>
     <mergeCell ref="T132:Y132"/>
-    <mergeCell ref="G98:P103"/>
-    <mergeCell ref="Q98:Z98"/>
-    <mergeCell ref="Q103:Z103"/>
-    <mergeCell ref="G106:Z106"/>
-    <mergeCell ref="AD87:AG87"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="G87:L87"/>
-    <mergeCell ref="G88:L88"/>
-    <mergeCell ref="M87:V87"/>
-    <mergeCell ref="W88:Y88"/>
-    <mergeCell ref="Q102:Z102"/>
-    <mergeCell ref="G104:P105"/>
-    <mergeCell ref="Q104:Z104"/>
-    <mergeCell ref="Q105:Z105"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="Z87:AC87"/>
-    <mergeCell ref="M88:V88"/>
-    <mergeCell ref="G97:P97"/>
-    <mergeCell ref="Q97:Z97"/>
-    <mergeCell ref="W87:Y87"/>
-    <mergeCell ref="V44:AC44"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:J59"/>
-    <mergeCell ref="K58:N59"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="R65:Y65"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:AH60"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="R66:Y66"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="AE67:AH67"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="AE65:AH65"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="AE66:AH66"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="R67:Y67"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="V43:AC43"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="V58:AH59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="AD49:AG51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AD53:AG53"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="U50:Y51"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="I50:L51"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="E49:AC49"/>
-    <mergeCell ref="Z50:AB51"/>
-    <mergeCell ref="AC50:AC51"/>
-    <mergeCell ref="M53:T53"/>
-    <mergeCell ref="M52:T52"/>
-    <mergeCell ref="Q44:U44"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
@@ -11680,16 +11697,16 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="54" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="54" customWidth="1"/>
-    <col min="5" max="16384" width="9.375" style="54"/>
+    <col min="3" max="3" width="16.83203125" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="54" customWidth="1"/>
+    <col min="5" max="16384" width="9.33203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="166" t="s">
         <v>141</v>
       </c>
@@ -11703,7 +11720,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="114" t="s">
         <v>39</v>
       </c>
@@ -11717,7 +11734,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="114" t="s">
         <v>144</v>
       </c>
@@ -11731,7 +11748,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="114" t="s">
         <v>68</v>
       </c>
@@ -11745,7 +11762,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="114" t="s">
         <v>150</v>
       </c>
@@ -11756,7 +11773,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="114" t="s">
         <v>153</v>
       </c>
@@ -11764,7 +11781,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="114" t="s">
         <v>155</v>
       </c>
@@ -11772,27 +11789,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="114" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="114" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="114" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="114" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="114" t="s">
         <v>160</v>
       </c>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10101_Login.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10101_Login.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0A9AA9-FBE2-4A0D-98DA-55E389DDBC5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A79C42-93A3-4C61-9DD2-2EEEACC313FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21270" windowHeight="10575" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="5505" windowWidth="17760" windowHeight="6990" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -493,9 +493,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>○</t>
-  </si>
-  <si>
     <t>loginId</t>
   </si>
   <si>
@@ -848,6 +845,9 @@
   <si>
     <t>SYSTEM_ACCOUNT.LOGIN_ID</t>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -1928,6 +1928,150 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1970,148 +2114,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2177,33 +2204,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2258,6 +2258,282 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2272,286 +2548,10 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4033,57 +4033,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="220" t="s">
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="176" t="s">
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="224" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="226" t="s">
+      <c r="P1" s="225"/>
+      <c r="Q1" s="225"/>
+      <c r="R1" s="226"/>
+      <c r="S1" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="227"/>
-      <c r="U1" s="227"/>
-      <c r="V1" s="227"/>
-      <c r="W1" s="227"/>
-      <c r="X1" s="227"/>
-      <c r="Y1" s="227"/>
-      <c r="Z1" s="228"/>
-      <c r="AA1" s="173" t="s">
+      <c r="T1" s="204"/>
+      <c r="U1" s="204"/>
+      <c r="V1" s="204"/>
+      <c r="W1" s="204"/>
+      <c r="X1" s="204"/>
+      <c r="Y1" s="204"/>
+      <c r="Z1" s="205"/>
+      <c r="AA1" s="221" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="175"/>
-      <c r="AC1" s="208" t="str">
+      <c r="AB1" s="223"/>
+      <c r="AC1" s="173" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="209"/>
-      <c r="AE1" s="209"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="214">
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="174"/>
+      <c r="AF1" s="175"/>
+      <c r="AG1" s="179">
         <f>IF(D8="","",D8)</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="215"/>
-      <c r="AI1" s="216"/>
+      <c r="AH1" s="180"/>
+      <c r="AI1" s="181"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -4091,53 +4091,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="221" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="220" t="s">
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="229"/>
-      <c r="T2" s="230"/>
-      <c r="U2" s="230"/>
-      <c r="V2" s="230"/>
-      <c r="W2" s="230"/>
-      <c r="X2" s="230"/>
-      <c r="Y2" s="230"/>
-      <c r="Z2" s="231"/>
-      <c r="AA2" s="173" t="s">
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="227"/>
+      <c r="P2" s="228"/>
+      <c r="Q2" s="228"/>
+      <c r="R2" s="229"/>
+      <c r="S2" s="206"/>
+      <c r="T2" s="207"/>
+      <c r="U2" s="207"/>
+      <c r="V2" s="207"/>
+      <c r="W2" s="207"/>
+      <c r="X2" s="207"/>
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="217" t="str">
+      <c r="AB2" s="223"/>
+      <c r="AC2" s="182" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="218"/>
-      <c r="AE2" s="218"/>
-      <c r="AF2" s="219"/>
-      <c r="AG2" s="214" t="str">
+      <c r="AD2" s="183"/>
+      <c r="AE2" s="183"/>
+      <c r="AF2" s="184"/>
+      <c r="AG2" s="179" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="215"/>
-      <c r="AI2" s="216"/>
+      <c r="AH2" s="180"/>
+      <c r="AI2" s="181"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -4145,45 +4145,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="220" t="s">
+      <c r="B3" s="222"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="222"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="184"/>
-      <c r="S3" s="232"/>
-      <c r="T3" s="233"/>
-      <c r="U3" s="233"/>
-      <c r="V3" s="233"/>
-      <c r="W3" s="233"/>
-      <c r="X3" s="233"/>
-      <c r="Y3" s="233"/>
-      <c r="Z3" s="234"/>
-      <c r="AA3" s="185"/>
-      <c r="AB3" s="186"/>
-      <c r="AC3" s="208"/>
-      <c r="AD3" s="209"/>
-      <c r="AE3" s="209"/>
-      <c r="AF3" s="210"/>
-      <c r="AG3" s="214"/>
-      <c r="AH3" s="215"/>
-      <c r="AI3" s="216"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="230"/>
+      <c r="P3" s="231"/>
+      <c r="Q3" s="231"/>
+      <c r="R3" s="232"/>
+      <c r="S3" s="209"/>
+      <c r="T3" s="210"/>
+      <c r="U3" s="210"/>
+      <c r="V3" s="210"/>
+      <c r="W3" s="210"/>
+      <c r="X3" s="210"/>
+      <c r="Y3" s="210"/>
+      <c r="Z3" s="211"/>
+      <c r="AA3" s="233"/>
+      <c r="AB3" s="234"/>
+      <c r="AC3" s="173"/>
+      <c r="AD3" s="174"/>
+      <c r="AE3" s="174"/>
+      <c r="AF3" s="175"/>
+      <c r="AG3" s="179"/>
+      <c r="AH3" s="180"/>
+      <c r="AI3" s="181"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -4322,1028 +4322,1028 @@
       <c r="A7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="200"/>
-      <c r="D7" s="199" t="s">
+      <c r="C7" s="190"/>
+      <c r="D7" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="199" t="s">
+      <c r="E7" s="189"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="201"/>
-      <c r="I7" s="200"/>
-      <c r="J7" s="199" t="s">
+      <c r="H7" s="189"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="201"/>
-      <c r="P7" s="200"/>
-      <c r="Q7" s="199" t="s">
+      <c r="K7" s="189"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="189"/>
+      <c r="N7" s="189"/>
+      <c r="O7" s="189"/>
+      <c r="P7" s="190"/>
+      <c r="Q7" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="201"/>
-      <c r="S7" s="201"/>
-      <c r="T7" s="201"/>
-      <c r="U7" s="201"/>
-      <c r="V7" s="201"/>
-      <c r="W7" s="201"/>
-      <c r="X7" s="201"/>
-      <c r="Y7" s="201"/>
-      <c r="Z7" s="201"/>
-      <c r="AA7" s="201"/>
-      <c r="AB7" s="201"/>
-      <c r="AC7" s="201"/>
-      <c r="AD7" s="201"/>
-      <c r="AE7" s="200"/>
-      <c r="AF7" s="199" t="s">
+      <c r="R7" s="189"/>
+      <c r="S7" s="189"/>
+      <c r="T7" s="189"/>
+      <c r="U7" s="189"/>
+      <c r="V7" s="189"/>
+      <c r="W7" s="189"/>
+      <c r="X7" s="189"/>
+      <c r="Y7" s="189"/>
+      <c r="Z7" s="189"/>
+      <c r="AA7" s="189"/>
+      <c r="AB7" s="189"/>
+      <c r="AC7" s="189"/>
+      <c r="AD7" s="189"/>
+      <c r="AE7" s="190"/>
+      <c r="AF7" s="188" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="201"/>
-      <c r="AH7" s="201"/>
-      <c r="AI7" s="200"/>
+      <c r="AG7" s="189"/>
+      <c r="AH7" s="189"/>
+      <c r="AI7" s="190"/>
     </row>
     <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="202" t="s">
+      <c r="B8" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="203"/>
-      <c r="D8" s="204">
+      <c r="C8" s="216"/>
+      <c r="D8" s="217">
         <v>43656</v>
       </c>
-      <c r="E8" s="205"/>
-      <c r="F8" s="206"/>
-      <c r="G8" s="202" t="s">
+      <c r="E8" s="218"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="207"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="223" t="s">
+      <c r="H8" s="220"/>
+      <c r="I8" s="216"/>
+      <c r="J8" s="200" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="224"/>
-      <c r="L8" s="224"/>
-      <c r="M8" s="224"/>
-      <c r="N8" s="224"/>
-      <c r="O8" s="224"/>
-      <c r="P8" s="225"/>
-      <c r="Q8" s="211" t="s">
+      <c r="K8" s="201"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="201"/>
+      <c r="P8" s="202"/>
+      <c r="Q8" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="212"/>
-      <c r="S8" s="212"/>
-      <c r="T8" s="212"/>
-      <c r="U8" s="212"/>
-      <c r="V8" s="212"/>
-      <c r="W8" s="212"/>
-      <c r="X8" s="212"/>
-      <c r="Y8" s="212"/>
-      <c r="Z8" s="212"/>
-      <c r="AA8" s="212"/>
-      <c r="AB8" s="212"/>
-      <c r="AC8" s="212"/>
-      <c r="AD8" s="212"/>
-      <c r="AE8" s="213"/>
-      <c r="AF8" s="223" t="s">
+      <c r="R8" s="177"/>
+      <c r="S8" s="177"/>
+      <c r="T8" s="177"/>
+      <c r="U8" s="177"/>
+      <c r="V8" s="177"/>
+      <c r="W8" s="177"/>
+      <c r="X8" s="177"/>
+      <c r="Y8" s="177"/>
+      <c r="Z8" s="177"/>
+      <c r="AA8" s="177"/>
+      <c r="AB8" s="177"/>
+      <c r="AC8" s="177"/>
+      <c r="AD8" s="177"/>
+      <c r="AE8" s="178"/>
+      <c r="AF8" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="224"/>
-      <c r="AH8" s="224"/>
-      <c r="AI8" s="225"/>
+      <c r="AG8" s="201"/>
+      <c r="AH8" s="201"/>
+      <c r="AI8" s="202"/>
     </row>
     <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
-      <c r="B9" s="193"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="198"/>
-      <c r="I9" s="194"/>
-      <c r="J9" s="190"/>
-      <c r="K9" s="191"/>
-      <c r="L9" s="191"/>
-      <c r="M9" s="191"/>
-      <c r="N9" s="191"/>
-      <c r="O9" s="191"/>
-      <c r="P9" s="192"/>
-      <c r="Q9" s="187"/>
-      <c r="R9" s="188"/>
-      <c r="S9" s="188"/>
-      <c r="T9" s="188"/>
-      <c r="U9" s="188"/>
-      <c r="V9" s="188"/>
-      <c r="W9" s="188"/>
-      <c r="X9" s="188"/>
-      <c r="Y9" s="188"/>
-      <c r="Z9" s="188"/>
-      <c r="AA9" s="188"/>
-      <c r="AB9" s="188"/>
-      <c r="AC9" s="188"/>
-      <c r="AD9" s="188"/>
-      <c r="AE9" s="189"/>
-      <c r="AF9" s="190"/>
-      <c r="AG9" s="191"/>
-      <c r="AH9" s="191"/>
-      <c r="AI9" s="192"/>
+      <c r="B9" s="185"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="198"/>
+      <c r="N9" s="198"/>
+      <c r="O9" s="198"/>
+      <c r="P9" s="199"/>
+      <c r="Q9" s="194"/>
+      <c r="R9" s="195"/>
+      <c r="S9" s="195"/>
+      <c r="T9" s="195"/>
+      <c r="U9" s="195"/>
+      <c r="V9" s="195"/>
+      <c r="W9" s="195"/>
+      <c r="X9" s="195"/>
+      <c r="Y9" s="195"/>
+      <c r="Z9" s="195"/>
+      <c r="AA9" s="195"/>
+      <c r="AB9" s="195"/>
+      <c r="AC9" s="195"/>
+      <c r="AD9" s="195"/>
+      <c r="AE9" s="196"/>
+      <c r="AF9" s="197"/>
+      <c r="AG9" s="198"/>
+      <c r="AH9" s="198"/>
+      <c r="AI9" s="199"/>
     </row>
     <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
-      <c r="B10" s="193"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="197"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="190"/>
-      <c r="K10" s="191"/>
-      <c r="L10" s="191"/>
-      <c r="M10" s="191"/>
-      <c r="N10" s="191"/>
-      <c r="O10" s="191"/>
-      <c r="P10" s="192"/>
-      <c r="Q10" s="187"/>
-      <c r="R10" s="188"/>
-      <c r="S10" s="188"/>
-      <c r="T10" s="188"/>
-      <c r="U10" s="188"/>
-      <c r="V10" s="188"/>
-      <c r="W10" s="188"/>
-      <c r="X10" s="188"/>
-      <c r="Y10" s="188"/>
-      <c r="Z10" s="188"/>
-      <c r="AA10" s="188"/>
-      <c r="AB10" s="188"/>
-      <c r="AC10" s="188"/>
-      <c r="AD10" s="188"/>
-      <c r="AE10" s="189"/>
-      <c r="AF10" s="190"/>
-      <c r="AG10" s="191"/>
-      <c r="AH10" s="191"/>
-      <c r="AI10" s="192"/>
+      <c r="B10" s="185"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="198"/>
+      <c r="M10" s="198"/>
+      <c r="N10" s="198"/>
+      <c r="O10" s="198"/>
+      <c r="P10" s="199"/>
+      <c r="Q10" s="194"/>
+      <c r="R10" s="195"/>
+      <c r="S10" s="195"/>
+      <c r="T10" s="195"/>
+      <c r="U10" s="195"/>
+      <c r="V10" s="195"/>
+      <c r="W10" s="195"/>
+      <c r="X10" s="195"/>
+      <c r="Y10" s="195"/>
+      <c r="Z10" s="195"/>
+      <c r="AA10" s="195"/>
+      <c r="AB10" s="195"/>
+      <c r="AC10" s="195"/>
+      <c r="AD10" s="195"/>
+      <c r="AE10" s="196"/>
+      <c r="AF10" s="197"/>
+      <c r="AG10" s="198"/>
+      <c r="AH10" s="198"/>
+      <c r="AI10" s="199"/>
     </row>
     <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
-      <c r="B11" s="193"/>
-      <c r="C11" s="194"/>
-      <c r="D11" s="195"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="197"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="190"/>
-      <c r="K11" s="191"/>
-      <c r="L11" s="191"/>
-      <c r="M11" s="191"/>
-      <c r="N11" s="191"/>
-      <c r="O11" s="191"/>
-      <c r="P11" s="192"/>
-      <c r="Q11" s="187"/>
-      <c r="R11" s="188"/>
-      <c r="S11" s="188"/>
-      <c r="T11" s="188"/>
-      <c r="U11" s="188"/>
-      <c r="V11" s="188"/>
-      <c r="W11" s="188"/>
-      <c r="X11" s="188"/>
-      <c r="Y11" s="188"/>
-      <c r="Z11" s="188"/>
-      <c r="AA11" s="188"/>
-      <c r="AB11" s="188"/>
-      <c r="AC11" s="188"/>
-      <c r="AD11" s="188"/>
-      <c r="AE11" s="189"/>
-      <c r="AF11" s="190"/>
-      <c r="AG11" s="191"/>
-      <c r="AH11" s="191"/>
-      <c r="AI11" s="192"/>
+      <c r="B11" s="185"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="212"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="214"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="187"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="198"/>
+      <c r="L11" s="198"/>
+      <c r="M11" s="198"/>
+      <c r="N11" s="198"/>
+      <c r="O11" s="198"/>
+      <c r="P11" s="199"/>
+      <c r="Q11" s="194"/>
+      <c r="R11" s="195"/>
+      <c r="S11" s="195"/>
+      <c r="T11" s="195"/>
+      <c r="U11" s="195"/>
+      <c r="V11" s="195"/>
+      <c r="W11" s="195"/>
+      <c r="X11" s="195"/>
+      <c r="Y11" s="195"/>
+      <c r="Z11" s="195"/>
+      <c r="AA11" s="195"/>
+      <c r="AB11" s="195"/>
+      <c r="AC11" s="195"/>
+      <c r="AD11" s="195"/>
+      <c r="AE11" s="196"/>
+      <c r="AF11" s="197"/>
+      <c r="AG11" s="198"/>
+      <c r="AH11" s="198"/>
+      <c r="AI11" s="199"/>
     </row>
     <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
-      <c r="B12" s="193"/>
-      <c r="C12" s="194"/>
-      <c r="D12" s="195"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="197"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="198"/>
-      <c r="I12" s="194"/>
-      <c r="J12" s="190"/>
-      <c r="K12" s="191"/>
-      <c r="L12" s="191"/>
-      <c r="M12" s="191"/>
-      <c r="N12" s="191"/>
-      <c r="O12" s="191"/>
-      <c r="P12" s="192"/>
-      <c r="Q12" s="187"/>
-      <c r="R12" s="188"/>
-      <c r="S12" s="188"/>
-      <c r="T12" s="188"/>
-      <c r="U12" s="188"/>
-      <c r="V12" s="188"/>
-      <c r="W12" s="188"/>
-      <c r="X12" s="188"/>
-      <c r="Y12" s="188"/>
-      <c r="Z12" s="188"/>
-      <c r="AA12" s="188"/>
-      <c r="AB12" s="188"/>
-      <c r="AC12" s="188"/>
-      <c r="AD12" s="188"/>
-      <c r="AE12" s="189"/>
-      <c r="AF12" s="190"/>
-      <c r="AG12" s="191"/>
-      <c r="AH12" s="191"/>
-      <c r="AI12" s="192"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="212"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="214"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="187"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="198"/>
+      <c r="L12" s="198"/>
+      <c r="M12" s="198"/>
+      <c r="N12" s="198"/>
+      <c r="O12" s="198"/>
+      <c r="P12" s="199"/>
+      <c r="Q12" s="194"/>
+      <c r="R12" s="195"/>
+      <c r="S12" s="195"/>
+      <c r="T12" s="195"/>
+      <c r="U12" s="195"/>
+      <c r="V12" s="195"/>
+      <c r="W12" s="195"/>
+      <c r="X12" s="195"/>
+      <c r="Y12" s="195"/>
+      <c r="Z12" s="195"/>
+      <c r="AA12" s="195"/>
+      <c r="AB12" s="195"/>
+      <c r="AC12" s="195"/>
+      <c r="AD12" s="195"/>
+      <c r="AE12" s="196"/>
+      <c r="AF12" s="197"/>
+      <c r="AG12" s="198"/>
+      <c r="AH12" s="198"/>
+      <c r="AI12" s="199"/>
     </row>
     <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
-      <c r="B13" s="193"/>
-      <c r="C13" s="194"/>
-      <c r="D13" s="195"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="198"/>
-      <c r="I13" s="194"/>
-      <c r="J13" s="190"/>
-      <c r="K13" s="191"/>
-      <c r="L13" s="191"/>
-      <c r="M13" s="191"/>
-      <c r="N13" s="191"/>
-      <c r="O13" s="191"/>
-      <c r="P13" s="192"/>
-      <c r="Q13" s="187"/>
-      <c r="R13" s="188"/>
-      <c r="S13" s="188"/>
-      <c r="T13" s="188"/>
-      <c r="U13" s="188"/>
-      <c r="V13" s="188"/>
-      <c r="W13" s="188"/>
-      <c r="X13" s="188"/>
-      <c r="Y13" s="188"/>
-      <c r="Z13" s="188"/>
-      <c r="AA13" s="188"/>
-      <c r="AB13" s="188"/>
-      <c r="AC13" s="188"/>
-      <c r="AD13" s="188"/>
-      <c r="AE13" s="189"/>
-      <c r="AF13" s="190"/>
-      <c r="AG13" s="191"/>
-      <c r="AH13" s="191"/>
-      <c r="AI13" s="192"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="187"/>
+      <c r="D13" s="212"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="187"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="198"/>
+      <c r="L13" s="198"/>
+      <c r="M13" s="198"/>
+      <c r="N13" s="198"/>
+      <c r="O13" s="198"/>
+      <c r="P13" s="199"/>
+      <c r="Q13" s="194"/>
+      <c r="R13" s="195"/>
+      <c r="S13" s="195"/>
+      <c r="T13" s="195"/>
+      <c r="U13" s="195"/>
+      <c r="V13" s="195"/>
+      <c r="W13" s="195"/>
+      <c r="X13" s="195"/>
+      <c r="Y13" s="195"/>
+      <c r="Z13" s="195"/>
+      <c r="AA13" s="195"/>
+      <c r="AB13" s="195"/>
+      <c r="AC13" s="195"/>
+      <c r="AD13" s="195"/>
+      <c r="AE13" s="196"/>
+      <c r="AF13" s="197"/>
+      <c r="AG13" s="198"/>
+      <c r="AH13" s="198"/>
+      <c r="AI13" s="199"/>
     </row>
     <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
-      <c r="B14" s="193"/>
-      <c r="C14" s="194"/>
-      <c r="D14" s="195"/>
-      <c r="E14" s="196"/>
-      <c r="F14" s="197"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="198"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="190"/>
-      <c r="K14" s="191"/>
-      <c r="L14" s="191"/>
-      <c r="M14" s="191"/>
-      <c r="N14" s="191"/>
-      <c r="O14" s="191"/>
-      <c r="P14" s="192"/>
-      <c r="Q14" s="187"/>
-      <c r="R14" s="188"/>
-      <c r="S14" s="188"/>
-      <c r="T14" s="188"/>
-      <c r="U14" s="188"/>
-      <c r="V14" s="188"/>
-      <c r="W14" s="188"/>
-      <c r="X14" s="188"/>
-      <c r="Y14" s="188"/>
-      <c r="Z14" s="188"/>
-      <c r="AA14" s="188"/>
-      <c r="AB14" s="188"/>
-      <c r="AC14" s="188"/>
-      <c r="AD14" s="188"/>
-      <c r="AE14" s="189"/>
-      <c r="AF14" s="190"/>
-      <c r="AG14" s="191"/>
-      <c r="AH14" s="191"/>
-      <c r="AI14" s="192"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="212"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="214"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="197"/>
+      <c r="K14" s="198"/>
+      <c r="L14" s="198"/>
+      <c r="M14" s="198"/>
+      <c r="N14" s="198"/>
+      <c r="O14" s="198"/>
+      <c r="P14" s="199"/>
+      <c r="Q14" s="194"/>
+      <c r="R14" s="195"/>
+      <c r="S14" s="195"/>
+      <c r="T14" s="195"/>
+      <c r="U14" s="195"/>
+      <c r="V14" s="195"/>
+      <c r="W14" s="195"/>
+      <c r="X14" s="195"/>
+      <c r="Y14" s="195"/>
+      <c r="Z14" s="195"/>
+      <c r="AA14" s="195"/>
+      <c r="AB14" s="195"/>
+      <c r="AC14" s="195"/>
+      <c r="AD14" s="195"/>
+      <c r="AE14" s="196"/>
+      <c r="AF14" s="197"/>
+      <c r="AG14" s="198"/>
+      <c r="AH14" s="198"/>
+      <c r="AI14" s="199"/>
     </row>
     <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
-      <c r="B15" s="193"/>
-      <c r="C15" s="194"/>
-      <c r="D15" s="195"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="197"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="194"/>
-      <c r="J15" s="190"/>
-      <c r="K15" s="191"/>
-      <c r="L15" s="191"/>
-      <c r="M15" s="191"/>
-      <c r="N15" s="191"/>
-      <c r="O15" s="191"/>
-      <c r="P15" s="192"/>
-      <c r="Q15" s="187"/>
-      <c r="R15" s="188"/>
-      <c r="S15" s="188"/>
-      <c r="T15" s="188"/>
-      <c r="U15" s="188"/>
-      <c r="V15" s="188"/>
-      <c r="W15" s="188"/>
-      <c r="X15" s="188"/>
-      <c r="Y15" s="188"/>
-      <c r="Z15" s="188"/>
-      <c r="AA15" s="188"/>
-      <c r="AB15" s="188"/>
-      <c r="AC15" s="188"/>
-      <c r="AD15" s="188"/>
-      <c r="AE15" s="189"/>
-      <c r="AF15" s="190"/>
-      <c r="AG15" s="191"/>
-      <c r="AH15" s="191"/>
-      <c r="AI15" s="192"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="212"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="214"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="198"/>
+      <c r="N15" s="198"/>
+      <c r="O15" s="198"/>
+      <c r="P15" s="199"/>
+      <c r="Q15" s="194"/>
+      <c r="R15" s="195"/>
+      <c r="S15" s="195"/>
+      <c r="T15" s="195"/>
+      <c r="U15" s="195"/>
+      <c r="V15" s="195"/>
+      <c r="W15" s="195"/>
+      <c r="X15" s="195"/>
+      <c r="Y15" s="195"/>
+      <c r="Z15" s="195"/>
+      <c r="AA15" s="195"/>
+      <c r="AB15" s="195"/>
+      <c r="AC15" s="195"/>
+      <c r="AD15" s="195"/>
+      <c r="AE15" s="196"/>
+      <c r="AF15" s="197"/>
+      <c r="AG15" s="198"/>
+      <c r="AH15" s="198"/>
+      <c r="AI15" s="199"/>
     </row>
     <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
-      <c r="B16" s="193"/>
-      <c r="C16" s="194"/>
-      <c r="D16" s="195"/>
-      <c r="E16" s="196"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="191"/>
-      <c r="L16" s="191"/>
-      <c r="M16" s="191"/>
-      <c r="N16" s="191"/>
-      <c r="O16" s="191"/>
-      <c r="P16" s="192"/>
-      <c r="Q16" s="187"/>
-      <c r="R16" s="188"/>
-      <c r="S16" s="188"/>
-      <c r="T16" s="188"/>
-      <c r="U16" s="188"/>
-      <c r="V16" s="188"/>
-      <c r="W16" s="188"/>
-      <c r="X16" s="188"/>
-      <c r="Y16" s="188"/>
-      <c r="Z16" s="188"/>
-      <c r="AA16" s="188"/>
-      <c r="AB16" s="188"/>
-      <c r="AC16" s="188"/>
-      <c r="AD16" s="188"/>
-      <c r="AE16" s="189"/>
-      <c r="AF16" s="190"/>
-      <c r="AG16" s="191"/>
-      <c r="AH16" s="191"/>
-      <c r="AI16" s="192"/>
+      <c r="B16" s="185"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="213"/>
+      <c r="F16" s="214"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="198"/>
+      <c r="L16" s="198"/>
+      <c r="M16" s="198"/>
+      <c r="N16" s="198"/>
+      <c r="O16" s="198"/>
+      <c r="P16" s="199"/>
+      <c r="Q16" s="194"/>
+      <c r="R16" s="195"/>
+      <c r="S16" s="195"/>
+      <c r="T16" s="195"/>
+      <c r="U16" s="195"/>
+      <c r="V16" s="195"/>
+      <c r="W16" s="195"/>
+      <c r="X16" s="195"/>
+      <c r="Y16" s="195"/>
+      <c r="Z16" s="195"/>
+      <c r="AA16" s="195"/>
+      <c r="AB16" s="195"/>
+      <c r="AC16" s="195"/>
+      <c r="AD16" s="195"/>
+      <c r="AE16" s="196"/>
+      <c r="AF16" s="197"/>
+      <c r="AG16" s="198"/>
+      <c r="AH16" s="198"/>
+      <c r="AI16" s="199"/>
     </row>
     <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
-      <c r="B17" s="193"/>
-      <c r="C17" s="194"/>
-      <c r="D17" s="195"/>
-      <c r="E17" s="196"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="194"/>
-      <c r="J17" s="190"/>
-      <c r="K17" s="191"/>
-      <c r="L17" s="191"/>
-      <c r="M17" s="191"/>
-      <c r="N17" s="191"/>
-      <c r="O17" s="191"/>
-      <c r="P17" s="192"/>
-      <c r="Q17" s="187"/>
-      <c r="R17" s="188"/>
-      <c r="S17" s="188"/>
-      <c r="T17" s="188"/>
-      <c r="U17" s="188"/>
-      <c r="V17" s="188"/>
-      <c r="W17" s="188"/>
-      <c r="X17" s="188"/>
-      <c r="Y17" s="188"/>
-      <c r="Z17" s="188"/>
-      <c r="AA17" s="188"/>
-      <c r="AB17" s="188"/>
-      <c r="AC17" s="188"/>
-      <c r="AD17" s="188"/>
-      <c r="AE17" s="189"/>
-      <c r="AF17" s="190"/>
-      <c r="AG17" s="191"/>
-      <c r="AH17" s="191"/>
-      <c r="AI17" s="192"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="187"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="198"/>
+      <c r="L17" s="198"/>
+      <c r="M17" s="198"/>
+      <c r="N17" s="198"/>
+      <c r="O17" s="198"/>
+      <c r="P17" s="199"/>
+      <c r="Q17" s="194"/>
+      <c r="R17" s="195"/>
+      <c r="S17" s="195"/>
+      <c r="T17" s="195"/>
+      <c r="U17" s="195"/>
+      <c r="V17" s="195"/>
+      <c r="W17" s="195"/>
+      <c r="X17" s="195"/>
+      <c r="Y17" s="195"/>
+      <c r="Z17" s="195"/>
+      <c r="AA17" s="195"/>
+      <c r="AB17" s="195"/>
+      <c r="AC17" s="195"/>
+      <c r="AD17" s="195"/>
+      <c r="AE17" s="196"/>
+      <c r="AF17" s="197"/>
+      <c r="AG17" s="198"/>
+      <c r="AH17" s="198"/>
+      <c r="AI17" s="199"/>
     </row>
     <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
-      <c r="B18" s="193"/>
-      <c r="C18" s="194"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="196"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="198"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="190"/>
-      <c r="K18" s="191"/>
-      <c r="L18" s="191"/>
-      <c r="M18" s="191"/>
-      <c r="N18" s="191"/>
-      <c r="O18" s="191"/>
-      <c r="P18" s="192"/>
-      <c r="Q18" s="187"/>
-      <c r="R18" s="188"/>
-      <c r="S18" s="188"/>
-      <c r="T18" s="188"/>
-      <c r="U18" s="188"/>
-      <c r="V18" s="188"/>
-      <c r="W18" s="188"/>
-      <c r="X18" s="188"/>
-      <c r="Y18" s="188"/>
-      <c r="Z18" s="188"/>
-      <c r="AA18" s="188"/>
-      <c r="AB18" s="188"/>
-      <c r="AC18" s="188"/>
-      <c r="AD18" s="188"/>
-      <c r="AE18" s="189"/>
-      <c r="AF18" s="190"/>
-      <c r="AG18" s="191"/>
-      <c r="AH18" s="191"/>
-      <c r="AI18" s="192"/>
+      <c r="B18" s="185"/>
+      <c r="C18" s="187"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="198"/>
+      <c r="L18" s="198"/>
+      <c r="M18" s="198"/>
+      <c r="N18" s="198"/>
+      <c r="O18" s="198"/>
+      <c r="P18" s="199"/>
+      <c r="Q18" s="194"/>
+      <c r="R18" s="195"/>
+      <c r="S18" s="195"/>
+      <c r="T18" s="195"/>
+      <c r="U18" s="195"/>
+      <c r="V18" s="195"/>
+      <c r="W18" s="195"/>
+      <c r="X18" s="195"/>
+      <c r="Y18" s="195"/>
+      <c r="Z18" s="195"/>
+      <c r="AA18" s="195"/>
+      <c r="AB18" s="195"/>
+      <c r="AC18" s="195"/>
+      <c r="AD18" s="195"/>
+      <c r="AE18" s="196"/>
+      <c r="AF18" s="197"/>
+      <c r="AG18" s="198"/>
+      <c r="AH18" s="198"/>
+      <c r="AI18" s="199"/>
     </row>
     <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
-      <c r="B19" s="193"/>
-      <c r="C19" s="194"/>
-      <c r="D19" s="195"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="194"/>
-      <c r="J19" s="190"/>
-      <c r="K19" s="191"/>
-      <c r="L19" s="191"/>
-      <c r="M19" s="191"/>
-      <c r="N19" s="191"/>
-      <c r="O19" s="191"/>
-      <c r="P19" s="192"/>
-      <c r="Q19" s="187"/>
-      <c r="R19" s="188"/>
-      <c r="S19" s="188"/>
-      <c r="T19" s="188"/>
-      <c r="U19" s="188"/>
-      <c r="V19" s="188"/>
-      <c r="W19" s="188"/>
-      <c r="X19" s="188"/>
-      <c r="Y19" s="188"/>
-      <c r="Z19" s="188"/>
-      <c r="AA19" s="188"/>
-      <c r="AB19" s="188"/>
-      <c r="AC19" s="188"/>
-      <c r="AD19" s="188"/>
-      <c r="AE19" s="189"/>
-      <c r="AF19" s="190"/>
-      <c r="AG19" s="191"/>
-      <c r="AH19" s="191"/>
-      <c r="AI19" s="192"/>
+      <c r="B19" s="185"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="197"/>
+      <c r="K19" s="198"/>
+      <c r="L19" s="198"/>
+      <c r="M19" s="198"/>
+      <c r="N19" s="198"/>
+      <c r="O19" s="198"/>
+      <c r="P19" s="199"/>
+      <c r="Q19" s="194"/>
+      <c r="R19" s="195"/>
+      <c r="S19" s="195"/>
+      <c r="T19" s="195"/>
+      <c r="U19" s="195"/>
+      <c r="V19" s="195"/>
+      <c r="W19" s="195"/>
+      <c r="X19" s="195"/>
+      <c r="Y19" s="195"/>
+      <c r="Z19" s="195"/>
+      <c r="AA19" s="195"/>
+      <c r="AB19" s="195"/>
+      <c r="AC19" s="195"/>
+      <c r="AD19" s="195"/>
+      <c r="AE19" s="196"/>
+      <c r="AF19" s="197"/>
+      <c r="AG19" s="198"/>
+      <c r="AH19" s="198"/>
+      <c r="AI19" s="199"/>
     </row>
     <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
-      <c r="B20" s="193"/>
-      <c r="C20" s="194"/>
-      <c r="D20" s="195"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="198"/>
-      <c r="I20" s="194"/>
-      <c r="J20" s="190"/>
-      <c r="K20" s="191"/>
-      <c r="L20" s="191"/>
-      <c r="M20" s="191"/>
-      <c r="N20" s="191"/>
-      <c r="O20" s="191"/>
-      <c r="P20" s="192"/>
-      <c r="Q20" s="187"/>
-      <c r="R20" s="188"/>
-      <c r="S20" s="188"/>
-      <c r="T20" s="188"/>
-      <c r="U20" s="188"/>
-      <c r="V20" s="188"/>
-      <c r="W20" s="188"/>
-      <c r="X20" s="188"/>
-      <c r="Y20" s="188"/>
-      <c r="Z20" s="188"/>
-      <c r="AA20" s="188"/>
-      <c r="AB20" s="188"/>
-      <c r="AC20" s="188"/>
-      <c r="AD20" s="188"/>
-      <c r="AE20" s="189"/>
-      <c r="AF20" s="190"/>
-      <c r="AG20" s="191"/>
-      <c r="AH20" s="191"/>
-      <c r="AI20" s="192"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="185"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="197"/>
+      <c r="K20" s="198"/>
+      <c r="L20" s="198"/>
+      <c r="M20" s="198"/>
+      <c r="N20" s="198"/>
+      <c r="O20" s="198"/>
+      <c r="P20" s="199"/>
+      <c r="Q20" s="194"/>
+      <c r="R20" s="195"/>
+      <c r="S20" s="195"/>
+      <c r="T20" s="195"/>
+      <c r="U20" s="195"/>
+      <c r="V20" s="195"/>
+      <c r="W20" s="195"/>
+      <c r="X20" s="195"/>
+      <c r="Y20" s="195"/>
+      <c r="Z20" s="195"/>
+      <c r="AA20" s="195"/>
+      <c r="AB20" s="195"/>
+      <c r="AC20" s="195"/>
+      <c r="AD20" s="195"/>
+      <c r="AE20" s="196"/>
+      <c r="AF20" s="197"/>
+      <c r="AG20" s="198"/>
+      <c r="AH20" s="198"/>
+      <c r="AI20" s="199"/>
     </row>
     <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
-      <c r="B21" s="193"/>
-      <c r="C21" s="194"/>
-      <c r="D21" s="195"/>
-      <c r="E21" s="196"/>
-      <c r="F21" s="197"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="198"/>
-      <c r="I21" s="194"/>
-      <c r="J21" s="190"/>
-      <c r="K21" s="191"/>
-      <c r="L21" s="191"/>
-      <c r="M21" s="191"/>
-      <c r="N21" s="191"/>
-      <c r="O21" s="191"/>
-      <c r="P21" s="192"/>
-      <c r="Q21" s="187"/>
-      <c r="R21" s="188"/>
-      <c r="S21" s="188"/>
-      <c r="T21" s="188"/>
-      <c r="U21" s="188"/>
-      <c r="V21" s="188"/>
-      <c r="W21" s="188"/>
-      <c r="X21" s="188"/>
-      <c r="Y21" s="188"/>
-      <c r="Z21" s="188"/>
-      <c r="AA21" s="188"/>
-      <c r="AB21" s="188"/>
-      <c r="AC21" s="188"/>
-      <c r="AD21" s="188"/>
-      <c r="AE21" s="189"/>
-      <c r="AF21" s="190"/>
-      <c r="AG21" s="191"/>
-      <c r="AH21" s="191"/>
-      <c r="AI21" s="192"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="187"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="197"/>
+      <c r="K21" s="198"/>
+      <c r="L21" s="198"/>
+      <c r="M21" s="198"/>
+      <c r="N21" s="198"/>
+      <c r="O21" s="198"/>
+      <c r="P21" s="199"/>
+      <c r="Q21" s="194"/>
+      <c r="R21" s="195"/>
+      <c r="S21" s="195"/>
+      <c r="T21" s="195"/>
+      <c r="U21" s="195"/>
+      <c r="V21" s="195"/>
+      <c r="W21" s="195"/>
+      <c r="X21" s="195"/>
+      <c r="Y21" s="195"/>
+      <c r="Z21" s="195"/>
+      <c r="AA21" s="195"/>
+      <c r="AB21" s="195"/>
+      <c r="AC21" s="195"/>
+      <c r="AD21" s="195"/>
+      <c r="AE21" s="196"/>
+      <c r="AF21" s="197"/>
+      <c r="AG21" s="198"/>
+      <c r="AH21" s="198"/>
+      <c r="AI21" s="199"/>
     </row>
     <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
-      <c r="B22" s="193"/>
-      <c r="C22" s="194"/>
-      <c r="D22" s="195"/>
-      <c r="E22" s="196"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="198"/>
-      <c r="I22" s="194"/>
-      <c r="J22" s="190"/>
-      <c r="K22" s="191"/>
-      <c r="L22" s="191"/>
-      <c r="M22" s="191"/>
-      <c r="N22" s="191"/>
-      <c r="O22" s="191"/>
-      <c r="P22" s="192"/>
-      <c r="Q22" s="187"/>
-      <c r="R22" s="188"/>
-      <c r="S22" s="188"/>
-      <c r="T22" s="188"/>
-      <c r="U22" s="188"/>
-      <c r="V22" s="188"/>
-      <c r="W22" s="188"/>
-      <c r="X22" s="188"/>
-      <c r="Y22" s="188"/>
-      <c r="Z22" s="188"/>
-      <c r="AA22" s="188"/>
-      <c r="AB22" s="188"/>
-      <c r="AC22" s="188"/>
-      <c r="AD22" s="188"/>
-      <c r="AE22" s="189"/>
-      <c r="AF22" s="190"/>
-      <c r="AG22" s="191"/>
-      <c r="AH22" s="191"/>
-      <c r="AI22" s="192"/>
+      <c r="B22" s="185"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="213"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="187"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="198"/>
+      <c r="L22" s="198"/>
+      <c r="M22" s="198"/>
+      <c r="N22" s="198"/>
+      <c r="O22" s="198"/>
+      <c r="P22" s="199"/>
+      <c r="Q22" s="194"/>
+      <c r="R22" s="195"/>
+      <c r="S22" s="195"/>
+      <c r="T22" s="195"/>
+      <c r="U22" s="195"/>
+      <c r="V22" s="195"/>
+      <c r="W22" s="195"/>
+      <c r="X22" s="195"/>
+      <c r="Y22" s="195"/>
+      <c r="Z22" s="195"/>
+      <c r="AA22" s="195"/>
+      <c r="AB22" s="195"/>
+      <c r="AC22" s="195"/>
+      <c r="AD22" s="195"/>
+      <c r="AE22" s="196"/>
+      <c r="AF22" s="197"/>
+      <c r="AG22" s="198"/>
+      <c r="AH22" s="198"/>
+      <c r="AI22" s="199"/>
     </row>
     <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
-      <c r="B23" s="193"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="195"/>
-      <c r="E23" s="196"/>
-      <c r="F23" s="197"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="198"/>
-      <c r="I23" s="194"/>
-      <c r="J23" s="190"/>
-      <c r="K23" s="191"/>
-      <c r="L23" s="191"/>
-      <c r="M23" s="191"/>
-      <c r="N23" s="191"/>
-      <c r="O23" s="191"/>
-      <c r="P23" s="192"/>
-      <c r="Q23" s="187"/>
-      <c r="R23" s="188"/>
-      <c r="S23" s="188"/>
-      <c r="T23" s="188"/>
-      <c r="U23" s="188"/>
-      <c r="V23" s="188"/>
-      <c r="W23" s="188"/>
-      <c r="X23" s="188"/>
-      <c r="Y23" s="188"/>
-      <c r="Z23" s="188"/>
-      <c r="AA23" s="188"/>
-      <c r="AB23" s="188"/>
-      <c r="AC23" s="188"/>
-      <c r="AD23" s="188"/>
-      <c r="AE23" s="189"/>
-      <c r="AF23" s="190"/>
-      <c r="AG23" s="191"/>
-      <c r="AH23" s="191"/>
-      <c r="AI23" s="192"/>
+      <c r="B23" s="185"/>
+      <c r="C23" s="187"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="213"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="185"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="198"/>
+      <c r="L23" s="198"/>
+      <c r="M23" s="198"/>
+      <c r="N23" s="198"/>
+      <c r="O23" s="198"/>
+      <c r="P23" s="199"/>
+      <c r="Q23" s="194"/>
+      <c r="R23" s="195"/>
+      <c r="S23" s="195"/>
+      <c r="T23" s="195"/>
+      <c r="U23" s="195"/>
+      <c r="V23" s="195"/>
+      <c r="W23" s="195"/>
+      <c r="X23" s="195"/>
+      <c r="Y23" s="195"/>
+      <c r="Z23" s="195"/>
+      <c r="AA23" s="195"/>
+      <c r="AB23" s="195"/>
+      <c r="AC23" s="195"/>
+      <c r="AD23" s="195"/>
+      <c r="AE23" s="196"/>
+      <c r="AF23" s="197"/>
+      <c r="AG23" s="198"/>
+      <c r="AH23" s="198"/>
+      <c r="AI23" s="199"/>
     </row>
     <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
-      <c r="B24" s="193"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="195"/>
-      <c r="E24" s="196"/>
-      <c r="F24" s="197"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="198"/>
-      <c r="I24" s="194"/>
-      <c r="J24" s="190"/>
-      <c r="K24" s="191"/>
-      <c r="L24" s="191"/>
-      <c r="M24" s="191"/>
-      <c r="N24" s="191"/>
-      <c r="O24" s="191"/>
-      <c r="P24" s="192"/>
-      <c r="Q24" s="187"/>
-      <c r="R24" s="188"/>
-      <c r="S24" s="188"/>
-      <c r="T24" s="188"/>
-      <c r="U24" s="188"/>
-      <c r="V24" s="188"/>
-      <c r="W24" s="188"/>
-      <c r="X24" s="188"/>
-      <c r="Y24" s="188"/>
-      <c r="Z24" s="188"/>
-      <c r="AA24" s="188"/>
-      <c r="AB24" s="188"/>
-      <c r="AC24" s="188"/>
-      <c r="AD24" s="188"/>
-      <c r="AE24" s="189"/>
-      <c r="AF24" s="190"/>
-      <c r="AG24" s="191"/>
-      <c r="AH24" s="191"/>
-      <c r="AI24" s="192"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="187"/>
+      <c r="D24" s="212"/>
+      <c r="E24" s="213"/>
+      <c r="F24" s="214"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="187"/>
+      <c r="J24" s="197"/>
+      <c r="K24" s="198"/>
+      <c r="L24" s="198"/>
+      <c r="M24" s="198"/>
+      <c r="N24" s="198"/>
+      <c r="O24" s="198"/>
+      <c r="P24" s="199"/>
+      <c r="Q24" s="194"/>
+      <c r="R24" s="195"/>
+      <c r="S24" s="195"/>
+      <c r="T24" s="195"/>
+      <c r="U24" s="195"/>
+      <c r="V24" s="195"/>
+      <c r="W24" s="195"/>
+      <c r="X24" s="195"/>
+      <c r="Y24" s="195"/>
+      <c r="Z24" s="195"/>
+      <c r="AA24" s="195"/>
+      <c r="AB24" s="195"/>
+      <c r="AC24" s="195"/>
+      <c r="AD24" s="195"/>
+      <c r="AE24" s="196"/>
+      <c r="AF24" s="197"/>
+      <c r="AG24" s="198"/>
+      <c r="AH24" s="198"/>
+      <c r="AI24" s="199"/>
     </row>
     <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
-      <c r="B25" s="193"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="195"/>
-      <c r="E25" s="196"/>
-      <c r="F25" s="197"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="198"/>
-      <c r="I25" s="194"/>
-      <c r="J25" s="190"/>
-      <c r="K25" s="191"/>
-      <c r="L25" s="191"/>
-      <c r="M25" s="191"/>
-      <c r="N25" s="191"/>
-      <c r="O25" s="191"/>
-      <c r="P25" s="192"/>
-      <c r="Q25" s="187"/>
-      <c r="R25" s="188"/>
-      <c r="S25" s="188"/>
-      <c r="T25" s="188"/>
-      <c r="U25" s="188"/>
-      <c r="V25" s="188"/>
-      <c r="W25" s="188"/>
-      <c r="X25" s="188"/>
-      <c r="Y25" s="188"/>
-      <c r="Z25" s="188"/>
-      <c r="AA25" s="188"/>
-      <c r="AB25" s="188"/>
-      <c r="AC25" s="188"/>
-      <c r="AD25" s="188"/>
-      <c r="AE25" s="189"/>
-      <c r="AF25" s="190"/>
-      <c r="AG25" s="191"/>
-      <c r="AH25" s="191"/>
-      <c r="AI25" s="192"/>
+      <c r="B25" s="185"/>
+      <c r="C25" s="187"/>
+      <c r="D25" s="212"/>
+      <c r="E25" s="213"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="185"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="197"/>
+      <c r="K25" s="198"/>
+      <c r="L25" s="198"/>
+      <c r="M25" s="198"/>
+      <c r="N25" s="198"/>
+      <c r="O25" s="198"/>
+      <c r="P25" s="199"/>
+      <c r="Q25" s="194"/>
+      <c r="R25" s="195"/>
+      <c r="S25" s="195"/>
+      <c r="T25" s="195"/>
+      <c r="U25" s="195"/>
+      <c r="V25" s="195"/>
+      <c r="W25" s="195"/>
+      <c r="X25" s="195"/>
+      <c r="Y25" s="195"/>
+      <c r="Z25" s="195"/>
+      <c r="AA25" s="195"/>
+      <c r="AB25" s="195"/>
+      <c r="AC25" s="195"/>
+      <c r="AD25" s="195"/>
+      <c r="AE25" s="196"/>
+      <c r="AF25" s="197"/>
+      <c r="AG25" s="198"/>
+      <c r="AH25" s="198"/>
+      <c r="AI25" s="199"/>
     </row>
     <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
-      <c r="B26" s="193"/>
-      <c r="C26" s="194"/>
-      <c r="D26" s="195"/>
-      <c r="E26" s="196"/>
-      <c r="F26" s="197"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="198"/>
-      <c r="I26" s="194"/>
-      <c r="J26" s="190"/>
-      <c r="K26" s="191"/>
-      <c r="L26" s="191"/>
-      <c r="M26" s="191"/>
-      <c r="N26" s="191"/>
-      <c r="O26" s="191"/>
-      <c r="P26" s="192"/>
-      <c r="Q26" s="187"/>
-      <c r="R26" s="188"/>
-      <c r="S26" s="188"/>
-      <c r="T26" s="188"/>
-      <c r="U26" s="188"/>
-      <c r="V26" s="188"/>
-      <c r="W26" s="188"/>
-      <c r="X26" s="188"/>
-      <c r="Y26" s="188"/>
-      <c r="Z26" s="188"/>
-      <c r="AA26" s="188"/>
-      <c r="AB26" s="188"/>
-      <c r="AC26" s="188"/>
-      <c r="AD26" s="188"/>
-      <c r="AE26" s="189"/>
-      <c r="AF26" s="190"/>
-      <c r="AG26" s="191"/>
-      <c r="AH26" s="191"/>
-      <c r="AI26" s="192"/>
+      <c r="B26" s="185"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="213"/>
+      <c r="F26" s="214"/>
+      <c r="G26" s="185"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="197"/>
+      <c r="K26" s="198"/>
+      <c r="L26" s="198"/>
+      <c r="M26" s="198"/>
+      <c r="N26" s="198"/>
+      <c r="O26" s="198"/>
+      <c r="P26" s="199"/>
+      <c r="Q26" s="194"/>
+      <c r="R26" s="195"/>
+      <c r="S26" s="195"/>
+      <c r="T26" s="195"/>
+      <c r="U26" s="195"/>
+      <c r="V26" s="195"/>
+      <c r="W26" s="195"/>
+      <c r="X26" s="195"/>
+      <c r="Y26" s="195"/>
+      <c r="Z26" s="195"/>
+      <c r="AA26" s="195"/>
+      <c r="AB26" s="195"/>
+      <c r="AC26" s="195"/>
+      <c r="AD26" s="195"/>
+      <c r="AE26" s="196"/>
+      <c r="AF26" s="197"/>
+      <c r="AG26" s="198"/>
+      <c r="AH26" s="198"/>
+      <c r="AI26" s="199"/>
     </row>
     <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
-      <c r="B27" s="193"/>
-      <c r="C27" s="194"/>
-      <c r="D27" s="195"/>
-      <c r="E27" s="196"/>
-      <c r="F27" s="197"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="198"/>
-      <c r="I27" s="194"/>
-      <c r="J27" s="190"/>
-      <c r="K27" s="191"/>
-      <c r="L27" s="191"/>
-      <c r="M27" s="191"/>
-      <c r="N27" s="191"/>
-      <c r="O27" s="191"/>
-      <c r="P27" s="192"/>
-      <c r="Q27" s="187"/>
-      <c r="R27" s="188"/>
-      <c r="S27" s="188"/>
-      <c r="T27" s="188"/>
-      <c r="U27" s="188"/>
-      <c r="V27" s="188"/>
-      <c r="W27" s="188"/>
-      <c r="X27" s="188"/>
-      <c r="Y27" s="188"/>
-      <c r="Z27" s="188"/>
-      <c r="AA27" s="188"/>
-      <c r="AB27" s="188"/>
-      <c r="AC27" s="188"/>
-      <c r="AD27" s="188"/>
-      <c r="AE27" s="189"/>
-      <c r="AF27" s="190"/>
-      <c r="AG27" s="191"/>
-      <c r="AH27" s="191"/>
-      <c r="AI27" s="192"/>
+      <c r="B27" s="185"/>
+      <c r="C27" s="187"/>
+      <c r="D27" s="212"/>
+      <c r="E27" s="213"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="185"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="197"/>
+      <c r="K27" s="198"/>
+      <c r="L27" s="198"/>
+      <c r="M27" s="198"/>
+      <c r="N27" s="198"/>
+      <c r="O27" s="198"/>
+      <c r="P27" s="199"/>
+      <c r="Q27" s="194"/>
+      <c r="R27" s="195"/>
+      <c r="S27" s="195"/>
+      <c r="T27" s="195"/>
+      <c r="U27" s="195"/>
+      <c r="V27" s="195"/>
+      <c r="W27" s="195"/>
+      <c r="X27" s="195"/>
+      <c r="Y27" s="195"/>
+      <c r="Z27" s="195"/>
+      <c r="AA27" s="195"/>
+      <c r="AB27" s="195"/>
+      <c r="AC27" s="195"/>
+      <c r="AD27" s="195"/>
+      <c r="AE27" s="196"/>
+      <c r="AF27" s="197"/>
+      <c r="AG27" s="198"/>
+      <c r="AH27" s="198"/>
+      <c r="AI27" s="199"/>
     </row>
     <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
-      <c r="B28" s="193"/>
-      <c r="C28" s="194"/>
-      <c r="D28" s="195"/>
-      <c r="E28" s="196"/>
-      <c r="F28" s="197"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="198"/>
-      <c r="I28" s="194"/>
-      <c r="J28" s="190"/>
-      <c r="K28" s="191"/>
-      <c r="L28" s="191"/>
-      <c r="M28" s="191"/>
-      <c r="N28" s="191"/>
-      <c r="O28" s="191"/>
-      <c r="P28" s="192"/>
-      <c r="Q28" s="187"/>
-      <c r="R28" s="188"/>
-      <c r="S28" s="188"/>
-      <c r="T28" s="188"/>
-      <c r="U28" s="188"/>
-      <c r="V28" s="188"/>
-      <c r="W28" s="188"/>
-      <c r="X28" s="188"/>
-      <c r="Y28" s="188"/>
-      <c r="Z28" s="188"/>
-      <c r="AA28" s="188"/>
-      <c r="AB28" s="188"/>
-      <c r="AC28" s="188"/>
-      <c r="AD28" s="188"/>
-      <c r="AE28" s="189"/>
-      <c r="AF28" s="190"/>
-      <c r="AG28" s="191"/>
-      <c r="AH28" s="191"/>
-      <c r="AI28" s="192"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="187"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="213"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="187"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="198"/>
+      <c r="L28" s="198"/>
+      <c r="M28" s="198"/>
+      <c r="N28" s="198"/>
+      <c r="O28" s="198"/>
+      <c r="P28" s="199"/>
+      <c r="Q28" s="194"/>
+      <c r="R28" s="195"/>
+      <c r="S28" s="195"/>
+      <c r="T28" s="195"/>
+      <c r="U28" s="195"/>
+      <c r="V28" s="195"/>
+      <c r="W28" s="195"/>
+      <c r="X28" s="195"/>
+      <c r="Y28" s="195"/>
+      <c r="Z28" s="195"/>
+      <c r="AA28" s="195"/>
+      <c r="AB28" s="195"/>
+      <c r="AC28" s="195"/>
+      <c r="AD28" s="195"/>
+      <c r="AE28" s="196"/>
+      <c r="AF28" s="197"/>
+      <c r="AG28" s="198"/>
+      <c r="AH28" s="198"/>
+      <c r="AI28" s="199"/>
     </row>
     <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
-      <c r="B29" s="193"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="195"/>
-      <c r="E29" s="196"/>
-      <c r="F29" s="197"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="198"/>
-      <c r="I29" s="194"/>
-      <c r="J29" s="190"/>
-      <c r="K29" s="191"/>
-      <c r="L29" s="191"/>
-      <c r="M29" s="191"/>
-      <c r="N29" s="191"/>
-      <c r="O29" s="191"/>
-      <c r="P29" s="192"/>
-      <c r="Q29" s="187"/>
-      <c r="R29" s="188"/>
-      <c r="S29" s="188"/>
-      <c r="T29" s="188"/>
-      <c r="U29" s="188"/>
-      <c r="V29" s="188"/>
-      <c r="W29" s="188"/>
-      <c r="X29" s="188"/>
-      <c r="Y29" s="188"/>
-      <c r="Z29" s="188"/>
-      <c r="AA29" s="188"/>
-      <c r="AB29" s="188"/>
-      <c r="AC29" s="188"/>
-      <c r="AD29" s="188"/>
-      <c r="AE29" s="189"/>
-      <c r="AF29" s="190"/>
-      <c r="AG29" s="191"/>
-      <c r="AH29" s="191"/>
-      <c r="AI29" s="192"/>
+      <c r="B29" s="185"/>
+      <c r="C29" s="187"/>
+      <c r="D29" s="212"/>
+      <c r="E29" s="213"/>
+      <c r="F29" s="214"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="187"/>
+      <c r="J29" s="197"/>
+      <c r="K29" s="198"/>
+      <c r="L29" s="198"/>
+      <c r="M29" s="198"/>
+      <c r="N29" s="198"/>
+      <c r="O29" s="198"/>
+      <c r="P29" s="199"/>
+      <c r="Q29" s="194"/>
+      <c r="R29" s="195"/>
+      <c r="S29" s="195"/>
+      <c r="T29" s="195"/>
+      <c r="U29" s="195"/>
+      <c r="V29" s="195"/>
+      <c r="W29" s="195"/>
+      <c r="X29" s="195"/>
+      <c r="Y29" s="195"/>
+      <c r="Z29" s="195"/>
+      <c r="AA29" s="195"/>
+      <c r="AB29" s="195"/>
+      <c r="AC29" s="195"/>
+      <c r="AD29" s="195"/>
+      <c r="AE29" s="196"/>
+      <c r="AF29" s="197"/>
+      <c r="AG29" s="198"/>
+      <c r="AH29" s="198"/>
+      <c r="AI29" s="199"/>
     </row>
     <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
-      <c r="B30" s="193"/>
-      <c r="C30" s="194"/>
-      <c r="D30" s="195"/>
-      <c r="E30" s="196"/>
-      <c r="F30" s="197"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="198"/>
-      <c r="I30" s="194"/>
-      <c r="J30" s="190"/>
-      <c r="K30" s="191"/>
-      <c r="L30" s="191"/>
-      <c r="M30" s="191"/>
-      <c r="N30" s="191"/>
-      <c r="O30" s="191"/>
-      <c r="P30" s="192"/>
-      <c r="Q30" s="187"/>
-      <c r="R30" s="188"/>
-      <c r="S30" s="188"/>
-      <c r="T30" s="188"/>
-      <c r="U30" s="188"/>
-      <c r="V30" s="188"/>
-      <c r="W30" s="188"/>
-      <c r="X30" s="188"/>
-      <c r="Y30" s="188"/>
-      <c r="Z30" s="188"/>
-      <c r="AA30" s="188"/>
-      <c r="AB30" s="188"/>
-      <c r="AC30" s="188"/>
-      <c r="AD30" s="188"/>
-      <c r="AE30" s="189"/>
-      <c r="AF30" s="190"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="192"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="212"/>
+      <c r="E30" s="213"/>
+      <c r="F30" s="214"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="198"/>
+      <c r="L30" s="198"/>
+      <c r="M30" s="198"/>
+      <c r="N30" s="198"/>
+      <c r="O30" s="198"/>
+      <c r="P30" s="199"/>
+      <c r="Q30" s="194"/>
+      <c r="R30" s="195"/>
+      <c r="S30" s="195"/>
+      <c r="T30" s="195"/>
+      <c r="U30" s="195"/>
+      <c r="V30" s="195"/>
+      <c r="W30" s="195"/>
+      <c r="X30" s="195"/>
+      <c r="Y30" s="195"/>
+      <c r="Z30" s="195"/>
+      <c r="AA30" s="195"/>
+      <c r="AB30" s="195"/>
+      <c r="AC30" s="195"/>
+      <c r="AD30" s="195"/>
+      <c r="AE30" s="196"/>
+      <c r="AF30" s="197"/>
+      <c r="AG30" s="198"/>
+      <c r="AH30" s="198"/>
+      <c r="AI30" s="199"/>
     </row>
     <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
-      <c r="B31" s="193"/>
-      <c r="C31" s="194"/>
-      <c r="D31" s="195"/>
-      <c r="E31" s="196"/>
-      <c r="F31" s="197"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="198"/>
-      <c r="I31" s="194"/>
-      <c r="J31" s="190"/>
-      <c r="K31" s="191"/>
-      <c r="L31" s="191"/>
-      <c r="M31" s="191"/>
-      <c r="N31" s="191"/>
-      <c r="O31" s="191"/>
-      <c r="P31" s="192"/>
-      <c r="Q31" s="187"/>
-      <c r="R31" s="188"/>
-      <c r="S31" s="188"/>
-      <c r="T31" s="188"/>
-      <c r="U31" s="188"/>
-      <c r="V31" s="188"/>
-      <c r="W31" s="188"/>
-      <c r="X31" s="188"/>
-      <c r="Y31" s="188"/>
-      <c r="Z31" s="188"/>
-      <c r="AA31" s="188"/>
-      <c r="AB31" s="188"/>
-      <c r="AC31" s="188"/>
-      <c r="AD31" s="188"/>
-      <c r="AE31" s="189"/>
-      <c r="AF31" s="190"/>
-      <c r="AG31" s="191"/>
-      <c r="AH31" s="191"/>
-      <c r="AI31" s="192"/>
+      <c r="B31" s="185"/>
+      <c r="C31" s="187"/>
+      <c r="D31" s="212"/>
+      <c r="E31" s="213"/>
+      <c r="F31" s="214"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="197"/>
+      <c r="K31" s="198"/>
+      <c r="L31" s="198"/>
+      <c r="M31" s="198"/>
+      <c r="N31" s="198"/>
+      <c r="O31" s="198"/>
+      <c r="P31" s="199"/>
+      <c r="Q31" s="194"/>
+      <c r="R31" s="195"/>
+      <c r="S31" s="195"/>
+      <c r="T31" s="195"/>
+      <c r="U31" s="195"/>
+      <c r="V31" s="195"/>
+      <c r="W31" s="195"/>
+      <c r="X31" s="195"/>
+      <c r="Y31" s="195"/>
+      <c r="Z31" s="195"/>
+      <c r="AA31" s="195"/>
+      <c r="AB31" s="195"/>
+      <c r="AC31" s="195"/>
+      <c r="AD31" s="195"/>
+      <c r="AE31" s="196"/>
+      <c r="AF31" s="197"/>
+      <c r="AG31" s="198"/>
+      <c r="AH31" s="198"/>
+      <c r="AI31" s="199"/>
     </row>
     <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
-      <c r="B32" s="193"/>
-      <c r="C32" s="194"/>
-      <c r="D32" s="195"/>
-      <c r="E32" s="196"/>
-      <c r="F32" s="197"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="198"/>
-      <c r="I32" s="194"/>
-      <c r="J32" s="190"/>
-      <c r="K32" s="191"/>
-      <c r="L32" s="191"/>
-      <c r="M32" s="191"/>
-      <c r="N32" s="191"/>
-      <c r="O32" s="191"/>
-      <c r="P32" s="192"/>
-      <c r="Q32" s="187"/>
-      <c r="R32" s="188"/>
-      <c r="S32" s="188"/>
-      <c r="T32" s="188"/>
-      <c r="U32" s="188"/>
-      <c r="V32" s="188"/>
-      <c r="W32" s="188"/>
-      <c r="X32" s="188"/>
-      <c r="Y32" s="188"/>
-      <c r="Z32" s="188"/>
-      <c r="AA32" s="188"/>
-      <c r="AB32" s="188"/>
-      <c r="AC32" s="188"/>
-      <c r="AD32" s="188"/>
-      <c r="AE32" s="189"/>
-      <c r="AF32" s="190"/>
-      <c r="AG32" s="191"/>
-      <c r="AH32" s="191"/>
-      <c r="AI32" s="192"/>
+      <c r="B32" s="185"/>
+      <c r="C32" s="187"/>
+      <c r="D32" s="212"/>
+      <c r="E32" s="213"/>
+      <c r="F32" s="214"/>
+      <c r="G32" s="185"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="197"/>
+      <c r="K32" s="198"/>
+      <c r="L32" s="198"/>
+      <c r="M32" s="198"/>
+      <c r="N32" s="198"/>
+      <c r="O32" s="198"/>
+      <c r="P32" s="199"/>
+      <c r="Q32" s="194"/>
+      <c r="R32" s="195"/>
+      <c r="S32" s="195"/>
+      <c r="T32" s="195"/>
+      <c r="U32" s="195"/>
+      <c r="V32" s="195"/>
+      <c r="W32" s="195"/>
+      <c r="X32" s="195"/>
+      <c r="Y32" s="195"/>
+      <c r="Z32" s="195"/>
+      <c r="AA32" s="195"/>
+      <c r="AB32" s="195"/>
+      <c r="AC32" s="195"/>
+      <c r="AD32" s="195"/>
+      <c r="AE32" s="196"/>
+      <c r="AF32" s="197"/>
+      <c r="AG32" s="198"/>
+      <c r="AH32" s="198"/>
+      <c r="AI32" s="199"/>
     </row>
     <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
-      <c r="B33" s="193"/>
-      <c r="C33" s="194"/>
-      <c r="D33" s="195"/>
-      <c r="E33" s="196"/>
-      <c r="F33" s="197"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="198"/>
-      <c r="I33" s="194"/>
-      <c r="J33" s="190"/>
-      <c r="K33" s="191"/>
-      <c r="L33" s="191"/>
-      <c r="M33" s="191"/>
-      <c r="N33" s="191"/>
-      <c r="O33" s="191"/>
-      <c r="P33" s="192"/>
-      <c r="Q33" s="187"/>
-      <c r="R33" s="188"/>
-      <c r="S33" s="188"/>
-      <c r="T33" s="188"/>
-      <c r="U33" s="188"/>
-      <c r="V33" s="188"/>
-      <c r="W33" s="188"/>
-      <c r="X33" s="188"/>
-      <c r="Y33" s="188"/>
-      <c r="Z33" s="188"/>
-      <c r="AA33" s="188"/>
-      <c r="AB33" s="188"/>
-      <c r="AC33" s="188"/>
-      <c r="AD33" s="188"/>
-      <c r="AE33" s="189"/>
-      <c r="AF33" s="190"/>
-      <c r="AG33" s="191"/>
-      <c r="AH33" s="191"/>
-      <c r="AI33" s="192"/>
+      <c r="B33" s="185"/>
+      <c r="C33" s="187"/>
+      <c r="D33" s="212"/>
+      <c r="E33" s="213"/>
+      <c r="F33" s="214"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="187"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="198"/>
+      <c r="L33" s="198"/>
+      <c r="M33" s="198"/>
+      <c r="N33" s="198"/>
+      <c r="O33" s="198"/>
+      <c r="P33" s="199"/>
+      <c r="Q33" s="194"/>
+      <c r="R33" s="195"/>
+      <c r="S33" s="195"/>
+      <c r="T33" s="195"/>
+      <c r="U33" s="195"/>
+      <c r="V33" s="195"/>
+      <c r="W33" s="195"/>
+      <c r="X33" s="195"/>
+      <c r="Y33" s="195"/>
+      <c r="Z33" s="195"/>
+      <c r="AA33" s="195"/>
+      <c r="AB33" s="195"/>
+      <c r="AC33" s="195"/>
+      <c r="AD33" s="195"/>
+      <c r="AE33" s="196"/>
+      <c r="AF33" s="197"/>
+      <c r="AG33" s="198"/>
+      <c r="AH33" s="198"/>
+      <c r="AI33" s="199"/>
     </row>
     <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
@@ -5384,161 +5384,6 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -5563,6 +5408,161 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -5718,158 +5718,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="244" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="256" t="str">
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
-      <c r="N1" s="258"/>
-      <c r="O1" s="238" t="s">
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="243"/>
+      <c r="O1" s="247" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="239"/>
-      <c r="Q1" s="239"/>
-      <c r="R1" s="240"/>
-      <c r="S1" s="247" t="str">
+      <c r="P1" s="248"/>
+      <c r="Q1" s="248"/>
+      <c r="R1" s="249"/>
+      <c r="S1" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="248"/>
-      <c r="U1" s="248"/>
-      <c r="V1" s="248"/>
-      <c r="W1" s="248"/>
-      <c r="X1" s="248"/>
-      <c r="Y1" s="248"/>
-      <c r="Z1" s="249"/>
-      <c r="AA1" s="235" t="s">
+      <c r="T1" s="257"/>
+      <c r="U1" s="257"/>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="257"/>
+      <c r="Y1" s="257"/>
+      <c r="Z1" s="258"/>
+      <c r="AA1" s="244" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="237"/>
-      <c r="AC1" s="259" t="str">
+      <c r="AB1" s="246"/>
+      <c r="AC1" s="235" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="260"/>
-      <c r="AE1" s="260"/>
-      <c r="AF1" s="261"/>
-      <c r="AG1" s="262">
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="236"/>
+      <c r="AF1" s="237"/>
+      <c r="AG1" s="238">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="263"/>
-      <c r="AI1" s="264"/>
+      <c r="AH1" s="239"/>
+      <c r="AI1" s="240"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="244" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="256" t="str">
+      <c r="B2" s="245"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="257"/>
-      <c r="G2" s="257"/>
-      <c r="H2" s="257"/>
-      <c r="I2" s="257"/>
-      <c r="J2" s="257"/>
-      <c r="K2" s="257"/>
-      <c r="L2" s="257"/>
-      <c r="M2" s="257"/>
-      <c r="N2" s="258"/>
-      <c r="O2" s="241"/>
-      <c r="P2" s="242"/>
-      <c r="Q2" s="242"/>
-      <c r="R2" s="243"/>
-      <c r="S2" s="250"/>
-      <c r="T2" s="251"/>
-      <c r="U2" s="251"/>
-      <c r="V2" s="251"/>
-      <c r="W2" s="251"/>
-      <c r="X2" s="251"/>
-      <c r="Y2" s="251"/>
-      <c r="Z2" s="252"/>
-      <c r="AA2" s="235" t="s">
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
+      <c r="N2" s="243"/>
+      <c r="O2" s="250"/>
+      <c r="P2" s="251"/>
+      <c r="Q2" s="251"/>
+      <c r="R2" s="252"/>
+      <c r="S2" s="259"/>
+      <c r="T2" s="260"/>
+      <c r="U2" s="260"/>
+      <c r="V2" s="260"/>
+      <c r="W2" s="260"/>
+      <c r="X2" s="260"/>
+      <c r="Y2" s="260"/>
+      <c r="Z2" s="261"/>
+      <c r="AA2" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="237"/>
-      <c r="AC2" s="259" t="str">
+      <c r="AB2" s="246"/>
+      <c r="AC2" s="235" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="260"/>
-      <c r="AE2" s="260"/>
-      <c r="AF2" s="261"/>
-      <c r="AG2" s="262" t="str">
+      <c r="AD2" s="236"/>
+      <c r="AE2" s="236"/>
+      <c r="AF2" s="237"/>
+      <c r="AG2" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="263"/>
-      <c r="AI2" s="264"/>
+      <c r="AH2" s="239"/>
+      <c r="AI2" s="240"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="244" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="236"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="256" t="str">
+      <c r="B3" s="245"/>
+      <c r="C3" s="245"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="257"/>
-      <c r="G3" s="257"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="257"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="257"/>
-      <c r="M3" s="257"/>
-      <c r="N3" s="258"/>
-      <c r="O3" s="244"/>
-      <c r="P3" s="245"/>
-      <c r="Q3" s="245"/>
-      <c r="R3" s="246"/>
-      <c r="S3" s="253"/>
-      <c r="T3" s="254"/>
-      <c r="U3" s="254"/>
-      <c r="V3" s="254"/>
-      <c r="W3" s="254"/>
-      <c r="X3" s="254"/>
-      <c r="Y3" s="254"/>
-      <c r="Z3" s="255"/>
-      <c r="AA3" s="235"/>
-      <c r="AB3" s="237"/>
-      <c r="AC3" s="259" t="str">
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="242"/>
+      <c r="J3" s="242"/>
+      <c r="K3" s="242"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
+      <c r="N3" s="243"/>
+      <c r="O3" s="253"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="254"/>
+      <c r="R3" s="255"/>
+      <c r="S3" s="262"/>
+      <c r="T3" s="263"/>
+      <c r="U3" s="263"/>
+      <c r="V3" s="263"/>
+      <c r="W3" s="263"/>
+      <c r="X3" s="263"/>
+      <c r="Y3" s="263"/>
+      <c r="Z3" s="264"/>
+      <c r="AA3" s="244"/>
+      <c r="AB3" s="246"/>
+      <c r="AC3" s="235" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="260"/>
-      <c r="AE3" s="260"/>
-      <c r="AF3" s="261"/>
-      <c r="AG3" s="262" t="str">
+      <c r="AD3" s="236"/>
+      <c r="AE3" s="236"/>
+      <c r="AF3" s="237"/>
+      <c r="AG3" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="263"/>
-      <c r="AI3" s="264"/>
+      <c r="AH3" s="239"/>
+      <c r="AI3" s="240"/>
     </row>
     <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
@@ -5926,7 +5926,7 @@
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R5" s="38"/>
       <c r="S5" s="38"/>
@@ -5987,7 +5987,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="42"/>
       <c r="B7" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="44"/>
@@ -6027,7 +6027,7 @@
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
@@ -6102,7 +6102,7 @@
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42"/>
       <c r="B10" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="42"/>
@@ -6751,14 +6751,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6768,6 +6760,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -6793,175 +6793,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="244" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="256" t="str">
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
-      <c r="N1" s="258"/>
-      <c r="O1" s="238" t="s">
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="243"/>
+      <c r="O1" s="247" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="239"/>
-      <c r="Q1" s="239"/>
-      <c r="R1" s="240"/>
-      <c r="S1" s="247" t="str">
+      <c r="P1" s="248"/>
+      <c r="Q1" s="248"/>
+      <c r="R1" s="249"/>
+      <c r="S1" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="248"/>
-      <c r="U1" s="248"/>
-      <c r="V1" s="248"/>
-      <c r="W1" s="248"/>
-      <c r="X1" s="248"/>
-      <c r="Y1" s="248"/>
-      <c r="Z1" s="249"/>
-      <c r="AA1" s="235" t="s">
+      <c r="T1" s="257"/>
+      <c r="U1" s="257"/>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="257"/>
+      <c r="Y1" s="257"/>
+      <c r="Z1" s="258"/>
+      <c r="AA1" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="237"/>
-      <c r="AC1" s="259" t="str">
+      <c r="AB1" s="246"/>
+      <c r="AC1" s="235" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="260"/>
-      <c r="AE1" s="260"/>
-      <c r="AF1" s="261"/>
-      <c r="AG1" s="262">
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="236"/>
+      <c r="AF1" s="237"/>
+      <c r="AG1" s="238">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="263"/>
-      <c r="AI1" s="264"/>
+      <c r="AH1" s="239"/>
+      <c r="AI1" s="240"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="256" t="str">
+      <c r="B2" s="245"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="257"/>
-      <c r="G2" s="257"/>
-      <c r="H2" s="257"/>
-      <c r="I2" s="257"/>
-      <c r="J2" s="257"/>
-      <c r="K2" s="257"/>
-      <c r="L2" s="257"/>
-      <c r="M2" s="257"/>
-      <c r="N2" s="258"/>
-      <c r="O2" s="241"/>
-      <c r="P2" s="242"/>
-      <c r="Q2" s="242"/>
-      <c r="R2" s="243"/>
-      <c r="S2" s="250"/>
-      <c r="T2" s="251"/>
-      <c r="U2" s="251"/>
-      <c r="V2" s="251"/>
-      <c r="W2" s="251"/>
-      <c r="X2" s="251"/>
-      <c r="Y2" s="251"/>
-      <c r="Z2" s="252"/>
-      <c r="AA2" s="235" t="s">
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
+      <c r="N2" s="243"/>
+      <c r="O2" s="250"/>
+      <c r="P2" s="251"/>
+      <c r="Q2" s="251"/>
+      <c r="R2" s="252"/>
+      <c r="S2" s="259"/>
+      <c r="T2" s="260"/>
+      <c r="U2" s="260"/>
+      <c r="V2" s="260"/>
+      <c r="W2" s="260"/>
+      <c r="X2" s="260"/>
+      <c r="Y2" s="260"/>
+      <c r="Z2" s="261"/>
+      <c r="AA2" s="244" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="237"/>
-      <c r="AC2" s="259" t="str">
+      <c r="AB2" s="246"/>
+      <c r="AC2" s="235" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="260"/>
-      <c r="AE2" s="260"/>
-      <c r="AF2" s="261"/>
-      <c r="AG2" s="262" t="str">
+      <c r="AD2" s="236"/>
+      <c r="AE2" s="236"/>
+      <c r="AF2" s="237"/>
+      <c r="AG2" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="263"/>
-      <c r="AI2" s="264"/>
+      <c r="AH2" s="239"/>
+      <c r="AI2" s="240"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="244" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="236"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="256" t="str">
+      <c r="B3" s="245"/>
+      <c r="C3" s="245"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="257"/>
-      <c r="G3" s="257"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="257"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="257"/>
-      <c r="M3" s="257"/>
-      <c r="N3" s="258"/>
-      <c r="O3" s="244"/>
-      <c r="P3" s="245"/>
-      <c r="Q3" s="245"/>
-      <c r="R3" s="246"/>
-      <c r="S3" s="253"/>
-      <c r="T3" s="254"/>
-      <c r="U3" s="254"/>
-      <c r="V3" s="254"/>
-      <c r="W3" s="254"/>
-      <c r="X3" s="254"/>
-      <c r="Y3" s="254"/>
-      <c r="Z3" s="255"/>
-      <c r="AA3" s="235"/>
-      <c r="AB3" s="237"/>
-      <c r="AC3" s="259" t="str">
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="242"/>
+      <c r="J3" s="242"/>
+      <c r="K3" s="242"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
+      <c r="N3" s="243"/>
+      <c r="O3" s="253"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="254"/>
+      <c r="R3" s="255"/>
+      <c r="S3" s="262"/>
+      <c r="T3" s="263"/>
+      <c r="U3" s="263"/>
+      <c r="V3" s="263"/>
+      <c r="W3" s="263"/>
+      <c r="X3" s="263"/>
+      <c r="Y3" s="263"/>
+      <c r="Z3" s="264"/>
+      <c r="AA3" s="244"/>
+      <c r="AB3" s="246"/>
+      <c r="AC3" s="235" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="260"/>
-      <c r="AE3" s="260"/>
-      <c r="AF3" s="261"/>
-      <c r="AG3" s="262" t="str">
+      <c r="AD3" s="236"/>
+      <c r="AE3" s="236"/>
+      <c r="AF3" s="237"/>
+      <c r="AG3" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="263"/>
-      <c r="AI3" s="264"/>
+      <c r="AH3" s="239"/>
+      <c r="AI3" s="240"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="81"/>
       <c r="C8" s="275" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D8" s="276"/>
       <c r="E8" s="276"/>
@@ -6999,7 +6999,7 @@
     <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="81"/>
       <c r="C9" s="280" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D9" s="281"/>
       <c r="E9" s="281"/>
@@ -7037,7 +7037,7 @@
     <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="81"/>
       <c r="C10" s="266" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D10" s="267"/>
       <c r="E10" s="267"/>
@@ -7252,18 +7252,6 @@
     <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7275,6 +7263,18 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7305,160 +7305,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="372" t="s">
+      <c r="A1" s="320" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="373"/>
-      <c r="C1" s="373"/>
-      <c r="D1" s="374"/>
-      <c r="E1" s="256" t="str">
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="322"/>
+      <c r="E1" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
-      <c r="N1" s="258"/>
-      <c r="O1" s="238" t="s">
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="243"/>
+      <c r="O1" s="247" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="239"/>
-      <c r="Q1" s="239"/>
-      <c r="R1" s="240"/>
-      <c r="S1" s="247" t="str">
+      <c r="P1" s="248"/>
+      <c r="Q1" s="248"/>
+      <c r="R1" s="249"/>
+      <c r="S1" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="248"/>
-      <c r="U1" s="248"/>
-      <c r="V1" s="248"/>
-      <c r="W1" s="248"/>
-      <c r="X1" s="248"/>
-      <c r="Y1" s="248"/>
-      <c r="Z1" s="249"/>
-      <c r="AA1" s="235" t="s">
+      <c r="T1" s="257"/>
+      <c r="U1" s="257"/>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="257"/>
+      <c r="Y1" s="257"/>
+      <c r="Z1" s="258"/>
+      <c r="AA1" s="244" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="237"/>
-      <c r="AC1" s="259" t="str">
+      <c r="AB1" s="246"/>
+      <c r="AC1" s="235" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="260"/>
-      <c r="AE1" s="260"/>
-      <c r="AF1" s="261"/>
-      <c r="AG1" s="369">
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="236"/>
+      <c r="AF1" s="237"/>
+      <c r="AG1" s="317">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="370"/>
-      <c r="AI1" s="371"/>
+      <c r="AH1" s="318"/>
+      <c r="AI1" s="319"/>
       <c r="AJ1" s="94"/>
     </row>
     <row r="2" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="372" t="s">
+      <c r="A2" s="320" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="373"/>
-      <c r="C2" s="373"/>
-      <c r="D2" s="374"/>
-      <c r="E2" s="256" t="str">
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="257"/>
-      <c r="G2" s="257"/>
-      <c r="H2" s="257"/>
-      <c r="I2" s="257"/>
-      <c r="J2" s="257"/>
-      <c r="K2" s="257"/>
-      <c r="L2" s="257"/>
-      <c r="M2" s="257"/>
-      <c r="N2" s="258"/>
-      <c r="O2" s="241"/>
-      <c r="P2" s="242"/>
-      <c r="Q2" s="242"/>
-      <c r="R2" s="243"/>
-      <c r="S2" s="250"/>
-      <c r="T2" s="251"/>
-      <c r="U2" s="251"/>
-      <c r="V2" s="251"/>
-      <c r="W2" s="251"/>
-      <c r="X2" s="251"/>
-      <c r="Y2" s="251"/>
-      <c r="Z2" s="252"/>
-      <c r="AA2" s="235" t="s">
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
+      <c r="N2" s="243"/>
+      <c r="O2" s="250"/>
+      <c r="P2" s="251"/>
+      <c r="Q2" s="251"/>
+      <c r="R2" s="252"/>
+      <c r="S2" s="259"/>
+      <c r="T2" s="260"/>
+      <c r="U2" s="260"/>
+      <c r="V2" s="260"/>
+      <c r="W2" s="260"/>
+      <c r="X2" s="260"/>
+      <c r="Y2" s="260"/>
+      <c r="Z2" s="261"/>
+      <c r="AA2" s="244" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="237"/>
-      <c r="AC2" s="259" t="str">
+      <c r="AB2" s="246"/>
+      <c r="AC2" s="235" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="260"/>
-      <c r="AE2" s="260"/>
-      <c r="AF2" s="261"/>
-      <c r="AG2" s="369" t="str">
+      <c r="AD2" s="236"/>
+      <c r="AE2" s="236"/>
+      <c r="AF2" s="237"/>
+      <c r="AG2" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="370"/>
-      <c r="AI2" s="371"/>
+      <c r="AH2" s="318"/>
+      <c r="AI2" s="319"/>
       <c r="AJ2" s="94"/>
     </row>
     <row r="3" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="372" t="s">
+      <c r="A3" s="320" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="373"/>
-      <c r="C3" s="373"/>
-      <c r="D3" s="374"/>
-      <c r="E3" s="256" t="str">
+      <c r="B3" s="321"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="257"/>
-      <c r="G3" s="257"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="257"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="257"/>
-      <c r="M3" s="257"/>
-      <c r="N3" s="258"/>
-      <c r="O3" s="244"/>
-      <c r="P3" s="245"/>
-      <c r="Q3" s="245"/>
-      <c r="R3" s="246"/>
-      <c r="S3" s="253"/>
-      <c r="T3" s="254"/>
-      <c r="U3" s="254"/>
-      <c r="V3" s="254"/>
-      <c r="W3" s="254"/>
-      <c r="X3" s="254"/>
-      <c r="Y3" s="254"/>
-      <c r="Z3" s="255"/>
-      <c r="AA3" s="235"/>
-      <c r="AB3" s="237"/>
-      <c r="AC3" s="259" t="str">
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="242"/>
+      <c r="J3" s="242"/>
+      <c r="K3" s="242"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
+      <c r="N3" s="243"/>
+      <c r="O3" s="253"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="254"/>
+      <c r="R3" s="255"/>
+      <c r="S3" s="262"/>
+      <c r="T3" s="263"/>
+      <c r="U3" s="263"/>
+      <c r="V3" s="263"/>
+      <c r="W3" s="263"/>
+      <c r="X3" s="263"/>
+      <c r="Y3" s="263"/>
+      <c r="Z3" s="264"/>
+      <c r="AA3" s="244"/>
+      <c r="AB3" s="246"/>
+      <c r="AC3" s="235" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="260"/>
-      <c r="AE3" s="260"/>
-      <c r="AF3" s="261"/>
-      <c r="AG3" s="369" t="str">
+      <c r="AD3" s="236"/>
+      <c r="AE3" s="236"/>
+      <c r="AF3" s="237"/>
+      <c r="AG3" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="370"/>
-      <c r="AI3" s="371"/>
+      <c r="AH3" s="318"/>
+      <c r="AI3" s="319"/>
       <c r="AJ3" s="94"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7610,39 +7610,39 @@
       <c r="D43" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="375" t="s">
+      <c r="E43" s="283" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="375"/>
-      <c r="G43" s="375"/>
-      <c r="H43" s="375"/>
-      <c r="I43" s="375"/>
-      <c r="J43" s="375"/>
-      <c r="K43" s="375"/>
-      <c r="L43" s="375"/>
-      <c r="M43" s="375"/>
-      <c r="N43" s="375" t="s">
+      <c r="F43" s="283"/>
+      <c r="G43" s="283"/>
+      <c r="H43" s="283"/>
+      <c r="I43" s="283"/>
+      <c r="J43" s="283"/>
+      <c r="K43" s="283"/>
+      <c r="L43" s="283"/>
+      <c r="M43" s="283"/>
+      <c r="N43" s="283" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="375"/>
-      <c r="P43" s="375"/>
-      <c r="Q43" s="375" t="s">
+      <c r="O43" s="283"/>
+      <c r="P43" s="283"/>
+      <c r="Q43" s="283" t="s">
         <v>56</v>
       </c>
-      <c r="R43" s="375"/>
-      <c r="S43" s="375"/>
-      <c r="T43" s="375"/>
-      <c r="U43" s="375"/>
-      <c r="V43" s="375" t="s">
+      <c r="R43" s="283"/>
+      <c r="S43" s="283"/>
+      <c r="T43" s="283"/>
+      <c r="U43" s="283"/>
+      <c r="V43" s="283" t="s">
         <v>57</v>
       </c>
-      <c r="W43" s="375"/>
-      <c r="X43" s="375"/>
-      <c r="Y43" s="375"/>
-      <c r="Z43" s="375"/>
-      <c r="AA43" s="375"/>
-      <c r="AB43" s="375"/>
-      <c r="AC43" s="375"/>
+      <c r="W43" s="283"/>
+      <c r="X43" s="283"/>
+      <c r="Y43" s="283"/>
+      <c r="Z43" s="283"/>
+      <c r="AA43" s="283"/>
+      <c r="AB43" s="283"/>
+      <c r="AC43" s="283"/>
       <c r="AD43" s="96"/>
       <c r="AE43" s="96"/>
       <c r="AF43" s="96"/>
@@ -7653,39 +7653,39 @@
       <c r="D44" s="98">
         <v>1</v>
       </c>
-      <c r="E44" s="376" t="s">
+      <c r="E44" s="284" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="376"/>
-      <c r="G44" s="376"/>
-      <c r="H44" s="376"/>
-      <c r="I44" s="376"/>
-      <c r="J44" s="376"/>
-      <c r="K44" s="376"/>
-      <c r="L44" s="376"/>
-      <c r="M44" s="376"/>
-      <c r="N44" s="376" t="s">
+      <c r="F44" s="284"/>
+      <c r="G44" s="284"/>
+      <c r="H44" s="284"/>
+      <c r="I44" s="284"/>
+      <c r="J44" s="284"/>
+      <c r="K44" s="284"/>
+      <c r="L44" s="284"/>
+      <c r="M44" s="284"/>
+      <c r="N44" s="284" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="376"/>
-      <c r="P44" s="376"/>
-      <c r="Q44" s="333" t="s">
+      <c r="O44" s="284"/>
+      <c r="P44" s="284"/>
+      <c r="Q44" s="316" t="s">
         <v>39</v>
       </c>
-      <c r="R44" s="333"/>
-      <c r="S44" s="333"/>
-      <c r="T44" s="333"/>
-      <c r="U44" s="333"/>
-      <c r="V44" s="333" t="s">
+      <c r="R44" s="316"/>
+      <c r="S44" s="316"/>
+      <c r="T44" s="316"/>
+      <c r="U44" s="316"/>
+      <c r="V44" s="316" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="333"/>
-      <c r="X44" s="333"/>
-      <c r="Y44" s="333"/>
-      <c r="Z44" s="333"/>
-      <c r="AA44" s="333"/>
-      <c r="AB44" s="333"/>
-      <c r="AC44" s="333"/>
+      <c r="W44" s="316"/>
+      <c r="X44" s="316"/>
+      <c r="Y44" s="316"/>
+      <c r="Z44" s="316"/>
+      <c r="AA44" s="316"/>
+      <c r="AB44" s="316"/>
+      <c r="AC44" s="316"/>
       <c r="AM44" s="40"/>
     </row>
     <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7762,36 +7762,36 @@
       <c r="AZ48" s="49"/>
     </row>
     <row r="49" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="290" t="s">
+      <c r="D49" s="332" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="364" t="s">
+      <c r="E49" s="307" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="365"/>
-      <c r="G49" s="365"/>
-      <c r="H49" s="365"/>
-      <c r="I49" s="365"/>
-      <c r="J49" s="365"/>
-      <c r="K49" s="365"/>
-      <c r="L49" s="365"/>
-      <c r="M49" s="365"/>
-      <c r="N49" s="365"/>
-      <c r="O49" s="365"/>
-      <c r="P49" s="365"/>
-      <c r="Q49" s="365"/>
-      <c r="R49" s="365"/>
-      <c r="S49" s="365"/>
-      <c r="T49" s="365"/>
-      <c r="U49" s="365"/>
-      <c r="V49" s="365"/>
-      <c r="W49" s="365"/>
-      <c r="X49" s="365"/>
-      <c r="Y49" s="365"/>
-      <c r="Z49" s="365"/>
-      <c r="AA49" s="365"/>
-      <c r="AB49" s="365"/>
-      <c r="AC49" s="366"/>
+      <c r="F49" s="308"/>
+      <c r="G49" s="308"/>
+      <c r="H49" s="308"/>
+      <c r="I49" s="308"/>
+      <c r="J49" s="308"/>
+      <c r="K49" s="308"/>
+      <c r="L49" s="308"/>
+      <c r="M49" s="308"/>
+      <c r="N49" s="308"/>
+      <c r="O49" s="308"/>
+      <c r="P49" s="308"/>
+      <c r="Q49" s="308"/>
+      <c r="R49" s="308"/>
+      <c r="S49" s="308"/>
+      <c r="T49" s="308"/>
+      <c r="U49" s="308"/>
+      <c r="V49" s="308"/>
+      <c r="W49" s="308"/>
+      <c r="X49" s="308"/>
+      <c r="Y49" s="308"/>
+      <c r="Z49" s="308"/>
+      <c r="AA49" s="308"/>
+      <c r="AB49" s="308"/>
+      <c r="AC49" s="309"/>
       <c r="AD49" s="266" t="s">
         <v>59</v>
       </c>
@@ -7809,29 +7809,29 @@
       <c r="AN49" s="49"/>
     </row>
     <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="334"/>
+      <c r="D50" s="333"/>
       <c r="E50" s="266" t="s">
         <v>61</v>
       </c>
       <c r="F50" s="267"/>
       <c r="G50" s="267"/>
       <c r="H50" s="268"/>
-      <c r="I50" s="335" t="s">
+      <c r="I50" s="301" t="s">
         <v>62</v>
       </c>
-      <c r="J50" s="336"/>
-      <c r="K50" s="336"/>
-      <c r="L50" s="337"/>
-      <c r="M50" s="335" t="s">
+      <c r="J50" s="302"/>
+      <c r="K50" s="302"/>
+      <c r="L50" s="303"/>
+      <c r="M50" s="301" t="s">
         <v>63</v>
       </c>
-      <c r="N50" s="336"/>
-      <c r="O50" s="336"/>
-      <c r="P50" s="336"/>
-      <c r="Q50" s="336"/>
-      <c r="R50" s="336"/>
-      <c r="S50" s="336"/>
-      <c r="T50" s="337"/>
+      <c r="N50" s="302"/>
+      <c r="O50" s="302"/>
+      <c r="P50" s="302"/>
+      <c r="Q50" s="302"/>
+      <c r="R50" s="302"/>
+      <c r="S50" s="302"/>
+      <c r="T50" s="303"/>
       <c r="U50" s="266" t="s">
         <v>64</v>
       </c>
@@ -7844,8 +7844,8 @@
       </c>
       <c r="AA50" s="267"/>
       <c r="AB50" s="268"/>
-      <c r="AC50" s="382" t="s">
-        <v>168</v>
+      <c r="AC50" s="310" t="s">
+        <v>167</v>
       </c>
       <c r="AD50" s="269"/>
       <c r="AE50" s="270"/>
@@ -7866,23 +7866,23 @@
       <c r="AT50" s="49"/>
     </row>
     <row r="51" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="291"/>
+      <c r="D51" s="334"/>
       <c r="E51" s="272"/>
       <c r="F51" s="273"/>
       <c r="G51" s="273"/>
       <c r="H51" s="274"/>
-      <c r="I51" s="338"/>
-      <c r="J51" s="339"/>
-      <c r="K51" s="339"/>
-      <c r="L51" s="340"/>
-      <c r="M51" s="338"/>
-      <c r="N51" s="339"/>
-      <c r="O51" s="339"/>
-      <c r="P51" s="339"/>
-      <c r="Q51" s="339"/>
-      <c r="R51" s="339"/>
-      <c r="S51" s="339"/>
-      <c r="T51" s="340"/>
+      <c r="I51" s="304"/>
+      <c r="J51" s="305"/>
+      <c r="K51" s="305"/>
+      <c r="L51" s="306"/>
+      <c r="M51" s="304"/>
+      <c r="N51" s="305"/>
+      <c r="O51" s="305"/>
+      <c r="P51" s="305"/>
+      <c r="Q51" s="305"/>
+      <c r="R51" s="305"/>
+      <c r="S51" s="305"/>
+      <c r="T51" s="306"/>
       <c r="U51" s="272"/>
       <c r="V51" s="273"/>
       <c r="W51" s="273"/>
@@ -7891,7 +7891,7 @@
       <c r="Z51" s="272"/>
       <c r="AA51" s="273"/>
       <c r="AB51" s="274"/>
-      <c r="AC51" s="383"/>
+      <c r="AC51" s="311"/>
       <c r="AD51" s="272"/>
       <c r="AE51" s="273"/>
       <c r="AF51" s="273"/>
@@ -7921,50 +7921,50 @@
       </c>
       <c r="F52" s="279"/>
       <c r="G52" s="279"/>
-      <c r="H52" s="367"/>
-      <c r="I52" s="368" t="s">
+      <c r="H52" s="300"/>
+      <c r="I52" s="299" t="s">
         <v>68</v>
       </c>
-      <c r="J52" s="368"/>
-      <c r="K52" s="368"/>
-      <c r="L52" s="368"/>
-      <c r="M52" s="381" t="s">
+      <c r="J52" s="299"/>
+      <c r="K52" s="299"/>
+      <c r="L52" s="299"/>
+      <c r="M52" s="315" t="s">
         <v>39</v>
       </c>
-      <c r="N52" s="381"/>
-      <c r="O52" s="381"/>
-      <c r="P52" s="381"/>
-      <c r="Q52" s="381"/>
-      <c r="R52" s="381"/>
-      <c r="S52" s="381"/>
-      <c r="T52" s="381"/>
-      <c r="U52" s="357" t="s">
+      <c r="N52" s="315"/>
+      <c r="O52" s="315"/>
+      <c r="P52" s="315"/>
+      <c r="Q52" s="315"/>
+      <c r="R52" s="315"/>
+      <c r="S52" s="315"/>
+      <c r="T52" s="315"/>
+      <c r="U52" s="295" t="s">
         <v>39</v>
       </c>
-      <c r="V52" s="357"/>
-      <c r="W52" s="357"/>
-      <c r="X52" s="357"/>
-      <c r="Y52" s="357"/>
-      <c r="Z52" s="357" t="s">
+      <c r="V52" s="295"/>
+      <c r="W52" s="295"/>
+      <c r="X52" s="295"/>
+      <c r="Y52" s="295"/>
+      <c r="Z52" s="295" t="s">
         <v>39</v>
       </c>
-      <c r="AA52" s="357"/>
-      <c r="AB52" s="357"/>
+      <c r="AA52" s="295"/>
+      <c r="AB52" s="295"/>
       <c r="AC52" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD52" s="351" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD52" s="296" t="s">
         <v>67</v>
       </c>
-      <c r="AE52" s="288"/>
-      <c r="AF52" s="288"/>
-      <c r="AG52" s="289"/>
+      <c r="AE52" s="297"/>
+      <c r="AF52" s="297"/>
+      <c r="AG52" s="298"/>
       <c r="AH52" s="49"/>
       <c r="AI52" s="49"/>
       <c r="AJ52" s="49"/>
       <c r="AK52" s="49"/>
       <c r="AL52" s="91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AM52" s="92"/>
       <c r="AN52" s="92"/>
@@ -7980,54 +7980,54 @@
         <v>2</v>
       </c>
       <c r="E53" s="278" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F53" s="279"/>
       <c r="G53" s="279"/>
-      <c r="H53" s="367"/>
-      <c r="I53" s="368" t="s">
+      <c r="H53" s="300"/>
+      <c r="I53" s="299" t="s">
+        <v>71</v>
+      </c>
+      <c r="J53" s="299"/>
+      <c r="K53" s="299"/>
+      <c r="L53" s="299"/>
+      <c r="M53" s="312" t="s">
+        <v>39</v>
+      </c>
+      <c r="N53" s="313"/>
+      <c r="O53" s="313"/>
+      <c r="P53" s="313"/>
+      <c r="Q53" s="313"/>
+      <c r="R53" s="313"/>
+      <c r="S53" s="313"/>
+      <c r="T53" s="314"/>
+      <c r="U53" s="296" t="s">
         <v>72</v>
       </c>
-      <c r="J53" s="368"/>
-      <c r="K53" s="368"/>
-      <c r="L53" s="368"/>
-      <c r="M53" s="313" t="s">
+      <c r="V53" s="297"/>
+      <c r="W53" s="297"/>
+      <c r="X53" s="297"/>
+      <c r="Y53" s="298"/>
+      <c r="Z53" s="295" t="s">
         <v>39</v>
       </c>
-      <c r="N53" s="314"/>
-      <c r="O53" s="314"/>
-      <c r="P53" s="314"/>
-      <c r="Q53" s="314"/>
-      <c r="R53" s="314"/>
-      <c r="S53" s="314"/>
-      <c r="T53" s="315"/>
-      <c r="U53" s="351" t="s">
+      <c r="AA53" s="295"/>
+      <c r="AB53" s="295"/>
+      <c r="AC53" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD53" s="296" t="s">
         <v>73</v>
       </c>
-      <c r="V53" s="288"/>
-      <c r="W53" s="288"/>
-      <c r="X53" s="288"/>
-      <c r="Y53" s="289"/>
-      <c r="Z53" s="357" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA53" s="357"/>
-      <c r="AB53" s="357"/>
-      <c r="AC53" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD53" s="351" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE53" s="288"/>
-      <c r="AF53" s="288"/>
-      <c r="AG53" s="289"/>
+      <c r="AE53" s="297"/>
+      <c r="AF53" s="297"/>
+      <c r="AG53" s="298"/>
       <c r="AH53" s="49"/>
       <c r="AI53" s="49"/>
       <c r="AJ53" s="49"/>
       <c r="AK53" s="49"/>
       <c r="AL53" s="91" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AM53" s="92"/>
       <c r="AN53" s="92"/>
@@ -8146,49 +8146,49 @@
       <c r="AW57" s="42"/>
     </row>
     <row r="58" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D58" s="341" t="s">
+      <c r="D58" s="335" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="343" t="s">
+      <c r="E58" s="287" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="288"/>
+      <c r="G58" s="288"/>
+      <c r="H58" s="288"/>
+      <c r="I58" s="288"/>
+      <c r="J58" s="289"/>
+      <c r="K58" s="287" t="s">
         <v>76</v>
       </c>
-      <c r="F58" s="344"/>
-      <c r="G58" s="344"/>
-      <c r="H58" s="344"/>
-      <c r="I58" s="344"/>
-      <c r="J58" s="345"/>
-      <c r="K58" s="343" t="s">
+      <c r="L58" s="288"/>
+      <c r="M58" s="288"/>
+      <c r="N58" s="289"/>
+      <c r="O58" s="285" t="s">
         <v>77</v>
       </c>
-      <c r="L58" s="344"/>
-      <c r="M58" s="344"/>
-      <c r="N58" s="345"/>
-      <c r="O58" s="377" t="s">
+      <c r="P58" s="110" t="s">
         <v>78</v>
-      </c>
-      <c r="P58" s="110" t="s">
-        <v>79</v>
       </c>
       <c r="Q58" s="111"/>
       <c r="R58" s="111"/>
       <c r="S58" s="111"/>
       <c r="T58" s="111"/>
       <c r="U58" s="111"/>
-      <c r="V58" s="343" t="s">
+      <c r="V58" s="287" t="s">
         <v>57</v>
       </c>
-      <c r="W58" s="344"/>
-      <c r="X58" s="344"/>
-      <c r="Y58" s="344"/>
-      <c r="Z58" s="344"/>
-      <c r="AA58" s="344"/>
-      <c r="AB58" s="344"/>
-      <c r="AC58" s="344"/>
-      <c r="AD58" s="344"/>
-      <c r="AE58" s="344"/>
-      <c r="AF58" s="344"/>
-      <c r="AG58" s="344"/>
-      <c r="AH58" s="345"/>
+      <c r="W58" s="288"/>
+      <c r="X58" s="288"/>
+      <c r="Y58" s="288"/>
+      <c r="Z58" s="288"/>
+      <c r="AA58" s="288"/>
+      <c r="AB58" s="288"/>
+      <c r="AC58" s="288"/>
+      <c r="AD58" s="288"/>
+      <c r="AE58" s="288"/>
+      <c r="AF58" s="288"/>
+      <c r="AG58" s="288"/>
+      <c r="AH58" s="289"/>
       <c r="AK58" s="42"/>
       <c r="AL58" s="42"/>
       <c r="AM58" s="42"/>
@@ -8204,47 +8204,47 @@
       <c r="AW58" s="42"/>
     </row>
     <row r="59" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D59" s="342"/>
-      <c r="E59" s="346"/>
-      <c r="F59" s="347"/>
-      <c r="G59" s="347"/>
-      <c r="H59" s="347"/>
-      <c r="I59" s="347"/>
-      <c r="J59" s="348"/>
-      <c r="K59" s="346"/>
-      <c r="L59" s="347"/>
-      <c r="M59" s="347"/>
-      <c r="N59" s="348"/>
-      <c r="O59" s="378"/>
+      <c r="D59" s="336"/>
+      <c r="E59" s="290"/>
+      <c r="F59" s="291"/>
+      <c r="G59" s="291"/>
+      <c r="H59" s="291"/>
+      <c r="I59" s="291"/>
+      <c r="J59" s="292"/>
+      <c r="K59" s="290"/>
+      <c r="L59" s="291"/>
+      <c r="M59" s="291"/>
+      <c r="N59" s="292"/>
+      <c r="O59" s="286"/>
       <c r="P59" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q59" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="Q59" s="112" t="s">
+      <c r="R59" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="R59" s="112" t="s">
+      <c r="S59" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="S59" s="112" t="s">
+      <c r="T59" s="293" t="s">
         <v>83</v>
       </c>
-      <c r="T59" s="379" t="s">
-        <v>84</v>
-      </c>
-      <c r="U59" s="380"/>
-      <c r="V59" s="346"/>
-      <c r="W59" s="347"/>
-      <c r="X59" s="347"/>
-      <c r="Y59" s="347"/>
-      <c r="Z59" s="347"/>
-      <c r="AA59" s="347"/>
-      <c r="AB59" s="347"/>
-      <c r="AC59" s="347"/>
-      <c r="AD59" s="347"/>
-      <c r="AE59" s="347"/>
-      <c r="AF59" s="347"/>
-      <c r="AG59" s="347"/>
-      <c r="AH59" s="348"/>
+      <c r="U59" s="294"/>
+      <c r="V59" s="290"/>
+      <c r="W59" s="291"/>
+      <c r="X59" s="291"/>
+      <c r="Y59" s="291"/>
+      <c r="Z59" s="291"/>
+      <c r="AA59" s="291"/>
+      <c r="AB59" s="291"/>
+      <c r="AC59" s="291"/>
+      <c r="AD59" s="291"/>
+      <c r="AE59" s="291"/>
+      <c r="AF59" s="291"/>
+      <c r="AG59" s="291"/>
+      <c r="AH59" s="292"/>
       <c r="AK59" s="42"/>
       <c r="AL59" s="42"/>
       <c r="AM59" s="42"/>
@@ -8263,54 +8263,54 @@
       <c r="D60" s="113">
         <v>1</v>
       </c>
-      <c r="E60" s="304" t="s">
+      <c r="E60" s="341" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" s="342"/>
+      <c r="G60" s="342"/>
+      <c r="H60" s="342"/>
+      <c r="I60" s="342"/>
+      <c r="J60" s="343"/>
+      <c r="K60" s="296" t="s">
         <v>85</v>
       </c>
-      <c r="F60" s="305"/>
-      <c r="G60" s="305"/>
-      <c r="H60" s="305"/>
-      <c r="I60" s="305"/>
-      <c r="J60" s="306"/>
-      <c r="K60" s="351" t="s">
+      <c r="L60" s="297"/>
+      <c r="M60" s="297"/>
+      <c r="N60" s="298"/>
+      <c r="O60" s="114" t="s">
         <v>86</v>
-      </c>
-      <c r="L60" s="288"/>
-      <c r="M60" s="288"/>
-      <c r="N60" s="289"/>
-      <c r="O60" s="114" t="s">
-        <v>87</v>
       </c>
       <c r="P60" s="115" t="s">
         <v>39</v>
       </c>
       <c r="Q60" s="115" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="R60" s="115" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="S60" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="T60" s="352" t="s">
+      <c r="T60" s="344" t="s">
         <v>39</v>
       </c>
-      <c r="U60" s="353"/>
-      <c r="V60" s="351" t="s">
+      <c r="U60" s="345"/>
+      <c r="V60" s="296" t="s">
         <v>39</v>
       </c>
-      <c r="W60" s="288"/>
-      <c r="X60" s="288"/>
-      <c r="Y60" s="288"/>
-      <c r="Z60" s="288"/>
-      <c r="AA60" s="288"/>
-      <c r="AB60" s="288"/>
-      <c r="AC60" s="288"/>
-      <c r="AD60" s="288"/>
-      <c r="AE60" s="288"/>
-      <c r="AF60" s="288"/>
-      <c r="AG60" s="288"/>
-      <c r="AH60" s="289"/>
+      <c r="W60" s="297"/>
+      <c r="X60" s="297"/>
+      <c r="Y60" s="297"/>
+      <c r="Z60" s="297"/>
+      <c r="AA60" s="297"/>
+      <c r="AB60" s="297"/>
+      <c r="AC60" s="297"/>
+      <c r="AD60" s="297"/>
+      <c r="AE60" s="297"/>
+      <c r="AF60" s="297"/>
+      <c r="AG60" s="297"/>
+      <c r="AH60" s="298"/>
       <c r="AK60" s="42"/>
       <c r="AL60" s="42"/>
       <c r="AM60" s="42"/>
@@ -8436,136 +8436,136 @@
       <c r="D65" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="E65" s="349" t="s">
+      <c r="E65" s="337" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" s="338"/>
+      <c r="G65" s="338"/>
+      <c r="H65" s="338"/>
+      <c r="I65" s="338"/>
+      <c r="J65" s="339"/>
+      <c r="K65" s="337" t="s">
         <v>88</v>
       </c>
-      <c r="F65" s="316"/>
-      <c r="G65" s="316"/>
-      <c r="H65" s="316"/>
-      <c r="I65" s="316"/>
-      <c r="J65" s="350"/>
-      <c r="K65" s="349" t="s">
+      <c r="L65" s="338"/>
+      <c r="M65" s="338"/>
+      <c r="N65" s="338"/>
+      <c r="O65" s="338"/>
+      <c r="P65" s="338"/>
+      <c r="Q65" s="340"/>
+      <c r="R65" s="275" t="s">
         <v>89</v>
       </c>
-      <c r="L65" s="316"/>
-      <c r="M65" s="316"/>
-      <c r="N65" s="316"/>
-      <c r="O65" s="316"/>
-      <c r="P65" s="316"/>
-      <c r="Q65" s="317"/>
-      <c r="R65" s="275" t="s">
+      <c r="S65" s="338"/>
+      <c r="T65" s="338"/>
+      <c r="U65" s="338"/>
+      <c r="V65" s="338"/>
+      <c r="W65" s="338"/>
+      <c r="X65" s="338"/>
+      <c r="Y65" s="340"/>
+      <c r="Z65" s="307" t="s">
         <v>90</v>
       </c>
-      <c r="S65" s="316"/>
-      <c r="T65" s="316"/>
-      <c r="U65" s="316"/>
-      <c r="V65" s="316"/>
-      <c r="W65" s="316"/>
-      <c r="X65" s="316"/>
-      <c r="Y65" s="317"/>
-      <c r="Z65" s="364" t="s">
+      <c r="AA65" s="308"/>
+      <c r="AB65" s="308"/>
+      <c r="AC65" s="308"/>
+      <c r="AD65" s="309"/>
+      <c r="AE65" s="326" t="s">
         <v>91</v>
       </c>
-      <c r="AA65" s="365"/>
-      <c r="AB65" s="365"/>
-      <c r="AC65" s="365"/>
-      <c r="AD65" s="366"/>
-      <c r="AE65" s="361" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF65" s="362"/>
-      <c r="AG65" s="362"/>
-      <c r="AH65" s="363"/>
+      <c r="AF65" s="327"/>
+      <c r="AG65" s="327"/>
+      <c r="AH65" s="328"/>
     </row>
     <row r="66" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D66" s="121">
         <v>1</v>
       </c>
-      <c r="E66" s="354" t="s">
+      <c r="E66" s="329" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" s="330"/>
+      <c r="G66" s="330"/>
+      <c r="H66" s="330"/>
+      <c r="I66" s="330"/>
+      <c r="J66" s="331"/>
+      <c r="K66" s="296" t="s">
+        <v>39</v>
+      </c>
+      <c r="L66" s="297"/>
+      <c r="M66" s="297"/>
+      <c r="N66" s="297"/>
+      <c r="O66" s="297"/>
+      <c r="P66" s="297"/>
+      <c r="Q66" s="298"/>
+      <c r="R66" s="296" t="s">
         <v>93</v>
       </c>
-      <c r="F66" s="355"/>
-      <c r="G66" s="355"/>
-      <c r="H66" s="355"/>
-      <c r="I66" s="355"/>
-      <c r="J66" s="356"/>
-      <c r="K66" s="351" t="s">
+      <c r="S66" s="297"/>
+      <c r="T66" s="297"/>
+      <c r="U66" s="297"/>
+      <c r="V66" s="297"/>
+      <c r="W66" s="297"/>
+      <c r="X66" s="297"/>
+      <c r="Y66" s="298"/>
+      <c r="Z66" s="296" t="s">
         <v>39</v>
       </c>
-      <c r="L66" s="288"/>
-      <c r="M66" s="288"/>
-      <c r="N66" s="288"/>
-      <c r="O66" s="288"/>
-      <c r="P66" s="288"/>
-      <c r="Q66" s="289"/>
-      <c r="R66" s="351" t="s">
+      <c r="AA66" s="297"/>
+      <c r="AB66" s="297"/>
+      <c r="AC66" s="297"/>
+      <c r="AD66" s="298"/>
+      <c r="AE66" s="323" t="s">
         <v>94</v>
       </c>
-      <c r="S66" s="288"/>
-      <c r="T66" s="288"/>
-      <c r="U66" s="288"/>
-      <c r="V66" s="288"/>
-      <c r="W66" s="288"/>
-      <c r="X66" s="288"/>
-      <c r="Y66" s="289"/>
-      <c r="Z66" s="351" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA66" s="288"/>
-      <c r="AB66" s="288"/>
-      <c r="AC66" s="288"/>
-      <c r="AD66" s="289"/>
-      <c r="AE66" s="358" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF66" s="359"/>
-      <c r="AG66" s="359"/>
-      <c r="AH66" s="360"/>
+      <c r="AF66" s="324"/>
+      <c r="AG66" s="324"/>
+      <c r="AH66" s="325"/>
     </row>
     <row r="67" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D67" s="121">
         <v>2</v>
       </c>
-      <c r="E67" s="354" t="s">
+      <c r="E67" s="329" t="s">
         <v>50</v>
       </c>
-      <c r="F67" s="355"/>
-      <c r="G67" s="355"/>
-      <c r="H67" s="355"/>
-      <c r="I67" s="355"/>
-      <c r="J67" s="356"/>
-      <c r="K67" s="351" t="s">
+      <c r="F67" s="330"/>
+      <c r="G67" s="330"/>
+      <c r="H67" s="330"/>
+      <c r="I67" s="330"/>
+      <c r="J67" s="331"/>
+      <c r="K67" s="296" t="s">
+        <v>95</v>
+      </c>
+      <c r="L67" s="297"/>
+      <c r="M67" s="297"/>
+      <c r="N67" s="297"/>
+      <c r="O67" s="297"/>
+      <c r="P67" s="297"/>
+      <c r="Q67" s="298"/>
+      <c r="R67" s="296" t="s">
         <v>96</v>
       </c>
-      <c r="L67" s="288"/>
-      <c r="M67" s="288"/>
-      <c r="N67" s="288"/>
-      <c r="O67" s="288"/>
-      <c r="P67" s="288"/>
-      <c r="Q67" s="289"/>
-      <c r="R67" s="351" t="s">
+      <c r="S67" s="297"/>
+      <c r="T67" s="297"/>
+      <c r="U67" s="297"/>
+      <c r="V67" s="297"/>
+      <c r="W67" s="297"/>
+      <c r="X67" s="297"/>
+      <c r="Y67" s="298"/>
+      <c r="Z67" s="296" t="s">
         <v>97</v>
       </c>
-      <c r="S67" s="288"/>
-      <c r="T67" s="288"/>
-      <c r="U67" s="288"/>
-      <c r="V67" s="288"/>
-      <c r="W67" s="288"/>
-      <c r="X67" s="288"/>
-      <c r="Y67" s="289"/>
-      <c r="Z67" s="351" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA67" s="288"/>
-      <c r="AB67" s="288"/>
-      <c r="AC67" s="288"/>
-      <c r="AD67" s="289"/>
-      <c r="AE67" s="358" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF67" s="359"/>
-      <c r="AG67" s="359"/>
-      <c r="AH67" s="360"/>
+      <c r="AA67" s="297"/>
+      <c r="AB67" s="297"/>
+      <c r="AC67" s="297"/>
+      <c r="AD67" s="298"/>
+      <c r="AE67" s="323" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF67" s="324"/>
+      <c r="AG67" s="324"/>
+      <c r="AH67" s="325"/>
     </row>
     <row r="68" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D68" s="122"/>
@@ -8684,7 +8684,7 @@
     <row r="71" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="42"/>
       <c r="D71" s="124" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E71" s="124"/>
       <c r="AP71" s="42"/>
@@ -8727,7 +8727,7 @@
       <c r="C73" s="38"/>
       <c r="D73" s="124"/>
       <c r="E73" s="124" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP73" s="38"/>
     </row>
@@ -8742,7 +8742,7 @@
       <c r="D75" s="124"/>
       <c r="E75" s="124"/>
       <c r="F75" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP75" s="42"/>
     </row>
@@ -8810,7 +8810,7 @@
     </row>
     <row r="78" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E78" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G78" s="44"/>
       <c r="AJ78" s="128"/>
@@ -8866,7 +8866,7 @@
     <row r="80" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E80" s="66"/>
       <c r="F80" s="66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ80" s="128"/>
       <c r="AK80" s="128"/>
@@ -8949,7 +8949,7 @@
     <row r="83" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="42"/>
       <c r="D83" s="124" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E83" s="124"/>
       <c r="AP83" s="42"/>
@@ -8992,7 +8992,7 @@
       <c r="C85" s="38"/>
       <c r="D85" s="124"/>
       <c r="E85" s="124" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP85" s="38"/>
     </row>
@@ -9009,42 +9009,42 @@
         <v>30</v>
       </c>
       <c r="G87" s="275" t="s">
+        <v>103</v>
+      </c>
+      <c r="H87" s="338"/>
+      <c r="I87" s="338"/>
+      <c r="J87" s="338"/>
+      <c r="K87" s="338"/>
+      <c r="L87" s="340"/>
+      <c r="M87" s="275" t="s">
         <v>104</v>
       </c>
-      <c r="H87" s="316"/>
-      <c r="I87" s="316"/>
-      <c r="J87" s="316"/>
-      <c r="K87" s="316"/>
-      <c r="L87" s="317"/>
-      <c r="M87" s="275" t="s">
+      <c r="N87" s="338"/>
+      <c r="O87" s="338"/>
+      <c r="P87" s="338"/>
+      <c r="Q87" s="338"/>
+      <c r="R87" s="338"/>
+      <c r="S87" s="338"/>
+      <c r="T87" s="338"/>
+      <c r="U87" s="338"/>
+      <c r="V87" s="340"/>
+      <c r="W87" s="376" t="s">
         <v>105</v>
       </c>
-      <c r="N87" s="316"/>
-      <c r="O87" s="316"/>
-      <c r="P87" s="316"/>
-      <c r="Q87" s="316"/>
-      <c r="R87" s="316"/>
-      <c r="S87" s="316"/>
-      <c r="T87" s="316"/>
-      <c r="U87" s="316"/>
-      <c r="V87" s="317"/>
-      <c r="W87" s="327" t="s">
+      <c r="X87" s="377"/>
+      <c r="Y87" s="378"/>
+      <c r="Z87" s="367" t="s">
         <v>106</v>
       </c>
-      <c r="X87" s="328"/>
-      <c r="Y87" s="329"/>
-      <c r="Z87" s="384" t="s">
+      <c r="AA87" s="368"/>
+      <c r="AB87" s="368"/>
+      <c r="AC87" s="369"/>
+      <c r="AD87" s="355" t="s">
         <v>107</v>
       </c>
-      <c r="AA87" s="385"/>
-      <c r="AB87" s="385"/>
-      <c r="AC87" s="386"/>
-      <c r="AD87" s="310" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE87" s="311"/>
-      <c r="AF87" s="311"/>
-      <c r="AG87" s="312"/>
+      <c r="AE87" s="356"/>
+      <c r="AF87" s="356"/>
+      <c r="AG87" s="357"/>
       <c r="AJ87" s="127"/>
       <c r="AK87" s="127"/>
       <c r="AL87" s="127"/>
@@ -9074,43 +9074,43 @@
       <c r="F88" s="131">
         <v>1</v>
       </c>
-      <c r="G88" s="313" t="s">
+      <c r="G88" s="312" t="s">
+        <v>108</v>
+      </c>
+      <c r="H88" s="313"/>
+      <c r="I88" s="313"/>
+      <c r="J88" s="313"/>
+      <c r="K88" s="313"/>
+      <c r="L88" s="314"/>
+      <c r="M88" s="312" t="s">
         <v>109</v>
       </c>
-      <c r="H88" s="314"/>
-      <c r="I88" s="314"/>
-      <c r="J88" s="314"/>
-      <c r="K88" s="314"/>
-      <c r="L88" s="315"/>
-      <c r="M88" s="313" t="s">
+      <c r="N88" s="313"/>
+      <c r="O88" s="313"/>
+      <c r="P88" s="313"/>
+      <c r="Q88" s="313"/>
+      <c r="R88" s="313"/>
+      <c r="S88" s="313"/>
+      <c r="T88" s="313"/>
+      <c r="U88" s="313"/>
+      <c r="V88" s="314"/>
+      <c r="W88" s="358" t="s">
         <v>110</v>
       </c>
-      <c r="N88" s="314"/>
-      <c r="O88" s="314"/>
-      <c r="P88" s="314"/>
-      <c r="Q88" s="314"/>
-      <c r="R88" s="314"/>
-      <c r="S88" s="314"/>
-      <c r="T88" s="314"/>
-      <c r="U88" s="314"/>
-      <c r="V88" s="315"/>
-      <c r="W88" s="318" t="s">
+      <c r="X88" s="359"/>
+      <c r="Y88" s="360"/>
+      <c r="Z88" s="364" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA88" s="365"/>
+      <c r="AB88" s="365"/>
+      <c r="AC88" s="366"/>
+      <c r="AD88" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="X88" s="319"/>
-      <c r="Y88" s="320"/>
-      <c r="Z88" s="324" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA88" s="325"/>
-      <c r="AB88" s="325"/>
-      <c r="AC88" s="326"/>
-      <c r="AD88" s="313" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE88" s="314"/>
-      <c r="AF88" s="314"/>
-      <c r="AG88" s="315"/>
+      <c r="AE88" s="313"/>
+      <c r="AF88" s="313"/>
+      <c r="AG88" s="314"/>
       <c r="AI88" s="127"/>
       <c r="AJ88" s="127"/>
       <c r="AK88" s="127"/>
@@ -9195,7 +9195,7 @@
       <c r="D90" s="38"/>
       <c r="E90" s="124"/>
       <c r="F90" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -9248,81 +9248,81 @@
     </row>
     <row r="94" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E94" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F95" s="54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="5:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G97" s="370" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="97" spans="5:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G97" s="295" t="s">
+      <c r="H97" s="371"/>
+      <c r="I97" s="371"/>
+      <c r="J97" s="371"/>
+      <c r="K97" s="371"/>
+      <c r="L97" s="371"/>
+      <c r="M97" s="371"/>
+      <c r="N97" s="371"/>
+      <c r="O97" s="371"/>
+      <c r="P97" s="372"/>
+      <c r="Q97" s="373" t="s">
         <v>116</v>
       </c>
-      <c r="H97" s="296"/>
-      <c r="I97" s="296"/>
-      <c r="J97" s="296"/>
-      <c r="K97" s="296"/>
-      <c r="L97" s="296"/>
-      <c r="M97" s="296"/>
-      <c r="N97" s="296"/>
-      <c r="O97" s="296"/>
-      <c r="P97" s="297"/>
-      <c r="Q97" s="330" t="s">
-        <v>117</v>
-      </c>
-      <c r="R97" s="331"/>
-      <c r="S97" s="331"/>
-      <c r="T97" s="331"/>
-      <c r="U97" s="331"/>
-      <c r="V97" s="331"/>
-      <c r="W97" s="331"/>
-      <c r="X97" s="331"/>
-      <c r="Y97" s="331"/>
-      <c r="Z97" s="332"/>
+      <c r="R97" s="374"/>
+      <c r="S97" s="374"/>
+      <c r="T97" s="374"/>
+      <c r="U97" s="374"/>
+      <c r="V97" s="374"/>
+      <c r="W97" s="374"/>
+      <c r="X97" s="374"/>
+      <c r="Y97" s="374"/>
+      <c r="Z97" s="375"/>
     </row>
     <row r="98" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G98" s="298" t="s">
+      <c r="G98" s="346" t="s">
+        <v>171</v>
+      </c>
+      <c r="H98" s="347"/>
+      <c r="I98" s="347"/>
+      <c r="J98" s="347"/>
+      <c r="K98" s="347"/>
+      <c r="L98" s="347"/>
+      <c r="M98" s="347"/>
+      <c r="N98" s="347"/>
+      <c r="O98" s="347"/>
+      <c r="P98" s="348"/>
+      <c r="Q98" s="341" t="s">
         <v>172</v>
       </c>
-      <c r="H98" s="299"/>
-      <c r="I98" s="299"/>
-      <c r="J98" s="299"/>
-      <c r="K98" s="299"/>
-      <c r="L98" s="299"/>
-      <c r="M98" s="299"/>
-      <c r="N98" s="299"/>
-      <c r="O98" s="299"/>
-      <c r="P98" s="300"/>
-      <c r="Q98" s="304" t="s">
-        <v>173</v>
-      </c>
-      <c r="R98" s="305"/>
-      <c r="S98" s="305"/>
-      <c r="T98" s="305"/>
-      <c r="U98" s="305"/>
-      <c r="V98" s="305"/>
-      <c r="W98" s="305"/>
-      <c r="X98" s="305"/>
-      <c r="Y98" s="305"/>
-      <c r="Z98" s="306"/>
+      <c r="R98" s="342"/>
+      <c r="S98" s="342"/>
+      <c r="T98" s="342"/>
+      <c r="U98" s="342"/>
+      <c r="V98" s="342"/>
+      <c r="W98" s="342"/>
+      <c r="X98" s="342"/>
+      <c r="Y98" s="342"/>
+      <c r="Z98" s="343"/>
       <c r="AG98" s="132"/>
       <c r="AH98" s="132"/>
     </row>
     <row r="99" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G99" s="301"/>
-      <c r="H99" s="302"/>
-      <c r="I99" s="302"/>
-      <c r="J99" s="302"/>
-      <c r="K99" s="302"/>
-      <c r="L99" s="302"/>
-      <c r="M99" s="302"/>
-      <c r="N99" s="302"/>
-      <c r="O99" s="302"/>
-      <c r="P99" s="303"/>
+      <c r="G99" s="349"/>
+      <c r="H99" s="350"/>
+      <c r="I99" s="350"/>
+      <c r="J99" s="350"/>
+      <c r="K99" s="350"/>
+      <c r="L99" s="350"/>
+      <c r="M99" s="350"/>
+      <c r="N99" s="350"/>
+      <c r="O99" s="350"/>
+      <c r="P99" s="351"/>
       <c r="Q99" s="133" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R99" s="134"/>
       <c r="S99" s="134"/>
@@ -9337,18 +9337,18 @@
       <c r="AH99" s="132"/>
     </row>
     <row r="100" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G100" s="301"/>
-      <c r="H100" s="302"/>
-      <c r="I100" s="302"/>
-      <c r="J100" s="302"/>
-      <c r="K100" s="302"/>
-      <c r="L100" s="302"/>
-      <c r="M100" s="302"/>
-      <c r="N100" s="302"/>
-      <c r="O100" s="302"/>
-      <c r="P100" s="303"/>
+      <c r="G100" s="349"/>
+      <c r="H100" s="350"/>
+      <c r="I100" s="350"/>
+      <c r="J100" s="350"/>
+      <c r="K100" s="350"/>
+      <c r="L100" s="350"/>
+      <c r="M100" s="350"/>
+      <c r="N100" s="350"/>
+      <c r="O100" s="350"/>
+      <c r="P100" s="351"/>
       <c r="Q100" s="133" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R100" s="134"/>
       <c r="S100" s="134"/>
@@ -9363,18 +9363,18 @@
       <c r="AH100" s="132"/>
     </row>
     <row r="101" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G101" s="301"/>
-      <c r="H101" s="302"/>
-      <c r="I101" s="302"/>
-      <c r="J101" s="302"/>
-      <c r="K101" s="302"/>
-      <c r="L101" s="302"/>
-      <c r="M101" s="302"/>
-      <c r="N101" s="302"/>
-      <c r="O101" s="302"/>
-      <c r="P101" s="303"/>
+      <c r="G101" s="349"/>
+      <c r="H101" s="350"/>
+      <c r="I101" s="350"/>
+      <c r="J101" s="350"/>
+      <c r="K101" s="350"/>
+      <c r="L101" s="350"/>
+      <c r="M101" s="350"/>
+      <c r="N101" s="350"/>
+      <c r="O101" s="350"/>
+      <c r="P101" s="351"/>
       <c r="Q101" s="171" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R101" s="134"/>
       <c r="S101" s="134"/>
@@ -9389,54 +9389,54 @@
       <c r="AH101" s="132"/>
     </row>
     <row r="102" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G102" s="301"/>
-      <c r="H102" s="302"/>
-      <c r="I102" s="302"/>
-      <c r="J102" s="302"/>
-      <c r="K102" s="302"/>
-      <c r="L102" s="302"/>
-      <c r="M102" s="302"/>
-      <c r="N102" s="302"/>
-      <c r="O102" s="302"/>
-      <c r="P102" s="303"/>
-      <c r="Q102" s="304" t="s">
-        <v>177</v>
-      </c>
-      <c r="R102" s="305"/>
-      <c r="S102" s="305"/>
-      <c r="T102" s="305"/>
-      <c r="U102" s="305"/>
-      <c r="V102" s="305"/>
-      <c r="W102" s="305"/>
-      <c r="X102" s="305"/>
-      <c r="Y102" s="305"/>
-      <c r="Z102" s="306"/>
+      <c r="G102" s="349"/>
+      <c r="H102" s="350"/>
+      <c r="I102" s="350"/>
+      <c r="J102" s="350"/>
+      <c r="K102" s="350"/>
+      <c r="L102" s="350"/>
+      <c r="M102" s="350"/>
+      <c r="N102" s="350"/>
+      <c r="O102" s="350"/>
+      <c r="P102" s="351"/>
+      <c r="Q102" s="341" t="s">
+        <v>176</v>
+      </c>
+      <c r="R102" s="342"/>
+      <c r="S102" s="342"/>
+      <c r="T102" s="342"/>
+      <c r="U102" s="342"/>
+      <c r="V102" s="342"/>
+      <c r="W102" s="342"/>
+      <c r="X102" s="342"/>
+      <c r="Y102" s="342"/>
+      <c r="Z102" s="343"/>
       <c r="AG102" s="132"/>
       <c r="AH102" s="132"/>
     </row>
     <row r="103" spans="5:58" x14ac:dyDescent="0.2">
-      <c r="G103" s="301"/>
-      <c r="H103" s="302"/>
-      <c r="I103" s="302"/>
-      <c r="J103" s="302"/>
-      <c r="K103" s="302"/>
-      <c r="L103" s="302"/>
-      <c r="M103" s="302"/>
-      <c r="N103" s="302"/>
-      <c r="O103" s="302"/>
-      <c r="P103" s="303"/>
-      <c r="Q103" s="304" t="s">
-        <v>178</v>
-      </c>
-      <c r="R103" s="305"/>
-      <c r="S103" s="305"/>
-      <c r="T103" s="305"/>
-      <c r="U103" s="305"/>
-      <c r="V103" s="305"/>
-      <c r="W103" s="305"/>
-      <c r="X103" s="305"/>
-      <c r="Y103" s="305"/>
-      <c r="Z103" s="306"/>
+      <c r="G103" s="349"/>
+      <c r="H103" s="350"/>
+      <c r="I103" s="350"/>
+      <c r="J103" s="350"/>
+      <c r="K103" s="350"/>
+      <c r="L103" s="350"/>
+      <c r="M103" s="350"/>
+      <c r="N103" s="350"/>
+      <c r="O103" s="350"/>
+      <c r="P103" s="351"/>
+      <c r="Q103" s="341" t="s">
+        <v>177</v>
+      </c>
+      <c r="R103" s="342"/>
+      <c r="S103" s="342"/>
+      <c r="T103" s="342"/>
+      <c r="U103" s="342"/>
+      <c r="V103" s="342"/>
+      <c r="W103" s="342"/>
+      <c r="X103" s="342"/>
+      <c r="Y103" s="342"/>
+      <c r="Z103" s="343"/>
       <c r="AC103" s="128"/>
       <c r="AD103" s="128"/>
       <c r="AE103" s="128"/>
@@ -9455,30 +9455,30 @@
       <c r="AY103" s="128"/>
     </row>
     <row r="104" spans="5:58" x14ac:dyDescent="0.2">
-      <c r="G104" s="298" t="s">
+      <c r="G104" s="346" t="s">
+        <v>178</v>
+      </c>
+      <c r="H104" s="347"/>
+      <c r="I104" s="347"/>
+      <c r="J104" s="347"/>
+      <c r="K104" s="347"/>
+      <c r="L104" s="347"/>
+      <c r="M104" s="347"/>
+      <c r="N104" s="347"/>
+      <c r="O104" s="347"/>
+      <c r="P104" s="348"/>
+      <c r="Q104" s="341" t="s">
         <v>179</v>
       </c>
-      <c r="H104" s="299"/>
-      <c r="I104" s="299"/>
-      <c r="J104" s="299"/>
-      <c r="K104" s="299"/>
-      <c r="L104" s="299"/>
-      <c r="M104" s="299"/>
-      <c r="N104" s="299"/>
-      <c r="O104" s="299"/>
-      <c r="P104" s="300"/>
-      <c r="Q104" s="304" t="s">
-        <v>180</v>
-      </c>
-      <c r="R104" s="305"/>
-      <c r="S104" s="305"/>
-      <c r="T104" s="305"/>
-      <c r="U104" s="305"/>
-      <c r="V104" s="305"/>
-      <c r="W104" s="305"/>
-      <c r="X104" s="305"/>
-      <c r="Y104" s="305"/>
-      <c r="Z104" s="306"/>
+      <c r="R104" s="342"/>
+      <c r="S104" s="342"/>
+      <c r="T104" s="342"/>
+      <c r="U104" s="342"/>
+      <c r="V104" s="342"/>
+      <c r="W104" s="342"/>
+      <c r="X104" s="342"/>
+      <c r="Y104" s="342"/>
+      <c r="Z104" s="343"/>
       <c r="AC104" s="128"/>
       <c r="AD104" s="128"/>
       <c r="AE104" s="128"/>
@@ -9497,28 +9497,28 @@
       <c r="AY104" s="128"/>
     </row>
     <row r="105" spans="5:58" x14ac:dyDescent="0.2">
-      <c r="G105" s="321"/>
-      <c r="H105" s="322"/>
-      <c r="I105" s="322"/>
-      <c r="J105" s="322"/>
-      <c r="K105" s="322"/>
-      <c r="L105" s="322"/>
-      <c r="M105" s="322"/>
-      <c r="N105" s="322"/>
-      <c r="O105" s="322"/>
-      <c r="P105" s="323"/>
-      <c r="Q105" s="304" t="s">
-        <v>181</v>
-      </c>
-      <c r="R105" s="305"/>
-      <c r="S105" s="305"/>
-      <c r="T105" s="305"/>
-      <c r="U105" s="305"/>
-      <c r="V105" s="305"/>
-      <c r="W105" s="305"/>
-      <c r="X105" s="305"/>
-      <c r="Y105" s="305"/>
-      <c r="Z105" s="306"/>
+      <c r="G105" s="361"/>
+      <c r="H105" s="362"/>
+      <c r="I105" s="362"/>
+      <c r="J105" s="362"/>
+      <c r="K105" s="362"/>
+      <c r="L105" s="362"/>
+      <c r="M105" s="362"/>
+      <c r="N105" s="362"/>
+      <c r="O105" s="362"/>
+      <c r="P105" s="363"/>
+      <c r="Q105" s="341" t="s">
+        <v>180</v>
+      </c>
+      <c r="R105" s="342"/>
+      <c r="S105" s="342"/>
+      <c r="T105" s="342"/>
+      <c r="U105" s="342"/>
+      <c r="V105" s="342"/>
+      <c r="W105" s="342"/>
+      <c r="X105" s="342"/>
+      <c r="Y105" s="342"/>
+      <c r="Z105" s="343"/>
       <c r="AC105" s="128"/>
       <c r="AD105" s="128"/>
       <c r="AE105" s="128"/>
@@ -9537,28 +9537,28 @@
       <c r="AY105" s="128"/>
     </row>
     <row r="106" spans="5:58" x14ac:dyDescent="0.2">
-      <c r="G106" s="307" t="s">
-        <v>119</v>
-      </c>
-      <c r="H106" s="308"/>
-      <c r="I106" s="308"/>
-      <c r="J106" s="308"/>
-      <c r="K106" s="308"/>
-      <c r="L106" s="308"/>
-      <c r="M106" s="308"/>
-      <c r="N106" s="308"/>
-      <c r="O106" s="308"/>
-      <c r="P106" s="308"/>
-      <c r="Q106" s="308"/>
-      <c r="R106" s="308"/>
-      <c r="S106" s="308"/>
-      <c r="T106" s="308"/>
-      <c r="U106" s="308"/>
-      <c r="V106" s="308"/>
-      <c r="W106" s="308"/>
-      <c r="X106" s="308"/>
-      <c r="Y106" s="308"/>
-      <c r="Z106" s="309"/>
+      <c r="G106" s="352" t="s">
+        <v>118</v>
+      </c>
+      <c r="H106" s="353"/>
+      <c r="I106" s="353"/>
+      <c r="J106" s="353"/>
+      <c r="K106" s="353"/>
+      <c r="L106" s="353"/>
+      <c r="M106" s="353"/>
+      <c r="N106" s="353"/>
+      <c r="O106" s="353"/>
+      <c r="P106" s="353"/>
+      <c r="Q106" s="353"/>
+      <c r="R106" s="353"/>
+      <c r="S106" s="353"/>
+      <c r="T106" s="353"/>
+      <c r="U106" s="353"/>
+      <c r="V106" s="353"/>
+      <c r="W106" s="353"/>
+      <c r="X106" s="353"/>
+      <c r="Y106" s="353"/>
+      <c r="Z106" s="354"/>
       <c r="AJ106" s="128"/>
       <c r="AK106" s="128"/>
       <c r="AL106" s="128"/>
@@ -9631,7 +9631,7 @@
     <row r="108" spans="5:58" x14ac:dyDescent="0.2">
       <c r="G108" s="139"/>
       <c r="H108" s="140" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I108" s="140"/>
       <c r="J108" s="140"/>
@@ -9639,10 +9639,10 @@
       <c r="L108" s="141"/>
       <c r="N108" s="140"/>
       <c r="O108" s="141" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q108" s="140" t="s">
         <v>120</v>
-      </c>
-      <c r="Q108" s="140" t="s">
-        <v>121</v>
       </c>
       <c r="R108" s="140"/>
       <c r="S108" s="140"/>
@@ -9794,7 +9794,7 @@
     </row>
     <row r="112" spans="5:58" x14ac:dyDescent="0.2">
       <c r="E112" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G112" s="44"/>
       <c r="AJ112" s="128"/>
@@ -9828,7 +9828,7 @@
     <row r="114" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E114" s="66"/>
       <c r="F114" s="66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AJ114" s="128"/>
       <c r="AK114" s="128"/>
@@ -9858,7 +9858,7 @@
       <c r="E115" s="66"/>
       <c r="F115" s="129"/>
       <c r="G115" s="66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AJ115" s="128"/>
       <c r="AK115" s="128"/>
@@ -9888,7 +9888,7 @@
       <c r="E116" s="66"/>
       <c r="F116" s="129"/>
       <c r="H116" s="73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I116" s="150"/>
       <c r="J116" s="150"/>
@@ -9952,7 +9952,7 @@
     <row r="118" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E118" s="66"/>
       <c r="F118" s="66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AJ118" s="128"/>
       <c r="AK118" s="128"/>
@@ -9981,35 +9981,35 @@
     <row r="119" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E119" s="66"/>
       <c r="F119" s="129"/>
-      <c r="G119" s="283" t="s">
-        <v>127</v>
-      </c>
-      <c r="H119" s="283"/>
-      <c r="I119" s="283"/>
-      <c r="J119" s="283"/>
-      <c r="K119" s="283"/>
-      <c r="L119" s="283"/>
-      <c r="M119" s="283"/>
-      <c r="N119" s="283"/>
-      <c r="O119" s="283"/>
-      <c r="P119" s="283"/>
-      <c r="Q119" s="283"/>
-      <c r="R119" s="283"/>
-      <c r="S119" s="283"/>
-      <c r="T119" s="283"/>
-      <c r="U119" s="283"/>
-      <c r="V119" s="283"/>
-      <c r="W119" s="283"/>
-      <c r="X119" s="283"/>
-      <c r="Y119" s="283"/>
-      <c r="Z119" s="283"/>
-      <c r="AA119" s="283"/>
-      <c r="AB119" s="283"/>
-      <c r="AC119" s="283"/>
-      <c r="AD119" s="283"/>
-      <c r="AE119" s="283"/>
-      <c r="AF119" s="283"/>
-      <c r="AG119" s="283"/>
+      <c r="G119" s="379" t="s">
+        <v>126</v>
+      </c>
+      <c r="H119" s="379"/>
+      <c r="I119" s="379"/>
+      <c r="J119" s="379"/>
+      <c r="K119" s="379"/>
+      <c r="L119" s="379"/>
+      <c r="M119" s="379"/>
+      <c r="N119" s="379"/>
+      <c r="O119" s="379"/>
+      <c r="P119" s="379"/>
+      <c r="Q119" s="379"/>
+      <c r="R119" s="379"/>
+      <c r="S119" s="379"/>
+      <c r="T119" s="379"/>
+      <c r="U119" s="379"/>
+      <c r="V119" s="379"/>
+      <c r="W119" s="379"/>
+      <c r="X119" s="379"/>
+      <c r="Y119" s="379"/>
+      <c r="Z119" s="379"/>
+      <c r="AA119" s="379"/>
+      <c r="AB119" s="379"/>
+      <c r="AC119" s="379"/>
+      <c r="AD119" s="379"/>
+      <c r="AE119" s="379"/>
+      <c r="AF119" s="379"/>
+      <c r="AG119" s="379"/>
       <c r="AJ119" s="128"/>
       <c r="AK119" s="128"/>
       <c r="AL119" s="128"/>
@@ -10037,33 +10037,33 @@
     <row r="120" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E120" s="66"/>
       <c r="F120" s="129"/>
-      <c r="G120" s="283"/>
-      <c r="H120" s="283"/>
-      <c r="I120" s="283"/>
-      <c r="J120" s="283"/>
-      <c r="K120" s="283"/>
-      <c r="L120" s="283"/>
-      <c r="M120" s="283"/>
-      <c r="N120" s="283"/>
-      <c r="O120" s="283"/>
-      <c r="P120" s="283"/>
-      <c r="Q120" s="283"/>
-      <c r="R120" s="283"/>
-      <c r="S120" s="283"/>
-      <c r="T120" s="283"/>
-      <c r="U120" s="283"/>
-      <c r="V120" s="283"/>
-      <c r="W120" s="283"/>
-      <c r="X120" s="283"/>
-      <c r="Y120" s="283"/>
-      <c r="Z120" s="283"/>
-      <c r="AA120" s="283"/>
-      <c r="AB120" s="283"/>
-      <c r="AC120" s="283"/>
-      <c r="AD120" s="283"/>
-      <c r="AE120" s="283"/>
-      <c r="AF120" s="283"/>
-      <c r="AG120" s="283"/>
+      <c r="G120" s="379"/>
+      <c r="H120" s="379"/>
+      <c r="I120" s="379"/>
+      <c r="J120" s="379"/>
+      <c r="K120" s="379"/>
+      <c r="L120" s="379"/>
+      <c r="M120" s="379"/>
+      <c r="N120" s="379"/>
+      <c r="O120" s="379"/>
+      <c r="P120" s="379"/>
+      <c r="Q120" s="379"/>
+      <c r="R120" s="379"/>
+      <c r="S120" s="379"/>
+      <c r="T120" s="379"/>
+      <c r="U120" s="379"/>
+      <c r="V120" s="379"/>
+      <c r="W120" s="379"/>
+      <c r="X120" s="379"/>
+      <c r="Y120" s="379"/>
+      <c r="Z120" s="379"/>
+      <c r="AA120" s="379"/>
+      <c r="AB120" s="379"/>
+      <c r="AC120" s="379"/>
+      <c r="AD120" s="379"/>
+      <c r="AE120" s="379"/>
+      <c r="AF120" s="379"/>
+      <c r="AG120" s="379"/>
       <c r="AJ120" s="128"/>
       <c r="AK120" s="128"/>
       <c r="AL120" s="128"/>
@@ -10093,7 +10093,7 @@
       <c r="F121" s="129"/>
       <c r="G121" s="66"/>
       <c r="H121" s="73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AJ121" s="128"/>
       <c r="AK121" s="128"/>
@@ -10122,7 +10122,7 @@
     <row r="122" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E122" s="66"/>
       <c r="F122" s="66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AJ122" s="128"/>
       <c r="AK122" s="128"/>
@@ -10152,7 +10152,7 @@
       <c r="E123" s="66"/>
       <c r="F123" s="129"/>
       <c r="G123" s="66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ123" s="128"/>
       <c r="AK123" s="128"/>
@@ -10182,7 +10182,7 @@
       <c r="E124" s="66"/>
       <c r="F124" s="129"/>
       <c r="H124" s="73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I124" s="150"/>
       <c r="J124" s="150"/>
@@ -10245,7 +10245,7 @@
     <row r="126" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E126" s="66"/>
       <c r="F126" s="66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AJ126" s="128"/>
       <c r="AK126" s="128"/>
@@ -10274,35 +10274,35 @@
     <row r="127" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E127" s="66"/>
       <c r="F127" s="129"/>
-      <c r="G127" s="283" t="s">
-        <v>131</v>
-      </c>
-      <c r="H127" s="283"/>
-      <c r="I127" s="283"/>
-      <c r="J127" s="283"/>
-      <c r="K127" s="283"/>
-      <c r="L127" s="283"/>
-      <c r="M127" s="283"/>
-      <c r="N127" s="283"/>
-      <c r="O127" s="283"/>
-      <c r="P127" s="283"/>
-      <c r="Q127" s="283"/>
-      <c r="R127" s="283"/>
-      <c r="S127" s="283"/>
-      <c r="T127" s="283"/>
-      <c r="U127" s="283"/>
-      <c r="V127" s="283"/>
-      <c r="W127" s="283"/>
-      <c r="X127" s="283"/>
-      <c r="Y127" s="283"/>
-      <c r="Z127" s="283"/>
-      <c r="AA127" s="283"/>
-      <c r="AB127" s="283"/>
-      <c r="AC127" s="283"/>
-      <c r="AD127" s="283"/>
-      <c r="AE127" s="283"/>
-      <c r="AF127" s="283"/>
-      <c r="AG127" s="283"/>
+      <c r="G127" s="379" t="s">
+        <v>130</v>
+      </c>
+      <c r="H127" s="379"/>
+      <c r="I127" s="379"/>
+      <c r="J127" s="379"/>
+      <c r="K127" s="379"/>
+      <c r="L127" s="379"/>
+      <c r="M127" s="379"/>
+      <c r="N127" s="379"/>
+      <c r="O127" s="379"/>
+      <c r="P127" s="379"/>
+      <c r="Q127" s="379"/>
+      <c r="R127" s="379"/>
+      <c r="S127" s="379"/>
+      <c r="T127" s="379"/>
+      <c r="U127" s="379"/>
+      <c r="V127" s="379"/>
+      <c r="W127" s="379"/>
+      <c r="X127" s="379"/>
+      <c r="Y127" s="379"/>
+      <c r="Z127" s="379"/>
+      <c r="AA127" s="379"/>
+      <c r="AB127" s="379"/>
+      <c r="AC127" s="379"/>
+      <c r="AD127" s="379"/>
+      <c r="AE127" s="379"/>
+      <c r="AF127" s="379"/>
+      <c r="AG127" s="379"/>
       <c r="AJ127" s="128"/>
       <c r="AK127" s="128"/>
       <c r="AL127" s="128"/>
@@ -10330,33 +10330,33 @@
     <row r="128" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E128" s="66"/>
       <c r="F128" s="129"/>
-      <c r="G128" s="283"/>
-      <c r="H128" s="283"/>
-      <c r="I128" s="283"/>
-      <c r="J128" s="283"/>
-      <c r="K128" s="283"/>
-      <c r="L128" s="283"/>
-      <c r="M128" s="283"/>
-      <c r="N128" s="283"/>
-      <c r="O128" s="283"/>
-      <c r="P128" s="283"/>
-      <c r="Q128" s="283"/>
-      <c r="R128" s="283"/>
-      <c r="S128" s="283"/>
-      <c r="T128" s="283"/>
-      <c r="U128" s="283"/>
-      <c r="V128" s="283"/>
-      <c r="W128" s="283"/>
-      <c r="X128" s="283"/>
-      <c r="Y128" s="283"/>
-      <c r="Z128" s="283"/>
-      <c r="AA128" s="283"/>
-      <c r="AB128" s="283"/>
-      <c r="AC128" s="283"/>
-      <c r="AD128" s="283"/>
-      <c r="AE128" s="283"/>
-      <c r="AF128" s="283"/>
-      <c r="AG128" s="283"/>
+      <c r="G128" s="379"/>
+      <c r="H128" s="379"/>
+      <c r="I128" s="379"/>
+      <c r="J128" s="379"/>
+      <c r="K128" s="379"/>
+      <c r="L128" s="379"/>
+      <c r="M128" s="379"/>
+      <c r="N128" s="379"/>
+      <c r="O128" s="379"/>
+      <c r="P128" s="379"/>
+      <c r="Q128" s="379"/>
+      <c r="R128" s="379"/>
+      <c r="S128" s="379"/>
+      <c r="T128" s="379"/>
+      <c r="U128" s="379"/>
+      <c r="V128" s="379"/>
+      <c r="W128" s="379"/>
+      <c r="X128" s="379"/>
+      <c r="Y128" s="379"/>
+      <c r="Z128" s="379"/>
+      <c r="AA128" s="379"/>
+      <c r="AB128" s="379"/>
+      <c r="AC128" s="379"/>
+      <c r="AD128" s="379"/>
+      <c r="AE128" s="379"/>
+      <c r="AF128" s="379"/>
+      <c r="AG128" s="379"/>
       <c r="AJ128" s="128"/>
       <c r="AK128" s="128"/>
       <c r="AL128" s="128"/>
@@ -10385,7 +10385,7 @@
       <c r="E129" s="66"/>
       <c r="F129" s="129"/>
       <c r="H129" s="73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I129" s="150"/>
       <c r="J129" s="150"/>
@@ -10446,30 +10446,30 @@
       <c r="BF130" s="128"/>
     </row>
     <row r="131" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H131" s="290" t="s">
+      <c r="H131" s="332" t="s">
         <v>30</v>
       </c>
       <c r="I131" s="266" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J131" s="267"/>
       <c r="K131" s="267"/>
       <c r="L131" s="267"/>
       <c r="M131" s="267"/>
       <c r="N131" s="268"/>
-      <c r="O131" s="292" t="s">
-        <v>133</v>
-      </c>
-      <c r="P131" s="293"/>
-      <c r="Q131" s="293"/>
-      <c r="R131" s="293"/>
-      <c r="S131" s="293"/>
-      <c r="T131" s="293"/>
-      <c r="U131" s="293"/>
-      <c r="V131" s="293"/>
-      <c r="W131" s="293"/>
-      <c r="X131" s="293"/>
-      <c r="Y131" s="294"/>
+      <c r="O131" s="384" t="s">
+        <v>132</v>
+      </c>
+      <c r="P131" s="385"/>
+      <c r="Q131" s="385"/>
+      <c r="R131" s="385"/>
+      <c r="S131" s="385"/>
+      <c r="T131" s="385"/>
+      <c r="U131" s="385"/>
+      <c r="V131" s="385"/>
+      <c r="W131" s="385"/>
+      <c r="X131" s="385"/>
+      <c r="Y131" s="386"/>
       <c r="Z131" s="266" t="s">
         <v>64</v>
       </c>
@@ -10485,28 +10485,28 @@
       <c r="AH131" s="153"/>
     </row>
     <row r="132" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H132" s="291"/>
+      <c r="H132" s="334"/>
       <c r="I132" s="272"/>
       <c r="J132" s="273"/>
       <c r="K132" s="273"/>
       <c r="L132" s="273"/>
       <c r="M132" s="273"/>
       <c r="N132" s="274"/>
-      <c r="O132" s="292" t="s">
+      <c r="O132" s="384" t="s">
         <v>63</v>
       </c>
-      <c r="P132" s="293"/>
-      <c r="Q132" s="293"/>
-      <c r="R132" s="293"/>
-      <c r="S132" s="294"/>
-      <c r="T132" s="295" t="s">
-        <v>134</v>
-      </c>
-      <c r="U132" s="296"/>
-      <c r="V132" s="296"/>
-      <c r="W132" s="296"/>
-      <c r="X132" s="296"/>
-      <c r="Y132" s="297"/>
+      <c r="P132" s="385"/>
+      <c r="Q132" s="385"/>
+      <c r="R132" s="385"/>
+      <c r="S132" s="386"/>
+      <c r="T132" s="370" t="s">
+        <v>133</v>
+      </c>
+      <c r="U132" s="371"/>
+      <c r="V132" s="371"/>
+      <c r="W132" s="371"/>
+      <c r="X132" s="371"/>
+      <c r="Y132" s="372"/>
       <c r="Z132" s="272"/>
       <c r="AA132" s="273"/>
       <c r="AB132" s="273"/>
@@ -10521,44 +10521,44 @@
       <c r="H133" s="104">
         <v>1</v>
       </c>
-      <c r="I133" s="284" t="s">
-        <v>118</v>
-      </c>
-      <c r="J133" s="285"/>
-      <c r="K133" s="285"/>
-      <c r="L133" s="285"/>
-      <c r="M133" s="285"/>
-      <c r="N133" s="286"/>
+      <c r="I133" s="380" t="s">
+        <v>117</v>
+      </c>
+      <c r="J133" s="381"/>
+      <c r="K133" s="381"/>
+      <c r="L133" s="381"/>
+      <c r="M133" s="381"/>
+      <c r="N133" s="382"/>
       <c r="O133" s="157" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P133" s="158"/>
       <c r="Q133" s="158"/>
       <c r="R133" s="158"/>
       <c r="S133" s="159"/>
-      <c r="T133" s="284" t="s">
+      <c r="T133" s="380" t="s">
         <v>39</v>
       </c>
-      <c r="U133" s="285"/>
-      <c r="V133" s="285"/>
-      <c r="W133" s="285"/>
-      <c r="X133" s="285"/>
-      <c r="Y133" s="286"/>
-      <c r="Z133" s="287" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA133" s="288"/>
-      <c r="AB133" s="288"/>
-      <c r="AC133" s="288"/>
-      <c r="AD133" s="288"/>
-      <c r="AE133" s="289"/>
+      <c r="U133" s="381"/>
+      <c r="V133" s="381"/>
+      <c r="W133" s="381"/>
+      <c r="X133" s="381"/>
+      <c r="Y133" s="382"/>
+      <c r="Z133" s="383" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA133" s="297"/>
+      <c r="AB133" s="297"/>
+      <c r="AC133" s="297"/>
+      <c r="AD133" s="297"/>
+      <c r="AE133" s="298"/>
       <c r="AF133" s="160"/>
       <c r="AG133" s="161"/>
       <c r="AH133" s="162"/>
     </row>
     <row r="134" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H134" s="163" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I134" s="164"/>
       <c r="J134" s="164"/>
@@ -10665,7 +10665,7 @@
     <row r="136" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H136" s="139"/>
       <c r="I136" s="140" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J136" s="140"/>
       <c r="K136" s="140"/>
@@ -10673,10 +10673,10 @@
       <c r="M136" s="141"/>
       <c r="O136" s="140"/>
       <c r="P136" s="141" t="s">
+        <v>119</v>
+      </c>
+      <c r="R136" s="140" t="s">
         <v>120</v>
-      </c>
-      <c r="R136" s="140" t="s">
-        <v>121</v>
       </c>
       <c r="S136" s="140"/>
       <c r="T136" s="140"/>
@@ -10801,35 +10801,35 @@
     <row r="139" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E139" s="66"/>
       <c r="F139" s="129"/>
-      <c r="G139" s="283" t="s">
-        <v>136</v>
-      </c>
-      <c r="H139" s="283"/>
-      <c r="I139" s="283"/>
-      <c r="J139" s="283"/>
-      <c r="K139" s="283"/>
-      <c r="L139" s="283"/>
-      <c r="M139" s="283"/>
-      <c r="N139" s="283"/>
-      <c r="O139" s="283"/>
-      <c r="P139" s="283"/>
-      <c r="Q139" s="283"/>
-      <c r="R139" s="283"/>
-      <c r="S139" s="283"/>
-      <c r="T139" s="283"/>
-      <c r="U139" s="283"/>
-      <c r="V139" s="283"/>
-      <c r="W139" s="283"/>
-      <c r="X139" s="283"/>
-      <c r="Y139" s="283"/>
-      <c r="Z139" s="283"/>
-      <c r="AA139" s="283"/>
-      <c r="AB139" s="283"/>
-      <c r="AC139" s="283"/>
-      <c r="AD139" s="283"/>
-      <c r="AE139" s="283"/>
-      <c r="AF139" s="283"/>
-      <c r="AG139" s="283"/>
+      <c r="G139" s="379" t="s">
+        <v>135</v>
+      </c>
+      <c r="H139" s="379"/>
+      <c r="I139" s="379"/>
+      <c r="J139" s="379"/>
+      <c r="K139" s="379"/>
+      <c r="L139" s="379"/>
+      <c r="M139" s="379"/>
+      <c r="N139" s="379"/>
+      <c r="O139" s="379"/>
+      <c r="P139" s="379"/>
+      <c r="Q139" s="379"/>
+      <c r="R139" s="379"/>
+      <c r="S139" s="379"/>
+      <c r="T139" s="379"/>
+      <c r="U139" s="379"/>
+      <c r="V139" s="379"/>
+      <c r="W139" s="379"/>
+      <c r="X139" s="379"/>
+      <c r="Y139" s="379"/>
+      <c r="Z139" s="379"/>
+      <c r="AA139" s="379"/>
+      <c r="AB139" s="379"/>
+      <c r="AC139" s="379"/>
+      <c r="AD139" s="379"/>
+      <c r="AE139" s="379"/>
+      <c r="AF139" s="379"/>
+      <c r="AG139" s="379"/>
       <c r="AJ139" s="128"/>
       <c r="AK139" s="128"/>
       <c r="AL139" s="128"/>
@@ -10857,33 +10857,33 @@
     <row r="140" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E140" s="66"/>
       <c r="F140" s="129"/>
-      <c r="G140" s="283"/>
-      <c r="H140" s="283"/>
-      <c r="I140" s="283"/>
-      <c r="J140" s="283"/>
-      <c r="K140" s="283"/>
-      <c r="L140" s="283"/>
-      <c r="M140" s="283"/>
-      <c r="N140" s="283"/>
-      <c r="O140" s="283"/>
-      <c r="P140" s="283"/>
-      <c r="Q140" s="283"/>
-      <c r="R140" s="283"/>
-      <c r="S140" s="283"/>
-      <c r="T140" s="283"/>
-      <c r="U140" s="283"/>
-      <c r="V140" s="283"/>
-      <c r="W140" s="283"/>
-      <c r="X140" s="283"/>
-      <c r="Y140" s="283"/>
-      <c r="Z140" s="283"/>
-      <c r="AA140" s="283"/>
-      <c r="AB140" s="283"/>
-      <c r="AC140" s="283"/>
-      <c r="AD140" s="283"/>
-      <c r="AE140" s="283"/>
-      <c r="AF140" s="283"/>
-      <c r="AG140" s="283"/>
+      <c r="G140" s="379"/>
+      <c r="H140" s="379"/>
+      <c r="I140" s="379"/>
+      <c r="J140" s="379"/>
+      <c r="K140" s="379"/>
+      <c r="L140" s="379"/>
+      <c r="M140" s="379"/>
+      <c r="N140" s="379"/>
+      <c r="O140" s="379"/>
+      <c r="P140" s="379"/>
+      <c r="Q140" s="379"/>
+      <c r="R140" s="379"/>
+      <c r="S140" s="379"/>
+      <c r="T140" s="379"/>
+      <c r="U140" s="379"/>
+      <c r="V140" s="379"/>
+      <c r="W140" s="379"/>
+      <c r="X140" s="379"/>
+      <c r="Y140" s="379"/>
+      <c r="Z140" s="379"/>
+      <c r="AA140" s="379"/>
+      <c r="AB140" s="379"/>
+      <c r="AC140" s="379"/>
+      <c r="AD140" s="379"/>
+      <c r="AE140" s="379"/>
+      <c r="AF140" s="379"/>
+      <c r="AG140" s="379"/>
       <c r="AJ140" s="128"/>
       <c r="AK140" s="128"/>
       <c r="AL140" s="128"/>
@@ -10909,30 +10909,30 @@
       <c r="BF140" s="128"/>
     </row>
     <row r="141" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H141" s="290" t="s">
+      <c r="H141" s="332" t="s">
         <v>30</v>
       </c>
       <c r="I141" s="266" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J141" s="267"/>
       <c r="K141" s="267"/>
       <c r="L141" s="267"/>
       <c r="M141" s="267"/>
       <c r="N141" s="268"/>
-      <c r="O141" s="292" t="s">
-        <v>133</v>
-      </c>
-      <c r="P141" s="293"/>
-      <c r="Q141" s="293"/>
-      <c r="R141" s="293"/>
-      <c r="S141" s="293"/>
-      <c r="T141" s="293"/>
-      <c r="U141" s="293"/>
-      <c r="V141" s="293"/>
-      <c r="W141" s="293"/>
-      <c r="X141" s="293"/>
-      <c r="Y141" s="294"/>
+      <c r="O141" s="384" t="s">
+        <v>132</v>
+      </c>
+      <c r="P141" s="385"/>
+      <c r="Q141" s="385"/>
+      <c r="R141" s="385"/>
+      <c r="S141" s="385"/>
+      <c r="T141" s="385"/>
+      <c r="U141" s="385"/>
+      <c r="V141" s="385"/>
+      <c r="W141" s="385"/>
+      <c r="X141" s="385"/>
+      <c r="Y141" s="386"/>
       <c r="Z141" s="266" t="s">
         <v>64</v>
       </c>
@@ -10948,28 +10948,28 @@
       <c r="AH141" s="153"/>
     </row>
     <row r="142" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H142" s="291"/>
+      <c r="H142" s="334"/>
       <c r="I142" s="272"/>
       <c r="J142" s="273"/>
       <c r="K142" s="273"/>
       <c r="L142" s="273"/>
       <c r="M142" s="273"/>
       <c r="N142" s="274"/>
-      <c r="O142" s="292" t="s">
+      <c r="O142" s="384" t="s">
         <v>63</v>
       </c>
-      <c r="P142" s="293"/>
-      <c r="Q142" s="293"/>
-      <c r="R142" s="293"/>
-      <c r="S142" s="294"/>
-      <c r="T142" s="295" t="s">
-        <v>134</v>
-      </c>
-      <c r="U142" s="296"/>
-      <c r="V142" s="296"/>
-      <c r="W142" s="296"/>
-      <c r="X142" s="296"/>
-      <c r="Y142" s="297"/>
+      <c r="P142" s="385"/>
+      <c r="Q142" s="385"/>
+      <c r="R142" s="385"/>
+      <c r="S142" s="386"/>
+      <c r="T142" s="370" t="s">
+        <v>133</v>
+      </c>
+      <c r="U142" s="371"/>
+      <c r="V142" s="371"/>
+      <c r="W142" s="371"/>
+      <c r="X142" s="371"/>
+      <c r="Y142" s="372"/>
       <c r="Z142" s="272"/>
       <c r="AA142" s="273"/>
       <c r="AB142" s="273"/>
@@ -10984,14 +10984,14 @@
       <c r="H143" s="104">
         <v>1</v>
       </c>
-      <c r="I143" s="284" t="s">
-        <v>137</v>
-      </c>
-      <c r="J143" s="285"/>
-      <c r="K143" s="285"/>
-      <c r="L143" s="285"/>
-      <c r="M143" s="285"/>
-      <c r="N143" s="286"/>
+      <c r="I143" s="380" t="s">
+        <v>136</v>
+      </c>
+      <c r="J143" s="381"/>
+      <c r="K143" s="381"/>
+      <c r="L143" s="381"/>
+      <c r="M143" s="381"/>
+      <c r="N143" s="382"/>
       <c r="O143" s="157" t="s">
         <v>39</v>
       </c>
@@ -10999,22 +10999,22 @@
       <c r="Q143" s="158"/>
       <c r="R143" s="158"/>
       <c r="S143" s="159"/>
-      <c r="T143" s="284" t="s">
+      <c r="T143" s="380" t="s">
         <v>39</v>
       </c>
-      <c r="U143" s="285"/>
-      <c r="V143" s="285"/>
-      <c r="W143" s="285"/>
-      <c r="X143" s="285"/>
-      <c r="Y143" s="286"/>
-      <c r="Z143" s="287" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA143" s="288"/>
-      <c r="AB143" s="288"/>
-      <c r="AC143" s="288"/>
-      <c r="AD143" s="288"/>
-      <c r="AE143" s="289"/>
+      <c r="U143" s="381"/>
+      <c r="V143" s="381"/>
+      <c r="W143" s="381"/>
+      <c r="X143" s="381"/>
+      <c r="Y143" s="382"/>
+      <c r="Z143" s="383" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA143" s="297"/>
+      <c r="AB143" s="297"/>
+      <c r="AC143" s="297"/>
+      <c r="AD143" s="297"/>
+      <c r="AE143" s="298"/>
       <c r="AF143" s="160"/>
       <c r="AG143" s="161"/>
       <c r="AH143" s="162"/>
@@ -11023,14 +11023,14 @@
       <c r="H144" s="104">
         <v>2</v>
       </c>
-      <c r="I144" s="284" t="s">
-        <v>118</v>
-      </c>
-      <c r="J144" s="285"/>
-      <c r="K144" s="285"/>
-      <c r="L144" s="285"/>
-      <c r="M144" s="285"/>
-      <c r="N144" s="286"/>
+      <c r="I144" s="380" t="s">
+        <v>117</v>
+      </c>
+      <c r="J144" s="381"/>
+      <c r="K144" s="381"/>
+      <c r="L144" s="381"/>
+      <c r="M144" s="381"/>
+      <c r="N144" s="382"/>
       <c r="O144" s="157" t="s">
         <v>39</v>
       </c>
@@ -11038,29 +11038,29 @@
       <c r="Q144" s="158"/>
       <c r="R144" s="158"/>
       <c r="S144" s="159"/>
-      <c r="T144" s="284" t="s">
+      <c r="T144" s="380" t="s">
         <v>39</v>
       </c>
-      <c r="U144" s="285"/>
-      <c r="V144" s="285"/>
-      <c r="W144" s="285"/>
-      <c r="X144" s="285"/>
-      <c r="Y144" s="286"/>
-      <c r="Z144" s="287">
+      <c r="U144" s="381"/>
+      <c r="V144" s="381"/>
+      <c r="W144" s="381"/>
+      <c r="X144" s="381"/>
+      <c r="Y144" s="382"/>
+      <c r="Z144" s="383">
         <v>0</v>
       </c>
-      <c r="AA144" s="288"/>
-      <c r="AB144" s="288"/>
-      <c r="AC144" s="288"/>
-      <c r="AD144" s="288"/>
-      <c r="AE144" s="289"/>
+      <c r="AA144" s="297"/>
+      <c r="AB144" s="297"/>
+      <c r="AC144" s="297"/>
+      <c r="AD144" s="297"/>
+      <c r="AE144" s="298"/>
       <c r="AF144" s="160"/>
       <c r="AG144" s="161"/>
       <c r="AH144" s="162"/>
     </row>
     <row r="145" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H145" s="163" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I145" s="164"/>
       <c r="J145" s="164"/>
@@ -11167,7 +11167,7 @@
     <row r="147" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H147" s="139"/>
       <c r="I147" s="140" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J147" s="140"/>
       <c r="K147" s="140"/>
@@ -11175,10 +11175,10 @@
       <c r="M147" s="141"/>
       <c r="O147" s="140"/>
       <c r="P147" s="141" t="s">
+        <v>119</v>
+      </c>
+      <c r="R147" s="140" t="s">
         <v>120</v>
-      </c>
-      <c r="R147" s="140" t="s">
-        <v>121</v>
       </c>
       <c r="S147" s="140"/>
       <c r="T147" s="140"/>
@@ -11304,7 +11304,7 @@
       <c r="E150" s="66"/>
       <c r="F150" s="129"/>
       <c r="G150" s="66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ150" s="128"/>
       <c r="AK150" s="128"/>
@@ -11361,7 +11361,7 @@
     <row r="152" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E152" s="66"/>
       <c r="F152" s="66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ152" s="128"/>
       <c r="AK152" s="128"/>
@@ -11526,6 +11526,97 @@
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="G139:AG140"/>
+    <mergeCell ref="G127:AG128"/>
+    <mergeCell ref="G119:AG120"/>
+    <mergeCell ref="I144:N144"/>
+    <mergeCell ref="T144:Y144"/>
+    <mergeCell ref="Z144:AE144"/>
+    <mergeCell ref="I143:N143"/>
+    <mergeCell ref="T143:Y143"/>
+    <mergeCell ref="Z143:AE143"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:N142"/>
+    <mergeCell ref="O141:Y141"/>
+    <mergeCell ref="Z141:AE142"/>
+    <mergeCell ref="O142:S142"/>
+    <mergeCell ref="T142:Y142"/>
+    <mergeCell ref="I133:N133"/>
+    <mergeCell ref="T133:Y133"/>
+    <mergeCell ref="Z133:AE133"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:N132"/>
+    <mergeCell ref="O131:Y131"/>
+    <mergeCell ref="Z131:AE132"/>
+    <mergeCell ref="O132:S132"/>
+    <mergeCell ref="T132:Y132"/>
+    <mergeCell ref="G98:P103"/>
+    <mergeCell ref="Q98:Z98"/>
+    <mergeCell ref="Q103:Z103"/>
+    <mergeCell ref="G106:Z106"/>
+    <mergeCell ref="AD87:AG87"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="G87:L87"/>
+    <mergeCell ref="G88:L88"/>
+    <mergeCell ref="M87:V87"/>
+    <mergeCell ref="W88:Y88"/>
+    <mergeCell ref="Q102:Z102"/>
+    <mergeCell ref="G104:P105"/>
+    <mergeCell ref="Q104:Z104"/>
+    <mergeCell ref="Q105:Z105"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="Z87:AC87"/>
+    <mergeCell ref="M88:V88"/>
+    <mergeCell ref="G97:P97"/>
+    <mergeCell ref="Q97:Z97"/>
+    <mergeCell ref="W87:Y87"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:J59"/>
+    <mergeCell ref="K58:N59"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="R65:Y65"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:AH60"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="R66:Y66"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="AE67:AH67"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="AE65:AH65"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="AE66:AH66"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="R67:Y67"/>
+    <mergeCell ref="Z67:AD67"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="E43:M43"/>
     <mergeCell ref="N43:P43"/>
     <mergeCell ref="Q43:U43"/>
@@ -11550,105 +11641,11 @@
     <mergeCell ref="M53:T53"/>
     <mergeCell ref="M52:T52"/>
     <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AE67:AH67"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="AE65:AH65"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="AE66:AH66"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="R67:Y67"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="V44:AC44"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:J59"/>
-    <mergeCell ref="K58:N59"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="R65:Y65"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:AH60"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="R66:Y66"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="G98:P103"/>
-    <mergeCell ref="Q98:Z98"/>
-    <mergeCell ref="Q103:Z103"/>
-    <mergeCell ref="G106:Z106"/>
-    <mergeCell ref="AD87:AG87"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="G87:L87"/>
-    <mergeCell ref="G88:L88"/>
-    <mergeCell ref="M87:V87"/>
-    <mergeCell ref="W88:Y88"/>
-    <mergeCell ref="Q102:Z102"/>
-    <mergeCell ref="G104:P105"/>
-    <mergeCell ref="Q104:Z104"/>
-    <mergeCell ref="Q105:Z105"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="Z87:AC87"/>
-    <mergeCell ref="M88:V88"/>
-    <mergeCell ref="G97:P97"/>
-    <mergeCell ref="Q97:Z97"/>
-    <mergeCell ref="W87:Y87"/>
-    <mergeCell ref="G139:AG140"/>
-    <mergeCell ref="G127:AG128"/>
-    <mergeCell ref="G119:AG120"/>
-    <mergeCell ref="I144:N144"/>
-    <mergeCell ref="T144:Y144"/>
-    <mergeCell ref="Z144:AE144"/>
-    <mergeCell ref="I143:N143"/>
-    <mergeCell ref="T143:Y143"/>
-    <mergeCell ref="Z143:AE143"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:N142"/>
-    <mergeCell ref="O141:Y141"/>
-    <mergeCell ref="Z141:AE142"/>
-    <mergeCell ref="O142:S142"/>
-    <mergeCell ref="T142:Y142"/>
-    <mergeCell ref="I133:N133"/>
-    <mergeCell ref="T133:Y133"/>
-    <mergeCell ref="Z133:AE133"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:N132"/>
-    <mergeCell ref="O131:Y131"/>
-    <mergeCell ref="Z131:AE132"/>
-    <mergeCell ref="O132:S132"/>
-    <mergeCell ref="T132:Y132"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
-  <dataValidations count="5">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N44:P44" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"-,Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC52:AC53 P60:U60" xr:uid="{00000000-0002-0000-0400-000001000000}">
-      <formula1>"-,○"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I52:I53" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>画面項目種類</formula1>
@@ -11708,16 +11705,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="166" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="167" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="168" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="167" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="168" t="s">
-        <v>142</v>
-      </c>
       <c r="D1" s="168" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -11725,27 +11722,27 @@
         <v>39</v>
       </c>
       <c r="B2" s="169" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="170" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="114" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="114" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="169" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="169" t="s">
+      <c r="C3" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="114" t="s">
         <v>145</v>
-      </c>
-      <c r="C3" s="114" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="114" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -11753,65 +11750,65 @@
         <v>68</v>
       </c>
       <c r="B4" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="D4" s="114" t="s">
         <v>148</v>
-      </c>
-      <c r="D4" s="114" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="114" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="C5" s="114" t="s">
         <v>151</v>
-      </c>
-      <c r="C5" s="114" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="114" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="114" t="s">
         <v>153</v>
-      </c>
-      <c r="C6" s="114" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="114" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="114" t="s">
         <v>155</v>
-      </c>
-      <c r="C7" s="114" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="114" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="114" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10101_Login.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10101_Login.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A79C42-93A3-4C61-9DD2-2EEEACC313FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4726E218-4D06-43D5-9B99-3653D4C421A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="5505" windowWidth="17760" windowHeight="6990" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -30,17 +30,7 @@
     <definedName name="画面項目種類">Data!$A$2:$A$12</definedName>
     <definedName name="種別一覧">Data!$C$2:$C$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1928,6 +1918,111 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1964,24 +2059,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1991,24 +2068,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2045,74 +2104,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2132,78 +2194,6 @@
     <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2258,46 +2248,19 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2306,159 +2269,45 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2477,6 +2326,21 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2512,15 +2376,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2534,24 +2389,159 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2907,25 +2897,25 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276222</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152383</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>150479</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>67602</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>136707</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0899565E-610F-4361-B831-083A348ACE61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2941,8 +2931,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="828675" y="1038226"/>
-          <a:ext cx="8077200" cy="4112878"/>
+          <a:off x="828672" y="609583"/>
+          <a:ext cx="7801905" cy="3489524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4033,57 +4023,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="191" t="s">
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="224" t="s">
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="222"/>
+      <c r="O1" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="225"/>
-      <c r="Q1" s="225"/>
-      <c r="R1" s="226"/>
-      <c r="S1" s="203" t="s">
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="204"/>
-      <c r="U1" s="204"/>
-      <c r="V1" s="204"/>
-      <c r="W1" s="204"/>
-      <c r="X1" s="204"/>
-      <c r="Y1" s="204"/>
-      <c r="Z1" s="205"/>
-      <c r="AA1" s="221" t="s">
+      <c r="T1" s="227"/>
+      <c r="U1" s="227"/>
+      <c r="V1" s="227"/>
+      <c r="W1" s="227"/>
+      <c r="X1" s="227"/>
+      <c r="Y1" s="227"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="223"/>
-      <c r="AC1" s="173" t="str">
+      <c r="AB1" s="175"/>
+      <c r="AC1" s="208" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-      <c r="AF1" s="175"/>
-      <c r="AG1" s="179">
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="210"/>
+      <c r="AG1" s="214">
         <f>IF(D8="","",D8)</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="180"/>
-      <c r="AI1" s="181"/>
+      <c r="AH1" s="215"/>
+      <c r="AI1" s="216"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -4091,53 +4081,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="221" t="s">
+      <c r="A2" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="191" t="s">
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="220" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="192"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="227"/>
-      <c r="P2" s="228"/>
-      <c r="Q2" s="228"/>
-      <c r="R2" s="229"/>
-      <c r="S2" s="206"/>
-      <c r="T2" s="207"/>
-      <c r="U2" s="207"/>
-      <c r="V2" s="207"/>
-      <c r="W2" s="207"/>
-      <c r="X2" s="207"/>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="221" t="s">
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="222"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="229"/>
+      <c r="T2" s="230"/>
+      <c r="U2" s="230"/>
+      <c r="V2" s="230"/>
+      <c r="W2" s="230"/>
+      <c r="X2" s="230"/>
+      <c r="Y2" s="230"/>
+      <c r="Z2" s="231"/>
+      <c r="AA2" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="223"/>
-      <c r="AC2" s="182" t="str">
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="217" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="183"/>
-      <c r="AE2" s="183"/>
-      <c r="AF2" s="184"/>
-      <c r="AG2" s="179" t="str">
+      <c r="AD2" s="218"/>
+      <c r="AE2" s="218"/>
+      <c r="AF2" s="219"/>
+      <c r="AG2" s="214" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="180"/>
-      <c r="AI2" s="181"/>
+      <c r="AH2" s="215"/>
+      <c r="AI2" s="216"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -4145,45 +4135,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="221" t="s">
+      <c r="A3" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="222"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="191" t="s">
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="193"/>
-      <c r="O3" s="230"/>
-      <c r="P3" s="231"/>
-      <c r="Q3" s="231"/>
-      <c r="R3" s="232"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="210"/>
-      <c r="U3" s="210"/>
-      <c r="V3" s="210"/>
-      <c r="W3" s="210"/>
-      <c r="X3" s="210"/>
-      <c r="Y3" s="210"/>
-      <c r="Z3" s="211"/>
-      <c r="AA3" s="233"/>
-      <c r="AB3" s="234"/>
-      <c r="AC3" s="173"/>
-      <c r="AD3" s="174"/>
-      <c r="AE3" s="174"/>
-      <c r="AF3" s="175"/>
-      <c r="AG3" s="179"/>
-      <c r="AH3" s="180"/>
-      <c r="AI3" s="181"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="222"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="184"/>
+      <c r="S3" s="232"/>
+      <c r="T3" s="233"/>
+      <c r="U3" s="233"/>
+      <c r="V3" s="233"/>
+      <c r="W3" s="233"/>
+      <c r="X3" s="233"/>
+      <c r="Y3" s="233"/>
+      <c r="Z3" s="234"/>
+      <c r="AA3" s="185"/>
+      <c r="AB3" s="186"/>
+      <c r="AC3" s="208"/>
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="210"/>
+      <c r="AG3" s="214"/>
+      <c r="AH3" s="215"/>
+      <c r="AI3" s="216"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -4322,1028 +4312,1028 @@
       <c r="A7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="188" t="s">
+      <c r="B7" s="199" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="188" t="s">
+      <c r="C7" s="200"/>
+      <c r="D7" s="199" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="188" t="s">
+      <c r="E7" s="201"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="199" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="189"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="188" t="s">
+      <c r="H7" s="201"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="189"/>
-      <c r="L7" s="189"/>
-      <c r="M7" s="189"/>
-      <c r="N7" s="189"/>
-      <c r="O7" s="189"/>
-      <c r="P7" s="190"/>
-      <c r="Q7" s="188" t="s">
+      <c r="K7" s="201"/>
+      <c r="L7" s="201"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="199" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="189"/>
-      <c r="S7" s="189"/>
-      <c r="T7" s="189"/>
-      <c r="U7" s="189"/>
-      <c r="V7" s="189"/>
-      <c r="W7" s="189"/>
-      <c r="X7" s="189"/>
-      <c r="Y7" s="189"/>
-      <c r="Z7" s="189"/>
-      <c r="AA7" s="189"/>
-      <c r="AB7" s="189"/>
-      <c r="AC7" s="189"/>
-      <c r="AD7" s="189"/>
-      <c r="AE7" s="190"/>
-      <c r="AF7" s="188" t="s">
+      <c r="R7" s="201"/>
+      <c r="S7" s="201"/>
+      <c r="T7" s="201"/>
+      <c r="U7" s="201"/>
+      <c r="V7" s="201"/>
+      <c r="W7" s="201"/>
+      <c r="X7" s="201"/>
+      <c r="Y7" s="201"/>
+      <c r="Z7" s="201"/>
+      <c r="AA7" s="201"/>
+      <c r="AB7" s="201"/>
+      <c r="AC7" s="201"/>
+      <c r="AD7" s="201"/>
+      <c r="AE7" s="200"/>
+      <c r="AF7" s="199" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="189"/>
-      <c r="AH7" s="189"/>
-      <c r="AI7" s="190"/>
+      <c r="AG7" s="201"/>
+      <c r="AH7" s="201"/>
+      <c r="AI7" s="200"/>
     </row>
     <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="215" t="s">
+      <c r="B8" s="202" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="216"/>
-      <c r="D8" s="217">
+      <c r="C8" s="203"/>
+      <c r="D8" s="204">
         <v>43656</v>
       </c>
-      <c r="E8" s="218"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="215" t="s">
+      <c r="E8" s="205"/>
+      <c r="F8" s="206"/>
+      <c r="G8" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="220"/>
-      <c r="I8" s="216"/>
-      <c r="J8" s="200" t="s">
+      <c r="H8" s="207"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="201"/>
-      <c r="L8" s="201"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="201"/>
-      <c r="O8" s="201"/>
-      <c r="P8" s="202"/>
-      <c r="Q8" s="176" t="s">
+      <c r="K8" s="224"/>
+      <c r="L8" s="224"/>
+      <c r="M8" s="224"/>
+      <c r="N8" s="224"/>
+      <c r="O8" s="224"/>
+      <c r="P8" s="225"/>
+      <c r="Q8" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="177"/>
-      <c r="S8" s="177"/>
-      <c r="T8" s="177"/>
-      <c r="U8" s="177"/>
-      <c r="V8" s="177"/>
-      <c r="W8" s="177"/>
-      <c r="X8" s="177"/>
-      <c r="Y8" s="177"/>
-      <c r="Z8" s="177"/>
-      <c r="AA8" s="177"/>
-      <c r="AB8" s="177"/>
-      <c r="AC8" s="177"/>
-      <c r="AD8" s="177"/>
-      <c r="AE8" s="178"/>
-      <c r="AF8" s="200" t="s">
+      <c r="R8" s="212"/>
+      <c r="S8" s="212"/>
+      <c r="T8" s="212"/>
+      <c r="U8" s="212"/>
+      <c r="V8" s="212"/>
+      <c r="W8" s="212"/>
+      <c r="X8" s="212"/>
+      <c r="Y8" s="212"/>
+      <c r="Z8" s="212"/>
+      <c r="AA8" s="212"/>
+      <c r="AB8" s="212"/>
+      <c r="AC8" s="212"/>
+      <c r="AD8" s="212"/>
+      <c r="AE8" s="213"/>
+      <c r="AF8" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="201"/>
-      <c r="AH8" s="201"/>
-      <c r="AI8" s="202"/>
+      <c r="AG8" s="224"/>
+      <c r="AH8" s="224"/>
+      <c r="AI8" s="225"/>
     </row>
     <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
-      <c r="B9" s="185"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="212"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="187"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="198"/>
-      <c r="L9" s="198"/>
-      <c r="M9" s="198"/>
-      <c r="N9" s="198"/>
-      <c r="O9" s="198"/>
-      <c r="P9" s="199"/>
-      <c r="Q9" s="194"/>
-      <c r="R9" s="195"/>
-      <c r="S9" s="195"/>
-      <c r="T9" s="195"/>
-      <c r="U9" s="195"/>
-      <c r="V9" s="195"/>
-      <c r="W9" s="195"/>
-      <c r="X9" s="195"/>
-      <c r="Y9" s="195"/>
-      <c r="Z9" s="195"/>
-      <c r="AA9" s="195"/>
-      <c r="AB9" s="195"/>
-      <c r="AC9" s="195"/>
-      <c r="AD9" s="195"/>
-      <c r="AE9" s="196"/>
-      <c r="AF9" s="197"/>
-      <c r="AG9" s="198"/>
-      <c r="AH9" s="198"/>
-      <c r="AI9" s="199"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="198"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="190"/>
+      <c r="K9" s="191"/>
+      <c r="L9" s="191"/>
+      <c r="M9" s="191"/>
+      <c r="N9" s="191"/>
+      <c r="O9" s="191"/>
+      <c r="P9" s="192"/>
+      <c r="Q9" s="187"/>
+      <c r="R9" s="188"/>
+      <c r="S9" s="188"/>
+      <c r="T9" s="188"/>
+      <c r="U9" s="188"/>
+      <c r="V9" s="188"/>
+      <c r="W9" s="188"/>
+      <c r="X9" s="188"/>
+      <c r="Y9" s="188"/>
+      <c r="Z9" s="188"/>
+      <c r="AA9" s="188"/>
+      <c r="AB9" s="188"/>
+      <c r="AC9" s="188"/>
+      <c r="AD9" s="188"/>
+      <c r="AE9" s="189"/>
+      <c r="AF9" s="190"/>
+      <c r="AG9" s="191"/>
+      <c r="AH9" s="191"/>
+      <c r="AI9" s="192"/>
     </row>
     <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
-      <c r="B10" s="185"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="213"/>
-      <c r="F10" s="214"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="198"/>
-      <c r="M10" s="198"/>
-      <c r="N10" s="198"/>
-      <c r="O10" s="198"/>
-      <c r="P10" s="199"/>
-      <c r="Q10" s="194"/>
-      <c r="R10" s="195"/>
-      <c r="S10" s="195"/>
-      <c r="T10" s="195"/>
-      <c r="U10" s="195"/>
-      <c r="V10" s="195"/>
-      <c r="W10" s="195"/>
-      <c r="X10" s="195"/>
-      <c r="Y10" s="195"/>
-      <c r="Z10" s="195"/>
-      <c r="AA10" s="195"/>
-      <c r="AB10" s="195"/>
-      <c r="AC10" s="195"/>
-      <c r="AD10" s="195"/>
-      <c r="AE10" s="196"/>
-      <c r="AF10" s="197"/>
-      <c r="AG10" s="198"/>
-      <c r="AH10" s="198"/>
-      <c r="AI10" s="199"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="191"/>
+      <c r="L10" s="191"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="191"/>
+      <c r="O10" s="191"/>
+      <c r="P10" s="192"/>
+      <c r="Q10" s="187"/>
+      <c r="R10" s="188"/>
+      <c r="S10" s="188"/>
+      <c r="T10" s="188"/>
+      <c r="U10" s="188"/>
+      <c r="V10" s="188"/>
+      <c r="W10" s="188"/>
+      <c r="X10" s="188"/>
+      <c r="Y10" s="188"/>
+      <c r="Z10" s="188"/>
+      <c r="AA10" s="188"/>
+      <c r="AB10" s="188"/>
+      <c r="AC10" s="188"/>
+      <c r="AD10" s="188"/>
+      <c r="AE10" s="189"/>
+      <c r="AF10" s="190"/>
+      <c r="AG10" s="191"/>
+      <c r="AH10" s="191"/>
+      <c r="AI10" s="192"/>
     </row>
     <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
-      <c r="B11" s="185"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="213"/>
-      <c r="F11" s="214"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="187"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="198"/>
-      <c r="M11" s="198"/>
-      <c r="N11" s="198"/>
-      <c r="O11" s="198"/>
-      <c r="P11" s="199"/>
-      <c r="Q11" s="194"/>
-      <c r="R11" s="195"/>
-      <c r="S11" s="195"/>
-      <c r="T11" s="195"/>
-      <c r="U11" s="195"/>
-      <c r="V11" s="195"/>
-      <c r="W11" s="195"/>
-      <c r="X11" s="195"/>
-      <c r="Y11" s="195"/>
-      <c r="Z11" s="195"/>
-      <c r="AA11" s="195"/>
-      <c r="AB11" s="195"/>
-      <c r="AC11" s="195"/>
-      <c r="AD11" s="195"/>
-      <c r="AE11" s="196"/>
-      <c r="AF11" s="197"/>
-      <c r="AG11" s="198"/>
-      <c r="AH11" s="198"/>
-      <c r="AI11" s="199"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="197"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="191"/>
+      <c r="L11" s="191"/>
+      <c r="M11" s="191"/>
+      <c r="N11" s="191"/>
+      <c r="O11" s="191"/>
+      <c r="P11" s="192"/>
+      <c r="Q11" s="187"/>
+      <c r="R11" s="188"/>
+      <c r="S11" s="188"/>
+      <c r="T11" s="188"/>
+      <c r="U11" s="188"/>
+      <c r="V11" s="188"/>
+      <c r="W11" s="188"/>
+      <c r="X11" s="188"/>
+      <c r="Y11" s="188"/>
+      <c r="Z11" s="188"/>
+      <c r="AA11" s="188"/>
+      <c r="AB11" s="188"/>
+      <c r="AC11" s="188"/>
+      <c r="AD11" s="188"/>
+      <c r="AE11" s="189"/>
+      <c r="AF11" s="190"/>
+      <c r="AG11" s="191"/>
+      <c r="AH11" s="191"/>
+      <c r="AI11" s="192"/>
     </row>
     <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
-      <c r="B12" s="185"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="212"/>
-      <c r="E12" s="213"/>
-      <c r="F12" s="214"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="187"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="198"/>
-      <c r="L12" s="198"/>
-      <c r="M12" s="198"/>
-      <c r="N12" s="198"/>
-      <c r="O12" s="198"/>
-      <c r="P12" s="199"/>
-      <c r="Q12" s="194"/>
-      <c r="R12" s="195"/>
-      <c r="S12" s="195"/>
-      <c r="T12" s="195"/>
-      <c r="U12" s="195"/>
-      <c r="V12" s="195"/>
-      <c r="W12" s="195"/>
-      <c r="X12" s="195"/>
-      <c r="Y12" s="195"/>
-      <c r="Z12" s="195"/>
-      <c r="AA12" s="195"/>
-      <c r="AB12" s="195"/>
-      <c r="AC12" s="195"/>
-      <c r="AD12" s="195"/>
-      <c r="AE12" s="196"/>
-      <c r="AF12" s="197"/>
-      <c r="AG12" s="198"/>
-      <c r="AH12" s="198"/>
-      <c r="AI12" s="199"/>
+      <c r="B12" s="193"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="195"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="198"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="191"/>
+      <c r="L12" s="191"/>
+      <c r="M12" s="191"/>
+      <c r="N12" s="191"/>
+      <c r="O12" s="191"/>
+      <c r="P12" s="192"/>
+      <c r="Q12" s="187"/>
+      <c r="R12" s="188"/>
+      <c r="S12" s="188"/>
+      <c r="T12" s="188"/>
+      <c r="U12" s="188"/>
+      <c r="V12" s="188"/>
+      <c r="W12" s="188"/>
+      <c r="X12" s="188"/>
+      <c r="Y12" s="188"/>
+      <c r="Z12" s="188"/>
+      <c r="AA12" s="188"/>
+      <c r="AB12" s="188"/>
+      <c r="AC12" s="188"/>
+      <c r="AD12" s="188"/>
+      <c r="AE12" s="189"/>
+      <c r="AF12" s="190"/>
+      <c r="AG12" s="191"/>
+      <c r="AH12" s="191"/>
+      <c r="AI12" s="192"/>
     </row>
     <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
-      <c r="B13" s="185"/>
-      <c r="C13" s="187"/>
-      <c r="D13" s="212"/>
-      <c r="E13" s="213"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="187"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="198"/>
-      <c r="L13" s="198"/>
-      <c r="M13" s="198"/>
-      <c r="N13" s="198"/>
-      <c r="O13" s="198"/>
-      <c r="P13" s="199"/>
-      <c r="Q13" s="194"/>
-      <c r="R13" s="195"/>
-      <c r="S13" s="195"/>
-      <c r="T13" s="195"/>
-      <c r="U13" s="195"/>
-      <c r="V13" s="195"/>
-      <c r="W13" s="195"/>
-      <c r="X13" s="195"/>
-      <c r="Y13" s="195"/>
-      <c r="Z13" s="195"/>
-      <c r="AA13" s="195"/>
-      <c r="AB13" s="195"/>
-      <c r="AC13" s="195"/>
-      <c r="AD13" s="195"/>
-      <c r="AE13" s="196"/>
-      <c r="AF13" s="197"/>
-      <c r="AG13" s="198"/>
-      <c r="AH13" s="198"/>
-      <c r="AI13" s="199"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="198"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="191"/>
+      <c r="L13" s="191"/>
+      <c r="M13" s="191"/>
+      <c r="N13" s="191"/>
+      <c r="O13" s="191"/>
+      <c r="P13" s="192"/>
+      <c r="Q13" s="187"/>
+      <c r="R13" s="188"/>
+      <c r="S13" s="188"/>
+      <c r="T13" s="188"/>
+      <c r="U13" s="188"/>
+      <c r="V13" s="188"/>
+      <c r="W13" s="188"/>
+      <c r="X13" s="188"/>
+      <c r="Y13" s="188"/>
+      <c r="Z13" s="188"/>
+      <c r="AA13" s="188"/>
+      <c r="AB13" s="188"/>
+      <c r="AC13" s="188"/>
+      <c r="AD13" s="188"/>
+      <c r="AE13" s="189"/>
+      <c r="AF13" s="190"/>
+      <c r="AG13" s="191"/>
+      <c r="AH13" s="191"/>
+      <c r="AI13" s="192"/>
     </row>
     <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
-      <c r="B14" s="185"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="212"/>
-      <c r="E14" s="213"/>
-      <c r="F14" s="214"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="187"/>
-      <c r="J14" s="197"/>
-      <c r="K14" s="198"/>
-      <c r="L14" s="198"/>
-      <c r="M14" s="198"/>
-      <c r="N14" s="198"/>
-      <c r="O14" s="198"/>
-      <c r="P14" s="199"/>
-      <c r="Q14" s="194"/>
-      <c r="R14" s="195"/>
-      <c r="S14" s="195"/>
-      <c r="T14" s="195"/>
-      <c r="U14" s="195"/>
-      <c r="V14" s="195"/>
-      <c r="W14" s="195"/>
-      <c r="X14" s="195"/>
-      <c r="Y14" s="195"/>
-      <c r="Z14" s="195"/>
-      <c r="AA14" s="195"/>
-      <c r="AB14" s="195"/>
-      <c r="AC14" s="195"/>
-      <c r="AD14" s="195"/>
-      <c r="AE14" s="196"/>
-      <c r="AF14" s="197"/>
-      <c r="AG14" s="198"/>
-      <c r="AH14" s="198"/>
-      <c r="AI14" s="199"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="195"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="198"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="191"/>
+      <c r="L14" s="191"/>
+      <c r="M14" s="191"/>
+      <c r="N14" s="191"/>
+      <c r="O14" s="191"/>
+      <c r="P14" s="192"/>
+      <c r="Q14" s="187"/>
+      <c r="R14" s="188"/>
+      <c r="S14" s="188"/>
+      <c r="T14" s="188"/>
+      <c r="U14" s="188"/>
+      <c r="V14" s="188"/>
+      <c r="W14" s="188"/>
+      <c r="X14" s="188"/>
+      <c r="Y14" s="188"/>
+      <c r="Z14" s="188"/>
+      <c r="AA14" s="188"/>
+      <c r="AB14" s="188"/>
+      <c r="AC14" s="188"/>
+      <c r="AD14" s="188"/>
+      <c r="AE14" s="189"/>
+      <c r="AF14" s="190"/>
+      <c r="AG14" s="191"/>
+      <c r="AH14" s="191"/>
+      <c r="AI14" s="192"/>
     </row>
     <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
-      <c r="B15" s="185"/>
-      <c r="C15" s="187"/>
-      <c r="D15" s="212"/>
-      <c r="E15" s="213"/>
-      <c r="F15" s="214"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="198"/>
-      <c r="O15" s="198"/>
-      <c r="P15" s="199"/>
-      <c r="Q15" s="194"/>
-      <c r="R15" s="195"/>
-      <c r="S15" s="195"/>
-      <c r="T15" s="195"/>
-      <c r="U15" s="195"/>
-      <c r="V15" s="195"/>
-      <c r="W15" s="195"/>
-      <c r="X15" s="195"/>
-      <c r="Y15" s="195"/>
-      <c r="Z15" s="195"/>
-      <c r="AA15" s="195"/>
-      <c r="AB15" s="195"/>
-      <c r="AC15" s="195"/>
-      <c r="AD15" s="195"/>
-      <c r="AE15" s="196"/>
-      <c r="AF15" s="197"/>
-      <c r="AG15" s="198"/>
-      <c r="AH15" s="198"/>
-      <c r="AI15" s="199"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="195"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="194"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="191"/>
+      <c r="L15" s="191"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="191"/>
+      <c r="O15" s="191"/>
+      <c r="P15" s="192"/>
+      <c r="Q15" s="187"/>
+      <c r="R15" s="188"/>
+      <c r="S15" s="188"/>
+      <c r="T15" s="188"/>
+      <c r="U15" s="188"/>
+      <c r="V15" s="188"/>
+      <c r="W15" s="188"/>
+      <c r="X15" s="188"/>
+      <c r="Y15" s="188"/>
+      <c r="Z15" s="188"/>
+      <c r="AA15" s="188"/>
+      <c r="AB15" s="188"/>
+      <c r="AC15" s="188"/>
+      <c r="AD15" s="188"/>
+      <c r="AE15" s="189"/>
+      <c r="AF15" s="190"/>
+      <c r="AG15" s="191"/>
+      <c r="AH15" s="191"/>
+      <c r="AI15" s="192"/>
     </row>
     <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
-      <c r="B16" s="185"/>
-      <c r="C16" s="187"/>
-      <c r="D16" s="212"/>
-      <c r="E16" s="213"/>
-      <c r="F16" s="214"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="198"/>
-      <c r="L16" s="198"/>
-      <c r="M16" s="198"/>
-      <c r="N16" s="198"/>
-      <c r="O16" s="198"/>
-      <c r="P16" s="199"/>
-      <c r="Q16" s="194"/>
-      <c r="R16" s="195"/>
-      <c r="S16" s="195"/>
-      <c r="T16" s="195"/>
-      <c r="U16" s="195"/>
-      <c r="V16" s="195"/>
-      <c r="W16" s="195"/>
-      <c r="X16" s="195"/>
-      <c r="Y16" s="195"/>
-      <c r="Z16" s="195"/>
-      <c r="AA16" s="195"/>
-      <c r="AB16" s="195"/>
-      <c r="AC16" s="195"/>
-      <c r="AD16" s="195"/>
-      <c r="AE16" s="196"/>
-      <c r="AF16" s="197"/>
-      <c r="AG16" s="198"/>
-      <c r="AH16" s="198"/>
-      <c r="AI16" s="199"/>
+      <c r="B16" s="193"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="195"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="198"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="191"/>
+      <c r="L16" s="191"/>
+      <c r="M16" s="191"/>
+      <c r="N16" s="191"/>
+      <c r="O16" s="191"/>
+      <c r="P16" s="192"/>
+      <c r="Q16" s="187"/>
+      <c r="R16" s="188"/>
+      <c r="S16" s="188"/>
+      <c r="T16" s="188"/>
+      <c r="U16" s="188"/>
+      <c r="V16" s="188"/>
+      <c r="W16" s="188"/>
+      <c r="X16" s="188"/>
+      <c r="Y16" s="188"/>
+      <c r="Z16" s="188"/>
+      <c r="AA16" s="188"/>
+      <c r="AB16" s="188"/>
+      <c r="AC16" s="188"/>
+      <c r="AD16" s="188"/>
+      <c r="AE16" s="189"/>
+      <c r="AF16" s="190"/>
+      <c r="AG16" s="191"/>
+      <c r="AH16" s="191"/>
+      <c r="AI16" s="192"/>
     </row>
     <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
-      <c r="B17" s="185"/>
-      <c r="C17" s="187"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="213"/>
-      <c r="F17" s="214"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="198"/>
-      <c r="L17" s="198"/>
-      <c r="M17" s="198"/>
-      <c r="N17" s="198"/>
-      <c r="O17" s="198"/>
-      <c r="P17" s="199"/>
-      <c r="Q17" s="194"/>
-      <c r="R17" s="195"/>
-      <c r="S17" s="195"/>
-      <c r="T17" s="195"/>
-      <c r="U17" s="195"/>
-      <c r="V17" s="195"/>
-      <c r="W17" s="195"/>
-      <c r="X17" s="195"/>
-      <c r="Y17" s="195"/>
-      <c r="Z17" s="195"/>
-      <c r="AA17" s="195"/>
-      <c r="AB17" s="195"/>
-      <c r="AC17" s="195"/>
-      <c r="AD17" s="195"/>
-      <c r="AE17" s="196"/>
-      <c r="AF17" s="197"/>
-      <c r="AG17" s="198"/>
-      <c r="AH17" s="198"/>
-      <c r="AI17" s="199"/>
+      <c r="B17" s="193"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="196"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="190"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="191"/>
+      <c r="M17" s="191"/>
+      <c r="N17" s="191"/>
+      <c r="O17" s="191"/>
+      <c r="P17" s="192"/>
+      <c r="Q17" s="187"/>
+      <c r="R17" s="188"/>
+      <c r="S17" s="188"/>
+      <c r="T17" s="188"/>
+      <c r="U17" s="188"/>
+      <c r="V17" s="188"/>
+      <c r="W17" s="188"/>
+      <c r="X17" s="188"/>
+      <c r="Y17" s="188"/>
+      <c r="Z17" s="188"/>
+      <c r="AA17" s="188"/>
+      <c r="AB17" s="188"/>
+      <c r="AC17" s="188"/>
+      <c r="AD17" s="188"/>
+      <c r="AE17" s="189"/>
+      <c r="AF17" s="190"/>
+      <c r="AG17" s="191"/>
+      <c r="AH17" s="191"/>
+      <c r="AI17" s="192"/>
     </row>
     <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
-      <c r="B18" s="185"/>
-      <c r="C18" s="187"/>
-      <c r="D18" s="212"/>
-      <c r="E18" s="213"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="198"/>
-      <c r="L18" s="198"/>
-      <c r="M18" s="198"/>
-      <c r="N18" s="198"/>
-      <c r="O18" s="198"/>
-      <c r="P18" s="199"/>
-      <c r="Q18" s="194"/>
-      <c r="R18" s="195"/>
-      <c r="S18" s="195"/>
-      <c r="T18" s="195"/>
-      <c r="U18" s="195"/>
-      <c r="V18" s="195"/>
-      <c r="W18" s="195"/>
-      <c r="X18" s="195"/>
-      <c r="Y18" s="195"/>
-      <c r="Z18" s="195"/>
-      <c r="AA18" s="195"/>
-      <c r="AB18" s="195"/>
-      <c r="AC18" s="195"/>
-      <c r="AD18" s="195"/>
-      <c r="AE18" s="196"/>
-      <c r="AF18" s="197"/>
-      <c r="AG18" s="198"/>
-      <c r="AH18" s="198"/>
-      <c r="AI18" s="199"/>
+      <c r="B18" s="193"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="196"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="198"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="190"/>
+      <c r="K18" s="191"/>
+      <c r="L18" s="191"/>
+      <c r="M18" s="191"/>
+      <c r="N18" s="191"/>
+      <c r="O18" s="191"/>
+      <c r="P18" s="192"/>
+      <c r="Q18" s="187"/>
+      <c r="R18" s="188"/>
+      <c r="S18" s="188"/>
+      <c r="T18" s="188"/>
+      <c r="U18" s="188"/>
+      <c r="V18" s="188"/>
+      <c r="W18" s="188"/>
+      <c r="X18" s="188"/>
+      <c r="Y18" s="188"/>
+      <c r="Z18" s="188"/>
+      <c r="AA18" s="188"/>
+      <c r="AB18" s="188"/>
+      <c r="AC18" s="188"/>
+      <c r="AD18" s="188"/>
+      <c r="AE18" s="189"/>
+      <c r="AF18" s="190"/>
+      <c r="AG18" s="191"/>
+      <c r="AH18" s="191"/>
+      <c r="AI18" s="192"/>
     </row>
     <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
-      <c r="B19" s="185"/>
-      <c r="C19" s="187"/>
-      <c r="D19" s="212"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="197"/>
-      <c r="K19" s="198"/>
-      <c r="L19" s="198"/>
-      <c r="M19" s="198"/>
-      <c r="N19" s="198"/>
-      <c r="O19" s="198"/>
-      <c r="P19" s="199"/>
-      <c r="Q19" s="194"/>
-      <c r="R19" s="195"/>
-      <c r="S19" s="195"/>
-      <c r="T19" s="195"/>
-      <c r="U19" s="195"/>
-      <c r="V19" s="195"/>
-      <c r="W19" s="195"/>
-      <c r="X19" s="195"/>
-      <c r="Y19" s="195"/>
-      <c r="Z19" s="195"/>
-      <c r="AA19" s="195"/>
-      <c r="AB19" s="195"/>
-      <c r="AC19" s="195"/>
-      <c r="AD19" s="195"/>
-      <c r="AE19" s="196"/>
-      <c r="AF19" s="197"/>
-      <c r="AG19" s="198"/>
-      <c r="AH19" s="198"/>
-      <c r="AI19" s="199"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="195"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="198"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="190"/>
+      <c r="K19" s="191"/>
+      <c r="L19" s="191"/>
+      <c r="M19" s="191"/>
+      <c r="N19" s="191"/>
+      <c r="O19" s="191"/>
+      <c r="P19" s="192"/>
+      <c r="Q19" s="187"/>
+      <c r="R19" s="188"/>
+      <c r="S19" s="188"/>
+      <c r="T19" s="188"/>
+      <c r="U19" s="188"/>
+      <c r="V19" s="188"/>
+      <c r="W19" s="188"/>
+      <c r="X19" s="188"/>
+      <c r="Y19" s="188"/>
+      <c r="Z19" s="188"/>
+      <c r="AA19" s="188"/>
+      <c r="AB19" s="188"/>
+      <c r="AC19" s="188"/>
+      <c r="AD19" s="188"/>
+      <c r="AE19" s="189"/>
+      <c r="AF19" s="190"/>
+      <c r="AG19" s="191"/>
+      <c r="AH19" s="191"/>
+      <c r="AI19" s="192"/>
     </row>
     <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
-      <c r="B20" s="185"/>
-      <c r="C20" s="187"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="213"/>
-      <c r="F20" s="214"/>
-      <c r="G20" s="185"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="197"/>
-      <c r="K20" s="198"/>
-      <c r="L20" s="198"/>
-      <c r="M20" s="198"/>
-      <c r="N20" s="198"/>
-      <c r="O20" s="198"/>
-      <c r="P20" s="199"/>
-      <c r="Q20" s="194"/>
-      <c r="R20" s="195"/>
-      <c r="S20" s="195"/>
-      <c r="T20" s="195"/>
-      <c r="U20" s="195"/>
-      <c r="V20" s="195"/>
-      <c r="W20" s="195"/>
-      <c r="X20" s="195"/>
-      <c r="Y20" s="195"/>
-      <c r="Z20" s="195"/>
-      <c r="AA20" s="195"/>
-      <c r="AB20" s="195"/>
-      <c r="AC20" s="195"/>
-      <c r="AD20" s="195"/>
-      <c r="AE20" s="196"/>
-      <c r="AF20" s="197"/>
-      <c r="AG20" s="198"/>
-      <c r="AH20" s="198"/>
-      <c r="AI20" s="199"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="195"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="197"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="198"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="190"/>
+      <c r="K20" s="191"/>
+      <c r="L20" s="191"/>
+      <c r="M20" s="191"/>
+      <c r="N20" s="191"/>
+      <c r="O20" s="191"/>
+      <c r="P20" s="192"/>
+      <c r="Q20" s="187"/>
+      <c r="R20" s="188"/>
+      <c r="S20" s="188"/>
+      <c r="T20" s="188"/>
+      <c r="U20" s="188"/>
+      <c r="V20" s="188"/>
+      <c r="W20" s="188"/>
+      <c r="X20" s="188"/>
+      <c r="Y20" s="188"/>
+      <c r="Z20" s="188"/>
+      <c r="AA20" s="188"/>
+      <c r="AB20" s="188"/>
+      <c r="AC20" s="188"/>
+      <c r="AD20" s="188"/>
+      <c r="AE20" s="189"/>
+      <c r="AF20" s="190"/>
+      <c r="AG20" s="191"/>
+      <c r="AH20" s="191"/>
+      <c r="AI20" s="192"/>
     </row>
     <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
-      <c r="B21" s="185"/>
-      <c r="C21" s="187"/>
-      <c r="D21" s="212"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="197"/>
-      <c r="K21" s="198"/>
-      <c r="L21" s="198"/>
-      <c r="M21" s="198"/>
-      <c r="N21" s="198"/>
-      <c r="O21" s="198"/>
-      <c r="P21" s="199"/>
-      <c r="Q21" s="194"/>
-      <c r="R21" s="195"/>
-      <c r="S21" s="195"/>
-      <c r="T21" s="195"/>
-      <c r="U21" s="195"/>
-      <c r="V21" s="195"/>
-      <c r="W21" s="195"/>
-      <c r="X21" s="195"/>
-      <c r="Y21" s="195"/>
-      <c r="Z21" s="195"/>
-      <c r="AA21" s="195"/>
-      <c r="AB21" s="195"/>
-      <c r="AC21" s="195"/>
-      <c r="AD21" s="195"/>
-      <c r="AE21" s="196"/>
-      <c r="AF21" s="197"/>
-      <c r="AG21" s="198"/>
-      <c r="AH21" s="198"/>
-      <c r="AI21" s="199"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="195"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="198"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="190"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="191"/>
+      <c r="M21" s="191"/>
+      <c r="N21" s="191"/>
+      <c r="O21" s="191"/>
+      <c r="P21" s="192"/>
+      <c r="Q21" s="187"/>
+      <c r="R21" s="188"/>
+      <c r="S21" s="188"/>
+      <c r="T21" s="188"/>
+      <c r="U21" s="188"/>
+      <c r="V21" s="188"/>
+      <c r="W21" s="188"/>
+      <c r="X21" s="188"/>
+      <c r="Y21" s="188"/>
+      <c r="Z21" s="188"/>
+      <c r="AA21" s="188"/>
+      <c r="AB21" s="188"/>
+      <c r="AC21" s="188"/>
+      <c r="AD21" s="188"/>
+      <c r="AE21" s="189"/>
+      <c r="AF21" s="190"/>
+      <c r="AG21" s="191"/>
+      <c r="AH21" s="191"/>
+      <c r="AI21" s="192"/>
     </row>
     <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
-      <c r="B22" s="185"/>
-      <c r="C22" s="187"/>
-      <c r="D22" s="212"/>
-      <c r="E22" s="213"/>
-      <c r="F22" s="214"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="187"/>
-      <c r="J22" s="197"/>
-      <c r="K22" s="198"/>
-      <c r="L22" s="198"/>
-      <c r="M22" s="198"/>
-      <c r="N22" s="198"/>
-      <c r="O22" s="198"/>
-      <c r="P22" s="199"/>
-      <c r="Q22" s="194"/>
-      <c r="R22" s="195"/>
-      <c r="S22" s="195"/>
-      <c r="T22" s="195"/>
-      <c r="U22" s="195"/>
-      <c r="V22" s="195"/>
-      <c r="W22" s="195"/>
-      <c r="X22" s="195"/>
-      <c r="Y22" s="195"/>
-      <c r="Z22" s="195"/>
-      <c r="AA22" s="195"/>
-      <c r="AB22" s="195"/>
-      <c r="AC22" s="195"/>
-      <c r="AD22" s="195"/>
-      <c r="AE22" s="196"/>
-      <c r="AF22" s="197"/>
-      <c r="AG22" s="198"/>
-      <c r="AH22" s="198"/>
-      <c r="AI22" s="199"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="195"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="193"/>
+      <c r="H22" s="198"/>
+      <c r="I22" s="194"/>
+      <c r="J22" s="190"/>
+      <c r="K22" s="191"/>
+      <c r="L22" s="191"/>
+      <c r="M22" s="191"/>
+      <c r="N22" s="191"/>
+      <c r="O22" s="191"/>
+      <c r="P22" s="192"/>
+      <c r="Q22" s="187"/>
+      <c r="R22" s="188"/>
+      <c r="S22" s="188"/>
+      <c r="T22" s="188"/>
+      <c r="U22" s="188"/>
+      <c r="V22" s="188"/>
+      <c r="W22" s="188"/>
+      <c r="X22" s="188"/>
+      <c r="Y22" s="188"/>
+      <c r="Z22" s="188"/>
+      <c r="AA22" s="188"/>
+      <c r="AB22" s="188"/>
+      <c r="AC22" s="188"/>
+      <c r="AD22" s="188"/>
+      <c r="AE22" s="189"/>
+      <c r="AF22" s="190"/>
+      <c r="AG22" s="191"/>
+      <c r="AH22" s="191"/>
+      <c r="AI22" s="192"/>
     </row>
     <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
-      <c r="B23" s="185"/>
-      <c r="C23" s="187"/>
-      <c r="D23" s="212"/>
-      <c r="E23" s="213"/>
-      <c r="F23" s="214"/>
-      <c r="G23" s="185"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="197"/>
-      <c r="K23" s="198"/>
-      <c r="L23" s="198"/>
-      <c r="M23" s="198"/>
-      <c r="N23" s="198"/>
-      <c r="O23" s="198"/>
-      <c r="P23" s="199"/>
-      <c r="Q23" s="194"/>
-      <c r="R23" s="195"/>
-      <c r="S23" s="195"/>
-      <c r="T23" s="195"/>
-      <c r="U23" s="195"/>
-      <c r="V23" s="195"/>
-      <c r="W23" s="195"/>
-      <c r="X23" s="195"/>
-      <c r="Y23" s="195"/>
-      <c r="Z23" s="195"/>
-      <c r="AA23" s="195"/>
-      <c r="AB23" s="195"/>
-      <c r="AC23" s="195"/>
-      <c r="AD23" s="195"/>
-      <c r="AE23" s="196"/>
-      <c r="AF23" s="197"/>
-      <c r="AG23" s="198"/>
-      <c r="AH23" s="198"/>
-      <c r="AI23" s="199"/>
+      <c r="B23" s="193"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="195"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="197"/>
+      <c r="G23" s="193"/>
+      <c r="H23" s="198"/>
+      <c r="I23" s="194"/>
+      <c r="J23" s="190"/>
+      <c r="K23" s="191"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="191"/>
+      <c r="O23" s="191"/>
+      <c r="P23" s="192"/>
+      <c r="Q23" s="187"/>
+      <c r="R23" s="188"/>
+      <c r="S23" s="188"/>
+      <c r="T23" s="188"/>
+      <c r="U23" s="188"/>
+      <c r="V23" s="188"/>
+      <c r="W23" s="188"/>
+      <c r="X23" s="188"/>
+      <c r="Y23" s="188"/>
+      <c r="Z23" s="188"/>
+      <c r="AA23" s="188"/>
+      <c r="AB23" s="188"/>
+      <c r="AC23" s="188"/>
+      <c r="AD23" s="188"/>
+      <c r="AE23" s="189"/>
+      <c r="AF23" s="190"/>
+      <c r="AG23" s="191"/>
+      <c r="AH23" s="191"/>
+      <c r="AI23" s="192"/>
     </row>
     <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
-      <c r="B24" s="185"/>
-      <c r="C24" s="187"/>
-      <c r="D24" s="212"/>
-      <c r="E24" s="213"/>
-      <c r="F24" s="214"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="197"/>
-      <c r="K24" s="198"/>
-      <c r="L24" s="198"/>
-      <c r="M24" s="198"/>
-      <c r="N24" s="198"/>
-      <c r="O24" s="198"/>
-      <c r="P24" s="199"/>
-      <c r="Q24" s="194"/>
-      <c r="R24" s="195"/>
-      <c r="S24" s="195"/>
-      <c r="T24" s="195"/>
-      <c r="U24" s="195"/>
-      <c r="V24" s="195"/>
-      <c r="W24" s="195"/>
-      <c r="X24" s="195"/>
-      <c r="Y24" s="195"/>
-      <c r="Z24" s="195"/>
-      <c r="AA24" s="195"/>
-      <c r="AB24" s="195"/>
-      <c r="AC24" s="195"/>
-      <c r="AD24" s="195"/>
-      <c r="AE24" s="196"/>
-      <c r="AF24" s="197"/>
-      <c r="AG24" s="198"/>
-      <c r="AH24" s="198"/>
-      <c r="AI24" s="199"/>
+      <c r="B24" s="193"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="195"/>
+      <c r="E24" s="196"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="193"/>
+      <c r="H24" s="198"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="190"/>
+      <c r="K24" s="191"/>
+      <c r="L24" s="191"/>
+      <c r="M24" s="191"/>
+      <c r="N24" s="191"/>
+      <c r="O24" s="191"/>
+      <c r="P24" s="192"/>
+      <c r="Q24" s="187"/>
+      <c r="R24" s="188"/>
+      <c r="S24" s="188"/>
+      <c r="T24" s="188"/>
+      <c r="U24" s="188"/>
+      <c r="V24" s="188"/>
+      <c r="W24" s="188"/>
+      <c r="X24" s="188"/>
+      <c r="Y24" s="188"/>
+      <c r="Z24" s="188"/>
+      <c r="AA24" s="188"/>
+      <c r="AB24" s="188"/>
+      <c r="AC24" s="188"/>
+      <c r="AD24" s="188"/>
+      <c r="AE24" s="189"/>
+      <c r="AF24" s="190"/>
+      <c r="AG24" s="191"/>
+      <c r="AH24" s="191"/>
+      <c r="AI24" s="192"/>
     </row>
     <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
-      <c r="B25" s="185"/>
-      <c r="C25" s="187"/>
-      <c r="D25" s="212"/>
-      <c r="E25" s="213"/>
-      <c r="F25" s="214"/>
-      <c r="G25" s="185"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="197"/>
-      <c r="K25" s="198"/>
-      <c r="L25" s="198"/>
-      <c r="M25" s="198"/>
-      <c r="N25" s="198"/>
-      <c r="O25" s="198"/>
-      <c r="P25" s="199"/>
-      <c r="Q25" s="194"/>
-      <c r="R25" s="195"/>
-      <c r="S25" s="195"/>
-      <c r="T25" s="195"/>
-      <c r="U25" s="195"/>
-      <c r="V25" s="195"/>
-      <c r="W25" s="195"/>
-      <c r="X25" s="195"/>
-      <c r="Y25" s="195"/>
-      <c r="Z25" s="195"/>
-      <c r="AA25" s="195"/>
-      <c r="AB25" s="195"/>
-      <c r="AC25" s="195"/>
-      <c r="AD25" s="195"/>
-      <c r="AE25" s="196"/>
-      <c r="AF25" s="197"/>
-      <c r="AG25" s="198"/>
-      <c r="AH25" s="198"/>
-      <c r="AI25" s="199"/>
+      <c r="B25" s="193"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="196"/>
+      <c r="F25" s="197"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="198"/>
+      <c r="I25" s="194"/>
+      <c r="J25" s="190"/>
+      <c r="K25" s="191"/>
+      <c r="L25" s="191"/>
+      <c r="M25" s="191"/>
+      <c r="N25" s="191"/>
+      <c r="O25" s="191"/>
+      <c r="P25" s="192"/>
+      <c r="Q25" s="187"/>
+      <c r="R25" s="188"/>
+      <c r="S25" s="188"/>
+      <c r="T25" s="188"/>
+      <c r="U25" s="188"/>
+      <c r="V25" s="188"/>
+      <c r="W25" s="188"/>
+      <c r="X25" s="188"/>
+      <c r="Y25" s="188"/>
+      <c r="Z25" s="188"/>
+      <c r="AA25" s="188"/>
+      <c r="AB25" s="188"/>
+      <c r="AC25" s="188"/>
+      <c r="AD25" s="188"/>
+      <c r="AE25" s="189"/>
+      <c r="AF25" s="190"/>
+      <c r="AG25" s="191"/>
+      <c r="AH25" s="191"/>
+      <c r="AI25" s="192"/>
     </row>
     <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
-      <c r="B26" s="185"/>
-      <c r="C26" s="187"/>
-      <c r="D26" s="212"/>
-      <c r="E26" s="213"/>
-      <c r="F26" s="214"/>
-      <c r="G26" s="185"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="187"/>
-      <c r="J26" s="197"/>
-      <c r="K26" s="198"/>
-      <c r="L26" s="198"/>
-      <c r="M26" s="198"/>
-      <c r="N26" s="198"/>
-      <c r="O26" s="198"/>
-      <c r="P26" s="199"/>
-      <c r="Q26" s="194"/>
-      <c r="R26" s="195"/>
-      <c r="S26" s="195"/>
-      <c r="T26" s="195"/>
-      <c r="U26" s="195"/>
-      <c r="V26" s="195"/>
-      <c r="W26" s="195"/>
-      <c r="X26" s="195"/>
-      <c r="Y26" s="195"/>
-      <c r="Z26" s="195"/>
-      <c r="AA26" s="195"/>
-      <c r="AB26" s="195"/>
-      <c r="AC26" s="195"/>
-      <c r="AD26" s="195"/>
-      <c r="AE26" s="196"/>
-      <c r="AF26" s="197"/>
-      <c r="AG26" s="198"/>
-      <c r="AH26" s="198"/>
-      <c r="AI26" s="199"/>
+      <c r="B26" s="193"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="195"/>
+      <c r="E26" s="196"/>
+      <c r="F26" s="197"/>
+      <c r="G26" s="193"/>
+      <c r="H26" s="198"/>
+      <c r="I26" s="194"/>
+      <c r="J26" s="190"/>
+      <c r="K26" s="191"/>
+      <c r="L26" s="191"/>
+      <c r="M26" s="191"/>
+      <c r="N26" s="191"/>
+      <c r="O26" s="191"/>
+      <c r="P26" s="192"/>
+      <c r="Q26" s="187"/>
+      <c r="R26" s="188"/>
+      <c r="S26" s="188"/>
+      <c r="T26" s="188"/>
+      <c r="U26" s="188"/>
+      <c r="V26" s="188"/>
+      <c r="W26" s="188"/>
+      <c r="X26" s="188"/>
+      <c r="Y26" s="188"/>
+      <c r="Z26" s="188"/>
+      <c r="AA26" s="188"/>
+      <c r="AB26" s="188"/>
+      <c r="AC26" s="188"/>
+      <c r="AD26" s="188"/>
+      <c r="AE26" s="189"/>
+      <c r="AF26" s="190"/>
+      <c r="AG26" s="191"/>
+      <c r="AH26" s="191"/>
+      <c r="AI26" s="192"/>
     </row>
     <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
-      <c r="B27" s="185"/>
-      <c r="C27" s="187"/>
-      <c r="D27" s="212"/>
-      <c r="E27" s="213"/>
-      <c r="F27" s="214"/>
-      <c r="G27" s="185"/>
-      <c r="H27" s="186"/>
-      <c r="I27" s="187"/>
-      <c r="J27" s="197"/>
-      <c r="K27" s="198"/>
-      <c r="L27" s="198"/>
-      <c r="M27" s="198"/>
-      <c r="N27" s="198"/>
-      <c r="O27" s="198"/>
-      <c r="P27" s="199"/>
-      <c r="Q27" s="194"/>
-      <c r="R27" s="195"/>
-      <c r="S27" s="195"/>
-      <c r="T27" s="195"/>
-      <c r="U27" s="195"/>
-      <c r="V27" s="195"/>
-      <c r="W27" s="195"/>
-      <c r="X27" s="195"/>
-      <c r="Y27" s="195"/>
-      <c r="Z27" s="195"/>
-      <c r="AA27" s="195"/>
-      <c r="AB27" s="195"/>
-      <c r="AC27" s="195"/>
-      <c r="AD27" s="195"/>
-      <c r="AE27" s="196"/>
-      <c r="AF27" s="197"/>
-      <c r="AG27" s="198"/>
-      <c r="AH27" s="198"/>
-      <c r="AI27" s="199"/>
+      <c r="B27" s="193"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="195"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="197"/>
+      <c r="G27" s="193"/>
+      <c r="H27" s="198"/>
+      <c r="I27" s="194"/>
+      <c r="J27" s="190"/>
+      <c r="K27" s="191"/>
+      <c r="L27" s="191"/>
+      <c r="M27" s="191"/>
+      <c r="N27" s="191"/>
+      <c r="O27" s="191"/>
+      <c r="P27" s="192"/>
+      <c r="Q27" s="187"/>
+      <c r="R27" s="188"/>
+      <c r="S27" s="188"/>
+      <c r="T27" s="188"/>
+      <c r="U27" s="188"/>
+      <c r="V27" s="188"/>
+      <c r="W27" s="188"/>
+      <c r="X27" s="188"/>
+      <c r="Y27" s="188"/>
+      <c r="Z27" s="188"/>
+      <c r="AA27" s="188"/>
+      <c r="AB27" s="188"/>
+      <c r="AC27" s="188"/>
+      <c r="AD27" s="188"/>
+      <c r="AE27" s="189"/>
+      <c r="AF27" s="190"/>
+      <c r="AG27" s="191"/>
+      <c r="AH27" s="191"/>
+      <c r="AI27" s="192"/>
     </row>
     <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
-      <c r="B28" s="185"/>
-      <c r="C28" s="187"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="213"/>
-      <c r="F28" s="214"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="187"/>
-      <c r="J28" s="197"/>
-      <c r="K28" s="198"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="198"/>
-      <c r="N28" s="198"/>
-      <c r="O28" s="198"/>
-      <c r="P28" s="199"/>
-      <c r="Q28" s="194"/>
-      <c r="R28" s="195"/>
-      <c r="S28" s="195"/>
-      <c r="T28" s="195"/>
-      <c r="U28" s="195"/>
-      <c r="V28" s="195"/>
-      <c r="W28" s="195"/>
-      <c r="X28" s="195"/>
-      <c r="Y28" s="195"/>
-      <c r="Z28" s="195"/>
-      <c r="AA28" s="195"/>
-      <c r="AB28" s="195"/>
-      <c r="AC28" s="195"/>
-      <c r="AD28" s="195"/>
-      <c r="AE28" s="196"/>
-      <c r="AF28" s="197"/>
-      <c r="AG28" s="198"/>
-      <c r="AH28" s="198"/>
-      <c r="AI28" s="199"/>
+      <c r="B28" s="193"/>
+      <c r="C28" s="194"/>
+      <c r="D28" s="195"/>
+      <c r="E28" s="196"/>
+      <c r="F28" s="197"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="198"/>
+      <c r="I28" s="194"/>
+      <c r="J28" s="190"/>
+      <c r="K28" s="191"/>
+      <c r="L28" s="191"/>
+      <c r="M28" s="191"/>
+      <c r="N28" s="191"/>
+      <c r="O28" s="191"/>
+      <c r="P28" s="192"/>
+      <c r="Q28" s="187"/>
+      <c r="R28" s="188"/>
+      <c r="S28" s="188"/>
+      <c r="T28" s="188"/>
+      <c r="U28" s="188"/>
+      <c r="V28" s="188"/>
+      <c r="W28" s="188"/>
+      <c r="X28" s="188"/>
+      <c r="Y28" s="188"/>
+      <c r="Z28" s="188"/>
+      <c r="AA28" s="188"/>
+      <c r="AB28" s="188"/>
+      <c r="AC28" s="188"/>
+      <c r="AD28" s="188"/>
+      <c r="AE28" s="189"/>
+      <c r="AF28" s="190"/>
+      <c r="AG28" s="191"/>
+      <c r="AH28" s="191"/>
+      <c r="AI28" s="192"/>
     </row>
     <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
-      <c r="B29" s="185"/>
-      <c r="C29" s="187"/>
-      <c r="D29" s="212"/>
-      <c r="E29" s="213"/>
-      <c r="F29" s="214"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="187"/>
-      <c r="J29" s="197"/>
-      <c r="K29" s="198"/>
-      <c r="L29" s="198"/>
-      <c r="M29" s="198"/>
-      <c r="N29" s="198"/>
-      <c r="O29" s="198"/>
-      <c r="P29" s="199"/>
-      <c r="Q29" s="194"/>
-      <c r="R29" s="195"/>
-      <c r="S29" s="195"/>
-      <c r="T29" s="195"/>
-      <c r="U29" s="195"/>
-      <c r="V29" s="195"/>
-      <c r="W29" s="195"/>
-      <c r="X29" s="195"/>
-      <c r="Y29" s="195"/>
-      <c r="Z29" s="195"/>
-      <c r="AA29" s="195"/>
-      <c r="AB29" s="195"/>
-      <c r="AC29" s="195"/>
-      <c r="AD29" s="195"/>
-      <c r="AE29" s="196"/>
-      <c r="AF29" s="197"/>
-      <c r="AG29" s="198"/>
-      <c r="AH29" s="198"/>
-      <c r="AI29" s="199"/>
+      <c r="B29" s="193"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="195"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="197"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="198"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="190"/>
+      <c r="K29" s="191"/>
+      <c r="L29" s="191"/>
+      <c r="M29" s="191"/>
+      <c r="N29" s="191"/>
+      <c r="O29" s="191"/>
+      <c r="P29" s="192"/>
+      <c r="Q29" s="187"/>
+      <c r="R29" s="188"/>
+      <c r="S29" s="188"/>
+      <c r="T29" s="188"/>
+      <c r="U29" s="188"/>
+      <c r="V29" s="188"/>
+      <c r="W29" s="188"/>
+      <c r="X29" s="188"/>
+      <c r="Y29" s="188"/>
+      <c r="Z29" s="188"/>
+      <c r="AA29" s="188"/>
+      <c r="AB29" s="188"/>
+      <c r="AC29" s="188"/>
+      <c r="AD29" s="188"/>
+      <c r="AE29" s="189"/>
+      <c r="AF29" s="190"/>
+      <c r="AG29" s="191"/>
+      <c r="AH29" s="191"/>
+      <c r="AI29" s="192"/>
     </row>
     <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
-      <c r="B30" s="185"/>
-      <c r="C30" s="187"/>
-      <c r="D30" s="212"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="214"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="186"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="197"/>
-      <c r="K30" s="198"/>
-      <c r="L30" s="198"/>
-      <c r="M30" s="198"/>
-      <c r="N30" s="198"/>
-      <c r="O30" s="198"/>
-      <c r="P30" s="199"/>
-      <c r="Q30" s="194"/>
-      <c r="R30" s="195"/>
-      <c r="S30" s="195"/>
-      <c r="T30" s="195"/>
-      <c r="U30" s="195"/>
-      <c r="V30" s="195"/>
-      <c r="W30" s="195"/>
-      <c r="X30" s="195"/>
-      <c r="Y30" s="195"/>
-      <c r="Z30" s="195"/>
-      <c r="AA30" s="195"/>
-      <c r="AB30" s="195"/>
-      <c r="AC30" s="195"/>
-      <c r="AD30" s="195"/>
-      <c r="AE30" s="196"/>
-      <c r="AF30" s="197"/>
-      <c r="AG30" s="198"/>
-      <c r="AH30" s="198"/>
-      <c r="AI30" s="199"/>
+      <c r="B30" s="193"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="195"/>
+      <c r="E30" s="196"/>
+      <c r="F30" s="197"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="198"/>
+      <c r="I30" s="194"/>
+      <c r="J30" s="190"/>
+      <c r="K30" s="191"/>
+      <c r="L30" s="191"/>
+      <c r="M30" s="191"/>
+      <c r="N30" s="191"/>
+      <c r="O30" s="191"/>
+      <c r="P30" s="192"/>
+      <c r="Q30" s="187"/>
+      <c r="R30" s="188"/>
+      <c r="S30" s="188"/>
+      <c r="T30" s="188"/>
+      <c r="U30" s="188"/>
+      <c r="V30" s="188"/>
+      <c r="W30" s="188"/>
+      <c r="X30" s="188"/>
+      <c r="Y30" s="188"/>
+      <c r="Z30" s="188"/>
+      <c r="AA30" s="188"/>
+      <c r="AB30" s="188"/>
+      <c r="AC30" s="188"/>
+      <c r="AD30" s="188"/>
+      <c r="AE30" s="189"/>
+      <c r="AF30" s="190"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="192"/>
     </row>
     <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
-      <c r="B31" s="185"/>
-      <c r="C31" s="187"/>
-      <c r="D31" s="212"/>
-      <c r="E31" s="213"/>
-      <c r="F31" s="214"/>
-      <c r="G31" s="185"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="187"/>
-      <c r="J31" s="197"/>
-      <c r="K31" s="198"/>
-      <c r="L31" s="198"/>
-      <c r="M31" s="198"/>
-      <c r="N31" s="198"/>
-      <c r="O31" s="198"/>
-      <c r="P31" s="199"/>
-      <c r="Q31" s="194"/>
-      <c r="R31" s="195"/>
-      <c r="S31" s="195"/>
-      <c r="T31" s="195"/>
-      <c r="U31" s="195"/>
-      <c r="V31" s="195"/>
-      <c r="W31" s="195"/>
-      <c r="X31" s="195"/>
-      <c r="Y31" s="195"/>
-      <c r="Z31" s="195"/>
-      <c r="AA31" s="195"/>
-      <c r="AB31" s="195"/>
-      <c r="AC31" s="195"/>
-      <c r="AD31" s="195"/>
-      <c r="AE31" s="196"/>
-      <c r="AF31" s="197"/>
-      <c r="AG31" s="198"/>
-      <c r="AH31" s="198"/>
-      <c r="AI31" s="199"/>
+      <c r="B31" s="193"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="197"/>
+      <c r="G31" s="193"/>
+      <c r="H31" s="198"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="190"/>
+      <c r="K31" s="191"/>
+      <c r="L31" s="191"/>
+      <c r="M31" s="191"/>
+      <c r="N31" s="191"/>
+      <c r="O31" s="191"/>
+      <c r="P31" s="192"/>
+      <c r="Q31" s="187"/>
+      <c r="R31" s="188"/>
+      <c r="S31" s="188"/>
+      <c r="T31" s="188"/>
+      <c r="U31" s="188"/>
+      <c r="V31" s="188"/>
+      <c r="W31" s="188"/>
+      <c r="X31" s="188"/>
+      <c r="Y31" s="188"/>
+      <c r="Z31" s="188"/>
+      <c r="AA31" s="188"/>
+      <c r="AB31" s="188"/>
+      <c r="AC31" s="188"/>
+      <c r="AD31" s="188"/>
+      <c r="AE31" s="189"/>
+      <c r="AF31" s="190"/>
+      <c r="AG31" s="191"/>
+      <c r="AH31" s="191"/>
+      <c r="AI31" s="192"/>
     </row>
     <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
-      <c r="B32" s="185"/>
-      <c r="C32" s="187"/>
-      <c r="D32" s="212"/>
-      <c r="E32" s="213"/>
-      <c r="F32" s="214"/>
-      <c r="G32" s="185"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="187"/>
-      <c r="J32" s="197"/>
-      <c r="K32" s="198"/>
-      <c r="L32" s="198"/>
-      <c r="M32" s="198"/>
-      <c r="N32" s="198"/>
-      <c r="O32" s="198"/>
-      <c r="P32" s="199"/>
-      <c r="Q32" s="194"/>
-      <c r="R32" s="195"/>
-      <c r="S32" s="195"/>
-      <c r="T32" s="195"/>
-      <c r="U32" s="195"/>
-      <c r="V32" s="195"/>
-      <c r="W32" s="195"/>
-      <c r="X32" s="195"/>
-      <c r="Y32" s="195"/>
-      <c r="Z32" s="195"/>
-      <c r="AA32" s="195"/>
-      <c r="AB32" s="195"/>
-      <c r="AC32" s="195"/>
-      <c r="AD32" s="195"/>
-      <c r="AE32" s="196"/>
-      <c r="AF32" s="197"/>
-      <c r="AG32" s="198"/>
-      <c r="AH32" s="198"/>
-      <c r="AI32" s="199"/>
+      <c r="B32" s="193"/>
+      <c r="C32" s="194"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="193"/>
+      <c r="H32" s="198"/>
+      <c r="I32" s="194"/>
+      <c r="J32" s="190"/>
+      <c r="K32" s="191"/>
+      <c r="L32" s="191"/>
+      <c r="M32" s="191"/>
+      <c r="N32" s="191"/>
+      <c r="O32" s="191"/>
+      <c r="P32" s="192"/>
+      <c r="Q32" s="187"/>
+      <c r="R32" s="188"/>
+      <c r="S32" s="188"/>
+      <c r="T32" s="188"/>
+      <c r="U32" s="188"/>
+      <c r="V32" s="188"/>
+      <c r="W32" s="188"/>
+      <c r="X32" s="188"/>
+      <c r="Y32" s="188"/>
+      <c r="Z32" s="188"/>
+      <c r="AA32" s="188"/>
+      <c r="AB32" s="188"/>
+      <c r="AC32" s="188"/>
+      <c r="AD32" s="188"/>
+      <c r="AE32" s="189"/>
+      <c r="AF32" s="190"/>
+      <c r="AG32" s="191"/>
+      <c r="AH32" s="191"/>
+      <c r="AI32" s="192"/>
     </row>
     <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
-      <c r="B33" s="185"/>
-      <c r="C33" s="187"/>
-      <c r="D33" s="212"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="214"/>
-      <c r="G33" s="185"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="197"/>
-      <c r="K33" s="198"/>
-      <c r="L33" s="198"/>
-      <c r="M33" s="198"/>
-      <c r="N33" s="198"/>
-      <c r="O33" s="198"/>
-      <c r="P33" s="199"/>
-      <c r="Q33" s="194"/>
-      <c r="R33" s="195"/>
-      <c r="S33" s="195"/>
-      <c r="T33" s="195"/>
-      <c r="U33" s="195"/>
-      <c r="V33" s="195"/>
-      <c r="W33" s="195"/>
-      <c r="X33" s="195"/>
-      <c r="Y33" s="195"/>
-      <c r="Z33" s="195"/>
-      <c r="AA33" s="195"/>
-      <c r="AB33" s="195"/>
-      <c r="AC33" s="195"/>
-      <c r="AD33" s="195"/>
-      <c r="AE33" s="196"/>
-      <c r="AF33" s="197"/>
-      <c r="AG33" s="198"/>
-      <c r="AH33" s="198"/>
-      <c r="AI33" s="199"/>
+      <c r="B33" s="193"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="193"/>
+      <c r="H33" s="198"/>
+      <c r="I33" s="194"/>
+      <c r="J33" s="190"/>
+      <c r="K33" s="191"/>
+      <c r="L33" s="191"/>
+      <c r="M33" s="191"/>
+      <c r="N33" s="191"/>
+      <c r="O33" s="191"/>
+      <c r="P33" s="192"/>
+      <c r="Q33" s="187"/>
+      <c r="R33" s="188"/>
+      <c r="S33" s="188"/>
+      <c r="T33" s="188"/>
+      <c r="U33" s="188"/>
+      <c r="V33" s="188"/>
+      <c r="W33" s="188"/>
+      <c r="X33" s="188"/>
+      <c r="Y33" s="188"/>
+      <c r="Z33" s="188"/>
+      <c r="AA33" s="188"/>
+      <c r="AB33" s="188"/>
+      <c r="AC33" s="188"/>
+      <c r="AD33" s="188"/>
+      <c r="AE33" s="189"/>
+      <c r="AF33" s="190"/>
+      <c r="AG33" s="191"/>
+      <c r="AH33" s="191"/>
+      <c r="AI33" s="192"/>
     </row>
     <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
@@ -5384,6 +5374,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -5408,161 +5553,6 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -5579,7 +5569,7 @@
   <dimension ref="A1:AI37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5718,158 +5708,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="241" t="str">
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
-      <c r="N1" s="243"/>
-      <c r="O1" s="247" t="s">
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
+      <c r="M1" s="257"/>
+      <c r="N1" s="258"/>
+      <c r="O1" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="256" t="str">
+      <c r="P1" s="239"/>
+      <c r="Q1" s="239"/>
+      <c r="R1" s="240"/>
+      <c r="S1" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="257"/>
-      <c r="U1" s="257"/>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
-      <c r="X1" s="257"/>
-      <c r="Y1" s="257"/>
-      <c r="Z1" s="258"/>
-      <c r="AA1" s="244" t="s">
+      <c r="T1" s="248"/>
+      <c r="U1" s="248"/>
+      <c r="V1" s="248"/>
+      <c r="W1" s="248"/>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="248"/>
+      <c r="Z1" s="249"/>
+      <c r="AA1" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="246"/>
-      <c r="AC1" s="235" t="str">
+      <c r="AB1" s="237"/>
+      <c r="AC1" s="259" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="236"/>
-      <c r="AE1" s="236"/>
-      <c r="AF1" s="237"/>
-      <c r="AG1" s="238">
+      <c r="AD1" s="260"/>
+      <c r="AE1" s="260"/>
+      <c r="AF1" s="261"/>
+      <c r="AG1" s="262">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="239"/>
-      <c r="AI1" s="240"/>
+      <c r="AH1" s="263"/>
+      <c r="AI1" s="264"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="235" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="241" t="str">
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="242"/>
-      <c r="M2" s="242"/>
-      <c r="N2" s="243"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="252"/>
-      <c r="S2" s="259"/>
-      <c r="T2" s="260"/>
-      <c r="U2" s="260"/>
-      <c r="V2" s="260"/>
-      <c r="W2" s="260"/>
-      <c r="X2" s="260"/>
-      <c r="Y2" s="260"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="244" t="s">
+      <c r="F2" s="257"/>
+      <c r="G2" s="257"/>
+      <c r="H2" s="257"/>
+      <c r="I2" s="257"/>
+      <c r="J2" s="257"/>
+      <c r="K2" s="257"/>
+      <c r="L2" s="257"/>
+      <c r="M2" s="257"/>
+      <c r="N2" s="258"/>
+      <c r="O2" s="241"/>
+      <c r="P2" s="242"/>
+      <c r="Q2" s="242"/>
+      <c r="R2" s="243"/>
+      <c r="S2" s="250"/>
+      <c r="T2" s="251"/>
+      <c r="U2" s="251"/>
+      <c r="V2" s="251"/>
+      <c r="W2" s="251"/>
+      <c r="X2" s="251"/>
+      <c r="Y2" s="251"/>
+      <c r="Z2" s="252"/>
+      <c r="AA2" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="246"/>
-      <c r="AC2" s="235" t="str">
+      <c r="AB2" s="237"/>
+      <c r="AC2" s="259" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="236"/>
-      <c r="AE2" s="236"/>
-      <c r="AF2" s="237"/>
-      <c r="AG2" s="238" t="str">
+      <c r="AD2" s="260"/>
+      <c r="AE2" s="260"/>
+      <c r="AF2" s="261"/>
+      <c r="AG2" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="239"/>
-      <c r="AI2" s="240"/>
+      <c r="AH2" s="263"/>
+      <c r="AI2" s="264"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="241" t="str">
+      <c r="B3" s="236"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="242"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="243"/>
-      <c r="O3" s="253"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="255"/>
-      <c r="S3" s="262"/>
-      <c r="T3" s="263"/>
-      <c r="U3" s="263"/>
-      <c r="V3" s="263"/>
-      <c r="W3" s="263"/>
-      <c r="X3" s="263"/>
-      <c r="Y3" s="263"/>
-      <c r="Z3" s="264"/>
-      <c r="AA3" s="244"/>
-      <c r="AB3" s="246"/>
-      <c r="AC3" s="235" t="str">
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="257"/>
+      <c r="M3" s="257"/>
+      <c r="N3" s="258"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="245"/>
+      <c r="Q3" s="245"/>
+      <c r="R3" s="246"/>
+      <c r="S3" s="253"/>
+      <c r="T3" s="254"/>
+      <c r="U3" s="254"/>
+      <c r="V3" s="254"/>
+      <c r="W3" s="254"/>
+      <c r="X3" s="254"/>
+      <c r="Y3" s="254"/>
+      <c r="Z3" s="255"/>
+      <c r="AA3" s="235"/>
+      <c r="AB3" s="237"/>
+      <c r="AC3" s="259" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="236"/>
-      <c r="AE3" s="236"/>
-      <c r="AF3" s="237"/>
-      <c r="AG3" s="238" t="str">
+      <c r="AD3" s="260"/>
+      <c r="AE3" s="260"/>
+      <c r="AF3" s="261"/>
+      <c r="AG3" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="239"/>
-      <c r="AI3" s="240"/>
+      <c r="AH3" s="263"/>
+      <c r="AI3" s="264"/>
     </row>
     <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
@@ -6751,6 +6741,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6760,14 +6758,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -6784,7 +6774,7 @@
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6793,158 +6783,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="241" t="str">
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
-      <c r="N1" s="243"/>
-      <c r="O1" s="247" t="s">
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
+      <c r="M1" s="257"/>
+      <c r="N1" s="258"/>
+      <c r="O1" s="238" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="256" t="str">
+      <c r="P1" s="239"/>
+      <c r="Q1" s="239"/>
+      <c r="R1" s="240"/>
+      <c r="S1" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="257"/>
-      <c r="U1" s="257"/>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
-      <c r="X1" s="257"/>
-      <c r="Y1" s="257"/>
-      <c r="Z1" s="258"/>
-      <c r="AA1" s="244" t="s">
+      <c r="T1" s="248"/>
+      <c r="U1" s="248"/>
+      <c r="V1" s="248"/>
+      <c r="W1" s="248"/>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="248"/>
+      <c r="Z1" s="249"/>
+      <c r="AA1" s="235" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="246"/>
-      <c r="AC1" s="235" t="str">
+      <c r="AB1" s="237"/>
+      <c r="AC1" s="259" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="236"/>
-      <c r="AE1" s="236"/>
-      <c r="AF1" s="237"/>
-      <c r="AG1" s="238">
+      <c r="AD1" s="260"/>
+      <c r="AE1" s="260"/>
+      <c r="AF1" s="261"/>
+      <c r="AG1" s="262">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="239"/>
-      <c r="AI1" s="240"/>
+      <c r="AH1" s="263"/>
+      <c r="AI1" s="264"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="235" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="241" t="str">
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="242"/>
-      <c r="M2" s="242"/>
-      <c r="N2" s="243"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="252"/>
-      <c r="S2" s="259"/>
-      <c r="T2" s="260"/>
-      <c r="U2" s="260"/>
-      <c r="V2" s="260"/>
-      <c r="W2" s="260"/>
-      <c r="X2" s="260"/>
-      <c r="Y2" s="260"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="244" t="s">
+      <c r="F2" s="257"/>
+      <c r="G2" s="257"/>
+      <c r="H2" s="257"/>
+      <c r="I2" s="257"/>
+      <c r="J2" s="257"/>
+      <c r="K2" s="257"/>
+      <c r="L2" s="257"/>
+      <c r="M2" s="257"/>
+      <c r="N2" s="258"/>
+      <c r="O2" s="241"/>
+      <c r="P2" s="242"/>
+      <c r="Q2" s="242"/>
+      <c r="R2" s="243"/>
+      <c r="S2" s="250"/>
+      <c r="T2" s="251"/>
+      <c r="U2" s="251"/>
+      <c r="V2" s="251"/>
+      <c r="W2" s="251"/>
+      <c r="X2" s="251"/>
+      <c r="Y2" s="251"/>
+      <c r="Z2" s="252"/>
+      <c r="AA2" s="235" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="246"/>
-      <c r="AC2" s="235" t="str">
+      <c r="AB2" s="237"/>
+      <c r="AC2" s="259" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="236"/>
-      <c r="AE2" s="236"/>
-      <c r="AF2" s="237"/>
-      <c r="AG2" s="238" t="str">
+      <c r="AD2" s="260"/>
+      <c r="AE2" s="260"/>
+      <c r="AF2" s="261"/>
+      <c r="AG2" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="239"/>
-      <c r="AI2" s="240"/>
+      <c r="AH2" s="263"/>
+      <c r="AI2" s="264"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="241" t="str">
+      <c r="B3" s="236"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="242"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="243"/>
-      <c r="O3" s="253"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="255"/>
-      <c r="S3" s="262"/>
-      <c r="T3" s="263"/>
-      <c r="U3" s="263"/>
-      <c r="V3" s="263"/>
-      <c r="W3" s="263"/>
-      <c r="X3" s="263"/>
-      <c r="Y3" s="263"/>
-      <c r="Z3" s="264"/>
-      <c r="AA3" s="244"/>
-      <c r="AB3" s="246"/>
-      <c r="AC3" s="235" t="str">
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="257"/>
+      <c r="M3" s="257"/>
+      <c r="N3" s="258"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="245"/>
+      <c r="Q3" s="245"/>
+      <c r="R3" s="246"/>
+      <c r="S3" s="253"/>
+      <c r="T3" s="254"/>
+      <c r="U3" s="254"/>
+      <c r="V3" s="254"/>
+      <c r="W3" s="254"/>
+      <c r="X3" s="254"/>
+      <c r="Y3" s="254"/>
+      <c r="Z3" s="255"/>
+      <c r="AA3" s="235"/>
+      <c r="AB3" s="237"/>
+      <c r="AC3" s="259" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="236"/>
-      <c r="AE3" s="236"/>
-      <c r="AF3" s="237"/>
-      <c r="AG3" s="238" t="str">
+      <c r="AD3" s="260"/>
+      <c r="AE3" s="260"/>
+      <c r="AF3" s="261"/>
+      <c r="AG3" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="239"/>
-      <c r="AI3" s="240"/>
+      <c r="AH3" s="263"/>
+      <c r="AI3" s="264"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -7252,6 +7242,18 @@
     <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7263,18 +7265,6 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7294,7 +7284,7 @@
   <dimension ref="A1:BG157"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -7305,160 +7295,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="320" t="s">
+      <c r="A1" s="375" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="322"/>
-      <c r="E1" s="241" t="str">
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
-      <c r="N1" s="243"/>
-      <c r="O1" s="247" t="s">
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
+      <c r="M1" s="257"/>
+      <c r="N1" s="258"/>
+      <c r="O1" s="238" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="256" t="str">
+      <c r="P1" s="239"/>
+      <c r="Q1" s="239"/>
+      <c r="R1" s="240"/>
+      <c r="S1" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="257"/>
-      <c r="U1" s="257"/>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
-      <c r="X1" s="257"/>
-      <c r="Y1" s="257"/>
-      <c r="Z1" s="258"/>
-      <c r="AA1" s="244" t="s">
+      <c r="T1" s="248"/>
+      <c r="U1" s="248"/>
+      <c r="V1" s="248"/>
+      <c r="W1" s="248"/>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="248"/>
+      <c r="Z1" s="249"/>
+      <c r="AA1" s="235" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="246"/>
-      <c r="AC1" s="235" t="str">
+      <c r="AB1" s="237"/>
+      <c r="AC1" s="259" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="236"/>
-      <c r="AE1" s="236"/>
-      <c r="AF1" s="237"/>
-      <c r="AG1" s="317">
+      <c r="AD1" s="260"/>
+      <c r="AE1" s="260"/>
+      <c r="AF1" s="261"/>
+      <c r="AG1" s="372">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="318"/>
-      <c r="AI1" s="319"/>
+      <c r="AH1" s="373"/>
+      <c r="AI1" s="374"/>
       <c r="AJ1" s="94"/>
     </row>
     <row r="2" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="320" t="s">
+      <c r="A2" s="375" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="321"/>
-      <c r="C2" s="321"/>
-      <c r="D2" s="322"/>
-      <c r="E2" s="241" t="str">
+      <c r="B2" s="376"/>
+      <c r="C2" s="376"/>
+      <c r="D2" s="377"/>
+      <c r="E2" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="242"/>
-      <c r="M2" s="242"/>
-      <c r="N2" s="243"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="252"/>
-      <c r="S2" s="259"/>
-      <c r="T2" s="260"/>
-      <c r="U2" s="260"/>
-      <c r="V2" s="260"/>
-      <c r="W2" s="260"/>
-      <c r="X2" s="260"/>
-      <c r="Y2" s="260"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="244" t="s">
+      <c r="F2" s="257"/>
+      <c r="G2" s="257"/>
+      <c r="H2" s="257"/>
+      <c r="I2" s="257"/>
+      <c r="J2" s="257"/>
+      <c r="K2" s="257"/>
+      <c r="L2" s="257"/>
+      <c r="M2" s="257"/>
+      <c r="N2" s="258"/>
+      <c r="O2" s="241"/>
+      <c r="P2" s="242"/>
+      <c r="Q2" s="242"/>
+      <c r="R2" s="243"/>
+      <c r="S2" s="250"/>
+      <c r="T2" s="251"/>
+      <c r="U2" s="251"/>
+      <c r="V2" s="251"/>
+      <c r="W2" s="251"/>
+      <c r="X2" s="251"/>
+      <c r="Y2" s="251"/>
+      <c r="Z2" s="252"/>
+      <c r="AA2" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="246"/>
-      <c r="AC2" s="235" t="str">
+      <c r="AB2" s="237"/>
+      <c r="AC2" s="259" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="236"/>
-      <c r="AE2" s="236"/>
-      <c r="AF2" s="237"/>
-      <c r="AG2" s="317" t="str">
+      <c r="AD2" s="260"/>
+      <c r="AE2" s="260"/>
+      <c r="AF2" s="261"/>
+      <c r="AG2" s="372" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="318"/>
-      <c r="AI2" s="319"/>
+      <c r="AH2" s="373"/>
+      <c r="AI2" s="374"/>
       <c r="AJ2" s="94"/>
     </row>
     <row r="3" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="320" t="s">
+      <c r="A3" s="375" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="321"/>
-      <c r="C3" s="321"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="241" t="str">
+      <c r="B3" s="376"/>
+      <c r="C3" s="376"/>
+      <c r="D3" s="377"/>
+      <c r="E3" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="242"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="243"/>
-      <c r="O3" s="253"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="255"/>
-      <c r="S3" s="262"/>
-      <c r="T3" s="263"/>
-      <c r="U3" s="263"/>
-      <c r="V3" s="263"/>
-      <c r="W3" s="263"/>
-      <c r="X3" s="263"/>
-      <c r="Y3" s="263"/>
-      <c r="Z3" s="264"/>
-      <c r="AA3" s="244"/>
-      <c r="AB3" s="246"/>
-      <c r="AC3" s="235" t="str">
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="257"/>
+      <c r="M3" s="257"/>
+      <c r="N3" s="258"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="245"/>
+      <c r="Q3" s="245"/>
+      <c r="R3" s="246"/>
+      <c r="S3" s="253"/>
+      <c r="T3" s="254"/>
+      <c r="U3" s="254"/>
+      <c r="V3" s="254"/>
+      <c r="W3" s="254"/>
+      <c r="X3" s="254"/>
+      <c r="Y3" s="254"/>
+      <c r="Z3" s="255"/>
+      <c r="AA3" s="235"/>
+      <c r="AB3" s="237"/>
+      <c r="AC3" s="259" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="236"/>
-      <c r="AE3" s="236"/>
-      <c r="AF3" s="237"/>
-      <c r="AG3" s="317" t="str">
+      <c r="AD3" s="260"/>
+      <c r="AE3" s="260"/>
+      <c r="AF3" s="261"/>
+      <c r="AG3" s="372" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="318"/>
-      <c r="AI3" s="319"/>
+      <c r="AH3" s="373"/>
+      <c r="AI3" s="374"/>
       <c r="AJ3" s="94"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7610,39 +7600,39 @@
       <c r="D43" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="283" t="s">
+      <c r="E43" s="378" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="283"/>
-      <c r="G43" s="283"/>
-      <c r="H43" s="283"/>
-      <c r="I43" s="283"/>
-      <c r="J43" s="283"/>
-      <c r="K43" s="283"/>
-      <c r="L43" s="283"/>
-      <c r="M43" s="283"/>
-      <c r="N43" s="283" t="s">
+      <c r="F43" s="378"/>
+      <c r="G43" s="378"/>
+      <c r="H43" s="378"/>
+      <c r="I43" s="378"/>
+      <c r="J43" s="378"/>
+      <c r="K43" s="378"/>
+      <c r="L43" s="378"/>
+      <c r="M43" s="378"/>
+      <c r="N43" s="378" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="283"/>
-      <c r="P43" s="283"/>
-      <c r="Q43" s="283" t="s">
+      <c r="O43" s="378"/>
+      <c r="P43" s="378"/>
+      <c r="Q43" s="378" t="s">
         <v>56</v>
       </c>
-      <c r="R43" s="283"/>
-      <c r="S43" s="283"/>
-      <c r="T43" s="283"/>
-      <c r="U43" s="283"/>
-      <c r="V43" s="283" t="s">
+      <c r="R43" s="378"/>
+      <c r="S43" s="378"/>
+      <c r="T43" s="378"/>
+      <c r="U43" s="378"/>
+      <c r="V43" s="378" t="s">
         <v>57</v>
       </c>
-      <c r="W43" s="283"/>
-      <c r="X43" s="283"/>
-      <c r="Y43" s="283"/>
-      <c r="Z43" s="283"/>
-      <c r="AA43" s="283"/>
-      <c r="AB43" s="283"/>
-      <c r="AC43" s="283"/>
+      <c r="W43" s="378"/>
+      <c r="X43" s="378"/>
+      <c r="Y43" s="378"/>
+      <c r="Z43" s="378"/>
+      <c r="AA43" s="378"/>
+      <c r="AB43" s="378"/>
+      <c r="AC43" s="378"/>
       <c r="AD43" s="96"/>
       <c r="AE43" s="96"/>
       <c r="AF43" s="96"/>
@@ -7653,39 +7643,39 @@
       <c r="D44" s="98">
         <v>1</v>
       </c>
-      <c r="E44" s="284" t="s">
+      <c r="E44" s="379" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="284"/>
-      <c r="G44" s="284"/>
-      <c r="H44" s="284"/>
-      <c r="I44" s="284"/>
-      <c r="J44" s="284"/>
-      <c r="K44" s="284"/>
-      <c r="L44" s="284"/>
-      <c r="M44" s="284"/>
-      <c r="N44" s="284" t="s">
+      <c r="F44" s="379"/>
+      <c r="G44" s="379"/>
+      <c r="H44" s="379"/>
+      <c r="I44" s="379"/>
+      <c r="J44" s="379"/>
+      <c r="K44" s="379"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="284"/>
-      <c r="P44" s="284"/>
-      <c r="Q44" s="316" t="s">
+      <c r="O44" s="379"/>
+      <c r="P44" s="379"/>
+      <c r="Q44" s="336" t="s">
         <v>39</v>
       </c>
-      <c r="R44" s="316"/>
-      <c r="S44" s="316"/>
-      <c r="T44" s="316"/>
-      <c r="U44" s="316"/>
-      <c r="V44" s="316" t="s">
+      <c r="R44" s="336"/>
+      <c r="S44" s="336"/>
+      <c r="T44" s="336"/>
+      <c r="U44" s="336"/>
+      <c r="V44" s="336" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="316"/>
-      <c r="X44" s="316"/>
-      <c r="Y44" s="316"/>
-      <c r="Z44" s="316"/>
-      <c r="AA44" s="316"/>
-      <c r="AB44" s="316"/>
-      <c r="AC44" s="316"/>
+      <c r="W44" s="336"/>
+      <c r="X44" s="336"/>
+      <c r="Y44" s="336"/>
+      <c r="Z44" s="336"/>
+      <c r="AA44" s="336"/>
+      <c r="AB44" s="336"/>
+      <c r="AC44" s="336"/>
       <c r="AM44" s="40"/>
     </row>
     <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7762,36 +7752,36 @@
       <c r="AZ48" s="49"/>
     </row>
     <row r="49" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="332" t="s">
+      <c r="D49" s="290" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="307" t="s">
+      <c r="E49" s="367" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="308"/>
-      <c r="G49" s="308"/>
-      <c r="H49" s="308"/>
-      <c r="I49" s="308"/>
-      <c r="J49" s="308"/>
-      <c r="K49" s="308"/>
-      <c r="L49" s="308"/>
-      <c r="M49" s="308"/>
-      <c r="N49" s="308"/>
-      <c r="O49" s="308"/>
-      <c r="P49" s="308"/>
-      <c r="Q49" s="308"/>
-      <c r="R49" s="308"/>
-      <c r="S49" s="308"/>
-      <c r="T49" s="308"/>
-      <c r="U49" s="308"/>
-      <c r="V49" s="308"/>
-      <c r="W49" s="308"/>
-      <c r="X49" s="308"/>
-      <c r="Y49" s="308"/>
-      <c r="Z49" s="308"/>
-      <c r="AA49" s="308"/>
-      <c r="AB49" s="308"/>
-      <c r="AC49" s="309"/>
+      <c r="F49" s="368"/>
+      <c r="G49" s="368"/>
+      <c r="H49" s="368"/>
+      <c r="I49" s="368"/>
+      <c r="J49" s="368"/>
+      <c r="K49" s="368"/>
+      <c r="L49" s="368"/>
+      <c r="M49" s="368"/>
+      <c r="N49" s="368"/>
+      <c r="O49" s="368"/>
+      <c r="P49" s="368"/>
+      <c r="Q49" s="368"/>
+      <c r="R49" s="368"/>
+      <c r="S49" s="368"/>
+      <c r="T49" s="368"/>
+      <c r="U49" s="368"/>
+      <c r="V49" s="368"/>
+      <c r="W49" s="368"/>
+      <c r="X49" s="368"/>
+      <c r="Y49" s="368"/>
+      <c r="Z49" s="368"/>
+      <c r="AA49" s="368"/>
+      <c r="AB49" s="368"/>
+      <c r="AC49" s="369"/>
       <c r="AD49" s="266" t="s">
         <v>59</v>
       </c>
@@ -7809,29 +7799,29 @@
       <c r="AN49" s="49"/>
     </row>
     <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="333"/>
+      <c r="D50" s="337"/>
       <c r="E50" s="266" t="s">
         <v>61</v>
       </c>
       <c r="F50" s="267"/>
       <c r="G50" s="267"/>
       <c r="H50" s="268"/>
-      <c r="I50" s="301" t="s">
+      <c r="I50" s="338" t="s">
         <v>62</v>
       </c>
-      <c r="J50" s="302"/>
-      <c r="K50" s="302"/>
-      <c r="L50" s="303"/>
-      <c r="M50" s="301" t="s">
+      <c r="J50" s="339"/>
+      <c r="K50" s="339"/>
+      <c r="L50" s="340"/>
+      <c r="M50" s="338" t="s">
         <v>63</v>
       </c>
-      <c r="N50" s="302"/>
-      <c r="O50" s="302"/>
-      <c r="P50" s="302"/>
-      <c r="Q50" s="302"/>
-      <c r="R50" s="302"/>
-      <c r="S50" s="302"/>
-      <c r="T50" s="303"/>
+      <c r="N50" s="339"/>
+      <c r="O50" s="339"/>
+      <c r="P50" s="339"/>
+      <c r="Q50" s="339"/>
+      <c r="R50" s="339"/>
+      <c r="S50" s="339"/>
+      <c r="T50" s="340"/>
       <c r="U50" s="266" t="s">
         <v>64</v>
       </c>
@@ -7844,7 +7834,7 @@
       </c>
       <c r="AA50" s="267"/>
       <c r="AB50" s="268"/>
-      <c r="AC50" s="310" t="s">
+      <c r="AC50" s="384" t="s">
         <v>167</v>
       </c>
       <c r="AD50" s="269"/>
@@ -7866,23 +7856,23 @@
       <c r="AT50" s="49"/>
     </row>
     <row r="51" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="334"/>
+      <c r="D51" s="291"/>
       <c r="E51" s="272"/>
       <c r="F51" s="273"/>
       <c r="G51" s="273"/>
       <c r="H51" s="274"/>
-      <c r="I51" s="304"/>
-      <c r="J51" s="305"/>
-      <c r="K51" s="305"/>
-      <c r="L51" s="306"/>
-      <c r="M51" s="304"/>
-      <c r="N51" s="305"/>
-      <c r="O51" s="305"/>
-      <c r="P51" s="305"/>
-      <c r="Q51" s="305"/>
-      <c r="R51" s="305"/>
-      <c r="S51" s="305"/>
-      <c r="T51" s="306"/>
+      <c r="I51" s="341"/>
+      <c r="J51" s="342"/>
+      <c r="K51" s="342"/>
+      <c r="L51" s="343"/>
+      <c r="M51" s="341"/>
+      <c r="N51" s="342"/>
+      <c r="O51" s="342"/>
+      <c r="P51" s="342"/>
+      <c r="Q51" s="342"/>
+      <c r="R51" s="342"/>
+      <c r="S51" s="342"/>
+      <c r="T51" s="343"/>
       <c r="U51" s="272"/>
       <c r="V51" s="273"/>
       <c r="W51" s="273"/>
@@ -7891,7 +7881,7 @@
       <c r="Z51" s="272"/>
       <c r="AA51" s="273"/>
       <c r="AB51" s="274"/>
-      <c r="AC51" s="311"/>
+      <c r="AC51" s="385"/>
       <c r="AD51" s="272"/>
       <c r="AE51" s="273"/>
       <c r="AF51" s="273"/>
@@ -7921,44 +7911,44 @@
       </c>
       <c r="F52" s="279"/>
       <c r="G52" s="279"/>
-      <c r="H52" s="300"/>
-      <c r="I52" s="299" t="s">
+      <c r="H52" s="370"/>
+      <c r="I52" s="371" t="s">
         <v>68</v>
       </c>
-      <c r="J52" s="299"/>
-      <c r="K52" s="299"/>
-      <c r="L52" s="299"/>
-      <c r="M52" s="315" t="s">
+      <c r="J52" s="371"/>
+      <c r="K52" s="371"/>
+      <c r="L52" s="371"/>
+      <c r="M52" s="386" t="s">
         <v>39</v>
       </c>
-      <c r="N52" s="315"/>
-      <c r="O52" s="315"/>
-      <c r="P52" s="315"/>
-      <c r="Q52" s="315"/>
-      <c r="R52" s="315"/>
-      <c r="S52" s="315"/>
-      <c r="T52" s="315"/>
-      <c r="U52" s="295" t="s">
+      <c r="N52" s="386"/>
+      <c r="O52" s="386"/>
+      <c r="P52" s="386"/>
+      <c r="Q52" s="386"/>
+      <c r="R52" s="386"/>
+      <c r="S52" s="386"/>
+      <c r="T52" s="386"/>
+      <c r="U52" s="360" t="s">
         <v>39</v>
       </c>
-      <c r="V52" s="295"/>
-      <c r="W52" s="295"/>
-      <c r="X52" s="295"/>
-      <c r="Y52" s="295"/>
-      <c r="Z52" s="295" t="s">
+      <c r="V52" s="360"/>
+      <c r="W52" s="360"/>
+      <c r="X52" s="360"/>
+      <c r="Y52" s="360"/>
+      <c r="Z52" s="360" t="s">
         <v>39</v>
       </c>
-      <c r="AA52" s="295"/>
-      <c r="AB52" s="295"/>
+      <c r="AA52" s="360"/>
+      <c r="AB52" s="360"/>
       <c r="AC52" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="AD52" s="296" t="s">
+      <c r="AD52" s="354" t="s">
         <v>67</v>
       </c>
-      <c r="AE52" s="297"/>
-      <c r="AF52" s="297"/>
-      <c r="AG52" s="298"/>
+      <c r="AE52" s="288"/>
+      <c r="AF52" s="288"/>
+      <c r="AG52" s="289"/>
       <c r="AH52" s="49"/>
       <c r="AI52" s="49"/>
       <c r="AJ52" s="49"/>
@@ -7984,44 +7974,44 @@
       </c>
       <c r="F53" s="279"/>
       <c r="G53" s="279"/>
-      <c r="H53" s="300"/>
-      <c r="I53" s="299" t="s">
+      <c r="H53" s="370"/>
+      <c r="I53" s="371" t="s">
         <v>71</v>
       </c>
-      <c r="J53" s="299"/>
-      <c r="K53" s="299"/>
-      <c r="L53" s="299"/>
-      <c r="M53" s="312" t="s">
+      <c r="J53" s="371"/>
+      <c r="K53" s="371"/>
+      <c r="L53" s="371"/>
+      <c r="M53" s="313" t="s">
         <v>39</v>
       </c>
-      <c r="N53" s="313"/>
-      <c r="O53" s="313"/>
-      <c r="P53" s="313"/>
-      <c r="Q53" s="313"/>
-      <c r="R53" s="313"/>
-      <c r="S53" s="313"/>
-      <c r="T53" s="314"/>
-      <c r="U53" s="296" t="s">
+      <c r="N53" s="314"/>
+      <c r="O53" s="314"/>
+      <c r="P53" s="314"/>
+      <c r="Q53" s="314"/>
+      <c r="R53" s="314"/>
+      <c r="S53" s="314"/>
+      <c r="T53" s="315"/>
+      <c r="U53" s="354" t="s">
         <v>72</v>
       </c>
-      <c r="V53" s="297"/>
-      <c r="W53" s="297"/>
-      <c r="X53" s="297"/>
-      <c r="Y53" s="298"/>
-      <c r="Z53" s="295" t="s">
+      <c r="V53" s="288"/>
+      <c r="W53" s="288"/>
+      <c r="X53" s="288"/>
+      <c r="Y53" s="289"/>
+      <c r="Z53" s="360" t="s">
         <v>39</v>
       </c>
-      <c r="AA53" s="295"/>
-      <c r="AB53" s="295"/>
+      <c r="AA53" s="360"/>
+      <c r="AB53" s="360"/>
       <c r="AC53" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="AD53" s="296" t="s">
+      <c r="AD53" s="354" t="s">
         <v>73</v>
       </c>
-      <c r="AE53" s="297"/>
-      <c r="AF53" s="297"/>
-      <c r="AG53" s="298"/>
+      <c r="AE53" s="288"/>
+      <c r="AF53" s="288"/>
+      <c r="AG53" s="289"/>
       <c r="AH53" s="49"/>
       <c r="AI53" s="49"/>
       <c r="AJ53" s="49"/>
@@ -8146,24 +8136,24 @@
       <c r="AW57" s="42"/>
     </row>
     <row r="58" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D58" s="335" t="s">
+      <c r="D58" s="344" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="287" t="s">
+      <c r="E58" s="346" t="s">
         <v>75</v>
       </c>
-      <c r="F58" s="288"/>
-      <c r="G58" s="288"/>
-      <c r="H58" s="288"/>
-      <c r="I58" s="288"/>
-      <c r="J58" s="289"/>
-      <c r="K58" s="287" t="s">
+      <c r="F58" s="347"/>
+      <c r="G58" s="347"/>
+      <c r="H58" s="347"/>
+      <c r="I58" s="347"/>
+      <c r="J58" s="348"/>
+      <c r="K58" s="346" t="s">
         <v>76</v>
       </c>
-      <c r="L58" s="288"/>
-      <c r="M58" s="288"/>
-      <c r="N58" s="289"/>
-      <c r="O58" s="285" t="s">
+      <c r="L58" s="347"/>
+      <c r="M58" s="347"/>
+      <c r="N58" s="348"/>
+      <c r="O58" s="380" t="s">
         <v>77</v>
       </c>
       <c r="P58" s="110" t="s">
@@ -8174,21 +8164,21 @@
       <c r="S58" s="111"/>
       <c r="T58" s="111"/>
       <c r="U58" s="111"/>
-      <c r="V58" s="287" t="s">
+      <c r="V58" s="346" t="s">
         <v>57</v>
       </c>
-      <c r="W58" s="288"/>
-      <c r="X58" s="288"/>
-      <c r="Y58" s="288"/>
-      <c r="Z58" s="288"/>
-      <c r="AA58" s="288"/>
-      <c r="AB58" s="288"/>
-      <c r="AC58" s="288"/>
-      <c r="AD58" s="288"/>
-      <c r="AE58" s="288"/>
-      <c r="AF58" s="288"/>
-      <c r="AG58" s="288"/>
-      <c r="AH58" s="289"/>
+      <c r="W58" s="347"/>
+      <c r="X58" s="347"/>
+      <c r="Y58" s="347"/>
+      <c r="Z58" s="347"/>
+      <c r="AA58" s="347"/>
+      <c r="AB58" s="347"/>
+      <c r="AC58" s="347"/>
+      <c r="AD58" s="347"/>
+      <c r="AE58" s="347"/>
+      <c r="AF58" s="347"/>
+      <c r="AG58" s="347"/>
+      <c r="AH58" s="348"/>
       <c r="AK58" s="42"/>
       <c r="AL58" s="42"/>
       <c r="AM58" s="42"/>
@@ -8204,18 +8194,18 @@
       <c r="AW58" s="42"/>
     </row>
     <row r="59" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D59" s="336"/>
-      <c r="E59" s="290"/>
-      <c r="F59" s="291"/>
-      <c r="G59" s="291"/>
-      <c r="H59" s="291"/>
-      <c r="I59" s="291"/>
-      <c r="J59" s="292"/>
-      <c r="K59" s="290"/>
-      <c r="L59" s="291"/>
-      <c r="M59" s="291"/>
-      <c r="N59" s="292"/>
-      <c r="O59" s="286"/>
+      <c r="D59" s="345"/>
+      <c r="E59" s="349"/>
+      <c r="F59" s="350"/>
+      <c r="G59" s="350"/>
+      <c r="H59" s="350"/>
+      <c r="I59" s="350"/>
+      <c r="J59" s="351"/>
+      <c r="K59" s="349"/>
+      <c r="L59" s="350"/>
+      <c r="M59" s="350"/>
+      <c r="N59" s="351"/>
+      <c r="O59" s="381"/>
       <c r="P59" s="112" t="s">
         <v>79</v>
       </c>
@@ -8228,23 +8218,23 @@
       <c r="S59" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="T59" s="293" t="s">
+      <c r="T59" s="382" t="s">
         <v>83</v>
       </c>
-      <c r="U59" s="294"/>
-      <c r="V59" s="290"/>
-      <c r="W59" s="291"/>
-      <c r="X59" s="291"/>
-      <c r="Y59" s="291"/>
-      <c r="Z59" s="291"/>
-      <c r="AA59" s="291"/>
-      <c r="AB59" s="291"/>
-      <c r="AC59" s="291"/>
-      <c r="AD59" s="291"/>
-      <c r="AE59" s="291"/>
-      <c r="AF59" s="291"/>
-      <c r="AG59" s="291"/>
-      <c r="AH59" s="292"/>
+      <c r="U59" s="383"/>
+      <c r="V59" s="349"/>
+      <c r="W59" s="350"/>
+      <c r="X59" s="350"/>
+      <c r="Y59" s="350"/>
+      <c r="Z59" s="350"/>
+      <c r="AA59" s="350"/>
+      <c r="AB59" s="350"/>
+      <c r="AC59" s="350"/>
+      <c r="AD59" s="350"/>
+      <c r="AE59" s="350"/>
+      <c r="AF59" s="350"/>
+      <c r="AG59" s="350"/>
+      <c r="AH59" s="351"/>
       <c r="AK59" s="42"/>
       <c r="AL59" s="42"/>
       <c r="AM59" s="42"/>
@@ -8263,20 +8253,20 @@
       <c r="D60" s="113">
         <v>1</v>
       </c>
-      <c r="E60" s="341" t="s">
+      <c r="E60" s="304" t="s">
         <v>84</v>
       </c>
-      <c r="F60" s="342"/>
-      <c r="G60" s="342"/>
-      <c r="H60" s="342"/>
-      <c r="I60" s="342"/>
-      <c r="J60" s="343"/>
-      <c r="K60" s="296" t="s">
+      <c r="F60" s="305"/>
+      <c r="G60" s="305"/>
+      <c r="H60" s="305"/>
+      <c r="I60" s="305"/>
+      <c r="J60" s="306"/>
+      <c r="K60" s="354" t="s">
         <v>85</v>
       </c>
-      <c r="L60" s="297"/>
-      <c r="M60" s="297"/>
-      <c r="N60" s="298"/>
+      <c r="L60" s="288"/>
+      <c r="M60" s="288"/>
+      <c r="N60" s="289"/>
       <c r="O60" s="114" t="s">
         <v>86</v>
       </c>
@@ -8292,25 +8282,25 @@
       <c r="S60" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="T60" s="344" t="s">
+      <c r="T60" s="355" t="s">
         <v>39</v>
       </c>
-      <c r="U60" s="345"/>
-      <c r="V60" s="296" t="s">
+      <c r="U60" s="356"/>
+      <c r="V60" s="354" t="s">
         <v>39</v>
       </c>
-      <c r="W60" s="297"/>
-      <c r="X60" s="297"/>
-      <c r="Y60" s="297"/>
-      <c r="Z60" s="297"/>
-      <c r="AA60" s="297"/>
-      <c r="AB60" s="297"/>
-      <c r="AC60" s="297"/>
-      <c r="AD60" s="297"/>
-      <c r="AE60" s="297"/>
-      <c r="AF60" s="297"/>
-      <c r="AG60" s="297"/>
-      <c r="AH60" s="298"/>
+      <c r="W60" s="288"/>
+      <c r="X60" s="288"/>
+      <c r="Y60" s="288"/>
+      <c r="Z60" s="288"/>
+      <c r="AA60" s="288"/>
+      <c r="AB60" s="288"/>
+      <c r="AC60" s="288"/>
+      <c r="AD60" s="288"/>
+      <c r="AE60" s="288"/>
+      <c r="AF60" s="288"/>
+      <c r="AG60" s="288"/>
+      <c r="AH60" s="289"/>
       <c r="AK60" s="42"/>
       <c r="AL60" s="42"/>
       <c r="AM60" s="42"/>
@@ -8436,136 +8426,136 @@
       <c r="D65" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="E65" s="337" t="s">
+      <c r="E65" s="352" t="s">
         <v>87</v>
       </c>
-      <c r="F65" s="338"/>
-      <c r="G65" s="338"/>
-      <c r="H65" s="338"/>
-      <c r="I65" s="338"/>
-      <c r="J65" s="339"/>
-      <c r="K65" s="337" t="s">
+      <c r="F65" s="316"/>
+      <c r="G65" s="316"/>
+      <c r="H65" s="316"/>
+      <c r="I65" s="316"/>
+      <c r="J65" s="353"/>
+      <c r="K65" s="352" t="s">
         <v>88</v>
       </c>
-      <c r="L65" s="338"/>
-      <c r="M65" s="338"/>
-      <c r="N65" s="338"/>
-      <c r="O65" s="338"/>
-      <c r="P65" s="338"/>
-      <c r="Q65" s="340"/>
+      <c r="L65" s="316"/>
+      <c r="M65" s="316"/>
+      <c r="N65" s="316"/>
+      <c r="O65" s="316"/>
+      <c r="P65" s="316"/>
+      <c r="Q65" s="317"/>
       <c r="R65" s="275" t="s">
         <v>89</v>
       </c>
-      <c r="S65" s="338"/>
-      <c r="T65" s="338"/>
-      <c r="U65" s="338"/>
-      <c r="V65" s="338"/>
-      <c r="W65" s="338"/>
-      <c r="X65" s="338"/>
-      <c r="Y65" s="340"/>
-      <c r="Z65" s="307" t="s">
+      <c r="S65" s="316"/>
+      <c r="T65" s="316"/>
+      <c r="U65" s="316"/>
+      <c r="V65" s="316"/>
+      <c r="W65" s="316"/>
+      <c r="X65" s="316"/>
+      <c r="Y65" s="317"/>
+      <c r="Z65" s="367" t="s">
         <v>90</v>
       </c>
-      <c r="AA65" s="308"/>
-      <c r="AB65" s="308"/>
-      <c r="AC65" s="308"/>
-      <c r="AD65" s="309"/>
-      <c r="AE65" s="326" t="s">
+      <c r="AA65" s="368"/>
+      <c r="AB65" s="368"/>
+      <c r="AC65" s="368"/>
+      <c r="AD65" s="369"/>
+      <c r="AE65" s="364" t="s">
         <v>91</v>
       </c>
-      <c r="AF65" s="327"/>
-      <c r="AG65" s="327"/>
-      <c r="AH65" s="328"/>
+      <c r="AF65" s="365"/>
+      <c r="AG65" s="365"/>
+      <c r="AH65" s="366"/>
     </row>
     <row r="66" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D66" s="121">
         <v>1</v>
       </c>
-      <c r="E66" s="329" t="s">
+      <c r="E66" s="357" t="s">
         <v>92</v>
       </c>
-      <c r="F66" s="330"/>
-      <c r="G66" s="330"/>
-      <c r="H66" s="330"/>
-      <c r="I66" s="330"/>
-      <c r="J66" s="331"/>
-      <c r="K66" s="296" t="s">
+      <c r="F66" s="358"/>
+      <c r="G66" s="358"/>
+      <c r="H66" s="358"/>
+      <c r="I66" s="358"/>
+      <c r="J66" s="359"/>
+      <c r="K66" s="354" t="s">
         <v>39</v>
       </c>
-      <c r="L66" s="297"/>
-      <c r="M66" s="297"/>
-      <c r="N66" s="297"/>
-      <c r="O66" s="297"/>
-      <c r="P66" s="297"/>
-      <c r="Q66" s="298"/>
-      <c r="R66" s="296" t="s">
+      <c r="L66" s="288"/>
+      <c r="M66" s="288"/>
+      <c r="N66" s="288"/>
+      <c r="O66" s="288"/>
+      <c r="P66" s="288"/>
+      <c r="Q66" s="289"/>
+      <c r="R66" s="354" t="s">
         <v>93</v>
       </c>
-      <c r="S66" s="297"/>
-      <c r="T66" s="297"/>
-      <c r="U66" s="297"/>
-      <c r="V66" s="297"/>
-      <c r="W66" s="297"/>
-      <c r="X66" s="297"/>
-      <c r="Y66" s="298"/>
-      <c r="Z66" s="296" t="s">
+      <c r="S66" s="288"/>
+      <c r="T66" s="288"/>
+      <c r="U66" s="288"/>
+      <c r="V66" s="288"/>
+      <c r="W66" s="288"/>
+      <c r="X66" s="288"/>
+      <c r="Y66" s="289"/>
+      <c r="Z66" s="354" t="s">
         <v>39</v>
       </c>
-      <c r="AA66" s="297"/>
-      <c r="AB66" s="297"/>
-      <c r="AC66" s="297"/>
-      <c r="AD66" s="298"/>
-      <c r="AE66" s="323" t="s">
+      <c r="AA66" s="288"/>
+      <c r="AB66" s="288"/>
+      <c r="AC66" s="288"/>
+      <c r="AD66" s="289"/>
+      <c r="AE66" s="361" t="s">
         <v>94</v>
       </c>
-      <c r="AF66" s="324"/>
-      <c r="AG66" s="324"/>
-      <c r="AH66" s="325"/>
+      <c r="AF66" s="362"/>
+      <c r="AG66" s="362"/>
+      <c r="AH66" s="363"/>
     </row>
     <row r="67" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D67" s="121">
         <v>2</v>
       </c>
-      <c r="E67" s="329" t="s">
+      <c r="E67" s="357" t="s">
         <v>50</v>
       </c>
-      <c r="F67" s="330"/>
-      <c r="G67" s="330"/>
-      <c r="H67" s="330"/>
-      <c r="I67" s="330"/>
-      <c r="J67" s="331"/>
-      <c r="K67" s="296" t="s">
+      <c r="F67" s="358"/>
+      <c r="G67" s="358"/>
+      <c r="H67" s="358"/>
+      <c r="I67" s="358"/>
+      <c r="J67" s="359"/>
+      <c r="K67" s="354" t="s">
         <v>95</v>
       </c>
-      <c r="L67" s="297"/>
-      <c r="M67" s="297"/>
-      <c r="N67" s="297"/>
-      <c r="O67" s="297"/>
-      <c r="P67" s="297"/>
-      <c r="Q67" s="298"/>
-      <c r="R67" s="296" t="s">
+      <c r="L67" s="288"/>
+      <c r="M67" s="288"/>
+      <c r="N67" s="288"/>
+      <c r="O67" s="288"/>
+      <c r="P67" s="288"/>
+      <c r="Q67" s="289"/>
+      <c r="R67" s="354" t="s">
         <v>96</v>
       </c>
-      <c r="S67" s="297"/>
-      <c r="T67" s="297"/>
-      <c r="U67" s="297"/>
-      <c r="V67" s="297"/>
-      <c r="W67" s="297"/>
-      <c r="X67" s="297"/>
-      <c r="Y67" s="298"/>
-      <c r="Z67" s="296" t="s">
+      <c r="S67" s="288"/>
+      <c r="T67" s="288"/>
+      <c r="U67" s="288"/>
+      <c r="V67" s="288"/>
+      <c r="W67" s="288"/>
+      <c r="X67" s="288"/>
+      <c r="Y67" s="289"/>
+      <c r="Z67" s="354" t="s">
         <v>97</v>
       </c>
-      <c r="AA67" s="297"/>
-      <c r="AB67" s="297"/>
-      <c r="AC67" s="297"/>
-      <c r="AD67" s="298"/>
-      <c r="AE67" s="323" t="s">
+      <c r="AA67" s="288"/>
+      <c r="AB67" s="288"/>
+      <c r="AC67" s="288"/>
+      <c r="AD67" s="289"/>
+      <c r="AE67" s="361" t="s">
         <v>94</v>
       </c>
-      <c r="AF67" s="324"/>
-      <c r="AG67" s="324"/>
-      <c r="AH67" s="325"/>
+      <c r="AF67" s="362"/>
+      <c r="AG67" s="362"/>
+      <c r="AH67" s="363"/>
     </row>
     <row r="68" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D68" s="122"/>
@@ -9011,40 +9001,40 @@
       <c r="G87" s="275" t="s">
         <v>103</v>
       </c>
-      <c r="H87" s="338"/>
-      <c r="I87" s="338"/>
-      <c r="J87" s="338"/>
-      <c r="K87" s="338"/>
-      <c r="L87" s="340"/>
+      <c r="H87" s="316"/>
+      <c r="I87" s="316"/>
+      <c r="J87" s="316"/>
+      <c r="K87" s="316"/>
+      <c r="L87" s="317"/>
       <c r="M87" s="275" t="s">
         <v>104</v>
       </c>
-      <c r="N87" s="338"/>
-      <c r="O87" s="338"/>
-      <c r="P87" s="338"/>
-      <c r="Q87" s="338"/>
-      <c r="R87" s="338"/>
-      <c r="S87" s="338"/>
-      <c r="T87" s="338"/>
-      <c r="U87" s="338"/>
-      <c r="V87" s="340"/>
-      <c r="W87" s="376" t="s">
+      <c r="N87" s="316"/>
+      <c r="O87" s="316"/>
+      <c r="P87" s="316"/>
+      <c r="Q87" s="316"/>
+      <c r="R87" s="316"/>
+      <c r="S87" s="316"/>
+      <c r="T87" s="316"/>
+      <c r="U87" s="316"/>
+      <c r="V87" s="317"/>
+      <c r="W87" s="333" t="s">
         <v>105</v>
       </c>
-      <c r="X87" s="377"/>
-      <c r="Y87" s="378"/>
-      <c r="Z87" s="367" t="s">
+      <c r="X87" s="334"/>
+      <c r="Y87" s="335"/>
+      <c r="Z87" s="327" t="s">
         <v>106</v>
       </c>
-      <c r="AA87" s="368"/>
-      <c r="AB87" s="368"/>
-      <c r="AC87" s="369"/>
-      <c r="AD87" s="355" t="s">
+      <c r="AA87" s="328"/>
+      <c r="AB87" s="328"/>
+      <c r="AC87" s="329"/>
+      <c r="AD87" s="310" t="s">
         <v>107</v>
       </c>
-      <c r="AE87" s="356"/>
-      <c r="AF87" s="356"/>
-      <c r="AG87" s="357"/>
+      <c r="AE87" s="311"/>
+      <c r="AF87" s="311"/>
+      <c r="AG87" s="312"/>
       <c r="AJ87" s="127"/>
       <c r="AK87" s="127"/>
       <c r="AL87" s="127"/>
@@ -9074,43 +9064,43 @@
       <c r="F88" s="131">
         <v>1</v>
       </c>
-      <c r="G88" s="312" t="s">
+      <c r="G88" s="313" t="s">
         <v>108</v>
       </c>
-      <c r="H88" s="313"/>
-      <c r="I88" s="313"/>
-      <c r="J88" s="313"/>
-      <c r="K88" s="313"/>
-      <c r="L88" s="314"/>
-      <c r="M88" s="312" t="s">
+      <c r="H88" s="314"/>
+      <c r="I88" s="314"/>
+      <c r="J88" s="314"/>
+      <c r="K88" s="314"/>
+      <c r="L88" s="315"/>
+      <c r="M88" s="313" t="s">
         <v>109</v>
       </c>
-      <c r="N88" s="313"/>
-      <c r="O88" s="313"/>
-      <c r="P88" s="313"/>
-      <c r="Q88" s="313"/>
-      <c r="R88" s="313"/>
-      <c r="S88" s="313"/>
-      <c r="T88" s="313"/>
-      <c r="U88" s="313"/>
-      <c r="V88" s="314"/>
-      <c r="W88" s="358" t="s">
+      <c r="N88" s="314"/>
+      <c r="O88" s="314"/>
+      <c r="P88" s="314"/>
+      <c r="Q88" s="314"/>
+      <c r="R88" s="314"/>
+      <c r="S88" s="314"/>
+      <c r="T88" s="314"/>
+      <c r="U88" s="314"/>
+      <c r="V88" s="315"/>
+      <c r="W88" s="318" t="s">
         <v>110</v>
       </c>
-      <c r="X88" s="359"/>
-      <c r="Y88" s="360"/>
-      <c r="Z88" s="364" t="s">
+      <c r="X88" s="319"/>
+      <c r="Y88" s="320"/>
+      <c r="Z88" s="324" t="s">
         <v>110</v>
       </c>
-      <c r="AA88" s="365"/>
-      <c r="AB88" s="365"/>
-      <c r="AC88" s="366"/>
-      <c r="AD88" s="312" t="s">
+      <c r="AA88" s="325"/>
+      <c r="AB88" s="325"/>
+      <c r="AC88" s="326"/>
+      <c r="AD88" s="313" t="s">
         <v>111</v>
       </c>
-      <c r="AE88" s="313"/>
-      <c r="AF88" s="313"/>
-      <c r="AG88" s="314"/>
+      <c r="AE88" s="314"/>
+      <c r="AF88" s="314"/>
+      <c r="AG88" s="315"/>
       <c r="AI88" s="127"/>
       <c r="AJ88" s="127"/>
       <c r="AK88" s="127"/>
@@ -9257,70 +9247,70 @@
       </c>
     </row>
     <row r="97" spans="5:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G97" s="370" t="s">
+      <c r="G97" s="295" t="s">
         <v>115</v>
       </c>
-      <c r="H97" s="371"/>
-      <c r="I97" s="371"/>
-      <c r="J97" s="371"/>
-      <c r="K97" s="371"/>
-      <c r="L97" s="371"/>
-      <c r="M97" s="371"/>
-      <c r="N97" s="371"/>
-      <c r="O97" s="371"/>
-      <c r="P97" s="372"/>
-      <c r="Q97" s="373" t="s">
+      <c r="H97" s="296"/>
+      <c r="I97" s="296"/>
+      <c r="J97" s="296"/>
+      <c r="K97" s="296"/>
+      <c r="L97" s="296"/>
+      <c r="M97" s="296"/>
+      <c r="N97" s="296"/>
+      <c r="O97" s="296"/>
+      <c r="P97" s="297"/>
+      <c r="Q97" s="330" t="s">
         <v>116</v>
       </c>
-      <c r="R97" s="374"/>
-      <c r="S97" s="374"/>
-      <c r="T97" s="374"/>
-      <c r="U97" s="374"/>
-      <c r="V97" s="374"/>
-      <c r="W97" s="374"/>
-      <c r="X97" s="374"/>
-      <c r="Y97" s="374"/>
-      <c r="Z97" s="375"/>
+      <c r="R97" s="331"/>
+      <c r="S97" s="331"/>
+      <c r="T97" s="331"/>
+      <c r="U97" s="331"/>
+      <c r="V97" s="331"/>
+      <c r="W97" s="331"/>
+      <c r="X97" s="331"/>
+      <c r="Y97" s="331"/>
+      <c r="Z97" s="332"/>
     </row>
     <row r="98" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G98" s="346" t="s">
+      <c r="G98" s="298" t="s">
         <v>171</v>
       </c>
-      <c r="H98" s="347"/>
-      <c r="I98" s="347"/>
-      <c r="J98" s="347"/>
-      <c r="K98" s="347"/>
-      <c r="L98" s="347"/>
-      <c r="M98" s="347"/>
-      <c r="N98" s="347"/>
-      <c r="O98" s="347"/>
-      <c r="P98" s="348"/>
-      <c r="Q98" s="341" t="s">
+      <c r="H98" s="299"/>
+      <c r="I98" s="299"/>
+      <c r="J98" s="299"/>
+      <c r="K98" s="299"/>
+      <c r="L98" s="299"/>
+      <c r="M98" s="299"/>
+      <c r="N98" s="299"/>
+      <c r="O98" s="299"/>
+      <c r="P98" s="300"/>
+      <c r="Q98" s="304" t="s">
         <v>172</v>
       </c>
-      <c r="R98" s="342"/>
-      <c r="S98" s="342"/>
-      <c r="T98" s="342"/>
-      <c r="U98" s="342"/>
-      <c r="V98" s="342"/>
-      <c r="W98" s="342"/>
-      <c r="X98" s="342"/>
-      <c r="Y98" s="342"/>
-      <c r="Z98" s="343"/>
+      <c r="R98" s="305"/>
+      <c r="S98" s="305"/>
+      <c r="T98" s="305"/>
+      <c r="U98" s="305"/>
+      <c r="V98" s="305"/>
+      <c r="W98" s="305"/>
+      <c r="X98" s="305"/>
+      <c r="Y98" s="305"/>
+      <c r="Z98" s="306"/>
       <c r="AG98" s="132"/>
       <c r="AH98" s="132"/>
     </row>
     <row r="99" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G99" s="349"/>
-      <c r="H99" s="350"/>
-      <c r="I99" s="350"/>
-      <c r="J99" s="350"/>
-      <c r="K99" s="350"/>
-      <c r="L99" s="350"/>
-      <c r="M99" s="350"/>
-      <c r="N99" s="350"/>
-      <c r="O99" s="350"/>
-      <c r="P99" s="351"/>
+      <c r="G99" s="301"/>
+      <c r="H99" s="302"/>
+      <c r="I99" s="302"/>
+      <c r="J99" s="302"/>
+      <c r="K99" s="302"/>
+      <c r="L99" s="302"/>
+      <c r="M99" s="302"/>
+      <c r="N99" s="302"/>
+      <c r="O99" s="302"/>
+      <c r="P99" s="303"/>
       <c r="Q99" s="133" t="s">
         <v>173</v>
       </c>
@@ -9337,16 +9327,16 @@
       <c r="AH99" s="132"/>
     </row>
     <row r="100" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G100" s="349"/>
-      <c r="H100" s="350"/>
-      <c r="I100" s="350"/>
-      <c r="J100" s="350"/>
-      <c r="K100" s="350"/>
-      <c r="L100" s="350"/>
-      <c r="M100" s="350"/>
-      <c r="N100" s="350"/>
-      <c r="O100" s="350"/>
-      <c r="P100" s="351"/>
+      <c r="G100" s="301"/>
+      <c r="H100" s="302"/>
+      <c r="I100" s="302"/>
+      <c r="J100" s="302"/>
+      <c r="K100" s="302"/>
+      <c r="L100" s="302"/>
+      <c r="M100" s="302"/>
+      <c r="N100" s="302"/>
+      <c r="O100" s="302"/>
+      <c r="P100" s="303"/>
       <c r="Q100" s="133" t="s">
         <v>174</v>
       </c>
@@ -9363,16 +9353,16 @@
       <c r="AH100" s="132"/>
     </row>
     <row r="101" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G101" s="349"/>
-      <c r="H101" s="350"/>
-      <c r="I101" s="350"/>
-      <c r="J101" s="350"/>
-      <c r="K101" s="350"/>
-      <c r="L101" s="350"/>
-      <c r="M101" s="350"/>
-      <c r="N101" s="350"/>
-      <c r="O101" s="350"/>
-      <c r="P101" s="351"/>
+      <c r="G101" s="301"/>
+      <c r="H101" s="302"/>
+      <c r="I101" s="302"/>
+      <c r="J101" s="302"/>
+      <c r="K101" s="302"/>
+      <c r="L101" s="302"/>
+      <c r="M101" s="302"/>
+      <c r="N101" s="302"/>
+      <c r="O101" s="302"/>
+      <c r="P101" s="303"/>
       <c r="Q101" s="171" t="s">
         <v>175</v>
       </c>
@@ -9389,54 +9379,54 @@
       <c r="AH101" s="132"/>
     </row>
     <row r="102" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G102" s="349"/>
-      <c r="H102" s="350"/>
-      <c r="I102" s="350"/>
-      <c r="J102" s="350"/>
-      <c r="K102" s="350"/>
-      <c r="L102" s="350"/>
-      <c r="M102" s="350"/>
-      <c r="N102" s="350"/>
-      <c r="O102" s="350"/>
-      <c r="P102" s="351"/>
-      <c r="Q102" s="341" t="s">
+      <c r="G102" s="301"/>
+      <c r="H102" s="302"/>
+      <c r="I102" s="302"/>
+      <c r="J102" s="302"/>
+      <c r="K102" s="302"/>
+      <c r="L102" s="302"/>
+      <c r="M102" s="302"/>
+      <c r="N102" s="302"/>
+      <c r="O102" s="302"/>
+      <c r="P102" s="303"/>
+      <c r="Q102" s="304" t="s">
         <v>176</v>
       </c>
-      <c r="R102" s="342"/>
-      <c r="S102" s="342"/>
-      <c r="T102" s="342"/>
-      <c r="U102" s="342"/>
-      <c r="V102" s="342"/>
-      <c r="W102" s="342"/>
-      <c r="X102" s="342"/>
-      <c r="Y102" s="342"/>
-      <c r="Z102" s="343"/>
+      <c r="R102" s="305"/>
+      <c r="S102" s="305"/>
+      <c r="T102" s="305"/>
+      <c r="U102" s="305"/>
+      <c r="V102" s="305"/>
+      <c r="W102" s="305"/>
+      <c r="X102" s="305"/>
+      <c r="Y102" s="305"/>
+      <c r="Z102" s="306"/>
       <c r="AG102" s="132"/>
       <c r="AH102" s="132"/>
     </row>
     <row r="103" spans="5:58" x14ac:dyDescent="0.2">
-      <c r="G103" s="349"/>
-      <c r="H103" s="350"/>
-      <c r="I103" s="350"/>
-      <c r="J103" s="350"/>
-      <c r="K103" s="350"/>
-      <c r="L103" s="350"/>
-      <c r="M103" s="350"/>
-      <c r="N103" s="350"/>
-      <c r="O103" s="350"/>
-      <c r="P103" s="351"/>
-      <c r="Q103" s="341" t="s">
+      <c r="G103" s="301"/>
+      <c r="H103" s="302"/>
+      <c r="I103" s="302"/>
+      <c r="J103" s="302"/>
+      <c r="K103" s="302"/>
+      <c r="L103" s="302"/>
+      <c r="M103" s="302"/>
+      <c r="N103" s="302"/>
+      <c r="O103" s="302"/>
+      <c r="P103" s="303"/>
+      <c r="Q103" s="304" t="s">
         <v>177</v>
       </c>
-      <c r="R103" s="342"/>
-      <c r="S103" s="342"/>
-      <c r="T103" s="342"/>
-      <c r="U103" s="342"/>
-      <c r="V103" s="342"/>
-      <c r="W103" s="342"/>
-      <c r="X103" s="342"/>
-      <c r="Y103" s="342"/>
-      <c r="Z103" s="343"/>
+      <c r="R103" s="305"/>
+      <c r="S103" s="305"/>
+      <c r="T103" s="305"/>
+      <c r="U103" s="305"/>
+      <c r="V103" s="305"/>
+      <c r="W103" s="305"/>
+      <c r="X103" s="305"/>
+      <c r="Y103" s="305"/>
+      <c r="Z103" s="306"/>
       <c r="AC103" s="128"/>
       <c r="AD103" s="128"/>
       <c r="AE103" s="128"/>
@@ -9455,30 +9445,30 @@
       <c r="AY103" s="128"/>
     </row>
     <row r="104" spans="5:58" x14ac:dyDescent="0.2">
-      <c r="G104" s="346" t="s">
+      <c r="G104" s="298" t="s">
         <v>178</v>
       </c>
-      <c r="H104" s="347"/>
-      <c r="I104" s="347"/>
-      <c r="J104" s="347"/>
-      <c r="K104" s="347"/>
-      <c r="L104" s="347"/>
-      <c r="M104" s="347"/>
-      <c r="N104" s="347"/>
-      <c r="O104" s="347"/>
-      <c r="P104" s="348"/>
-      <c r="Q104" s="341" t="s">
+      <c r="H104" s="299"/>
+      <c r="I104" s="299"/>
+      <c r="J104" s="299"/>
+      <c r="K104" s="299"/>
+      <c r="L104" s="299"/>
+      <c r="M104" s="299"/>
+      <c r="N104" s="299"/>
+      <c r="O104" s="299"/>
+      <c r="P104" s="300"/>
+      <c r="Q104" s="304" t="s">
         <v>179</v>
       </c>
-      <c r="R104" s="342"/>
-      <c r="S104" s="342"/>
-      <c r="T104" s="342"/>
-      <c r="U104" s="342"/>
-      <c r="V104" s="342"/>
-      <c r="W104" s="342"/>
-      <c r="X104" s="342"/>
-      <c r="Y104" s="342"/>
-      <c r="Z104" s="343"/>
+      <c r="R104" s="305"/>
+      <c r="S104" s="305"/>
+      <c r="T104" s="305"/>
+      <c r="U104" s="305"/>
+      <c r="V104" s="305"/>
+      <c r="W104" s="305"/>
+      <c r="X104" s="305"/>
+      <c r="Y104" s="305"/>
+      <c r="Z104" s="306"/>
       <c r="AC104" s="128"/>
       <c r="AD104" s="128"/>
       <c r="AE104" s="128"/>
@@ -9497,28 +9487,28 @@
       <c r="AY104" s="128"/>
     </row>
     <row r="105" spans="5:58" x14ac:dyDescent="0.2">
-      <c r="G105" s="361"/>
-      <c r="H105" s="362"/>
-      <c r="I105" s="362"/>
-      <c r="J105" s="362"/>
-      <c r="K105" s="362"/>
-      <c r="L105" s="362"/>
-      <c r="M105" s="362"/>
-      <c r="N105" s="362"/>
-      <c r="O105" s="362"/>
-      <c r="P105" s="363"/>
-      <c r="Q105" s="341" t="s">
+      <c r="G105" s="321"/>
+      <c r="H105" s="322"/>
+      <c r="I105" s="322"/>
+      <c r="J105" s="322"/>
+      <c r="K105" s="322"/>
+      <c r="L105" s="322"/>
+      <c r="M105" s="322"/>
+      <c r="N105" s="322"/>
+      <c r="O105" s="322"/>
+      <c r="P105" s="323"/>
+      <c r="Q105" s="304" t="s">
         <v>180</v>
       </c>
-      <c r="R105" s="342"/>
-      <c r="S105" s="342"/>
-      <c r="T105" s="342"/>
-      <c r="U105" s="342"/>
-      <c r="V105" s="342"/>
-      <c r="W105" s="342"/>
-      <c r="X105" s="342"/>
-      <c r="Y105" s="342"/>
-      <c r="Z105" s="343"/>
+      <c r="R105" s="305"/>
+      <c r="S105" s="305"/>
+      <c r="T105" s="305"/>
+      <c r="U105" s="305"/>
+      <c r="V105" s="305"/>
+      <c r="W105" s="305"/>
+      <c r="X105" s="305"/>
+      <c r="Y105" s="305"/>
+      <c r="Z105" s="306"/>
       <c r="AC105" s="128"/>
       <c r="AD105" s="128"/>
       <c r="AE105" s="128"/>
@@ -9537,28 +9527,28 @@
       <c r="AY105" s="128"/>
     </row>
     <row r="106" spans="5:58" x14ac:dyDescent="0.2">
-      <c r="G106" s="352" t="s">
+      <c r="G106" s="307" t="s">
         <v>118</v>
       </c>
-      <c r="H106" s="353"/>
-      <c r="I106" s="353"/>
-      <c r="J106" s="353"/>
-      <c r="K106" s="353"/>
-      <c r="L106" s="353"/>
-      <c r="M106" s="353"/>
-      <c r="N106" s="353"/>
-      <c r="O106" s="353"/>
-      <c r="P106" s="353"/>
-      <c r="Q106" s="353"/>
-      <c r="R106" s="353"/>
-      <c r="S106" s="353"/>
-      <c r="T106" s="353"/>
-      <c r="U106" s="353"/>
-      <c r="V106" s="353"/>
-      <c r="W106" s="353"/>
-      <c r="X106" s="353"/>
-      <c r="Y106" s="353"/>
-      <c r="Z106" s="354"/>
+      <c r="H106" s="308"/>
+      <c r="I106" s="308"/>
+      <c r="J106" s="308"/>
+      <c r="K106" s="308"/>
+      <c r="L106" s="308"/>
+      <c r="M106" s="308"/>
+      <c r="N106" s="308"/>
+      <c r="O106" s="308"/>
+      <c r="P106" s="308"/>
+      <c r="Q106" s="308"/>
+      <c r="R106" s="308"/>
+      <c r="S106" s="308"/>
+      <c r="T106" s="308"/>
+      <c r="U106" s="308"/>
+      <c r="V106" s="308"/>
+      <c r="W106" s="308"/>
+      <c r="X106" s="308"/>
+      <c r="Y106" s="308"/>
+      <c r="Z106" s="309"/>
       <c r="AJ106" s="128"/>
       <c r="AK106" s="128"/>
       <c r="AL106" s="128"/>
@@ -9981,35 +9971,35 @@
     <row r="119" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E119" s="66"/>
       <c r="F119" s="129"/>
-      <c r="G119" s="379" t="s">
+      <c r="G119" s="283" t="s">
         <v>126</v>
       </c>
-      <c r="H119" s="379"/>
-      <c r="I119" s="379"/>
-      <c r="J119" s="379"/>
-      <c r="K119" s="379"/>
-      <c r="L119" s="379"/>
-      <c r="M119" s="379"/>
-      <c r="N119" s="379"/>
-      <c r="O119" s="379"/>
-      <c r="P119" s="379"/>
-      <c r="Q119" s="379"/>
-      <c r="R119" s="379"/>
-      <c r="S119" s="379"/>
-      <c r="T119" s="379"/>
-      <c r="U119" s="379"/>
-      <c r="V119" s="379"/>
-      <c r="W119" s="379"/>
-      <c r="X119" s="379"/>
-      <c r="Y119" s="379"/>
-      <c r="Z119" s="379"/>
-      <c r="AA119" s="379"/>
-      <c r="AB119" s="379"/>
-      <c r="AC119" s="379"/>
-      <c r="AD119" s="379"/>
-      <c r="AE119" s="379"/>
-      <c r="AF119" s="379"/>
-      <c r="AG119" s="379"/>
+      <c r="H119" s="283"/>
+      <c r="I119" s="283"/>
+      <c r="J119" s="283"/>
+      <c r="K119" s="283"/>
+      <c r="L119" s="283"/>
+      <c r="M119" s="283"/>
+      <c r="N119" s="283"/>
+      <c r="O119" s="283"/>
+      <c r="P119" s="283"/>
+      <c r="Q119" s="283"/>
+      <c r="R119" s="283"/>
+      <c r="S119" s="283"/>
+      <c r="T119" s="283"/>
+      <c r="U119" s="283"/>
+      <c r="V119" s="283"/>
+      <c r="W119" s="283"/>
+      <c r="X119" s="283"/>
+      <c r="Y119" s="283"/>
+      <c r="Z119" s="283"/>
+      <c r="AA119" s="283"/>
+      <c r="AB119" s="283"/>
+      <c r="AC119" s="283"/>
+      <c r="AD119" s="283"/>
+      <c r="AE119" s="283"/>
+      <c r="AF119" s="283"/>
+      <c r="AG119" s="283"/>
       <c r="AJ119" s="128"/>
       <c r="AK119" s="128"/>
       <c r="AL119" s="128"/>
@@ -10037,33 +10027,33 @@
     <row r="120" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E120" s="66"/>
       <c r="F120" s="129"/>
-      <c r="G120" s="379"/>
-      <c r="H120" s="379"/>
-      <c r="I120" s="379"/>
-      <c r="J120" s="379"/>
-      <c r="K120" s="379"/>
-      <c r="L120" s="379"/>
-      <c r="M120" s="379"/>
-      <c r="N120" s="379"/>
-      <c r="O120" s="379"/>
-      <c r="P120" s="379"/>
-      <c r="Q120" s="379"/>
-      <c r="R120" s="379"/>
-      <c r="S120" s="379"/>
-      <c r="T120" s="379"/>
-      <c r="U120" s="379"/>
-      <c r="V120" s="379"/>
-      <c r="W120" s="379"/>
-      <c r="X120" s="379"/>
-      <c r="Y120" s="379"/>
-      <c r="Z120" s="379"/>
-      <c r="AA120" s="379"/>
-      <c r="AB120" s="379"/>
-      <c r="AC120" s="379"/>
-      <c r="AD120" s="379"/>
-      <c r="AE120" s="379"/>
-      <c r="AF120" s="379"/>
-      <c r="AG120" s="379"/>
+      <c r="G120" s="283"/>
+      <c r="H120" s="283"/>
+      <c r="I120" s="283"/>
+      <c r="J120" s="283"/>
+      <c r="K120" s="283"/>
+      <c r="L120" s="283"/>
+      <c r="M120" s="283"/>
+      <c r="N120" s="283"/>
+      <c r="O120" s="283"/>
+      <c r="P120" s="283"/>
+      <c r="Q120" s="283"/>
+      <c r="R120" s="283"/>
+      <c r="S120" s="283"/>
+      <c r="T120" s="283"/>
+      <c r="U120" s="283"/>
+      <c r="V120" s="283"/>
+      <c r="W120" s="283"/>
+      <c r="X120" s="283"/>
+      <c r="Y120" s="283"/>
+      <c r="Z120" s="283"/>
+      <c r="AA120" s="283"/>
+      <c r="AB120" s="283"/>
+      <c r="AC120" s="283"/>
+      <c r="AD120" s="283"/>
+      <c r="AE120" s="283"/>
+      <c r="AF120" s="283"/>
+      <c r="AG120" s="283"/>
       <c r="AJ120" s="128"/>
       <c r="AK120" s="128"/>
       <c r="AL120" s="128"/>
@@ -10274,35 +10264,35 @@
     <row r="127" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E127" s="66"/>
       <c r="F127" s="129"/>
-      <c r="G127" s="379" t="s">
+      <c r="G127" s="283" t="s">
         <v>130</v>
       </c>
-      <c r="H127" s="379"/>
-      <c r="I127" s="379"/>
-      <c r="J127" s="379"/>
-      <c r="K127" s="379"/>
-      <c r="L127" s="379"/>
-      <c r="M127" s="379"/>
-      <c r="N127" s="379"/>
-      <c r="O127" s="379"/>
-      <c r="P127" s="379"/>
-      <c r="Q127" s="379"/>
-      <c r="R127" s="379"/>
-      <c r="S127" s="379"/>
-      <c r="T127" s="379"/>
-      <c r="U127" s="379"/>
-      <c r="V127" s="379"/>
-      <c r="W127" s="379"/>
-      <c r="X127" s="379"/>
-      <c r="Y127" s="379"/>
-      <c r="Z127" s="379"/>
-      <c r="AA127" s="379"/>
-      <c r="AB127" s="379"/>
-      <c r="AC127" s="379"/>
-      <c r="AD127" s="379"/>
-      <c r="AE127" s="379"/>
-      <c r="AF127" s="379"/>
-      <c r="AG127" s="379"/>
+      <c r="H127" s="283"/>
+      <c r="I127" s="283"/>
+      <c r="J127" s="283"/>
+      <c r="K127" s="283"/>
+      <c r="L127" s="283"/>
+      <c r="M127" s="283"/>
+      <c r="N127" s="283"/>
+      <c r="O127" s="283"/>
+      <c r="P127" s="283"/>
+      <c r="Q127" s="283"/>
+      <c r="R127" s="283"/>
+      <c r="S127" s="283"/>
+      <c r="T127" s="283"/>
+      <c r="U127" s="283"/>
+      <c r="V127" s="283"/>
+      <c r="W127" s="283"/>
+      <c r="X127" s="283"/>
+      <c r="Y127" s="283"/>
+      <c r="Z127" s="283"/>
+      <c r="AA127" s="283"/>
+      <c r="AB127" s="283"/>
+      <c r="AC127" s="283"/>
+      <c r="AD127" s="283"/>
+      <c r="AE127" s="283"/>
+      <c r="AF127" s="283"/>
+      <c r="AG127" s="283"/>
       <c r="AJ127" s="128"/>
       <c r="AK127" s="128"/>
       <c r="AL127" s="128"/>
@@ -10330,33 +10320,33 @@
     <row r="128" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E128" s="66"/>
       <c r="F128" s="129"/>
-      <c r="G128" s="379"/>
-      <c r="H128" s="379"/>
-      <c r="I128" s="379"/>
-      <c r="J128" s="379"/>
-      <c r="K128" s="379"/>
-      <c r="L128" s="379"/>
-      <c r="M128" s="379"/>
-      <c r="N128" s="379"/>
-      <c r="O128" s="379"/>
-      <c r="P128" s="379"/>
-      <c r="Q128" s="379"/>
-      <c r="R128" s="379"/>
-      <c r="S128" s="379"/>
-      <c r="T128" s="379"/>
-      <c r="U128" s="379"/>
-      <c r="V128" s="379"/>
-      <c r="W128" s="379"/>
-      <c r="X128" s="379"/>
-      <c r="Y128" s="379"/>
-      <c r="Z128" s="379"/>
-      <c r="AA128" s="379"/>
-      <c r="AB128" s="379"/>
-      <c r="AC128" s="379"/>
-      <c r="AD128" s="379"/>
-      <c r="AE128" s="379"/>
-      <c r="AF128" s="379"/>
-      <c r="AG128" s="379"/>
+      <c r="G128" s="283"/>
+      <c r="H128" s="283"/>
+      <c r="I128" s="283"/>
+      <c r="J128" s="283"/>
+      <c r="K128" s="283"/>
+      <c r="L128" s="283"/>
+      <c r="M128" s="283"/>
+      <c r="N128" s="283"/>
+      <c r="O128" s="283"/>
+      <c r="P128" s="283"/>
+      <c r="Q128" s="283"/>
+      <c r="R128" s="283"/>
+      <c r="S128" s="283"/>
+      <c r="T128" s="283"/>
+      <c r="U128" s="283"/>
+      <c r="V128" s="283"/>
+      <c r="W128" s="283"/>
+      <c r="X128" s="283"/>
+      <c r="Y128" s="283"/>
+      <c r="Z128" s="283"/>
+      <c r="AA128" s="283"/>
+      <c r="AB128" s="283"/>
+      <c r="AC128" s="283"/>
+      <c r="AD128" s="283"/>
+      <c r="AE128" s="283"/>
+      <c r="AF128" s="283"/>
+      <c r="AG128" s="283"/>
       <c r="AJ128" s="128"/>
       <c r="AK128" s="128"/>
       <c r="AL128" s="128"/>
@@ -10446,7 +10436,7 @@
       <c r="BF130" s="128"/>
     </row>
     <row r="131" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H131" s="332" t="s">
+      <c r="H131" s="290" t="s">
         <v>30</v>
       </c>
       <c r="I131" s="266" t="s">
@@ -10457,19 +10447,19 @@
       <c r="L131" s="267"/>
       <c r="M131" s="267"/>
       <c r="N131" s="268"/>
-      <c r="O131" s="384" t="s">
+      <c r="O131" s="292" t="s">
         <v>132</v>
       </c>
-      <c r="P131" s="385"/>
-      <c r="Q131" s="385"/>
-      <c r="R131" s="385"/>
-      <c r="S131" s="385"/>
-      <c r="T131" s="385"/>
-      <c r="U131" s="385"/>
-      <c r="V131" s="385"/>
-      <c r="W131" s="385"/>
-      <c r="X131" s="385"/>
-      <c r="Y131" s="386"/>
+      <c r="P131" s="293"/>
+      <c r="Q131" s="293"/>
+      <c r="R131" s="293"/>
+      <c r="S131" s="293"/>
+      <c r="T131" s="293"/>
+      <c r="U131" s="293"/>
+      <c r="V131" s="293"/>
+      <c r="W131" s="293"/>
+      <c r="X131" s="293"/>
+      <c r="Y131" s="294"/>
       <c r="Z131" s="266" t="s">
         <v>64</v>
       </c>
@@ -10485,28 +10475,28 @@
       <c r="AH131" s="153"/>
     </row>
     <row r="132" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H132" s="334"/>
+      <c r="H132" s="291"/>
       <c r="I132" s="272"/>
       <c r="J132" s="273"/>
       <c r="K132" s="273"/>
       <c r="L132" s="273"/>
       <c r="M132" s="273"/>
       <c r="N132" s="274"/>
-      <c r="O132" s="384" t="s">
+      <c r="O132" s="292" t="s">
         <v>63</v>
       </c>
-      <c r="P132" s="385"/>
-      <c r="Q132" s="385"/>
-      <c r="R132" s="385"/>
-      <c r="S132" s="386"/>
-      <c r="T132" s="370" t="s">
+      <c r="P132" s="293"/>
+      <c r="Q132" s="293"/>
+      <c r="R132" s="293"/>
+      <c r="S132" s="294"/>
+      <c r="T132" s="295" t="s">
         <v>133</v>
       </c>
-      <c r="U132" s="371"/>
-      <c r="V132" s="371"/>
-      <c r="W132" s="371"/>
-      <c r="X132" s="371"/>
-      <c r="Y132" s="372"/>
+      <c r="U132" s="296"/>
+      <c r="V132" s="296"/>
+      <c r="W132" s="296"/>
+      <c r="X132" s="296"/>
+      <c r="Y132" s="297"/>
       <c r="Z132" s="272"/>
       <c r="AA132" s="273"/>
       <c r="AB132" s="273"/>
@@ -10521,14 +10511,14 @@
       <c r="H133" s="104">
         <v>1</v>
       </c>
-      <c r="I133" s="380" t="s">
+      <c r="I133" s="284" t="s">
         <v>117</v>
       </c>
-      <c r="J133" s="381"/>
-      <c r="K133" s="381"/>
-      <c r="L133" s="381"/>
-      <c r="M133" s="381"/>
-      <c r="N133" s="382"/>
+      <c r="J133" s="285"/>
+      <c r="K133" s="285"/>
+      <c r="L133" s="285"/>
+      <c r="M133" s="285"/>
+      <c r="N133" s="286"/>
       <c r="O133" s="157" t="s">
         <v>84</v>
       </c>
@@ -10536,22 +10526,22 @@
       <c r="Q133" s="158"/>
       <c r="R133" s="158"/>
       <c r="S133" s="159"/>
-      <c r="T133" s="380" t="s">
+      <c r="T133" s="284" t="s">
         <v>39</v>
       </c>
-      <c r="U133" s="381"/>
-      <c r="V133" s="381"/>
-      <c r="W133" s="381"/>
-      <c r="X133" s="381"/>
-      <c r="Y133" s="382"/>
-      <c r="Z133" s="383" t="s">
+      <c r="U133" s="285"/>
+      <c r="V133" s="285"/>
+      <c r="W133" s="285"/>
+      <c r="X133" s="285"/>
+      <c r="Y133" s="286"/>
+      <c r="Z133" s="287" t="s">
         <v>134</v>
       </c>
-      <c r="AA133" s="297"/>
-      <c r="AB133" s="297"/>
-      <c r="AC133" s="297"/>
-      <c r="AD133" s="297"/>
-      <c r="AE133" s="298"/>
+      <c r="AA133" s="288"/>
+      <c r="AB133" s="288"/>
+      <c r="AC133" s="288"/>
+      <c r="AD133" s="288"/>
+      <c r="AE133" s="289"/>
       <c r="AF133" s="160"/>
       <c r="AG133" s="161"/>
       <c r="AH133" s="162"/>
@@ -10801,35 +10791,35 @@
     <row r="139" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E139" s="66"/>
       <c r="F139" s="129"/>
-      <c r="G139" s="379" t="s">
+      <c r="G139" s="283" t="s">
         <v>135</v>
       </c>
-      <c r="H139" s="379"/>
-      <c r="I139" s="379"/>
-      <c r="J139" s="379"/>
-      <c r="K139" s="379"/>
-      <c r="L139" s="379"/>
-      <c r="M139" s="379"/>
-      <c r="N139" s="379"/>
-      <c r="O139" s="379"/>
-      <c r="P139" s="379"/>
-      <c r="Q139" s="379"/>
-      <c r="R139" s="379"/>
-      <c r="S139" s="379"/>
-      <c r="T139" s="379"/>
-      <c r="U139" s="379"/>
-      <c r="V139" s="379"/>
-      <c r="W139" s="379"/>
-      <c r="X139" s="379"/>
-      <c r="Y139" s="379"/>
-      <c r="Z139" s="379"/>
-      <c r="AA139" s="379"/>
-      <c r="AB139" s="379"/>
-      <c r="AC139" s="379"/>
-      <c r="AD139" s="379"/>
-      <c r="AE139" s="379"/>
-      <c r="AF139" s="379"/>
-      <c r="AG139" s="379"/>
+      <c r="H139" s="283"/>
+      <c r="I139" s="283"/>
+      <c r="J139" s="283"/>
+      <c r="K139" s="283"/>
+      <c r="L139" s="283"/>
+      <c r="M139" s="283"/>
+      <c r="N139" s="283"/>
+      <c r="O139" s="283"/>
+      <c r="P139" s="283"/>
+      <c r="Q139" s="283"/>
+      <c r="R139" s="283"/>
+      <c r="S139" s="283"/>
+      <c r="T139" s="283"/>
+      <c r="U139" s="283"/>
+      <c r="V139" s="283"/>
+      <c r="W139" s="283"/>
+      <c r="X139" s="283"/>
+      <c r="Y139" s="283"/>
+      <c r="Z139" s="283"/>
+      <c r="AA139" s="283"/>
+      <c r="AB139" s="283"/>
+      <c r="AC139" s="283"/>
+      <c r="AD139" s="283"/>
+      <c r="AE139" s="283"/>
+      <c r="AF139" s="283"/>
+      <c r="AG139" s="283"/>
       <c r="AJ139" s="128"/>
       <c r="AK139" s="128"/>
       <c r="AL139" s="128"/>
@@ -10857,33 +10847,33 @@
     <row r="140" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E140" s="66"/>
       <c r="F140" s="129"/>
-      <c r="G140" s="379"/>
-      <c r="H140" s="379"/>
-      <c r="I140" s="379"/>
-      <c r="J140" s="379"/>
-      <c r="K140" s="379"/>
-      <c r="L140" s="379"/>
-      <c r="M140" s="379"/>
-      <c r="N140" s="379"/>
-      <c r="O140" s="379"/>
-      <c r="P140" s="379"/>
-      <c r="Q140" s="379"/>
-      <c r="R140" s="379"/>
-      <c r="S140" s="379"/>
-      <c r="T140" s="379"/>
-      <c r="U140" s="379"/>
-      <c r="V140" s="379"/>
-      <c r="W140" s="379"/>
-      <c r="X140" s="379"/>
-      <c r="Y140" s="379"/>
-      <c r="Z140" s="379"/>
-      <c r="AA140" s="379"/>
-      <c r="AB140" s="379"/>
-      <c r="AC140" s="379"/>
-      <c r="AD140" s="379"/>
-      <c r="AE140" s="379"/>
-      <c r="AF140" s="379"/>
-      <c r="AG140" s="379"/>
+      <c r="G140" s="283"/>
+      <c r="H140" s="283"/>
+      <c r="I140" s="283"/>
+      <c r="J140" s="283"/>
+      <c r="K140" s="283"/>
+      <c r="L140" s="283"/>
+      <c r="M140" s="283"/>
+      <c r="N140" s="283"/>
+      <c r="O140" s="283"/>
+      <c r="P140" s="283"/>
+      <c r="Q140" s="283"/>
+      <c r="R140" s="283"/>
+      <c r="S140" s="283"/>
+      <c r="T140" s="283"/>
+      <c r="U140" s="283"/>
+      <c r="V140" s="283"/>
+      <c r="W140" s="283"/>
+      <c r="X140" s="283"/>
+      <c r="Y140" s="283"/>
+      <c r="Z140" s="283"/>
+      <c r="AA140" s="283"/>
+      <c r="AB140" s="283"/>
+      <c r="AC140" s="283"/>
+      <c r="AD140" s="283"/>
+      <c r="AE140" s="283"/>
+      <c r="AF140" s="283"/>
+      <c r="AG140" s="283"/>
       <c r="AJ140" s="128"/>
       <c r="AK140" s="128"/>
       <c r="AL140" s="128"/>
@@ -10909,7 +10899,7 @@
       <c r="BF140" s="128"/>
     </row>
     <row r="141" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H141" s="332" t="s">
+      <c r="H141" s="290" t="s">
         <v>30</v>
       </c>
       <c r="I141" s="266" t="s">
@@ -10920,19 +10910,19 @@
       <c r="L141" s="267"/>
       <c r="M141" s="267"/>
       <c r="N141" s="268"/>
-      <c r="O141" s="384" t="s">
+      <c r="O141" s="292" t="s">
         <v>132</v>
       </c>
-      <c r="P141" s="385"/>
-      <c r="Q141" s="385"/>
-      <c r="R141" s="385"/>
-      <c r="S141" s="385"/>
-      <c r="T141" s="385"/>
-      <c r="U141" s="385"/>
-      <c r="V141" s="385"/>
-      <c r="W141" s="385"/>
-      <c r="X141" s="385"/>
-      <c r="Y141" s="386"/>
+      <c r="P141" s="293"/>
+      <c r="Q141" s="293"/>
+      <c r="R141" s="293"/>
+      <c r="S141" s="293"/>
+      <c r="T141" s="293"/>
+      <c r="U141" s="293"/>
+      <c r="V141" s="293"/>
+      <c r="W141" s="293"/>
+      <c r="X141" s="293"/>
+      <c r="Y141" s="294"/>
       <c r="Z141" s="266" t="s">
         <v>64</v>
       </c>
@@ -10948,28 +10938,28 @@
       <c r="AH141" s="153"/>
     </row>
     <row r="142" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H142" s="334"/>
+      <c r="H142" s="291"/>
       <c r="I142" s="272"/>
       <c r="J142" s="273"/>
       <c r="K142" s="273"/>
       <c r="L142" s="273"/>
       <c r="M142" s="273"/>
       <c r="N142" s="274"/>
-      <c r="O142" s="384" t="s">
+      <c r="O142" s="292" t="s">
         <v>63</v>
       </c>
-      <c r="P142" s="385"/>
-      <c r="Q142" s="385"/>
-      <c r="R142" s="385"/>
-      <c r="S142" s="386"/>
-      <c r="T142" s="370" t="s">
+      <c r="P142" s="293"/>
+      <c r="Q142" s="293"/>
+      <c r="R142" s="293"/>
+      <c r="S142" s="294"/>
+      <c r="T142" s="295" t="s">
         <v>133</v>
       </c>
-      <c r="U142" s="371"/>
-      <c r="V142" s="371"/>
-      <c r="W142" s="371"/>
-      <c r="X142" s="371"/>
-      <c r="Y142" s="372"/>
+      <c r="U142" s="296"/>
+      <c r="V142" s="296"/>
+      <c r="W142" s="296"/>
+      <c r="X142" s="296"/>
+      <c r="Y142" s="297"/>
       <c r="Z142" s="272"/>
       <c r="AA142" s="273"/>
       <c r="AB142" s="273"/>
@@ -10984,14 +10974,14 @@
       <c r="H143" s="104">
         <v>1</v>
       </c>
-      <c r="I143" s="380" t="s">
+      <c r="I143" s="284" t="s">
         <v>136</v>
       </c>
-      <c r="J143" s="381"/>
-      <c r="K143" s="381"/>
-      <c r="L143" s="381"/>
-      <c r="M143" s="381"/>
-      <c r="N143" s="382"/>
+      <c r="J143" s="285"/>
+      <c r="K143" s="285"/>
+      <c r="L143" s="285"/>
+      <c r="M143" s="285"/>
+      <c r="N143" s="286"/>
       <c r="O143" s="157" t="s">
         <v>39</v>
       </c>
@@ -10999,22 +10989,22 @@
       <c r="Q143" s="158"/>
       <c r="R143" s="158"/>
       <c r="S143" s="159"/>
-      <c r="T143" s="380" t="s">
+      <c r="T143" s="284" t="s">
         <v>39</v>
       </c>
-      <c r="U143" s="381"/>
-      <c r="V143" s="381"/>
-      <c r="W143" s="381"/>
-      <c r="X143" s="381"/>
-      <c r="Y143" s="382"/>
-      <c r="Z143" s="383" t="s">
+      <c r="U143" s="285"/>
+      <c r="V143" s="285"/>
+      <c r="W143" s="285"/>
+      <c r="X143" s="285"/>
+      <c r="Y143" s="286"/>
+      <c r="Z143" s="287" t="s">
         <v>137</v>
       </c>
-      <c r="AA143" s="297"/>
-      <c r="AB143" s="297"/>
-      <c r="AC143" s="297"/>
-      <c r="AD143" s="297"/>
-      <c r="AE143" s="298"/>
+      <c r="AA143" s="288"/>
+      <c r="AB143" s="288"/>
+      <c r="AC143" s="288"/>
+      <c r="AD143" s="288"/>
+      <c r="AE143" s="289"/>
       <c r="AF143" s="160"/>
       <c r="AG143" s="161"/>
       <c r="AH143" s="162"/>
@@ -11023,14 +11013,14 @@
       <c r="H144" s="104">
         <v>2</v>
       </c>
-      <c r="I144" s="380" t="s">
+      <c r="I144" s="284" t="s">
         <v>117</v>
       </c>
-      <c r="J144" s="381"/>
-      <c r="K144" s="381"/>
-      <c r="L144" s="381"/>
-      <c r="M144" s="381"/>
-      <c r="N144" s="382"/>
+      <c r="J144" s="285"/>
+      <c r="K144" s="285"/>
+      <c r="L144" s="285"/>
+      <c r="M144" s="285"/>
+      <c r="N144" s="286"/>
       <c r="O144" s="157" t="s">
         <v>39</v>
       </c>
@@ -11038,22 +11028,22 @@
       <c r="Q144" s="158"/>
       <c r="R144" s="158"/>
       <c r="S144" s="159"/>
-      <c r="T144" s="380" t="s">
+      <c r="T144" s="284" t="s">
         <v>39</v>
       </c>
-      <c r="U144" s="381"/>
-      <c r="V144" s="381"/>
-      <c r="W144" s="381"/>
-      <c r="X144" s="381"/>
-      <c r="Y144" s="382"/>
-      <c r="Z144" s="383">
+      <c r="U144" s="285"/>
+      <c r="V144" s="285"/>
+      <c r="W144" s="285"/>
+      <c r="X144" s="285"/>
+      <c r="Y144" s="286"/>
+      <c r="Z144" s="287">
         <v>0</v>
       </c>
-      <c r="AA144" s="297"/>
-      <c r="AB144" s="297"/>
-      <c r="AC144" s="297"/>
-      <c r="AD144" s="297"/>
-      <c r="AE144" s="298"/>
+      <c r="AA144" s="288"/>
+      <c r="AB144" s="288"/>
+      <c r="AC144" s="288"/>
+      <c r="AD144" s="288"/>
+      <c r="AE144" s="289"/>
       <c r="AF144" s="160"/>
       <c r="AG144" s="161"/>
       <c r="AH144" s="162"/>
@@ -11526,6 +11516,97 @@
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="V43:AC43"/>
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="V58:AH59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="AD49:AG51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AD53:AG53"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="U50:Y51"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="I50:L51"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="E49:AC49"/>
+    <mergeCell ref="Z50:AB51"/>
+    <mergeCell ref="AC50:AC51"/>
+    <mergeCell ref="M53:T53"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AE67:AH67"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="AE65:AH65"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="AE66:AH66"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="R67:Y67"/>
+    <mergeCell ref="Z67:AD67"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:J59"/>
+    <mergeCell ref="K58:N59"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="R65:Y65"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:AH60"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="R66:Y66"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="G98:P103"/>
+    <mergeCell ref="Q98:Z98"/>
+    <mergeCell ref="Q103:Z103"/>
+    <mergeCell ref="G106:Z106"/>
+    <mergeCell ref="AD87:AG87"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="G87:L87"/>
+    <mergeCell ref="G88:L88"/>
+    <mergeCell ref="M87:V87"/>
+    <mergeCell ref="W88:Y88"/>
+    <mergeCell ref="Q102:Z102"/>
+    <mergeCell ref="G104:P105"/>
+    <mergeCell ref="Q104:Z104"/>
+    <mergeCell ref="Q105:Z105"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="Z87:AC87"/>
+    <mergeCell ref="M88:V88"/>
+    <mergeCell ref="G97:P97"/>
+    <mergeCell ref="Q97:Z97"/>
+    <mergeCell ref="W87:Y87"/>
     <mergeCell ref="G139:AG140"/>
     <mergeCell ref="G127:AG128"/>
     <mergeCell ref="G119:AG120"/>
@@ -11550,97 +11631,6 @@
     <mergeCell ref="Z131:AE132"/>
     <mergeCell ref="O132:S132"/>
     <mergeCell ref="T132:Y132"/>
-    <mergeCell ref="G98:P103"/>
-    <mergeCell ref="Q98:Z98"/>
-    <mergeCell ref="Q103:Z103"/>
-    <mergeCell ref="G106:Z106"/>
-    <mergeCell ref="AD87:AG87"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="G87:L87"/>
-    <mergeCell ref="G88:L88"/>
-    <mergeCell ref="M87:V87"/>
-    <mergeCell ref="W88:Y88"/>
-    <mergeCell ref="Q102:Z102"/>
-    <mergeCell ref="G104:P105"/>
-    <mergeCell ref="Q104:Z104"/>
-    <mergeCell ref="Q105:Z105"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="Z87:AC87"/>
-    <mergeCell ref="M88:V88"/>
-    <mergeCell ref="G97:P97"/>
-    <mergeCell ref="Q97:Z97"/>
-    <mergeCell ref="W87:Y87"/>
-    <mergeCell ref="V44:AC44"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:J59"/>
-    <mergeCell ref="K58:N59"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="R65:Y65"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:AH60"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="R66:Y66"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="AE67:AH67"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="AE65:AH65"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="AE66:AH66"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="R67:Y67"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="V43:AC43"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="V58:AH59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="AD49:AG51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AD53:AG53"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="U50:Y51"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="I50:L51"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="E49:AC49"/>
-    <mergeCell ref="Z50:AB51"/>
-    <mergeCell ref="AC50:AC51"/>
-    <mergeCell ref="M53:T53"/>
-    <mergeCell ref="M52:T52"/>
-    <mergeCell ref="Q44:U44"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="4">

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10101_Login.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10101_Login.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4726E218-4D06-43D5-9B99-3653D4C421A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF949F4-A804-4203-9E9C-BE346A87D7BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -30,7 +30,17 @@
     <definedName name="画面項目種類">Data!$A$2:$A$12</definedName>
     <definedName name="種別一覧">Data!$C$2:$C$7</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -272,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="182">
   <si>
     <t>PJ名</t>
   </si>
@@ -401,9 +411,6 @@
     <t>TIS</t>
   </si>
   <si>
-    <t>2. WA10101 (login screen)</t>
-  </si>
-  <si>
     <t>2.1 Screen layout</t>
   </si>
   <si>
@@ -561,9 +568,6 @@
     <t>Yes (synchronous)</t>
   </si>
   <si>
-    <t>Press the "login" button</t>
-  </si>
-  <si>
     <t>Performs login processing and transitions to the TOP menu screen if authentication is successful.</t>
   </si>
   <si>
@@ -627,18 +631,12 @@
     <t>Acquisition column name</t>
   </si>
   <si>
-    <t>Authentication failed count</t>
-  </si>
-  <si>
     <t>Search conditions</t>
   </si>
   <si>
     <t>=</t>
   </si>
   <si>
-    <t>sign in ID (input value)</t>
-  </si>
-  <si>
     <t>(3) Display processing</t>
   </si>
   <si>
@@ -678,13 +676,7 @@
     <t>Item name</t>
   </si>
   <si>
-    <t>Authentication failed count + 1</t>
-  </si>
-  <si>
     <t>B. If the password from the search results of "(2) Search processing" matched the password input on the screen, update the last login date and time and the number of authentication failures described below.</t>
-  </si>
-  <si>
-    <t>Last login date and time</t>
   </si>
   <si>
     <t>System date</t>
@@ -790,10 +782,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>2. WA10101 (login screen)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>SYSTEM_ACCOUNT</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -810,9 +798,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>FAILED_COUNT</t>
-  </si>
-  <si>
     <t>EFFECTIVE_DATE_FROM</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -838,6 +823,34 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Press the "Login" button</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>FAILED_COUNT</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>FAILED_COUNT + 1</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Login ID</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Login ID (input value)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>LAST_LOGIN_DATE_TIME</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2. WA10101 (Login screen)</t>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -1918,6 +1931,150 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1960,148 +2117,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2167,33 +2207,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2248,19 +2261,46 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2269,45 +2309,159 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2326,21 +2480,6 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2376,6 +2515,15 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2389,159 +2537,24 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2605,8 +2618,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="285750"/>
-          <a:ext cx="1400175" cy="590550"/>
+          <a:off x="8496300" y="281940"/>
+          <a:ext cx="1508760" cy="579120"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -3329,42 +3342,42 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -3375,7 +3388,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -3384,7 +3397,7 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -3396,7 +3409,7 @@
       <c r="K25" s="172"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -3405,7 +3418,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -3414,7 +3427,7 @@
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -3423,7 +3436,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="19"/>
@@ -3431,7 +3444,7 @@
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -3440,7 +3453,7 @@
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -3449,7 +3462,7 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:12" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -3458,7 +3471,7 @@
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="19"/>
@@ -3470,7 +3483,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="19"/>
@@ -3485,515 +3498,515 @@
       <c r="R34" s="33"/>
       <c r="S34" s="33"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="33"/>
       <c r="R35" s="33"/>
       <c r="S35" s="33"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O36" s="34"/>
       <c r="P36" s="33"/>
       <c r="Q36" s="34"/>
       <c r="R36" s="33"/>
       <c r="S36" s="31"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O37" s="35"/>
       <c r="P37" s="36"/>
       <c r="Q37" s="35"/>
       <c r="R37" s="36"/>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O38" s="36"/>
       <c r="P38" s="36"/>
       <c r="Q38" s="36"/>
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
       <c r="Q39" s="36"/>
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -4017,63 +4030,63 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="26"/>
+    <col min="1" max="16384" width="4.875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="220" t="s">
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="176" t="s">
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="224" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="226" t="s">
+      <c r="P1" s="225"/>
+      <c r="Q1" s="225"/>
+      <c r="R1" s="226"/>
+      <c r="S1" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="227"/>
-      <c r="U1" s="227"/>
-      <c r="V1" s="227"/>
-      <c r="W1" s="227"/>
-      <c r="X1" s="227"/>
-      <c r="Y1" s="227"/>
-      <c r="Z1" s="228"/>
-      <c r="AA1" s="173" t="s">
+      <c r="T1" s="204"/>
+      <c r="U1" s="204"/>
+      <c r="V1" s="204"/>
+      <c r="W1" s="204"/>
+      <c r="X1" s="204"/>
+      <c r="Y1" s="204"/>
+      <c r="Z1" s="205"/>
+      <c r="AA1" s="221" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="175"/>
-      <c r="AC1" s="208" t="str">
+      <c r="AB1" s="223"/>
+      <c r="AC1" s="173" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="209"/>
-      <c r="AE1" s="209"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="214">
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="174"/>
+      <c r="AF1" s="175"/>
+      <c r="AG1" s="179">
         <f>IF(D8="","",D8)</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="215"/>
-      <c r="AI1" s="216"/>
+      <c r="AH1" s="180"/>
+      <c r="AI1" s="181"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -4081,53 +4094,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="221" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="220" t="s">
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="229"/>
-      <c r="T2" s="230"/>
-      <c r="U2" s="230"/>
-      <c r="V2" s="230"/>
-      <c r="W2" s="230"/>
-      <c r="X2" s="230"/>
-      <c r="Y2" s="230"/>
-      <c r="Z2" s="231"/>
-      <c r="AA2" s="173" t="s">
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="227"/>
+      <c r="P2" s="228"/>
+      <c r="Q2" s="228"/>
+      <c r="R2" s="229"/>
+      <c r="S2" s="206"/>
+      <c r="T2" s="207"/>
+      <c r="U2" s="207"/>
+      <c r="V2" s="207"/>
+      <c r="W2" s="207"/>
+      <c r="X2" s="207"/>
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="217" t="str">
+      <c r="AB2" s="223"/>
+      <c r="AC2" s="182" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="218"/>
-      <c r="AE2" s="218"/>
-      <c r="AF2" s="219"/>
-      <c r="AG2" s="214" t="str">
+      <c r="AD2" s="183"/>
+      <c r="AE2" s="183"/>
+      <c r="AF2" s="184"/>
+      <c r="AG2" s="179" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="215"/>
-      <c r="AI2" s="216"/>
+      <c r="AH2" s="180"/>
+      <c r="AI2" s="181"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -4135,45 +4148,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="220" t="s">
+      <c r="B3" s="222"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="222"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="184"/>
-      <c r="S3" s="232"/>
-      <c r="T3" s="233"/>
-      <c r="U3" s="233"/>
-      <c r="V3" s="233"/>
-      <c r="W3" s="233"/>
-      <c r="X3" s="233"/>
-      <c r="Y3" s="233"/>
-      <c r="Z3" s="234"/>
-      <c r="AA3" s="185"/>
-      <c r="AB3" s="186"/>
-      <c r="AC3" s="208"/>
-      <c r="AD3" s="209"/>
-      <c r="AE3" s="209"/>
-      <c r="AF3" s="210"/>
-      <c r="AG3" s="214"/>
-      <c r="AH3" s="215"/>
-      <c r="AI3" s="216"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="230"/>
+      <c r="P3" s="231"/>
+      <c r="Q3" s="231"/>
+      <c r="R3" s="232"/>
+      <c r="S3" s="209"/>
+      <c r="T3" s="210"/>
+      <c r="U3" s="210"/>
+      <c r="V3" s="210"/>
+      <c r="W3" s="210"/>
+      <c r="X3" s="210"/>
+      <c r="Y3" s="210"/>
+      <c r="Z3" s="211"/>
+      <c r="AA3" s="233"/>
+      <c r="AB3" s="234"/>
+      <c r="AC3" s="173"/>
+      <c r="AD3" s="174"/>
+      <c r="AE3" s="174"/>
+      <c r="AF3" s="175"/>
+      <c r="AG3" s="179"/>
+      <c r="AH3" s="180"/>
+      <c r="AI3" s="181"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -4312,1028 +4325,1028 @@
       <c r="A7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="200"/>
-      <c r="D7" s="199" t="s">
+      <c r="C7" s="190"/>
+      <c r="D7" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="199" t="s">
+      <c r="E7" s="189"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="201"/>
-      <c r="I7" s="200"/>
-      <c r="J7" s="199" t="s">
+      <c r="H7" s="189"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="201"/>
-      <c r="P7" s="200"/>
-      <c r="Q7" s="199" t="s">
+      <c r="K7" s="189"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="189"/>
+      <c r="N7" s="189"/>
+      <c r="O7" s="189"/>
+      <c r="P7" s="190"/>
+      <c r="Q7" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="201"/>
-      <c r="S7" s="201"/>
-      <c r="T7" s="201"/>
-      <c r="U7" s="201"/>
-      <c r="V7" s="201"/>
-      <c r="W7" s="201"/>
-      <c r="X7" s="201"/>
-      <c r="Y7" s="201"/>
-      <c r="Z7" s="201"/>
-      <c r="AA7" s="201"/>
-      <c r="AB7" s="201"/>
-      <c r="AC7" s="201"/>
-      <c r="AD7" s="201"/>
-      <c r="AE7" s="200"/>
-      <c r="AF7" s="199" t="s">
+      <c r="R7" s="189"/>
+      <c r="S7" s="189"/>
+      <c r="T7" s="189"/>
+      <c r="U7" s="189"/>
+      <c r="V7" s="189"/>
+      <c r="W7" s="189"/>
+      <c r="X7" s="189"/>
+      <c r="Y7" s="189"/>
+      <c r="Z7" s="189"/>
+      <c r="AA7" s="189"/>
+      <c r="AB7" s="189"/>
+      <c r="AC7" s="189"/>
+      <c r="AD7" s="189"/>
+      <c r="AE7" s="190"/>
+      <c r="AF7" s="188" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="201"/>
-      <c r="AH7" s="201"/>
-      <c r="AI7" s="200"/>
+      <c r="AG7" s="189"/>
+      <c r="AH7" s="189"/>
+      <c r="AI7" s="190"/>
     </row>
     <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="202" t="s">
+      <c r="B8" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="203"/>
-      <c r="D8" s="204">
+      <c r="C8" s="216"/>
+      <c r="D8" s="217">
         <v>43656</v>
       </c>
-      <c r="E8" s="205"/>
-      <c r="F8" s="206"/>
-      <c r="G8" s="202" t="s">
+      <c r="E8" s="218"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="207"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="223" t="s">
+      <c r="H8" s="220"/>
+      <c r="I8" s="216"/>
+      <c r="J8" s="200" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="224"/>
-      <c r="L8" s="224"/>
-      <c r="M8" s="224"/>
-      <c r="N8" s="224"/>
-      <c r="O8" s="224"/>
-      <c r="P8" s="225"/>
-      <c r="Q8" s="211" t="s">
+      <c r="K8" s="201"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="201"/>
+      <c r="P8" s="202"/>
+      <c r="Q8" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="212"/>
-      <c r="S8" s="212"/>
-      <c r="T8" s="212"/>
-      <c r="U8" s="212"/>
-      <c r="V8" s="212"/>
-      <c r="W8" s="212"/>
-      <c r="X8" s="212"/>
-      <c r="Y8" s="212"/>
-      <c r="Z8" s="212"/>
-      <c r="AA8" s="212"/>
-      <c r="AB8" s="212"/>
-      <c r="AC8" s="212"/>
-      <c r="AD8" s="212"/>
-      <c r="AE8" s="213"/>
-      <c r="AF8" s="223" t="s">
+      <c r="R8" s="177"/>
+      <c r="S8" s="177"/>
+      <c r="T8" s="177"/>
+      <c r="U8" s="177"/>
+      <c r="V8" s="177"/>
+      <c r="W8" s="177"/>
+      <c r="X8" s="177"/>
+      <c r="Y8" s="177"/>
+      <c r="Z8" s="177"/>
+      <c r="AA8" s="177"/>
+      <c r="AB8" s="177"/>
+      <c r="AC8" s="177"/>
+      <c r="AD8" s="177"/>
+      <c r="AE8" s="178"/>
+      <c r="AF8" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="224"/>
-      <c r="AH8" s="224"/>
-      <c r="AI8" s="225"/>
+      <c r="AG8" s="201"/>
+      <c r="AH8" s="201"/>
+      <c r="AI8" s="202"/>
     </row>
     <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
-      <c r="B9" s="193"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="198"/>
-      <c r="I9" s="194"/>
-      <c r="J9" s="190"/>
-      <c r="K9" s="191"/>
-      <c r="L9" s="191"/>
-      <c r="M9" s="191"/>
-      <c r="N9" s="191"/>
-      <c r="O9" s="191"/>
-      <c r="P9" s="192"/>
-      <c r="Q9" s="187"/>
-      <c r="R9" s="188"/>
-      <c r="S9" s="188"/>
-      <c r="T9" s="188"/>
-      <c r="U9" s="188"/>
-      <c r="V9" s="188"/>
-      <c r="W9" s="188"/>
-      <c r="X9" s="188"/>
-      <c r="Y9" s="188"/>
-      <c r="Z9" s="188"/>
-      <c r="AA9" s="188"/>
-      <c r="AB9" s="188"/>
-      <c r="AC9" s="188"/>
-      <c r="AD9" s="188"/>
-      <c r="AE9" s="189"/>
-      <c r="AF9" s="190"/>
-      <c r="AG9" s="191"/>
-      <c r="AH9" s="191"/>
-      <c r="AI9" s="192"/>
+      <c r="B9" s="185"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="198"/>
+      <c r="N9" s="198"/>
+      <c r="O9" s="198"/>
+      <c r="P9" s="199"/>
+      <c r="Q9" s="194"/>
+      <c r="R9" s="195"/>
+      <c r="S9" s="195"/>
+      <c r="T9" s="195"/>
+      <c r="U9" s="195"/>
+      <c r="V9" s="195"/>
+      <c r="W9" s="195"/>
+      <c r="X9" s="195"/>
+      <c r="Y9" s="195"/>
+      <c r="Z9" s="195"/>
+      <c r="AA9" s="195"/>
+      <c r="AB9" s="195"/>
+      <c r="AC9" s="195"/>
+      <c r="AD9" s="195"/>
+      <c r="AE9" s="196"/>
+      <c r="AF9" s="197"/>
+      <c r="AG9" s="198"/>
+      <c r="AH9" s="198"/>
+      <c r="AI9" s="199"/>
     </row>
     <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
-      <c r="B10" s="193"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="197"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="190"/>
-      <c r="K10" s="191"/>
-      <c r="L10" s="191"/>
-      <c r="M10" s="191"/>
-      <c r="N10" s="191"/>
-      <c r="O10" s="191"/>
-      <c r="P10" s="192"/>
-      <c r="Q10" s="187"/>
-      <c r="R10" s="188"/>
-      <c r="S10" s="188"/>
-      <c r="T10" s="188"/>
-      <c r="U10" s="188"/>
-      <c r="V10" s="188"/>
-      <c r="W10" s="188"/>
-      <c r="X10" s="188"/>
-      <c r="Y10" s="188"/>
-      <c r="Z10" s="188"/>
-      <c r="AA10" s="188"/>
-      <c r="AB10" s="188"/>
-      <c r="AC10" s="188"/>
-      <c r="AD10" s="188"/>
-      <c r="AE10" s="189"/>
-      <c r="AF10" s="190"/>
-      <c r="AG10" s="191"/>
-      <c r="AH10" s="191"/>
-      <c r="AI10" s="192"/>
+      <c r="B10" s="185"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="198"/>
+      <c r="M10" s="198"/>
+      <c r="N10" s="198"/>
+      <c r="O10" s="198"/>
+      <c r="P10" s="199"/>
+      <c r="Q10" s="194"/>
+      <c r="R10" s="195"/>
+      <c r="S10" s="195"/>
+      <c r="T10" s="195"/>
+      <c r="U10" s="195"/>
+      <c r="V10" s="195"/>
+      <c r="W10" s="195"/>
+      <c r="X10" s="195"/>
+      <c r="Y10" s="195"/>
+      <c r="Z10" s="195"/>
+      <c r="AA10" s="195"/>
+      <c r="AB10" s="195"/>
+      <c r="AC10" s="195"/>
+      <c r="AD10" s="195"/>
+      <c r="AE10" s="196"/>
+      <c r="AF10" s="197"/>
+      <c r="AG10" s="198"/>
+      <c r="AH10" s="198"/>
+      <c r="AI10" s="199"/>
     </row>
     <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
-      <c r="B11" s="193"/>
-      <c r="C11" s="194"/>
-      <c r="D11" s="195"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="197"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="190"/>
-      <c r="K11" s="191"/>
-      <c r="L11" s="191"/>
-      <c r="M11" s="191"/>
-      <c r="N11" s="191"/>
-      <c r="O11" s="191"/>
-      <c r="P11" s="192"/>
-      <c r="Q11" s="187"/>
-      <c r="R11" s="188"/>
-      <c r="S11" s="188"/>
-      <c r="T11" s="188"/>
-      <c r="U11" s="188"/>
-      <c r="V11" s="188"/>
-      <c r="W11" s="188"/>
-      <c r="X11" s="188"/>
-      <c r="Y11" s="188"/>
-      <c r="Z11" s="188"/>
-      <c r="AA11" s="188"/>
-      <c r="AB11" s="188"/>
-      <c r="AC11" s="188"/>
-      <c r="AD11" s="188"/>
-      <c r="AE11" s="189"/>
-      <c r="AF11" s="190"/>
-      <c r="AG11" s="191"/>
-      <c r="AH11" s="191"/>
-      <c r="AI11" s="192"/>
+      <c r="B11" s="185"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="212"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="214"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="187"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="198"/>
+      <c r="L11" s="198"/>
+      <c r="M11" s="198"/>
+      <c r="N11" s="198"/>
+      <c r="O11" s="198"/>
+      <c r="P11" s="199"/>
+      <c r="Q11" s="194"/>
+      <c r="R11" s="195"/>
+      <c r="S11" s="195"/>
+      <c r="T11" s="195"/>
+      <c r="U11" s="195"/>
+      <c r="V11" s="195"/>
+      <c r="W11" s="195"/>
+      <c r="X11" s="195"/>
+      <c r="Y11" s="195"/>
+      <c r="Z11" s="195"/>
+      <c r="AA11" s="195"/>
+      <c r="AB11" s="195"/>
+      <c r="AC11" s="195"/>
+      <c r="AD11" s="195"/>
+      <c r="AE11" s="196"/>
+      <c r="AF11" s="197"/>
+      <c r="AG11" s="198"/>
+      <c r="AH11" s="198"/>
+      <c r="AI11" s="199"/>
     </row>
     <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
-      <c r="B12" s="193"/>
-      <c r="C12" s="194"/>
-      <c r="D12" s="195"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="197"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="198"/>
-      <c r="I12" s="194"/>
-      <c r="J12" s="190"/>
-      <c r="K12" s="191"/>
-      <c r="L12" s="191"/>
-      <c r="M12" s="191"/>
-      <c r="N12" s="191"/>
-      <c r="O12" s="191"/>
-      <c r="P12" s="192"/>
-      <c r="Q12" s="187"/>
-      <c r="R12" s="188"/>
-      <c r="S12" s="188"/>
-      <c r="T12" s="188"/>
-      <c r="U12" s="188"/>
-      <c r="V12" s="188"/>
-      <c r="W12" s="188"/>
-      <c r="X12" s="188"/>
-      <c r="Y12" s="188"/>
-      <c r="Z12" s="188"/>
-      <c r="AA12" s="188"/>
-      <c r="AB12" s="188"/>
-      <c r="AC12" s="188"/>
-      <c r="AD12" s="188"/>
-      <c r="AE12" s="189"/>
-      <c r="AF12" s="190"/>
-      <c r="AG12" s="191"/>
-      <c r="AH12" s="191"/>
-      <c r="AI12" s="192"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="212"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="214"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="187"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="198"/>
+      <c r="L12" s="198"/>
+      <c r="M12" s="198"/>
+      <c r="N12" s="198"/>
+      <c r="O12" s="198"/>
+      <c r="P12" s="199"/>
+      <c r="Q12" s="194"/>
+      <c r="R12" s="195"/>
+      <c r="S12" s="195"/>
+      <c r="T12" s="195"/>
+      <c r="U12" s="195"/>
+      <c r="V12" s="195"/>
+      <c r="W12" s="195"/>
+      <c r="X12" s="195"/>
+      <c r="Y12" s="195"/>
+      <c r="Z12" s="195"/>
+      <c r="AA12" s="195"/>
+      <c r="AB12" s="195"/>
+      <c r="AC12" s="195"/>
+      <c r="AD12" s="195"/>
+      <c r="AE12" s="196"/>
+      <c r="AF12" s="197"/>
+      <c r="AG12" s="198"/>
+      <c r="AH12" s="198"/>
+      <c r="AI12" s="199"/>
     </row>
     <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
-      <c r="B13" s="193"/>
-      <c r="C13" s="194"/>
-      <c r="D13" s="195"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="198"/>
-      <c r="I13" s="194"/>
-      <c r="J13" s="190"/>
-      <c r="K13" s="191"/>
-      <c r="L13" s="191"/>
-      <c r="M13" s="191"/>
-      <c r="N13" s="191"/>
-      <c r="O13" s="191"/>
-      <c r="P13" s="192"/>
-      <c r="Q13" s="187"/>
-      <c r="R13" s="188"/>
-      <c r="S13" s="188"/>
-      <c r="T13" s="188"/>
-      <c r="U13" s="188"/>
-      <c r="V13" s="188"/>
-      <c r="W13" s="188"/>
-      <c r="X13" s="188"/>
-      <c r="Y13" s="188"/>
-      <c r="Z13" s="188"/>
-      <c r="AA13" s="188"/>
-      <c r="AB13" s="188"/>
-      <c r="AC13" s="188"/>
-      <c r="AD13" s="188"/>
-      <c r="AE13" s="189"/>
-      <c r="AF13" s="190"/>
-      <c r="AG13" s="191"/>
-      <c r="AH13" s="191"/>
-      <c r="AI13" s="192"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="187"/>
+      <c r="D13" s="212"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="187"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="198"/>
+      <c r="L13" s="198"/>
+      <c r="M13" s="198"/>
+      <c r="N13" s="198"/>
+      <c r="O13" s="198"/>
+      <c r="P13" s="199"/>
+      <c r="Q13" s="194"/>
+      <c r="R13" s="195"/>
+      <c r="S13" s="195"/>
+      <c r="T13" s="195"/>
+      <c r="U13" s="195"/>
+      <c r="V13" s="195"/>
+      <c r="W13" s="195"/>
+      <c r="X13" s="195"/>
+      <c r="Y13" s="195"/>
+      <c r="Z13" s="195"/>
+      <c r="AA13" s="195"/>
+      <c r="AB13" s="195"/>
+      <c r="AC13" s="195"/>
+      <c r="AD13" s="195"/>
+      <c r="AE13" s="196"/>
+      <c r="AF13" s="197"/>
+      <c r="AG13" s="198"/>
+      <c r="AH13" s="198"/>
+      <c r="AI13" s="199"/>
     </row>
     <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
-      <c r="B14" s="193"/>
-      <c r="C14" s="194"/>
-      <c r="D14" s="195"/>
-      <c r="E14" s="196"/>
-      <c r="F14" s="197"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="198"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="190"/>
-      <c r="K14" s="191"/>
-      <c r="L14" s="191"/>
-      <c r="M14" s="191"/>
-      <c r="N14" s="191"/>
-      <c r="O14" s="191"/>
-      <c r="P14" s="192"/>
-      <c r="Q14" s="187"/>
-      <c r="R14" s="188"/>
-      <c r="S14" s="188"/>
-      <c r="T14" s="188"/>
-      <c r="U14" s="188"/>
-      <c r="V14" s="188"/>
-      <c r="W14" s="188"/>
-      <c r="X14" s="188"/>
-      <c r="Y14" s="188"/>
-      <c r="Z14" s="188"/>
-      <c r="AA14" s="188"/>
-      <c r="AB14" s="188"/>
-      <c r="AC14" s="188"/>
-      <c r="AD14" s="188"/>
-      <c r="AE14" s="189"/>
-      <c r="AF14" s="190"/>
-      <c r="AG14" s="191"/>
-      <c r="AH14" s="191"/>
-      <c r="AI14" s="192"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="212"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="214"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="197"/>
+      <c r="K14" s="198"/>
+      <c r="L14" s="198"/>
+      <c r="M14" s="198"/>
+      <c r="N14" s="198"/>
+      <c r="O14" s="198"/>
+      <c r="P14" s="199"/>
+      <c r="Q14" s="194"/>
+      <c r="R14" s="195"/>
+      <c r="S14" s="195"/>
+      <c r="T14" s="195"/>
+      <c r="U14" s="195"/>
+      <c r="V14" s="195"/>
+      <c r="W14" s="195"/>
+      <c r="X14" s="195"/>
+      <c r="Y14" s="195"/>
+      <c r="Z14" s="195"/>
+      <c r="AA14" s="195"/>
+      <c r="AB14" s="195"/>
+      <c r="AC14" s="195"/>
+      <c r="AD14" s="195"/>
+      <c r="AE14" s="196"/>
+      <c r="AF14" s="197"/>
+      <c r="AG14" s="198"/>
+      <c r="AH14" s="198"/>
+      <c r="AI14" s="199"/>
     </row>
     <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
-      <c r="B15" s="193"/>
-      <c r="C15" s="194"/>
-      <c r="D15" s="195"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="197"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="194"/>
-      <c r="J15" s="190"/>
-      <c r="K15" s="191"/>
-      <c r="L15" s="191"/>
-      <c r="M15" s="191"/>
-      <c r="N15" s="191"/>
-      <c r="O15" s="191"/>
-      <c r="P15" s="192"/>
-      <c r="Q15" s="187"/>
-      <c r="R15" s="188"/>
-      <c r="S15" s="188"/>
-      <c r="T15" s="188"/>
-      <c r="U15" s="188"/>
-      <c r="V15" s="188"/>
-      <c r="W15" s="188"/>
-      <c r="X15" s="188"/>
-      <c r="Y15" s="188"/>
-      <c r="Z15" s="188"/>
-      <c r="AA15" s="188"/>
-      <c r="AB15" s="188"/>
-      <c r="AC15" s="188"/>
-      <c r="AD15" s="188"/>
-      <c r="AE15" s="189"/>
-      <c r="AF15" s="190"/>
-      <c r="AG15" s="191"/>
-      <c r="AH15" s="191"/>
-      <c r="AI15" s="192"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="212"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="214"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="198"/>
+      <c r="N15" s="198"/>
+      <c r="O15" s="198"/>
+      <c r="P15" s="199"/>
+      <c r="Q15" s="194"/>
+      <c r="R15" s="195"/>
+      <c r="S15" s="195"/>
+      <c r="T15" s="195"/>
+      <c r="U15" s="195"/>
+      <c r="V15" s="195"/>
+      <c r="W15" s="195"/>
+      <c r="X15" s="195"/>
+      <c r="Y15" s="195"/>
+      <c r="Z15" s="195"/>
+      <c r="AA15" s="195"/>
+      <c r="AB15" s="195"/>
+      <c r="AC15" s="195"/>
+      <c r="AD15" s="195"/>
+      <c r="AE15" s="196"/>
+      <c r="AF15" s="197"/>
+      <c r="AG15" s="198"/>
+      <c r="AH15" s="198"/>
+      <c r="AI15" s="199"/>
     </row>
     <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
-      <c r="B16" s="193"/>
-      <c r="C16" s="194"/>
-      <c r="D16" s="195"/>
-      <c r="E16" s="196"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="191"/>
-      <c r="L16" s="191"/>
-      <c r="M16" s="191"/>
-      <c r="N16" s="191"/>
-      <c r="O16" s="191"/>
-      <c r="P16" s="192"/>
-      <c r="Q16" s="187"/>
-      <c r="R16" s="188"/>
-      <c r="S16" s="188"/>
-      <c r="T16" s="188"/>
-      <c r="U16" s="188"/>
-      <c r="V16" s="188"/>
-      <c r="W16" s="188"/>
-      <c r="X16" s="188"/>
-      <c r="Y16" s="188"/>
-      <c r="Z16" s="188"/>
-      <c r="AA16" s="188"/>
-      <c r="AB16" s="188"/>
-      <c r="AC16" s="188"/>
-      <c r="AD16" s="188"/>
-      <c r="AE16" s="189"/>
-      <c r="AF16" s="190"/>
-      <c r="AG16" s="191"/>
-      <c r="AH16" s="191"/>
-      <c r="AI16" s="192"/>
+      <c r="B16" s="185"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="213"/>
+      <c r="F16" s="214"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="198"/>
+      <c r="L16" s="198"/>
+      <c r="M16" s="198"/>
+      <c r="N16" s="198"/>
+      <c r="O16" s="198"/>
+      <c r="P16" s="199"/>
+      <c r="Q16" s="194"/>
+      <c r="R16" s="195"/>
+      <c r="S16" s="195"/>
+      <c r="T16" s="195"/>
+      <c r="U16" s="195"/>
+      <c r="V16" s="195"/>
+      <c r="W16" s="195"/>
+      <c r="X16" s="195"/>
+      <c r="Y16" s="195"/>
+      <c r="Z16" s="195"/>
+      <c r="AA16" s="195"/>
+      <c r="AB16" s="195"/>
+      <c r="AC16" s="195"/>
+      <c r="AD16" s="195"/>
+      <c r="AE16" s="196"/>
+      <c r="AF16" s="197"/>
+      <c r="AG16" s="198"/>
+      <c r="AH16" s="198"/>
+      <c r="AI16" s="199"/>
     </row>
     <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
-      <c r="B17" s="193"/>
-      <c r="C17" s="194"/>
-      <c r="D17" s="195"/>
-      <c r="E17" s="196"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="194"/>
-      <c r="J17" s="190"/>
-      <c r="K17" s="191"/>
-      <c r="L17" s="191"/>
-      <c r="M17" s="191"/>
-      <c r="N17" s="191"/>
-      <c r="O17" s="191"/>
-      <c r="P17" s="192"/>
-      <c r="Q17" s="187"/>
-      <c r="R17" s="188"/>
-      <c r="S17" s="188"/>
-      <c r="T17" s="188"/>
-      <c r="U17" s="188"/>
-      <c r="V17" s="188"/>
-      <c r="W17" s="188"/>
-      <c r="X17" s="188"/>
-      <c r="Y17" s="188"/>
-      <c r="Z17" s="188"/>
-      <c r="AA17" s="188"/>
-      <c r="AB17" s="188"/>
-      <c r="AC17" s="188"/>
-      <c r="AD17" s="188"/>
-      <c r="AE17" s="189"/>
-      <c r="AF17" s="190"/>
-      <c r="AG17" s="191"/>
-      <c r="AH17" s="191"/>
-      <c r="AI17" s="192"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="187"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="198"/>
+      <c r="L17" s="198"/>
+      <c r="M17" s="198"/>
+      <c r="N17" s="198"/>
+      <c r="O17" s="198"/>
+      <c r="P17" s="199"/>
+      <c r="Q17" s="194"/>
+      <c r="R17" s="195"/>
+      <c r="S17" s="195"/>
+      <c r="T17" s="195"/>
+      <c r="U17" s="195"/>
+      <c r="V17" s="195"/>
+      <c r="W17" s="195"/>
+      <c r="X17" s="195"/>
+      <c r="Y17" s="195"/>
+      <c r="Z17" s="195"/>
+      <c r="AA17" s="195"/>
+      <c r="AB17" s="195"/>
+      <c r="AC17" s="195"/>
+      <c r="AD17" s="195"/>
+      <c r="AE17" s="196"/>
+      <c r="AF17" s="197"/>
+      <c r="AG17" s="198"/>
+      <c r="AH17" s="198"/>
+      <c r="AI17" s="199"/>
     </row>
     <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
-      <c r="B18" s="193"/>
-      <c r="C18" s="194"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="196"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="198"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="190"/>
-      <c r="K18" s="191"/>
-      <c r="L18" s="191"/>
-      <c r="M18" s="191"/>
-      <c r="N18" s="191"/>
-      <c r="O18" s="191"/>
-      <c r="P18" s="192"/>
-      <c r="Q18" s="187"/>
-      <c r="R18" s="188"/>
-      <c r="S18" s="188"/>
-      <c r="T18" s="188"/>
-      <c r="U18" s="188"/>
-      <c r="V18" s="188"/>
-      <c r="W18" s="188"/>
-      <c r="X18" s="188"/>
-      <c r="Y18" s="188"/>
-      <c r="Z18" s="188"/>
-      <c r="AA18" s="188"/>
-      <c r="AB18" s="188"/>
-      <c r="AC18" s="188"/>
-      <c r="AD18" s="188"/>
-      <c r="AE18" s="189"/>
-      <c r="AF18" s="190"/>
-      <c r="AG18" s="191"/>
-      <c r="AH18" s="191"/>
-      <c r="AI18" s="192"/>
+      <c r="B18" s="185"/>
+      <c r="C18" s="187"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="198"/>
+      <c r="L18" s="198"/>
+      <c r="M18" s="198"/>
+      <c r="N18" s="198"/>
+      <c r="O18" s="198"/>
+      <c r="P18" s="199"/>
+      <c r="Q18" s="194"/>
+      <c r="R18" s="195"/>
+      <c r="S18" s="195"/>
+      <c r="T18" s="195"/>
+      <c r="U18" s="195"/>
+      <c r="V18" s="195"/>
+      <c r="W18" s="195"/>
+      <c r="X18" s="195"/>
+      <c r="Y18" s="195"/>
+      <c r="Z18" s="195"/>
+      <c r="AA18" s="195"/>
+      <c r="AB18" s="195"/>
+      <c r="AC18" s="195"/>
+      <c r="AD18" s="195"/>
+      <c r="AE18" s="196"/>
+      <c r="AF18" s="197"/>
+      <c r="AG18" s="198"/>
+      <c r="AH18" s="198"/>
+      <c r="AI18" s="199"/>
     </row>
     <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
-      <c r="B19" s="193"/>
-      <c r="C19" s="194"/>
-      <c r="D19" s="195"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="194"/>
-      <c r="J19" s="190"/>
-      <c r="K19" s="191"/>
-      <c r="L19" s="191"/>
-      <c r="M19" s="191"/>
-      <c r="N19" s="191"/>
-      <c r="O19" s="191"/>
-      <c r="P19" s="192"/>
-      <c r="Q19" s="187"/>
-      <c r="R19" s="188"/>
-      <c r="S19" s="188"/>
-      <c r="T19" s="188"/>
-      <c r="U19" s="188"/>
-      <c r="V19" s="188"/>
-      <c r="W19" s="188"/>
-      <c r="X19" s="188"/>
-      <c r="Y19" s="188"/>
-      <c r="Z19" s="188"/>
-      <c r="AA19" s="188"/>
-      <c r="AB19" s="188"/>
-      <c r="AC19" s="188"/>
-      <c r="AD19" s="188"/>
-      <c r="AE19" s="189"/>
-      <c r="AF19" s="190"/>
-      <c r="AG19" s="191"/>
-      <c r="AH19" s="191"/>
-      <c r="AI19" s="192"/>
+      <c r="B19" s="185"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="197"/>
+      <c r="K19" s="198"/>
+      <c r="L19" s="198"/>
+      <c r="M19" s="198"/>
+      <c r="N19" s="198"/>
+      <c r="O19" s="198"/>
+      <c r="P19" s="199"/>
+      <c r="Q19" s="194"/>
+      <c r="R19" s="195"/>
+      <c r="S19" s="195"/>
+      <c r="T19" s="195"/>
+      <c r="U19" s="195"/>
+      <c r="V19" s="195"/>
+      <c r="W19" s="195"/>
+      <c r="X19" s="195"/>
+      <c r="Y19" s="195"/>
+      <c r="Z19" s="195"/>
+      <c r="AA19" s="195"/>
+      <c r="AB19" s="195"/>
+      <c r="AC19" s="195"/>
+      <c r="AD19" s="195"/>
+      <c r="AE19" s="196"/>
+      <c r="AF19" s="197"/>
+      <c r="AG19" s="198"/>
+      <c r="AH19" s="198"/>
+      <c r="AI19" s="199"/>
     </row>
     <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
-      <c r="B20" s="193"/>
-      <c r="C20" s="194"/>
-      <c r="D20" s="195"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="198"/>
-      <c r="I20" s="194"/>
-      <c r="J20" s="190"/>
-      <c r="K20" s="191"/>
-      <c r="L20" s="191"/>
-      <c r="M20" s="191"/>
-      <c r="N20" s="191"/>
-      <c r="O20" s="191"/>
-      <c r="P20" s="192"/>
-      <c r="Q20" s="187"/>
-      <c r="R20" s="188"/>
-      <c r="S20" s="188"/>
-      <c r="T20" s="188"/>
-      <c r="U20" s="188"/>
-      <c r="V20" s="188"/>
-      <c r="W20" s="188"/>
-      <c r="X20" s="188"/>
-      <c r="Y20" s="188"/>
-      <c r="Z20" s="188"/>
-      <c r="AA20" s="188"/>
-      <c r="AB20" s="188"/>
-      <c r="AC20" s="188"/>
-      <c r="AD20" s="188"/>
-      <c r="AE20" s="189"/>
-      <c r="AF20" s="190"/>
-      <c r="AG20" s="191"/>
-      <c r="AH20" s="191"/>
-      <c r="AI20" s="192"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="185"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="197"/>
+      <c r="K20" s="198"/>
+      <c r="L20" s="198"/>
+      <c r="M20" s="198"/>
+      <c r="N20" s="198"/>
+      <c r="O20" s="198"/>
+      <c r="P20" s="199"/>
+      <c r="Q20" s="194"/>
+      <c r="R20" s="195"/>
+      <c r="S20" s="195"/>
+      <c r="T20" s="195"/>
+      <c r="U20" s="195"/>
+      <c r="V20" s="195"/>
+      <c r="W20" s="195"/>
+      <c r="X20" s="195"/>
+      <c r="Y20" s="195"/>
+      <c r="Z20" s="195"/>
+      <c r="AA20" s="195"/>
+      <c r="AB20" s="195"/>
+      <c r="AC20" s="195"/>
+      <c r="AD20" s="195"/>
+      <c r="AE20" s="196"/>
+      <c r="AF20" s="197"/>
+      <c r="AG20" s="198"/>
+      <c r="AH20" s="198"/>
+      <c r="AI20" s="199"/>
     </row>
     <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
-      <c r="B21" s="193"/>
-      <c r="C21" s="194"/>
-      <c r="D21" s="195"/>
-      <c r="E21" s="196"/>
-      <c r="F21" s="197"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="198"/>
-      <c r="I21" s="194"/>
-      <c r="J21" s="190"/>
-      <c r="K21" s="191"/>
-      <c r="L21" s="191"/>
-      <c r="M21" s="191"/>
-      <c r="N21" s="191"/>
-      <c r="O21" s="191"/>
-      <c r="P21" s="192"/>
-      <c r="Q21" s="187"/>
-      <c r="R21" s="188"/>
-      <c r="S21" s="188"/>
-      <c r="T21" s="188"/>
-      <c r="U21" s="188"/>
-      <c r="V21" s="188"/>
-      <c r="W21" s="188"/>
-      <c r="X21" s="188"/>
-      <c r="Y21" s="188"/>
-      <c r="Z21" s="188"/>
-      <c r="AA21" s="188"/>
-      <c r="AB21" s="188"/>
-      <c r="AC21" s="188"/>
-      <c r="AD21" s="188"/>
-      <c r="AE21" s="189"/>
-      <c r="AF21" s="190"/>
-      <c r="AG21" s="191"/>
-      <c r="AH21" s="191"/>
-      <c r="AI21" s="192"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="187"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="197"/>
+      <c r="K21" s="198"/>
+      <c r="L21" s="198"/>
+      <c r="M21" s="198"/>
+      <c r="N21" s="198"/>
+      <c r="O21" s="198"/>
+      <c r="P21" s="199"/>
+      <c r="Q21" s="194"/>
+      <c r="R21" s="195"/>
+      <c r="S21" s="195"/>
+      <c r="T21" s="195"/>
+      <c r="U21" s="195"/>
+      <c r="V21" s="195"/>
+      <c r="W21" s="195"/>
+      <c r="X21" s="195"/>
+      <c r="Y21" s="195"/>
+      <c r="Z21" s="195"/>
+      <c r="AA21" s="195"/>
+      <c r="AB21" s="195"/>
+      <c r="AC21" s="195"/>
+      <c r="AD21" s="195"/>
+      <c r="AE21" s="196"/>
+      <c r="AF21" s="197"/>
+      <c r="AG21" s="198"/>
+      <c r="AH21" s="198"/>
+      <c r="AI21" s="199"/>
     </row>
     <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
-      <c r="B22" s="193"/>
-      <c r="C22" s="194"/>
-      <c r="D22" s="195"/>
-      <c r="E22" s="196"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="198"/>
-      <c r="I22" s="194"/>
-      <c r="J22" s="190"/>
-      <c r="K22" s="191"/>
-      <c r="L22" s="191"/>
-      <c r="M22" s="191"/>
-      <c r="N22" s="191"/>
-      <c r="O22" s="191"/>
-      <c r="P22" s="192"/>
-      <c r="Q22" s="187"/>
-      <c r="R22" s="188"/>
-      <c r="S22" s="188"/>
-      <c r="T22" s="188"/>
-      <c r="U22" s="188"/>
-      <c r="V22" s="188"/>
-      <c r="W22" s="188"/>
-      <c r="X22" s="188"/>
-      <c r="Y22" s="188"/>
-      <c r="Z22" s="188"/>
-      <c r="AA22" s="188"/>
-      <c r="AB22" s="188"/>
-      <c r="AC22" s="188"/>
-      <c r="AD22" s="188"/>
-      <c r="AE22" s="189"/>
-      <c r="AF22" s="190"/>
-      <c r="AG22" s="191"/>
-      <c r="AH22" s="191"/>
-      <c r="AI22" s="192"/>
+      <c r="B22" s="185"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="213"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="187"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="198"/>
+      <c r="L22" s="198"/>
+      <c r="M22" s="198"/>
+      <c r="N22" s="198"/>
+      <c r="O22" s="198"/>
+      <c r="P22" s="199"/>
+      <c r="Q22" s="194"/>
+      <c r="R22" s="195"/>
+      <c r="S22" s="195"/>
+      <c r="T22" s="195"/>
+      <c r="U22" s="195"/>
+      <c r="V22" s="195"/>
+      <c r="W22" s="195"/>
+      <c r="X22" s="195"/>
+      <c r="Y22" s="195"/>
+      <c r="Z22" s="195"/>
+      <c r="AA22" s="195"/>
+      <c r="AB22" s="195"/>
+      <c r="AC22" s="195"/>
+      <c r="AD22" s="195"/>
+      <c r="AE22" s="196"/>
+      <c r="AF22" s="197"/>
+      <c r="AG22" s="198"/>
+      <c r="AH22" s="198"/>
+      <c r="AI22" s="199"/>
     </row>
     <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
-      <c r="B23" s="193"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="195"/>
-      <c r="E23" s="196"/>
-      <c r="F23" s="197"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="198"/>
-      <c r="I23" s="194"/>
-      <c r="J23" s="190"/>
-      <c r="K23" s="191"/>
-      <c r="L23" s="191"/>
-      <c r="M23" s="191"/>
-      <c r="N23" s="191"/>
-      <c r="O23" s="191"/>
-      <c r="P23" s="192"/>
-      <c r="Q23" s="187"/>
-      <c r="R23" s="188"/>
-      <c r="S23" s="188"/>
-      <c r="T23" s="188"/>
-      <c r="U23" s="188"/>
-      <c r="V23" s="188"/>
-      <c r="W23" s="188"/>
-      <c r="X23" s="188"/>
-      <c r="Y23" s="188"/>
-      <c r="Z23" s="188"/>
-      <c r="AA23" s="188"/>
-      <c r="AB23" s="188"/>
-      <c r="AC23" s="188"/>
-      <c r="AD23" s="188"/>
-      <c r="AE23" s="189"/>
-      <c r="AF23" s="190"/>
-      <c r="AG23" s="191"/>
-      <c r="AH23" s="191"/>
-      <c r="AI23" s="192"/>
+      <c r="B23" s="185"/>
+      <c r="C23" s="187"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="213"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="185"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="198"/>
+      <c r="L23" s="198"/>
+      <c r="M23" s="198"/>
+      <c r="N23" s="198"/>
+      <c r="O23" s="198"/>
+      <c r="P23" s="199"/>
+      <c r="Q23" s="194"/>
+      <c r="R23" s="195"/>
+      <c r="S23" s="195"/>
+      <c r="T23" s="195"/>
+      <c r="U23" s="195"/>
+      <c r="V23" s="195"/>
+      <c r="W23" s="195"/>
+      <c r="X23" s="195"/>
+      <c r="Y23" s="195"/>
+      <c r="Z23" s="195"/>
+      <c r="AA23" s="195"/>
+      <c r="AB23" s="195"/>
+      <c r="AC23" s="195"/>
+      <c r="AD23" s="195"/>
+      <c r="AE23" s="196"/>
+      <c r="AF23" s="197"/>
+      <c r="AG23" s="198"/>
+      <c r="AH23" s="198"/>
+      <c r="AI23" s="199"/>
     </row>
     <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
-      <c r="B24" s="193"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="195"/>
-      <c r="E24" s="196"/>
-      <c r="F24" s="197"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="198"/>
-      <c r="I24" s="194"/>
-      <c r="J24" s="190"/>
-      <c r="K24" s="191"/>
-      <c r="L24" s="191"/>
-      <c r="M24" s="191"/>
-      <c r="N24" s="191"/>
-      <c r="O24" s="191"/>
-      <c r="P24" s="192"/>
-      <c r="Q24" s="187"/>
-      <c r="R24" s="188"/>
-      <c r="S24" s="188"/>
-      <c r="T24" s="188"/>
-      <c r="U24" s="188"/>
-      <c r="V24" s="188"/>
-      <c r="W24" s="188"/>
-      <c r="X24" s="188"/>
-      <c r="Y24" s="188"/>
-      <c r="Z24" s="188"/>
-      <c r="AA24" s="188"/>
-      <c r="AB24" s="188"/>
-      <c r="AC24" s="188"/>
-      <c r="AD24" s="188"/>
-      <c r="AE24" s="189"/>
-      <c r="AF24" s="190"/>
-      <c r="AG24" s="191"/>
-      <c r="AH24" s="191"/>
-      <c r="AI24" s="192"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="187"/>
+      <c r="D24" s="212"/>
+      <c r="E24" s="213"/>
+      <c r="F24" s="214"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="187"/>
+      <c r="J24" s="197"/>
+      <c r="K24" s="198"/>
+      <c r="L24" s="198"/>
+      <c r="M24" s="198"/>
+      <c r="N24" s="198"/>
+      <c r="O24" s="198"/>
+      <c r="P24" s="199"/>
+      <c r="Q24" s="194"/>
+      <c r="R24" s="195"/>
+      <c r="S24" s="195"/>
+      <c r="T24" s="195"/>
+      <c r="U24" s="195"/>
+      <c r="V24" s="195"/>
+      <c r="W24" s="195"/>
+      <c r="X24" s="195"/>
+      <c r="Y24" s="195"/>
+      <c r="Z24" s="195"/>
+      <c r="AA24" s="195"/>
+      <c r="AB24" s="195"/>
+      <c r="AC24" s="195"/>
+      <c r="AD24" s="195"/>
+      <c r="AE24" s="196"/>
+      <c r="AF24" s="197"/>
+      <c r="AG24" s="198"/>
+      <c r="AH24" s="198"/>
+      <c r="AI24" s="199"/>
     </row>
     <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
-      <c r="B25" s="193"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="195"/>
-      <c r="E25" s="196"/>
-      <c r="F25" s="197"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="198"/>
-      <c r="I25" s="194"/>
-      <c r="J25" s="190"/>
-      <c r="K25" s="191"/>
-      <c r="L25" s="191"/>
-      <c r="M25" s="191"/>
-      <c r="N25" s="191"/>
-      <c r="O25" s="191"/>
-      <c r="P25" s="192"/>
-      <c r="Q25" s="187"/>
-      <c r="R25" s="188"/>
-      <c r="S25" s="188"/>
-      <c r="T25" s="188"/>
-      <c r="U25" s="188"/>
-      <c r="V25" s="188"/>
-      <c r="W25" s="188"/>
-      <c r="X25" s="188"/>
-      <c r="Y25" s="188"/>
-      <c r="Z25" s="188"/>
-      <c r="AA25" s="188"/>
-      <c r="AB25" s="188"/>
-      <c r="AC25" s="188"/>
-      <c r="AD25" s="188"/>
-      <c r="AE25" s="189"/>
-      <c r="AF25" s="190"/>
-      <c r="AG25" s="191"/>
-      <c r="AH25" s="191"/>
-      <c r="AI25" s="192"/>
+      <c r="B25" s="185"/>
+      <c r="C25" s="187"/>
+      <c r="D25" s="212"/>
+      <c r="E25" s="213"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="185"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="197"/>
+      <c r="K25" s="198"/>
+      <c r="L25" s="198"/>
+      <c r="M25" s="198"/>
+      <c r="N25" s="198"/>
+      <c r="O25" s="198"/>
+      <c r="P25" s="199"/>
+      <c r="Q25" s="194"/>
+      <c r="R25" s="195"/>
+      <c r="S25" s="195"/>
+      <c r="T25" s="195"/>
+      <c r="U25" s="195"/>
+      <c r="V25" s="195"/>
+      <c r="W25" s="195"/>
+      <c r="X25" s="195"/>
+      <c r="Y25" s="195"/>
+      <c r="Z25" s="195"/>
+      <c r="AA25" s="195"/>
+      <c r="AB25" s="195"/>
+      <c r="AC25" s="195"/>
+      <c r="AD25" s="195"/>
+      <c r="AE25" s="196"/>
+      <c r="AF25" s="197"/>
+      <c r="AG25" s="198"/>
+      <c r="AH25" s="198"/>
+      <c r="AI25" s="199"/>
     </row>
     <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
-      <c r="B26" s="193"/>
-      <c r="C26" s="194"/>
-      <c r="D26" s="195"/>
-      <c r="E26" s="196"/>
-      <c r="F26" s="197"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="198"/>
-      <c r="I26" s="194"/>
-      <c r="J26" s="190"/>
-      <c r="K26" s="191"/>
-      <c r="L26" s="191"/>
-      <c r="M26" s="191"/>
-      <c r="N26" s="191"/>
-      <c r="O26" s="191"/>
-      <c r="P26" s="192"/>
-      <c r="Q26" s="187"/>
-      <c r="R26" s="188"/>
-      <c r="S26" s="188"/>
-      <c r="T26" s="188"/>
-      <c r="U26" s="188"/>
-      <c r="V26" s="188"/>
-      <c r="W26" s="188"/>
-      <c r="X26" s="188"/>
-      <c r="Y26" s="188"/>
-      <c r="Z26" s="188"/>
-      <c r="AA26" s="188"/>
-      <c r="AB26" s="188"/>
-      <c r="AC26" s="188"/>
-      <c r="AD26" s="188"/>
-      <c r="AE26" s="189"/>
-      <c r="AF26" s="190"/>
-      <c r="AG26" s="191"/>
-      <c r="AH26" s="191"/>
-      <c r="AI26" s="192"/>
+      <c r="B26" s="185"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="213"/>
+      <c r="F26" s="214"/>
+      <c r="G26" s="185"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="197"/>
+      <c r="K26" s="198"/>
+      <c r="L26" s="198"/>
+      <c r="M26" s="198"/>
+      <c r="N26" s="198"/>
+      <c r="O26" s="198"/>
+      <c r="P26" s="199"/>
+      <c r="Q26" s="194"/>
+      <c r="R26" s="195"/>
+      <c r="S26" s="195"/>
+      <c r="T26" s="195"/>
+      <c r="U26" s="195"/>
+      <c r="V26" s="195"/>
+      <c r="W26" s="195"/>
+      <c r="X26" s="195"/>
+      <c r="Y26" s="195"/>
+      <c r="Z26" s="195"/>
+      <c r="AA26" s="195"/>
+      <c r="AB26" s="195"/>
+      <c r="AC26" s="195"/>
+      <c r="AD26" s="195"/>
+      <c r="AE26" s="196"/>
+      <c r="AF26" s="197"/>
+      <c r="AG26" s="198"/>
+      <c r="AH26" s="198"/>
+      <c r="AI26" s="199"/>
     </row>
     <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
-      <c r="B27" s="193"/>
-      <c r="C27" s="194"/>
-      <c r="D27" s="195"/>
-      <c r="E27" s="196"/>
-      <c r="F27" s="197"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="198"/>
-      <c r="I27" s="194"/>
-      <c r="J27" s="190"/>
-      <c r="K27" s="191"/>
-      <c r="L27" s="191"/>
-      <c r="M27" s="191"/>
-      <c r="N27" s="191"/>
-      <c r="O27" s="191"/>
-      <c r="P27" s="192"/>
-      <c r="Q27" s="187"/>
-      <c r="R27" s="188"/>
-      <c r="S27" s="188"/>
-      <c r="T27" s="188"/>
-      <c r="U27" s="188"/>
-      <c r="V27" s="188"/>
-      <c r="W27" s="188"/>
-      <c r="X27" s="188"/>
-      <c r="Y27" s="188"/>
-      <c r="Z27" s="188"/>
-      <c r="AA27" s="188"/>
-      <c r="AB27" s="188"/>
-      <c r="AC27" s="188"/>
-      <c r="AD27" s="188"/>
-      <c r="AE27" s="189"/>
-      <c r="AF27" s="190"/>
-      <c r="AG27" s="191"/>
-      <c r="AH27" s="191"/>
-      <c r="AI27" s="192"/>
+      <c r="B27" s="185"/>
+      <c r="C27" s="187"/>
+      <c r="D27" s="212"/>
+      <c r="E27" s="213"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="185"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="197"/>
+      <c r="K27" s="198"/>
+      <c r="L27" s="198"/>
+      <c r="M27" s="198"/>
+      <c r="N27" s="198"/>
+      <c r="O27" s="198"/>
+      <c r="P27" s="199"/>
+      <c r="Q27" s="194"/>
+      <c r="R27" s="195"/>
+      <c r="S27" s="195"/>
+      <c r="T27" s="195"/>
+      <c r="U27" s="195"/>
+      <c r="V27" s="195"/>
+      <c r="W27" s="195"/>
+      <c r="X27" s="195"/>
+      <c r="Y27" s="195"/>
+      <c r="Z27" s="195"/>
+      <c r="AA27" s="195"/>
+      <c r="AB27" s="195"/>
+      <c r="AC27" s="195"/>
+      <c r="AD27" s="195"/>
+      <c r="AE27" s="196"/>
+      <c r="AF27" s="197"/>
+      <c r="AG27" s="198"/>
+      <c r="AH27" s="198"/>
+      <c r="AI27" s="199"/>
     </row>
     <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
-      <c r="B28" s="193"/>
-      <c r="C28" s="194"/>
-      <c r="D28" s="195"/>
-      <c r="E28" s="196"/>
-      <c r="F28" s="197"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="198"/>
-      <c r="I28" s="194"/>
-      <c r="J28" s="190"/>
-      <c r="K28" s="191"/>
-      <c r="L28" s="191"/>
-      <c r="M28" s="191"/>
-      <c r="N28" s="191"/>
-      <c r="O28" s="191"/>
-      <c r="P28" s="192"/>
-      <c r="Q28" s="187"/>
-      <c r="R28" s="188"/>
-      <c r="S28" s="188"/>
-      <c r="T28" s="188"/>
-      <c r="U28" s="188"/>
-      <c r="V28" s="188"/>
-      <c r="W28" s="188"/>
-      <c r="X28" s="188"/>
-      <c r="Y28" s="188"/>
-      <c r="Z28" s="188"/>
-      <c r="AA28" s="188"/>
-      <c r="AB28" s="188"/>
-      <c r="AC28" s="188"/>
-      <c r="AD28" s="188"/>
-      <c r="AE28" s="189"/>
-      <c r="AF28" s="190"/>
-      <c r="AG28" s="191"/>
-      <c r="AH28" s="191"/>
-      <c r="AI28" s="192"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="187"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="213"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="187"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="198"/>
+      <c r="L28" s="198"/>
+      <c r="M28" s="198"/>
+      <c r="N28" s="198"/>
+      <c r="O28" s="198"/>
+      <c r="P28" s="199"/>
+      <c r="Q28" s="194"/>
+      <c r="R28" s="195"/>
+      <c r="S28" s="195"/>
+      <c r="T28" s="195"/>
+      <c r="U28" s="195"/>
+      <c r="V28" s="195"/>
+      <c r="W28" s="195"/>
+      <c r="X28" s="195"/>
+      <c r="Y28" s="195"/>
+      <c r="Z28" s="195"/>
+      <c r="AA28" s="195"/>
+      <c r="AB28" s="195"/>
+      <c r="AC28" s="195"/>
+      <c r="AD28" s="195"/>
+      <c r="AE28" s="196"/>
+      <c r="AF28" s="197"/>
+      <c r="AG28" s="198"/>
+      <c r="AH28" s="198"/>
+      <c r="AI28" s="199"/>
     </row>
     <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
-      <c r="B29" s="193"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="195"/>
-      <c r="E29" s="196"/>
-      <c r="F29" s="197"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="198"/>
-      <c r="I29" s="194"/>
-      <c r="J29" s="190"/>
-      <c r="K29" s="191"/>
-      <c r="L29" s="191"/>
-      <c r="M29" s="191"/>
-      <c r="N29" s="191"/>
-      <c r="O29" s="191"/>
-      <c r="P29" s="192"/>
-      <c r="Q29" s="187"/>
-      <c r="R29" s="188"/>
-      <c r="S29" s="188"/>
-      <c r="T29" s="188"/>
-      <c r="U29" s="188"/>
-      <c r="V29" s="188"/>
-      <c r="W29" s="188"/>
-      <c r="X29" s="188"/>
-      <c r="Y29" s="188"/>
-      <c r="Z29" s="188"/>
-      <c r="AA29" s="188"/>
-      <c r="AB29" s="188"/>
-      <c r="AC29" s="188"/>
-      <c r="AD29" s="188"/>
-      <c r="AE29" s="189"/>
-      <c r="AF29" s="190"/>
-      <c r="AG29" s="191"/>
-      <c r="AH29" s="191"/>
-      <c r="AI29" s="192"/>
+      <c r="B29" s="185"/>
+      <c r="C29" s="187"/>
+      <c r="D29" s="212"/>
+      <c r="E29" s="213"/>
+      <c r="F29" s="214"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="187"/>
+      <c r="J29" s="197"/>
+      <c r="K29" s="198"/>
+      <c r="L29" s="198"/>
+      <c r="M29" s="198"/>
+      <c r="N29" s="198"/>
+      <c r="O29" s="198"/>
+      <c r="P29" s="199"/>
+      <c r="Q29" s="194"/>
+      <c r="R29" s="195"/>
+      <c r="S29" s="195"/>
+      <c r="T29" s="195"/>
+      <c r="U29" s="195"/>
+      <c r="V29" s="195"/>
+      <c r="W29" s="195"/>
+      <c r="X29" s="195"/>
+      <c r="Y29" s="195"/>
+      <c r="Z29" s="195"/>
+      <c r="AA29" s="195"/>
+      <c r="AB29" s="195"/>
+      <c r="AC29" s="195"/>
+      <c r="AD29" s="195"/>
+      <c r="AE29" s="196"/>
+      <c r="AF29" s="197"/>
+      <c r="AG29" s="198"/>
+      <c r="AH29" s="198"/>
+      <c r="AI29" s="199"/>
     </row>
     <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
-      <c r="B30" s="193"/>
-      <c r="C30" s="194"/>
-      <c r="D30" s="195"/>
-      <c r="E30" s="196"/>
-      <c r="F30" s="197"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="198"/>
-      <c r="I30" s="194"/>
-      <c r="J30" s="190"/>
-      <c r="K30" s="191"/>
-      <c r="L30" s="191"/>
-      <c r="M30" s="191"/>
-      <c r="N30" s="191"/>
-      <c r="O30" s="191"/>
-      <c r="P30" s="192"/>
-      <c r="Q30" s="187"/>
-      <c r="R30" s="188"/>
-      <c r="S30" s="188"/>
-      <c r="T30" s="188"/>
-      <c r="U30" s="188"/>
-      <c r="V30" s="188"/>
-      <c r="W30" s="188"/>
-      <c r="X30" s="188"/>
-      <c r="Y30" s="188"/>
-      <c r="Z30" s="188"/>
-      <c r="AA30" s="188"/>
-      <c r="AB30" s="188"/>
-      <c r="AC30" s="188"/>
-      <c r="AD30" s="188"/>
-      <c r="AE30" s="189"/>
-      <c r="AF30" s="190"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="192"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="212"/>
+      <c r="E30" s="213"/>
+      <c r="F30" s="214"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="198"/>
+      <c r="L30" s="198"/>
+      <c r="M30" s="198"/>
+      <c r="N30" s="198"/>
+      <c r="O30" s="198"/>
+      <c r="P30" s="199"/>
+      <c r="Q30" s="194"/>
+      <c r="R30" s="195"/>
+      <c r="S30" s="195"/>
+      <c r="T30" s="195"/>
+      <c r="U30" s="195"/>
+      <c r="V30" s="195"/>
+      <c r="W30" s="195"/>
+      <c r="X30" s="195"/>
+      <c r="Y30" s="195"/>
+      <c r="Z30" s="195"/>
+      <c r="AA30" s="195"/>
+      <c r="AB30" s="195"/>
+      <c r="AC30" s="195"/>
+      <c r="AD30" s="195"/>
+      <c r="AE30" s="196"/>
+      <c r="AF30" s="197"/>
+      <c r="AG30" s="198"/>
+      <c r="AH30" s="198"/>
+      <c r="AI30" s="199"/>
     </row>
     <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
-      <c r="B31" s="193"/>
-      <c r="C31" s="194"/>
-      <c r="D31" s="195"/>
-      <c r="E31" s="196"/>
-      <c r="F31" s="197"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="198"/>
-      <c r="I31" s="194"/>
-      <c r="J31" s="190"/>
-      <c r="K31" s="191"/>
-      <c r="L31" s="191"/>
-      <c r="M31" s="191"/>
-      <c r="N31" s="191"/>
-      <c r="O31" s="191"/>
-      <c r="P31" s="192"/>
-      <c r="Q31" s="187"/>
-      <c r="R31" s="188"/>
-      <c r="S31" s="188"/>
-      <c r="T31" s="188"/>
-      <c r="U31" s="188"/>
-      <c r="V31" s="188"/>
-      <c r="W31" s="188"/>
-      <c r="X31" s="188"/>
-      <c r="Y31" s="188"/>
-      <c r="Z31" s="188"/>
-      <c r="AA31" s="188"/>
-      <c r="AB31" s="188"/>
-      <c r="AC31" s="188"/>
-      <c r="AD31" s="188"/>
-      <c r="AE31" s="189"/>
-      <c r="AF31" s="190"/>
-      <c r="AG31" s="191"/>
-      <c r="AH31" s="191"/>
-      <c r="AI31" s="192"/>
+      <c r="B31" s="185"/>
+      <c r="C31" s="187"/>
+      <c r="D31" s="212"/>
+      <c r="E31" s="213"/>
+      <c r="F31" s="214"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="197"/>
+      <c r="K31" s="198"/>
+      <c r="L31" s="198"/>
+      <c r="M31" s="198"/>
+      <c r="N31" s="198"/>
+      <c r="O31" s="198"/>
+      <c r="P31" s="199"/>
+      <c r="Q31" s="194"/>
+      <c r="R31" s="195"/>
+      <c r="S31" s="195"/>
+      <c r="T31" s="195"/>
+      <c r="U31" s="195"/>
+      <c r="V31" s="195"/>
+      <c r="W31" s="195"/>
+      <c r="X31" s="195"/>
+      <c r="Y31" s="195"/>
+      <c r="Z31" s="195"/>
+      <c r="AA31" s="195"/>
+      <c r="AB31" s="195"/>
+      <c r="AC31" s="195"/>
+      <c r="AD31" s="195"/>
+      <c r="AE31" s="196"/>
+      <c r="AF31" s="197"/>
+      <c r="AG31" s="198"/>
+      <c r="AH31" s="198"/>
+      <c r="AI31" s="199"/>
     </row>
     <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
-      <c r="B32" s="193"/>
-      <c r="C32" s="194"/>
-      <c r="D32" s="195"/>
-      <c r="E32" s="196"/>
-      <c r="F32" s="197"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="198"/>
-      <c r="I32" s="194"/>
-      <c r="J32" s="190"/>
-      <c r="K32" s="191"/>
-      <c r="L32" s="191"/>
-      <c r="M32" s="191"/>
-      <c r="N32" s="191"/>
-      <c r="O32" s="191"/>
-      <c r="P32" s="192"/>
-      <c r="Q32" s="187"/>
-      <c r="R32" s="188"/>
-      <c r="S32" s="188"/>
-      <c r="T32" s="188"/>
-      <c r="U32" s="188"/>
-      <c r="V32" s="188"/>
-      <c r="W32" s="188"/>
-      <c r="X32" s="188"/>
-      <c r="Y32" s="188"/>
-      <c r="Z32" s="188"/>
-      <c r="AA32" s="188"/>
-      <c r="AB32" s="188"/>
-      <c r="AC32" s="188"/>
-      <c r="AD32" s="188"/>
-      <c r="AE32" s="189"/>
-      <c r="AF32" s="190"/>
-      <c r="AG32" s="191"/>
-      <c r="AH32" s="191"/>
-      <c r="AI32" s="192"/>
+      <c r="B32" s="185"/>
+      <c r="C32" s="187"/>
+      <c r="D32" s="212"/>
+      <c r="E32" s="213"/>
+      <c r="F32" s="214"/>
+      <c r="G32" s="185"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="197"/>
+      <c r="K32" s="198"/>
+      <c r="L32" s="198"/>
+      <c r="M32" s="198"/>
+      <c r="N32" s="198"/>
+      <c r="O32" s="198"/>
+      <c r="P32" s="199"/>
+      <c r="Q32" s="194"/>
+      <c r="R32" s="195"/>
+      <c r="S32" s="195"/>
+      <c r="T32" s="195"/>
+      <c r="U32" s="195"/>
+      <c r="V32" s="195"/>
+      <c r="W32" s="195"/>
+      <c r="X32" s="195"/>
+      <c r="Y32" s="195"/>
+      <c r="Z32" s="195"/>
+      <c r="AA32" s="195"/>
+      <c r="AB32" s="195"/>
+      <c r="AC32" s="195"/>
+      <c r="AD32" s="195"/>
+      <c r="AE32" s="196"/>
+      <c r="AF32" s="197"/>
+      <c r="AG32" s="198"/>
+      <c r="AH32" s="198"/>
+      <c r="AI32" s="199"/>
     </row>
     <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
-      <c r="B33" s="193"/>
-      <c r="C33" s="194"/>
-      <c r="D33" s="195"/>
-      <c r="E33" s="196"/>
-      <c r="F33" s="197"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="198"/>
-      <c r="I33" s="194"/>
-      <c r="J33" s="190"/>
-      <c r="K33" s="191"/>
-      <c r="L33" s="191"/>
-      <c r="M33" s="191"/>
-      <c r="N33" s="191"/>
-      <c r="O33" s="191"/>
-      <c r="P33" s="192"/>
-      <c r="Q33" s="187"/>
-      <c r="R33" s="188"/>
-      <c r="S33" s="188"/>
-      <c r="T33" s="188"/>
-      <c r="U33" s="188"/>
-      <c r="V33" s="188"/>
-      <c r="W33" s="188"/>
-      <c r="X33" s="188"/>
-      <c r="Y33" s="188"/>
-      <c r="Z33" s="188"/>
-      <c r="AA33" s="188"/>
-      <c r="AB33" s="188"/>
-      <c r="AC33" s="188"/>
-      <c r="AD33" s="188"/>
-      <c r="AE33" s="189"/>
-      <c r="AF33" s="190"/>
-      <c r="AG33" s="191"/>
-      <c r="AH33" s="191"/>
-      <c r="AI33" s="192"/>
+      <c r="B33" s="185"/>
+      <c r="C33" s="187"/>
+      <c r="D33" s="212"/>
+      <c r="E33" s="213"/>
+      <c r="F33" s="214"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="187"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="198"/>
+      <c r="L33" s="198"/>
+      <c r="M33" s="198"/>
+      <c r="N33" s="198"/>
+      <c r="O33" s="198"/>
+      <c r="P33" s="199"/>
+      <c r="Q33" s="194"/>
+      <c r="R33" s="195"/>
+      <c r="S33" s="195"/>
+      <c r="T33" s="195"/>
+      <c r="U33" s="195"/>
+      <c r="V33" s="195"/>
+      <c r="W33" s="195"/>
+      <c r="X33" s="195"/>
+      <c r="Y33" s="195"/>
+      <c r="Z33" s="195"/>
+      <c r="AA33" s="195"/>
+      <c r="AB33" s="195"/>
+      <c r="AC33" s="195"/>
+      <c r="AD33" s="195"/>
+      <c r="AE33" s="196"/>
+      <c r="AF33" s="197"/>
+      <c r="AG33" s="198"/>
+      <c r="AH33" s="198"/>
+      <c r="AI33" s="199"/>
     </row>
     <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
@@ -5374,161 +5387,6 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -5553,6 +5411,161 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -5569,299 +5582,299 @@
   <dimension ref="A1:AI37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.83203125" style="49" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="57" customWidth="1"/>
-    <col min="18" max="33" width="4.83203125" style="49" customWidth="1"/>
-    <col min="34" max="34" width="4.83203125" style="57" customWidth="1"/>
-    <col min="35" max="256" width="4.83203125" style="49"/>
-    <col min="257" max="290" width="4.83203125" style="49" customWidth="1"/>
-    <col min="291" max="512" width="4.83203125" style="49"/>
-    <col min="513" max="546" width="4.83203125" style="49" customWidth="1"/>
-    <col min="547" max="768" width="4.83203125" style="49"/>
-    <col min="769" max="802" width="4.83203125" style="49" customWidth="1"/>
-    <col min="803" max="1024" width="4.83203125" style="49"/>
-    <col min="1025" max="1058" width="4.83203125" style="49" customWidth="1"/>
-    <col min="1059" max="1280" width="4.83203125" style="49"/>
-    <col min="1281" max="1314" width="4.83203125" style="49" customWidth="1"/>
-    <col min="1315" max="1536" width="4.83203125" style="49"/>
-    <col min="1537" max="1570" width="4.83203125" style="49" customWidth="1"/>
-    <col min="1571" max="1792" width="4.83203125" style="49"/>
-    <col min="1793" max="1826" width="4.83203125" style="49" customWidth="1"/>
-    <col min="1827" max="2048" width="4.83203125" style="49"/>
-    <col min="2049" max="2082" width="4.83203125" style="49" customWidth="1"/>
-    <col min="2083" max="2304" width="4.83203125" style="49"/>
-    <col min="2305" max="2338" width="4.83203125" style="49" customWidth="1"/>
-    <col min="2339" max="2560" width="4.83203125" style="49"/>
-    <col min="2561" max="2594" width="4.83203125" style="49" customWidth="1"/>
-    <col min="2595" max="2816" width="4.83203125" style="49"/>
-    <col min="2817" max="2850" width="4.83203125" style="49" customWidth="1"/>
-    <col min="2851" max="3072" width="4.83203125" style="49"/>
-    <col min="3073" max="3106" width="4.83203125" style="49" customWidth="1"/>
-    <col min="3107" max="3328" width="4.83203125" style="49"/>
-    <col min="3329" max="3362" width="4.83203125" style="49" customWidth="1"/>
-    <col min="3363" max="3584" width="4.83203125" style="49"/>
-    <col min="3585" max="3618" width="4.83203125" style="49" customWidth="1"/>
-    <col min="3619" max="3840" width="4.83203125" style="49"/>
-    <col min="3841" max="3874" width="4.83203125" style="49" customWidth="1"/>
-    <col min="3875" max="4096" width="4.83203125" style="49"/>
-    <col min="4097" max="4130" width="4.83203125" style="49" customWidth="1"/>
-    <col min="4131" max="4352" width="4.83203125" style="49"/>
-    <col min="4353" max="4386" width="4.83203125" style="49" customWidth="1"/>
-    <col min="4387" max="4608" width="4.83203125" style="49"/>
-    <col min="4609" max="4642" width="4.83203125" style="49" customWidth="1"/>
-    <col min="4643" max="4864" width="4.83203125" style="49"/>
-    <col min="4865" max="4898" width="4.83203125" style="49" customWidth="1"/>
-    <col min="4899" max="5120" width="4.83203125" style="49"/>
-    <col min="5121" max="5154" width="4.83203125" style="49" customWidth="1"/>
-    <col min="5155" max="5376" width="4.83203125" style="49"/>
-    <col min="5377" max="5410" width="4.83203125" style="49" customWidth="1"/>
-    <col min="5411" max="5632" width="4.83203125" style="49"/>
-    <col min="5633" max="5666" width="4.83203125" style="49" customWidth="1"/>
-    <col min="5667" max="5888" width="4.83203125" style="49"/>
-    <col min="5889" max="5922" width="4.83203125" style="49" customWidth="1"/>
-    <col min="5923" max="6144" width="4.83203125" style="49"/>
-    <col min="6145" max="6178" width="4.83203125" style="49" customWidth="1"/>
-    <col min="6179" max="6400" width="4.83203125" style="49"/>
-    <col min="6401" max="6434" width="4.83203125" style="49" customWidth="1"/>
-    <col min="6435" max="6656" width="4.83203125" style="49"/>
-    <col min="6657" max="6690" width="4.83203125" style="49" customWidth="1"/>
-    <col min="6691" max="6912" width="4.83203125" style="49"/>
-    <col min="6913" max="6946" width="4.83203125" style="49" customWidth="1"/>
-    <col min="6947" max="7168" width="4.83203125" style="49"/>
-    <col min="7169" max="7202" width="4.83203125" style="49" customWidth="1"/>
-    <col min="7203" max="7424" width="4.83203125" style="49"/>
-    <col min="7425" max="7458" width="4.83203125" style="49" customWidth="1"/>
-    <col min="7459" max="7680" width="4.83203125" style="49"/>
-    <col min="7681" max="7714" width="4.83203125" style="49" customWidth="1"/>
-    <col min="7715" max="7936" width="4.83203125" style="49"/>
-    <col min="7937" max="7970" width="4.83203125" style="49" customWidth="1"/>
-    <col min="7971" max="8192" width="4.83203125" style="49"/>
-    <col min="8193" max="8226" width="4.83203125" style="49" customWidth="1"/>
-    <col min="8227" max="8448" width="4.83203125" style="49"/>
-    <col min="8449" max="8482" width="4.83203125" style="49" customWidth="1"/>
-    <col min="8483" max="8704" width="4.83203125" style="49"/>
-    <col min="8705" max="8738" width="4.83203125" style="49" customWidth="1"/>
-    <col min="8739" max="8960" width="4.83203125" style="49"/>
-    <col min="8961" max="8994" width="4.83203125" style="49" customWidth="1"/>
-    <col min="8995" max="9216" width="4.83203125" style="49"/>
-    <col min="9217" max="9250" width="4.83203125" style="49" customWidth="1"/>
-    <col min="9251" max="9472" width="4.83203125" style="49"/>
-    <col min="9473" max="9506" width="4.83203125" style="49" customWidth="1"/>
-    <col min="9507" max="9728" width="4.83203125" style="49"/>
-    <col min="9729" max="9762" width="4.83203125" style="49" customWidth="1"/>
-    <col min="9763" max="9984" width="4.83203125" style="49"/>
-    <col min="9985" max="10018" width="4.83203125" style="49" customWidth="1"/>
-    <col min="10019" max="10240" width="4.83203125" style="49"/>
-    <col min="10241" max="10274" width="4.83203125" style="49" customWidth="1"/>
-    <col min="10275" max="10496" width="4.83203125" style="49"/>
-    <col min="10497" max="10530" width="4.83203125" style="49" customWidth="1"/>
-    <col min="10531" max="10752" width="4.83203125" style="49"/>
-    <col min="10753" max="10786" width="4.83203125" style="49" customWidth="1"/>
-    <col min="10787" max="11008" width="4.83203125" style="49"/>
-    <col min="11009" max="11042" width="4.83203125" style="49" customWidth="1"/>
-    <col min="11043" max="11264" width="4.83203125" style="49"/>
-    <col min="11265" max="11298" width="4.83203125" style="49" customWidth="1"/>
-    <col min="11299" max="11520" width="4.83203125" style="49"/>
-    <col min="11521" max="11554" width="4.83203125" style="49" customWidth="1"/>
-    <col min="11555" max="11776" width="4.83203125" style="49"/>
-    <col min="11777" max="11810" width="4.83203125" style="49" customWidth="1"/>
-    <col min="11811" max="12032" width="4.83203125" style="49"/>
-    <col min="12033" max="12066" width="4.83203125" style="49" customWidth="1"/>
-    <col min="12067" max="12288" width="4.83203125" style="49"/>
-    <col min="12289" max="12322" width="4.83203125" style="49" customWidth="1"/>
-    <col min="12323" max="12544" width="4.83203125" style="49"/>
-    <col min="12545" max="12578" width="4.83203125" style="49" customWidth="1"/>
-    <col min="12579" max="12800" width="4.83203125" style="49"/>
-    <col min="12801" max="12834" width="4.83203125" style="49" customWidth="1"/>
-    <col min="12835" max="13056" width="4.83203125" style="49"/>
-    <col min="13057" max="13090" width="4.83203125" style="49" customWidth="1"/>
-    <col min="13091" max="13312" width="4.83203125" style="49"/>
-    <col min="13313" max="13346" width="4.83203125" style="49" customWidth="1"/>
-    <col min="13347" max="13568" width="4.83203125" style="49"/>
-    <col min="13569" max="13602" width="4.83203125" style="49" customWidth="1"/>
-    <col min="13603" max="13824" width="4.83203125" style="49"/>
-    <col min="13825" max="13858" width="4.83203125" style="49" customWidth="1"/>
-    <col min="13859" max="14080" width="4.83203125" style="49"/>
-    <col min="14081" max="14114" width="4.83203125" style="49" customWidth="1"/>
-    <col min="14115" max="14336" width="4.83203125" style="49"/>
-    <col min="14337" max="14370" width="4.83203125" style="49" customWidth="1"/>
-    <col min="14371" max="14592" width="4.83203125" style="49"/>
-    <col min="14593" max="14626" width="4.83203125" style="49" customWidth="1"/>
-    <col min="14627" max="14848" width="4.83203125" style="49"/>
-    <col min="14849" max="14882" width="4.83203125" style="49" customWidth="1"/>
-    <col min="14883" max="15104" width="4.83203125" style="49"/>
-    <col min="15105" max="15138" width="4.83203125" style="49" customWidth="1"/>
-    <col min="15139" max="15360" width="4.83203125" style="49"/>
-    <col min="15361" max="15394" width="4.83203125" style="49" customWidth="1"/>
-    <col min="15395" max="15616" width="4.83203125" style="49"/>
-    <col min="15617" max="15650" width="4.83203125" style="49" customWidth="1"/>
-    <col min="15651" max="15872" width="4.83203125" style="49"/>
-    <col min="15873" max="15906" width="4.83203125" style="49" customWidth="1"/>
-    <col min="15907" max="16128" width="4.83203125" style="49"/>
-    <col min="16129" max="16162" width="4.83203125" style="49" customWidth="1"/>
-    <col min="16163" max="16384" width="4.83203125" style="49"/>
+    <col min="1" max="16" width="4.875" style="49" customWidth="1"/>
+    <col min="17" max="17" width="4.875" style="57" customWidth="1"/>
+    <col min="18" max="33" width="4.875" style="49" customWidth="1"/>
+    <col min="34" max="34" width="4.875" style="57" customWidth="1"/>
+    <col min="35" max="256" width="4.875" style="49"/>
+    <col min="257" max="290" width="4.875" style="49" customWidth="1"/>
+    <col min="291" max="512" width="4.875" style="49"/>
+    <col min="513" max="546" width="4.875" style="49" customWidth="1"/>
+    <col min="547" max="768" width="4.875" style="49"/>
+    <col min="769" max="802" width="4.875" style="49" customWidth="1"/>
+    <col min="803" max="1024" width="4.875" style="49"/>
+    <col min="1025" max="1058" width="4.875" style="49" customWidth="1"/>
+    <col min="1059" max="1280" width="4.875" style="49"/>
+    <col min="1281" max="1314" width="4.875" style="49" customWidth="1"/>
+    <col min="1315" max="1536" width="4.875" style="49"/>
+    <col min="1537" max="1570" width="4.875" style="49" customWidth="1"/>
+    <col min="1571" max="1792" width="4.875" style="49"/>
+    <col min="1793" max="1826" width="4.875" style="49" customWidth="1"/>
+    <col min="1827" max="2048" width="4.875" style="49"/>
+    <col min="2049" max="2082" width="4.875" style="49" customWidth="1"/>
+    <col min="2083" max="2304" width="4.875" style="49"/>
+    <col min="2305" max="2338" width="4.875" style="49" customWidth="1"/>
+    <col min="2339" max="2560" width="4.875" style="49"/>
+    <col min="2561" max="2594" width="4.875" style="49" customWidth="1"/>
+    <col min="2595" max="2816" width="4.875" style="49"/>
+    <col min="2817" max="2850" width="4.875" style="49" customWidth="1"/>
+    <col min="2851" max="3072" width="4.875" style="49"/>
+    <col min="3073" max="3106" width="4.875" style="49" customWidth="1"/>
+    <col min="3107" max="3328" width="4.875" style="49"/>
+    <col min="3329" max="3362" width="4.875" style="49" customWidth="1"/>
+    <col min="3363" max="3584" width="4.875" style="49"/>
+    <col min="3585" max="3618" width="4.875" style="49" customWidth="1"/>
+    <col min="3619" max="3840" width="4.875" style="49"/>
+    <col min="3841" max="3874" width="4.875" style="49" customWidth="1"/>
+    <col min="3875" max="4096" width="4.875" style="49"/>
+    <col min="4097" max="4130" width="4.875" style="49" customWidth="1"/>
+    <col min="4131" max="4352" width="4.875" style="49"/>
+    <col min="4353" max="4386" width="4.875" style="49" customWidth="1"/>
+    <col min="4387" max="4608" width="4.875" style="49"/>
+    <col min="4609" max="4642" width="4.875" style="49" customWidth="1"/>
+    <col min="4643" max="4864" width="4.875" style="49"/>
+    <col min="4865" max="4898" width="4.875" style="49" customWidth="1"/>
+    <col min="4899" max="5120" width="4.875" style="49"/>
+    <col min="5121" max="5154" width="4.875" style="49" customWidth="1"/>
+    <col min="5155" max="5376" width="4.875" style="49"/>
+    <col min="5377" max="5410" width="4.875" style="49" customWidth="1"/>
+    <col min="5411" max="5632" width="4.875" style="49"/>
+    <col min="5633" max="5666" width="4.875" style="49" customWidth="1"/>
+    <col min="5667" max="5888" width="4.875" style="49"/>
+    <col min="5889" max="5922" width="4.875" style="49" customWidth="1"/>
+    <col min="5923" max="6144" width="4.875" style="49"/>
+    <col min="6145" max="6178" width="4.875" style="49" customWidth="1"/>
+    <col min="6179" max="6400" width="4.875" style="49"/>
+    <col min="6401" max="6434" width="4.875" style="49" customWidth="1"/>
+    <col min="6435" max="6656" width="4.875" style="49"/>
+    <col min="6657" max="6690" width="4.875" style="49" customWidth="1"/>
+    <col min="6691" max="6912" width="4.875" style="49"/>
+    <col min="6913" max="6946" width="4.875" style="49" customWidth="1"/>
+    <col min="6947" max="7168" width="4.875" style="49"/>
+    <col min="7169" max="7202" width="4.875" style="49" customWidth="1"/>
+    <col min="7203" max="7424" width="4.875" style="49"/>
+    <col min="7425" max="7458" width="4.875" style="49" customWidth="1"/>
+    <col min="7459" max="7680" width="4.875" style="49"/>
+    <col min="7681" max="7714" width="4.875" style="49" customWidth="1"/>
+    <col min="7715" max="7936" width="4.875" style="49"/>
+    <col min="7937" max="7970" width="4.875" style="49" customWidth="1"/>
+    <col min="7971" max="8192" width="4.875" style="49"/>
+    <col min="8193" max="8226" width="4.875" style="49" customWidth="1"/>
+    <col min="8227" max="8448" width="4.875" style="49"/>
+    <col min="8449" max="8482" width="4.875" style="49" customWidth="1"/>
+    <col min="8483" max="8704" width="4.875" style="49"/>
+    <col min="8705" max="8738" width="4.875" style="49" customWidth="1"/>
+    <col min="8739" max="8960" width="4.875" style="49"/>
+    <col min="8961" max="8994" width="4.875" style="49" customWidth="1"/>
+    <col min="8995" max="9216" width="4.875" style="49"/>
+    <col min="9217" max="9250" width="4.875" style="49" customWidth="1"/>
+    <col min="9251" max="9472" width="4.875" style="49"/>
+    <col min="9473" max="9506" width="4.875" style="49" customWidth="1"/>
+    <col min="9507" max="9728" width="4.875" style="49"/>
+    <col min="9729" max="9762" width="4.875" style="49" customWidth="1"/>
+    <col min="9763" max="9984" width="4.875" style="49"/>
+    <col min="9985" max="10018" width="4.875" style="49" customWidth="1"/>
+    <col min="10019" max="10240" width="4.875" style="49"/>
+    <col min="10241" max="10274" width="4.875" style="49" customWidth="1"/>
+    <col min="10275" max="10496" width="4.875" style="49"/>
+    <col min="10497" max="10530" width="4.875" style="49" customWidth="1"/>
+    <col min="10531" max="10752" width="4.875" style="49"/>
+    <col min="10753" max="10786" width="4.875" style="49" customWidth="1"/>
+    <col min="10787" max="11008" width="4.875" style="49"/>
+    <col min="11009" max="11042" width="4.875" style="49" customWidth="1"/>
+    <col min="11043" max="11264" width="4.875" style="49"/>
+    <col min="11265" max="11298" width="4.875" style="49" customWidth="1"/>
+    <col min="11299" max="11520" width="4.875" style="49"/>
+    <col min="11521" max="11554" width="4.875" style="49" customWidth="1"/>
+    <col min="11555" max="11776" width="4.875" style="49"/>
+    <col min="11777" max="11810" width="4.875" style="49" customWidth="1"/>
+    <col min="11811" max="12032" width="4.875" style="49"/>
+    <col min="12033" max="12066" width="4.875" style="49" customWidth="1"/>
+    <col min="12067" max="12288" width="4.875" style="49"/>
+    <col min="12289" max="12322" width="4.875" style="49" customWidth="1"/>
+    <col min="12323" max="12544" width="4.875" style="49"/>
+    <col min="12545" max="12578" width="4.875" style="49" customWidth="1"/>
+    <col min="12579" max="12800" width="4.875" style="49"/>
+    <col min="12801" max="12834" width="4.875" style="49" customWidth="1"/>
+    <col min="12835" max="13056" width="4.875" style="49"/>
+    <col min="13057" max="13090" width="4.875" style="49" customWidth="1"/>
+    <col min="13091" max="13312" width="4.875" style="49"/>
+    <col min="13313" max="13346" width="4.875" style="49" customWidth="1"/>
+    <col min="13347" max="13568" width="4.875" style="49"/>
+    <col min="13569" max="13602" width="4.875" style="49" customWidth="1"/>
+    <col min="13603" max="13824" width="4.875" style="49"/>
+    <col min="13825" max="13858" width="4.875" style="49" customWidth="1"/>
+    <col min="13859" max="14080" width="4.875" style="49"/>
+    <col min="14081" max="14114" width="4.875" style="49" customWidth="1"/>
+    <col min="14115" max="14336" width="4.875" style="49"/>
+    <col min="14337" max="14370" width="4.875" style="49" customWidth="1"/>
+    <col min="14371" max="14592" width="4.875" style="49"/>
+    <col min="14593" max="14626" width="4.875" style="49" customWidth="1"/>
+    <col min="14627" max="14848" width="4.875" style="49"/>
+    <col min="14849" max="14882" width="4.875" style="49" customWidth="1"/>
+    <col min="14883" max="15104" width="4.875" style="49"/>
+    <col min="15105" max="15138" width="4.875" style="49" customWidth="1"/>
+    <col min="15139" max="15360" width="4.875" style="49"/>
+    <col min="15361" max="15394" width="4.875" style="49" customWidth="1"/>
+    <col min="15395" max="15616" width="4.875" style="49"/>
+    <col min="15617" max="15650" width="4.875" style="49" customWidth="1"/>
+    <col min="15651" max="15872" width="4.875" style="49"/>
+    <col min="15873" max="15906" width="4.875" style="49" customWidth="1"/>
+    <col min="15907" max="16128" width="4.875" style="49"/>
+    <col min="16129" max="16162" width="4.875" style="49" customWidth="1"/>
+    <col min="16163" max="16384" width="4.875" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="244" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="256" t="str">
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
-      <c r="N1" s="258"/>
-      <c r="O1" s="238" t="s">
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="243"/>
+      <c r="O1" s="247" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="239"/>
-      <c r="Q1" s="239"/>
-      <c r="R1" s="240"/>
-      <c r="S1" s="247" t="str">
+      <c r="P1" s="248"/>
+      <c r="Q1" s="248"/>
+      <c r="R1" s="249"/>
+      <c r="S1" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="248"/>
-      <c r="U1" s="248"/>
-      <c r="V1" s="248"/>
-      <c r="W1" s="248"/>
-      <c r="X1" s="248"/>
-      <c r="Y1" s="248"/>
-      <c r="Z1" s="249"/>
-      <c r="AA1" s="235" t="s">
+      <c r="T1" s="257"/>
+      <c r="U1" s="257"/>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="257"/>
+      <c r="Y1" s="257"/>
+      <c r="Z1" s="258"/>
+      <c r="AA1" s="244" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="237"/>
-      <c r="AC1" s="259" t="str">
+      <c r="AB1" s="246"/>
+      <c r="AC1" s="235" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="260"/>
-      <c r="AE1" s="260"/>
-      <c r="AF1" s="261"/>
-      <c r="AG1" s="262">
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="236"/>
+      <c r="AF1" s="237"/>
+      <c r="AG1" s="238">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="263"/>
-      <c r="AI1" s="264"/>
+      <c r="AH1" s="239"/>
+      <c r="AI1" s="240"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="244" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="256" t="str">
+      <c r="B2" s="245"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="257"/>
-      <c r="G2" s="257"/>
-      <c r="H2" s="257"/>
-      <c r="I2" s="257"/>
-      <c r="J2" s="257"/>
-      <c r="K2" s="257"/>
-      <c r="L2" s="257"/>
-      <c r="M2" s="257"/>
-      <c r="N2" s="258"/>
-      <c r="O2" s="241"/>
-      <c r="P2" s="242"/>
-      <c r="Q2" s="242"/>
-      <c r="R2" s="243"/>
-      <c r="S2" s="250"/>
-      <c r="T2" s="251"/>
-      <c r="U2" s="251"/>
-      <c r="V2" s="251"/>
-      <c r="W2" s="251"/>
-      <c r="X2" s="251"/>
-      <c r="Y2" s="251"/>
-      <c r="Z2" s="252"/>
-      <c r="AA2" s="235" t="s">
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
+      <c r="N2" s="243"/>
+      <c r="O2" s="250"/>
+      <c r="P2" s="251"/>
+      <c r="Q2" s="251"/>
+      <c r="R2" s="252"/>
+      <c r="S2" s="259"/>
+      <c r="T2" s="260"/>
+      <c r="U2" s="260"/>
+      <c r="V2" s="260"/>
+      <c r="W2" s="260"/>
+      <c r="X2" s="260"/>
+      <c r="Y2" s="260"/>
+      <c r="Z2" s="261"/>
+      <c r="AA2" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="237"/>
-      <c r="AC2" s="259" t="str">
+      <c r="AB2" s="246"/>
+      <c r="AC2" s="235" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="260"/>
-      <c r="AE2" s="260"/>
-      <c r="AF2" s="261"/>
-      <c r="AG2" s="262" t="str">
+      <c r="AD2" s="236"/>
+      <c r="AE2" s="236"/>
+      <c r="AF2" s="237"/>
+      <c r="AG2" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="263"/>
-      <c r="AI2" s="264"/>
+      <c r="AH2" s="239"/>
+      <c r="AI2" s="240"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="244" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="236"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="256" t="str">
+      <c r="B3" s="245"/>
+      <c r="C3" s="245"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="257"/>
-      <c r="G3" s="257"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="257"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="257"/>
-      <c r="M3" s="257"/>
-      <c r="N3" s="258"/>
-      <c r="O3" s="244"/>
-      <c r="P3" s="245"/>
-      <c r="Q3" s="245"/>
-      <c r="R3" s="246"/>
-      <c r="S3" s="253"/>
-      <c r="T3" s="254"/>
-      <c r="U3" s="254"/>
-      <c r="V3" s="254"/>
-      <c r="W3" s="254"/>
-      <c r="X3" s="254"/>
-      <c r="Y3" s="254"/>
-      <c r="Z3" s="255"/>
-      <c r="AA3" s="235"/>
-      <c r="AB3" s="237"/>
-      <c r="AC3" s="259" t="str">
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="242"/>
+      <c r="J3" s="242"/>
+      <c r="K3" s="242"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
+      <c r="N3" s="243"/>
+      <c r="O3" s="253"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="254"/>
+      <c r="R3" s="255"/>
+      <c r="S3" s="262"/>
+      <c r="T3" s="263"/>
+      <c r="U3" s="263"/>
+      <c r="V3" s="263"/>
+      <c r="W3" s="263"/>
+      <c r="X3" s="263"/>
+      <c r="Y3" s="263"/>
+      <c r="Z3" s="264"/>
+      <c r="AA3" s="244"/>
+      <c r="AB3" s="246"/>
+      <c r="AC3" s="235" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="260"/>
-      <c r="AE3" s="260"/>
-      <c r="AF3" s="261"/>
-      <c r="AG3" s="262" t="str">
+      <c r="AD3" s="236"/>
+      <c r="AE3" s="236"/>
+      <c r="AF3" s="237"/>
+      <c r="AG3" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="263"/>
-      <c r="AI3" s="264"/>
-    </row>
-    <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH3" s="239"/>
+      <c r="AI3" s="240"/>
+    </row>
+    <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -5898,7 +5911,7 @@
       <c r="AH4" s="38"/>
       <c r="AI4" s="38"/>
     </row>
-    <row r="5" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -5916,7 +5929,7 @@
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="41" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="R5" s="38"/>
       <c r="S5" s="38"/>
@@ -5937,7 +5950,7 @@
       <c r="AH5" s="38"/>
       <c r="AI5" s="38"/>
     </row>
-    <row r="6" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -5974,10 +5987,10 @@
       <c r="AH6" s="38"/>
       <c r="AI6" s="38"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
       <c r="B7" s="43" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="44"/>
@@ -6013,11 +6026,11 @@
       <c r="AH7" s="47"/>
       <c r="AI7" s="48"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
@@ -6052,7 +6065,7 @@
       <c r="AH8" s="51"/>
       <c r="AI8" s="48"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
       <c r="B9" s="44"/>
       <c r="C9" s="43"/>
@@ -6089,10 +6102,10 @@
       <c r="AH9" s="52"/>
       <c r="AI9" s="42"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
       <c r="B10" s="53" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="42"/>
@@ -6128,11 +6141,11 @@
       <c r="AH10" s="47"/>
       <c r="AI10" s="48"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="44"/>
       <c r="C11" s="53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="44"/>
@@ -6167,11 +6180,11 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="48"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="44"/>
       <c r="C12" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="48"/>
       <c r="J12" s="44"/>
@@ -6201,11 +6214,11 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="48"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="48"/>
       <c r="C13" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
@@ -6240,11 +6253,11 @@
       <c r="AH13" s="47"/>
       <c r="AI13" s="48"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="53"/>
       <c r="C14" s="54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
@@ -6279,11 +6292,11 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="48"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="53"/>
       <c r="C15" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="44"/>
       <c r="I15" s="38"/>
@@ -6314,11 +6327,11 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="48"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="38"/>
       <c r="C16" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
@@ -6353,7 +6366,7 @@
       <c r="AH16" s="47"/>
       <c r="AI16" s="48"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="38"/>
       <c r="C17" s="56"/>
@@ -6389,7 +6402,7 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="48"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
@@ -6426,7 +6439,7 @@
       <c r="AH18" s="64"/>
       <c r="AI18" s="65"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="66"/>
       <c r="E19" s="66"/>
       <c r="F19" s="66"/>
@@ -6460,7 +6473,7 @@
       <c r="AH19" s="64"/>
       <c r="AI19" s="65"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J20" s="66"/>
       <c r="K20" s="59"/>
       <c r="L20" s="59"/>
@@ -6488,7 +6501,7 @@
       <c r="AH20" s="64"/>
       <c r="AI20" s="65"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K21" s="58"/>
       <c r="L21" s="58"/>
       <c r="M21" s="58"/>
@@ -6741,14 +6754,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6758,6 +6763,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -6774,190 +6787,190 @@
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="54"/>
+    <col min="1" max="16384" width="4.875" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="244" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="256" t="str">
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
-      <c r="N1" s="258"/>
-      <c r="O1" s="238" t="s">
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="243"/>
+      <c r="O1" s="247" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="239"/>
-      <c r="Q1" s="239"/>
-      <c r="R1" s="240"/>
-      <c r="S1" s="247" t="str">
+      <c r="P1" s="248"/>
+      <c r="Q1" s="248"/>
+      <c r="R1" s="249"/>
+      <c r="S1" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="248"/>
-      <c r="U1" s="248"/>
-      <c r="V1" s="248"/>
-      <c r="W1" s="248"/>
-      <c r="X1" s="248"/>
-      <c r="Y1" s="248"/>
-      <c r="Z1" s="249"/>
-      <c r="AA1" s="235" t="s">
+      <c r="T1" s="257"/>
+      <c r="U1" s="257"/>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="257"/>
+      <c r="Y1" s="257"/>
+      <c r="Z1" s="258"/>
+      <c r="AA1" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="237"/>
-      <c r="AC1" s="259" t="str">
+      <c r="AB1" s="246"/>
+      <c r="AC1" s="235" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="260"/>
-      <c r="AE1" s="260"/>
-      <c r="AF1" s="261"/>
-      <c r="AG1" s="262">
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="236"/>
+      <c r="AF1" s="237"/>
+      <c r="AG1" s="238">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="263"/>
-      <c r="AI1" s="264"/>
+      <c r="AH1" s="239"/>
+      <c r="AI1" s="240"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="256" t="str">
+      <c r="B2" s="245"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="257"/>
-      <c r="G2" s="257"/>
-      <c r="H2" s="257"/>
-      <c r="I2" s="257"/>
-      <c r="J2" s="257"/>
-      <c r="K2" s="257"/>
-      <c r="L2" s="257"/>
-      <c r="M2" s="257"/>
-      <c r="N2" s="258"/>
-      <c r="O2" s="241"/>
-      <c r="P2" s="242"/>
-      <c r="Q2" s="242"/>
-      <c r="R2" s="243"/>
-      <c r="S2" s="250"/>
-      <c r="T2" s="251"/>
-      <c r="U2" s="251"/>
-      <c r="V2" s="251"/>
-      <c r="W2" s="251"/>
-      <c r="X2" s="251"/>
-      <c r="Y2" s="251"/>
-      <c r="Z2" s="252"/>
-      <c r="AA2" s="235" t="s">
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
+      <c r="N2" s="243"/>
+      <c r="O2" s="250"/>
+      <c r="P2" s="251"/>
+      <c r="Q2" s="251"/>
+      <c r="R2" s="252"/>
+      <c r="S2" s="259"/>
+      <c r="T2" s="260"/>
+      <c r="U2" s="260"/>
+      <c r="V2" s="260"/>
+      <c r="W2" s="260"/>
+      <c r="X2" s="260"/>
+      <c r="Y2" s="260"/>
+      <c r="Z2" s="261"/>
+      <c r="AA2" s="244" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="237"/>
-      <c r="AC2" s="259" t="str">
+      <c r="AB2" s="246"/>
+      <c r="AC2" s="235" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="260"/>
-      <c r="AE2" s="260"/>
-      <c r="AF2" s="261"/>
-      <c r="AG2" s="262" t="str">
+      <c r="AD2" s="236"/>
+      <c r="AE2" s="236"/>
+      <c r="AF2" s="237"/>
+      <c r="AG2" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="263"/>
-      <c r="AI2" s="264"/>
+      <c r="AH2" s="239"/>
+      <c r="AI2" s="240"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="244" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="236"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="256" t="str">
+      <c r="B3" s="245"/>
+      <c r="C3" s="245"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="257"/>
-      <c r="G3" s="257"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="257"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="257"/>
-      <c r="M3" s="257"/>
-      <c r="N3" s="258"/>
-      <c r="O3" s="244"/>
-      <c r="P3" s="245"/>
-      <c r="Q3" s="245"/>
-      <c r="R3" s="246"/>
-      <c r="S3" s="253"/>
-      <c r="T3" s="254"/>
-      <c r="U3" s="254"/>
-      <c r="V3" s="254"/>
-      <c r="W3" s="254"/>
-      <c r="X3" s="254"/>
-      <c r="Y3" s="254"/>
-      <c r="Z3" s="255"/>
-      <c r="AA3" s="235"/>
-      <c r="AB3" s="237"/>
-      <c r="AC3" s="259" t="str">
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="242"/>
+      <c r="J3" s="242"/>
+      <c r="K3" s="242"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
+      <c r="N3" s="243"/>
+      <c r="O3" s="253"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="254"/>
+      <c r="R3" s="255"/>
+      <c r="S3" s="262"/>
+      <c r="T3" s="263"/>
+      <c r="U3" s="263"/>
+      <c r="V3" s="263"/>
+      <c r="W3" s="263"/>
+      <c r="X3" s="263"/>
+      <c r="Y3" s="263"/>
+      <c r="Z3" s="264"/>
+      <c r="AA3" s="244"/>
+      <c r="AB3" s="246"/>
+      <c r="AC3" s="235" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="260"/>
-      <c r="AE3" s="260"/>
-      <c r="AF3" s="261"/>
-      <c r="AG3" s="262" t="str">
+      <c r="AD3" s="236"/>
+      <c r="AE3" s="236"/>
+      <c r="AF3" s="237"/>
+      <c r="AG3" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="263"/>
-      <c r="AI3" s="264"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH3" s="239"/>
+      <c r="AI3" s="240"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="58" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="58" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="81"/>
       <c r="C8" s="275" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D8" s="276"/>
       <c r="E8" s="276"/>
       <c r="F8" s="277"/>
       <c r="G8" s="278" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="279"/>
       <c r="I8" s="279"/>
@@ -6986,16 +6999,16 @@
       <c r="AF8" s="276"/>
       <c r="AG8" s="277"/>
     </row>
-    <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="81"/>
       <c r="C9" s="280" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D9" s="281"/>
       <c r="E9" s="281"/>
       <c r="F9" s="282"/>
       <c r="G9" s="278" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="276"/>
       <c r="I9" s="276"/>
@@ -7024,16 +7037,16 @@
       <c r="AF9" s="276"/>
       <c r="AG9" s="277"/>
     </row>
-    <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="81"/>
       <c r="C10" s="266" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D10" s="267"/>
       <c r="E10" s="267"/>
       <c r="F10" s="268"/>
       <c r="G10" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="83"/>
       <c r="I10" s="83"/>
@@ -7062,7 +7075,7 @@
       <c r="AF10" s="83"/>
       <c r="AG10" s="84"/>
     </row>
-    <row r="11" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="81"/>
       <c r="C11" s="269"/>
       <c r="D11" s="270"/>
@@ -7096,7 +7109,7 @@
       <c r="AF11" s="40"/>
       <c r="AG11" s="86"/>
     </row>
-    <row r="12" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="81"/>
       <c r="C12" s="269"/>
       <c r="D12" s="270"/>
@@ -7130,7 +7143,7 @@
       <c r="AF12" s="40"/>
       <c r="AG12" s="86"/>
     </row>
-    <row r="13" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="81"/>
       <c r="C13" s="272"/>
       <c r="D13" s="273"/>
@@ -7164,16 +7177,16 @@
       <c r="AF13" s="89"/>
       <c r="AG13" s="90"/>
     </row>
-    <row r="14" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="81"/>
       <c r="C14" s="265" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="265"/>
       <c r="E14" s="265"/>
       <c r="F14" s="265"/>
       <c r="G14" s="91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="92"/>
       <c r="I14" s="92"/>
@@ -7202,58 +7215,46 @@
       <c r="AF14" s="92"/>
       <c r="AG14" s="93"/>
     </row>
-    <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7265,6 +7266,18 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7284,218 +7297,218 @@
   <dimension ref="A1:BG157"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="4.83203125" style="54"/>
-    <col min="8" max="9" width="4.83203125" style="54" customWidth="1"/>
-    <col min="10" max="16384" width="4.83203125" style="54"/>
+    <col min="1" max="7" width="4.875" style="54"/>
+    <col min="8" max="9" width="4.875" style="54" customWidth="1"/>
+    <col min="10" max="16384" width="4.875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="375" t="s">
+    <row r="1" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="320" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="376"/>
-      <c r="C1" s="376"/>
-      <c r="D1" s="377"/>
-      <c r="E1" s="256" t="str">
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="322"/>
+      <c r="E1" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
-      <c r="N1" s="258"/>
-      <c r="O1" s="238" t="s">
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="243"/>
+      <c r="O1" s="247" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="239"/>
-      <c r="Q1" s="239"/>
-      <c r="R1" s="240"/>
-      <c r="S1" s="247" t="str">
+      <c r="P1" s="248"/>
+      <c r="Q1" s="248"/>
+      <c r="R1" s="249"/>
+      <c r="S1" s="256" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="248"/>
-      <c r="U1" s="248"/>
-      <c r="V1" s="248"/>
-      <c r="W1" s="248"/>
-      <c r="X1" s="248"/>
-      <c r="Y1" s="248"/>
-      <c r="Z1" s="249"/>
-      <c r="AA1" s="235" t="s">
+      <c r="T1" s="257"/>
+      <c r="U1" s="257"/>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="257"/>
+      <c r="Y1" s="257"/>
+      <c r="Z1" s="258"/>
+      <c r="AA1" s="244" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="237"/>
-      <c r="AC1" s="259" t="str">
+      <c r="AB1" s="246"/>
+      <c r="AC1" s="235" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="260"/>
-      <c r="AE1" s="260"/>
-      <c r="AF1" s="261"/>
-      <c r="AG1" s="372">
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="236"/>
+      <c r="AF1" s="237"/>
+      <c r="AG1" s="317">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="373"/>
-      <c r="AI1" s="374"/>
+      <c r="AH1" s="318"/>
+      <c r="AI1" s="319"/>
       <c r="AJ1" s="94"/>
     </row>
-    <row r="2" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="375" t="s">
+    <row r="2" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="320" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="376"/>
-      <c r="C2" s="376"/>
-      <c r="D2" s="377"/>
-      <c r="E2" s="256" t="str">
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="257"/>
-      <c r="G2" s="257"/>
-      <c r="H2" s="257"/>
-      <c r="I2" s="257"/>
-      <c r="J2" s="257"/>
-      <c r="K2" s="257"/>
-      <c r="L2" s="257"/>
-      <c r="M2" s="257"/>
-      <c r="N2" s="258"/>
-      <c r="O2" s="241"/>
-      <c r="P2" s="242"/>
-      <c r="Q2" s="242"/>
-      <c r="R2" s="243"/>
-      <c r="S2" s="250"/>
-      <c r="T2" s="251"/>
-      <c r="U2" s="251"/>
-      <c r="V2" s="251"/>
-      <c r="W2" s="251"/>
-      <c r="X2" s="251"/>
-      <c r="Y2" s="251"/>
-      <c r="Z2" s="252"/>
-      <c r="AA2" s="235" t="s">
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
+      <c r="N2" s="243"/>
+      <c r="O2" s="250"/>
+      <c r="P2" s="251"/>
+      <c r="Q2" s="251"/>
+      <c r="R2" s="252"/>
+      <c r="S2" s="259"/>
+      <c r="T2" s="260"/>
+      <c r="U2" s="260"/>
+      <c r="V2" s="260"/>
+      <c r="W2" s="260"/>
+      <c r="X2" s="260"/>
+      <c r="Y2" s="260"/>
+      <c r="Z2" s="261"/>
+      <c r="AA2" s="244" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="237"/>
-      <c r="AC2" s="259" t="str">
+      <c r="AB2" s="246"/>
+      <c r="AC2" s="235" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="260"/>
-      <c r="AE2" s="260"/>
-      <c r="AF2" s="261"/>
-      <c r="AG2" s="372" t="str">
+      <c r="AD2" s="236"/>
+      <c r="AE2" s="236"/>
+      <c r="AF2" s="237"/>
+      <c r="AG2" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="373"/>
-      <c r="AI2" s="374"/>
+      <c r="AH2" s="318"/>
+      <c r="AI2" s="319"/>
       <c r="AJ2" s="94"/>
     </row>
-    <row r="3" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="375" t="s">
+    <row r="3" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="320" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="376"/>
-      <c r="C3" s="376"/>
-      <c r="D3" s="377"/>
-      <c r="E3" s="256" t="str">
+      <c r="B3" s="321"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="257"/>
-      <c r="G3" s="257"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="257"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="257"/>
-      <c r="M3" s="257"/>
-      <c r="N3" s="258"/>
-      <c r="O3" s="244"/>
-      <c r="P3" s="245"/>
-      <c r="Q3" s="245"/>
-      <c r="R3" s="246"/>
-      <c r="S3" s="253"/>
-      <c r="T3" s="254"/>
-      <c r="U3" s="254"/>
-      <c r="V3" s="254"/>
-      <c r="W3" s="254"/>
-      <c r="X3" s="254"/>
-      <c r="Y3" s="254"/>
-      <c r="Z3" s="255"/>
-      <c r="AA3" s="235"/>
-      <c r="AB3" s="237"/>
-      <c r="AC3" s="259" t="str">
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="242"/>
+      <c r="J3" s="242"/>
+      <c r="K3" s="242"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
+      <c r="N3" s="243"/>
+      <c r="O3" s="253"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="254"/>
+      <c r="R3" s="255"/>
+      <c r="S3" s="262"/>
+      <c r="T3" s="263"/>
+      <c r="U3" s="263"/>
+      <c r="V3" s="263"/>
+      <c r="W3" s="263"/>
+      <c r="X3" s="263"/>
+      <c r="Y3" s="263"/>
+      <c r="Z3" s="264"/>
+      <c r="AA3" s="244"/>
+      <c r="AB3" s="246"/>
+      <c r="AC3" s="235" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="260"/>
-      <c r="AE3" s="260"/>
-      <c r="AF3" s="261"/>
-      <c r="AG3" s="372" t="str">
+      <c r="AD3" s="236"/>
+      <c r="AE3" s="236"/>
+      <c r="AF3" s="237"/>
+      <c r="AG3" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="373"/>
-      <c r="AI3" s="374"/>
+      <c r="AH3" s="318"/>
+      <c r="AI3" s="319"/>
       <c r="AJ3" s="94"/>
     </row>
-    <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="95" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="54" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="54" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="96"/>
       <c r="E40" s="96"/>
       <c r="F40" s="96"/>
@@ -7528,9 +7541,9 @@
       <c r="AG40" s="96"/>
       <c r="AH40" s="96"/>
     </row>
-    <row r="41" spans="3:53" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C41" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" s="96"/>
       <c r="E41" s="96"/>
@@ -7563,7 +7576,7 @@
       <c r="AG41" s="96"/>
       <c r="AH41" s="96"/>
     </row>
-    <row r="42" spans="3:53" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C42" s="40"/>
       <c r="D42" s="96"/>
       <c r="E42" s="96"/>
@@ -7596,89 +7609,89 @@
       <c r="AG42" s="96"/>
       <c r="AH42" s="96"/>
     </row>
-    <row r="43" spans="3:53" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:53" x14ac:dyDescent="0.25">
       <c r="D43" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="378" t="s">
+      <c r="E43" s="283" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="283"/>
+      <c r="G43" s="283"/>
+      <c r="H43" s="283"/>
+      <c r="I43" s="283"/>
+      <c r="J43" s="283"/>
+      <c r="K43" s="283"/>
+      <c r="L43" s="283"/>
+      <c r="M43" s="283"/>
+      <c r="N43" s="283" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="378"/>
-      <c r="G43" s="378"/>
-      <c r="H43" s="378"/>
-      <c r="I43" s="378"/>
-      <c r="J43" s="378"/>
-      <c r="K43" s="378"/>
-      <c r="L43" s="378"/>
-      <c r="M43" s="378"/>
-      <c r="N43" s="378" t="s">
+      <c r="O43" s="283"/>
+      <c r="P43" s="283"/>
+      <c r="Q43" s="283" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="378"/>
-      <c r="P43" s="378"/>
-      <c r="Q43" s="378" t="s">
+      <c r="R43" s="283"/>
+      <c r="S43" s="283"/>
+      <c r="T43" s="283"/>
+      <c r="U43" s="283"/>
+      <c r="V43" s="283" t="s">
         <v>56</v>
       </c>
-      <c r="R43" s="378"/>
-      <c r="S43" s="378"/>
-      <c r="T43" s="378"/>
-      <c r="U43" s="378"/>
-      <c r="V43" s="378" t="s">
-        <v>57</v>
-      </c>
-      <c r="W43" s="378"/>
-      <c r="X43" s="378"/>
-      <c r="Y43" s="378"/>
-      <c r="Z43" s="378"/>
-      <c r="AA43" s="378"/>
-      <c r="AB43" s="378"/>
-      <c r="AC43" s="378"/>
+      <c r="W43" s="283"/>
+      <c r="X43" s="283"/>
+      <c r="Y43" s="283"/>
+      <c r="Z43" s="283"/>
+      <c r="AA43" s="283"/>
+      <c r="AB43" s="283"/>
+      <c r="AC43" s="283"/>
       <c r="AD43" s="96"/>
       <c r="AE43" s="96"/>
       <c r="AF43" s="96"/>
       <c r="AG43" s="96"/>
       <c r="AH43" s="96"/>
     </row>
-    <row r="44" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D44" s="98">
         <v>1</v>
       </c>
-      <c r="E44" s="379" t="s">
+      <c r="E44" s="284" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="379"/>
-      <c r="G44" s="379"/>
-      <c r="H44" s="379"/>
-      <c r="I44" s="379"/>
-      <c r="J44" s="379"/>
-      <c r="K44" s="379"/>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379" t="s">
+      <c r="F44" s="284"/>
+      <c r="G44" s="284"/>
+      <c r="H44" s="284"/>
+      <c r="I44" s="284"/>
+      <c r="J44" s="284"/>
+      <c r="K44" s="284"/>
+      <c r="L44" s="284"/>
+      <c r="M44" s="284"/>
+      <c r="N44" s="284" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="379"/>
-      <c r="P44" s="379"/>
-      <c r="Q44" s="336" t="s">
+      <c r="O44" s="284"/>
+      <c r="P44" s="284"/>
+      <c r="Q44" s="316" t="s">
         <v>39</v>
       </c>
-      <c r="R44" s="336"/>
-      <c r="S44" s="336"/>
-      <c r="T44" s="336"/>
-      <c r="U44" s="336"/>
-      <c r="V44" s="336" t="s">
+      <c r="R44" s="316"/>
+      <c r="S44" s="316"/>
+      <c r="T44" s="316"/>
+      <c r="U44" s="316"/>
+      <c r="V44" s="316" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="336"/>
-      <c r="X44" s="336"/>
-      <c r="Y44" s="336"/>
-      <c r="Z44" s="336"/>
-      <c r="AA44" s="336"/>
-      <c r="AB44" s="336"/>
-      <c r="AC44" s="336"/>
+      <c r="W44" s="316"/>
+      <c r="X44" s="316"/>
+      <c r="Y44" s="316"/>
+      <c r="Z44" s="316"/>
+      <c r="AA44" s="316"/>
+      <c r="AB44" s="316"/>
+      <c r="AC44" s="316"/>
       <c r="AM44" s="40"/>
     </row>
-    <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" s="99"/>
       <c r="E45" s="100"/>
       <c r="F45" s="100"/>
@@ -7707,12 +7720,12 @@
       <c r="AC45" s="96"/>
       <c r="AM45" s="40"/>
     </row>
-    <row r="46" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O46" s="100"/>
     </row>
-    <row r="47" spans="3:53" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C47" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AK47" s="81"/>
       <c r="AL47" s="81"/>
@@ -7732,7 +7745,7 @@
       <c r="AZ47" s="81"/>
       <c r="BA47" s="81"/>
     </row>
-    <row r="48" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AJ48" s="49"/>
       <c r="AK48" s="49"/>
       <c r="AL48" s="49"/>
@@ -7751,39 +7764,39 @@
       <c r="AY48" s="49"/>
       <c r="AZ48" s="49"/>
     </row>
-    <row r="49" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="290" t="s">
+    <row r="49" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="332" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="367" t="s">
+      <c r="E49" s="307" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="308"/>
+      <c r="G49" s="308"/>
+      <c r="H49" s="308"/>
+      <c r="I49" s="308"/>
+      <c r="J49" s="308"/>
+      <c r="K49" s="308"/>
+      <c r="L49" s="308"/>
+      <c r="M49" s="308"/>
+      <c r="N49" s="308"/>
+      <c r="O49" s="308"/>
+      <c r="P49" s="308"/>
+      <c r="Q49" s="308"/>
+      <c r="R49" s="308"/>
+      <c r="S49" s="308"/>
+      <c r="T49" s="308"/>
+      <c r="U49" s="308"/>
+      <c r="V49" s="308"/>
+      <c r="W49" s="308"/>
+      <c r="X49" s="308"/>
+      <c r="Y49" s="308"/>
+      <c r="Z49" s="308"/>
+      <c r="AA49" s="308"/>
+      <c r="AB49" s="308"/>
+      <c r="AC49" s="309"/>
+      <c r="AD49" s="266" t="s">
         <v>58</v>
-      </c>
-      <c r="F49" s="368"/>
-      <c r="G49" s="368"/>
-      <c r="H49" s="368"/>
-      <c r="I49" s="368"/>
-      <c r="J49" s="368"/>
-      <c r="K49" s="368"/>
-      <c r="L49" s="368"/>
-      <c r="M49" s="368"/>
-      <c r="N49" s="368"/>
-      <c r="O49" s="368"/>
-      <c r="P49" s="368"/>
-      <c r="Q49" s="368"/>
-      <c r="R49" s="368"/>
-      <c r="S49" s="368"/>
-      <c r="T49" s="368"/>
-      <c r="U49" s="368"/>
-      <c r="V49" s="368"/>
-      <c r="W49" s="368"/>
-      <c r="X49" s="368"/>
-      <c r="Y49" s="368"/>
-      <c r="Z49" s="368"/>
-      <c r="AA49" s="368"/>
-      <c r="AB49" s="368"/>
-      <c r="AC49" s="369"/>
-      <c r="AD49" s="266" t="s">
-        <v>59</v>
       </c>
       <c r="AE49" s="267"/>
       <c r="AF49" s="267"/>
@@ -7792,50 +7805,50 @@
       <c r="AI49" s="49"/>
       <c r="AJ49" s="49"/>
       <c r="AK49" s="49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AL49" s="49"/>
       <c r="AM49" s="49"/>
       <c r="AN49" s="49"/>
     </row>
-    <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="337"/>
+    <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="333"/>
       <c r="E50" s="266" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F50" s="267"/>
       <c r="G50" s="267"/>
       <c r="H50" s="268"/>
-      <c r="I50" s="338" t="s">
+      <c r="I50" s="301" t="s">
+        <v>61</v>
+      </c>
+      <c r="J50" s="302"/>
+      <c r="K50" s="302"/>
+      <c r="L50" s="303"/>
+      <c r="M50" s="301" t="s">
         <v>62</v>
       </c>
-      <c r="J50" s="339"/>
-      <c r="K50" s="339"/>
-      <c r="L50" s="340"/>
-      <c r="M50" s="338" t="s">
+      <c r="N50" s="302"/>
+      <c r="O50" s="302"/>
+      <c r="P50" s="302"/>
+      <c r="Q50" s="302"/>
+      <c r="R50" s="302"/>
+      <c r="S50" s="302"/>
+      <c r="T50" s="303"/>
+      <c r="U50" s="266" t="s">
         <v>63</v>
-      </c>
-      <c r="N50" s="339"/>
-      <c r="O50" s="339"/>
-      <c r="P50" s="339"/>
-      <c r="Q50" s="339"/>
-      <c r="R50" s="339"/>
-      <c r="S50" s="339"/>
-      <c r="T50" s="340"/>
-      <c r="U50" s="266" t="s">
-        <v>64</v>
       </c>
       <c r="V50" s="267"/>
       <c r="W50" s="267"/>
       <c r="X50" s="267"/>
       <c r="Y50" s="268"/>
       <c r="Z50" s="266" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA50" s="267"/>
       <c r="AB50" s="268"/>
-      <c r="AC50" s="384" t="s">
-        <v>167</v>
+      <c r="AC50" s="310" t="s">
+        <v>161</v>
       </c>
       <c r="AD50" s="269"/>
       <c r="AE50" s="270"/>
@@ -7855,24 +7868,24 @@
       <c r="AS50" s="49"/>
       <c r="AT50" s="49"/>
     </row>
-    <row r="51" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="291"/>
+    <row r="51" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="334"/>
       <c r="E51" s="272"/>
       <c r="F51" s="273"/>
       <c r="G51" s="273"/>
       <c r="H51" s="274"/>
-      <c r="I51" s="341"/>
-      <c r="J51" s="342"/>
-      <c r="K51" s="342"/>
-      <c r="L51" s="343"/>
-      <c r="M51" s="341"/>
-      <c r="N51" s="342"/>
-      <c r="O51" s="342"/>
-      <c r="P51" s="342"/>
-      <c r="Q51" s="342"/>
-      <c r="R51" s="342"/>
-      <c r="S51" s="342"/>
-      <c r="T51" s="343"/>
+      <c r="I51" s="304"/>
+      <c r="J51" s="305"/>
+      <c r="K51" s="305"/>
+      <c r="L51" s="306"/>
+      <c r="M51" s="304"/>
+      <c r="N51" s="305"/>
+      <c r="O51" s="305"/>
+      <c r="P51" s="305"/>
+      <c r="Q51" s="305"/>
+      <c r="R51" s="305"/>
+      <c r="S51" s="305"/>
+      <c r="T51" s="306"/>
       <c r="U51" s="272"/>
       <c r="V51" s="273"/>
       <c r="W51" s="273"/>
@@ -7881,7 +7894,7 @@
       <c r="Z51" s="272"/>
       <c r="AA51" s="273"/>
       <c r="AB51" s="274"/>
-      <c r="AC51" s="385"/>
+      <c r="AC51" s="311"/>
       <c r="AD51" s="272"/>
       <c r="AE51" s="273"/>
       <c r="AF51" s="273"/>
@@ -7891,7 +7904,7 @@
       <c r="AJ51" s="49"/>
       <c r="AK51" s="49"/>
       <c r="AL51" s="101" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AM51" s="102"/>
       <c r="AN51" s="102"/>
@@ -7902,59 +7915,59 @@
       <c r="AS51" s="49"/>
       <c r="AT51" s="49"/>
     </row>
-    <row r="52" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D52" s="104">
         <v>1</v>
       </c>
       <c r="E52" s="278" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="F52" s="279"/>
       <c r="G52" s="279"/>
-      <c r="H52" s="370"/>
-      <c r="I52" s="371" t="s">
-        <v>68</v>
-      </c>
-      <c r="J52" s="371"/>
-      <c r="K52" s="371"/>
-      <c r="L52" s="371"/>
-      <c r="M52" s="386" t="s">
+      <c r="H52" s="300"/>
+      <c r="I52" s="299" t="s">
+        <v>67</v>
+      </c>
+      <c r="J52" s="299"/>
+      <c r="K52" s="299"/>
+      <c r="L52" s="299"/>
+      <c r="M52" s="315" t="s">
         <v>39</v>
       </c>
-      <c r="N52" s="386"/>
-      <c r="O52" s="386"/>
-      <c r="P52" s="386"/>
-      <c r="Q52" s="386"/>
-      <c r="R52" s="386"/>
-      <c r="S52" s="386"/>
-      <c r="T52" s="386"/>
-      <c r="U52" s="360" t="s">
+      <c r="N52" s="315"/>
+      <c r="O52" s="315"/>
+      <c r="P52" s="315"/>
+      <c r="Q52" s="315"/>
+      <c r="R52" s="315"/>
+      <c r="S52" s="315"/>
+      <c r="T52" s="315"/>
+      <c r="U52" s="295" t="s">
         <v>39</v>
       </c>
-      <c r="V52" s="360"/>
-      <c r="W52" s="360"/>
-      <c r="X52" s="360"/>
-      <c r="Y52" s="360"/>
-      <c r="Z52" s="360" t="s">
+      <c r="V52" s="295"/>
+      <c r="W52" s="295"/>
+      <c r="X52" s="295"/>
+      <c r="Y52" s="295"/>
+      <c r="Z52" s="295" t="s">
         <v>39</v>
       </c>
-      <c r="AA52" s="360"/>
-      <c r="AB52" s="360"/>
+      <c r="AA52" s="295"/>
+      <c r="AB52" s="295"/>
       <c r="AC52" s="105" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD52" s="354" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE52" s="288"/>
-      <c r="AF52" s="288"/>
-      <c r="AG52" s="289"/>
+        <v>174</v>
+      </c>
+      <c r="AD52" s="296" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE52" s="297"/>
+      <c r="AF52" s="297"/>
+      <c r="AG52" s="298"/>
       <c r="AH52" s="49"/>
       <c r="AI52" s="49"/>
       <c r="AJ52" s="49"/>
       <c r="AK52" s="49"/>
       <c r="AL52" s="91" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AM52" s="92"/>
       <c r="AN52" s="92"/>
@@ -7965,59 +7978,59 @@
       <c r="AS52" s="49"/>
       <c r="AT52" s="49"/>
     </row>
-    <row r="53" spans="3:53" s="58" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:53" s="58" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D53" s="104">
         <v>2</v>
       </c>
       <c r="E53" s="278" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F53" s="279"/>
       <c r="G53" s="279"/>
-      <c r="H53" s="370"/>
-      <c r="I53" s="371" t="s">
+      <c r="H53" s="300"/>
+      <c r="I53" s="299" t="s">
+        <v>70</v>
+      </c>
+      <c r="J53" s="299"/>
+      <c r="K53" s="299"/>
+      <c r="L53" s="299"/>
+      <c r="M53" s="312" t="s">
+        <v>39</v>
+      </c>
+      <c r="N53" s="313"/>
+      <c r="O53" s="313"/>
+      <c r="P53" s="313"/>
+      <c r="Q53" s="313"/>
+      <c r="R53" s="313"/>
+      <c r="S53" s="313"/>
+      <c r="T53" s="314"/>
+      <c r="U53" s="296" t="s">
         <v>71</v>
       </c>
-      <c r="J53" s="371"/>
-      <c r="K53" s="371"/>
-      <c r="L53" s="371"/>
-      <c r="M53" s="313" t="s">
+      <c r="V53" s="297"/>
+      <c r="W53" s="297"/>
+      <c r="X53" s="297"/>
+      <c r="Y53" s="298"/>
+      <c r="Z53" s="295" t="s">
         <v>39</v>
       </c>
-      <c r="N53" s="314"/>
-      <c r="O53" s="314"/>
-      <c r="P53" s="314"/>
-      <c r="Q53" s="314"/>
-      <c r="R53" s="314"/>
-      <c r="S53" s="314"/>
-      <c r="T53" s="315"/>
-      <c r="U53" s="354" t="s">
+      <c r="AA53" s="295"/>
+      <c r="AB53" s="295"/>
+      <c r="AC53" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD53" s="296" t="s">
         <v>72</v>
       </c>
-      <c r="V53" s="288"/>
-      <c r="W53" s="288"/>
-      <c r="X53" s="288"/>
-      <c r="Y53" s="289"/>
-      <c r="Z53" s="360" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA53" s="360"/>
-      <c r="AB53" s="360"/>
-      <c r="AC53" s="105" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD53" s="354" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE53" s="288"/>
-      <c r="AF53" s="288"/>
-      <c r="AG53" s="289"/>
+      <c r="AE53" s="297"/>
+      <c r="AF53" s="297"/>
+      <c r="AG53" s="298"/>
       <c r="AH53" s="49"/>
       <c r="AI53" s="49"/>
       <c r="AJ53" s="49"/>
       <c r="AK53" s="49"/>
       <c r="AL53" s="91" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM53" s="92"/>
       <c r="AN53" s="92"/>
@@ -8028,10 +8041,10 @@
       <c r="AS53" s="49"/>
       <c r="AT53" s="49"/>
     </row>
-    <row r="54" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AY54" s="56"/>
     </row>
-    <row r="55" spans="3:53" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:53" x14ac:dyDescent="0.25">
       <c r="D55" s="106"/>
       <c r="E55" s="107"/>
       <c r="F55" s="108"/>
@@ -8073,9 +8086,9 @@
       <c r="AR55" s="42"/>
       <c r="AS55" s="42"/>
     </row>
-    <row r="56" spans="3:53" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C56" s="54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D56" s="106"/>
       <c r="E56" s="107"/>
@@ -8118,7 +8131,7 @@
       <c r="AR56" s="42"/>
       <c r="AS56" s="42"/>
     </row>
-    <row r="57" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AI57" s="108"/>
       <c r="AJ57" s="108"/>
       <c r="AK57" s="42"/>
@@ -8135,50 +8148,50 @@
       <c r="AV57" s="42"/>
       <c r="AW57" s="42"/>
     </row>
-    <row r="58" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D58" s="344" t="s">
+    <row r="58" spans="3:53" x14ac:dyDescent="0.25">
+      <c r="D58" s="335" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="346" t="s">
+      <c r="E58" s="287" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="288"/>
+      <c r="G58" s="288"/>
+      <c r="H58" s="288"/>
+      <c r="I58" s="288"/>
+      <c r="J58" s="289"/>
+      <c r="K58" s="287" t="s">
         <v>75</v>
       </c>
-      <c r="F58" s="347"/>
-      <c r="G58" s="347"/>
-      <c r="H58" s="347"/>
-      <c r="I58" s="347"/>
-      <c r="J58" s="348"/>
-      <c r="K58" s="346" t="s">
+      <c r="L58" s="288"/>
+      <c r="M58" s="288"/>
+      <c r="N58" s="289"/>
+      <c r="O58" s="285" t="s">
         <v>76</v>
       </c>
-      <c r="L58" s="347"/>
-      <c r="M58" s="347"/>
-      <c r="N58" s="348"/>
-      <c r="O58" s="380" t="s">
+      <c r="P58" s="110" t="s">
         <v>77</v>
-      </c>
-      <c r="P58" s="110" t="s">
-        <v>78</v>
       </c>
       <c r="Q58" s="111"/>
       <c r="R58" s="111"/>
       <c r="S58" s="111"/>
       <c r="T58" s="111"/>
       <c r="U58" s="111"/>
-      <c r="V58" s="346" t="s">
-        <v>57</v>
-      </c>
-      <c r="W58" s="347"/>
-      <c r="X58" s="347"/>
-      <c r="Y58" s="347"/>
-      <c r="Z58" s="347"/>
-      <c r="AA58" s="347"/>
-      <c r="AB58" s="347"/>
-      <c r="AC58" s="347"/>
-      <c r="AD58" s="347"/>
-      <c r="AE58" s="347"/>
-      <c r="AF58" s="347"/>
-      <c r="AG58" s="347"/>
-      <c r="AH58" s="348"/>
+      <c r="V58" s="287" t="s">
+        <v>56</v>
+      </c>
+      <c r="W58" s="288"/>
+      <c r="X58" s="288"/>
+      <c r="Y58" s="288"/>
+      <c r="Z58" s="288"/>
+      <c r="AA58" s="288"/>
+      <c r="AB58" s="288"/>
+      <c r="AC58" s="288"/>
+      <c r="AD58" s="288"/>
+      <c r="AE58" s="288"/>
+      <c r="AF58" s="288"/>
+      <c r="AG58" s="288"/>
+      <c r="AH58" s="289"/>
       <c r="AK58" s="42"/>
       <c r="AL58" s="42"/>
       <c r="AM58" s="42"/>
@@ -8193,48 +8206,48 @@
       <c r="AV58" s="42"/>
       <c r="AW58" s="42"/>
     </row>
-    <row r="59" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D59" s="345"/>
-      <c r="E59" s="349"/>
-      <c r="F59" s="350"/>
-      <c r="G59" s="350"/>
-      <c r="H59" s="350"/>
-      <c r="I59" s="350"/>
-      <c r="J59" s="351"/>
-      <c r="K59" s="349"/>
-      <c r="L59" s="350"/>
-      <c r="M59" s="350"/>
-      <c r="N59" s="351"/>
-      <c r="O59" s="381"/>
+    <row r="59" spans="3:53" x14ac:dyDescent="0.25">
+      <c r="D59" s="336"/>
+      <c r="E59" s="290"/>
+      <c r="F59" s="291"/>
+      <c r="G59" s="291"/>
+      <c r="H59" s="291"/>
+      <c r="I59" s="291"/>
+      <c r="J59" s="292"/>
+      <c r="K59" s="290"/>
+      <c r="L59" s="291"/>
+      <c r="M59" s="291"/>
+      <c r="N59" s="292"/>
+      <c r="O59" s="286"/>
       <c r="P59" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q59" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="Q59" s="112" t="s">
+      <c r="R59" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="R59" s="112" t="s">
+      <c r="S59" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="S59" s="112" t="s">
+      <c r="T59" s="293" t="s">
         <v>82</v>
       </c>
-      <c r="T59" s="382" t="s">
-        <v>83</v>
-      </c>
-      <c r="U59" s="383"/>
-      <c r="V59" s="349"/>
-      <c r="W59" s="350"/>
-      <c r="X59" s="350"/>
-      <c r="Y59" s="350"/>
-      <c r="Z59" s="350"/>
-      <c r="AA59" s="350"/>
-      <c r="AB59" s="350"/>
-      <c r="AC59" s="350"/>
-      <c r="AD59" s="350"/>
-      <c r="AE59" s="350"/>
-      <c r="AF59" s="350"/>
-      <c r="AG59" s="350"/>
-      <c r="AH59" s="351"/>
+      <c r="U59" s="294"/>
+      <c r="V59" s="290"/>
+      <c r="W59" s="291"/>
+      <c r="X59" s="291"/>
+      <c r="Y59" s="291"/>
+      <c r="Z59" s="291"/>
+      <c r="AA59" s="291"/>
+      <c r="AB59" s="291"/>
+      <c r="AC59" s="291"/>
+      <c r="AD59" s="291"/>
+      <c r="AE59" s="291"/>
+      <c r="AF59" s="291"/>
+      <c r="AG59" s="291"/>
+      <c r="AH59" s="292"/>
       <c r="AK59" s="42"/>
       <c r="AL59" s="42"/>
       <c r="AM59" s="42"/>
@@ -8249,58 +8262,58 @@
       <c r="AV59" s="42"/>
       <c r="AW59" s="42"/>
     </row>
-    <row r="60" spans="3:53" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:53" x14ac:dyDescent="0.25">
       <c r="D60" s="113">
         <v>1</v>
       </c>
-      <c r="E60" s="304" t="s">
+      <c r="E60" s="341" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" s="342"/>
+      <c r="G60" s="342"/>
+      <c r="H60" s="342"/>
+      <c r="I60" s="342"/>
+      <c r="J60" s="343"/>
+      <c r="K60" s="296" t="s">
         <v>84</v>
       </c>
-      <c r="F60" s="305"/>
-      <c r="G60" s="305"/>
-      <c r="H60" s="305"/>
-      <c r="I60" s="305"/>
-      <c r="J60" s="306"/>
-      <c r="K60" s="354" t="s">
+      <c r="L60" s="297"/>
+      <c r="M60" s="297"/>
+      <c r="N60" s="298"/>
+      <c r="O60" s="114" t="s">
         <v>85</v>
-      </c>
-      <c r="L60" s="288"/>
-      <c r="M60" s="288"/>
-      <c r="N60" s="289"/>
-      <c r="O60" s="114" t="s">
-        <v>86</v>
       </c>
       <c r="P60" s="115" t="s">
         <v>39</v>
       </c>
       <c r="Q60" s="115" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="R60" s="115" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="S60" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="T60" s="355" t="s">
+      <c r="T60" s="344" t="s">
         <v>39</v>
       </c>
-      <c r="U60" s="356"/>
-      <c r="V60" s="354" t="s">
+      <c r="U60" s="345"/>
+      <c r="V60" s="296" t="s">
         <v>39</v>
       </c>
-      <c r="W60" s="288"/>
-      <c r="X60" s="288"/>
-      <c r="Y60" s="288"/>
-      <c r="Z60" s="288"/>
-      <c r="AA60" s="288"/>
-      <c r="AB60" s="288"/>
-      <c r="AC60" s="288"/>
-      <c r="AD60" s="288"/>
-      <c r="AE60" s="288"/>
-      <c r="AF60" s="288"/>
-      <c r="AG60" s="288"/>
-      <c r="AH60" s="289"/>
+      <c r="W60" s="297"/>
+      <c r="X60" s="297"/>
+      <c r="Y60" s="297"/>
+      <c r="Z60" s="297"/>
+      <c r="AA60" s="297"/>
+      <c r="AB60" s="297"/>
+      <c r="AC60" s="297"/>
+      <c r="AD60" s="297"/>
+      <c r="AE60" s="297"/>
+      <c r="AF60" s="297"/>
+      <c r="AG60" s="297"/>
+      <c r="AH60" s="298"/>
       <c r="AK60" s="42"/>
       <c r="AL60" s="42"/>
       <c r="AM60" s="42"/>
@@ -8315,7 +8328,7 @@
       <c r="AV60" s="42"/>
       <c r="AW60" s="42"/>
     </row>
-    <row r="61" spans="3:53" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:53" x14ac:dyDescent="0.25">
       <c r="D61" s="116"/>
       <c r="E61" s="117"/>
       <c r="F61" s="117"/>
@@ -8363,7 +8376,7 @@
       <c r="AZ61" s="42"/>
       <c r="BA61" s="42"/>
     </row>
-    <row r="62" spans="3:53" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:53" x14ac:dyDescent="0.25">
       <c r="D62" s="106"/>
       <c r="E62" s="107"/>
       <c r="F62" s="108"/>
@@ -8407,9 +8420,9 @@
       <c r="AZ62" s="42"/>
       <c r="BA62" s="42"/>
     </row>
-    <row r="63" spans="3:53" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C63" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS63" s="42"/>
       <c r="AT63" s="42"/>
@@ -8421,143 +8434,143 @@
       <c r="AZ63" s="42"/>
       <c r="BA63" s="42"/>
     </row>
-    <row r="65" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="119"/>
       <c r="D65" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="E65" s="352" t="s">
+      <c r="E65" s="337" t="s">
+        <v>86</v>
+      </c>
+      <c r="F65" s="338"/>
+      <c r="G65" s="338"/>
+      <c r="H65" s="338"/>
+      <c r="I65" s="338"/>
+      <c r="J65" s="339"/>
+      <c r="K65" s="337" t="s">
         <v>87</v>
       </c>
-      <c r="F65" s="316"/>
-      <c r="G65" s="316"/>
-      <c r="H65" s="316"/>
-      <c r="I65" s="316"/>
-      <c r="J65" s="353"/>
-      <c r="K65" s="352" t="s">
+      <c r="L65" s="338"/>
+      <c r="M65" s="338"/>
+      <c r="N65" s="338"/>
+      <c r="O65" s="338"/>
+      <c r="P65" s="338"/>
+      <c r="Q65" s="340"/>
+      <c r="R65" s="275" t="s">
         <v>88</v>
       </c>
-      <c r="L65" s="316"/>
-      <c r="M65" s="316"/>
-      <c r="N65" s="316"/>
-      <c r="O65" s="316"/>
-      <c r="P65" s="316"/>
-      <c r="Q65" s="317"/>
-      <c r="R65" s="275" t="s">
+      <c r="S65" s="338"/>
+      <c r="T65" s="338"/>
+      <c r="U65" s="338"/>
+      <c r="V65" s="338"/>
+      <c r="W65" s="338"/>
+      <c r="X65" s="338"/>
+      <c r="Y65" s="340"/>
+      <c r="Z65" s="307" t="s">
         <v>89</v>
       </c>
-      <c r="S65" s="316"/>
-      <c r="T65" s="316"/>
-      <c r="U65" s="316"/>
-      <c r="V65" s="316"/>
-      <c r="W65" s="316"/>
-      <c r="X65" s="316"/>
-      <c r="Y65" s="317"/>
-      <c r="Z65" s="367" t="s">
+      <c r="AA65" s="308"/>
+      <c r="AB65" s="308"/>
+      <c r="AC65" s="308"/>
+      <c r="AD65" s="309"/>
+      <c r="AE65" s="326" t="s">
         <v>90</v>
       </c>
-      <c r="AA65" s="368"/>
-      <c r="AB65" s="368"/>
-      <c r="AC65" s="368"/>
-      <c r="AD65" s="369"/>
-      <c r="AE65" s="364" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF65" s="365"/>
-      <c r="AG65" s="365"/>
-      <c r="AH65" s="366"/>
-    </row>
-    <row r="66" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF65" s="327"/>
+      <c r="AG65" s="327"/>
+      <c r="AH65" s="328"/>
+    </row>
+    <row r="66" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D66" s="121">
         <v>1</v>
       </c>
-      <c r="E66" s="357" t="s">
+      <c r="E66" s="329" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66" s="330"/>
+      <c r="G66" s="330"/>
+      <c r="H66" s="330"/>
+      <c r="I66" s="330"/>
+      <c r="J66" s="331"/>
+      <c r="K66" s="296" t="s">
+        <v>39</v>
+      </c>
+      <c r="L66" s="297"/>
+      <c r="M66" s="297"/>
+      <c r="N66" s="297"/>
+      <c r="O66" s="297"/>
+      <c r="P66" s="297"/>
+      <c r="Q66" s="298"/>
+      <c r="R66" s="296" t="s">
         <v>92</v>
       </c>
-      <c r="F66" s="358"/>
-      <c r="G66" s="358"/>
-      <c r="H66" s="358"/>
-      <c r="I66" s="358"/>
-      <c r="J66" s="359"/>
-      <c r="K66" s="354" t="s">
+      <c r="S66" s="297"/>
+      <c r="T66" s="297"/>
+      <c r="U66" s="297"/>
+      <c r="V66" s="297"/>
+      <c r="W66" s="297"/>
+      <c r="X66" s="297"/>
+      <c r="Y66" s="298"/>
+      <c r="Z66" s="296" t="s">
         <v>39</v>
       </c>
-      <c r="L66" s="288"/>
-      <c r="M66" s="288"/>
-      <c r="N66" s="288"/>
-      <c r="O66" s="288"/>
-      <c r="P66" s="288"/>
-      <c r="Q66" s="289"/>
-      <c r="R66" s="354" t="s">
+      <c r="AA66" s="297"/>
+      <c r="AB66" s="297"/>
+      <c r="AC66" s="297"/>
+      <c r="AD66" s="298"/>
+      <c r="AE66" s="323" t="s">
         <v>93</v>
       </c>
-      <c r="S66" s="288"/>
-      <c r="T66" s="288"/>
-      <c r="U66" s="288"/>
-      <c r="V66" s="288"/>
-      <c r="W66" s="288"/>
-      <c r="X66" s="288"/>
-      <c r="Y66" s="289"/>
-      <c r="Z66" s="354" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA66" s="288"/>
-      <c r="AB66" s="288"/>
-      <c r="AC66" s="288"/>
-      <c r="AD66" s="289"/>
-      <c r="AE66" s="361" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF66" s="362"/>
-      <c r="AG66" s="362"/>
-      <c r="AH66" s="363"/>
-    </row>
-    <row r="67" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF66" s="324"/>
+      <c r="AG66" s="324"/>
+      <c r="AH66" s="325"/>
+    </row>
+    <row r="67" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D67" s="121">
         <v>2</v>
       </c>
-      <c r="E67" s="357" t="s">
-        <v>50</v>
-      </c>
-      <c r="F67" s="358"/>
-      <c r="G67" s="358"/>
-      <c r="H67" s="358"/>
-      <c r="I67" s="358"/>
-      <c r="J67" s="359"/>
-      <c r="K67" s="354" t="s">
+      <c r="E67" s="329" t="s">
+        <v>49</v>
+      </c>
+      <c r="F67" s="330"/>
+      <c r="G67" s="330"/>
+      <c r="H67" s="330"/>
+      <c r="I67" s="330"/>
+      <c r="J67" s="331"/>
+      <c r="K67" s="296" t="s">
+        <v>175</v>
+      </c>
+      <c r="L67" s="297"/>
+      <c r="M67" s="297"/>
+      <c r="N67" s="297"/>
+      <c r="O67" s="297"/>
+      <c r="P67" s="297"/>
+      <c r="Q67" s="298"/>
+      <c r="R67" s="296" t="s">
+        <v>94</v>
+      </c>
+      <c r="S67" s="297"/>
+      <c r="T67" s="297"/>
+      <c r="U67" s="297"/>
+      <c r="V67" s="297"/>
+      <c r="W67" s="297"/>
+      <c r="X67" s="297"/>
+      <c r="Y67" s="298"/>
+      <c r="Z67" s="296" t="s">
         <v>95</v>
       </c>
-      <c r="L67" s="288"/>
-      <c r="M67" s="288"/>
-      <c r="N67" s="288"/>
-      <c r="O67" s="288"/>
-      <c r="P67" s="288"/>
-      <c r="Q67" s="289"/>
-      <c r="R67" s="354" t="s">
-        <v>96</v>
-      </c>
-      <c r="S67" s="288"/>
-      <c r="T67" s="288"/>
-      <c r="U67" s="288"/>
-      <c r="V67" s="288"/>
-      <c r="W67" s="288"/>
-      <c r="X67" s="288"/>
-      <c r="Y67" s="289"/>
-      <c r="Z67" s="354" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA67" s="288"/>
-      <c r="AB67" s="288"/>
-      <c r="AC67" s="288"/>
-      <c r="AD67" s="289"/>
-      <c r="AE67" s="361" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF67" s="362"/>
-      <c r="AG67" s="362"/>
-      <c r="AH67" s="363"/>
-    </row>
-    <row r="68" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA67" s="297"/>
+      <c r="AB67" s="297"/>
+      <c r="AC67" s="297"/>
+      <c r="AD67" s="298"/>
+      <c r="AE67" s="323" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF67" s="324"/>
+      <c r="AG67" s="324"/>
+      <c r="AH67" s="325"/>
+    </row>
+    <row r="68" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D68" s="122"/>
       <c r="E68" s="123"/>
       <c r="F68" s="123"/>
@@ -8593,7 +8606,7 @@
       <c r="AO68" s="38"/>
       <c r="AP68" s="38"/>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A69" s="42"/>
       <c r="B69" s="42"/>
       <c r="C69" s="42"/>
@@ -8645,9 +8658,9 @@
       <c r="BA69" s="42"/>
       <c r="BB69" s="42"/>
     </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C70" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D70" s="124"/>
       <c r="E70" s="124"/>
@@ -8671,10 +8684,10 @@
       <c r="BC70" s="42"/>
       <c r="BD70" s="42"/>
     </row>
-    <row r="71" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="42"/>
       <c r="D71" s="124" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E71" s="124"/>
       <c r="AP71" s="42"/>
@@ -8693,7 +8706,7 @@
       <c r="BC71" s="42"/>
       <c r="BD71" s="42"/>
     </row>
-    <row r="72" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="42"/>
       <c r="D72" s="124"/>
       <c r="E72" s="124"/>
@@ -8713,30 +8726,30 @@
       <c r="BC72" s="42"/>
       <c r="BD72" s="42"/>
     </row>
-    <row r="73" spans="1:58" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:58" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" s="38"/>
       <c r="D73" s="124"/>
       <c r="E73" s="124" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AP73" s="38"/>
     </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C74" s="42"/>
       <c r="D74" s="124"/>
       <c r="E74" s="124"/>
       <c r="F74" s="124"/>
     </row>
-    <row r="75" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="42"/>
       <c r="D75" s="124"/>
       <c r="E75" s="124"/>
       <c r="F75" s="54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AP75" s="42"/>
     </row>
-    <row r="76" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="38"/>
       <c r="B76" s="44"/>
       <c r="C76" s="38"/>
@@ -8773,7 +8786,7 @@
       <c r="AI76" s="126"/>
       <c r="AJ76" s="107"/>
     </row>
-    <row r="77" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AI77" s="127"/>
       <c r="AJ77" s="127"/>
       <c r="AK77" s="127"/>
@@ -8798,9 +8811,9 @@
       <c r="BD77" s="127"/>
       <c r="BE77" s="127"/>
     </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E78" s="54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G78" s="44"/>
       <c r="AJ78" s="128"/>
@@ -8827,7 +8840,7 @@
       <c r="BE78" s="128"/>
       <c r="BF78" s="128"/>
     </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.25">
       <c r="H79" s="44"/>
       <c r="AJ79" s="128"/>
       <c r="AK79" s="128"/>
@@ -8853,10 +8866,10 @@
       <c r="BE79" s="128"/>
       <c r="BF79" s="128"/>
     </row>
-    <row r="80" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E80" s="66"/>
       <c r="F80" s="66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ80" s="128"/>
       <c r="AK80" s="128"/>
@@ -8882,7 +8895,7 @@
       <c r="BE80" s="128"/>
       <c r="BF80" s="128"/>
     </row>
-    <row r="81" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E81" s="66"/>
       <c r="F81" s="129"/>
       <c r="G81" s="66"/>
@@ -8910,7 +8923,7 @@
       <c r="BE81" s="128"/>
       <c r="BF81" s="128"/>
     </row>
-    <row r="82" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E82" s="66"/>
       <c r="AJ82" s="128"/>
       <c r="AK82" s="128"/>
@@ -8936,10 +8949,10 @@
       <c r="BE82" s="128"/>
       <c r="BF82" s="128"/>
     </row>
-    <row r="83" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="42"/>
       <c r="D83" s="124" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E83" s="124"/>
       <c r="AP83" s="42"/>
@@ -8958,7 +8971,7 @@
       <c r="BC83" s="42"/>
       <c r="BD83" s="42"/>
     </row>
-    <row r="84" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="42"/>
       <c r="D84" s="124"/>
       <c r="E84" s="124"/>
@@ -8978,63 +8991,63 @@
       <c r="BC84" s="42"/>
       <c r="BD84" s="42"/>
     </row>
-    <row r="85" spans="1:58" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:58" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" s="38"/>
       <c r="D85" s="124"/>
       <c r="E85" s="124" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AP85" s="38"/>
     </row>
-    <row r="86" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C86" s="42"/>
       <c r="D86" s="124"/>
       <c r="E86" s="124"/>
       <c r="F86" s="124"/>
     </row>
-    <row r="87" spans="1:58" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:58" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D87" s="42"/>
       <c r="E87" s="124"/>
       <c r="F87" s="130" t="s">
         <v>30</v>
       </c>
       <c r="G87" s="275" t="s">
+        <v>101</v>
+      </c>
+      <c r="H87" s="338"/>
+      <c r="I87" s="338"/>
+      <c r="J87" s="338"/>
+      <c r="K87" s="338"/>
+      <c r="L87" s="340"/>
+      <c r="M87" s="275" t="s">
+        <v>102</v>
+      </c>
+      <c r="N87" s="338"/>
+      <c r="O87" s="338"/>
+      <c r="P87" s="338"/>
+      <c r="Q87" s="338"/>
+      <c r="R87" s="338"/>
+      <c r="S87" s="338"/>
+      <c r="T87" s="338"/>
+      <c r="U87" s="338"/>
+      <c r="V87" s="340"/>
+      <c r="W87" s="376" t="s">
         <v>103</v>
       </c>
-      <c r="H87" s="316"/>
-      <c r="I87" s="316"/>
-      <c r="J87" s="316"/>
-      <c r="K87" s="316"/>
-      <c r="L87" s="317"/>
-      <c r="M87" s="275" t="s">
+      <c r="X87" s="377"/>
+      <c r="Y87" s="378"/>
+      <c r="Z87" s="367" t="s">
         <v>104</v>
       </c>
-      <c r="N87" s="316"/>
-      <c r="O87" s="316"/>
-      <c r="P87" s="316"/>
-      <c r="Q87" s="316"/>
-      <c r="R87" s="316"/>
-      <c r="S87" s="316"/>
-      <c r="T87" s="316"/>
-      <c r="U87" s="316"/>
-      <c r="V87" s="317"/>
-      <c r="W87" s="333" t="s">
+      <c r="AA87" s="368"/>
+      <c r="AB87" s="368"/>
+      <c r="AC87" s="369"/>
+      <c r="AD87" s="355" t="s">
         <v>105</v>
       </c>
-      <c r="X87" s="334"/>
-      <c r="Y87" s="335"/>
-      <c r="Z87" s="327" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA87" s="328"/>
-      <c r="AB87" s="328"/>
-      <c r="AC87" s="329"/>
-      <c r="AD87" s="310" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE87" s="311"/>
-      <c r="AF87" s="311"/>
-      <c r="AG87" s="312"/>
+      <c r="AE87" s="356"/>
+      <c r="AF87" s="356"/>
+      <c r="AG87" s="357"/>
       <c r="AJ87" s="127"/>
       <c r="AK87" s="127"/>
       <c r="AL87" s="127"/>
@@ -9058,49 +9071,49 @@
       <c r="BD87" s="128"/>
       <c r="BE87" s="128"/>
     </row>
-    <row r="88" spans="1:58" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:58" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D88" s="42"/>
       <c r="E88" s="124"/>
       <c r="F88" s="131">
         <v>1</v>
       </c>
-      <c r="G88" s="313" t="s">
+      <c r="G88" s="312" t="s">
+        <v>106</v>
+      </c>
+      <c r="H88" s="313"/>
+      <c r="I88" s="313"/>
+      <c r="J88" s="313"/>
+      <c r="K88" s="313"/>
+      <c r="L88" s="314"/>
+      <c r="M88" s="312" t="s">
+        <v>107</v>
+      </c>
+      <c r="N88" s="313"/>
+      <c r="O88" s="313"/>
+      <c r="P88" s="313"/>
+      <c r="Q88" s="313"/>
+      <c r="R88" s="313"/>
+      <c r="S88" s="313"/>
+      <c r="T88" s="313"/>
+      <c r="U88" s="313"/>
+      <c r="V88" s="314"/>
+      <c r="W88" s="358" t="s">
         <v>108</v>
       </c>
-      <c r="H88" s="314"/>
-      <c r="I88" s="314"/>
-      <c r="J88" s="314"/>
-      <c r="K88" s="314"/>
-      <c r="L88" s="315"/>
-      <c r="M88" s="313" t="s">
+      <c r="X88" s="359"/>
+      <c r="Y88" s="360"/>
+      <c r="Z88" s="364" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA88" s="365"/>
+      <c r="AB88" s="365"/>
+      <c r="AC88" s="366"/>
+      <c r="AD88" s="312" t="s">
         <v>109</v>
       </c>
-      <c r="N88" s="314"/>
-      <c r="O88" s="314"/>
-      <c r="P88" s="314"/>
-      <c r="Q88" s="314"/>
-      <c r="R88" s="314"/>
-      <c r="S88" s="314"/>
-      <c r="T88" s="314"/>
-      <c r="U88" s="314"/>
-      <c r="V88" s="315"/>
-      <c r="W88" s="318" t="s">
-        <v>110</v>
-      </c>
-      <c r="X88" s="319"/>
-      <c r="Y88" s="320"/>
-      <c r="Z88" s="324" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA88" s="325"/>
-      <c r="AB88" s="325"/>
-      <c r="AC88" s="326"/>
-      <c r="AD88" s="313" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE88" s="314"/>
-      <c r="AF88" s="314"/>
-      <c r="AG88" s="315"/>
+      <c r="AE88" s="313"/>
+      <c r="AF88" s="313"/>
+      <c r="AG88" s="314"/>
       <c r="AI88" s="127"/>
       <c r="AJ88" s="127"/>
       <c r="AK88" s="127"/>
@@ -9125,7 +9138,7 @@
       <c r="BD88" s="128"/>
       <c r="BE88" s="128"/>
     </row>
-    <row r="89" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D89" s="42"/>
       <c r="E89" s="124"/>
       <c r="F89" s="56"/>
@@ -9181,19 +9194,19 @@
       <c r="BD89" s="128"/>
       <c r="BE89" s="128"/>
     </row>
-    <row r="90" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D90" s="38"/>
       <c r="E90" s="124"/>
       <c r="F90" s="56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D91" s="38"/>
       <c r="E91" s="124"/>
       <c r="F91" s="124"/>
     </row>
-    <row r="92" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="38"/>
       <c r="B92" s="44"/>
       <c r="C92" s="38"/>
@@ -9230,89 +9243,89 @@
       <c r="AI92" s="126"/>
       <c r="AJ92" s="107"/>
     </row>
-    <row r="93" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C93" s="42"/>
       <c r="D93" s="124"/>
       <c r="E93" s="124"/>
       <c r="AP93" s="42"/>
     </row>
-    <row r="94" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E94" s="54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="F95" s="54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="5:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G97" s="370" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="95" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="F95" s="54" t="s">
+      <c r="H97" s="371"/>
+      <c r="I97" s="371"/>
+      <c r="J97" s="371"/>
+      <c r="K97" s="371"/>
+      <c r="L97" s="371"/>
+      <c r="M97" s="371"/>
+      <c r="N97" s="371"/>
+      <c r="O97" s="371"/>
+      <c r="P97" s="372"/>
+      <c r="Q97" s="373" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="97" spans="5:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G97" s="295" t="s">
-        <v>115</v>
-      </c>
-      <c r="H97" s="296"/>
-      <c r="I97" s="296"/>
-      <c r="J97" s="296"/>
-      <c r="K97" s="296"/>
-      <c r="L97" s="296"/>
-      <c r="M97" s="296"/>
-      <c r="N97" s="296"/>
-      <c r="O97" s="296"/>
-      <c r="P97" s="297"/>
-      <c r="Q97" s="330" t="s">
-        <v>116</v>
-      </c>
-      <c r="R97" s="331"/>
-      <c r="S97" s="331"/>
-      <c r="T97" s="331"/>
-      <c r="U97" s="331"/>
-      <c r="V97" s="331"/>
-      <c r="W97" s="331"/>
-      <c r="X97" s="331"/>
-      <c r="Y97" s="331"/>
-      <c r="Z97" s="332"/>
-    </row>
-    <row r="98" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G98" s="298" t="s">
-        <v>171</v>
-      </c>
-      <c r="H98" s="299"/>
-      <c r="I98" s="299"/>
-      <c r="J98" s="299"/>
-      <c r="K98" s="299"/>
-      <c r="L98" s="299"/>
-      <c r="M98" s="299"/>
-      <c r="N98" s="299"/>
-      <c r="O98" s="299"/>
-      <c r="P98" s="300"/>
-      <c r="Q98" s="304" t="s">
-        <v>172</v>
-      </c>
-      <c r="R98" s="305"/>
-      <c r="S98" s="305"/>
-      <c r="T98" s="305"/>
-      <c r="U98" s="305"/>
-      <c r="V98" s="305"/>
-      <c r="W98" s="305"/>
-      <c r="X98" s="305"/>
-      <c r="Y98" s="305"/>
-      <c r="Z98" s="306"/>
+      <c r="R97" s="374"/>
+      <c r="S97" s="374"/>
+      <c r="T97" s="374"/>
+      <c r="U97" s="374"/>
+      <c r="V97" s="374"/>
+      <c r="W97" s="374"/>
+      <c r="X97" s="374"/>
+      <c r="Y97" s="374"/>
+      <c r="Z97" s="375"/>
+    </row>
+    <row r="98" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G98" s="346" t="s">
+        <v>164</v>
+      </c>
+      <c r="H98" s="347"/>
+      <c r="I98" s="347"/>
+      <c r="J98" s="347"/>
+      <c r="K98" s="347"/>
+      <c r="L98" s="347"/>
+      <c r="M98" s="347"/>
+      <c r="N98" s="347"/>
+      <c r="O98" s="347"/>
+      <c r="P98" s="348"/>
+      <c r="Q98" s="341" t="s">
+        <v>165</v>
+      </c>
+      <c r="R98" s="342"/>
+      <c r="S98" s="342"/>
+      <c r="T98" s="342"/>
+      <c r="U98" s="342"/>
+      <c r="V98" s="342"/>
+      <c r="W98" s="342"/>
+      <c r="X98" s="342"/>
+      <c r="Y98" s="342"/>
+      <c r="Z98" s="343"/>
       <c r="AG98" s="132"/>
       <c r="AH98" s="132"/>
     </row>
-    <row r="99" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G99" s="301"/>
-      <c r="H99" s="302"/>
-      <c r="I99" s="302"/>
-      <c r="J99" s="302"/>
-      <c r="K99" s="302"/>
-      <c r="L99" s="302"/>
-      <c r="M99" s="302"/>
-      <c r="N99" s="302"/>
-      <c r="O99" s="302"/>
-      <c r="P99" s="303"/>
+    <row r="99" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G99" s="349"/>
+      <c r="H99" s="350"/>
+      <c r="I99" s="350"/>
+      <c r="J99" s="350"/>
+      <c r="K99" s="350"/>
+      <c r="L99" s="350"/>
+      <c r="M99" s="350"/>
+      <c r="N99" s="350"/>
+      <c r="O99" s="350"/>
+      <c r="P99" s="351"/>
       <c r="Q99" s="133" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R99" s="134"/>
       <c r="S99" s="134"/>
@@ -9326,19 +9339,19 @@
       <c r="AG99" s="132"/>
       <c r="AH99" s="132"/>
     </row>
-    <row r="100" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G100" s="301"/>
-      <c r="H100" s="302"/>
-      <c r="I100" s="302"/>
-      <c r="J100" s="302"/>
-      <c r="K100" s="302"/>
-      <c r="L100" s="302"/>
-      <c r="M100" s="302"/>
-      <c r="N100" s="302"/>
-      <c r="O100" s="302"/>
-      <c r="P100" s="303"/>
+    <row r="100" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G100" s="349"/>
+      <c r="H100" s="350"/>
+      <c r="I100" s="350"/>
+      <c r="J100" s="350"/>
+      <c r="K100" s="350"/>
+      <c r="L100" s="350"/>
+      <c r="M100" s="350"/>
+      <c r="N100" s="350"/>
+      <c r="O100" s="350"/>
+      <c r="P100" s="351"/>
       <c r="Q100" s="133" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R100" s="134"/>
       <c r="S100" s="134"/>
@@ -9352,19 +9365,19 @@
       <c r="AG100" s="132"/>
       <c r="AH100" s="132"/>
     </row>
-    <row r="101" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G101" s="301"/>
-      <c r="H101" s="302"/>
-      <c r="I101" s="302"/>
-      <c r="J101" s="302"/>
-      <c r="K101" s="302"/>
-      <c r="L101" s="302"/>
-      <c r="M101" s="302"/>
-      <c r="N101" s="302"/>
-      <c r="O101" s="302"/>
-      <c r="P101" s="303"/>
+    <row r="101" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G101" s="349"/>
+      <c r="H101" s="350"/>
+      <c r="I101" s="350"/>
+      <c r="J101" s="350"/>
+      <c r="K101" s="350"/>
+      <c r="L101" s="350"/>
+      <c r="M101" s="350"/>
+      <c r="N101" s="350"/>
+      <c r="O101" s="350"/>
+      <c r="P101" s="351"/>
       <c r="Q101" s="171" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R101" s="134"/>
       <c r="S101" s="134"/>
@@ -9378,55 +9391,55 @@
       <c r="AG101" s="132"/>
       <c r="AH101" s="132"/>
     </row>
-    <row r="102" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G102" s="301"/>
-      <c r="H102" s="302"/>
-      <c r="I102" s="302"/>
-      <c r="J102" s="302"/>
-      <c r="K102" s="302"/>
-      <c r="L102" s="302"/>
-      <c r="M102" s="302"/>
-      <c r="N102" s="302"/>
-      <c r="O102" s="302"/>
-      <c r="P102" s="303"/>
-      <c r="Q102" s="304" t="s">
-        <v>176</v>
-      </c>
-      <c r="R102" s="305"/>
-      <c r="S102" s="305"/>
-      <c r="T102" s="305"/>
-      <c r="U102" s="305"/>
-      <c r="V102" s="305"/>
-      <c r="W102" s="305"/>
-      <c r="X102" s="305"/>
-      <c r="Y102" s="305"/>
-      <c r="Z102" s="306"/>
+    <row r="102" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G102" s="349"/>
+      <c r="H102" s="350"/>
+      <c r="I102" s="350"/>
+      <c r="J102" s="350"/>
+      <c r="K102" s="350"/>
+      <c r="L102" s="350"/>
+      <c r="M102" s="350"/>
+      <c r="N102" s="350"/>
+      <c r="O102" s="350"/>
+      <c r="P102" s="351"/>
+      <c r="Q102" s="341" t="s">
+        <v>168</v>
+      </c>
+      <c r="R102" s="342"/>
+      <c r="S102" s="342"/>
+      <c r="T102" s="342"/>
+      <c r="U102" s="342"/>
+      <c r="V102" s="342"/>
+      <c r="W102" s="342"/>
+      <c r="X102" s="342"/>
+      <c r="Y102" s="342"/>
+      <c r="Z102" s="343"/>
       <c r="AG102" s="132"/>
       <c r="AH102" s="132"/>
     </row>
-    <row r="103" spans="5:58" x14ac:dyDescent="0.2">
-      <c r="G103" s="301"/>
-      <c r="H103" s="302"/>
-      <c r="I103" s="302"/>
-      <c r="J103" s="302"/>
-      <c r="K103" s="302"/>
-      <c r="L103" s="302"/>
-      <c r="M103" s="302"/>
-      <c r="N103" s="302"/>
-      <c r="O103" s="302"/>
-      <c r="P103" s="303"/>
-      <c r="Q103" s="304" t="s">
-        <v>177</v>
-      </c>
-      <c r="R103" s="305"/>
-      <c r="S103" s="305"/>
-      <c r="T103" s="305"/>
-      <c r="U103" s="305"/>
-      <c r="V103" s="305"/>
-      <c r="W103" s="305"/>
-      <c r="X103" s="305"/>
-      <c r="Y103" s="305"/>
-      <c r="Z103" s="306"/>
+    <row r="103" spans="5:58" x14ac:dyDescent="0.25">
+      <c r="G103" s="349"/>
+      <c r="H103" s="350"/>
+      <c r="I103" s="350"/>
+      <c r="J103" s="350"/>
+      <c r="K103" s="350"/>
+      <c r="L103" s="350"/>
+      <c r="M103" s="350"/>
+      <c r="N103" s="350"/>
+      <c r="O103" s="350"/>
+      <c r="P103" s="351"/>
+      <c r="Q103" s="341" t="s">
+        <v>169</v>
+      </c>
+      <c r="R103" s="342"/>
+      <c r="S103" s="342"/>
+      <c r="T103" s="342"/>
+      <c r="U103" s="342"/>
+      <c r="V103" s="342"/>
+      <c r="W103" s="342"/>
+      <c r="X103" s="342"/>
+      <c r="Y103" s="342"/>
+      <c r="Z103" s="343"/>
       <c r="AC103" s="128"/>
       <c r="AD103" s="128"/>
       <c r="AE103" s="128"/>
@@ -9444,31 +9457,31 @@
       <c r="AX103" s="128"/>
       <c r="AY103" s="128"/>
     </row>
-    <row r="104" spans="5:58" x14ac:dyDescent="0.2">
-      <c r="G104" s="298" t="s">
-        <v>178</v>
-      </c>
-      <c r="H104" s="299"/>
-      <c r="I104" s="299"/>
-      <c r="J104" s="299"/>
-      <c r="K104" s="299"/>
-      <c r="L104" s="299"/>
-      <c r="M104" s="299"/>
-      <c r="N104" s="299"/>
-      <c r="O104" s="299"/>
-      <c r="P104" s="300"/>
-      <c r="Q104" s="304" t="s">
-        <v>179</v>
-      </c>
-      <c r="R104" s="305"/>
-      <c r="S104" s="305"/>
-      <c r="T104" s="305"/>
-      <c r="U104" s="305"/>
-      <c r="V104" s="305"/>
-      <c r="W104" s="305"/>
-      <c r="X104" s="305"/>
-      <c r="Y104" s="305"/>
-      <c r="Z104" s="306"/>
+    <row r="104" spans="5:58" x14ac:dyDescent="0.25">
+      <c r="G104" s="346" t="s">
+        <v>170</v>
+      </c>
+      <c r="H104" s="347"/>
+      <c r="I104" s="347"/>
+      <c r="J104" s="347"/>
+      <c r="K104" s="347"/>
+      <c r="L104" s="347"/>
+      <c r="M104" s="347"/>
+      <c r="N104" s="347"/>
+      <c r="O104" s="347"/>
+      <c r="P104" s="348"/>
+      <c r="Q104" s="341" t="s">
+        <v>171</v>
+      </c>
+      <c r="R104" s="342"/>
+      <c r="S104" s="342"/>
+      <c r="T104" s="342"/>
+      <c r="U104" s="342"/>
+      <c r="V104" s="342"/>
+      <c r="W104" s="342"/>
+      <c r="X104" s="342"/>
+      <c r="Y104" s="342"/>
+      <c r="Z104" s="343"/>
       <c r="AC104" s="128"/>
       <c r="AD104" s="128"/>
       <c r="AE104" s="128"/>
@@ -9486,29 +9499,29 @@
       <c r="AX104" s="128"/>
       <c r="AY104" s="128"/>
     </row>
-    <row r="105" spans="5:58" x14ac:dyDescent="0.2">
-      <c r="G105" s="321"/>
-      <c r="H105" s="322"/>
-      <c r="I105" s="322"/>
-      <c r="J105" s="322"/>
-      <c r="K105" s="322"/>
-      <c r="L105" s="322"/>
-      <c r="M105" s="322"/>
-      <c r="N105" s="322"/>
-      <c r="O105" s="322"/>
-      <c r="P105" s="323"/>
-      <c r="Q105" s="304" t="s">
-        <v>180</v>
-      </c>
-      <c r="R105" s="305"/>
-      <c r="S105" s="305"/>
-      <c r="T105" s="305"/>
-      <c r="U105" s="305"/>
-      <c r="V105" s="305"/>
-      <c r="W105" s="305"/>
-      <c r="X105" s="305"/>
-      <c r="Y105" s="305"/>
-      <c r="Z105" s="306"/>
+    <row r="105" spans="5:58" x14ac:dyDescent="0.25">
+      <c r="G105" s="361"/>
+      <c r="H105" s="362"/>
+      <c r="I105" s="362"/>
+      <c r="J105" s="362"/>
+      <c r="K105" s="362"/>
+      <c r="L105" s="362"/>
+      <c r="M105" s="362"/>
+      <c r="N105" s="362"/>
+      <c r="O105" s="362"/>
+      <c r="P105" s="363"/>
+      <c r="Q105" s="341" t="s">
+        <v>172</v>
+      </c>
+      <c r="R105" s="342"/>
+      <c r="S105" s="342"/>
+      <c r="T105" s="342"/>
+      <c r="U105" s="342"/>
+      <c r="V105" s="342"/>
+      <c r="W105" s="342"/>
+      <c r="X105" s="342"/>
+      <c r="Y105" s="342"/>
+      <c r="Z105" s="343"/>
       <c r="AC105" s="128"/>
       <c r="AD105" s="128"/>
       <c r="AE105" s="128"/>
@@ -9526,29 +9539,29 @@
       <c r="AX105" s="128"/>
       <c r="AY105" s="128"/>
     </row>
-    <row r="106" spans="5:58" x14ac:dyDescent="0.2">
-      <c r="G106" s="307" t="s">
-        <v>118</v>
-      </c>
-      <c r="H106" s="308"/>
-      <c r="I106" s="308"/>
-      <c r="J106" s="308"/>
-      <c r="K106" s="308"/>
-      <c r="L106" s="308"/>
-      <c r="M106" s="308"/>
-      <c r="N106" s="308"/>
-      <c r="O106" s="308"/>
-      <c r="P106" s="308"/>
-      <c r="Q106" s="308"/>
-      <c r="R106" s="308"/>
-      <c r="S106" s="308"/>
-      <c r="T106" s="308"/>
-      <c r="U106" s="308"/>
-      <c r="V106" s="308"/>
-      <c r="W106" s="308"/>
-      <c r="X106" s="308"/>
-      <c r="Y106" s="308"/>
-      <c r="Z106" s="309"/>
+    <row r="106" spans="5:58" x14ac:dyDescent="0.25">
+      <c r="G106" s="352" t="s">
+        <v>115</v>
+      </c>
+      <c r="H106" s="353"/>
+      <c r="I106" s="353"/>
+      <c r="J106" s="353"/>
+      <c r="K106" s="353"/>
+      <c r="L106" s="353"/>
+      <c r="M106" s="353"/>
+      <c r="N106" s="353"/>
+      <c r="O106" s="353"/>
+      <c r="P106" s="353"/>
+      <c r="Q106" s="353"/>
+      <c r="R106" s="353"/>
+      <c r="S106" s="353"/>
+      <c r="T106" s="353"/>
+      <c r="U106" s="353"/>
+      <c r="V106" s="353"/>
+      <c r="W106" s="353"/>
+      <c r="X106" s="353"/>
+      <c r="Y106" s="353"/>
+      <c r="Z106" s="354"/>
       <c r="AJ106" s="128"/>
       <c r="AK106" s="128"/>
       <c r="AL106" s="128"/>
@@ -9573,7 +9586,7 @@
       <c r="BE106" s="128"/>
       <c r="BF106" s="128"/>
     </row>
-    <row r="107" spans="5:58" x14ac:dyDescent="0.2">
+    <row r="107" spans="5:58" x14ac:dyDescent="0.25">
       <c r="G107" s="136"/>
       <c r="H107" s="137"/>
       <c r="I107" s="137"/>
@@ -9618,10 +9631,10 @@
       <c r="BE107" s="128"/>
       <c r="BF107" s="128"/>
     </row>
-    <row r="108" spans="5:58" x14ac:dyDescent="0.2">
+    <row r="108" spans="5:58" x14ac:dyDescent="0.25">
       <c r="G108" s="139"/>
       <c r="H108" s="140" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I108" s="140"/>
       <c r="J108" s="140"/>
@@ -9629,10 +9642,10 @@
       <c r="L108" s="141"/>
       <c r="N108" s="140"/>
       <c r="O108" s="141" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q108" s="140" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="R108" s="140"/>
       <c r="S108" s="140"/>
@@ -9667,7 +9680,7 @@
       <c r="BE108" s="128"/>
       <c r="BF108" s="128"/>
     </row>
-    <row r="109" spans="5:58" x14ac:dyDescent="0.2">
+    <row r="109" spans="5:58" x14ac:dyDescent="0.25">
       <c r="G109" s="144"/>
       <c r="H109" s="145"/>
       <c r="I109" s="145"/>
@@ -9712,7 +9725,7 @@
       <c r="BE109" s="128"/>
       <c r="BF109" s="128"/>
     </row>
-    <row r="110" spans="5:58" x14ac:dyDescent="0.2">
+    <row r="110" spans="5:58" x14ac:dyDescent="0.25">
       <c r="G110" s="140"/>
       <c r="H110" s="140"/>
       <c r="I110" s="140"/>
@@ -9757,7 +9770,7 @@
       <c r="BE110" s="128"/>
       <c r="BF110" s="128"/>
     </row>
-    <row r="111" spans="5:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="5:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AI111" s="127"/>
       <c r="AJ111" s="127"/>
       <c r="AK111" s="127"/>
@@ -9782,9 +9795,9 @@
       <c r="BD111" s="127"/>
       <c r="BE111" s="127"/>
     </row>
-    <row r="112" spans="5:58" x14ac:dyDescent="0.2">
+    <row r="112" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E112" s="54" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G112" s="44"/>
       <c r="AJ112" s="128"/>
@@ -9811,14 +9824,14 @@
       <c r="BE112" s="128"/>
       <c r="BF112" s="128"/>
     </row>
-    <row r="113" spans="4:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D113" s="38"/>
       <c r="E113" s="124"/>
     </row>
-    <row r="114" spans="4:58" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E114" s="66"/>
       <c r="F114" s="66" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AJ114" s="128"/>
       <c r="AK114" s="128"/>
@@ -9844,11 +9857,11 @@
       <c r="BE114" s="128"/>
       <c r="BF114" s="128"/>
     </row>
-    <row r="115" spans="4:58" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E115" s="66"/>
       <c r="F115" s="129"/>
       <c r="G115" s="66" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AJ115" s="128"/>
       <c r="AK115" s="128"/>
@@ -9874,11 +9887,11 @@
       <c r="BE115" s="128"/>
       <c r="BF115" s="128"/>
     </row>
-    <row r="116" spans="4:58" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E116" s="66"/>
       <c r="F116" s="129"/>
       <c r="H116" s="73" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I116" s="150"/>
       <c r="J116" s="150"/>
@@ -9911,7 +9924,7 @@
       <c r="BE116" s="128"/>
       <c r="BF116" s="128"/>
     </row>
-    <row r="117" spans="4:58" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E117" s="66"/>
       <c r="F117" s="129"/>
       <c r="G117" s="66"/>
@@ -9939,10 +9952,10 @@
       <c r="BE117" s="128"/>
       <c r="BF117" s="128"/>
     </row>
-    <row r="118" spans="4:58" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E118" s="66"/>
       <c r="F118" s="66" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AJ118" s="128"/>
       <c r="AK118" s="128"/>
@@ -9968,38 +9981,38 @@
       <c r="BE118" s="128"/>
       <c r="BF118" s="128"/>
     </row>
-    <row r="119" spans="4:58" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E119" s="66"/>
       <c r="F119" s="129"/>
-      <c r="G119" s="283" t="s">
-        <v>126</v>
-      </c>
-      <c r="H119" s="283"/>
-      <c r="I119" s="283"/>
-      <c r="J119" s="283"/>
-      <c r="K119" s="283"/>
-      <c r="L119" s="283"/>
-      <c r="M119" s="283"/>
-      <c r="N119" s="283"/>
-      <c r="O119" s="283"/>
-      <c r="P119" s="283"/>
-      <c r="Q119" s="283"/>
-      <c r="R119" s="283"/>
-      <c r="S119" s="283"/>
-      <c r="T119" s="283"/>
-      <c r="U119" s="283"/>
-      <c r="V119" s="283"/>
-      <c r="W119" s="283"/>
-      <c r="X119" s="283"/>
-      <c r="Y119" s="283"/>
-      <c r="Z119" s="283"/>
-      <c r="AA119" s="283"/>
-      <c r="AB119" s="283"/>
-      <c r="AC119" s="283"/>
-      <c r="AD119" s="283"/>
-      <c r="AE119" s="283"/>
-      <c r="AF119" s="283"/>
-      <c r="AG119" s="283"/>
+      <c r="G119" s="379" t="s">
+        <v>122</v>
+      </c>
+      <c r="H119" s="379"/>
+      <c r="I119" s="379"/>
+      <c r="J119" s="379"/>
+      <c r="K119" s="379"/>
+      <c r="L119" s="379"/>
+      <c r="M119" s="379"/>
+      <c r="N119" s="379"/>
+      <c r="O119" s="379"/>
+      <c r="P119" s="379"/>
+      <c r="Q119" s="379"/>
+      <c r="R119" s="379"/>
+      <c r="S119" s="379"/>
+      <c r="T119" s="379"/>
+      <c r="U119" s="379"/>
+      <c r="V119" s="379"/>
+      <c r="W119" s="379"/>
+      <c r="X119" s="379"/>
+      <c r="Y119" s="379"/>
+      <c r="Z119" s="379"/>
+      <c r="AA119" s="379"/>
+      <c r="AB119" s="379"/>
+      <c r="AC119" s="379"/>
+      <c r="AD119" s="379"/>
+      <c r="AE119" s="379"/>
+      <c r="AF119" s="379"/>
+      <c r="AG119" s="379"/>
       <c r="AJ119" s="128"/>
       <c r="AK119" s="128"/>
       <c r="AL119" s="128"/>
@@ -10024,36 +10037,36 @@
       <c r="BE119" s="128"/>
       <c r="BF119" s="128"/>
     </row>
-    <row r="120" spans="4:58" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E120" s="66"/>
       <c r="F120" s="129"/>
-      <c r="G120" s="283"/>
-      <c r="H120" s="283"/>
-      <c r="I120" s="283"/>
-      <c r="J120" s="283"/>
-      <c r="K120" s="283"/>
-      <c r="L120" s="283"/>
-      <c r="M120" s="283"/>
-      <c r="N120" s="283"/>
-      <c r="O120" s="283"/>
-      <c r="P120" s="283"/>
-      <c r="Q120" s="283"/>
-      <c r="R120" s="283"/>
-      <c r="S120" s="283"/>
-      <c r="T120" s="283"/>
-      <c r="U120" s="283"/>
-      <c r="V120" s="283"/>
-      <c r="W120" s="283"/>
-      <c r="X120" s="283"/>
-      <c r="Y120" s="283"/>
-      <c r="Z120" s="283"/>
-      <c r="AA120" s="283"/>
-      <c r="AB120" s="283"/>
-      <c r="AC120" s="283"/>
-      <c r="AD120" s="283"/>
-      <c r="AE120" s="283"/>
-      <c r="AF120" s="283"/>
-      <c r="AG120" s="283"/>
+      <c r="G120" s="379"/>
+      <c r="H120" s="379"/>
+      <c r="I120" s="379"/>
+      <c r="J120" s="379"/>
+      <c r="K120" s="379"/>
+      <c r="L120" s="379"/>
+      <c r="M120" s="379"/>
+      <c r="N120" s="379"/>
+      <c r="O120" s="379"/>
+      <c r="P120" s="379"/>
+      <c r="Q120" s="379"/>
+      <c r="R120" s="379"/>
+      <c r="S120" s="379"/>
+      <c r="T120" s="379"/>
+      <c r="U120" s="379"/>
+      <c r="V120" s="379"/>
+      <c r="W120" s="379"/>
+      <c r="X120" s="379"/>
+      <c r="Y120" s="379"/>
+      <c r="Z120" s="379"/>
+      <c r="AA120" s="379"/>
+      <c r="AB120" s="379"/>
+      <c r="AC120" s="379"/>
+      <c r="AD120" s="379"/>
+      <c r="AE120" s="379"/>
+      <c r="AF120" s="379"/>
+      <c r="AG120" s="379"/>
       <c r="AJ120" s="128"/>
       <c r="AK120" s="128"/>
       <c r="AL120" s="128"/>
@@ -10078,12 +10091,12 @@
       <c r="BE120" s="128"/>
       <c r="BF120" s="128"/>
     </row>
-    <row r="121" spans="4:58" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E121" s="66"/>
       <c r="F121" s="129"/>
       <c r="G121" s="66"/>
       <c r="H121" s="73" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AJ121" s="128"/>
       <c r="AK121" s="128"/>
@@ -10109,10 +10122,10 @@
       <c r="BE121" s="128"/>
       <c r="BF121" s="128"/>
     </row>
-    <row r="122" spans="4:58" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E122" s="66"/>
       <c r="F122" s="66" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AJ122" s="128"/>
       <c r="AK122" s="128"/>
@@ -10138,11 +10151,11 @@
       <c r="BE122" s="128"/>
       <c r="BF122" s="128"/>
     </row>
-    <row r="123" spans="4:58" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E123" s="66"/>
       <c r="F123" s="129"/>
       <c r="G123" s="66" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AJ123" s="128"/>
       <c r="AK123" s="128"/>
@@ -10168,11 +10181,11 @@
       <c r="BE123" s="128"/>
       <c r="BF123" s="128"/>
     </row>
-    <row r="124" spans="4:58" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E124" s="66"/>
       <c r="F124" s="129"/>
       <c r="H124" s="73" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I124" s="150"/>
       <c r="J124" s="150"/>
@@ -10204,7 +10217,7 @@
       <c r="BE124" s="128"/>
       <c r="BF124" s="128"/>
     </row>
-    <row r="125" spans="4:58" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E125" s="66"/>
       <c r="F125" s="129"/>
       <c r="G125" s="66"/>
@@ -10232,10 +10245,10 @@
       <c r="BE125" s="128"/>
       <c r="BF125" s="128"/>
     </row>
-    <row r="126" spans="4:58" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E126" s="66"/>
       <c r="F126" s="66" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AJ126" s="128"/>
       <c r="AK126" s="128"/>
@@ -10261,38 +10274,38 @@
       <c r="BE126" s="128"/>
       <c r="BF126" s="128"/>
     </row>
-    <row r="127" spans="4:58" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E127" s="66"/>
       <c r="F127" s="129"/>
-      <c r="G127" s="283" t="s">
-        <v>130</v>
-      </c>
-      <c r="H127" s="283"/>
-      <c r="I127" s="283"/>
-      <c r="J127" s="283"/>
-      <c r="K127" s="283"/>
-      <c r="L127" s="283"/>
-      <c r="M127" s="283"/>
-      <c r="N127" s="283"/>
-      <c r="O127" s="283"/>
-      <c r="P127" s="283"/>
-      <c r="Q127" s="283"/>
-      <c r="R127" s="283"/>
-      <c r="S127" s="283"/>
-      <c r="T127" s="283"/>
-      <c r="U127" s="283"/>
-      <c r="V127" s="283"/>
-      <c r="W127" s="283"/>
-      <c r="X127" s="283"/>
-      <c r="Y127" s="283"/>
-      <c r="Z127" s="283"/>
-      <c r="AA127" s="283"/>
-      <c r="AB127" s="283"/>
-      <c r="AC127" s="283"/>
-      <c r="AD127" s="283"/>
-      <c r="AE127" s="283"/>
-      <c r="AF127" s="283"/>
-      <c r="AG127" s="283"/>
+      <c r="G127" s="379" t="s">
+        <v>126</v>
+      </c>
+      <c r="H127" s="379"/>
+      <c r="I127" s="379"/>
+      <c r="J127" s="379"/>
+      <c r="K127" s="379"/>
+      <c r="L127" s="379"/>
+      <c r="M127" s="379"/>
+      <c r="N127" s="379"/>
+      <c r="O127" s="379"/>
+      <c r="P127" s="379"/>
+      <c r="Q127" s="379"/>
+      <c r="R127" s="379"/>
+      <c r="S127" s="379"/>
+      <c r="T127" s="379"/>
+      <c r="U127" s="379"/>
+      <c r="V127" s="379"/>
+      <c r="W127" s="379"/>
+      <c r="X127" s="379"/>
+      <c r="Y127" s="379"/>
+      <c r="Z127" s="379"/>
+      <c r="AA127" s="379"/>
+      <c r="AB127" s="379"/>
+      <c r="AC127" s="379"/>
+      <c r="AD127" s="379"/>
+      <c r="AE127" s="379"/>
+      <c r="AF127" s="379"/>
+      <c r="AG127" s="379"/>
       <c r="AJ127" s="128"/>
       <c r="AK127" s="128"/>
       <c r="AL127" s="128"/>
@@ -10317,36 +10330,36 @@
       <c r="BE127" s="128"/>
       <c r="BF127" s="128"/>
     </row>
-    <row r="128" spans="4:58" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E128" s="66"/>
       <c r="F128" s="129"/>
-      <c r="G128" s="283"/>
-      <c r="H128" s="283"/>
-      <c r="I128" s="283"/>
-      <c r="J128" s="283"/>
-      <c r="K128" s="283"/>
-      <c r="L128" s="283"/>
-      <c r="M128" s="283"/>
-      <c r="N128" s="283"/>
-      <c r="O128" s="283"/>
-      <c r="P128" s="283"/>
-      <c r="Q128" s="283"/>
-      <c r="R128" s="283"/>
-      <c r="S128" s="283"/>
-      <c r="T128" s="283"/>
-      <c r="U128" s="283"/>
-      <c r="V128" s="283"/>
-      <c r="W128" s="283"/>
-      <c r="X128" s="283"/>
-      <c r="Y128" s="283"/>
-      <c r="Z128" s="283"/>
-      <c r="AA128" s="283"/>
-      <c r="AB128" s="283"/>
-      <c r="AC128" s="283"/>
-      <c r="AD128" s="283"/>
-      <c r="AE128" s="283"/>
-      <c r="AF128" s="283"/>
-      <c r="AG128" s="283"/>
+      <c r="G128" s="379"/>
+      <c r="H128" s="379"/>
+      <c r="I128" s="379"/>
+      <c r="J128" s="379"/>
+      <c r="K128" s="379"/>
+      <c r="L128" s="379"/>
+      <c r="M128" s="379"/>
+      <c r="N128" s="379"/>
+      <c r="O128" s="379"/>
+      <c r="P128" s="379"/>
+      <c r="Q128" s="379"/>
+      <c r="R128" s="379"/>
+      <c r="S128" s="379"/>
+      <c r="T128" s="379"/>
+      <c r="U128" s="379"/>
+      <c r="V128" s="379"/>
+      <c r="W128" s="379"/>
+      <c r="X128" s="379"/>
+      <c r="Y128" s="379"/>
+      <c r="Z128" s="379"/>
+      <c r="AA128" s="379"/>
+      <c r="AB128" s="379"/>
+      <c r="AC128" s="379"/>
+      <c r="AD128" s="379"/>
+      <c r="AE128" s="379"/>
+      <c r="AF128" s="379"/>
+      <c r="AG128" s="379"/>
       <c r="AJ128" s="128"/>
       <c r="AK128" s="128"/>
       <c r="AL128" s="128"/>
@@ -10371,11 +10384,11 @@
       <c r="BE128" s="128"/>
       <c r="BF128" s="128"/>
     </row>
-    <row r="129" spans="5:59" x14ac:dyDescent="0.2">
+    <row r="129" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E129" s="66"/>
       <c r="F129" s="129"/>
       <c r="H129" s="73" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I129" s="150"/>
       <c r="J129" s="150"/>
@@ -10407,7 +10420,7 @@
       <c r="BE129" s="128"/>
       <c r="BF129" s="128"/>
     </row>
-    <row r="130" spans="5:59" x14ac:dyDescent="0.2">
+    <row r="130" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E130" s="66"/>
       <c r="F130" s="129"/>
       <c r="G130" s="66"/>
@@ -10435,33 +10448,33 @@
       <c r="BE130" s="128"/>
       <c r="BF130" s="128"/>
     </row>
-    <row r="131" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H131" s="290" t="s">
+    <row r="131" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H131" s="332" t="s">
         <v>30</v>
       </c>
       <c r="I131" s="266" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J131" s="267"/>
       <c r="K131" s="267"/>
       <c r="L131" s="267"/>
       <c r="M131" s="267"/>
       <c r="N131" s="268"/>
-      <c r="O131" s="292" t="s">
-        <v>132</v>
-      </c>
-      <c r="P131" s="293"/>
-      <c r="Q131" s="293"/>
-      <c r="R131" s="293"/>
-      <c r="S131" s="293"/>
-      <c r="T131" s="293"/>
-      <c r="U131" s="293"/>
-      <c r="V131" s="293"/>
-      <c r="W131" s="293"/>
-      <c r="X131" s="293"/>
-      <c r="Y131" s="294"/>
+      <c r="O131" s="384" t="s">
+        <v>128</v>
+      </c>
+      <c r="P131" s="385"/>
+      <c r="Q131" s="385"/>
+      <c r="R131" s="385"/>
+      <c r="S131" s="385"/>
+      <c r="T131" s="385"/>
+      <c r="U131" s="385"/>
+      <c r="V131" s="385"/>
+      <c r="W131" s="385"/>
+      <c r="X131" s="385"/>
+      <c r="Y131" s="386"/>
       <c r="Z131" s="266" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA131" s="267"/>
       <c r="AB131" s="267"/>
@@ -10469,34 +10482,34 @@
       <c r="AD131" s="267"/>
       <c r="AE131" s="268"/>
       <c r="AF131" s="151" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG131" s="152"/>
       <c r="AH131" s="153"/>
     </row>
-    <row r="132" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H132" s="291"/>
+    <row r="132" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H132" s="334"/>
       <c r="I132" s="272"/>
       <c r="J132" s="273"/>
       <c r="K132" s="273"/>
       <c r="L132" s="273"/>
       <c r="M132" s="273"/>
       <c r="N132" s="274"/>
-      <c r="O132" s="292" t="s">
-        <v>63</v>
-      </c>
-      <c r="P132" s="293"/>
-      <c r="Q132" s="293"/>
-      <c r="R132" s="293"/>
-      <c r="S132" s="294"/>
-      <c r="T132" s="295" t="s">
-        <v>133</v>
-      </c>
-      <c r="U132" s="296"/>
-      <c r="V132" s="296"/>
-      <c r="W132" s="296"/>
-      <c r="X132" s="296"/>
-      <c r="Y132" s="297"/>
+      <c r="O132" s="384" t="s">
+        <v>62</v>
+      </c>
+      <c r="P132" s="385"/>
+      <c r="Q132" s="385"/>
+      <c r="R132" s="385"/>
+      <c r="S132" s="386"/>
+      <c r="T132" s="370" t="s">
+        <v>129</v>
+      </c>
+      <c r="U132" s="371"/>
+      <c r="V132" s="371"/>
+      <c r="W132" s="371"/>
+      <c r="X132" s="371"/>
+      <c r="Y132" s="372"/>
       <c r="Z132" s="272"/>
       <c r="AA132" s="273"/>
       <c r="AB132" s="273"/>
@@ -10507,48 +10520,48 @@
       <c r="AG132" s="155"/>
       <c r="AH132" s="156"/>
     </row>
-    <row r="133" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H133" s="104">
         <v>1</v>
       </c>
-      <c r="I133" s="284" t="s">
-        <v>117</v>
-      </c>
-      <c r="J133" s="285"/>
-      <c r="K133" s="285"/>
-      <c r="L133" s="285"/>
-      <c r="M133" s="285"/>
-      <c r="N133" s="286"/>
+      <c r="I133" s="380" t="s">
+        <v>176</v>
+      </c>
+      <c r="J133" s="381"/>
+      <c r="K133" s="381"/>
+      <c r="L133" s="381"/>
+      <c r="M133" s="381"/>
+      <c r="N133" s="382"/>
       <c r="O133" s="157" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="P133" s="158"/>
       <c r="Q133" s="158"/>
       <c r="R133" s="158"/>
       <c r="S133" s="159"/>
-      <c r="T133" s="284" t="s">
+      <c r="T133" s="380" t="s">
         <v>39</v>
       </c>
-      <c r="U133" s="285"/>
-      <c r="V133" s="285"/>
-      <c r="W133" s="285"/>
-      <c r="X133" s="285"/>
-      <c r="Y133" s="286"/>
-      <c r="Z133" s="287" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA133" s="288"/>
-      <c r="AB133" s="288"/>
-      <c r="AC133" s="288"/>
-      <c r="AD133" s="288"/>
-      <c r="AE133" s="289"/>
+      <c r="U133" s="381"/>
+      <c r="V133" s="381"/>
+      <c r="W133" s="381"/>
+      <c r="X133" s="381"/>
+      <c r="Y133" s="382"/>
+      <c r="Z133" s="383" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA133" s="297"/>
+      <c r="AB133" s="297"/>
+      <c r="AC133" s="297"/>
+      <c r="AD133" s="297"/>
+      <c r="AE133" s="298"/>
       <c r="AF133" s="160"/>
       <c r="AG133" s="161"/>
       <c r="AH133" s="162"/>
     </row>
-    <row r="134" spans="5:59" x14ac:dyDescent="0.2">
+    <row r="134" spans="5:59" x14ac:dyDescent="0.25">
       <c r="H134" s="163" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I134" s="164"/>
       <c r="J134" s="164"/>
@@ -10600,7 +10613,7 @@
       <c r="BF134" s="128"/>
       <c r="BG134" s="128"/>
     </row>
-    <row r="135" spans="5:59" x14ac:dyDescent="0.2">
+    <row r="135" spans="5:59" x14ac:dyDescent="0.25">
       <c r="H135" s="136"/>
       <c r="I135" s="137"/>
       <c r="J135" s="137"/>
@@ -10652,10 +10665,10 @@
       <c r="BF135" s="128"/>
       <c r="BG135" s="128"/>
     </row>
-    <row r="136" spans="5:59" x14ac:dyDescent="0.2">
+    <row r="136" spans="5:59" x14ac:dyDescent="0.25">
       <c r="H136" s="139"/>
       <c r="I136" s="140" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="J136" s="140"/>
       <c r="K136" s="140"/>
@@ -10663,10 +10676,10 @@
       <c r="M136" s="141"/>
       <c r="O136" s="140"/>
       <c r="P136" s="141" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="R136" s="140" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="S136" s="140"/>
       <c r="T136" s="140"/>
@@ -10708,7 +10721,7 @@
       <c r="BF136" s="128"/>
       <c r="BG136" s="128"/>
     </row>
-    <row r="137" spans="5:59" x14ac:dyDescent="0.2">
+    <row r="137" spans="5:59" x14ac:dyDescent="0.25">
       <c r="H137" s="144"/>
       <c r="I137" s="145"/>
       <c r="J137" s="145"/>
@@ -10760,7 +10773,7 @@
       <c r="BF137" s="128"/>
       <c r="BG137" s="128"/>
     </row>
-    <row r="138" spans="5:59" x14ac:dyDescent="0.2">
+    <row r="138" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E138" s="66"/>
       <c r="F138" s="129"/>
       <c r="G138" s="66"/>
@@ -10788,38 +10801,38 @@
       <c r="BE138" s="128"/>
       <c r="BF138" s="128"/>
     </row>
-    <row r="139" spans="5:59" x14ac:dyDescent="0.2">
+    <row r="139" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E139" s="66"/>
       <c r="F139" s="129"/>
-      <c r="G139" s="283" t="s">
-        <v>135</v>
-      </c>
-      <c r="H139" s="283"/>
-      <c r="I139" s="283"/>
-      <c r="J139" s="283"/>
-      <c r="K139" s="283"/>
-      <c r="L139" s="283"/>
-      <c r="M139" s="283"/>
-      <c r="N139" s="283"/>
-      <c r="O139" s="283"/>
-      <c r="P139" s="283"/>
-      <c r="Q139" s="283"/>
-      <c r="R139" s="283"/>
-      <c r="S139" s="283"/>
-      <c r="T139" s="283"/>
-      <c r="U139" s="283"/>
-      <c r="V139" s="283"/>
-      <c r="W139" s="283"/>
-      <c r="X139" s="283"/>
-      <c r="Y139" s="283"/>
-      <c r="Z139" s="283"/>
-      <c r="AA139" s="283"/>
-      <c r="AB139" s="283"/>
-      <c r="AC139" s="283"/>
-      <c r="AD139" s="283"/>
-      <c r="AE139" s="283"/>
-      <c r="AF139" s="283"/>
-      <c r="AG139" s="283"/>
+      <c r="G139" s="379" t="s">
+        <v>130</v>
+      </c>
+      <c r="H139" s="379"/>
+      <c r="I139" s="379"/>
+      <c r="J139" s="379"/>
+      <c r="K139" s="379"/>
+      <c r="L139" s="379"/>
+      <c r="M139" s="379"/>
+      <c r="N139" s="379"/>
+      <c r="O139" s="379"/>
+      <c r="P139" s="379"/>
+      <c r="Q139" s="379"/>
+      <c r="R139" s="379"/>
+      <c r="S139" s="379"/>
+      <c r="T139" s="379"/>
+      <c r="U139" s="379"/>
+      <c r="V139" s="379"/>
+      <c r="W139" s="379"/>
+      <c r="X139" s="379"/>
+      <c r="Y139" s="379"/>
+      <c r="Z139" s="379"/>
+      <c r="AA139" s="379"/>
+      <c r="AB139" s="379"/>
+      <c r="AC139" s="379"/>
+      <c r="AD139" s="379"/>
+      <c r="AE139" s="379"/>
+      <c r="AF139" s="379"/>
+      <c r="AG139" s="379"/>
       <c r="AJ139" s="128"/>
       <c r="AK139" s="128"/>
       <c r="AL139" s="128"/>
@@ -10844,36 +10857,36 @@
       <c r="BE139" s="128"/>
       <c r="BF139" s="128"/>
     </row>
-    <row r="140" spans="5:59" x14ac:dyDescent="0.2">
+    <row r="140" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E140" s="66"/>
       <c r="F140" s="129"/>
-      <c r="G140" s="283"/>
-      <c r="H140" s="283"/>
-      <c r="I140" s="283"/>
-      <c r="J140" s="283"/>
-      <c r="K140" s="283"/>
-      <c r="L140" s="283"/>
-      <c r="M140" s="283"/>
-      <c r="N140" s="283"/>
-      <c r="O140" s="283"/>
-      <c r="P140" s="283"/>
-      <c r="Q140" s="283"/>
-      <c r="R140" s="283"/>
-      <c r="S140" s="283"/>
-      <c r="T140" s="283"/>
-      <c r="U140" s="283"/>
-      <c r="V140" s="283"/>
-      <c r="W140" s="283"/>
-      <c r="X140" s="283"/>
-      <c r="Y140" s="283"/>
-      <c r="Z140" s="283"/>
-      <c r="AA140" s="283"/>
-      <c r="AB140" s="283"/>
-      <c r="AC140" s="283"/>
-      <c r="AD140" s="283"/>
-      <c r="AE140" s="283"/>
-      <c r="AF140" s="283"/>
-      <c r="AG140" s="283"/>
+      <c r="G140" s="379"/>
+      <c r="H140" s="379"/>
+      <c r="I140" s="379"/>
+      <c r="J140" s="379"/>
+      <c r="K140" s="379"/>
+      <c r="L140" s="379"/>
+      <c r="M140" s="379"/>
+      <c r="N140" s="379"/>
+      <c r="O140" s="379"/>
+      <c r="P140" s="379"/>
+      <c r="Q140" s="379"/>
+      <c r="R140" s="379"/>
+      <c r="S140" s="379"/>
+      <c r="T140" s="379"/>
+      <c r="U140" s="379"/>
+      <c r="V140" s="379"/>
+      <c r="W140" s="379"/>
+      <c r="X140" s="379"/>
+      <c r="Y140" s="379"/>
+      <c r="Z140" s="379"/>
+      <c r="AA140" s="379"/>
+      <c r="AB140" s="379"/>
+      <c r="AC140" s="379"/>
+      <c r="AD140" s="379"/>
+      <c r="AE140" s="379"/>
+      <c r="AF140" s="379"/>
+      <c r="AG140" s="379"/>
       <c r="AJ140" s="128"/>
       <c r="AK140" s="128"/>
       <c r="AL140" s="128"/>
@@ -10898,33 +10911,33 @@
       <c r="BE140" s="128"/>
       <c r="BF140" s="128"/>
     </row>
-    <row r="141" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H141" s="290" t="s">
+    <row r="141" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H141" s="332" t="s">
         <v>30</v>
       </c>
       <c r="I141" s="266" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J141" s="267"/>
       <c r="K141" s="267"/>
       <c r="L141" s="267"/>
       <c r="M141" s="267"/>
       <c r="N141" s="268"/>
-      <c r="O141" s="292" t="s">
-        <v>132</v>
-      </c>
-      <c r="P141" s="293"/>
-      <c r="Q141" s="293"/>
-      <c r="R141" s="293"/>
-      <c r="S141" s="293"/>
-      <c r="T141" s="293"/>
-      <c r="U141" s="293"/>
-      <c r="V141" s="293"/>
-      <c r="W141" s="293"/>
-      <c r="X141" s="293"/>
-      <c r="Y141" s="294"/>
+      <c r="O141" s="384" t="s">
+        <v>128</v>
+      </c>
+      <c r="P141" s="385"/>
+      <c r="Q141" s="385"/>
+      <c r="R141" s="385"/>
+      <c r="S141" s="385"/>
+      <c r="T141" s="385"/>
+      <c r="U141" s="385"/>
+      <c r="V141" s="385"/>
+      <c r="W141" s="385"/>
+      <c r="X141" s="385"/>
+      <c r="Y141" s="386"/>
       <c r="Z141" s="266" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA141" s="267"/>
       <c r="AB141" s="267"/>
@@ -10932,34 +10945,34 @@
       <c r="AD141" s="267"/>
       <c r="AE141" s="268"/>
       <c r="AF141" s="151" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG141" s="152"/>
       <c r="AH141" s="153"/>
     </row>
-    <row r="142" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H142" s="291"/>
+    <row r="142" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H142" s="334"/>
       <c r="I142" s="272"/>
       <c r="J142" s="273"/>
       <c r="K142" s="273"/>
       <c r="L142" s="273"/>
       <c r="M142" s="273"/>
       <c r="N142" s="274"/>
-      <c r="O142" s="292" t="s">
-        <v>63</v>
-      </c>
-      <c r="P142" s="293"/>
-      <c r="Q142" s="293"/>
-      <c r="R142" s="293"/>
-      <c r="S142" s="294"/>
-      <c r="T142" s="295" t="s">
-        <v>133</v>
-      </c>
-      <c r="U142" s="296"/>
-      <c r="V142" s="296"/>
-      <c r="W142" s="296"/>
-      <c r="X142" s="296"/>
-      <c r="Y142" s="297"/>
+      <c r="O142" s="384" t="s">
+        <v>62</v>
+      </c>
+      <c r="P142" s="385"/>
+      <c r="Q142" s="385"/>
+      <c r="R142" s="385"/>
+      <c r="S142" s="386"/>
+      <c r="T142" s="370" t="s">
+        <v>129</v>
+      </c>
+      <c r="U142" s="371"/>
+      <c r="V142" s="371"/>
+      <c r="W142" s="371"/>
+      <c r="X142" s="371"/>
+      <c r="Y142" s="372"/>
       <c r="Z142" s="272"/>
       <c r="AA142" s="273"/>
       <c r="AB142" s="273"/>
@@ -10970,18 +10983,18 @@
       <c r="AG142" s="155"/>
       <c r="AH142" s="156"/>
     </row>
-    <row r="143" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H143" s="104">
         <v>1</v>
       </c>
-      <c r="I143" s="284" t="s">
-        <v>136</v>
-      </c>
-      <c r="J143" s="285"/>
-      <c r="K143" s="285"/>
-      <c r="L143" s="285"/>
-      <c r="M143" s="285"/>
-      <c r="N143" s="286"/>
+      <c r="I143" s="380" t="s">
+        <v>180</v>
+      </c>
+      <c r="J143" s="381"/>
+      <c r="K143" s="381"/>
+      <c r="L143" s="381"/>
+      <c r="M143" s="381"/>
+      <c r="N143" s="382"/>
       <c r="O143" s="157" t="s">
         <v>39</v>
       </c>
@@ -10989,38 +11002,38 @@
       <c r="Q143" s="158"/>
       <c r="R143" s="158"/>
       <c r="S143" s="159"/>
-      <c r="T143" s="284" t="s">
+      <c r="T143" s="380" t="s">
         <v>39</v>
       </c>
-      <c r="U143" s="285"/>
-      <c r="V143" s="285"/>
-      <c r="W143" s="285"/>
-      <c r="X143" s="285"/>
-      <c r="Y143" s="286"/>
-      <c r="Z143" s="287" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA143" s="288"/>
-      <c r="AB143" s="288"/>
-      <c r="AC143" s="288"/>
-      <c r="AD143" s="288"/>
-      <c r="AE143" s="289"/>
+      <c r="U143" s="381"/>
+      <c r="V143" s="381"/>
+      <c r="W143" s="381"/>
+      <c r="X143" s="381"/>
+      <c r="Y143" s="382"/>
+      <c r="Z143" s="383" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA143" s="297"/>
+      <c r="AB143" s="297"/>
+      <c r="AC143" s="297"/>
+      <c r="AD143" s="297"/>
+      <c r="AE143" s="298"/>
       <c r="AF143" s="160"/>
       <c r="AG143" s="161"/>
       <c r="AH143" s="162"/>
     </row>
-    <row r="144" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H144" s="104">
         <v>2</v>
       </c>
-      <c r="I144" s="284" t="s">
-        <v>117</v>
-      </c>
-      <c r="J144" s="285"/>
-      <c r="K144" s="285"/>
-      <c r="L144" s="285"/>
-      <c r="M144" s="285"/>
-      <c r="N144" s="286"/>
+      <c r="I144" s="380" t="s">
+        <v>176</v>
+      </c>
+      <c r="J144" s="381"/>
+      <c r="K144" s="381"/>
+      <c r="L144" s="381"/>
+      <c r="M144" s="381"/>
+      <c r="N144" s="382"/>
       <c r="O144" s="157" t="s">
         <v>39</v>
       </c>
@@ -11028,29 +11041,29 @@
       <c r="Q144" s="158"/>
       <c r="R144" s="158"/>
       <c r="S144" s="159"/>
-      <c r="T144" s="284" t="s">
+      <c r="T144" s="380" t="s">
         <v>39</v>
       </c>
-      <c r="U144" s="285"/>
-      <c r="V144" s="285"/>
-      <c r="W144" s="285"/>
-      <c r="X144" s="285"/>
-      <c r="Y144" s="286"/>
-      <c r="Z144" s="287">
+      <c r="U144" s="381"/>
+      <c r="V144" s="381"/>
+      <c r="W144" s="381"/>
+      <c r="X144" s="381"/>
+      <c r="Y144" s="382"/>
+      <c r="Z144" s="383">
         <v>0</v>
       </c>
-      <c r="AA144" s="288"/>
-      <c r="AB144" s="288"/>
-      <c r="AC144" s="288"/>
-      <c r="AD144" s="288"/>
-      <c r="AE144" s="289"/>
+      <c r="AA144" s="297"/>
+      <c r="AB144" s="297"/>
+      <c r="AC144" s="297"/>
+      <c r="AD144" s="297"/>
+      <c r="AE144" s="298"/>
       <c r="AF144" s="160"/>
       <c r="AG144" s="161"/>
       <c r="AH144" s="162"/>
     </row>
-    <row r="145" spans="5:59" x14ac:dyDescent="0.2">
+    <row r="145" spans="5:59" x14ac:dyDescent="0.25">
       <c r="H145" s="163" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I145" s="164"/>
       <c r="J145" s="164"/>
@@ -11102,7 +11115,7 @@
       <c r="BF145" s="128"/>
       <c r="BG145" s="128"/>
     </row>
-    <row r="146" spans="5:59" x14ac:dyDescent="0.2">
+    <row r="146" spans="5:59" x14ac:dyDescent="0.25">
       <c r="H146" s="136"/>
       <c r="I146" s="137"/>
       <c r="J146" s="137"/>
@@ -11154,10 +11167,10 @@
       <c r="BF146" s="128"/>
       <c r="BG146" s="128"/>
     </row>
-    <row r="147" spans="5:59" x14ac:dyDescent="0.2">
+    <row r="147" spans="5:59" x14ac:dyDescent="0.25">
       <c r="H147" s="139"/>
       <c r="I147" s="140" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="J147" s="140"/>
       <c r="K147" s="140"/>
@@ -11165,10 +11178,10 @@
       <c r="M147" s="141"/>
       <c r="O147" s="140"/>
       <c r="P147" s="141" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="R147" s="140" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="S147" s="140"/>
       <c r="T147" s="140"/>
@@ -11210,7 +11223,7 @@
       <c r="BF147" s="128"/>
       <c r="BG147" s="128"/>
     </row>
-    <row r="148" spans="5:59" x14ac:dyDescent="0.2">
+    <row r="148" spans="5:59" x14ac:dyDescent="0.25">
       <c r="H148" s="144"/>
       <c r="I148" s="145"/>
       <c r="J148" s="145"/>
@@ -11262,7 +11275,7 @@
       <c r="BF148" s="128"/>
       <c r="BG148" s="128"/>
     </row>
-    <row r="149" spans="5:59" x14ac:dyDescent="0.2">
+    <row r="149" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E149" s="66"/>
       <c r="F149" s="129"/>
       <c r="G149" s="66"/>
@@ -11290,11 +11303,11 @@
       <c r="BE149" s="128"/>
       <c r="BF149" s="128"/>
     </row>
-    <row r="150" spans="5:59" x14ac:dyDescent="0.2">
+    <row r="150" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E150" s="66"/>
       <c r="F150" s="129"/>
       <c r="G150" s="66" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AJ150" s="128"/>
       <c r="AK150" s="128"/>
@@ -11320,7 +11333,7 @@
       <c r="BE150" s="128"/>
       <c r="BF150" s="128"/>
     </row>
-    <row r="151" spans="5:59" x14ac:dyDescent="0.2">
+    <row r="151" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E151" s="66"/>
       <c r="F151" s="129"/>
       <c r="G151" s="66"/>
@@ -11348,10 +11361,10 @@
       <c r="BE151" s="128"/>
       <c r="BF151" s="128"/>
     </row>
-    <row r="152" spans="5:59" x14ac:dyDescent="0.2">
+    <row r="152" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E152" s="66"/>
       <c r="F152" s="66" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AJ152" s="128"/>
       <c r="AK152" s="128"/>
@@ -11377,7 +11390,7 @@
       <c r="BE152" s="128"/>
       <c r="BF152" s="128"/>
     </row>
-    <row r="153" spans="5:59" x14ac:dyDescent="0.2">
+    <row r="153" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E153" s="66"/>
       <c r="F153" s="129"/>
       <c r="G153" s="66"/>
@@ -11405,7 +11418,7 @@
       <c r="BE153" s="128"/>
       <c r="BF153" s="128"/>
     </row>
-    <row r="154" spans="5:59" x14ac:dyDescent="0.2">
+    <row r="154" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E154" s="66"/>
       <c r="F154" s="66"/>
       <c r="AJ154" s="128"/>
@@ -11432,7 +11445,7 @@
       <c r="BE154" s="128"/>
       <c r="BF154" s="128"/>
     </row>
-    <row r="155" spans="5:59" x14ac:dyDescent="0.2">
+    <row r="155" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E155" s="66"/>
       <c r="F155" s="129"/>
       <c r="G155" s="66"/>
@@ -11460,7 +11473,7 @@
       <c r="BE155" s="128"/>
       <c r="BF155" s="128"/>
     </row>
-    <row r="156" spans="5:59" x14ac:dyDescent="0.2">
+    <row r="156" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E156" s="66"/>
       <c r="F156" s="129"/>
       <c r="G156" s="66"/>
@@ -11488,7 +11501,7 @@
       <c r="BE156" s="128"/>
       <c r="BF156" s="128"/>
     </row>
-    <row r="157" spans="5:59" x14ac:dyDescent="0.2">
+    <row r="157" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E157" s="66"/>
       <c r="AJ157" s="128"/>
       <c r="AK157" s="128"/>
@@ -11516,6 +11529,97 @@
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="G139:AG140"/>
+    <mergeCell ref="G127:AG128"/>
+    <mergeCell ref="G119:AG120"/>
+    <mergeCell ref="I144:N144"/>
+    <mergeCell ref="T144:Y144"/>
+    <mergeCell ref="Z144:AE144"/>
+    <mergeCell ref="I143:N143"/>
+    <mergeCell ref="T143:Y143"/>
+    <mergeCell ref="Z143:AE143"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:N142"/>
+    <mergeCell ref="O141:Y141"/>
+    <mergeCell ref="Z141:AE142"/>
+    <mergeCell ref="O142:S142"/>
+    <mergeCell ref="T142:Y142"/>
+    <mergeCell ref="I133:N133"/>
+    <mergeCell ref="T133:Y133"/>
+    <mergeCell ref="Z133:AE133"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:N132"/>
+    <mergeCell ref="O131:Y131"/>
+    <mergeCell ref="Z131:AE132"/>
+    <mergeCell ref="O132:S132"/>
+    <mergeCell ref="T132:Y132"/>
+    <mergeCell ref="G98:P103"/>
+    <mergeCell ref="Q98:Z98"/>
+    <mergeCell ref="Q103:Z103"/>
+    <mergeCell ref="G106:Z106"/>
+    <mergeCell ref="AD87:AG87"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="G87:L87"/>
+    <mergeCell ref="G88:L88"/>
+    <mergeCell ref="M87:V87"/>
+    <mergeCell ref="W88:Y88"/>
+    <mergeCell ref="Q102:Z102"/>
+    <mergeCell ref="G104:P105"/>
+    <mergeCell ref="Q104:Z104"/>
+    <mergeCell ref="Q105:Z105"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="Z87:AC87"/>
+    <mergeCell ref="M88:V88"/>
+    <mergeCell ref="G97:P97"/>
+    <mergeCell ref="Q97:Z97"/>
+    <mergeCell ref="W87:Y87"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:J59"/>
+    <mergeCell ref="K58:N59"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="R65:Y65"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:AH60"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="R66:Y66"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="AE67:AH67"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="AE65:AH65"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="AE66:AH66"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="R67:Y67"/>
+    <mergeCell ref="Z67:AD67"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="E43:M43"/>
     <mergeCell ref="N43:P43"/>
     <mergeCell ref="Q43:U43"/>
@@ -11540,97 +11644,6 @@
     <mergeCell ref="M53:T53"/>
     <mergeCell ref="M52:T52"/>
     <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AE67:AH67"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="AE65:AH65"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="AE66:AH66"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="R67:Y67"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="V44:AC44"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:J59"/>
-    <mergeCell ref="K58:N59"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="R65:Y65"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:AH60"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="R66:Y66"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="G98:P103"/>
-    <mergeCell ref="Q98:Z98"/>
-    <mergeCell ref="Q103:Z103"/>
-    <mergeCell ref="G106:Z106"/>
-    <mergeCell ref="AD87:AG87"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="G87:L87"/>
-    <mergeCell ref="G88:L88"/>
-    <mergeCell ref="M87:V87"/>
-    <mergeCell ref="W88:Y88"/>
-    <mergeCell ref="Q102:Z102"/>
-    <mergeCell ref="G104:P105"/>
-    <mergeCell ref="Q104:Z104"/>
-    <mergeCell ref="Q105:Z105"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="Z87:AC87"/>
-    <mergeCell ref="M88:V88"/>
-    <mergeCell ref="G97:P97"/>
-    <mergeCell ref="Q97:Z97"/>
-    <mergeCell ref="W87:Y87"/>
-    <mergeCell ref="G139:AG140"/>
-    <mergeCell ref="G127:AG128"/>
-    <mergeCell ref="G119:AG120"/>
-    <mergeCell ref="I144:N144"/>
-    <mergeCell ref="T144:Y144"/>
-    <mergeCell ref="Z144:AE144"/>
-    <mergeCell ref="I143:N143"/>
-    <mergeCell ref="T143:Y143"/>
-    <mergeCell ref="Z143:AE143"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:N142"/>
-    <mergeCell ref="O141:Y141"/>
-    <mergeCell ref="Z141:AE142"/>
-    <mergeCell ref="O142:S142"/>
-    <mergeCell ref="T142:Y142"/>
-    <mergeCell ref="I133:N133"/>
-    <mergeCell ref="T133:Y133"/>
-    <mergeCell ref="Z133:AE133"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:N132"/>
-    <mergeCell ref="O131:Y131"/>
-    <mergeCell ref="Z131:AE132"/>
-    <mergeCell ref="O132:S132"/>
-    <mergeCell ref="T132:Y132"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="4">
@@ -11684,121 +11697,121 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="54" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="54" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="54"/>
+    <col min="3" max="3" width="16.875" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="54" customWidth="1"/>
+    <col min="5" max="16384" width="9.375" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="166" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B1" s="167" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C1" s="168" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D1" s="168" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="114" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="169" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C2" s="170" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="114" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="114" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="169" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="114" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="114" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="114" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="114" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="169" t="s">
+      <c r="B5" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="114" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="114" t="s">
+      <c r="C5" s="114" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="114" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="114" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C6" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="114" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="114" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="114" t="s">
+      <c r="C7" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="114" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="114" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="114" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="114" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="114" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="114" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="114" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="114" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="114" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="114" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="114" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="114" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="114" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="114" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10101_Login.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10101_Login.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF949F4-A804-4203-9E9C-BE346A87D7BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFF1B36-F401-4646-B63B-F4A38E677E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,20 +12,20 @@
     <sheet name="変更履歴" sheetId="14" state="hidden" r:id="rId2"/>
     <sheet name="Contents" sheetId="30" r:id="rId3"/>
     <sheet name="1 Screen subfunction definition" sheetId="13" r:id="rId4"/>
-    <sheet name="2. WA10101 (login screen)" sheetId="31" r:id="rId5"/>
+    <sheet name="2. WA10101 (Login screen)" sheetId="31" r:id="rId5"/>
     <sheet name="Data" sheetId="29" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2. WA10101 (login screen)'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2. WA10101 (Login screen)'!#REF!</definedName>
     <definedName name="_Toc46209822" localSheetId="3">'1 Screen subfunction definition'!$B$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1 Screen subfunction definition'!$A$3:$AI$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10101 (login screen)'!$A$1:$AI$155</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10101 (Login screen)'!$A$1:$AI$156</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$2:$AI$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Data!$A$1:$E$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1 Screen subfunction definition'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. WA10101 (login screen)'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. WA10101 (Login screen)'!$1:$4</definedName>
     <definedName name="引継項目格納先">Data!$B$2:$B$2</definedName>
     <definedName name="画面項目種類">Data!$A$2:$A$12</definedName>
     <definedName name="種別一覧">Data!$C$2:$C$7</definedName>
@@ -191,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G63" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="G64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -210,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="R66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -225,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
+    <comment ref="Z66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -240,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
+    <comment ref="AE66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -258,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G70" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
+    <comment ref="G71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="184">
   <si>
     <t>PJ名</t>
   </si>
@@ -502,9 +502,6 @@
     <t>Password (displayed by masking with the browser function)</t>
   </si>
   <si>
-    <t>Account password</t>
-  </si>
-  <si>
     <t>userPassword</t>
   </si>
   <si>
@@ -850,6 +847,18 @@
   </si>
   <si>
     <t>2. WA10101 (Login screen)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>User</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1519,7 +1528,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="387">
+  <cellXfs count="388">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1928,9 +1937,117 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1967,24 +2084,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1994,24 +2093,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2048,74 +2129,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2135,78 +2219,6 @@
     <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2261,46 +2273,19 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2309,159 +2294,45 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2480,6 +2351,21 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2515,15 +2401,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2537,24 +2414,159 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3401,12 +3413,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="172">
+      <c r="I25" s="173">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43656</v>
       </c>
-      <c r="J25" s="172"/>
-      <c r="K25" s="172"/>
+      <c r="J25" s="173"/>
+      <c r="K25" s="173"/>
       <c r="L25" s="19"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4036,57 +4048,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="191" t="s">
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="224" t="s">
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="222"/>
+      <c r="M1" s="222"/>
+      <c r="N1" s="223"/>
+      <c r="O1" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="225"/>
-      <c r="Q1" s="225"/>
-      <c r="R1" s="226"/>
-      <c r="S1" s="203" t="s">
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="227" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="204"/>
-      <c r="U1" s="204"/>
-      <c r="V1" s="204"/>
-      <c r="W1" s="204"/>
-      <c r="X1" s="204"/>
-      <c r="Y1" s="204"/>
-      <c r="Z1" s="205"/>
-      <c r="AA1" s="221" t="s">
+      <c r="T1" s="228"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="228"/>
+      <c r="W1" s="228"/>
+      <c r="X1" s="228"/>
+      <c r="Y1" s="228"/>
+      <c r="Z1" s="229"/>
+      <c r="AA1" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="223"/>
-      <c r="AC1" s="173" t="str">
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="209" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-      <c r="AF1" s="175"/>
-      <c r="AG1" s="179">
+      <c r="AD1" s="210"/>
+      <c r="AE1" s="210"/>
+      <c r="AF1" s="211"/>
+      <c r="AG1" s="215">
         <f>IF(D8="","",D8)</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="180"/>
-      <c r="AI1" s="181"/>
+      <c r="AH1" s="216"/>
+      <c r="AI1" s="217"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -4094,53 +4106,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="221" t="s">
+      <c r="A2" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="191" t="s">
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="192"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="227"/>
-      <c r="P2" s="228"/>
-      <c r="Q2" s="228"/>
-      <c r="R2" s="229"/>
-      <c r="S2" s="206"/>
-      <c r="T2" s="207"/>
-      <c r="U2" s="207"/>
-      <c r="V2" s="207"/>
-      <c r="W2" s="207"/>
-      <c r="X2" s="207"/>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="221" t="s">
+      <c r="F2" s="222"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="222"/>
+      <c r="K2" s="222"/>
+      <c r="L2" s="222"/>
+      <c r="M2" s="222"/>
+      <c r="N2" s="223"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="230"/>
+      <c r="T2" s="231"/>
+      <c r="U2" s="231"/>
+      <c r="V2" s="231"/>
+      <c r="W2" s="231"/>
+      <c r="X2" s="231"/>
+      <c r="Y2" s="231"/>
+      <c r="Z2" s="232"/>
+      <c r="AA2" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="223"/>
-      <c r="AC2" s="182" t="str">
+      <c r="AB2" s="176"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="183"/>
-      <c r="AE2" s="183"/>
-      <c r="AF2" s="184"/>
-      <c r="AG2" s="179" t="str">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="215" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="180"/>
-      <c r="AI2" s="181"/>
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -4148,45 +4160,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="221" t="s">
+      <c r="A3" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="222"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="191" t="s">
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="221" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="193"/>
-      <c r="O3" s="230"/>
-      <c r="P3" s="231"/>
-      <c r="Q3" s="231"/>
-      <c r="R3" s="232"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="210"/>
-      <c r="U3" s="210"/>
-      <c r="V3" s="210"/>
-      <c r="W3" s="210"/>
-      <c r="X3" s="210"/>
-      <c r="Y3" s="210"/>
-      <c r="Z3" s="211"/>
-      <c r="AA3" s="233"/>
-      <c r="AB3" s="234"/>
-      <c r="AC3" s="173"/>
-      <c r="AD3" s="174"/>
-      <c r="AE3" s="174"/>
-      <c r="AF3" s="175"/>
-      <c r="AG3" s="179"/>
-      <c r="AH3" s="180"/>
-      <c r="AI3" s="181"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="222"/>
+      <c r="H3" s="222"/>
+      <c r="I3" s="222"/>
+      <c r="J3" s="222"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="222"/>
+      <c r="M3" s="222"/>
+      <c r="N3" s="223"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="233"/>
+      <c r="T3" s="234"/>
+      <c r="U3" s="234"/>
+      <c r="V3" s="234"/>
+      <c r="W3" s="234"/>
+      <c r="X3" s="234"/>
+      <c r="Y3" s="234"/>
+      <c r="Z3" s="235"/>
+      <c r="AA3" s="186"/>
+      <c r="AB3" s="187"/>
+      <c r="AC3" s="209"/>
+      <c r="AD3" s="210"/>
+      <c r="AE3" s="210"/>
+      <c r="AF3" s="211"/>
+      <c r="AG3" s="215"/>
+      <c r="AH3" s="216"/>
+      <c r="AI3" s="217"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -4325,1028 +4337,1028 @@
       <c r="A7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="188" t="s">
+      <c r="B7" s="200" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="188" t="s">
+      <c r="C7" s="201"/>
+      <c r="D7" s="200" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="188" t="s">
+      <c r="E7" s="202"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="189"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="188" t="s">
+      <c r="H7" s="202"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="189"/>
-      <c r="L7" s="189"/>
-      <c r="M7" s="189"/>
-      <c r="N7" s="189"/>
-      <c r="O7" s="189"/>
-      <c r="P7" s="190"/>
-      <c r="Q7" s="188" t="s">
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="202"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="201"/>
+      <c r="Q7" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="189"/>
-      <c r="S7" s="189"/>
-      <c r="T7" s="189"/>
-      <c r="U7" s="189"/>
-      <c r="V7" s="189"/>
-      <c r="W7" s="189"/>
-      <c r="X7" s="189"/>
-      <c r="Y7" s="189"/>
-      <c r="Z7" s="189"/>
-      <c r="AA7" s="189"/>
-      <c r="AB7" s="189"/>
-      <c r="AC7" s="189"/>
-      <c r="AD7" s="189"/>
-      <c r="AE7" s="190"/>
-      <c r="AF7" s="188" t="s">
+      <c r="R7" s="202"/>
+      <c r="S7" s="202"/>
+      <c r="T7" s="202"/>
+      <c r="U7" s="202"/>
+      <c r="V7" s="202"/>
+      <c r="W7" s="202"/>
+      <c r="X7" s="202"/>
+      <c r="Y7" s="202"/>
+      <c r="Z7" s="202"/>
+      <c r="AA7" s="202"/>
+      <c r="AB7" s="202"/>
+      <c r="AC7" s="202"/>
+      <c r="AD7" s="202"/>
+      <c r="AE7" s="201"/>
+      <c r="AF7" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="189"/>
-      <c r="AH7" s="189"/>
-      <c r="AI7" s="190"/>
+      <c r="AG7" s="202"/>
+      <c r="AH7" s="202"/>
+      <c r="AI7" s="201"/>
     </row>
     <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="215" t="s">
+      <c r="B8" s="203" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="216"/>
-      <c r="D8" s="217">
+      <c r="C8" s="204"/>
+      <c r="D8" s="205">
         <v>43656</v>
       </c>
-      <c r="E8" s="218"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="215" t="s">
+      <c r="E8" s="206"/>
+      <c r="F8" s="207"/>
+      <c r="G8" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="220"/>
-      <c r="I8" s="216"/>
-      <c r="J8" s="200" t="s">
+      <c r="H8" s="208"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="224" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="201"/>
-      <c r="L8" s="201"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="201"/>
-      <c r="O8" s="201"/>
-      <c r="P8" s="202"/>
-      <c r="Q8" s="176" t="s">
+      <c r="K8" s="225"/>
+      <c r="L8" s="225"/>
+      <c r="M8" s="225"/>
+      <c r="N8" s="225"/>
+      <c r="O8" s="225"/>
+      <c r="P8" s="226"/>
+      <c r="Q8" s="212" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="177"/>
-      <c r="S8" s="177"/>
-      <c r="T8" s="177"/>
-      <c r="U8" s="177"/>
-      <c r="V8" s="177"/>
-      <c r="W8" s="177"/>
-      <c r="X8" s="177"/>
-      <c r="Y8" s="177"/>
-      <c r="Z8" s="177"/>
-      <c r="AA8" s="177"/>
-      <c r="AB8" s="177"/>
-      <c r="AC8" s="177"/>
-      <c r="AD8" s="177"/>
-      <c r="AE8" s="178"/>
-      <c r="AF8" s="200" t="s">
+      <c r="R8" s="213"/>
+      <c r="S8" s="213"/>
+      <c r="T8" s="213"/>
+      <c r="U8" s="213"/>
+      <c r="V8" s="213"/>
+      <c r="W8" s="213"/>
+      <c r="X8" s="213"/>
+      <c r="Y8" s="213"/>
+      <c r="Z8" s="213"/>
+      <c r="AA8" s="213"/>
+      <c r="AB8" s="213"/>
+      <c r="AC8" s="213"/>
+      <c r="AD8" s="213"/>
+      <c r="AE8" s="214"/>
+      <c r="AF8" s="224" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="201"/>
-      <c r="AH8" s="201"/>
-      <c r="AI8" s="202"/>
+      <c r="AG8" s="225"/>
+      <c r="AH8" s="225"/>
+      <c r="AI8" s="226"/>
     </row>
     <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
-      <c r="B9" s="185"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="212"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="187"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="198"/>
-      <c r="L9" s="198"/>
-      <c r="M9" s="198"/>
-      <c r="N9" s="198"/>
-      <c r="O9" s="198"/>
-      <c r="P9" s="199"/>
-      <c r="Q9" s="194"/>
-      <c r="R9" s="195"/>
-      <c r="S9" s="195"/>
-      <c r="T9" s="195"/>
-      <c r="U9" s="195"/>
-      <c r="V9" s="195"/>
-      <c r="W9" s="195"/>
-      <c r="X9" s="195"/>
-      <c r="Y9" s="195"/>
-      <c r="Z9" s="195"/>
-      <c r="AA9" s="195"/>
-      <c r="AB9" s="195"/>
-      <c r="AC9" s="195"/>
-      <c r="AD9" s="195"/>
-      <c r="AE9" s="196"/>
-      <c r="AF9" s="197"/>
-      <c r="AG9" s="198"/>
-      <c r="AH9" s="198"/>
-      <c r="AI9" s="199"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="198"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="199"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="191"/>
+      <c r="K9" s="192"/>
+      <c r="L9" s="192"/>
+      <c r="M9" s="192"/>
+      <c r="N9" s="192"/>
+      <c r="O9" s="192"/>
+      <c r="P9" s="193"/>
+      <c r="Q9" s="188"/>
+      <c r="R9" s="189"/>
+      <c r="S9" s="189"/>
+      <c r="T9" s="189"/>
+      <c r="U9" s="189"/>
+      <c r="V9" s="189"/>
+      <c r="W9" s="189"/>
+      <c r="X9" s="189"/>
+      <c r="Y9" s="189"/>
+      <c r="Z9" s="189"/>
+      <c r="AA9" s="189"/>
+      <c r="AB9" s="189"/>
+      <c r="AC9" s="189"/>
+      <c r="AD9" s="189"/>
+      <c r="AE9" s="190"/>
+      <c r="AF9" s="191"/>
+      <c r="AG9" s="192"/>
+      <c r="AH9" s="192"/>
+      <c r="AI9" s="193"/>
     </row>
     <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
-      <c r="B10" s="185"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="213"/>
-      <c r="F10" s="214"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="198"/>
-      <c r="M10" s="198"/>
-      <c r="N10" s="198"/>
-      <c r="O10" s="198"/>
-      <c r="P10" s="199"/>
-      <c r="Q10" s="194"/>
-      <c r="R10" s="195"/>
-      <c r="S10" s="195"/>
-      <c r="T10" s="195"/>
-      <c r="U10" s="195"/>
-      <c r="V10" s="195"/>
-      <c r="W10" s="195"/>
-      <c r="X10" s="195"/>
-      <c r="Y10" s="195"/>
-      <c r="Z10" s="195"/>
-      <c r="AA10" s="195"/>
-      <c r="AB10" s="195"/>
-      <c r="AC10" s="195"/>
-      <c r="AD10" s="195"/>
-      <c r="AE10" s="196"/>
-      <c r="AF10" s="197"/>
-      <c r="AG10" s="198"/>
-      <c r="AH10" s="198"/>
-      <c r="AI10" s="199"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="199"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="191"/>
+      <c r="K10" s="192"/>
+      <c r="L10" s="192"/>
+      <c r="M10" s="192"/>
+      <c r="N10" s="192"/>
+      <c r="O10" s="192"/>
+      <c r="P10" s="193"/>
+      <c r="Q10" s="188"/>
+      <c r="R10" s="189"/>
+      <c r="S10" s="189"/>
+      <c r="T10" s="189"/>
+      <c r="U10" s="189"/>
+      <c r="V10" s="189"/>
+      <c r="W10" s="189"/>
+      <c r="X10" s="189"/>
+      <c r="Y10" s="189"/>
+      <c r="Z10" s="189"/>
+      <c r="AA10" s="189"/>
+      <c r="AB10" s="189"/>
+      <c r="AC10" s="189"/>
+      <c r="AD10" s="189"/>
+      <c r="AE10" s="190"/>
+      <c r="AF10" s="191"/>
+      <c r="AG10" s="192"/>
+      <c r="AH10" s="192"/>
+      <c r="AI10" s="193"/>
     </row>
     <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
-      <c r="B11" s="185"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="213"/>
-      <c r="F11" s="214"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="187"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="198"/>
-      <c r="M11" s="198"/>
-      <c r="N11" s="198"/>
-      <c r="O11" s="198"/>
-      <c r="P11" s="199"/>
-      <c r="Q11" s="194"/>
-      <c r="R11" s="195"/>
-      <c r="S11" s="195"/>
-      <c r="T11" s="195"/>
-      <c r="U11" s="195"/>
-      <c r="V11" s="195"/>
-      <c r="W11" s="195"/>
-      <c r="X11" s="195"/>
-      <c r="Y11" s="195"/>
-      <c r="Z11" s="195"/>
-      <c r="AA11" s="195"/>
-      <c r="AB11" s="195"/>
-      <c r="AC11" s="195"/>
-      <c r="AD11" s="195"/>
-      <c r="AE11" s="196"/>
-      <c r="AF11" s="197"/>
-      <c r="AG11" s="198"/>
-      <c r="AH11" s="198"/>
-      <c r="AI11" s="199"/>
+      <c r="B11" s="194"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="197"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="199"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="191"/>
+      <c r="K11" s="192"/>
+      <c r="L11" s="192"/>
+      <c r="M11" s="192"/>
+      <c r="N11" s="192"/>
+      <c r="O11" s="192"/>
+      <c r="P11" s="193"/>
+      <c r="Q11" s="188"/>
+      <c r="R11" s="189"/>
+      <c r="S11" s="189"/>
+      <c r="T11" s="189"/>
+      <c r="U11" s="189"/>
+      <c r="V11" s="189"/>
+      <c r="W11" s="189"/>
+      <c r="X11" s="189"/>
+      <c r="Y11" s="189"/>
+      <c r="Z11" s="189"/>
+      <c r="AA11" s="189"/>
+      <c r="AB11" s="189"/>
+      <c r="AC11" s="189"/>
+      <c r="AD11" s="189"/>
+      <c r="AE11" s="190"/>
+      <c r="AF11" s="191"/>
+      <c r="AG11" s="192"/>
+      <c r="AH11" s="192"/>
+      <c r="AI11" s="193"/>
     </row>
     <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
-      <c r="B12" s="185"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="212"/>
-      <c r="E12" s="213"/>
-      <c r="F12" s="214"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="187"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="198"/>
-      <c r="L12" s="198"/>
-      <c r="M12" s="198"/>
-      <c r="N12" s="198"/>
-      <c r="O12" s="198"/>
-      <c r="P12" s="199"/>
-      <c r="Q12" s="194"/>
-      <c r="R12" s="195"/>
-      <c r="S12" s="195"/>
-      <c r="T12" s="195"/>
-      <c r="U12" s="195"/>
-      <c r="V12" s="195"/>
-      <c r="W12" s="195"/>
-      <c r="X12" s="195"/>
-      <c r="Y12" s="195"/>
-      <c r="Z12" s="195"/>
-      <c r="AA12" s="195"/>
-      <c r="AB12" s="195"/>
-      <c r="AC12" s="195"/>
-      <c r="AD12" s="195"/>
-      <c r="AE12" s="196"/>
-      <c r="AF12" s="197"/>
-      <c r="AG12" s="198"/>
-      <c r="AH12" s="198"/>
-      <c r="AI12" s="199"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="195"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="198"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="191"/>
+      <c r="K12" s="192"/>
+      <c r="L12" s="192"/>
+      <c r="M12" s="192"/>
+      <c r="N12" s="192"/>
+      <c r="O12" s="192"/>
+      <c r="P12" s="193"/>
+      <c r="Q12" s="188"/>
+      <c r="R12" s="189"/>
+      <c r="S12" s="189"/>
+      <c r="T12" s="189"/>
+      <c r="U12" s="189"/>
+      <c r="V12" s="189"/>
+      <c r="W12" s="189"/>
+      <c r="X12" s="189"/>
+      <c r="Y12" s="189"/>
+      <c r="Z12" s="189"/>
+      <c r="AA12" s="189"/>
+      <c r="AB12" s="189"/>
+      <c r="AC12" s="189"/>
+      <c r="AD12" s="189"/>
+      <c r="AE12" s="190"/>
+      <c r="AF12" s="191"/>
+      <c r="AG12" s="192"/>
+      <c r="AH12" s="192"/>
+      <c r="AI12" s="193"/>
     </row>
     <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
-      <c r="B13" s="185"/>
-      <c r="C13" s="187"/>
-      <c r="D13" s="212"/>
-      <c r="E13" s="213"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="187"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="198"/>
-      <c r="L13" s="198"/>
-      <c r="M13" s="198"/>
-      <c r="N13" s="198"/>
-      <c r="O13" s="198"/>
-      <c r="P13" s="199"/>
-      <c r="Q13" s="194"/>
-      <c r="R13" s="195"/>
-      <c r="S13" s="195"/>
-      <c r="T13" s="195"/>
-      <c r="U13" s="195"/>
-      <c r="V13" s="195"/>
-      <c r="W13" s="195"/>
-      <c r="X13" s="195"/>
-      <c r="Y13" s="195"/>
-      <c r="Z13" s="195"/>
-      <c r="AA13" s="195"/>
-      <c r="AB13" s="195"/>
-      <c r="AC13" s="195"/>
-      <c r="AD13" s="195"/>
-      <c r="AE13" s="196"/>
-      <c r="AF13" s="197"/>
-      <c r="AG13" s="198"/>
-      <c r="AH13" s="198"/>
-      <c r="AI13" s="199"/>
+      <c r="B13" s="194"/>
+      <c r="C13" s="195"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="198"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="191"/>
+      <c r="K13" s="192"/>
+      <c r="L13" s="192"/>
+      <c r="M13" s="192"/>
+      <c r="N13" s="192"/>
+      <c r="O13" s="192"/>
+      <c r="P13" s="193"/>
+      <c r="Q13" s="188"/>
+      <c r="R13" s="189"/>
+      <c r="S13" s="189"/>
+      <c r="T13" s="189"/>
+      <c r="U13" s="189"/>
+      <c r="V13" s="189"/>
+      <c r="W13" s="189"/>
+      <c r="X13" s="189"/>
+      <c r="Y13" s="189"/>
+      <c r="Z13" s="189"/>
+      <c r="AA13" s="189"/>
+      <c r="AB13" s="189"/>
+      <c r="AC13" s="189"/>
+      <c r="AD13" s="189"/>
+      <c r="AE13" s="190"/>
+      <c r="AF13" s="191"/>
+      <c r="AG13" s="192"/>
+      <c r="AH13" s="192"/>
+      <c r="AI13" s="193"/>
     </row>
     <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
-      <c r="B14" s="185"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="212"/>
-      <c r="E14" s="213"/>
-      <c r="F14" s="214"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="187"/>
-      <c r="J14" s="197"/>
-      <c r="K14" s="198"/>
-      <c r="L14" s="198"/>
-      <c r="M14" s="198"/>
-      <c r="N14" s="198"/>
-      <c r="O14" s="198"/>
-      <c r="P14" s="199"/>
-      <c r="Q14" s="194"/>
-      <c r="R14" s="195"/>
-      <c r="S14" s="195"/>
-      <c r="T14" s="195"/>
-      <c r="U14" s="195"/>
-      <c r="V14" s="195"/>
-      <c r="W14" s="195"/>
-      <c r="X14" s="195"/>
-      <c r="Y14" s="195"/>
-      <c r="Z14" s="195"/>
-      <c r="AA14" s="195"/>
-      <c r="AB14" s="195"/>
-      <c r="AC14" s="195"/>
-      <c r="AD14" s="195"/>
-      <c r="AE14" s="196"/>
-      <c r="AF14" s="197"/>
-      <c r="AG14" s="198"/>
-      <c r="AH14" s="198"/>
-      <c r="AI14" s="199"/>
+      <c r="B14" s="194"/>
+      <c r="C14" s="195"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="197"/>
+      <c r="F14" s="198"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="199"/>
+      <c r="I14" s="195"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="192"/>
+      <c r="L14" s="192"/>
+      <c r="M14" s="192"/>
+      <c r="N14" s="192"/>
+      <c r="O14" s="192"/>
+      <c r="P14" s="193"/>
+      <c r="Q14" s="188"/>
+      <c r="R14" s="189"/>
+      <c r="S14" s="189"/>
+      <c r="T14" s="189"/>
+      <c r="U14" s="189"/>
+      <c r="V14" s="189"/>
+      <c r="W14" s="189"/>
+      <c r="X14" s="189"/>
+      <c r="Y14" s="189"/>
+      <c r="Z14" s="189"/>
+      <c r="AA14" s="189"/>
+      <c r="AB14" s="189"/>
+      <c r="AC14" s="189"/>
+      <c r="AD14" s="189"/>
+      <c r="AE14" s="190"/>
+      <c r="AF14" s="191"/>
+      <c r="AG14" s="192"/>
+      <c r="AH14" s="192"/>
+      <c r="AI14" s="193"/>
     </row>
     <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
-      <c r="B15" s="185"/>
-      <c r="C15" s="187"/>
-      <c r="D15" s="212"/>
-      <c r="E15" s="213"/>
-      <c r="F15" s="214"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="198"/>
-      <c r="O15" s="198"/>
-      <c r="P15" s="199"/>
-      <c r="Q15" s="194"/>
-      <c r="R15" s="195"/>
-      <c r="S15" s="195"/>
-      <c r="T15" s="195"/>
-      <c r="U15" s="195"/>
-      <c r="V15" s="195"/>
-      <c r="W15" s="195"/>
-      <c r="X15" s="195"/>
-      <c r="Y15" s="195"/>
-      <c r="Z15" s="195"/>
-      <c r="AA15" s="195"/>
-      <c r="AB15" s="195"/>
-      <c r="AC15" s="195"/>
-      <c r="AD15" s="195"/>
-      <c r="AE15" s="196"/>
-      <c r="AF15" s="197"/>
-      <c r="AG15" s="198"/>
-      <c r="AH15" s="198"/>
-      <c r="AI15" s="199"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="195"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="191"/>
+      <c r="K15" s="192"/>
+      <c r="L15" s="192"/>
+      <c r="M15" s="192"/>
+      <c r="N15" s="192"/>
+      <c r="O15" s="192"/>
+      <c r="P15" s="193"/>
+      <c r="Q15" s="188"/>
+      <c r="R15" s="189"/>
+      <c r="S15" s="189"/>
+      <c r="T15" s="189"/>
+      <c r="U15" s="189"/>
+      <c r="V15" s="189"/>
+      <c r="W15" s="189"/>
+      <c r="X15" s="189"/>
+      <c r="Y15" s="189"/>
+      <c r="Z15" s="189"/>
+      <c r="AA15" s="189"/>
+      <c r="AB15" s="189"/>
+      <c r="AC15" s="189"/>
+      <c r="AD15" s="189"/>
+      <c r="AE15" s="190"/>
+      <c r="AF15" s="191"/>
+      <c r="AG15" s="192"/>
+      <c r="AH15" s="192"/>
+      <c r="AI15" s="193"/>
     </row>
     <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
-      <c r="B16" s="185"/>
-      <c r="C16" s="187"/>
-      <c r="D16" s="212"/>
-      <c r="E16" s="213"/>
-      <c r="F16" s="214"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="198"/>
-      <c r="L16" s="198"/>
-      <c r="M16" s="198"/>
-      <c r="N16" s="198"/>
-      <c r="O16" s="198"/>
-      <c r="P16" s="199"/>
-      <c r="Q16" s="194"/>
-      <c r="R16" s="195"/>
-      <c r="S16" s="195"/>
-      <c r="T16" s="195"/>
-      <c r="U16" s="195"/>
-      <c r="V16" s="195"/>
-      <c r="W16" s="195"/>
-      <c r="X16" s="195"/>
-      <c r="Y16" s="195"/>
-      <c r="Z16" s="195"/>
-      <c r="AA16" s="195"/>
-      <c r="AB16" s="195"/>
-      <c r="AC16" s="195"/>
-      <c r="AD16" s="195"/>
-      <c r="AE16" s="196"/>
-      <c r="AF16" s="197"/>
-      <c r="AG16" s="198"/>
-      <c r="AH16" s="198"/>
-      <c r="AI16" s="199"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="192"/>
+      <c r="L16" s="192"/>
+      <c r="M16" s="192"/>
+      <c r="N16" s="192"/>
+      <c r="O16" s="192"/>
+      <c r="P16" s="193"/>
+      <c r="Q16" s="188"/>
+      <c r="R16" s="189"/>
+      <c r="S16" s="189"/>
+      <c r="T16" s="189"/>
+      <c r="U16" s="189"/>
+      <c r="V16" s="189"/>
+      <c r="W16" s="189"/>
+      <c r="X16" s="189"/>
+      <c r="Y16" s="189"/>
+      <c r="Z16" s="189"/>
+      <c r="AA16" s="189"/>
+      <c r="AB16" s="189"/>
+      <c r="AC16" s="189"/>
+      <c r="AD16" s="189"/>
+      <c r="AE16" s="190"/>
+      <c r="AF16" s="191"/>
+      <c r="AG16" s="192"/>
+      <c r="AH16" s="192"/>
+      <c r="AI16" s="193"/>
     </row>
     <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
-      <c r="B17" s="185"/>
-      <c r="C17" s="187"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="213"/>
-      <c r="F17" s="214"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="198"/>
-      <c r="L17" s="198"/>
-      <c r="M17" s="198"/>
-      <c r="N17" s="198"/>
-      <c r="O17" s="198"/>
-      <c r="P17" s="199"/>
-      <c r="Q17" s="194"/>
-      <c r="R17" s="195"/>
-      <c r="S17" s="195"/>
-      <c r="T17" s="195"/>
-      <c r="U17" s="195"/>
-      <c r="V17" s="195"/>
-      <c r="W17" s="195"/>
-      <c r="X17" s="195"/>
-      <c r="Y17" s="195"/>
-      <c r="Z17" s="195"/>
-      <c r="AA17" s="195"/>
-      <c r="AB17" s="195"/>
-      <c r="AC17" s="195"/>
-      <c r="AD17" s="195"/>
-      <c r="AE17" s="196"/>
-      <c r="AF17" s="197"/>
-      <c r="AG17" s="198"/>
-      <c r="AH17" s="198"/>
-      <c r="AI17" s="199"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="191"/>
+      <c r="K17" s="192"/>
+      <c r="L17" s="192"/>
+      <c r="M17" s="192"/>
+      <c r="N17" s="192"/>
+      <c r="O17" s="192"/>
+      <c r="P17" s="193"/>
+      <c r="Q17" s="188"/>
+      <c r="R17" s="189"/>
+      <c r="S17" s="189"/>
+      <c r="T17" s="189"/>
+      <c r="U17" s="189"/>
+      <c r="V17" s="189"/>
+      <c r="W17" s="189"/>
+      <c r="X17" s="189"/>
+      <c r="Y17" s="189"/>
+      <c r="Z17" s="189"/>
+      <c r="AA17" s="189"/>
+      <c r="AB17" s="189"/>
+      <c r="AC17" s="189"/>
+      <c r="AD17" s="189"/>
+      <c r="AE17" s="190"/>
+      <c r="AF17" s="191"/>
+      <c r="AG17" s="192"/>
+      <c r="AH17" s="192"/>
+      <c r="AI17" s="193"/>
     </row>
     <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
-      <c r="B18" s="185"/>
-      <c r="C18" s="187"/>
-      <c r="D18" s="212"/>
-      <c r="E18" s="213"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="198"/>
-      <c r="L18" s="198"/>
-      <c r="M18" s="198"/>
-      <c r="N18" s="198"/>
-      <c r="O18" s="198"/>
-      <c r="P18" s="199"/>
-      <c r="Q18" s="194"/>
-      <c r="R18" s="195"/>
-      <c r="S18" s="195"/>
-      <c r="T18" s="195"/>
-      <c r="U18" s="195"/>
-      <c r="V18" s="195"/>
-      <c r="W18" s="195"/>
-      <c r="X18" s="195"/>
-      <c r="Y18" s="195"/>
-      <c r="Z18" s="195"/>
-      <c r="AA18" s="195"/>
-      <c r="AB18" s="195"/>
-      <c r="AC18" s="195"/>
-      <c r="AD18" s="195"/>
-      <c r="AE18" s="196"/>
-      <c r="AF18" s="197"/>
-      <c r="AG18" s="198"/>
-      <c r="AH18" s="198"/>
-      <c r="AI18" s="199"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="197"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="191"/>
+      <c r="K18" s="192"/>
+      <c r="L18" s="192"/>
+      <c r="M18" s="192"/>
+      <c r="N18" s="192"/>
+      <c r="O18" s="192"/>
+      <c r="P18" s="193"/>
+      <c r="Q18" s="188"/>
+      <c r="R18" s="189"/>
+      <c r="S18" s="189"/>
+      <c r="T18" s="189"/>
+      <c r="U18" s="189"/>
+      <c r="V18" s="189"/>
+      <c r="W18" s="189"/>
+      <c r="X18" s="189"/>
+      <c r="Y18" s="189"/>
+      <c r="Z18" s="189"/>
+      <c r="AA18" s="189"/>
+      <c r="AB18" s="189"/>
+      <c r="AC18" s="189"/>
+      <c r="AD18" s="189"/>
+      <c r="AE18" s="190"/>
+      <c r="AF18" s="191"/>
+      <c r="AG18" s="192"/>
+      <c r="AH18" s="192"/>
+      <c r="AI18" s="193"/>
     </row>
     <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
-      <c r="B19" s="185"/>
-      <c r="C19" s="187"/>
-      <c r="D19" s="212"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="197"/>
-      <c r="K19" s="198"/>
-      <c r="L19" s="198"/>
-      <c r="M19" s="198"/>
-      <c r="N19" s="198"/>
-      <c r="O19" s="198"/>
-      <c r="P19" s="199"/>
-      <c r="Q19" s="194"/>
-      <c r="R19" s="195"/>
-      <c r="S19" s="195"/>
-      <c r="T19" s="195"/>
-      <c r="U19" s="195"/>
-      <c r="V19" s="195"/>
-      <c r="W19" s="195"/>
-      <c r="X19" s="195"/>
-      <c r="Y19" s="195"/>
-      <c r="Z19" s="195"/>
-      <c r="AA19" s="195"/>
-      <c r="AB19" s="195"/>
-      <c r="AC19" s="195"/>
-      <c r="AD19" s="195"/>
-      <c r="AE19" s="196"/>
-      <c r="AF19" s="197"/>
-      <c r="AG19" s="198"/>
-      <c r="AH19" s="198"/>
-      <c r="AI19" s="199"/>
+      <c r="B19" s="194"/>
+      <c r="C19" s="195"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="191"/>
+      <c r="K19" s="192"/>
+      <c r="L19" s="192"/>
+      <c r="M19" s="192"/>
+      <c r="N19" s="192"/>
+      <c r="O19" s="192"/>
+      <c r="P19" s="193"/>
+      <c r="Q19" s="188"/>
+      <c r="R19" s="189"/>
+      <c r="S19" s="189"/>
+      <c r="T19" s="189"/>
+      <c r="U19" s="189"/>
+      <c r="V19" s="189"/>
+      <c r="W19" s="189"/>
+      <c r="X19" s="189"/>
+      <c r="Y19" s="189"/>
+      <c r="Z19" s="189"/>
+      <c r="AA19" s="189"/>
+      <c r="AB19" s="189"/>
+      <c r="AC19" s="189"/>
+      <c r="AD19" s="189"/>
+      <c r="AE19" s="190"/>
+      <c r="AF19" s="191"/>
+      <c r="AG19" s="192"/>
+      <c r="AH19" s="192"/>
+      <c r="AI19" s="193"/>
     </row>
     <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
-      <c r="B20" s="185"/>
-      <c r="C20" s="187"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="213"/>
-      <c r="F20" s="214"/>
-      <c r="G20" s="185"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="197"/>
-      <c r="K20" s="198"/>
-      <c r="L20" s="198"/>
-      <c r="M20" s="198"/>
-      <c r="N20" s="198"/>
-      <c r="O20" s="198"/>
-      <c r="P20" s="199"/>
-      <c r="Q20" s="194"/>
-      <c r="R20" s="195"/>
-      <c r="S20" s="195"/>
-      <c r="T20" s="195"/>
-      <c r="U20" s="195"/>
-      <c r="V20" s="195"/>
-      <c r="W20" s="195"/>
-      <c r="X20" s="195"/>
-      <c r="Y20" s="195"/>
-      <c r="Z20" s="195"/>
-      <c r="AA20" s="195"/>
-      <c r="AB20" s="195"/>
-      <c r="AC20" s="195"/>
-      <c r="AD20" s="195"/>
-      <c r="AE20" s="196"/>
-      <c r="AF20" s="197"/>
-      <c r="AG20" s="198"/>
-      <c r="AH20" s="198"/>
-      <c r="AI20" s="199"/>
+      <c r="B20" s="194"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="196"/>
+      <c r="E20" s="197"/>
+      <c r="F20" s="198"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="199"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="191"/>
+      <c r="K20" s="192"/>
+      <c r="L20" s="192"/>
+      <c r="M20" s="192"/>
+      <c r="N20" s="192"/>
+      <c r="O20" s="192"/>
+      <c r="P20" s="193"/>
+      <c r="Q20" s="188"/>
+      <c r="R20" s="189"/>
+      <c r="S20" s="189"/>
+      <c r="T20" s="189"/>
+      <c r="U20" s="189"/>
+      <c r="V20" s="189"/>
+      <c r="W20" s="189"/>
+      <c r="X20" s="189"/>
+      <c r="Y20" s="189"/>
+      <c r="Z20" s="189"/>
+      <c r="AA20" s="189"/>
+      <c r="AB20" s="189"/>
+      <c r="AC20" s="189"/>
+      <c r="AD20" s="189"/>
+      <c r="AE20" s="190"/>
+      <c r="AF20" s="191"/>
+      <c r="AG20" s="192"/>
+      <c r="AH20" s="192"/>
+      <c r="AI20" s="193"/>
     </row>
     <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
-      <c r="B21" s="185"/>
-      <c r="C21" s="187"/>
-      <c r="D21" s="212"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="197"/>
-      <c r="K21" s="198"/>
-      <c r="L21" s="198"/>
-      <c r="M21" s="198"/>
-      <c r="N21" s="198"/>
-      <c r="O21" s="198"/>
-      <c r="P21" s="199"/>
-      <c r="Q21" s="194"/>
-      <c r="R21" s="195"/>
-      <c r="S21" s="195"/>
-      <c r="T21" s="195"/>
-      <c r="U21" s="195"/>
-      <c r="V21" s="195"/>
-      <c r="W21" s="195"/>
-      <c r="X21" s="195"/>
-      <c r="Y21" s="195"/>
-      <c r="Z21" s="195"/>
-      <c r="AA21" s="195"/>
-      <c r="AB21" s="195"/>
-      <c r="AC21" s="195"/>
-      <c r="AD21" s="195"/>
-      <c r="AE21" s="196"/>
-      <c r="AF21" s="197"/>
-      <c r="AG21" s="198"/>
-      <c r="AH21" s="198"/>
-      <c r="AI21" s="199"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="195"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="191"/>
+      <c r="K21" s="192"/>
+      <c r="L21" s="192"/>
+      <c r="M21" s="192"/>
+      <c r="N21" s="192"/>
+      <c r="O21" s="192"/>
+      <c r="P21" s="193"/>
+      <c r="Q21" s="188"/>
+      <c r="R21" s="189"/>
+      <c r="S21" s="189"/>
+      <c r="T21" s="189"/>
+      <c r="U21" s="189"/>
+      <c r="V21" s="189"/>
+      <c r="W21" s="189"/>
+      <c r="X21" s="189"/>
+      <c r="Y21" s="189"/>
+      <c r="Z21" s="189"/>
+      <c r="AA21" s="189"/>
+      <c r="AB21" s="189"/>
+      <c r="AC21" s="189"/>
+      <c r="AD21" s="189"/>
+      <c r="AE21" s="190"/>
+      <c r="AF21" s="191"/>
+      <c r="AG21" s="192"/>
+      <c r="AH21" s="192"/>
+      <c r="AI21" s="193"/>
     </row>
     <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
-      <c r="B22" s="185"/>
-      <c r="C22" s="187"/>
-      <c r="D22" s="212"/>
-      <c r="E22" s="213"/>
-      <c r="F22" s="214"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="187"/>
-      <c r="J22" s="197"/>
-      <c r="K22" s="198"/>
-      <c r="L22" s="198"/>
-      <c r="M22" s="198"/>
-      <c r="N22" s="198"/>
-      <c r="O22" s="198"/>
-      <c r="P22" s="199"/>
-      <c r="Q22" s="194"/>
-      <c r="R22" s="195"/>
-      <c r="S22" s="195"/>
-      <c r="T22" s="195"/>
-      <c r="U22" s="195"/>
-      <c r="V22" s="195"/>
-      <c r="W22" s="195"/>
-      <c r="X22" s="195"/>
-      <c r="Y22" s="195"/>
-      <c r="Z22" s="195"/>
-      <c r="AA22" s="195"/>
-      <c r="AB22" s="195"/>
-      <c r="AC22" s="195"/>
-      <c r="AD22" s="195"/>
-      <c r="AE22" s="196"/>
-      <c r="AF22" s="197"/>
-      <c r="AG22" s="198"/>
-      <c r="AH22" s="198"/>
-      <c r="AI22" s="199"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="195"/>
+      <c r="D22" s="196"/>
+      <c r="E22" s="197"/>
+      <c r="F22" s="198"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="199"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="191"/>
+      <c r="K22" s="192"/>
+      <c r="L22" s="192"/>
+      <c r="M22" s="192"/>
+      <c r="N22" s="192"/>
+      <c r="O22" s="192"/>
+      <c r="P22" s="193"/>
+      <c r="Q22" s="188"/>
+      <c r="R22" s="189"/>
+      <c r="S22" s="189"/>
+      <c r="T22" s="189"/>
+      <c r="U22" s="189"/>
+      <c r="V22" s="189"/>
+      <c r="W22" s="189"/>
+      <c r="X22" s="189"/>
+      <c r="Y22" s="189"/>
+      <c r="Z22" s="189"/>
+      <c r="AA22" s="189"/>
+      <c r="AB22" s="189"/>
+      <c r="AC22" s="189"/>
+      <c r="AD22" s="189"/>
+      <c r="AE22" s="190"/>
+      <c r="AF22" s="191"/>
+      <c r="AG22" s="192"/>
+      <c r="AH22" s="192"/>
+      <c r="AI22" s="193"/>
     </row>
     <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
-      <c r="B23" s="185"/>
-      <c r="C23" s="187"/>
-      <c r="D23" s="212"/>
-      <c r="E23" s="213"/>
-      <c r="F23" s="214"/>
-      <c r="G23" s="185"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="197"/>
-      <c r="K23" s="198"/>
-      <c r="L23" s="198"/>
-      <c r="M23" s="198"/>
-      <c r="N23" s="198"/>
-      <c r="O23" s="198"/>
-      <c r="P23" s="199"/>
-      <c r="Q23" s="194"/>
-      <c r="R23" s="195"/>
-      <c r="S23" s="195"/>
-      <c r="T23" s="195"/>
-      <c r="U23" s="195"/>
-      <c r="V23" s="195"/>
-      <c r="W23" s="195"/>
-      <c r="X23" s="195"/>
-      <c r="Y23" s="195"/>
-      <c r="Z23" s="195"/>
-      <c r="AA23" s="195"/>
-      <c r="AB23" s="195"/>
-      <c r="AC23" s="195"/>
-      <c r="AD23" s="195"/>
-      <c r="AE23" s="196"/>
-      <c r="AF23" s="197"/>
-      <c r="AG23" s="198"/>
-      <c r="AH23" s="198"/>
-      <c r="AI23" s="199"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="196"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="198"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="199"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="191"/>
+      <c r="K23" s="192"/>
+      <c r="L23" s="192"/>
+      <c r="M23" s="192"/>
+      <c r="N23" s="192"/>
+      <c r="O23" s="192"/>
+      <c r="P23" s="193"/>
+      <c r="Q23" s="188"/>
+      <c r="R23" s="189"/>
+      <c r="S23" s="189"/>
+      <c r="T23" s="189"/>
+      <c r="U23" s="189"/>
+      <c r="V23" s="189"/>
+      <c r="W23" s="189"/>
+      <c r="X23" s="189"/>
+      <c r="Y23" s="189"/>
+      <c r="Z23" s="189"/>
+      <c r="AA23" s="189"/>
+      <c r="AB23" s="189"/>
+      <c r="AC23" s="189"/>
+      <c r="AD23" s="189"/>
+      <c r="AE23" s="190"/>
+      <c r="AF23" s="191"/>
+      <c r="AG23" s="192"/>
+      <c r="AH23" s="192"/>
+      <c r="AI23" s="193"/>
     </row>
     <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
-      <c r="B24" s="185"/>
-      <c r="C24" s="187"/>
-      <c r="D24" s="212"/>
-      <c r="E24" s="213"/>
-      <c r="F24" s="214"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="197"/>
-      <c r="K24" s="198"/>
-      <c r="L24" s="198"/>
-      <c r="M24" s="198"/>
-      <c r="N24" s="198"/>
-      <c r="O24" s="198"/>
-      <c r="P24" s="199"/>
-      <c r="Q24" s="194"/>
-      <c r="R24" s="195"/>
-      <c r="S24" s="195"/>
-      <c r="T24" s="195"/>
-      <c r="U24" s="195"/>
-      <c r="V24" s="195"/>
-      <c r="W24" s="195"/>
-      <c r="X24" s="195"/>
-      <c r="Y24" s="195"/>
-      <c r="Z24" s="195"/>
-      <c r="AA24" s="195"/>
-      <c r="AB24" s="195"/>
-      <c r="AC24" s="195"/>
-      <c r="AD24" s="195"/>
-      <c r="AE24" s="196"/>
-      <c r="AF24" s="197"/>
-      <c r="AG24" s="198"/>
-      <c r="AH24" s="198"/>
-      <c r="AI24" s="199"/>
+      <c r="B24" s="194"/>
+      <c r="C24" s="195"/>
+      <c r="D24" s="196"/>
+      <c r="E24" s="197"/>
+      <c r="F24" s="198"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="199"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="191"/>
+      <c r="K24" s="192"/>
+      <c r="L24" s="192"/>
+      <c r="M24" s="192"/>
+      <c r="N24" s="192"/>
+      <c r="O24" s="192"/>
+      <c r="P24" s="193"/>
+      <c r="Q24" s="188"/>
+      <c r="R24" s="189"/>
+      <c r="S24" s="189"/>
+      <c r="T24" s="189"/>
+      <c r="U24" s="189"/>
+      <c r="V24" s="189"/>
+      <c r="W24" s="189"/>
+      <c r="X24" s="189"/>
+      <c r="Y24" s="189"/>
+      <c r="Z24" s="189"/>
+      <c r="AA24" s="189"/>
+      <c r="AB24" s="189"/>
+      <c r="AC24" s="189"/>
+      <c r="AD24" s="189"/>
+      <c r="AE24" s="190"/>
+      <c r="AF24" s="191"/>
+      <c r="AG24" s="192"/>
+      <c r="AH24" s="192"/>
+      <c r="AI24" s="193"/>
     </row>
     <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
-      <c r="B25" s="185"/>
-      <c r="C25" s="187"/>
-      <c r="D25" s="212"/>
-      <c r="E25" s="213"/>
-      <c r="F25" s="214"/>
-      <c r="G25" s="185"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="197"/>
-      <c r="K25" s="198"/>
-      <c r="L25" s="198"/>
-      <c r="M25" s="198"/>
-      <c r="N25" s="198"/>
-      <c r="O25" s="198"/>
-      <c r="P25" s="199"/>
-      <c r="Q25" s="194"/>
-      <c r="R25" s="195"/>
-      <c r="S25" s="195"/>
-      <c r="T25" s="195"/>
-      <c r="U25" s="195"/>
-      <c r="V25" s="195"/>
-      <c r="W25" s="195"/>
-      <c r="X25" s="195"/>
-      <c r="Y25" s="195"/>
-      <c r="Z25" s="195"/>
-      <c r="AA25" s="195"/>
-      <c r="AB25" s="195"/>
-      <c r="AC25" s="195"/>
-      <c r="AD25" s="195"/>
-      <c r="AE25" s="196"/>
-      <c r="AF25" s="197"/>
-      <c r="AG25" s="198"/>
-      <c r="AH25" s="198"/>
-      <c r="AI25" s="199"/>
+      <c r="B25" s="194"/>
+      <c r="C25" s="195"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="197"/>
+      <c r="F25" s="198"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="199"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="191"/>
+      <c r="K25" s="192"/>
+      <c r="L25" s="192"/>
+      <c r="M25" s="192"/>
+      <c r="N25" s="192"/>
+      <c r="O25" s="192"/>
+      <c r="P25" s="193"/>
+      <c r="Q25" s="188"/>
+      <c r="R25" s="189"/>
+      <c r="S25" s="189"/>
+      <c r="T25" s="189"/>
+      <c r="U25" s="189"/>
+      <c r="V25" s="189"/>
+      <c r="W25" s="189"/>
+      <c r="X25" s="189"/>
+      <c r="Y25" s="189"/>
+      <c r="Z25" s="189"/>
+      <c r="AA25" s="189"/>
+      <c r="AB25" s="189"/>
+      <c r="AC25" s="189"/>
+      <c r="AD25" s="189"/>
+      <c r="AE25" s="190"/>
+      <c r="AF25" s="191"/>
+      <c r="AG25" s="192"/>
+      <c r="AH25" s="192"/>
+      <c r="AI25" s="193"/>
     </row>
     <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
-      <c r="B26" s="185"/>
-      <c r="C26" s="187"/>
-      <c r="D26" s="212"/>
-      <c r="E26" s="213"/>
-      <c r="F26" s="214"/>
-      <c r="G26" s="185"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="187"/>
-      <c r="J26" s="197"/>
-      <c r="K26" s="198"/>
-      <c r="L26" s="198"/>
-      <c r="M26" s="198"/>
-      <c r="N26" s="198"/>
-      <c r="O26" s="198"/>
-      <c r="P26" s="199"/>
-      <c r="Q26" s="194"/>
-      <c r="R26" s="195"/>
-      <c r="S26" s="195"/>
-      <c r="T26" s="195"/>
-      <c r="U26" s="195"/>
-      <c r="V26" s="195"/>
-      <c r="W26" s="195"/>
-      <c r="X26" s="195"/>
-      <c r="Y26" s="195"/>
-      <c r="Z26" s="195"/>
-      <c r="AA26" s="195"/>
-      <c r="AB26" s="195"/>
-      <c r="AC26" s="195"/>
-      <c r="AD26" s="195"/>
-      <c r="AE26" s="196"/>
-      <c r="AF26" s="197"/>
-      <c r="AG26" s="198"/>
-      <c r="AH26" s="198"/>
-      <c r="AI26" s="199"/>
+      <c r="B26" s="194"/>
+      <c r="C26" s="195"/>
+      <c r="D26" s="196"/>
+      <c r="E26" s="197"/>
+      <c r="F26" s="198"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="199"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="191"/>
+      <c r="K26" s="192"/>
+      <c r="L26" s="192"/>
+      <c r="M26" s="192"/>
+      <c r="N26" s="192"/>
+      <c r="O26" s="192"/>
+      <c r="P26" s="193"/>
+      <c r="Q26" s="188"/>
+      <c r="R26" s="189"/>
+      <c r="S26" s="189"/>
+      <c r="T26" s="189"/>
+      <c r="U26" s="189"/>
+      <c r="V26" s="189"/>
+      <c r="W26" s="189"/>
+      <c r="X26" s="189"/>
+      <c r="Y26" s="189"/>
+      <c r="Z26" s="189"/>
+      <c r="AA26" s="189"/>
+      <c r="AB26" s="189"/>
+      <c r="AC26" s="189"/>
+      <c r="AD26" s="189"/>
+      <c r="AE26" s="190"/>
+      <c r="AF26" s="191"/>
+      <c r="AG26" s="192"/>
+      <c r="AH26" s="192"/>
+      <c r="AI26" s="193"/>
     </row>
     <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
-      <c r="B27" s="185"/>
-      <c r="C27" s="187"/>
-      <c r="D27" s="212"/>
-      <c r="E27" s="213"/>
-      <c r="F27" s="214"/>
-      <c r="G27" s="185"/>
-      <c r="H27" s="186"/>
-      <c r="I27" s="187"/>
-      <c r="J27" s="197"/>
-      <c r="K27" s="198"/>
-      <c r="L27" s="198"/>
-      <c r="M27" s="198"/>
-      <c r="N27" s="198"/>
-      <c r="O27" s="198"/>
-      <c r="P27" s="199"/>
-      <c r="Q27" s="194"/>
-      <c r="R27" s="195"/>
-      <c r="S27" s="195"/>
-      <c r="T27" s="195"/>
-      <c r="U27" s="195"/>
-      <c r="V27" s="195"/>
-      <c r="W27" s="195"/>
-      <c r="X27" s="195"/>
-      <c r="Y27" s="195"/>
-      <c r="Z27" s="195"/>
-      <c r="AA27" s="195"/>
-      <c r="AB27" s="195"/>
-      <c r="AC27" s="195"/>
-      <c r="AD27" s="195"/>
-      <c r="AE27" s="196"/>
-      <c r="AF27" s="197"/>
-      <c r="AG27" s="198"/>
-      <c r="AH27" s="198"/>
-      <c r="AI27" s="199"/>
+      <c r="B27" s="194"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="197"/>
+      <c r="F27" s="198"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="199"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="191"/>
+      <c r="K27" s="192"/>
+      <c r="L27" s="192"/>
+      <c r="M27" s="192"/>
+      <c r="N27" s="192"/>
+      <c r="O27" s="192"/>
+      <c r="P27" s="193"/>
+      <c r="Q27" s="188"/>
+      <c r="R27" s="189"/>
+      <c r="S27" s="189"/>
+      <c r="T27" s="189"/>
+      <c r="U27" s="189"/>
+      <c r="V27" s="189"/>
+      <c r="W27" s="189"/>
+      <c r="X27" s="189"/>
+      <c r="Y27" s="189"/>
+      <c r="Z27" s="189"/>
+      <c r="AA27" s="189"/>
+      <c r="AB27" s="189"/>
+      <c r="AC27" s="189"/>
+      <c r="AD27" s="189"/>
+      <c r="AE27" s="190"/>
+      <c r="AF27" s="191"/>
+      <c r="AG27" s="192"/>
+      <c r="AH27" s="192"/>
+      <c r="AI27" s="193"/>
     </row>
     <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
-      <c r="B28" s="185"/>
-      <c r="C28" s="187"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="213"/>
-      <c r="F28" s="214"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="187"/>
-      <c r="J28" s="197"/>
-      <c r="K28" s="198"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="198"/>
-      <c r="N28" s="198"/>
-      <c r="O28" s="198"/>
-      <c r="P28" s="199"/>
-      <c r="Q28" s="194"/>
-      <c r="R28" s="195"/>
-      <c r="S28" s="195"/>
-      <c r="T28" s="195"/>
-      <c r="U28" s="195"/>
-      <c r="V28" s="195"/>
-      <c r="W28" s="195"/>
-      <c r="X28" s="195"/>
-      <c r="Y28" s="195"/>
-      <c r="Z28" s="195"/>
-      <c r="AA28" s="195"/>
-      <c r="AB28" s="195"/>
-      <c r="AC28" s="195"/>
-      <c r="AD28" s="195"/>
-      <c r="AE28" s="196"/>
-      <c r="AF28" s="197"/>
-      <c r="AG28" s="198"/>
-      <c r="AH28" s="198"/>
-      <c r="AI28" s="199"/>
+      <c r="B28" s="194"/>
+      <c r="C28" s="195"/>
+      <c r="D28" s="196"/>
+      <c r="E28" s="197"/>
+      <c r="F28" s="198"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="191"/>
+      <c r="K28" s="192"/>
+      <c r="L28" s="192"/>
+      <c r="M28" s="192"/>
+      <c r="N28" s="192"/>
+      <c r="O28" s="192"/>
+      <c r="P28" s="193"/>
+      <c r="Q28" s="188"/>
+      <c r="R28" s="189"/>
+      <c r="S28" s="189"/>
+      <c r="T28" s="189"/>
+      <c r="U28" s="189"/>
+      <c r="V28" s="189"/>
+      <c r="W28" s="189"/>
+      <c r="X28" s="189"/>
+      <c r="Y28" s="189"/>
+      <c r="Z28" s="189"/>
+      <c r="AA28" s="189"/>
+      <c r="AB28" s="189"/>
+      <c r="AC28" s="189"/>
+      <c r="AD28" s="189"/>
+      <c r="AE28" s="190"/>
+      <c r="AF28" s="191"/>
+      <c r="AG28" s="192"/>
+      <c r="AH28" s="192"/>
+      <c r="AI28" s="193"/>
     </row>
     <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
-      <c r="B29" s="185"/>
-      <c r="C29" s="187"/>
-      <c r="D29" s="212"/>
-      <c r="E29" s="213"/>
-      <c r="F29" s="214"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="187"/>
-      <c r="J29" s="197"/>
-      <c r="K29" s="198"/>
-      <c r="L29" s="198"/>
-      <c r="M29" s="198"/>
-      <c r="N29" s="198"/>
-      <c r="O29" s="198"/>
-      <c r="P29" s="199"/>
-      <c r="Q29" s="194"/>
-      <c r="R29" s="195"/>
-      <c r="S29" s="195"/>
-      <c r="T29" s="195"/>
-      <c r="U29" s="195"/>
-      <c r="V29" s="195"/>
-      <c r="W29" s="195"/>
-      <c r="X29" s="195"/>
-      <c r="Y29" s="195"/>
-      <c r="Z29" s="195"/>
-      <c r="AA29" s="195"/>
-      <c r="AB29" s="195"/>
-      <c r="AC29" s="195"/>
-      <c r="AD29" s="195"/>
-      <c r="AE29" s="196"/>
-      <c r="AF29" s="197"/>
-      <c r="AG29" s="198"/>
-      <c r="AH29" s="198"/>
-      <c r="AI29" s="199"/>
+      <c r="B29" s="194"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="197"/>
+      <c r="F29" s="198"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="199"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="191"/>
+      <c r="K29" s="192"/>
+      <c r="L29" s="192"/>
+      <c r="M29" s="192"/>
+      <c r="N29" s="192"/>
+      <c r="O29" s="192"/>
+      <c r="P29" s="193"/>
+      <c r="Q29" s="188"/>
+      <c r="R29" s="189"/>
+      <c r="S29" s="189"/>
+      <c r="T29" s="189"/>
+      <c r="U29" s="189"/>
+      <c r="V29" s="189"/>
+      <c r="W29" s="189"/>
+      <c r="X29" s="189"/>
+      <c r="Y29" s="189"/>
+      <c r="Z29" s="189"/>
+      <c r="AA29" s="189"/>
+      <c r="AB29" s="189"/>
+      <c r="AC29" s="189"/>
+      <c r="AD29" s="189"/>
+      <c r="AE29" s="190"/>
+      <c r="AF29" s="191"/>
+      <c r="AG29" s="192"/>
+      <c r="AH29" s="192"/>
+      <c r="AI29" s="193"/>
     </row>
     <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
-      <c r="B30" s="185"/>
-      <c r="C30" s="187"/>
-      <c r="D30" s="212"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="214"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="186"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="197"/>
-      <c r="K30" s="198"/>
-      <c r="L30" s="198"/>
-      <c r="M30" s="198"/>
-      <c r="N30" s="198"/>
-      <c r="O30" s="198"/>
-      <c r="P30" s="199"/>
-      <c r="Q30" s="194"/>
-      <c r="R30" s="195"/>
-      <c r="S30" s="195"/>
-      <c r="T30" s="195"/>
-      <c r="U30" s="195"/>
-      <c r="V30" s="195"/>
-      <c r="W30" s="195"/>
-      <c r="X30" s="195"/>
-      <c r="Y30" s="195"/>
-      <c r="Z30" s="195"/>
-      <c r="AA30" s="195"/>
-      <c r="AB30" s="195"/>
-      <c r="AC30" s="195"/>
-      <c r="AD30" s="195"/>
-      <c r="AE30" s="196"/>
-      <c r="AF30" s="197"/>
-      <c r="AG30" s="198"/>
-      <c r="AH30" s="198"/>
-      <c r="AI30" s="199"/>
+      <c r="B30" s="194"/>
+      <c r="C30" s="195"/>
+      <c r="D30" s="196"/>
+      <c r="E30" s="197"/>
+      <c r="F30" s="198"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="191"/>
+      <c r="K30" s="192"/>
+      <c r="L30" s="192"/>
+      <c r="M30" s="192"/>
+      <c r="N30" s="192"/>
+      <c r="O30" s="192"/>
+      <c r="P30" s="193"/>
+      <c r="Q30" s="188"/>
+      <c r="R30" s="189"/>
+      <c r="S30" s="189"/>
+      <c r="T30" s="189"/>
+      <c r="U30" s="189"/>
+      <c r="V30" s="189"/>
+      <c r="W30" s="189"/>
+      <c r="X30" s="189"/>
+      <c r="Y30" s="189"/>
+      <c r="Z30" s="189"/>
+      <c r="AA30" s="189"/>
+      <c r="AB30" s="189"/>
+      <c r="AC30" s="189"/>
+      <c r="AD30" s="189"/>
+      <c r="AE30" s="190"/>
+      <c r="AF30" s="191"/>
+      <c r="AG30" s="192"/>
+      <c r="AH30" s="192"/>
+      <c r="AI30" s="193"/>
     </row>
     <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
-      <c r="B31" s="185"/>
-      <c r="C31" s="187"/>
-      <c r="D31" s="212"/>
-      <c r="E31" s="213"/>
-      <c r="F31" s="214"/>
-      <c r="G31" s="185"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="187"/>
-      <c r="J31" s="197"/>
-      <c r="K31" s="198"/>
-      <c r="L31" s="198"/>
-      <c r="M31" s="198"/>
-      <c r="N31" s="198"/>
-      <c r="O31" s="198"/>
-      <c r="P31" s="199"/>
-      <c r="Q31" s="194"/>
-      <c r="R31" s="195"/>
-      <c r="S31" s="195"/>
-      <c r="T31" s="195"/>
-      <c r="U31" s="195"/>
-      <c r="V31" s="195"/>
-      <c r="W31" s="195"/>
-      <c r="X31" s="195"/>
-      <c r="Y31" s="195"/>
-      <c r="Z31" s="195"/>
-      <c r="AA31" s="195"/>
-      <c r="AB31" s="195"/>
-      <c r="AC31" s="195"/>
-      <c r="AD31" s="195"/>
-      <c r="AE31" s="196"/>
-      <c r="AF31" s="197"/>
-      <c r="AG31" s="198"/>
-      <c r="AH31" s="198"/>
-      <c r="AI31" s="199"/>
+      <c r="B31" s="194"/>
+      <c r="C31" s="195"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="197"/>
+      <c r="F31" s="198"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="199"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="191"/>
+      <c r="K31" s="192"/>
+      <c r="L31" s="192"/>
+      <c r="M31" s="192"/>
+      <c r="N31" s="192"/>
+      <c r="O31" s="192"/>
+      <c r="P31" s="193"/>
+      <c r="Q31" s="188"/>
+      <c r="R31" s="189"/>
+      <c r="S31" s="189"/>
+      <c r="T31" s="189"/>
+      <c r="U31" s="189"/>
+      <c r="V31" s="189"/>
+      <c r="W31" s="189"/>
+      <c r="X31" s="189"/>
+      <c r="Y31" s="189"/>
+      <c r="Z31" s="189"/>
+      <c r="AA31" s="189"/>
+      <c r="AB31" s="189"/>
+      <c r="AC31" s="189"/>
+      <c r="AD31" s="189"/>
+      <c r="AE31" s="190"/>
+      <c r="AF31" s="191"/>
+      <c r="AG31" s="192"/>
+      <c r="AH31" s="192"/>
+      <c r="AI31" s="193"/>
     </row>
     <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
-      <c r="B32" s="185"/>
-      <c r="C32" s="187"/>
-      <c r="D32" s="212"/>
-      <c r="E32" s="213"/>
-      <c r="F32" s="214"/>
-      <c r="G32" s="185"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="187"/>
-      <c r="J32" s="197"/>
-      <c r="K32" s="198"/>
-      <c r="L32" s="198"/>
-      <c r="M32" s="198"/>
-      <c r="N32" s="198"/>
-      <c r="O32" s="198"/>
-      <c r="P32" s="199"/>
-      <c r="Q32" s="194"/>
-      <c r="R32" s="195"/>
-      <c r="S32" s="195"/>
-      <c r="T32" s="195"/>
-      <c r="U32" s="195"/>
-      <c r="V32" s="195"/>
-      <c r="W32" s="195"/>
-      <c r="X32" s="195"/>
-      <c r="Y32" s="195"/>
-      <c r="Z32" s="195"/>
-      <c r="AA32" s="195"/>
-      <c r="AB32" s="195"/>
-      <c r="AC32" s="195"/>
-      <c r="AD32" s="195"/>
-      <c r="AE32" s="196"/>
-      <c r="AF32" s="197"/>
-      <c r="AG32" s="198"/>
-      <c r="AH32" s="198"/>
-      <c r="AI32" s="199"/>
+      <c r="B32" s="194"/>
+      <c r="C32" s="195"/>
+      <c r="D32" s="196"/>
+      <c r="E32" s="197"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="194"/>
+      <c r="H32" s="199"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="191"/>
+      <c r="K32" s="192"/>
+      <c r="L32" s="192"/>
+      <c r="M32" s="192"/>
+      <c r="N32" s="192"/>
+      <c r="O32" s="192"/>
+      <c r="P32" s="193"/>
+      <c r="Q32" s="188"/>
+      <c r="R32" s="189"/>
+      <c r="S32" s="189"/>
+      <c r="T32" s="189"/>
+      <c r="U32" s="189"/>
+      <c r="V32" s="189"/>
+      <c r="W32" s="189"/>
+      <c r="X32" s="189"/>
+      <c r="Y32" s="189"/>
+      <c r="Z32" s="189"/>
+      <c r="AA32" s="189"/>
+      <c r="AB32" s="189"/>
+      <c r="AC32" s="189"/>
+      <c r="AD32" s="189"/>
+      <c r="AE32" s="190"/>
+      <c r="AF32" s="191"/>
+      <c r="AG32" s="192"/>
+      <c r="AH32" s="192"/>
+      <c r="AI32" s="193"/>
     </row>
     <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
-      <c r="B33" s="185"/>
-      <c r="C33" s="187"/>
-      <c r="D33" s="212"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="214"/>
-      <c r="G33" s="185"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="197"/>
-      <c r="K33" s="198"/>
-      <c r="L33" s="198"/>
-      <c r="M33" s="198"/>
-      <c r="N33" s="198"/>
-      <c r="O33" s="198"/>
-      <c r="P33" s="199"/>
-      <c r="Q33" s="194"/>
-      <c r="R33" s="195"/>
-      <c r="S33" s="195"/>
-      <c r="T33" s="195"/>
-      <c r="U33" s="195"/>
-      <c r="V33" s="195"/>
-      <c r="W33" s="195"/>
-      <c r="X33" s="195"/>
-      <c r="Y33" s="195"/>
-      <c r="Z33" s="195"/>
-      <c r="AA33" s="195"/>
-      <c r="AB33" s="195"/>
-      <c r="AC33" s="195"/>
-      <c r="AD33" s="195"/>
-      <c r="AE33" s="196"/>
-      <c r="AF33" s="197"/>
-      <c r="AG33" s="198"/>
-      <c r="AH33" s="198"/>
-      <c r="AI33" s="199"/>
+      <c r="B33" s="194"/>
+      <c r="C33" s="195"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="198"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="199"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="191"/>
+      <c r="K33" s="192"/>
+      <c r="L33" s="192"/>
+      <c r="M33" s="192"/>
+      <c r="N33" s="192"/>
+      <c r="O33" s="192"/>
+      <c r="P33" s="193"/>
+      <c r="Q33" s="188"/>
+      <c r="R33" s="189"/>
+      <c r="S33" s="189"/>
+      <c r="T33" s="189"/>
+      <c r="U33" s="189"/>
+      <c r="V33" s="189"/>
+      <c r="W33" s="189"/>
+      <c r="X33" s="189"/>
+      <c r="Y33" s="189"/>
+      <c r="Z33" s="189"/>
+      <c r="AA33" s="189"/>
+      <c r="AB33" s="189"/>
+      <c r="AC33" s="189"/>
+      <c r="AD33" s="189"/>
+      <c r="AE33" s="190"/>
+      <c r="AF33" s="191"/>
+      <c r="AG33" s="192"/>
+      <c r="AH33" s="192"/>
+      <c r="AI33" s="193"/>
     </row>
     <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
@@ -5387,6 +5399,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -5411,161 +5578,6 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -5721,158 +5733,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="236" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="241" t="str">
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
-      <c r="N1" s="243"/>
-      <c r="O1" s="247" t="s">
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="258"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="258"/>
+      <c r="L1" s="258"/>
+      <c r="M1" s="258"/>
+      <c r="N1" s="259"/>
+      <c r="O1" s="239" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="256" t="str">
+      <c r="P1" s="240"/>
+      <c r="Q1" s="240"/>
+      <c r="R1" s="241"/>
+      <c r="S1" s="248" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="257"/>
-      <c r="U1" s="257"/>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
-      <c r="X1" s="257"/>
-      <c r="Y1" s="257"/>
-      <c r="Z1" s="258"/>
-      <c r="AA1" s="244" t="s">
+      <c r="T1" s="249"/>
+      <c r="U1" s="249"/>
+      <c r="V1" s="249"/>
+      <c r="W1" s="249"/>
+      <c r="X1" s="249"/>
+      <c r="Y1" s="249"/>
+      <c r="Z1" s="250"/>
+      <c r="AA1" s="236" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="246"/>
-      <c r="AC1" s="235" t="str">
+      <c r="AB1" s="238"/>
+      <c r="AC1" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="236"/>
-      <c r="AE1" s="236"/>
-      <c r="AF1" s="237"/>
-      <c r="AG1" s="238">
+      <c r="AD1" s="261"/>
+      <c r="AE1" s="261"/>
+      <c r="AF1" s="262"/>
+      <c r="AG1" s="263">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="239"/>
-      <c r="AI1" s="240"/>
+      <c r="AH1" s="264"/>
+      <c r="AI1" s="265"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="236" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="241" t="str">
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="242"/>
-      <c r="M2" s="242"/>
-      <c r="N2" s="243"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="252"/>
-      <c r="S2" s="259"/>
-      <c r="T2" s="260"/>
-      <c r="U2" s="260"/>
-      <c r="V2" s="260"/>
-      <c r="W2" s="260"/>
-      <c r="X2" s="260"/>
-      <c r="Y2" s="260"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="244" t="s">
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="258"/>
+      <c r="M2" s="258"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="242"/>
+      <c r="P2" s="243"/>
+      <c r="Q2" s="243"/>
+      <c r="R2" s="244"/>
+      <c r="S2" s="251"/>
+      <c r="T2" s="252"/>
+      <c r="U2" s="252"/>
+      <c r="V2" s="252"/>
+      <c r="W2" s="252"/>
+      <c r="X2" s="252"/>
+      <c r="Y2" s="252"/>
+      <c r="Z2" s="253"/>
+      <c r="AA2" s="236" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="246"/>
-      <c r="AC2" s="235" t="str">
+      <c r="AB2" s="238"/>
+      <c r="AC2" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="236"/>
-      <c r="AE2" s="236"/>
-      <c r="AF2" s="237"/>
-      <c r="AG2" s="238" t="str">
+      <c r="AD2" s="261"/>
+      <c r="AE2" s="261"/>
+      <c r="AF2" s="262"/>
+      <c r="AG2" s="263" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="239"/>
-      <c r="AI2" s="240"/>
+      <c r="AH2" s="264"/>
+      <c r="AI2" s="265"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="241" t="str">
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="242"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="243"/>
-      <c r="O3" s="253"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="255"/>
-      <c r="S3" s="262"/>
-      <c r="T3" s="263"/>
-      <c r="U3" s="263"/>
-      <c r="V3" s="263"/>
-      <c r="W3" s="263"/>
-      <c r="X3" s="263"/>
-      <c r="Y3" s="263"/>
-      <c r="Z3" s="264"/>
-      <c r="AA3" s="244"/>
-      <c r="AB3" s="246"/>
-      <c r="AC3" s="235" t="str">
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="258"/>
+      <c r="N3" s="259"/>
+      <c r="O3" s="245"/>
+      <c r="P3" s="246"/>
+      <c r="Q3" s="246"/>
+      <c r="R3" s="247"/>
+      <c r="S3" s="254"/>
+      <c r="T3" s="255"/>
+      <c r="U3" s="255"/>
+      <c r="V3" s="255"/>
+      <c r="W3" s="255"/>
+      <c r="X3" s="255"/>
+      <c r="Y3" s="255"/>
+      <c r="Z3" s="256"/>
+      <c r="AA3" s="236"/>
+      <c r="AB3" s="238"/>
+      <c r="AC3" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="236"/>
-      <c r="AE3" s="236"/>
-      <c r="AF3" s="237"/>
-      <c r="AG3" s="238" t="str">
+      <c r="AD3" s="261"/>
+      <c r="AE3" s="261"/>
+      <c r="AF3" s="262"/>
+      <c r="AG3" s="263" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="239"/>
-      <c r="AI3" s="240"/>
+      <c r="AH3" s="264"/>
+      <c r="AI3" s="265"/>
     </row>
     <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
@@ -5929,7 +5941,7 @@
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R5" s="38"/>
       <c r="S5" s="38"/>
@@ -5990,7 +6002,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
       <c r="B7" s="43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="44"/>
@@ -6030,7 +6042,7 @@
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
@@ -6105,7 +6117,7 @@
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
       <c r="B10" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="42"/>
@@ -6754,6 +6766,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6763,14 +6783,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -6796,255 +6808,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="236" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="241" t="str">
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
-      <c r="N1" s="243"/>
-      <c r="O1" s="247" t="s">
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="258"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="258"/>
+      <c r="L1" s="258"/>
+      <c r="M1" s="258"/>
+      <c r="N1" s="259"/>
+      <c r="O1" s="239" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="256" t="str">
+      <c r="P1" s="240"/>
+      <c r="Q1" s="240"/>
+      <c r="R1" s="241"/>
+      <c r="S1" s="248" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="257"/>
-      <c r="U1" s="257"/>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
-      <c r="X1" s="257"/>
-      <c r="Y1" s="257"/>
-      <c r="Z1" s="258"/>
-      <c r="AA1" s="244" t="s">
+      <c r="T1" s="249"/>
+      <c r="U1" s="249"/>
+      <c r="V1" s="249"/>
+      <c r="W1" s="249"/>
+      <c r="X1" s="249"/>
+      <c r="Y1" s="249"/>
+      <c r="Z1" s="250"/>
+      <c r="AA1" s="236" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="246"/>
-      <c r="AC1" s="235" t="str">
+      <c r="AB1" s="238"/>
+      <c r="AC1" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="236"/>
-      <c r="AE1" s="236"/>
-      <c r="AF1" s="237"/>
-      <c r="AG1" s="238">
+      <c r="AD1" s="261"/>
+      <c r="AE1" s="261"/>
+      <c r="AF1" s="262"/>
+      <c r="AG1" s="263">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="239"/>
-      <c r="AI1" s="240"/>
+      <c r="AH1" s="264"/>
+      <c r="AI1" s="265"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="236" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="241" t="str">
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="242"/>
-      <c r="M2" s="242"/>
-      <c r="N2" s="243"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="252"/>
-      <c r="S2" s="259"/>
-      <c r="T2" s="260"/>
-      <c r="U2" s="260"/>
-      <c r="V2" s="260"/>
-      <c r="W2" s="260"/>
-      <c r="X2" s="260"/>
-      <c r="Y2" s="260"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="244" t="s">
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="258"/>
+      <c r="M2" s="258"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="242"/>
+      <c r="P2" s="243"/>
+      <c r="Q2" s="243"/>
+      <c r="R2" s="244"/>
+      <c r="S2" s="251"/>
+      <c r="T2" s="252"/>
+      <c r="U2" s="252"/>
+      <c r="V2" s="252"/>
+      <c r="W2" s="252"/>
+      <c r="X2" s="252"/>
+      <c r="Y2" s="252"/>
+      <c r="Z2" s="253"/>
+      <c r="AA2" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="246"/>
-      <c r="AC2" s="235" t="str">
+      <c r="AB2" s="238"/>
+      <c r="AC2" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="236"/>
-      <c r="AE2" s="236"/>
-      <c r="AF2" s="237"/>
-      <c r="AG2" s="238" t="str">
+      <c r="AD2" s="261"/>
+      <c r="AE2" s="261"/>
+      <c r="AF2" s="262"/>
+      <c r="AG2" s="263" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="239"/>
-      <c r="AI2" s="240"/>
+      <c r="AH2" s="264"/>
+      <c r="AI2" s="265"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="236" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="241" t="str">
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="242"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="243"/>
-      <c r="O3" s="253"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="255"/>
-      <c r="S3" s="262"/>
-      <c r="T3" s="263"/>
-      <c r="U3" s="263"/>
-      <c r="V3" s="263"/>
-      <c r="W3" s="263"/>
-      <c r="X3" s="263"/>
-      <c r="Y3" s="263"/>
-      <c r="Z3" s="264"/>
-      <c r="AA3" s="244"/>
-      <c r="AB3" s="246"/>
-      <c r="AC3" s="235" t="str">
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="258"/>
+      <c r="N3" s="259"/>
+      <c r="O3" s="245"/>
+      <c r="P3" s="246"/>
+      <c r="Q3" s="246"/>
+      <c r="R3" s="247"/>
+      <c r="S3" s="254"/>
+      <c r="T3" s="255"/>
+      <c r="U3" s="255"/>
+      <c r="V3" s="255"/>
+      <c r="W3" s="255"/>
+      <c r="X3" s="255"/>
+      <c r="Y3" s="255"/>
+      <c r="Z3" s="256"/>
+      <c r="AA3" s="236"/>
+      <c r="AB3" s="238"/>
+      <c r="AC3" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="236"/>
-      <c r="AE3" s="236"/>
-      <c r="AF3" s="237"/>
-      <c r="AG3" s="238" t="str">
+      <c r="AD3" s="261"/>
+      <c r="AE3" s="261"/>
+      <c r="AF3" s="262"/>
+      <c r="AG3" s="263" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="239"/>
-      <c r="AI3" s="240"/>
+      <c r="AH3" s="264"/>
+      <c r="AI3" s="265"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="81"/>
-      <c r="C8" s="275" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="276"/>
-      <c r="E8" s="276"/>
-      <c r="F8" s="277"/>
-      <c r="G8" s="278" t="s">
+      <c r="C8" s="276" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="277"/>
+      <c r="E8" s="277"/>
+      <c r="F8" s="278"/>
+      <c r="G8" s="279" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="279"/>
-      <c r="I8" s="279"/>
-      <c r="J8" s="279"/>
-      <c r="K8" s="279"/>
-      <c r="L8" s="276"/>
-      <c r="M8" s="276"/>
-      <c r="N8" s="276"/>
-      <c r="O8" s="276"/>
-      <c r="P8" s="276"/>
-      <c r="Q8" s="276"/>
-      <c r="R8" s="276"/>
-      <c r="S8" s="276"/>
-      <c r="T8" s="276"/>
-      <c r="U8" s="276"/>
-      <c r="V8" s="276"/>
-      <c r="W8" s="276"/>
-      <c r="X8" s="276"/>
-      <c r="Y8" s="276"/>
-      <c r="Z8" s="276"/>
-      <c r="AA8" s="276"/>
-      <c r="AB8" s="276"/>
-      <c r="AC8" s="276"/>
-      <c r="AD8" s="276"/>
-      <c r="AE8" s="276"/>
-      <c r="AF8" s="276"/>
-      <c r="AG8" s="277"/>
+      <c r="H8" s="280"/>
+      <c r="I8" s="280"/>
+      <c r="J8" s="280"/>
+      <c r="K8" s="280"/>
+      <c r="L8" s="277"/>
+      <c r="M8" s="277"/>
+      <c r="N8" s="277"/>
+      <c r="O8" s="277"/>
+      <c r="P8" s="277"/>
+      <c r="Q8" s="277"/>
+      <c r="R8" s="277"/>
+      <c r="S8" s="277"/>
+      <c r="T8" s="277"/>
+      <c r="U8" s="277"/>
+      <c r="V8" s="277"/>
+      <c r="W8" s="277"/>
+      <c r="X8" s="277"/>
+      <c r="Y8" s="277"/>
+      <c r="Z8" s="277"/>
+      <c r="AA8" s="277"/>
+      <c r="AB8" s="277"/>
+      <c r="AC8" s="277"/>
+      <c r="AD8" s="277"/>
+      <c r="AE8" s="277"/>
+      <c r="AF8" s="277"/>
+      <c r="AG8" s="278"/>
     </row>
     <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="81"/>
-      <c r="C9" s="280" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="281"/>
-      <c r="E9" s="281"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="278" t="s">
+      <c r="C9" s="281" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="282"/>
+      <c r="E9" s="282"/>
+      <c r="F9" s="283"/>
+      <c r="G9" s="279" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="276"/>
-      <c r="I9" s="276"/>
-      <c r="J9" s="276"/>
-      <c r="K9" s="276"/>
-      <c r="L9" s="276"/>
-      <c r="M9" s="276"/>
-      <c r="N9" s="276"/>
-      <c r="O9" s="276"/>
-      <c r="P9" s="276"/>
-      <c r="Q9" s="276"/>
-      <c r="R9" s="276"/>
-      <c r="S9" s="276"/>
-      <c r="T9" s="276"/>
-      <c r="U9" s="276"/>
-      <c r="V9" s="276"/>
-      <c r="W9" s="276"/>
-      <c r="X9" s="276"/>
-      <c r="Y9" s="276"/>
-      <c r="Z9" s="276"/>
-      <c r="AA9" s="276"/>
-      <c r="AB9" s="276"/>
-      <c r="AC9" s="276"/>
-      <c r="AD9" s="276"/>
-      <c r="AE9" s="276"/>
-      <c r="AF9" s="276"/>
-      <c r="AG9" s="277"/>
+      <c r="H9" s="277"/>
+      <c r="I9" s="277"/>
+      <c r="J9" s="277"/>
+      <c r="K9" s="277"/>
+      <c r="L9" s="277"/>
+      <c r="M9" s="277"/>
+      <c r="N9" s="277"/>
+      <c r="O9" s="277"/>
+      <c r="P9" s="277"/>
+      <c r="Q9" s="277"/>
+      <c r="R9" s="277"/>
+      <c r="S9" s="277"/>
+      <c r="T9" s="277"/>
+      <c r="U9" s="277"/>
+      <c r="V9" s="277"/>
+      <c r="W9" s="277"/>
+      <c r="X9" s="277"/>
+      <c r="Y9" s="277"/>
+      <c r="Z9" s="277"/>
+      <c r="AA9" s="277"/>
+      <c r="AB9" s="277"/>
+      <c r="AC9" s="277"/>
+      <c r="AD9" s="277"/>
+      <c r="AE9" s="277"/>
+      <c r="AF9" s="277"/>
+      <c r="AG9" s="278"/>
     </row>
     <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="81"/>
-      <c r="C10" s="266" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="267"/>
-      <c r="E10" s="267"/>
-      <c r="F10" s="268"/>
+      <c r="C10" s="267" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="268"/>
+      <c r="E10" s="268"/>
+      <c r="F10" s="269"/>
       <c r="G10" s="82" t="s">
         <v>50</v>
       </c>
@@ -7077,10 +7089,10 @@
     </row>
     <row r="11" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="81"/>
-      <c r="C11" s="269"/>
-      <c r="D11" s="270"/>
-      <c r="E11" s="270"/>
-      <c r="F11" s="271"/>
+      <c r="C11" s="270"/>
+      <c r="D11" s="271"/>
+      <c r="E11" s="271"/>
+      <c r="F11" s="272"/>
       <c r="G11" s="85"/>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
@@ -7111,10 +7123,10 @@
     </row>
     <row r="12" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="81"/>
-      <c r="C12" s="269"/>
-      <c r="D12" s="270"/>
-      <c r="E12" s="270"/>
-      <c r="F12" s="271"/>
+      <c r="C12" s="270"/>
+      <c r="D12" s="271"/>
+      <c r="E12" s="271"/>
+      <c r="F12" s="272"/>
       <c r="G12" s="87"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
@@ -7145,10 +7157,10 @@
     </row>
     <row r="13" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="81"/>
-      <c r="C13" s="272"/>
-      <c r="D13" s="273"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="274"/>
+      <c r="C13" s="273"/>
+      <c r="D13" s="274"/>
+      <c r="E13" s="274"/>
+      <c r="F13" s="275"/>
       <c r="G13" s="88"/>
       <c r="H13" s="89"/>
       <c r="I13" s="89"/>
@@ -7179,12 +7191,12 @@
     </row>
     <row r="14" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="81"/>
-      <c r="C14" s="265" t="s">
+      <c r="C14" s="266" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="265"/>
-      <c r="E14" s="265"/>
-      <c r="F14" s="265"/>
+      <c r="D14" s="266"/>
+      <c r="E14" s="266"/>
+      <c r="F14" s="266"/>
       <c r="G14" s="91" t="s">
         <v>52</v>
       </c>
@@ -7255,6 +7267,18 @@
     <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7266,18 +7290,6 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7294,9 +7306,9 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BG157"/>
+  <dimension ref="A1:BG158"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -7308,166 +7320,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="320" t="s">
+      <c r="A1" s="376" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="322"/>
-      <c r="E1" s="241" t="str">
+      <c r="B1" s="377"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
-      <c r="N1" s="243"/>
-      <c r="O1" s="247" t="s">
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="258"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="258"/>
+      <c r="L1" s="258"/>
+      <c r="M1" s="258"/>
+      <c r="N1" s="259"/>
+      <c r="O1" s="239" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="256" t="str">
+      <c r="P1" s="240"/>
+      <c r="Q1" s="240"/>
+      <c r="R1" s="241"/>
+      <c r="S1" s="248" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="257"/>
-      <c r="U1" s="257"/>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
-      <c r="X1" s="257"/>
-      <c r="Y1" s="257"/>
-      <c r="Z1" s="258"/>
-      <c r="AA1" s="244" t="s">
+      <c r="T1" s="249"/>
+      <c r="U1" s="249"/>
+      <c r="V1" s="249"/>
+      <c r="W1" s="249"/>
+      <c r="X1" s="249"/>
+      <c r="Y1" s="249"/>
+      <c r="Z1" s="250"/>
+      <c r="AA1" s="236" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="246"/>
-      <c r="AC1" s="235" t="str">
+      <c r="AB1" s="238"/>
+      <c r="AC1" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="236"/>
-      <c r="AE1" s="236"/>
-      <c r="AF1" s="237"/>
-      <c r="AG1" s="317">
+      <c r="AD1" s="261"/>
+      <c r="AE1" s="261"/>
+      <c r="AF1" s="262"/>
+      <c r="AG1" s="373">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="318"/>
-      <c r="AI1" s="319"/>
+      <c r="AH1" s="374"/>
+      <c r="AI1" s="375"/>
       <c r="AJ1" s="94"/>
     </row>
     <row r="2" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="320" t="s">
+      <c r="A2" s="376" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="321"/>
-      <c r="C2" s="321"/>
-      <c r="D2" s="322"/>
-      <c r="E2" s="241" t="str">
+      <c r="B2" s="377"/>
+      <c r="C2" s="377"/>
+      <c r="D2" s="378"/>
+      <c r="E2" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="242"/>
-      <c r="M2" s="242"/>
-      <c r="N2" s="243"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="252"/>
-      <c r="S2" s="259"/>
-      <c r="T2" s="260"/>
-      <c r="U2" s="260"/>
-      <c r="V2" s="260"/>
-      <c r="W2" s="260"/>
-      <c r="X2" s="260"/>
-      <c r="Y2" s="260"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="244" t="s">
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="258"/>
+      <c r="M2" s="258"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="242"/>
+      <c r="P2" s="243"/>
+      <c r="Q2" s="243"/>
+      <c r="R2" s="244"/>
+      <c r="S2" s="251"/>
+      <c r="T2" s="252"/>
+      <c r="U2" s="252"/>
+      <c r="V2" s="252"/>
+      <c r="W2" s="252"/>
+      <c r="X2" s="252"/>
+      <c r="Y2" s="252"/>
+      <c r="Z2" s="253"/>
+      <c r="AA2" s="236" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="246"/>
-      <c r="AC2" s="235" t="str">
+      <c r="AB2" s="238"/>
+      <c r="AC2" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="236"/>
-      <c r="AE2" s="236"/>
-      <c r="AF2" s="237"/>
-      <c r="AG2" s="317" t="str">
+      <c r="AD2" s="261"/>
+      <c r="AE2" s="261"/>
+      <c r="AF2" s="262"/>
+      <c r="AG2" s="373" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="318"/>
-      <c r="AI2" s="319"/>
+      <c r="AH2" s="374"/>
+      <c r="AI2" s="375"/>
       <c r="AJ2" s="94"/>
     </row>
     <row r="3" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="320" t="s">
+      <c r="A3" s="376" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="321"/>
-      <c r="C3" s="321"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="241" t="str">
+      <c r="B3" s="377"/>
+      <c r="C3" s="377"/>
+      <c r="D3" s="378"/>
+      <c r="E3" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="242"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="243"/>
-      <c r="O3" s="253"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="255"/>
-      <c r="S3" s="262"/>
-      <c r="T3" s="263"/>
-      <c r="U3" s="263"/>
-      <c r="V3" s="263"/>
-      <c r="W3" s="263"/>
-      <c r="X3" s="263"/>
-      <c r="Y3" s="263"/>
-      <c r="Z3" s="264"/>
-      <c r="AA3" s="244"/>
-      <c r="AB3" s="246"/>
-      <c r="AC3" s="235" t="str">
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="258"/>
+      <c r="N3" s="259"/>
+      <c r="O3" s="245"/>
+      <c r="P3" s="246"/>
+      <c r="Q3" s="246"/>
+      <c r="R3" s="247"/>
+      <c r="S3" s="254"/>
+      <c r="T3" s="255"/>
+      <c r="U3" s="255"/>
+      <c r="V3" s="255"/>
+      <c r="W3" s="255"/>
+      <c r="X3" s="255"/>
+      <c r="Y3" s="255"/>
+      <c r="Z3" s="256"/>
+      <c r="AA3" s="236"/>
+      <c r="AB3" s="238"/>
+      <c r="AC3" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="236"/>
-      <c r="AE3" s="236"/>
-      <c r="AF3" s="237"/>
-      <c r="AG3" s="317" t="str">
+      <c r="AD3" s="261"/>
+      <c r="AE3" s="261"/>
+      <c r="AF3" s="262"/>
+      <c r="AG3" s="373" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="318"/>
-      <c r="AI3" s="319"/>
+      <c r="AH3" s="374"/>
+      <c r="AI3" s="375"/>
       <c r="AJ3" s="94"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="95" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -7613,39 +7625,39 @@
       <c r="D43" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="283" t="s">
+      <c r="E43" s="379" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="283"/>
-      <c r="G43" s="283"/>
-      <c r="H43" s="283"/>
-      <c r="I43" s="283"/>
-      <c r="J43" s="283"/>
-      <c r="K43" s="283"/>
-      <c r="L43" s="283"/>
-      <c r="M43" s="283"/>
-      <c r="N43" s="283" t="s">
+      <c r="F43" s="379"/>
+      <c r="G43" s="379"/>
+      <c r="H43" s="379"/>
+      <c r="I43" s="379"/>
+      <c r="J43" s="379"/>
+      <c r="K43" s="379"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379" t="s">
         <v>54</v>
       </c>
-      <c r="O43" s="283"/>
-      <c r="P43" s="283"/>
-      <c r="Q43" s="283" t="s">
+      <c r="O43" s="379"/>
+      <c r="P43" s="379"/>
+      <c r="Q43" s="379" t="s">
         <v>55</v>
       </c>
-      <c r="R43" s="283"/>
-      <c r="S43" s="283"/>
-      <c r="T43" s="283"/>
-      <c r="U43" s="283"/>
-      <c r="V43" s="283" t="s">
+      <c r="R43" s="379"/>
+      <c r="S43" s="379"/>
+      <c r="T43" s="379"/>
+      <c r="U43" s="379"/>
+      <c r="V43" s="379" t="s">
         <v>56</v>
       </c>
-      <c r="W43" s="283"/>
-      <c r="X43" s="283"/>
-      <c r="Y43" s="283"/>
-      <c r="Z43" s="283"/>
-      <c r="AA43" s="283"/>
-      <c r="AB43" s="283"/>
-      <c r="AC43" s="283"/>
+      <c r="W43" s="379"/>
+      <c r="X43" s="379"/>
+      <c r="Y43" s="379"/>
+      <c r="Z43" s="379"/>
+      <c r="AA43" s="379"/>
+      <c r="AB43" s="379"/>
+      <c r="AC43" s="379"/>
       <c r="AD43" s="96"/>
       <c r="AE43" s="96"/>
       <c r="AF43" s="96"/>
@@ -7656,39 +7668,39 @@
       <c r="D44" s="98">
         <v>1</v>
       </c>
-      <c r="E44" s="284" t="s">
+      <c r="E44" s="380" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="284"/>
-      <c r="G44" s="284"/>
-      <c r="H44" s="284"/>
-      <c r="I44" s="284"/>
-      <c r="J44" s="284"/>
-      <c r="K44" s="284"/>
-      <c r="L44" s="284"/>
-      <c r="M44" s="284"/>
-      <c r="N44" s="284" t="s">
+      <c r="F44" s="380"/>
+      <c r="G44" s="380"/>
+      <c r="H44" s="380"/>
+      <c r="I44" s="380"/>
+      <c r="J44" s="380"/>
+      <c r="K44" s="380"/>
+      <c r="L44" s="380"/>
+      <c r="M44" s="380"/>
+      <c r="N44" s="380" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="284"/>
-      <c r="P44" s="284"/>
-      <c r="Q44" s="316" t="s">
+      <c r="O44" s="380"/>
+      <c r="P44" s="380"/>
+      <c r="Q44" s="337" t="s">
         <v>39</v>
       </c>
-      <c r="R44" s="316"/>
-      <c r="S44" s="316"/>
-      <c r="T44" s="316"/>
-      <c r="U44" s="316"/>
-      <c r="V44" s="316" t="s">
+      <c r="R44" s="337"/>
+      <c r="S44" s="337"/>
+      <c r="T44" s="337"/>
+      <c r="U44" s="337"/>
+      <c r="V44" s="337" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="316"/>
-      <c r="X44" s="316"/>
-      <c r="Y44" s="316"/>
-      <c r="Z44" s="316"/>
-      <c r="AA44" s="316"/>
-      <c r="AB44" s="316"/>
-      <c r="AC44" s="316"/>
+      <c r="W44" s="337"/>
+      <c r="X44" s="337"/>
+      <c r="Y44" s="337"/>
+      <c r="Z44" s="337"/>
+      <c r="AA44" s="337"/>
+      <c r="AB44" s="337"/>
+      <c r="AC44" s="337"/>
       <c r="AM44" s="40"/>
     </row>
     <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7765,42 +7777,42 @@
       <c r="AZ48" s="49"/>
     </row>
     <row r="49" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="332" t="s">
+      <c r="D49" s="291" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="307" t="s">
+      <c r="E49" s="368" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="308"/>
-      <c r="G49" s="308"/>
-      <c r="H49" s="308"/>
-      <c r="I49" s="308"/>
-      <c r="J49" s="308"/>
-      <c r="K49" s="308"/>
-      <c r="L49" s="308"/>
-      <c r="M49" s="308"/>
-      <c r="N49" s="308"/>
-      <c r="O49" s="308"/>
-      <c r="P49" s="308"/>
-      <c r="Q49" s="308"/>
-      <c r="R49" s="308"/>
-      <c r="S49" s="308"/>
-      <c r="T49" s="308"/>
-      <c r="U49" s="308"/>
-      <c r="V49" s="308"/>
-      <c r="W49" s="308"/>
-      <c r="X49" s="308"/>
-      <c r="Y49" s="308"/>
-      <c r="Z49" s="308"/>
-      <c r="AA49" s="308"/>
-      <c r="AB49" s="308"/>
-      <c r="AC49" s="309"/>
-      <c r="AD49" s="266" t="s">
+      <c r="F49" s="369"/>
+      <c r="G49" s="369"/>
+      <c r="H49" s="369"/>
+      <c r="I49" s="369"/>
+      <c r="J49" s="369"/>
+      <c r="K49" s="369"/>
+      <c r="L49" s="369"/>
+      <c r="M49" s="369"/>
+      <c r="N49" s="369"/>
+      <c r="O49" s="369"/>
+      <c r="P49" s="369"/>
+      <c r="Q49" s="369"/>
+      <c r="R49" s="369"/>
+      <c r="S49" s="369"/>
+      <c r="T49" s="369"/>
+      <c r="U49" s="369"/>
+      <c r="V49" s="369"/>
+      <c r="W49" s="369"/>
+      <c r="X49" s="369"/>
+      <c r="Y49" s="369"/>
+      <c r="Z49" s="369"/>
+      <c r="AA49" s="369"/>
+      <c r="AB49" s="369"/>
+      <c r="AC49" s="370"/>
+      <c r="AD49" s="267" t="s">
         <v>58</v>
       </c>
-      <c r="AE49" s="267"/>
-      <c r="AF49" s="267"/>
-      <c r="AG49" s="268"/>
+      <c r="AE49" s="268"/>
+      <c r="AF49" s="268"/>
+      <c r="AG49" s="269"/>
       <c r="AH49" s="49"/>
       <c r="AI49" s="49"/>
       <c r="AJ49" s="49"/>
@@ -7812,48 +7824,48 @@
       <c r="AN49" s="49"/>
     </row>
     <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="333"/>
-      <c r="E50" s="266" t="s">
+      <c r="D50" s="338"/>
+      <c r="E50" s="267" t="s">
         <v>60</v>
       </c>
-      <c r="F50" s="267"/>
-      <c r="G50" s="267"/>
-      <c r="H50" s="268"/>
-      <c r="I50" s="301" t="s">
+      <c r="F50" s="268"/>
+      <c r="G50" s="268"/>
+      <c r="H50" s="269"/>
+      <c r="I50" s="339" t="s">
         <v>61</v>
       </c>
-      <c r="J50" s="302"/>
-      <c r="K50" s="302"/>
-      <c r="L50" s="303"/>
-      <c r="M50" s="301" t="s">
+      <c r="J50" s="340"/>
+      <c r="K50" s="340"/>
+      <c r="L50" s="341"/>
+      <c r="M50" s="339" t="s">
         <v>62</v>
       </c>
-      <c r="N50" s="302"/>
-      <c r="O50" s="302"/>
-      <c r="P50" s="302"/>
-      <c r="Q50" s="302"/>
-      <c r="R50" s="302"/>
-      <c r="S50" s="302"/>
-      <c r="T50" s="303"/>
-      <c r="U50" s="266" t="s">
+      <c r="N50" s="340"/>
+      <c r="O50" s="340"/>
+      <c r="P50" s="340"/>
+      <c r="Q50" s="340"/>
+      <c r="R50" s="340"/>
+      <c r="S50" s="340"/>
+      <c r="T50" s="341"/>
+      <c r="U50" s="267" t="s">
         <v>63</v>
       </c>
-      <c r="V50" s="267"/>
-      <c r="W50" s="267"/>
-      <c r="X50" s="267"/>
-      <c r="Y50" s="268"/>
-      <c r="Z50" s="266" t="s">
+      <c r="V50" s="268"/>
+      <c r="W50" s="268"/>
+      <c r="X50" s="268"/>
+      <c r="Y50" s="269"/>
+      <c r="Z50" s="267" t="s">
         <v>64</v>
       </c>
-      <c r="AA50" s="267"/>
-      <c r="AB50" s="268"/>
-      <c r="AC50" s="310" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD50" s="269"/>
-      <c r="AE50" s="270"/>
-      <c r="AF50" s="270"/>
-      <c r="AG50" s="271"/>
+      <c r="AA50" s="268"/>
+      <c r="AB50" s="269"/>
+      <c r="AC50" s="385" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD50" s="270"/>
+      <c r="AE50" s="271"/>
+      <c r="AF50" s="271"/>
+      <c r="AG50" s="272"/>
       <c r="AH50" s="49"/>
       <c r="AI50" s="49"/>
       <c r="AJ50" s="49"/>
@@ -7869,36 +7881,36 @@
       <c r="AT50" s="49"/>
     </row>
     <row r="51" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="334"/>
-      <c r="E51" s="272"/>
-      <c r="F51" s="273"/>
-      <c r="G51" s="273"/>
-      <c r="H51" s="274"/>
-      <c r="I51" s="304"/>
-      <c r="J51" s="305"/>
-      <c r="K51" s="305"/>
-      <c r="L51" s="306"/>
-      <c r="M51" s="304"/>
-      <c r="N51" s="305"/>
-      <c r="O51" s="305"/>
-      <c r="P51" s="305"/>
-      <c r="Q51" s="305"/>
-      <c r="R51" s="305"/>
-      <c r="S51" s="305"/>
-      <c r="T51" s="306"/>
-      <c r="U51" s="272"/>
-      <c r="V51" s="273"/>
-      <c r="W51" s="273"/>
-      <c r="X51" s="273"/>
-      <c r="Y51" s="274"/>
-      <c r="Z51" s="272"/>
-      <c r="AA51" s="273"/>
-      <c r="AB51" s="274"/>
-      <c r="AC51" s="311"/>
-      <c r="AD51" s="272"/>
-      <c r="AE51" s="273"/>
-      <c r="AF51" s="273"/>
-      <c r="AG51" s="274"/>
+      <c r="D51" s="292"/>
+      <c r="E51" s="273"/>
+      <c r="F51" s="274"/>
+      <c r="G51" s="274"/>
+      <c r="H51" s="275"/>
+      <c r="I51" s="342"/>
+      <c r="J51" s="343"/>
+      <c r="K51" s="343"/>
+      <c r="L51" s="344"/>
+      <c r="M51" s="342"/>
+      <c r="N51" s="343"/>
+      <c r="O51" s="343"/>
+      <c r="P51" s="343"/>
+      <c r="Q51" s="343"/>
+      <c r="R51" s="343"/>
+      <c r="S51" s="343"/>
+      <c r="T51" s="344"/>
+      <c r="U51" s="273"/>
+      <c r="V51" s="274"/>
+      <c r="W51" s="274"/>
+      <c r="X51" s="274"/>
+      <c r="Y51" s="275"/>
+      <c r="Z51" s="273"/>
+      <c r="AA51" s="274"/>
+      <c r="AB51" s="275"/>
+      <c r="AC51" s="386"/>
+      <c r="AD51" s="273"/>
+      <c r="AE51" s="274"/>
+      <c r="AF51" s="274"/>
+      <c r="AG51" s="275"/>
       <c r="AH51" s="49"/>
       <c r="AI51" s="49"/>
       <c r="AJ51" s="49"/>
@@ -7919,49 +7931,49 @@
       <c r="D52" s="104">
         <v>1</v>
       </c>
-      <c r="E52" s="278" t="s">
-        <v>178</v>
-      </c>
-      <c r="F52" s="279"/>
-      <c r="G52" s="279"/>
-      <c r="H52" s="300"/>
-      <c r="I52" s="299" t="s">
+      <c r="E52" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="F52" s="280"/>
+      <c r="G52" s="280"/>
+      <c r="H52" s="371"/>
+      <c r="I52" s="372" t="s">
         <v>67</v>
       </c>
-      <c r="J52" s="299"/>
-      <c r="K52" s="299"/>
-      <c r="L52" s="299"/>
-      <c r="M52" s="315" t="s">
+      <c r="J52" s="372"/>
+      <c r="K52" s="372"/>
+      <c r="L52" s="372"/>
+      <c r="M52" s="387" t="s">
         <v>39</v>
       </c>
-      <c r="N52" s="315"/>
-      <c r="O52" s="315"/>
-      <c r="P52" s="315"/>
-      <c r="Q52" s="315"/>
-      <c r="R52" s="315"/>
-      <c r="S52" s="315"/>
-      <c r="T52" s="315"/>
-      <c r="U52" s="295" t="s">
+      <c r="N52" s="387"/>
+      <c r="O52" s="387"/>
+      <c r="P52" s="387"/>
+      <c r="Q52" s="387"/>
+      <c r="R52" s="387"/>
+      <c r="S52" s="387"/>
+      <c r="T52" s="387"/>
+      <c r="U52" s="361" t="s">
         <v>39</v>
       </c>
-      <c r="V52" s="295"/>
-      <c r="W52" s="295"/>
-      <c r="X52" s="295"/>
-      <c r="Y52" s="295"/>
-      <c r="Z52" s="295" t="s">
+      <c r="V52" s="361"/>
+      <c r="W52" s="361"/>
+      <c r="X52" s="361"/>
+      <c r="Y52" s="361"/>
+      <c r="Z52" s="361" t="s">
         <v>39</v>
       </c>
-      <c r="AA52" s="295"/>
-      <c r="AB52" s="295"/>
+      <c r="AA52" s="361"/>
+      <c r="AB52" s="361"/>
       <c r="AC52" s="105" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD52" s="296" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD52" s="355" t="s">
         <v>66</v>
       </c>
-      <c r="AE52" s="297"/>
-      <c r="AF52" s="297"/>
-      <c r="AG52" s="298"/>
+      <c r="AE52" s="289"/>
+      <c r="AF52" s="289"/>
+      <c r="AG52" s="290"/>
       <c r="AH52" s="49"/>
       <c r="AI52" s="49"/>
       <c r="AJ52" s="49"/>
@@ -7982,55 +7994,55 @@
       <c r="D53" s="104">
         <v>2</v>
       </c>
-      <c r="E53" s="278" t="s">
+      <c r="E53" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="F53" s="279"/>
-      <c r="G53" s="279"/>
-      <c r="H53" s="300"/>
-      <c r="I53" s="299" t="s">
+      <c r="F53" s="280"/>
+      <c r="G53" s="280"/>
+      <c r="H53" s="371"/>
+      <c r="I53" s="372" t="s">
         <v>70</v>
       </c>
-      <c r="J53" s="299"/>
-      <c r="K53" s="299"/>
-      <c r="L53" s="299"/>
-      <c r="M53" s="312" t="s">
+      <c r="J53" s="372"/>
+      <c r="K53" s="372"/>
+      <c r="L53" s="372"/>
+      <c r="M53" s="314" t="s">
         <v>39</v>
       </c>
-      <c r="N53" s="313"/>
-      <c r="O53" s="313"/>
-      <c r="P53" s="313"/>
-      <c r="Q53" s="313"/>
-      <c r="R53" s="313"/>
-      <c r="S53" s="313"/>
-      <c r="T53" s="314"/>
-      <c r="U53" s="296" t="s">
+      <c r="N53" s="315"/>
+      <c r="O53" s="315"/>
+      <c r="P53" s="315"/>
+      <c r="Q53" s="315"/>
+      <c r="R53" s="315"/>
+      <c r="S53" s="315"/>
+      <c r="T53" s="316"/>
+      <c r="U53" s="355" t="s">
         <v>71</v>
       </c>
-      <c r="V53" s="297"/>
-      <c r="W53" s="297"/>
-      <c r="X53" s="297"/>
-      <c r="Y53" s="298"/>
-      <c r="Z53" s="295" t="s">
+      <c r="V53" s="289"/>
+      <c r="W53" s="289"/>
+      <c r="X53" s="289"/>
+      <c r="Y53" s="290"/>
+      <c r="Z53" s="361" t="s">
         <v>39</v>
       </c>
-      <c r="AA53" s="295"/>
-      <c r="AB53" s="295"/>
+      <c r="AA53" s="361"/>
+      <c r="AB53" s="361"/>
       <c r="AC53" s="105" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD53" s="296" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE53" s="297"/>
-      <c r="AF53" s="297"/>
-      <c r="AG53" s="298"/>
+        <v>173</v>
+      </c>
+      <c r="AD53" s="355" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE53" s="289"/>
+      <c r="AF53" s="289"/>
+      <c r="AG53" s="290"/>
       <c r="AH53" s="49"/>
       <c r="AI53" s="49"/>
       <c r="AJ53" s="49"/>
       <c r="AK53" s="49"/>
       <c r="AL53" s="91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM53" s="92"/>
       <c r="AN53" s="92"/>
@@ -8149,49 +8161,49 @@
       <c r="AW57" s="42"/>
     </row>
     <row r="58" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="D58" s="335" t="s">
+      <c r="D58" s="345" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="287" t="s">
+      <c r="E58" s="347" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58" s="348"/>
+      <c r="G58" s="348"/>
+      <c r="H58" s="348"/>
+      <c r="I58" s="348"/>
+      <c r="J58" s="349"/>
+      <c r="K58" s="347" t="s">
         <v>74</v>
       </c>
-      <c r="F58" s="288"/>
-      <c r="G58" s="288"/>
-      <c r="H58" s="288"/>
-      <c r="I58" s="288"/>
-      <c r="J58" s="289"/>
-      <c r="K58" s="287" t="s">
+      <c r="L58" s="348"/>
+      <c r="M58" s="348"/>
+      <c r="N58" s="349"/>
+      <c r="O58" s="381" t="s">
         <v>75</v>
       </c>
-      <c r="L58" s="288"/>
-      <c r="M58" s="288"/>
-      <c r="N58" s="289"/>
-      <c r="O58" s="285" t="s">
+      <c r="P58" s="110" t="s">
         <v>76</v>
-      </c>
-      <c r="P58" s="110" t="s">
-        <v>77</v>
       </c>
       <c r="Q58" s="111"/>
       <c r="R58" s="111"/>
       <c r="S58" s="111"/>
       <c r="T58" s="111"/>
       <c r="U58" s="111"/>
-      <c r="V58" s="287" t="s">
+      <c r="V58" s="347" t="s">
         <v>56</v>
       </c>
-      <c r="W58" s="288"/>
-      <c r="X58" s="288"/>
-      <c r="Y58" s="288"/>
-      <c r="Z58" s="288"/>
-      <c r="AA58" s="288"/>
-      <c r="AB58" s="288"/>
-      <c r="AC58" s="288"/>
-      <c r="AD58" s="288"/>
-      <c r="AE58" s="288"/>
-      <c r="AF58" s="288"/>
-      <c r="AG58" s="288"/>
-      <c r="AH58" s="289"/>
+      <c r="W58" s="348"/>
+      <c r="X58" s="348"/>
+      <c r="Y58" s="348"/>
+      <c r="Z58" s="348"/>
+      <c r="AA58" s="348"/>
+      <c r="AB58" s="348"/>
+      <c r="AC58" s="348"/>
+      <c r="AD58" s="348"/>
+      <c r="AE58" s="348"/>
+      <c r="AF58" s="348"/>
+      <c r="AG58" s="348"/>
+      <c r="AH58" s="349"/>
       <c r="AK58" s="42"/>
       <c r="AL58" s="42"/>
       <c r="AM58" s="42"/>
@@ -8207,47 +8219,47 @@
       <c r="AW58" s="42"/>
     </row>
     <row r="59" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="D59" s="336"/>
-      <c r="E59" s="290"/>
-      <c r="F59" s="291"/>
-      <c r="G59" s="291"/>
-      <c r="H59" s="291"/>
-      <c r="I59" s="291"/>
-      <c r="J59" s="292"/>
-      <c r="K59" s="290"/>
-      <c r="L59" s="291"/>
-      <c r="M59" s="291"/>
-      <c r="N59" s="292"/>
-      <c r="O59" s="286"/>
+      <c r="D59" s="346"/>
+      <c r="E59" s="350"/>
+      <c r="F59" s="351"/>
+      <c r="G59" s="351"/>
+      <c r="H59" s="351"/>
+      <c r="I59" s="351"/>
+      <c r="J59" s="352"/>
+      <c r="K59" s="350"/>
+      <c r="L59" s="351"/>
+      <c r="M59" s="351"/>
+      <c r="N59" s="352"/>
+      <c r="O59" s="382"/>
       <c r="P59" s="112" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q59" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="Q59" s="112" t="s">
+      <c r="R59" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="R59" s="112" t="s">
+      <c r="S59" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="S59" s="112" t="s">
+      <c r="T59" s="383" t="s">
         <v>81</v>
       </c>
-      <c r="T59" s="293" t="s">
-        <v>82</v>
-      </c>
-      <c r="U59" s="294"/>
-      <c r="V59" s="290"/>
-      <c r="W59" s="291"/>
-      <c r="X59" s="291"/>
-      <c r="Y59" s="291"/>
-      <c r="Z59" s="291"/>
-      <c r="AA59" s="291"/>
-      <c r="AB59" s="291"/>
-      <c r="AC59" s="291"/>
-      <c r="AD59" s="291"/>
-      <c r="AE59" s="291"/>
-      <c r="AF59" s="291"/>
-      <c r="AG59" s="291"/>
-      <c r="AH59" s="292"/>
+      <c r="U59" s="384"/>
+      <c r="V59" s="350"/>
+      <c r="W59" s="351"/>
+      <c r="X59" s="351"/>
+      <c r="Y59" s="351"/>
+      <c r="Z59" s="351"/>
+      <c r="AA59" s="351"/>
+      <c r="AB59" s="351"/>
+      <c r="AC59" s="351"/>
+      <c r="AD59" s="351"/>
+      <c r="AE59" s="351"/>
+      <c r="AF59" s="351"/>
+      <c r="AG59" s="351"/>
+      <c r="AH59" s="352"/>
       <c r="AK59" s="42"/>
       <c r="AL59" s="42"/>
       <c r="AM59" s="42"/>
@@ -8266,54 +8278,54 @@
       <c r="D60" s="113">
         <v>1</v>
       </c>
-      <c r="E60" s="341" t="s">
+      <c r="E60" s="305" t="s">
+        <v>82</v>
+      </c>
+      <c r="F60" s="306"/>
+      <c r="G60" s="306"/>
+      <c r="H60" s="306"/>
+      <c r="I60" s="306"/>
+      <c r="J60" s="307"/>
+      <c r="K60" s="355" t="s">
         <v>83</v>
       </c>
-      <c r="F60" s="342"/>
-      <c r="G60" s="342"/>
-      <c r="H60" s="342"/>
-      <c r="I60" s="342"/>
-      <c r="J60" s="343"/>
-      <c r="K60" s="296" t="s">
+      <c r="L60" s="289"/>
+      <c r="M60" s="289"/>
+      <c r="N60" s="290"/>
+      <c r="O60" s="114" t="s">
         <v>84</v>
-      </c>
-      <c r="L60" s="297"/>
-      <c r="M60" s="297"/>
-      <c r="N60" s="298"/>
-      <c r="O60" s="114" t="s">
-        <v>85</v>
       </c>
       <c r="P60" s="115" t="s">
         <v>39</v>
       </c>
       <c r="Q60" s="115" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R60" s="115" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S60" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="T60" s="344" t="s">
+      <c r="T60" s="356" t="s">
         <v>39</v>
       </c>
-      <c r="U60" s="345"/>
-      <c r="V60" s="296" t="s">
+      <c r="U60" s="357"/>
+      <c r="V60" s="355" t="s">
         <v>39</v>
       </c>
-      <c r="W60" s="297"/>
-      <c r="X60" s="297"/>
-      <c r="Y60" s="297"/>
-      <c r="Z60" s="297"/>
-      <c r="AA60" s="297"/>
-      <c r="AB60" s="297"/>
-      <c r="AC60" s="297"/>
-      <c r="AD60" s="297"/>
-      <c r="AE60" s="297"/>
-      <c r="AF60" s="297"/>
-      <c r="AG60" s="297"/>
-      <c r="AH60" s="298"/>
+      <c r="W60" s="289"/>
+      <c r="X60" s="289"/>
+      <c r="Y60" s="289"/>
+      <c r="Z60" s="289"/>
+      <c r="AA60" s="289"/>
+      <c r="AB60" s="289"/>
+      <c r="AC60" s="289"/>
+      <c r="AD60" s="289"/>
+      <c r="AE60" s="289"/>
+      <c r="AF60" s="289"/>
+      <c r="AG60" s="289"/>
+      <c r="AH60" s="290"/>
       <c r="AK60" s="42"/>
       <c r="AL60" s="42"/>
       <c r="AM60" s="42"/>
@@ -8329,37 +8341,59 @@
       <c r="AW60" s="42"/>
     </row>
     <row r="61" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="D61" s="116"/>
-      <c r="E61" s="117"/>
-      <c r="F61" s="117"/>
-      <c r="G61" s="117"/>
-      <c r="H61" s="117"/>
-      <c r="I61" s="117"/>
-      <c r="J61" s="117"/>
-      <c r="K61" s="117"/>
-      <c r="L61" s="117"/>
-      <c r="M61" s="117"/>
-      <c r="N61" s="117"/>
-      <c r="O61" s="117"/>
-      <c r="P61" s="117"/>
-      <c r="Q61" s="117"/>
-      <c r="R61" s="117"/>
-      <c r="S61" s="117"/>
-      <c r="T61" s="117"/>
-      <c r="U61" s="117"/>
-      <c r="V61" s="118"/>
-      <c r="W61" s="118"/>
-      <c r="X61" s="118"/>
-      <c r="Y61" s="118"/>
-      <c r="Z61" s="118"/>
-      <c r="AA61" s="118"/>
-      <c r="AB61" s="118"/>
-      <c r="AC61" s="118"/>
-      <c r="AD61" s="118"/>
-      <c r="AE61" s="118"/>
-      <c r="AF61" s="118"/>
-      <c r="AG61" s="118"/>
-      <c r="AH61" s="118"/>
+      <c r="D61" s="113">
+        <v>2</v>
+      </c>
+      <c r="E61" s="305" t="s">
+        <v>183</v>
+      </c>
+      <c r="F61" s="306"/>
+      <c r="G61" s="306"/>
+      <c r="H61" s="306"/>
+      <c r="I61" s="306"/>
+      <c r="J61" s="307"/>
+      <c r="K61" s="355" t="s">
+        <v>83</v>
+      </c>
+      <c r="L61" s="289"/>
+      <c r="M61" s="289"/>
+      <c r="N61" s="290"/>
+      <c r="O61" s="114" t="s">
+        <v>84</v>
+      </c>
+      <c r="P61" s="172" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q61" s="172" t="s">
+        <v>173</v>
+      </c>
+      <c r="R61" s="172" t="s">
+        <v>181</v>
+      </c>
+      <c r="S61" s="172" t="s">
+        <v>39</v>
+      </c>
+      <c r="T61" s="356" t="s">
+        <v>39</v>
+      </c>
+      <c r="U61" s="357"/>
+      <c r="V61" s="355" t="s">
+        <v>39</v>
+      </c>
+      <c r="W61" s="289"/>
+      <c r="X61" s="289"/>
+      <c r="Y61" s="289"/>
+      <c r="Z61" s="289"/>
+      <c r="AA61" s="289"/>
+      <c r="AB61" s="289"/>
+      <c r="AC61" s="289"/>
+      <c r="AD61" s="289"/>
+      <c r="AE61" s="289"/>
+      <c r="AF61" s="289"/>
+      <c r="AG61" s="289"/>
+      <c r="AH61" s="290"/>
+      <c r="AK61" s="42"/>
+      <c r="AL61" s="42"/>
       <c r="AM61" s="42"/>
       <c r="AN61" s="42"/>
       <c r="AO61" s="42"/>
@@ -8371,43 +8405,43 @@
       <c r="AU61" s="42"/>
       <c r="AV61" s="42"/>
       <c r="AW61" s="42"/>
-      <c r="AX61" s="42"/>
-      <c r="AY61" s="42"/>
-      <c r="AZ61" s="42"/>
-      <c r="BA61" s="42"/>
     </row>
     <row r="62" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="D62" s="106"/>
-      <c r="E62" s="107"/>
-      <c r="F62" s="108"/>
-      <c r="G62" s="108"/>
-      <c r="H62" s="108"/>
-      <c r="I62" s="108"/>
-      <c r="J62" s="108"/>
-      <c r="K62" s="108"/>
-      <c r="L62" s="108"/>
-      <c r="M62" s="108"/>
-      <c r="N62" s="108"/>
-      <c r="O62" s="108"/>
-      <c r="R62" s="108"/>
-      <c r="S62" s="108"/>
-      <c r="T62" s="108"/>
-      <c r="U62" s="108"/>
-      <c r="V62" s="108"/>
-      <c r="W62" s="108"/>
-      <c r="X62" s="109"/>
-      <c r="Y62" s="109"/>
-      <c r="Z62" s="109"/>
-      <c r="AA62" s="109"/>
-      <c r="AB62" s="108"/>
-      <c r="AC62" s="108"/>
-      <c r="AD62" s="108"/>
-      <c r="AE62" s="108"/>
-      <c r="AF62" s="108"/>
-      <c r="AG62" s="108"/>
-      <c r="AH62" s="108"/>
-      <c r="AI62" s="108"/>
-      <c r="AJ62" s="108"/>
+      <c r="D62" s="116"/>
+      <c r="E62" s="117"/>
+      <c r="F62" s="117"/>
+      <c r="G62" s="117"/>
+      <c r="H62" s="117"/>
+      <c r="I62" s="117"/>
+      <c r="J62" s="117"/>
+      <c r="K62" s="117"/>
+      <c r="L62" s="117"/>
+      <c r="M62" s="117"/>
+      <c r="N62" s="117"/>
+      <c r="O62" s="117"/>
+      <c r="P62" s="117"/>
+      <c r="Q62" s="117"/>
+      <c r="R62" s="117"/>
+      <c r="S62" s="117"/>
+      <c r="T62" s="117"/>
+      <c r="U62" s="117"/>
+      <c r="V62" s="118"/>
+      <c r="W62" s="118"/>
+      <c r="X62" s="118"/>
+      <c r="Y62" s="118"/>
+      <c r="Z62" s="118"/>
+      <c r="AA62" s="118"/>
+      <c r="AB62" s="118"/>
+      <c r="AC62" s="118"/>
+      <c r="AD62" s="118"/>
+      <c r="AE62" s="118"/>
+      <c r="AF62" s="118"/>
+      <c r="AG62" s="118"/>
+      <c r="AH62" s="118"/>
+      <c r="AM62" s="42"/>
+      <c r="AN62" s="42"/>
+      <c r="AO62" s="42"/>
+      <c r="AP62" s="42"/>
       <c r="AQ62" s="42"/>
       <c r="AR62" s="42"/>
       <c r="AS62" s="42"/>
@@ -8421,9 +8455,39 @@
       <c r="BA62" s="42"/>
     </row>
     <row r="63" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C63" s="54" t="s">
-        <v>46</v>
-      </c>
+      <c r="D63" s="106"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="108"/>
+      <c r="G63" s="108"/>
+      <c r="H63" s="108"/>
+      <c r="I63" s="108"/>
+      <c r="J63" s="108"/>
+      <c r="K63" s="108"/>
+      <c r="L63" s="108"/>
+      <c r="M63" s="108"/>
+      <c r="N63" s="108"/>
+      <c r="O63" s="108"/>
+      <c r="R63" s="108"/>
+      <c r="S63" s="108"/>
+      <c r="T63" s="108"/>
+      <c r="U63" s="108"/>
+      <c r="V63" s="108"/>
+      <c r="W63" s="108"/>
+      <c r="X63" s="109"/>
+      <c r="Y63" s="109"/>
+      <c r="Z63" s="109"/>
+      <c r="AA63" s="109"/>
+      <c r="AB63" s="108"/>
+      <c r="AC63" s="108"/>
+      <c r="AD63" s="108"/>
+      <c r="AE63" s="108"/>
+      <c r="AF63" s="108"/>
+      <c r="AG63" s="108"/>
+      <c r="AH63" s="108"/>
+      <c r="AI63" s="108"/>
+      <c r="AJ63" s="108"/>
+      <c r="AQ63" s="42"/>
+      <c r="AR63" s="42"/>
       <c r="AS63" s="42"/>
       <c r="AT63" s="42"/>
       <c r="AU63" s="42"/>
@@ -8434,240 +8498,230 @@
       <c r="AZ63" s="42"/>
       <c r="BA63" s="42"/>
     </row>
-    <row r="65" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="119"/>
-      <c r="D65" s="120" t="s">
+    <row r="64" spans="3:53" x14ac:dyDescent="0.25">
+      <c r="C64" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS64" s="42"/>
+      <c r="AT64" s="42"/>
+      <c r="AU64" s="42"/>
+      <c r="AV64" s="42"/>
+      <c r="AW64" s="42"/>
+      <c r="AX64" s="42"/>
+      <c r="AY64" s="42"/>
+      <c r="AZ64" s="42"/>
+      <c r="BA64" s="42"/>
+    </row>
+    <row r="66" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="119"/>
+      <c r="D66" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="E65" s="337" t="s">
+      <c r="E66" s="353" t="s">
+        <v>85</v>
+      </c>
+      <c r="F66" s="317"/>
+      <c r="G66" s="317"/>
+      <c r="H66" s="317"/>
+      <c r="I66" s="317"/>
+      <c r="J66" s="354"/>
+      <c r="K66" s="353" t="s">
         <v>86</v>
       </c>
-      <c r="F65" s="338"/>
-      <c r="G65" s="338"/>
-      <c r="H65" s="338"/>
-      <c r="I65" s="338"/>
-      <c r="J65" s="339"/>
-      <c r="K65" s="337" t="s">
+      <c r="L66" s="317"/>
+      <c r="M66" s="317"/>
+      <c r="N66" s="317"/>
+      <c r="O66" s="317"/>
+      <c r="P66" s="317"/>
+      <c r="Q66" s="318"/>
+      <c r="R66" s="276" t="s">
         <v>87</v>
       </c>
-      <c r="L65" s="338"/>
-      <c r="M65" s="338"/>
-      <c r="N65" s="338"/>
-      <c r="O65" s="338"/>
-      <c r="P65" s="338"/>
-      <c r="Q65" s="340"/>
-      <c r="R65" s="275" t="s">
+      <c r="S66" s="317"/>
+      <c r="T66" s="317"/>
+      <c r="U66" s="317"/>
+      <c r="V66" s="317"/>
+      <c r="W66" s="317"/>
+      <c r="X66" s="317"/>
+      <c r="Y66" s="318"/>
+      <c r="Z66" s="368" t="s">
         <v>88</v>
       </c>
-      <c r="S65" s="338"/>
-      <c r="T65" s="338"/>
-      <c r="U65" s="338"/>
-      <c r="V65" s="338"/>
-      <c r="W65" s="338"/>
-      <c r="X65" s="338"/>
-      <c r="Y65" s="340"/>
-      <c r="Z65" s="307" t="s">
+      <c r="AA66" s="369"/>
+      <c r="AB66" s="369"/>
+      <c r="AC66" s="369"/>
+      <c r="AD66" s="370"/>
+      <c r="AE66" s="365" t="s">
         <v>89</v>
       </c>
-      <c r="AA65" s="308"/>
-      <c r="AB65" s="308"/>
-      <c r="AC65" s="308"/>
-      <c r="AD65" s="309"/>
-      <c r="AE65" s="326" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF65" s="327"/>
-      <c r="AG65" s="327"/>
-      <c r="AH65" s="328"/>
-    </row>
-    <row r="66" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="121">
-        <v>1</v>
-      </c>
-      <c r="E66" s="329" t="s">
-        <v>91</v>
-      </c>
-      <c r="F66" s="330"/>
-      <c r="G66" s="330"/>
-      <c r="H66" s="330"/>
-      <c r="I66" s="330"/>
-      <c r="J66" s="331"/>
-      <c r="K66" s="296" t="s">
-        <v>39</v>
-      </c>
-      <c r="L66" s="297"/>
-      <c r="M66" s="297"/>
-      <c r="N66" s="297"/>
-      <c r="O66" s="297"/>
-      <c r="P66" s="297"/>
-      <c r="Q66" s="298"/>
-      <c r="R66" s="296" t="s">
-        <v>92</v>
-      </c>
-      <c r="S66" s="297"/>
-      <c r="T66" s="297"/>
-      <c r="U66" s="297"/>
-      <c r="V66" s="297"/>
-      <c r="W66" s="297"/>
-      <c r="X66" s="297"/>
-      <c r="Y66" s="298"/>
-      <c r="Z66" s="296" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA66" s="297"/>
-      <c r="AB66" s="297"/>
-      <c r="AC66" s="297"/>
-      <c r="AD66" s="298"/>
-      <c r="AE66" s="323" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF66" s="324"/>
-      <c r="AG66" s="324"/>
-      <c r="AH66" s="325"/>
+      <c r="AF66" s="366"/>
+      <c r="AG66" s="366"/>
+      <c r="AH66" s="367"/>
     </row>
     <row r="67" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D67" s="121">
+        <v>1</v>
+      </c>
+      <c r="E67" s="358" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="359"/>
+      <c r="G67" s="359"/>
+      <c r="H67" s="359"/>
+      <c r="I67" s="359"/>
+      <c r="J67" s="360"/>
+      <c r="K67" s="355" t="s">
+        <v>39</v>
+      </c>
+      <c r="L67" s="289"/>
+      <c r="M67" s="289"/>
+      <c r="N67" s="289"/>
+      <c r="O67" s="289"/>
+      <c r="P67" s="289"/>
+      <c r="Q67" s="290"/>
+      <c r="R67" s="355" t="s">
+        <v>91</v>
+      </c>
+      <c r="S67" s="289"/>
+      <c r="T67" s="289"/>
+      <c r="U67" s="289"/>
+      <c r="V67" s="289"/>
+      <c r="W67" s="289"/>
+      <c r="X67" s="289"/>
+      <c r="Y67" s="290"/>
+      <c r="Z67" s="355" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA67" s="289"/>
+      <c r="AB67" s="289"/>
+      <c r="AC67" s="289"/>
+      <c r="AD67" s="290"/>
+      <c r="AE67" s="362" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF67" s="363"/>
+      <c r="AG67" s="363"/>
+      <c r="AH67" s="364"/>
+    </row>
+    <row r="68" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="121">
         <v>2</v>
       </c>
-      <c r="E67" s="329" t="s">
+      <c r="E68" s="358" t="s">
         <v>49</v>
       </c>
-      <c r="F67" s="330"/>
-      <c r="G67" s="330"/>
-      <c r="H67" s="330"/>
-      <c r="I67" s="330"/>
-      <c r="J67" s="331"/>
-      <c r="K67" s="296" t="s">
-        <v>175</v>
-      </c>
-      <c r="L67" s="297"/>
-      <c r="M67" s="297"/>
-      <c r="N67" s="297"/>
-      <c r="O67" s="297"/>
-      <c r="P67" s="297"/>
-      <c r="Q67" s="298"/>
-      <c r="R67" s="296" t="s">
+      <c r="F68" s="359"/>
+      <c r="G68" s="359"/>
+      <c r="H68" s="359"/>
+      <c r="I68" s="359"/>
+      <c r="J68" s="360"/>
+      <c r="K68" s="355" t="s">
+        <v>174</v>
+      </c>
+      <c r="L68" s="289"/>
+      <c r="M68" s="289"/>
+      <c r="N68" s="289"/>
+      <c r="O68" s="289"/>
+      <c r="P68" s="289"/>
+      <c r="Q68" s="290"/>
+      <c r="R68" s="355" t="s">
+        <v>93</v>
+      </c>
+      <c r="S68" s="289"/>
+      <c r="T68" s="289"/>
+      <c r="U68" s="289"/>
+      <c r="V68" s="289"/>
+      <c r="W68" s="289"/>
+      <c r="X68" s="289"/>
+      <c r="Y68" s="290"/>
+      <c r="Z68" s="355" t="s">
         <v>94</v>
       </c>
-      <c r="S67" s="297"/>
-      <c r="T67" s="297"/>
-      <c r="U67" s="297"/>
-      <c r="V67" s="297"/>
-      <c r="W67" s="297"/>
-      <c r="X67" s="297"/>
-      <c r="Y67" s="298"/>
-      <c r="Z67" s="296" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA67" s="297"/>
-      <c r="AB67" s="297"/>
-      <c r="AC67" s="297"/>
-      <c r="AD67" s="298"/>
-      <c r="AE67" s="323" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF67" s="324"/>
-      <c r="AG67" s="324"/>
-      <c r="AH67" s="325"/>
-    </row>
-    <row r="68" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D68" s="122"/>
-      <c r="E68" s="123"/>
-      <c r="F68" s="123"/>
-      <c r="G68" s="123"/>
-      <c r="H68" s="123"/>
-      <c r="I68" s="123"/>
-      <c r="J68" s="123"/>
-      <c r="K68" s="117"/>
-      <c r="L68" s="117"/>
-      <c r="M68" s="117"/>
-      <c r="N68" s="117"/>
-      <c r="O68" s="117"/>
-      <c r="P68" s="117"/>
-      <c r="Q68" s="117"/>
-      <c r="R68" s="117"/>
-      <c r="S68" s="117"/>
-      <c r="T68" s="117"/>
-      <c r="U68" s="117"/>
-      <c r="V68" s="117"/>
-      <c r="W68" s="117"/>
-      <c r="X68" s="117"/>
-      <c r="Y68" s="117"/>
-      <c r="Z68" s="117"/>
-      <c r="AA68" s="117"/>
-      <c r="AB68" s="117"/>
-      <c r="AC68" s="117"/>
-      <c r="AD68" s="117"/>
-      <c r="AE68" s="117"/>
-      <c r="AF68" s="117"/>
-      <c r="AG68" s="117"/>
-      <c r="AH68" s="96"/>
-      <c r="AN68" s="38"/>
-      <c r="AO68" s="38"/>
-      <c r="AP68" s="38"/>
-    </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
-      <c r="L69" s="42"/>
-      <c r="M69" s="42"/>
-      <c r="N69" s="42"/>
-      <c r="O69" s="42"/>
-      <c r="P69" s="42"/>
-      <c r="Q69" s="42"/>
-      <c r="R69" s="42"/>
-      <c r="S69" s="42"/>
-      <c r="T69" s="42"/>
-      <c r="U69" s="42"/>
-      <c r="V69" s="42"/>
-      <c r="W69" s="42"/>
-      <c r="X69" s="42"/>
-      <c r="Y69" s="42"/>
-      <c r="Z69" s="42"/>
-      <c r="AA69" s="42"/>
-      <c r="AB69" s="42"/>
-      <c r="AC69" s="42"/>
-      <c r="AD69" s="42"/>
+      <c r="AA68" s="289"/>
+      <c r="AB68" s="289"/>
+      <c r="AC68" s="289"/>
+      <c r="AD68" s="290"/>
+      <c r="AE68" s="362" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF68" s="363"/>
+      <c r="AG68" s="363"/>
+      <c r="AH68" s="364"/>
+    </row>
+    <row r="69" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="122"/>
+      <c r="E69" s="123"/>
+      <c r="F69" s="123"/>
+      <c r="G69" s="123"/>
+      <c r="H69" s="123"/>
+      <c r="I69" s="123"/>
+      <c r="J69" s="123"/>
+      <c r="K69" s="117"/>
+      <c r="L69" s="117"/>
+      <c r="M69" s="117"/>
+      <c r="N69" s="117"/>
+      <c r="O69" s="117"/>
+      <c r="P69" s="117"/>
+      <c r="Q69" s="117"/>
+      <c r="R69" s="117"/>
+      <c r="S69" s="117"/>
+      <c r="T69" s="117"/>
+      <c r="U69" s="117"/>
+      <c r="V69" s="117"/>
+      <c r="W69" s="117"/>
+      <c r="X69" s="117"/>
+      <c r="Y69" s="117"/>
+      <c r="Z69" s="117"/>
+      <c r="AA69" s="117"/>
+      <c r="AB69" s="117"/>
+      <c r="AC69" s="117"/>
+      <c r="AD69" s="117"/>
       <c r="AE69" s="117"/>
       <c r="AF69" s="117"/>
       <c r="AG69" s="117"/>
-      <c r="AH69" s="42"/>
-      <c r="AI69" s="42"/>
-      <c r="AN69" s="42"/>
-      <c r="AO69" s="42"/>
-      <c r="AP69" s="42"/>
-      <c r="AQ69" s="42"/>
-      <c r="AR69" s="42"/>
-      <c r="AS69" s="42"/>
-      <c r="AT69" s="42"/>
-      <c r="AU69" s="42"/>
-      <c r="AV69" s="42"/>
-      <c r="AW69" s="42"/>
-      <c r="AX69" s="42"/>
-      <c r="AY69" s="42"/>
-      <c r="AZ69" s="42"/>
-      <c r="BA69" s="42"/>
-      <c r="BB69" s="42"/>
+      <c r="AH69" s="96"/>
+      <c r="AN69" s="38"/>
+      <c r="AO69" s="38"/>
+      <c r="AP69" s="38"/>
     </row>
     <row r="70" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C70" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D70" s="124"/>
-      <c r="E70" s="124"/>
-      <c r="G70" s="44"/>
-      <c r="I70" s="44"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="42"/>
+      <c r="Q70" s="42"/>
+      <c r="R70" s="42"/>
+      <c r="S70" s="42"/>
+      <c r="T70" s="42"/>
+      <c r="U70" s="42"/>
+      <c r="V70" s="42"/>
+      <c r="W70" s="42"/>
+      <c r="X70" s="42"/>
+      <c r="Y70" s="42"/>
+      <c r="Z70" s="42"/>
+      <c r="AA70" s="42"/>
+      <c r="AB70" s="42"/>
+      <c r="AC70" s="42"/>
+      <c r="AD70" s="42"/>
       <c r="AE70" s="117"/>
+      <c r="AF70" s="117"/>
       <c r="AG70" s="117"/>
+      <c r="AH70" s="42"/>
+      <c r="AI70" s="42"/>
+      <c r="AN70" s="42"/>
+      <c r="AO70" s="42"/>
       <c r="AP70" s="42"/>
       <c r="AQ70" s="42"/>
       <c r="AR70" s="42"/>
@@ -8681,15 +8735,17 @@
       <c r="AZ70" s="42"/>
       <c r="BA70" s="42"/>
       <c r="BB70" s="42"/>
-      <c r="BC70" s="42"/>
-      <c r="BD70" s="42"/>
-    </row>
-    <row r="71" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="42"/>
-      <c r="D71" s="124" t="s">
-        <v>96</v>
-      </c>
+    </row>
+    <row r="71" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="C71" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" s="124"/>
       <c r="E71" s="124"/>
+      <c r="G71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="AE71" s="117"/>
+      <c r="AG71" s="117"/>
       <c r="AP71" s="42"/>
       <c r="AQ71" s="42"/>
       <c r="AR71" s="42"/>
@@ -8708,7 +8764,9 @@
     </row>
     <row r="72" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="42"/>
-      <c r="D72" s="124"/>
+      <c r="D72" s="124" t="s">
+        <v>95</v>
+      </c>
       <c r="E72" s="124"/>
       <c r="AP72" s="42"/>
       <c r="AQ72" s="42"/>
@@ -8726,122 +8784,116 @@
       <c r="BC72" s="42"/>
       <c r="BD72" s="42"/>
     </row>
-    <row r="73" spans="1:58" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="38"/>
+    <row r="73" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="42"/>
       <c r="D73" s="124"/>
-      <c r="E73" s="124" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP73" s="38"/>
-    </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C74" s="42"/>
+      <c r="E73" s="124"/>
+      <c r="AP73" s="42"/>
+      <c r="AQ73" s="42"/>
+      <c r="AR73" s="42"/>
+      <c r="AS73" s="42"/>
+      <c r="AT73" s="42"/>
+      <c r="AU73" s="42"/>
+      <c r="AV73" s="42"/>
+      <c r="AW73" s="42"/>
+      <c r="AX73" s="42"/>
+      <c r="AY73" s="42"/>
+      <c r="AZ73" s="42"/>
+      <c r="BA73" s="42"/>
+      <c r="BB73" s="42"/>
+      <c r="BC73" s="42"/>
+      <c r="BD73" s="42"/>
+    </row>
+    <row r="74" spans="1:58" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="38"/>
       <c r="D74" s="124"/>
-      <c r="E74" s="124"/>
-      <c r="F74" s="124"/>
-    </row>
-    <row r="75" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E74" s="124" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP74" s="38"/>
+    </row>
+    <row r="75" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C75" s="42"/>
       <c r="D75" s="124"/>
       <c r="E75" s="124"/>
-      <c r="F75" s="54" t="s">
+      <c r="F75" s="124"/>
+    </row>
+    <row r="76" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="42"/>
+      <c r="D76" s="124"/>
+      <c r="E76" s="124"/>
+      <c r="F76" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP76" s="42"/>
+    </row>
+    <row r="77" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="38"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="G77" s="125"/>
+      <c r="H77" s="125"/>
+      <c r="I77" s="125"/>
+      <c r="J77" s="125"/>
+      <c r="K77" s="125"/>
+      <c r="L77" s="125"/>
+      <c r="M77" s="125"/>
+      <c r="N77" s="125"/>
+      <c r="O77" s="125"/>
+      <c r="P77" s="125"/>
+      <c r="Q77" s="125"/>
+      <c r="R77" s="125"/>
+      <c r="S77" s="125"/>
+      <c r="T77" s="125"/>
+      <c r="U77" s="125"/>
+      <c r="V77" s="125"/>
+      <c r="W77" s="125"/>
+      <c r="X77" s="125"/>
+      <c r="Y77" s="125"/>
+      <c r="Z77" s="125"/>
+      <c r="AA77" s="125"/>
+      <c r="AB77" s="125"/>
+      <c r="AC77" s="125"/>
+      <c r="AD77" s="126"/>
+      <c r="AE77" s="126"/>
+      <c r="AF77" s="126"/>
+      <c r="AG77" s="126"/>
+      <c r="AH77" s="126"/>
+      <c r="AI77" s="126"/>
+      <c r="AJ77" s="107"/>
+    </row>
+    <row r="78" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI78" s="127"/>
+      <c r="AJ78" s="127"/>
+      <c r="AK78" s="127"/>
+      <c r="AL78" s="127"/>
+      <c r="AM78" s="127"/>
+      <c r="AN78" s="127"/>
+      <c r="AO78" s="127"/>
+      <c r="AP78" s="127"/>
+      <c r="AQ78" s="127"/>
+      <c r="AR78" s="127"/>
+      <c r="AS78" s="127"/>
+      <c r="AT78" s="127"/>
+      <c r="AU78" s="127"/>
+      <c r="AV78" s="127"/>
+      <c r="AW78" s="127"/>
+      <c r="AX78" s="127"/>
+      <c r="AY78" s="127"/>
+      <c r="AZ78" s="127"/>
+      <c r="BA78" s="127"/>
+      <c r="BB78" s="127"/>
+      <c r="BC78" s="127"/>
+      <c r="BD78" s="127"/>
+      <c r="BE78" s="127"/>
+    </row>
+    <row r="79" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="E79" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="AP75" s="42"/>
-    </row>
-    <row r="76" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="38"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="G76" s="125"/>
-      <c r="H76" s="125"/>
-      <c r="I76" s="125"/>
-      <c r="J76" s="125"/>
-      <c r="K76" s="125"/>
-      <c r="L76" s="125"/>
-      <c r="M76" s="125"/>
-      <c r="N76" s="125"/>
-      <c r="O76" s="125"/>
-      <c r="P76" s="125"/>
-      <c r="Q76" s="125"/>
-      <c r="R76" s="125"/>
-      <c r="S76" s="125"/>
-      <c r="T76" s="125"/>
-      <c r="U76" s="125"/>
-      <c r="V76" s="125"/>
-      <c r="W76" s="125"/>
-      <c r="X76" s="125"/>
-      <c r="Y76" s="125"/>
-      <c r="Z76" s="125"/>
-      <c r="AA76" s="125"/>
-      <c r="AB76" s="125"/>
-      <c r="AC76" s="125"/>
-      <c r="AD76" s="126"/>
-      <c r="AE76" s="126"/>
-      <c r="AF76" s="126"/>
-      <c r="AG76" s="126"/>
-      <c r="AH76" s="126"/>
-      <c r="AI76" s="126"/>
-      <c r="AJ76" s="107"/>
-    </row>
-    <row r="77" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AI77" s="127"/>
-      <c r="AJ77" s="127"/>
-      <c r="AK77" s="127"/>
-      <c r="AL77" s="127"/>
-      <c r="AM77" s="127"/>
-      <c r="AN77" s="127"/>
-      <c r="AO77" s="127"/>
-      <c r="AP77" s="127"/>
-      <c r="AQ77" s="127"/>
-      <c r="AR77" s="127"/>
-      <c r="AS77" s="127"/>
-      <c r="AT77" s="127"/>
-      <c r="AU77" s="127"/>
-      <c r="AV77" s="127"/>
-      <c r="AW77" s="127"/>
-      <c r="AX77" s="127"/>
-      <c r="AY77" s="127"/>
-      <c r="AZ77" s="127"/>
-      <c r="BA77" s="127"/>
-      <c r="BB77" s="127"/>
-      <c r="BC77" s="127"/>
-      <c r="BD77" s="127"/>
-      <c r="BE77" s="127"/>
-    </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="E78" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="G78" s="44"/>
-      <c r="AJ78" s="128"/>
-      <c r="AK78" s="128"/>
-      <c r="AL78" s="128"/>
-      <c r="AM78" s="128"/>
-      <c r="AN78" s="128"/>
-      <c r="AO78" s="128"/>
-      <c r="AP78" s="128"/>
-      <c r="AQ78" s="128"/>
-      <c r="AR78" s="128"/>
-      <c r="AS78" s="128"/>
-      <c r="AT78" s="128"/>
-      <c r="AU78" s="128"/>
-      <c r="AV78" s="128"/>
-      <c r="AW78" s="128"/>
-      <c r="AX78" s="128"/>
-      <c r="AY78" s="128"/>
-      <c r="AZ78" s="128"/>
-      <c r="BA78" s="128"/>
-      <c r="BB78" s="128"/>
-      <c r="BC78" s="128"/>
-      <c r="BD78" s="128"/>
-      <c r="BE78" s="128"/>
-      <c r="BF78" s="128"/>
-    </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="H79" s="44"/>
+      <c r="G79" s="44"/>
       <c r="AJ79" s="128"/>
       <c r="AK79" s="128"/>
       <c r="AL79" s="128"/>
@@ -8867,10 +8919,7 @@
       <c r="BF79" s="128"/>
     </row>
     <row r="80" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="E80" s="66"/>
-      <c r="F80" s="66" t="s">
-        <v>92</v>
-      </c>
+      <c r="H80" s="44"/>
       <c r="AJ80" s="128"/>
       <c r="AK80" s="128"/>
       <c r="AL80" s="128"/>
@@ -8897,8 +8946,9 @@
     </row>
     <row r="81" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E81" s="66"/>
-      <c r="F81" s="129"/>
-      <c r="G81" s="66"/>
+      <c r="F81" s="66" t="s">
+        <v>91</v>
+      </c>
       <c r="AJ81" s="128"/>
       <c r="AK81" s="128"/>
       <c r="AL81" s="128"/>
@@ -8925,6 +8975,8 @@
     </row>
     <row r="82" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E82" s="66"/>
+      <c r="F82" s="129"/>
+      <c r="G82" s="66"/>
       <c r="AJ82" s="128"/>
       <c r="AK82" s="128"/>
       <c r="AL82" s="128"/>
@@ -8949,31 +9001,37 @@
       <c r="BE82" s="128"/>
       <c r="BF82" s="128"/>
     </row>
-    <row r="83" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="42"/>
-      <c r="D83" s="124" t="s">
-        <v>100</v>
-      </c>
-      <c r="E83" s="124"/>
-      <c r="AP83" s="42"/>
-      <c r="AQ83" s="42"/>
-      <c r="AR83" s="42"/>
-      <c r="AS83" s="42"/>
-      <c r="AT83" s="42"/>
-      <c r="AU83" s="42"/>
-      <c r="AV83" s="42"/>
-      <c r="AW83" s="42"/>
-      <c r="AX83" s="42"/>
-      <c r="AY83" s="42"/>
-      <c r="AZ83" s="42"/>
-      <c r="BA83" s="42"/>
-      <c r="BB83" s="42"/>
-      <c r="BC83" s="42"/>
-      <c r="BD83" s="42"/>
+    <row r="83" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="E83" s="66"/>
+      <c r="AJ83" s="128"/>
+      <c r="AK83" s="128"/>
+      <c r="AL83" s="128"/>
+      <c r="AM83" s="128"/>
+      <c r="AN83" s="128"/>
+      <c r="AO83" s="128"/>
+      <c r="AP83" s="128"/>
+      <c r="AQ83" s="128"/>
+      <c r="AR83" s="128"/>
+      <c r="AS83" s="128"/>
+      <c r="AT83" s="128"/>
+      <c r="AU83" s="128"/>
+      <c r="AV83" s="128"/>
+      <c r="AW83" s="128"/>
+      <c r="AX83" s="128"/>
+      <c r="AY83" s="128"/>
+      <c r="AZ83" s="128"/>
+      <c r="BA83" s="128"/>
+      <c r="BB83" s="128"/>
+      <c r="BC83" s="128"/>
+      <c r="BD83" s="128"/>
+      <c r="BE83" s="128"/>
+      <c r="BF83" s="128"/>
     </row>
     <row r="84" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="42"/>
-      <c r="D84" s="124"/>
+      <c r="D84" s="124" t="s">
+        <v>99</v>
+      </c>
       <c r="E84" s="124"/>
       <c r="AP84" s="42"/>
       <c r="AQ84" s="42"/>
@@ -8991,130 +9049,83 @@
       <c r="BC84" s="42"/>
       <c r="BD84" s="42"/>
     </row>
-    <row r="85" spans="1:58" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="38"/>
+    <row r="85" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="42"/>
       <c r="D85" s="124"/>
-      <c r="E85" s="124" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP85" s="38"/>
-    </row>
-    <row r="86" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C86" s="42"/>
+      <c r="E85" s="124"/>
+      <c r="AP85" s="42"/>
+      <c r="AQ85" s="42"/>
+      <c r="AR85" s="42"/>
+      <c r="AS85" s="42"/>
+      <c r="AT85" s="42"/>
+      <c r="AU85" s="42"/>
+      <c r="AV85" s="42"/>
+      <c r="AW85" s="42"/>
+      <c r="AX85" s="42"/>
+      <c r="AY85" s="42"/>
+      <c r="AZ85" s="42"/>
+      <c r="BA85" s="42"/>
+      <c r="BB85" s="42"/>
+      <c r="BC85" s="42"/>
+      <c r="BD85" s="42"/>
+    </row>
+    <row r="86" spans="1:58" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="38"/>
       <c r="D86" s="124"/>
-      <c r="E86" s="124"/>
-      <c r="F86" s="124"/>
-    </row>
-    <row r="87" spans="1:58" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D87" s="42"/>
+      <c r="E86" s="124" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP86" s="38"/>
+    </row>
+    <row r="87" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="C87" s="42"/>
+      <c r="D87" s="124"/>
       <c r="E87" s="124"/>
-      <c r="F87" s="130" t="s">
-        <v>30</v>
-      </c>
-      <c r="G87" s="275" t="s">
-        <v>101</v>
-      </c>
-      <c r="H87" s="338"/>
-      <c r="I87" s="338"/>
-      <c r="J87" s="338"/>
-      <c r="K87" s="338"/>
-      <c r="L87" s="340"/>
-      <c r="M87" s="275" t="s">
-        <v>102</v>
-      </c>
-      <c r="N87" s="338"/>
-      <c r="O87" s="338"/>
-      <c r="P87" s="338"/>
-      <c r="Q87" s="338"/>
-      <c r="R87" s="338"/>
-      <c r="S87" s="338"/>
-      <c r="T87" s="338"/>
-      <c r="U87" s="338"/>
-      <c r="V87" s="340"/>
-      <c r="W87" s="376" t="s">
-        <v>103</v>
-      </c>
-      <c r="X87" s="377"/>
-      <c r="Y87" s="378"/>
-      <c r="Z87" s="367" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA87" s="368"/>
-      <c r="AB87" s="368"/>
-      <c r="AC87" s="369"/>
-      <c r="AD87" s="355" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE87" s="356"/>
-      <c r="AF87" s="356"/>
-      <c r="AG87" s="357"/>
-      <c r="AJ87" s="127"/>
-      <c r="AK87" s="127"/>
-      <c r="AL87" s="127"/>
-      <c r="AM87" s="127"/>
-      <c r="AN87" s="127"/>
-      <c r="AO87" s="127"/>
-      <c r="AP87" s="127"/>
-      <c r="AQ87" s="127"/>
-      <c r="AR87" s="127"/>
-      <c r="AS87" s="127"/>
-      <c r="AT87" s="127"/>
-      <c r="AU87" s="128"/>
-      <c r="AV87" s="128"/>
-      <c r="AW87" s="128"/>
-      <c r="AX87" s="128"/>
-      <c r="AY87" s="128"/>
-      <c r="AZ87" s="128"/>
-      <c r="BA87" s="128"/>
-      <c r="BB87" s="128"/>
-      <c r="BC87" s="128"/>
-      <c r="BD87" s="128"/>
-      <c r="BE87" s="128"/>
-    </row>
-    <row r="88" spans="1:58" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F87" s="124"/>
+    </row>
+    <row r="88" spans="1:58" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D88" s="42"/>
       <c r="E88" s="124"/>
-      <c r="F88" s="131">
-        <v>1</v>
-      </c>
-      <c r="G88" s="312" t="s">
-        <v>106</v>
-      </c>
-      <c r="H88" s="313"/>
-      <c r="I88" s="313"/>
-      <c r="J88" s="313"/>
-      <c r="K88" s="313"/>
-      <c r="L88" s="314"/>
-      <c r="M88" s="312" t="s">
-        <v>107</v>
-      </c>
-      <c r="N88" s="313"/>
-      <c r="O88" s="313"/>
-      <c r="P88" s="313"/>
-      <c r="Q88" s="313"/>
-      <c r="R88" s="313"/>
-      <c r="S88" s="313"/>
-      <c r="T88" s="313"/>
-      <c r="U88" s="313"/>
-      <c r="V88" s="314"/>
-      <c r="W88" s="358" t="s">
-        <v>108</v>
-      </c>
-      <c r="X88" s="359"/>
-      <c r="Y88" s="360"/>
-      <c r="Z88" s="364" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA88" s="365"/>
-      <c r="AB88" s="365"/>
-      <c r="AC88" s="366"/>
-      <c r="AD88" s="312" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE88" s="313"/>
-      <c r="AF88" s="313"/>
-      <c r="AG88" s="314"/>
-      <c r="AI88" s="127"/>
+      <c r="F88" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="G88" s="276" t="s">
+        <v>100</v>
+      </c>
+      <c r="H88" s="317"/>
+      <c r="I88" s="317"/>
+      <c r="J88" s="317"/>
+      <c r="K88" s="317"/>
+      <c r="L88" s="318"/>
+      <c r="M88" s="276" t="s">
+        <v>101</v>
+      </c>
+      <c r="N88" s="317"/>
+      <c r="O88" s="317"/>
+      <c r="P88" s="317"/>
+      <c r="Q88" s="317"/>
+      <c r="R88" s="317"/>
+      <c r="S88" s="317"/>
+      <c r="T88" s="317"/>
+      <c r="U88" s="317"/>
+      <c r="V88" s="318"/>
+      <c r="W88" s="334" t="s">
+        <v>102</v>
+      </c>
+      <c r="X88" s="335"/>
+      <c r="Y88" s="336"/>
+      <c r="Z88" s="328" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA88" s="329"/>
+      <c r="AB88" s="329"/>
+      <c r="AC88" s="330"/>
+      <c r="AD88" s="311" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE88" s="312"/>
+      <c r="AF88" s="312"/>
+      <c r="AG88" s="313"/>
       <c r="AJ88" s="127"/>
       <c r="AK88" s="127"/>
       <c r="AL88" s="127"/>
@@ -9138,38 +9149,49 @@
       <c r="BD88" s="128"/>
       <c r="BE88" s="128"/>
     </row>
-    <row r="89" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:58" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D89" s="42"/>
       <c r="E89" s="124"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="56"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="56"/>
-      <c r="K89" s="56"/>
-      <c r="L89" s="56"/>
-      <c r="M89" s="56"/>
-      <c r="N89" s="56"/>
-      <c r="O89" s="56"/>
-      <c r="P89" s="56"/>
-      <c r="Q89" s="56"/>
-      <c r="R89" s="56"/>
-      <c r="S89" s="56"/>
-      <c r="T89" s="56"/>
-      <c r="U89" s="56"/>
-      <c r="V89" s="56"/>
-      <c r="W89" s="56"/>
-      <c r="X89" s="56"/>
-      <c r="Y89" s="56"/>
-      <c r="Z89" s="56"/>
-      <c r="AA89" s="56"/>
-      <c r="AB89" s="56"/>
-      <c r="AC89" s="56"/>
-      <c r="AD89" s="56"/>
-      <c r="AE89" s="56"/>
-      <c r="AF89" s="56"/>
-      <c r="AG89" s="56"/>
-      <c r="AH89" s="56"/>
+      <c r="F89" s="131">
+        <v>1</v>
+      </c>
+      <c r="G89" s="314" t="s">
+        <v>105</v>
+      </c>
+      <c r="H89" s="315"/>
+      <c r="I89" s="315"/>
+      <c r="J89" s="315"/>
+      <c r="K89" s="315"/>
+      <c r="L89" s="316"/>
+      <c r="M89" s="314" t="s">
+        <v>106</v>
+      </c>
+      <c r="N89" s="315"/>
+      <c r="O89" s="315"/>
+      <c r="P89" s="315"/>
+      <c r="Q89" s="315"/>
+      <c r="R89" s="315"/>
+      <c r="S89" s="315"/>
+      <c r="T89" s="315"/>
+      <c r="U89" s="315"/>
+      <c r="V89" s="316"/>
+      <c r="W89" s="319" t="s">
+        <v>107</v>
+      </c>
+      <c r="X89" s="320"/>
+      <c r="Y89" s="321"/>
+      <c r="Z89" s="325" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA89" s="326"/>
+      <c r="AB89" s="326"/>
+      <c r="AC89" s="327"/>
+      <c r="AD89" s="314" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE89" s="315"/>
+      <c r="AF89" s="315"/>
+      <c r="AG89" s="316"/>
       <c r="AI89" s="127"/>
       <c r="AJ89" s="127"/>
       <c r="AK89" s="127"/>
@@ -9194,164 +9216,194 @@
       <c r="BD89" s="128"/>
       <c r="BE89" s="128"/>
     </row>
-    <row r="90" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D90" s="38"/>
+    <row r="90" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="D90" s="42"/>
       <c r="E90" s="124"/>
-      <c r="F90" s="56" t="s">
-        <v>110</v>
-      </c>
+      <c r="F90" s="56"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="56"/>
+      <c r="J90" s="56"/>
+      <c r="K90" s="56"/>
+      <c r="L90" s="56"/>
+      <c r="M90" s="56"/>
+      <c r="N90" s="56"/>
+      <c r="O90" s="56"/>
+      <c r="P90" s="56"/>
+      <c r="Q90" s="56"/>
+      <c r="R90" s="56"/>
+      <c r="S90" s="56"/>
+      <c r="T90" s="56"/>
+      <c r="U90" s="56"/>
+      <c r="V90" s="56"/>
+      <c r="W90" s="56"/>
+      <c r="X90" s="56"/>
+      <c r="Y90" s="56"/>
+      <c r="Z90" s="56"/>
+      <c r="AA90" s="56"/>
+      <c r="AB90" s="56"/>
+      <c r="AC90" s="56"/>
+      <c r="AD90" s="56"/>
+      <c r="AE90" s="56"/>
+      <c r="AF90" s="56"/>
+      <c r="AG90" s="56"/>
+      <c r="AH90" s="56"/>
+      <c r="AI90" s="127"/>
+      <c r="AJ90" s="127"/>
+      <c r="AK90" s="127"/>
+      <c r="AL90" s="127"/>
+      <c r="AM90" s="127"/>
+      <c r="AN90" s="127"/>
+      <c r="AO90" s="127"/>
+      <c r="AP90" s="127"/>
+      <c r="AQ90" s="127"/>
+      <c r="AR90" s="127"/>
+      <c r="AS90" s="127"/>
+      <c r="AT90" s="127"/>
+      <c r="AU90" s="128"/>
+      <c r="AV90" s="128"/>
+      <c r="AW90" s="128"/>
+      <c r="AX90" s="128"/>
+      <c r="AY90" s="128"/>
+      <c r="AZ90" s="128"/>
+      <c r="BA90" s="128"/>
+      <c r="BB90" s="128"/>
+      <c r="BC90" s="128"/>
+      <c r="BD90" s="128"/>
+      <c r="BE90" s="128"/>
     </row>
     <row r="91" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D91" s="38"/>
       <c r="E91" s="124"/>
-      <c r="F91" s="124"/>
+      <c r="F91" s="56" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="92" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="38"/>
-      <c r="B92" s="44"/>
-      <c r="C92" s="38"/>
       <c r="D92" s="38"/>
-      <c r="E92" s="38"/>
-      <c r="G92" s="125"/>
-      <c r="H92" s="125"/>
-      <c r="I92" s="125"/>
-      <c r="J92" s="125"/>
-      <c r="K92" s="125"/>
-      <c r="L92" s="125"/>
-      <c r="M92" s="125"/>
-      <c r="N92" s="125"/>
-      <c r="O92" s="125"/>
-      <c r="P92" s="125"/>
-      <c r="Q92" s="125"/>
-      <c r="R92" s="125"/>
-      <c r="S92" s="125"/>
-      <c r="T92" s="125"/>
-      <c r="U92" s="125"/>
-      <c r="V92" s="125"/>
-      <c r="W92" s="125"/>
-      <c r="X92" s="125"/>
-      <c r="Y92" s="125"/>
-      <c r="Z92" s="125"/>
-      <c r="AA92" s="125"/>
-      <c r="AB92" s="125"/>
-      <c r="AC92" s="125"/>
-      <c r="AD92" s="126"/>
-      <c r="AE92" s="126"/>
-      <c r="AF92" s="126"/>
-      <c r="AG92" s="126"/>
-      <c r="AH92" s="126"/>
-      <c r="AI92" s="126"/>
-      <c r="AJ92" s="107"/>
-    </row>
-    <row r="93" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="42"/>
-      <c r="D93" s="124"/>
-      <c r="E93" s="124"/>
-      <c r="AP93" s="42"/>
-    </row>
-    <row r="94" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="E94" s="54" t="s">
+      <c r="E92" s="124"/>
+      <c r="F92" s="124"/>
+    </row>
+    <row r="93" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="38"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="38"/>
+      <c r="G93" s="125"/>
+      <c r="H93" s="125"/>
+      <c r="I93" s="125"/>
+      <c r="J93" s="125"/>
+      <c r="K93" s="125"/>
+      <c r="L93" s="125"/>
+      <c r="M93" s="125"/>
+      <c r="N93" s="125"/>
+      <c r="O93" s="125"/>
+      <c r="P93" s="125"/>
+      <c r="Q93" s="125"/>
+      <c r="R93" s="125"/>
+      <c r="S93" s="125"/>
+      <c r="T93" s="125"/>
+      <c r="U93" s="125"/>
+      <c r="V93" s="125"/>
+      <c r="W93" s="125"/>
+      <c r="X93" s="125"/>
+      <c r="Y93" s="125"/>
+      <c r="Z93" s="125"/>
+      <c r="AA93" s="125"/>
+      <c r="AB93" s="125"/>
+      <c r="AC93" s="125"/>
+      <c r="AD93" s="126"/>
+      <c r="AE93" s="126"/>
+      <c r="AF93" s="126"/>
+      <c r="AG93" s="126"/>
+      <c r="AH93" s="126"/>
+      <c r="AI93" s="126"/>
+      <c r="AJ93" s="107"/>
+    </row>
+    <row r="94" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="42"/>
+      <c r="D94" s="124"/>
+      <c r="E94" s="124"/>
+      <c r="AP94" s="42"/>
+    </row>
+    <row r="95" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="E95" s="54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="F96" s="54" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="95" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="F95" s="54" t="s">
+    <row r="98" spans="7:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G98" s="296" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="97" spans="5:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G97" s="370" t="s">
+      <c r="H98" s="297"/>
+      <c r="I98" s="297"/>
+      <c r="J98" s="297"/>
+      <c r="K98" s="297"/>
+      <c r="L98" s="297"/>
+      <c r="M98" s="297"/>
+      <c r="N98" s="297"/>
+      <c r="O98" s="297"/>
+      <c r="P98" s="298"/>
+      <c r="Q98" s="331" t="s">
         <v>113</v>
       </c>
-      <c r="H97" s="371"/>
-      <c r="I97" s="371"/>
-      <c r="J97" s="371"/>
-      <c r="K97" s="371"/>
-      <c r="L97" s="371"/>
-      <c r="M97" s="371"/>
-      <c r="N97" s="371"/>
-      <c r="O97" s="371"/>
-      <c r="P97" s="372"/>
-      <c r="Q97" s="373" t="s">
-        <v>114</v>
-      </c>
-      <c r="R97" s="374"/>
-      <c r="S97" s="374"/>
-      <c r="T97" s="374"/>
-      <c r="U97" s="374"/>
-      <c r="V97" s="374"/>
-      <c r="W97" s="374"/>
-      <c r="X97" s="374"/>
-      <c r="Y97" s="374"/>
-      <c r="Z97" s="375"/>
-    </row>
-    <row r="98" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G98" s="346" t="s">
+      <c r="R98" s="332"/>
+      <c r="S98" s="332"/>
+      <c r="T98" s="332"/>
+      <c r="U98" s="332"/>
+      <c r="V98" s="332"/>
+      <c r="W98" s="332"/>
+      <c r="X98" s="332"/>
+      <c r="Y98" s="332"/>
+      <c r="Z98" s="333"/>
+    </row>
+    <row r="99" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G99" s="299" t="s">
+        <v>163</v>
+      </c>
+      <c r="H99" s="300"/>
+      <c r="I99" s="300"/>
+      <c r="J99" s="300"/>
+      <c r="K99" s="300"/>
+      <c r="L99" s="300"/>
+      <c r="M99" s="300"/>
+      <c r="N99" s="300"/>
+      <c r="O99" s="300"/>
+      <c r="P99" s="301"/>
+      <c r="Q99" s="305" t="s">
         <v>164</v>
       </c>
-      <c r="H98" s="347"/>
-      <c r="I98" s="347"/>
-      <c r="J98" s="347"/>
-      <c r="K98" s="347"/>
-      <c r="L98" s="347"/>
-      <c r="M98" s="347"/>
-      <c r="N98" s="347"/>
-      <c r="O98" s="347"/>
-      <c r="P98" s="348"/>
-      <c r="Q98" s="341" t="s">
-        <v>165</v>
-      </c>
-      <c r="R98" s="342"/>
-      <c r="S98" s="342"/>
-      <c r="T98" s="342"/>
-      <c r="U98" s="342"/>
-      <c r="V98" s="342"/>
-      <c r="W98" s="342"/>
-      <c r="X98" s="342"/>
-      <c r="Y98" s="342"/>
-      <c r="Z98" s="343"/>
-      <c r="AG98" s="132"/>
-      <c r="AH98" s="132"/>
-    </row>
-    <row r="99" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G99" s="349"/>
-      <c r="H99" s="350"/>
-      <c r="I99" s="350"/>
-      <c r="J99" s="350"/>
-      <c r="K99" s="350"/>
-      <c r="L99" s="350"/>
-      <c r="M99" s="350"/>
-      <c r="N99" s="350"/>
-      <c r="O99" s="350"/>
-      <c r="P99" s="351"/>
-      <c r="Q99" s="133" t="s">
-        <v>166</v>
-      </c>
-      <c r="R99" s="134"/>
-      <c r="S99" s="134"/>
-      <c r="T99" s="134"/>
-      <c r="U99" s="134"/>
-      <c r="V99" s="134"/>
-      <c r="W99" s="134"/>
-      <c r="X99" s="134"/>
-      <c r="Y99" s="134"/>
-      <c r="Z99" s="135"/>
+      <c r="R99" s="306"/>
+      <c r="S99" s="306"/>
+      <c r="T99" s="306"/>
+      <c r="U99" s="306"/>
+      <c r="V99" s="306"/>
+      <c r="W99" s="306"/>
+      <c r="X99" s="306"/>
+      <c r="Y99" s="306"/>
+      <c r="Z99" s="307"/>
       <c r="AG99" s="132"/>
       <c r="AH99" s="132"/>
     </row>
-    <row r="100" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G100" s="349"/>
-      <c r="H100" s="350"/>
-      <c r="I100" s="350"/>
-      <c r="J100" s="350"/>
-      <c r="K100" s="350"/>
-      <c r="L100" s="350"/>
-      <c r="M100" s="350"/>
-      <c r="N100" s="350"/>
-      <c r="O100" s="350"/>
-      <c r="P100" s="351"/>
+    <row r="100" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G100" s="302"/>
+      <c r="H100" s="303"/>
+      <c r="I100" s="303"/>
+      <c r="J100" s="303"/>
+      <c r="K100" s="303"/>
+      <c r="L100" s="303"/>
+      <c r="M100" s="303"/>
+      <c r="N100" s="303"/>
+      <c r="O100" s="303"/>
+      <c r="P100" s="304"/>
       <c r="Q100" s="133" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="R100" s="134"/>
       <c r="S100" s="134"/>
@@ -9365,19 +9417,19 @@
       <c r="AG100" s="132"/>
       <c r="AH100" s="132"/>
     </row>
-    <row r="101" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G101" s="349"/>
-      <c r="H101" s="350"/>
-      <c r="I101" s="350"/>
-      <c r="J101" s="350"/>
-      <c r="K101" s="350"/>
-      <c r="L101" s="350"/>
-      <c r="M101" s="350"/>
-      <c r="N101" s="350"/>
-      <c r="O101" s="350"/>
-      <c r="P101" s="351"/>
-      <c r="Q101" s="171" t="s">
-        <v>176</v>
+    <row r="101" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G101" s="302"/>
+      <c r="H101" s="303"/>
+      <c r="I101" s="303"/>
+      <c r="J101" s="303"/>
+      <c r="K101" s="303"/>
+      <c r="L101" s="303"/>
+      <c r="M101" s="303"/>
+      <c r="N101" s="303"/>
+      <c r="O101" s="303"/>
+      <c r="P101" s="304"/>
+      <c r="Q101" s="133" t="s">
+        <v>166</v>
       </c>
       <c r="R101" s="134"/>
       <c r="S101" s="134"/>
@@ -9391,97 +9443,81 @@
       <c r="AG101" s="132"/>
       <c r="AH101" s="132"/>
     </row>
-    <row r="102" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G102" s="349"/>
-      <c r="H102" s="350"/>
-      <c r="I102" s="350"/>
-      <c r="J102" s="350"/>
-      <c r="K102" s="350"/>
-      <c r="L102" s="350"/>
-      <c r="M102" s="350"/>
-      <c r="N102" s="350"/>
-      <c r="O102" s="350"/>
-      <c r="P102" s="351"/>
-      <c r="Q102" s="341" t="s">
-        <v>168</v>
-      </c>
-      <c r="R102" s="342"/>
-      <c r="S102" s="342"/>
-      <c r="T102" s="342"/>
-      <c r="U102" s="342"/>
-      <c r="V102" s="342"/>
-      <c r="W102" s="342"/>
-      <c r="X102" s="342"/>
-      <c r="Y102" s="342"/>
-      <c r="Z102" s="343"/>
+    <row r="102" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G102" s="302"/>
+      <c r="H102" s="303"/>
+      <c r="I102" s="303"/>
+      <c r="J102" s="303"/>
+      <c r="K102" s="303"/>
+      <c r="L102" s="303"/>
+      <c r="M102" s="303"/>
+      <c r="N102" s="303"/>
+      <c r="O102" s="303"/>
+      <c r="P102" s="304"/>
+      <c r="Q102" s="171" t="s">
+        <v>175</v>
+      </c>
+      <c r="R102" s="134"/>
+      <c r="S102" s="134"/>
+      <c r="T102" s="134"/>
+      <c r="U102" s="134"/>
+      <c r="V102" s="134"/>
+      <c r="W102" s="134"/>
+      <c r="X102" s="134"/>
+      <c r="Y102" s="134"/>
+      <c r="Z102" s="135"/>
       <c r="AG102" s="132"/>
       <c r="AH102" s="132"/>
     </row>
-    <row r="103" spans="5:58" x14ac:dyDescent="0.25">
-      <c r="G103" s="349"/>
-      <c r="H103" s="350"/>
-      <c r="I103" s="350"/>
-      <c r="J103" s="350"/>
-      <c r="K103" s="350"/>
-      <c r="L103" s="350"/>
-      <c r="M103" s="350"/>
-      <c r="N103" s="350"/>
-      <c r="O103" s="350"/>
-      <c r="P103" s="351"/>
-      <c r="Q103" s="341" t="s">
-        <v>169</v>
-      </c>
-      <c r="R103" s="342"/>
-      <c r="S103" s="342"/>
-      <c r="T103" s="342"/>
-      <c r="U103" s="342"/>
-      <c r="V103" s="342"/>
-      <c r="W103" s="342"/>
-      <c r="X103" s="342"/>
-      <c r="Y103" s="342"/>
-      <c r="Z103" s="343"/>
-      <c r="AC103" s="128"/>
-      <c r="AD103" s="128"/>
-      <c r="AE103" s="128"/>
-      <c r="AF103" s="128"/>
+    <row r="103" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G103" s="302"/>
+      <c r="H103" s="303"/>
+      <c r="I103" s="303"/>
+      <c r="J103" s="303"/>
+      <c r="K103" s="303"/>
+      <c r="L103" s="303"/>
+      <c r="M103" s="303"/>
+      <c r="N103" s="303"/>
+      <c r="O103" s="303"/>
+      <c r="P103" s="304"/>
+      <c r="Q103" s="305" t="s">
+        <v>167</v>
+      </c>
+      <c r="R103" s="306"/>
+      <c r="S103" s="306"/>
+      <c r="T103" s="306"/>
+      <c r="U103" s="306"/>
+      <c r="V103" s="306"/>
+      <c r="W103" s="306"/>
+      <c r="X103" s="306"/>
+      <c r="Y103" s="306"/>
+      <c r="Z103" s="307"/>
       <c r="AG103" s="132"/>
       <c r="AH103" s="132"/>
-      <c r="AP103" s="128"/>
-      <c r="AQ103" s="128"/>
-      <c r="AR103" s="128"/>
-      <c r="AS103" s="128"/>
-      <c r="AT103" s="128"/>
-      <c r="AU103" s="128"/>
-      <c r="AV103" s="128"/>
-      <c r="AW103" s="128"/>
-      <c r="AX103" s="128"/>
-      <c r="AY103" s="128"/>
-    </row>
-    <row r="104" spans="5:58" x14ac:dyDescent="0.25">
-      <c r="G104" s="346" t="s">
-        <v>170</v>
-      </c>
-      <c r="H104" s="347"/>
-      <c r="I104" s="347"/>
-      <c r="J104" s="347"/>
-      <c r="K104" s="347"/>
-      <c r="L104" s="347"/>
-      <c r="M104" s="347"/>
-      <c r="N104" s="347"/>
-      <c r="O104" s="347"/>
-      <c r="P104" s="348"/>
-      <c r="Q104" s="341" t="s">
-        <v>171</v>
-      </c>
-      <c r="R104" s="342"/>
-      <c r="S104" s="342"/>
-      <c r="T104" s="342"/>
-      <c r="U104" s="342"/>
-      <c r="V104" s="342"/>
-      <c r="W104" s="342"/>
-      <c r="X104" s="342"/>
-      <c r="Y104" s="342"/>
-      <c r="Z104" s="343"/>
+    </row>
+    <row r="104" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="G104" s="302"/>
+      <c r="H104" s="303"/>
+      <c r="I104" s="303"/>
+      <c r="J104" s="303"/>
+      <c r="K104" s="303"/>
+      <c r="L104" s="303"/>
+      <c r="M104" s="303"/>
+      <c r="N104" s="303"/>
+      <c r="O104" s="303"/>
+      <c r="P104" s="304"/>
+      <c r="Q104" s="305" t="s">
+        <v>168</v>
+      </c>
+      <c r="R104" s="306"/>
+      <c r="S104" s="306"/>
+      <c r="T104" s="306"/>
+      <c r="U104" s="306"/>
+      <c r="V104" s="306"/>
+      <c r="W104" s="306"/>
+      <c r="X104" s="306"/>
+      <c r="Y104" s="306"/>
+      <c r="Z104" s="307"/>
       <c r="AC104" s="128"/>
       <c r="AD104" s="128"/>
       <c r="AE104" s="128"/>
@@ -9499,29 +9535,31 @@
       <c r="AX104" s="128"/>
       <c r="AY104" s="128"/>
     </row>
-    <row r="105" spans="5:58" x14ac:dyDescent="0.25">
-      <c r="G105" s="361"/>
-      <c r="H105" s="362"/>
-      <c r="I105" s="362"/>
-      <c r="J105" s="362"/>
-      <c r="K105" s="362"/>
-      <c r="L105" s="362"/>
-      <c r="M105" s="362"/>
-      <c r="N105" s="362"/>
-      <c r="O105" s="362"/>
-      <c r="P105" s="363"/>
-      <c r="Q105" s="341" t="s">
-        <v>172</v>
-      </c>
-      <c r="R105" s="342"/>
-      <c r="S105" s="342"/>
-      <c r="T105" s="342"/>
-      <c r="U105" s="342"/>
-      <c r="V105" s="342"/>
-      <c r="W105" s="342"/>
-      <c r="X105" s="342"/>
-      <c r="Y105" s="342"/>
-      <c r="Z105" s="343"/>
+    <row r="105" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="G105" s="299" t="s">
+        <v>169</v>
+      </c>
+      <c r="H105" s="300"/>
+      <c r="I105" s="300"/>
+      <c r="J105" s="300"/>
+      <c r="K105" s="300"/>
+      <c r="L105" s="300"/>
+      <c r="M105" s="300"/>
+      <c r="N105" s="300"/>
+      <c r="O105" s="300"/>
+      <c r="P105" s="301"/>
+      <c r="Q105" s="305" t="s">
+        <v>170</v>
+      </c>
+      <c r="R105" s="306"/>
+      <c r="S105" s="306"/>
+      <c r="T105" s="306"/>
+      <c r="U105" s="306"/>
+      <c r="V105" s="306"/>
+      <c r="W105" s="306"/>
+      <c r="X105" s="306"/>
+      <c r="Y105" s="306"/>
+      <c r="Z105" s="307"/>
       <c r="AC105" s="128"/>
       <c r="AD105" s="128"/>
       <c r="AE105" s="128"/>
@@ -9539,35 +9577,35 @@
       <c r="AX105" s="128"/>
       <c r="AY105" s="128"/>
     </row>
-    <row r="106" spans="5:58" x14ac:dyDescent="0.25">
-      <c r="G106" s="352" t="s">
-        <v>115</v>
-      </c>
-      <c r="H106" s="353"/>
-      <c r="I106" s="353"/>
-      <c r="J106" s="353"/>
-      <c r="K106" s="353"/>
-      <c r="L106" s="353"/>
-      <c r="M106" s="353"/>
-      <c r="N106" s="353"/>
-      <c r="O106" s="353"/>
-      <c r="P106" s="353"/>
-      <c r="Q106" s="353"/>
-      <c r="R106" s="353"/>
-      <c r="S106" s="353"/>
-      <c r="T106" s="353"/>
-      <c r="U106" s="353"/>
-      <c r="V106" s="353"/>
-      <c r="W106" s="353"/>
-      <c r="X106" s="353"/>
-      <c r="Y106" s="353"/>
-      <c r="Z106" s="354"/>
-      <c r="AJ106" s="128"/>
-      <c r="AK106" s="128"/>
-      <c r="AL106" s="128"/>
-      <c r="AM106" s="128"/>
-      <c r="AN106" s="128"/>
-      <c r="AO106" s="128"/>
+    <row r="106" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="G106" s="322"/>
+      <c r="H106" s="323"/>
+      <c r="I106" s="323"/>
+      <c r="J106" s="323"/>
+      <c r="K106" s="323"/>
+      <c r="L106" s="323"/>
+      <c r="M106" s="323"/>
+      <c r="N106" s="323"/>
+      <c r="O106" s="323"/>
+      <c r="P106" s="324"/>
+      <c r="Q106" s="305" t="s">
+        <v>171</v>
+      </c>
+      <c r="R106" s="306"/>
+      <c r="S106" s="306"/>
+      <c r="T106" s="306"/>
+      <c r="U106" s="306"/>
+      <c r="V106" s="306"/>
+      <c r="W106" s="306"/>
+      <c r="X106" s="306"/>
+      <c r="Y106" s="306"/>
+      <c r="Z106" s="307"/>
+      <c r="AC106" s="128"/>
+      <c r="AD106" s="128"/>
+      <c r="AE106" s="128"/>
+      <c r="AF106" s="128"/>
+      <c r="AG106" s="132"/>
+      <c r="AH106" s="132"/>
       <c r="AP106" s="128"/>
       <c r="AQ106" s="128"/>
       <c r="AR106" s="128"/>
@@ -9578,35 +9616,30 @@
       <c r="AW106" s="128"/>
       <c r="AX106" s="128"/>
       <c r="AY106" s="128"/>
-      <c r="AZ106" s="128"/>
-      <c r="BA106" s="128"/>
-      <c r="BB106" s="128"/>
-      <c r="BC106" s="128"/>
-      <c r="BD106" s="128"/>
-      <c r="BE106" s="128"/>
-      <c r="BF106" s="128"/>
-    </row>
-    <row r="107" spans="5:58" x14ac:dyDescent="0.25">
-      <c r="G107" s="136"/>
-      <c r="H107" s="137"/>
-      <c r="I107" s="137"/>
-      <c r="J107" s="137"/>
-      <c r="K107" s="137"/>
-      <c r="L107" s="137"/>
-      <c r="M107" s="137"/>
-      <c r="N107" s="137"/>
-      <c r="O107" s="137"/>
-      <c r="P107" s="137"/>
-      <c r="Q107" s="137"/>
-      <c r="R107" s="137"/>
-      <c r="S107" s="137"/>
-      <c r="T107" s="137"/>
-      <c r="U107" s="137"/>
-      <c r="V107" s="137"/>
-      <c r="W107" s="137"/>
-      <c r="X107" s="137"/>
-      <c r="Y107" s="137"/>
-      <c r="Z107" s="138"/>
+    </row>
+    <row r="107" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="G107" s="308" t="s">
+        <v>114</v>
+      </c>
+      <c r="H107" s="309"/>
+      <c r="I107" s="309"/>
+      <c r="J107" s="309"/>
+      <c r="K107" s="309"/>
+      <c r="L107" s="309"/>
+      <c r="M107" s="309"/>
+      <c r="N107" s="309"/>
+      <c r="O107" s="309"/>
+      <c r="P107" s="309"/>
+      <c r="Q107" s="309"/>
+      <c r="R107" s="309"/>
+      <c r="S107" s="309"/>
+      <c r="T107" s="309"/>
+      <c r="U107" s="309"/>
+      <c r="V107" s="309"/>
+      <c r="W107" s="309"/>
+      <c r="X107" s="309"/>
+      <c r="Y107" s="309"/>
+      <c r="Z107" s="310"/>
       <c r="AJ107" s="128"/>
       <c r="AK107" s="128"/>
       <c r="AL107" s="128"/>
@@ -9631,31 +9664,27 @@
       <c r="BE107" s="128"/>
       <c r="BF107" s="128"/>
     </row>
-    <row r="108" spans="5:58" x14ac:dyDescent="0.25">
-      <c r="G108" s="139"/>
-      <c r="H108" s="140" t="s">
-        <v>173</v>
-      </c>
-      <c r="I108" s="140"/>
-      <c r="J108" s="140"/>
-      <c r="K108" s="140"/>
-      <c r="L108" s="141"/>
-      <c r="N108" s="140"/>
-      <c r="O108" s="141" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q108" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="R108" s="140"/>
-      <c r="S108" s="140"/>
-      <c r="T108" s="140"/>
-      <c r="U108" s="140"/>
-      <c r="V108" s="142"/>
-      <c r="W108" s="140"/>
-      <c r="X108" s="140"/>
-      <c r="Y108" s="140"/>
-      <c r="Z108" s="143"/>
+    <row r="108" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="G108" s="136"/>
+      <c r="H108" s="137"/>
+      <c r="I108" s="137"/>
+      <c r="J108" s="137"/>
+      <c r="K108" s="137"/>
+      <c r="L108" s="137"/>
+      <c r="M108" s="137"/>
+      <c r="N108" s="137"/>
+      <c r="O108" s="137"/>
+      <c r="P108" s="137"/>
+      <c r="Q108" s="137"/>
+      <c r="R108" s="137"/>
+      <c r="S108" s="137"/>
+      <c r="T108" s="137"/>
+      <c r="U108" s="137"/>
+      <c r="V108" s="137"/>
+      <c r="W108" s="137"/>
+      <c r="X108" s="137"/>
+      <c r="Y108" s="137"/>
+      <c r="Z108" s="138"/>
       <c r="AJ108" s="128"/>
       <c r="AK108" s="128"/>
       <c r="AL108" s="128"/>
@@ -9680,27 +9709,31 @@
       <c r="BE108" s="128"/>
       <c r="BF108" s="128"/>
     </row>
-    <row r="109" spans="5:58" x14ac:dyDescent="0.25">
-      <c r="G109" s="144"/>
-      <c r="H109" s="145"/>
-      <c r="I109" s="145"/>
-      <c r="J109" s="145"/>
-      <c r="K109" s="145"/>
-      <c r="L109" s="146"/>
-      <c r="M109" s="146"/>
-      <c r="N109" s="145"/>
-      <c r="O109" s="145"/>
-      <c r="P109" s="145"/>
-      <c r="Q109" s="145"/>
-      <c r="R109" s="145"/>
-      <c r="S109" s="145"/>
-      <c r="T109" s="145"/>
-      <c r="U109" s="145"/>
-      <c r="V109" s="147"/>
-      <c r="W109" s="145"/>
-      <c r="X109" s="145"/>
-      <c r="Y109" s="145"/>
-      <c r="Z109" s="148"/>
+    <row r="109" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="G109" s="139"/>
+      <c r="H109" s="140" t="s">
+        <v>172</v>
+      </c>
+      <c r="I109" s="140"/>
+      <c r="J109" s="140"/>
+      <c r="K109" s="140"/>
+      <c r="L109" s="141"/>
+      <c r="N109" s="140"/>
+      <c r="O109" s="141" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q109" s="140" t="s">
+        <v>178</v>
+      </c>
+      <c r="R109" s="140"/>
+      <c r="S109" s="140"/>
+      <c r="T109" s="140"/>
+      <c r="U109" s="140"/>
+      <c r="V109" s="142"/>
+      <c r="W109" s="140"/>
+      <c r="X109" s="140"/>
+      <c r="Y109" s="140"/>
+      <c r="Z109" s="143"/>
       <c r="AJ109" s="128"/>
       <c r="AK109" s="128"/>
       <c r="AL109" s="128"/>
@@ -9725,27 +9758,27 @@
       <c r="BE109" s="128"/>
       <c r="BF109" s="128"/>
     </row>
-    <row r="110" spans="5:58" x14ac:dyDescent="0.25">
-      <c r="G110" s="140"/>
-      <c r="H110" s="140"/>
-      <c r="I110" s="140"/>
-      <c r="J110" s="140"/>
-      <c r="K110" s="140"/>
-      <c r="L110" s="141"/>
-      <c r="M110" s="141"/>
-      <c r="N110" s="140"/>
-      <c r="O110" s="140"/>
-      <c r="P110" s="140"/>
-      <c r="Q110" s="140"/>
-      <c r="R110" s="140"/>
-      <c r="S110" s="140"/>
-      <c r="T110" s="140"/>
-      <c r="U110" s="140"/>
-      <c r="V110" s="142"/>
-      <c r="W110" s="140"/>
-      <c r="X110" s="140"/>
-      <c r="Y110" s="140"/>
-      <c r="Z110" s="149"/>
+    <row r="110" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="G110" s="144"/>
+      <c r="H110" s="145"/>
+      <c r="I110" s="145"/>
+      <c r="J110" s="145"/>
+      <c r="K110" s="145"/>
+      <c r="L110" s="146"/>
+      <c r="M110" s="146"/>
+      <c r="N110" s="145"/>
+      <c r="O110" s="145"/>
+      <c r="P110" s="145"/>
+      <c r="Q110" s="145"/>
+      <c r="R110" s="145"/>
+      <c r="S110" s="145"/>
+      <c r="T110" s="145"/>
+      <c r="U110" s="145"/>
+      <c r="V110" s="147"/>
+      <c r="W110" s="145"/>
+      <c r="X110" s="145"/>
+      <c r="Y110" s="145"/>
+      <c r="Z110" s="148"/>
       <c r="AJ110" s="128"/>
       <c r="AK110" s="128"/>
       <c r="AL110" s="128"/>
@@ -9770,98 +9803,113 @@
       <c r="BE110" s="128"/>
       <c r="BF110" s="128"/>
     </row>
-    <row r="111" spans="5:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AI111" s="127"/>
-      <c r="AJ111" s="127"/>
-      <c r="AK111" s="127"/>
-      <c r="AL111" s="127"/>
-      <c r="AM111" s="127"/>
-      <c r="AN111" s="127"/>
-      <c r="AO111" s="127"/>
-      <c r="AP111" s="127"/>
-      <c r="AQ111" s="127"/>
-      <c r="AR111" s="127"/>
-      <c r="AS111" s="127"/>
-      <c r="AT111" s="127"/>
-      <c r="AU111" s="127"/>
-      <c r="AV111" s="127"/>
-      <c r="AW111" s="127"/>
-      <c r="AX111" s="127"/>
-      <c r="AY111" s="127"/>
-      <c r="AZ111" s="127"/>
-      <c r="BA111" s="127"/>
-      <c r="BB111" s="127"/>
-      <c r="BC111" s="127"/>
-      <c r="BD111" s="127"/>
-      <c r="BE111" s="127"/>
-    </row>
-    <row r="112" spans="5:58" x14ac:dyDescent="0.25">
-      <c r="E112" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="G112" s="44"/>
-      <c r="AJ112" s="128"/>
-      <c r="AK112" s="128"/>
-      <c r="AL112" s="128"/>
-      <c r="AM112" s="128"/>
-      <c r="AN112" s="128"/>
-      <c r="AO112" s="128"/>
-      <c r="AP112" s="128"/>
-      <c r="AQ112" s="128"/>
-      <c r="AR112" s="128"/>
-      <c r="AS112" s="128"/>
-      <c r="AT112" s="128"/>
-      <c r="AU112" s="128"/>
-      <c r="AV112" s="128"/>
-      <c r="AW112" s="128"/>
-      <c r="AX112" s="128"/>
-      <c r="AY112" s="128"/>
-      <c r="AZ112" s="128"/>
-      <c r="BA112" s="128"/>
-      <c r="BB112" s="128"/>
-      <c r="BC112" s="128"/>
-      <c r="BD112" s="128"/>
-      <c r="BE112" s="128"/>
-      <c r="BF112" s="128"/>
-    </row>
-    <row r="113" spans="4:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D113" s="38"/>
-      <c r="E113" s="124"/>
-    </row>
-    <row r="114" spans="4:58" x14ac:dyDescent="0.25">
-      <c r="E114" s="66"/>
-      <c r="F114" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ114" s="128"/>
-      <c r="AK114" s="128"/>
-      <c r="AL114" s="128"/>
-      <c r="AM114" s="128"/>
-      <c r="AN114" s="128"/>
-      <c r="AO114" s="128"/>
-      <c r="AP114" s="128"/>
-      <c r="AQ114" s="128"/>
-      <c r="AR114" s="128"/>
-      <c r="AS114" s="128"/>
-      <c r="AT114" s="128"/>
-      <c r="AU114" s="128"/>
-      <c r="AV114" s="128"/>
-      <c r="AW114" s="128"/>
-      <c r="AX114" s="128"/>
-      <c r="AY114" s="128"/>
-      <c r="AZ114" s="128"/>
-      <c r="BA114" s="128"/>
-      <c r="BB114" s="128"/>
-      <c r="BC114" s="128"/>
-      <c r="BD114" s="128"/>
-      <c r="BE114" s="128"/>
-      <c r="BF114" s="128"/>
+    <row r="111" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="G111" s="140"/>
+      <c r="H111" s="140"/>
+      <c r="I111" s="140"/>
+      <c r="J111" s="140"/>
+      <c r="K111" s="140"/>
+      <c r="L111" s="141"/>
+      <c r="M111" s="141"/>
+      <c r="N111" s="140"/>
+      <c r="O111" s="140"/>
+      <c r="P111" s="140"/>
+      <c r="Q111" s="140"/>
+      <c r="R111" s="140"/>
+      <c r="S111" s="140"/>
+      <c r="T111" s="140"/>
+      <c r="U111" s="140"/>
+      <c r="V111" s="142"/>
+      <c r="W111" s="140"/>
+      <c r="X111" s="140"/>
+      <c r="Y111" s="140"/>
+      <c r="Z111" s="149"/>
+      <c r="AJ111" s="128"/>
+      <c r="AK111" s="128"/>
+      <c r="AL111" s="128"/>
+      <c r="AM111" s="128"/>
+      <c r="AN111" s="128"/>
+      <c r="AO111" s="128"/>
+      <c r="AP111" s="128"/>
+      <c r="AQ111" s="128"/>
+      <c r="AR111" s="128"/>
+      <c r="AS111" s="128"/>
+      <c r="AT111" s="128"/>
+      <c r="AU111" s="128"/>
+      <c r="AV111" s="128"/>
+      <c r="AW111" s="128"/>
+      <c r="AX111" s="128"/>
+      <c r="AY111" s="128"/>
+      <c r="AZ111" s="128"/>
+      <c r="BA111" s="128"/>
+      <c r="BB111" s="128"/>
+      <c r="BC111" s="128"/>
+      <c r="BD111" s="128"/>
+      <c r="BE111" s="128"/>
+      <c r="BF111" s="128"/>
+    </row>
+    <row r="112" spans="7:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI112" s="127"/>
+      <c r="AJ112" s="127"/>
+      <c r="AK112" s="127"/>
+      <c r="AL112" s="127"/>
+      <c r="AM112" s="127"/>
+      <c r="AN112" s="127"/>
+      <c r="AO112" s="127"/>
+      <c r="AP112" s="127"/>
+      <c r="AQ112" s="127"/>
+      <c r="AR112" s="127"/>
+      <c r="AS112" s="127"/>
+      <c r="AT112" s="127"/>
+      <c r="AU112" s="127"/>
+      <c r="AV112" s="127"/>
+      <c r="AW112" s="127"/>
+      <c r="AX112" s="127"/>
+      <c r="AY112" s="127"/>
+      <c r="AZ112" s="127"/>
+      <c r="BA112" s="127"/>
+      <c r="BB112" s="127"/>
+      <c r="BC112" s="127"/>
+      <c r="BD112" s="127"/>
+      <c r="BE112" s="127"/>
+    </row>
+    <row r="113" spans="4:58" x14ac:dyDescent="0.25">
+      <c r="E113" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="G113" s="44"/>
+      <c r="AJ113" s="128"/>
+      <c r="AK113" s="128"/>
+      <c r="AL113" s="128"/>
+      <c r="AM113" s="128"/>
+      <c r="AN113" s="128"/>
+      <c r="AO113" s="128"/>
+      <c r="AP113" s="128"/>
+      <c r="AQ113" s="128"/>
+      <c r="AR113" s="128"/>
+      <c r="AS113" s="128"/>
+      <c r="AT113" s="128"/>
+      <c r="AU113" s="128"/>
+      <c r="AV113" s="128"/>
+      <c r="AW113" s="128"/>
+      <c r="AX113" s="128"/>
+      <c r="AY113" s="128"/>
+      <c r="AZ113" s="128"/>
+      <c r="BA113" s="128"/>
+      <c r="BB113" s="128"/>
+      <c r="BC113" s="128"/>
+      <c r="BD113" s="128"/>
+      <c r="BE113" s="128"/>
+      <c r="BF113" s="128"/>
+    </row>
+    <row r="114" spans="4:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D114" s="38"/>
+      <c r="E114" s="124"/>
     </row>
     <row r="115" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E115" s="66"/>
-      <c r="F115" s="129"/>
-      <c r="G115" s="66" t="s">
-        <v>119</v>
+      <c r="F115" s="66" t="s">
+        <v>117</v>
       </c>
       <c r="AJ115" s="128"/>
       <c r="AK115" s="128"/>
@@ -9890,16 +9938,9 @@
     <row r="116" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E116" s="66"/>
       <c r="F116" s="129"/>
-      <c r="H116" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="I116" s="150"/>
-      <c r="J116" s="150"/>
-      <c r="K116" s="150"/>
-      <c r="L116" s="150"/>
-      <c r="M116" s="150"/>
-      <c r="N116" s="150"/>
-      <c r="O116" s="150"/>
+      <c r="G116" s="66" t="s">
+        <v>118</v>
+      </c>
       <c r="AJ116" s="128"/>
       <c r="AK116" s="128"/>
       <c r="AL116" s="128"/>
@@ -9927,7 +9968,16 @@
     <row r="117" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E117" s="66"/>
       <c r="F117" s="129"/>
-      <c r="G117" s="66"/>
+      <c r="H117" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="I117" s="150"/>
+      <c r="J117" s="150"/>
+      <c r="K117" s="150"/>
+      <c r="L117" s="150"/>
+      <c r="M117" s="150"/>
+      <c r="N117" s="150"/>
+      <c r="O117" s="150"/>
       <c r="AJ117" s="128"/>
       <c r="AK117" s="128"/>
       <c r="AL117" s="128"/>
@@ -9954,9 +10004,8 @@
     </row>
     <row r="118" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E118" s="66"/>
-      <c r="F118" s="66" t="s">
-        <v>121</v>
-      </c>
+      <c r="F118" s="129"/>
+      <c r="G118" s="66"/>
       <c r="AJ118" s="128"/>
       <c r="AK118" s="128"/>
       <c r="AL118" s="128"/>
@@ -9983,36 +10032,9 @@
     </row>
     <row r="119" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E119" s="66"/>
-      <c r="F119" s="129"/>
-      <c r="G119" s="379" t="s">
-        <v>122</v>
-      </c>
-      <c r="H119" s="379"/>
-      <c r="I119" s="379"/>
-      <c r="J119" s="379"/>
-      <c r="K119" s="379"/>
-      <c r="L119" s="379"/>
-      <c r="M119" s="379"/>
-      <c r="N119" s="379"/>
-      <c r="O119" s="379"/>
-      <c r="P119" s="379"/>
-      <c r="Q119" s="379"/>
-      <c r="R119" s="379"/>
-      <c r="S119" s="379"/>
-      <c r="T119" s="379"/>
-      <c r="U119" s="379"/>
-      <c r="V119" s="379"/>
-      <c r="W119" s="379"/>
-      <c r="X119" s="379"/>
-      <c r="Y119" s="379"/>
-      <c r="Z119" s="379"/>
-      <c r="AA119" s="379"/>
-      <c r="AB119" s="379"/>
-      <c r="AC119" s="379"/>
-      <c r="AD119" s="379"/>
-      <c r="AE119" s="379"/>
-      <c r="AF119" s="379"/>
-      <c r="AG119" s="379"/>
+      <c r="F119" s="66" t="s">
+        <v>120</v>
+      </c>
       <c r="AJ119" s="128"/>
       <c r="AK119" s="128"/>
       <c r="AL119" s="128"/>
@@ -10040,33 +10062,35 @@
     <row r="120" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E120" s="66"/>
       <c r="F120" s="129"/>
-      <c r="G120" s="379"/>
-      <c r="H120" s="379"/>
-      <c r="I120" s="379"/>
-      <c r="J120" s="379"/>
-      <c r="K120" s="379"/>
-      <c r="L120" s="379"/>
-      <c r="M120" s="379"/>
-      <c r="N120" s="379"/>
-      <c r="O120" s="379"/>
-      <c r="P120" s="379"/>
-      <c r="Q120" s="379"/>
-      <c r="R120" s="379"/>
-      <c r="S120" s="379"/>
-      <c r="T120" s="379"/>
-      <c r="U120" s="379"/>
-      <c r="V120" s="379"/>
-      <c r="W120" s="379"/>
-      <c r="X120" s="379"/>
-      <c r="Y120" s="379"/>
-      <c r="Z120" s="379"/>
-      <c r="AA120" s="379"/>
-      <c r="AB120" s="379"/>
-      <c r="AC120" s="379"/>
-      <c r="AD120" s="379"/>
-      <c r="AE120" s="379"/>
-      <c r="AF120" s="379"/>
-      <c r="AG120" s="379"/>
+      <c r="G120" s="284" t="s">
+        <v>121</v>
+      </c>
+      <c r="H120" s="284"/>
+      <c r="I120" s="284"/>
+      <c r="J120" s="284"/>
+      <c r="K120" s="284"/>
+      <c r="L120" s="284"/>
+      <c r="M120" s="284"/>
+      <c r="N120" s="284"/>
+      <c r="O120" s="284"/>
+      <c r="P120" s="284"/>
+      <c r="Q120" s="284"/>
+      <c r="R120" s="284"/>
+      <c r="S120" s="284"/>
+      <c r="T120" s="284"/>
+      <c r="U120" s="284"/>
+      <c r="V120" s="284"/>
+      <c r="W120" s="284"/>
+      <c r="X120" s="284"/>
+      <c r="Y120" s="284"/>
+      <c r="Z120" s="284"/>
+      <c r="AA120" s="284"/>
+      <c r="AB120" s="284"/>
+      <c r="AC120" s="284"/>
+      <c r="AD120" s="284"/>
+      <c r="AE120" s="284"/>
+      <c r="AF120" s="284"/>
+      <c r="AG120" s="284"/>
       <c r="AJ120" s="128"/>
       <c r="AK120" s="128"/>
       <c r="AL120" s="128"/>
@@ -10094,10 +10118,33 @@
     <row r="121" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E121" s="66"/>
       <c r="F121" s="129"/>
-      <c r="G121" s="66"/>
-      <c r="H121" s="73" t="s">
-        <v>120</v>
-      </c>
+      <c r="G121" s="284"/>
+      <c r="H121" s="284"/>
+      <c r="I121" s="284"/>
+      <c r="J121" s="284"/>
+      <c r="K121" s="284"/>
+      <c r="L121" s="284"/>
+      <c r="M121" s="284"/>
+      <c r="N121" s="284"/>
+      <c r="O121" s="284"/>
+      <c r="P121" s="284"/>
+      <c r="Q121" s="284"/>
+      <c r="R121" s="284"/>
+      <c r="S121" s="284"/>
+      <c r="T121" s="284"/>
+      <c r="U121" s="284"/>
+      <c r="V121" s="284"/>
+      <c r="W121" s="284"/>
+      <c r="X121" s="284"/>
+      <c r="Y121" s="284"/>
+      <c r="Z121" s="284"/>
+      <c r="AA121" s="284"/>
+      <c r="AB121" s="284"/>
+      <c r="AC121" s="284"/>
+      <c r="AD121" s="284"/>
+      <c r="AE121" s="284"/>
+      <c r="AF121" s="284"/>
+      <c r="AG121" s="284"/>
       <c r="AJ121" s="128"/>
       <c r="AK121" s="128"/>
       <c r="AL121" s="128"/>
@@ -10124,8 +10171,10 @@
     </row>
     <row r="122" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E122" s="66"/>
-      <c r="F122" s="66" t="s">
-        <v>123</v>
+      <c r="F122" s="129"/>
+      <c r="G122" s="66"/>
+      <c r="H122" s="73" t="s">
+        <v>119</v>
       </c>
       <c r="AJ122" s="128"/>
       <c r="AK122" s="128"/>
@@ -10153,9 +10202,8 @@
     </row>
     <row r="123" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E123" s="66"/>
-      <c r="F123" s="129"/>
-      <c r="G123" s="66" t="s">
-        <v>124</v>
+      <c r="F123" s="66" t="s">
+        <v>122</v>
       </c>
       <c r="AJ123" s="128"/>
       <c r="AK123" s="128"/>
@@ -10184,15 +10232,9 @@
     <row r="124" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E124" s="66"/>
       <c r="F124" s="129"/>
-      <c r="H124" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="I124" s="150"/>
-      <c r="J124" s="150"/>
-      <c r="K124" s="150"/>
-      <c r="L124" s="150"/>
-      <c r="M124" s="150"/>
-      <c r="N124" s="150"/>
+      <c r="G124" s="66" t="s">
+        <v>123</v>
+      </c>
       <c r="AJ124" s="128"/>
       <c r="AK124" s="128"/>
       <c r="AL124" s="128"/>
@@ -10220,7 +10262,15 @@
     <row r="125" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E125" s="66"/>
       <c r="F125" s="129"/>
-      <c r="G125" s="66"/>
+      <c r="H125" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="I125" s="150"/>
+      <c r="J125" s="150"/>
+      <c r="K125" s="150"/>
+      <c r="L125" s="150"/>
+      <c r="M125" s="150"/>
+      <c r="N125" s="150"/>
       <c r="AJ125" s="128"/>
       <c r="AK125" s="128"/>
       <c r="AL125" s="128"/>
@@ -10247,9 +10297,8 @@
     </row>
     <row r="126" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E126" s="66"/>
-      <c r="F126" s="66" t="s">
-        <v>125</v>
-      </c>
+      <c r="F126" s="129"/>
+      <c r="G126" s="66"/>
       <c r="AJ126" s="128"/>
       <c r="AK126" s="128"/>
       <c r="AL126" s="128"/>
@@ -10276,36 +10325,9 @@
     </row>
     <row r="127" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E127" s="66"/>
-      <c r="F127" s="129"/>
-      <c r="G127" s="379" t="s">
-        <v>126</v>
-      </c>
-      <c r="H127" s="379"/>
-      <c r="I127" s="379"/>
-      <c r="J127" s="379"/>
-      <c r="K127" s="379"/>
-      <c r="L127" s="379"/>
-      <c r="M127" s="379"/>
-      <c r="N127" s="379"/>
-      <c r="O127" s="379"/>
-      <c r="P127" s="379"/>
-      <c r="Q127" s="379"/>
-      <c r="R127" s="379"/>
-      <c r="S127" s="379"/>
-      <c r="T127" s="379"/>
-      <c r="U127" s="379"/>
-      <c r="V127" s="379"/>
-      <c r="W127" s="379"/>
-      <c r="X127" s="379"/>
-      <c r="Y127" s="379"/>
-      <c r="Z127" s="379"/>
-      <c r="AA127" s="379"/>
-      <c r="AB127" s="379"/>
-      <c r="AC127" s="379"/>
-      <c r="AD127" s="379"/>
-      <c r="AE127" s="379"/>
-      <c r="AF127" s="379"/>
-      <c r="AG127" s="379"/>
+      <c r="F127" s="66" t="s">
+        <v>124</v>
+      </c>
       <c r="AJ127" s="128"/>
       <c r="AK127" s="128"/>
       <c r="AL127" s="128"/>
@@ -10333,33 +10355,35 @@
     <row r="128" spans="4:58" x14ac:dyDescent="0.25">
       <c r="E128" s="66"/>
       <c r="F128" s="129"/>
-      <c r="G128" s="379"/>
-      <c r="H128" s="379"/>
-      <c r="I128" s="379"/>
-      <c r="J128" s="379"/>
-      <c r="K128" s="379"/>
-      <c r="L128" s="379"/>
-      <c r="M128" s="379"/>
-      <c r="N128" s="379"/>
-      <c r="O128" s="379"/>
-      <c r="P128" s="379"/>
-      <c r="Q128" s="379"/>
-      <c r="R128" s="379"/>
-      <c r="S128" s="379"/>
-      <c r="T128" s="379"/>
-      <c r="U128" s="379"/>
-      <c r="V128" s="379"/>
-      <c r="W128" s="379"/>
-      <c r="X128" s="379"/>
-      <c r="Y128" s="379"/>
-      <c r="Z128" s="379"/>
-      <c r="AA128" s="379"/>
-      <c r="AB128" s="379"/>
-      <c r="AC128" s="379"/>
-      <c r="AD128" s="379"/>
-      <c r="AE128" s="379"/>
-      <c r="AF128" s="379"/>
-      <c r="AG128" s="379"/>
+      <c r="G128" s="284" t="s">
+        <v>125</v>
+      </c>
+      <c r="H128" s="284"/>
+      <c r="I128" s="284"/>
+      <c r="J128" s="284"/>
+      <c r="K128" s="284"/>
+      <c r="L128" s="284"/>
+      <c r="M128" s="284"/>
+      <c r="N128" s="284"/>
+      <c r="O128" s="284"/>
+      <c r="P128" s="284"/>
+      <c r="Q128" s="284"/>
+      <c r="R128" s="284"/>
+      <c r="S128" s="284"/>
+      <c r="T128" s="284"/>
+      <c r="U128" s="284"/>
+      <c r="V128" s="284"/>
+      <c r="W128" s="284"/>
+      <c r="X128" s="284"/>
+      <c r="Y128" s="284"/>
+      <c r="Z128" s="284"/>
+      <c r="AA128" s="284"/>
+      <c r="AB128" s="284"/>
+      <c r="AC128" s="284"/>
+      <c r="AD128" s="284"/>
+      <c r="AE128" s="284"/>
+      <c r="AF128" s="284"/>
+      <c r="AG128" s="284"/>
       <c r="AJ128" s="128"/>
       <c r="AK128" s="128"/>
       <c r="AL128" s="128"/>
@@ -10387,15 +10411,33 @@
     <row r="129" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E129" s="66"/>
       <c r="F129" s="129"/>
-      <c r="H129" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="I129" s="150"/>
-      <c r="J129" s="150"/>
-      <c r="K129" s="150"/>
-      <c r="L129" s="150"/>
-      <c r="M129" s="150"/>
-      <c r="N129" s="150"/>
+      <c r="G129" s="284"/>
+      <c r="H129" s="284"/>
+      <c r="I129" s="284"/>
+      <c r="J129" s="284"/>
+      <c r="K129" s="284"/>
+      <c r="L129" s="284"/>
+      <c r="M129" s="284"/>
+      <c r="N129" s="284"/>
+      <c r="O129" s="284"/>
+      <c r="P129" s="284"/>
+      <c r="Q129" s="284"/>
+      <c r="R129" s="284"/>
+      <c r="S129" s="284"/>
+      <c r="T129" s="284"/>
+      <c r="U129" s="284"/>
+      <c r="V129" s="284"/>
+      <c r="W129" s="284"/>
+      <c r="X129" s="284"/>
+      <c r="Y129" s="284"/>
+      <c r="Z129" s="284"/>
+      <c r="AA129" s="284"/>
+      <c r="AB129" s="284"/>
+      <c r="AC129" s="284"/>
+      <c r="AD129" s="284"/>
+      <c r="AE129" s="284"/>
+      <c r="AF129" s="284"/>
+      <c r="AG129" s="284"/>
       <c r="AJ129" s="128"/>
       <c r="AK129" s="128"/>
       <c r="AL129" s="128"/>
@@ -10423,7 +10465,15 @@
     <row r="130" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E130" s="66"/>
       <c r="F130" s="129"/>
-      <c r="G130" s="66"/>
+      <c r="H130" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="I130" s="150"/>
+      <c r="J130" s="150"/>
+      <c r="K130" s="150"/>
+      <c r="L130" s="150"/>
+      <c r="M130" s="150"/>
+      <c r="N130" s="150"/>
       <c r="AJ130" s="128"/>
       <c r="AK130" s="128"/>
       <c r="AL130" s="128"/>
@@ -10448,199 +10498,175 @@
       <c r="BE130" s="128"/>
       <c r="BF130" s="128"/>
     </row>
-    <row r="131" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H131" s="332" t="s">
+    <row r="131" spans="5:59" x14ac:dyDescent="0.25">
+      <c r="E131" s="66"/>
+      <c r="F131" s="129"/>
+      <c r="G131" s="66"/>
+      <c r="AJ131" s="128"/>
+      <c r="AK131" s="128"/>
+      <c r="AL131" s="128"/>
+      <c r="AM131" s="128"/>
+      <c r="AN131" s="128"/>
+      <c r="AO131" s="128"/>
+      <c r="AP131" s="128"/>
+      <c r="AQ131" s="128"/>
+      <c r="AR131" s="128"/>
+      <c r="AS131" s="128"/>
+      <c r="AT131" s="128"/>
+      <c r="AU131" s="128"/>
+      <c r="AV131" s="128"/>
+      <c r="AW131" s="128"/>
+      <c r="AX131" s="128"/>
+      <c r="AY131" s="128"/>
+      <c r="AZ131" s="128"/>
+      <c r="BA131" s="128"/>
+      <c r="BB131" s="128"/>
+      <c r="BC131" s="128"/>
+      <c r="BD131" s="128"/>
+      <c r="BE131" s="128"/>
+      <c r="BF131" s="128"/>
+    </row>
+    <row r="132" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H132" s="291" t="s">
         <v>30</v>
       </c>
-      <c r="I131" s="266" t="s">
+      <c r="I132" s="267" t="s">
+        <v>126</v>
+      </c>
+      <c r="J132" s="268"/>
+      <c r="K132" s="268"/>
+      <c r="L132" s="268"/>
+      <c r="M132" s="268"/>
+      <c r="N132" s="269"/>
+      <c r="O132" s="293" t="s">
         <v>127</v>
       </c>
-      <c r="J131" s="267"/>
-      <c r="K131" s="267"/>
-      <c r="L131" s="267"/>
-      <c r="M131" s="267"/>
-      <c r="N131" s="268"/>
-      <c r="O131" s="384" t="s">
+      <c r="P132" s="294"/>
+      <c r="Q132" s="294"/>
+      <c r="R132" s="294"/>
+      <c r="S132" s="294"/>
+      <c r="T132" s="294"/>
+      <c r="U132" s="294"/>
+      <c r="V132" s="294"/>
+      <c r="W132" s="294"/>
+      <c r="X132" s="294"/>
+      <c r="Y132" s="295"/>
+      <c r="Z132" s="267" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA132" s="268"/>
+      <c r="AB132" s="268"/>
+      <c r="AC132" s="268"/>
+      <c r="AD132" s="268"/>
+      <c r="AE132" s="269"/>
+      <c r="AF132" s="151" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG132" s="152"/>
+      <c r="AH132" s="153"/>
+    </row>
+    <row r="133" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H133" s="292"/>
+      <c r="I133" s="273"/>
+      <c r="J133" s="274"/>
+      <c r="K133" s="274"/>
+      <c r="L133" s="274"/>
+      <c r="M133" s="274"/>
+      <c r="N133" s="275"/>
+      <c r="O133" s="293" t="s">
+        <v>62</v>
+      </c>
+      <c r="P133" s="294"/>
+      <c r="Q133" s="294"/>
+      <c r="R133" s="294"/>
+      <c r="S133" s="295"/>
+      <c r="T133" s="296" t="s">
         <v>128</v>
       </c>
-      <c r="P131" s="385"/>
-      <c r="Q131" s="385"/>
-      <c r="R131" s="385"/>
-      <c r="S131" s="385"/>
-      <c r="T131" s="385"/>
-      <c r="U131" s="385"/>
-      <c r="V131" s="385"/>
-      <c r="W131" s="385"/>
-      <c r="X131" s="385"/>
-      <c r="Y131" s="386"/>
-      <c r="Z131" s="266" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA131" s="267"/>
-      <c r="AB131" s="267"/>
-      <c r="AC131" s="267"/>
-      <c r="AD131" s="267"/>
-      <c r="AE131" s="268"/>
-      <c r="AF131" s="151" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG131" s="152"/>
-      <c r="AH131" s="153"/>
-    </row>
-    <row r="132" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H132" s="334"/>
-      <c r="I132" s="272"/>
-      <c r="J132" s="273"/>
-      <c r="K132" s="273"/>
-      <c r="L132" s="273"/>
-      <c r="M132" s="273"/>
-      <c r="N132" s="274"/>
-      <c r="O132" s="384" t="s">
-        <v>62</v>
-      </c>
-      <c r="P132" s="385"/>
-      <c r="Q132" s="385"/>
-      <c r="R132" s="385"/>
-      <c r="S132" s="386"/>
-      <c r="T132" s="370" t="s">
-        <v>129</v>
-      </c>
-      <c r="U132" s="371"/>
-      <c r="V132" s="371"/>
-      <c r="W132" s="371"/>
-      <c r="X132" s="371"/>
-      <c r="Y132" s="372"/>
-      <c r="Z132" s="272"/>
-      <c r="AA132" s="273"/>
-      <c r="AB132" s="273"/>
-      <c r="AC132" s="273"/>
-      <c r="AD132" s="273"/>
-      <c r="AE132" s="274"/>
-      <c r="AF132" s="154"/>
-      <c r="AG132" s="155"/>
-      <c r="AH132" s="156"/>
-    </row>
-    <row r="133" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H133" s="104">
+      <c r="U133" s="297"/>
+      <c r="V133" s="297"/>
+      <c r="W133" s="297"/>
+      <c r="X133" s="297"/>
+      <c r="Y133" s="298"/>
+      <c r="Z133" s="273"/>
+      <c r="AA133" s="274"/>
+      <c r="AB133" s="274"/>
+      <c r="AC133" s="274"/>
+      <c r="AD133" s="274"/>
+      <c r="AE133" s="275"/>
+      <c r="AF133" s="154"/>
+      <c r="AG133" s="155"/>
+      <c r="AH133" s="156"/>
+    </row>
+    <row r="134" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H134" s="104">
         <v>1</v>
       </c>
-      <c r="I133" s="380" t="s">
+      <c r="I134" s="285" t="s">
+        <v>175</v>
+      </c>
+      <c r="J134" s="286"/>
+      <c r="K134" s="286"/>
+      <c r="L134" s="286"/>
+      <c r="M134" s="286"/>
+      <c r="N134" s="287"/>
+      <c r="O134" s="157" t="s">
+        <v>163</v>
+      </c>
+      <c r="P134" s="158"/>
+      <c r="Q134" s="158"/>
+      <c r="R134" s="158"/>
+      <c r="S134" s="159"/>
+      <c r="T134" s="285" t="s">
+        <v>39</v>
+      </c>
+      <c r="U134" s="286"/>
+      <c r="V134" s="286"/>
+      <c r="W134" s="286"/>
+      <c r="X134" s="286"/>
+      <c r="Y134" s="287"/>
+      <c r="Z134" s="288" t="s">
         <v>176</v>
       </c>
-      <c r="J133" s="381"/>
-      <c r="K133" s="381"/>
-      <c r="L133" s="381"/>
-      <c r="M133" s="381"/>
-      <c r="N133" s="382"/>
-      <c r="O133" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="P133" s="158"/>
-      <c r="Q133" s="158"/>
-      <c r="R133" s="158"/>
-      <c r="S133" s="159"/>
-      <c r="T133" s="380" t="s">
-        <v>39</v>
-      </c>
-      <c r="U133" s="381"/>
-      <c r="V133" s="381"/>
-      <c r="W133" s="381"/>
-      <c r="X133" s="381"/>
-      <c r="Y133" s="382"/>
-      <c r="Z133" s="383" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA133" s="297"/>
-      <c r="AB133" s="297"/>
-      <c r="AC133" s="297"/>
-      <c r="AD133" s="297"/>
-      <c r="AE133" s="298"/>
-      <c r="AF133" s="160"/>
-      <c r="AG133" s="161"/>
-      <c r="AH133" s="162"/>
-    </row>
-    <row r="134" spans="5:59" x14ac:dyDescent="0.25">
-      <c r="H134" s="163" t="s">
-        <v>115</v>
-      </c>
-      <c r="I134" s="164"/>
-      <c r="J134" s="164"/>
-      <c r="K134" s="164"/>
-      <c r="L134" s="164"/>
-      <c r="M134" s="164"/>
-      <c r="N134" s="164"/>
-      <c r="O134" s="164"/>
-      <c r="P134" s="164"/>
-      <c r="Q134" s="164"/>
-      <c r="R134" s="164"/>
-      <c r="S134" s="164"/>
-      <c r="T134" s="164"/>
-      <c r="U134" s="164"/>
-      <c r="V134" s="164"/>
-      <c r="W134" s="164"/>
-      <c r="X134" s="164"/>
-      <c r="Y134" s="164"/>
-      <c r="Z134" s="164"/>
-      <c r="AA134" s="164"/>
-      <c r="AB134" s="164"/>
-      <c r="AC134" s="164"/>
-      <c r="AD134" s="164"/>
-      <c r="AE134" s="164"/>
-      <c r="AF134" s="164"/>
-      <c r="AG134" s="164"/>
-      <c r="AH134" s="165"/>
-      <c r="AK134" s="128"/>
-      <c r="AL134" s="128"/>
-      <c r="AM134" s="128"/>
-      <c r="AN134" s="128"/>
-      <c r="AO134" s="128"/>
-      <c r="AP134" s="128"/>
-      <c r="AQ134" s="128"/>
-      <c r="AR134" s="128"/>
-      <c r="AS134" s="128"/>
-      <c r="AT134" s="128"/>
-      <c r="AU134" s="128"/>
-      <c r="AV134" s="128"/>
-      <c r="AW134" s="128"/>
-      <c r="AX134" s="128"/>
-      <c r="AY134" s="128"/>
-      <c r="AZ134" s="128"/>
-      <c r="BA134" s="128"/>
-      <c r="BB134" s="128"/>
-      <c r="BC134" s="128"/>
-      <c r="BD134" s="128"/>
-      <c r="BE134" s="128"/>
-      <c r="BF134" s="128"/>
-      <c r="BG134" s="128"/>
+      <c r="AA134" s="289"/>
+      <c r="AB134" s="289"/>
+      <c r="AC134" s="289"/>
+      <c r="AD134" s="289"/>
+      <c r="AE134" s="290"/>
+      <c r="AF134" s="160"/>
+      <c r="AG134" s="161"/>
+      <c r="AH134" s="162"/>
     </row>
     <row r="135" spans="5:59" x14ac:dyDescent="0.25">
-      <c r="H135" s="136"/>
-      <c r="I135" s="137"/>
-      <c r="J135" s="137"/>
-      <c r="K135" s="137"/>
-      <c r="L135" s="137"/>
-      <c r="M135" s="137"/>
-      <c r="N135" s="137"/>
-      <c r="O135" s="137"/>
-      <c r="P135" s="137"/>
-      <c r="Q135" s="137"/>
-      <c r="R135" s="137"/>
-      <c r="S135" s="137"/>
-      <c r="T135" s="137"/>
-      <c r="U135" s="137"/>
-      <c r="V135" s="137"/>
-      <c r="W135" s="137"/>
-      <c r="X135" s="137"/>
-      <c r="Y135" s="137"/>
-      <c r="Z135" s="137"/>
-      <c r="AA135" s="137"/>
-      <c r="AB135" s="137"/>
-      <c r="AC135" s="137"/>
-      <c r="AD135" s="137"/>
-      <c r="AE135" s="137"/>
-      <c r="AF135" s="137"/>
-      <c r="AG135" s="137"/>
-      <c r="AH135" s="138"/>
+      <c r="H135" s="163" t="s">
+        <v>114</v>
+      </c>
+      <c r="I135" s="164"/>
+      <c r="J135" s="164"/>
+      <c r="K135" s="164"/>
+      <c r="L135" s="164"/>
+      <c r="M135" s="164"/>
+      <c r="N135" s="164"/>
+      <c r="O135" s="164"/>
+      <c r="P135" s="164"/>
+      <c r="Q135" s="164"/>
+      <c r="R135" s="164"/>
+      <c r="S135" s="164"/>
+      <c r="T135" s="164"/>
+      <c r="U135" s="164"/>
+      <c r="V135" s="164"/>
+      <c r="W135" s="164"/>
+      <c r="X135" s="164"/>
+      <c r="Y135" s="164"/>
+      <c r="Z135" s="164"/>
+      <c r="AA135" s="164"/>
+      <c r="AB135" s="164"/>
+      <c r="AC135" s="164"/>
+      <c r="AD135" s="164"/>
+      <c r="AE135" s="164"/>
+      <c r="AF135" s="164"/>
+      <c r="AG135" s="164"/>
+      <c r="AH135" s="165"/>
       <c r="AK135" s="128"/>
       <c r="AL135" s="128"/>
       <c r="AM135" s="128"/>
@@ -10666,37 +10692,33 @@
       <c r="BG135" s="128"/>
     </row>
     <row r="136" spans="5:59" x14ac:dyDescent="0.25">
-      <c r="H136" s="139"/>
-      <c r="I136" s="140" t="s">
-        <v>173</v>
-      </c>
-      <c r="J136" s="140"/>
-      <c r="K136" s="140"/>
-      <c r="L136" s="140"/>
-      <c r="M136" s="141"/>
-      <c r="O136" s="140"/>
-      <c r="P136" s="141" t="s">
-        <v>116</v>
-      </c>
-      <c r="R136" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="S136" s="140"/>
-      <c r="T136" s="140"/>
-      <c r="U136" s="140"/>
-      <c r="V136" s="140"/>
-      <c r="W136" s="142"/>
-      <c r="X136" s="140"/>
-      <c r="Y136" s="140"/>
-      <c r="Z136" s="140"/>
-      <c r="AA136" s="140"/>
-      <c r="AB136" s="142"/>
-      <c r="AC136" s="140"/>
-      <c r="AD136" s="142"/>
-      <c r="AE136" s="140"/>
-      <c r="AF136" s="142"/>
-      <c r="AG136" s="140"/>
-      <c r="AH136" s="143"/>
+      <c r="H136" s="136"/>
+      <c r="I136" s="137"/>
+      <c r="J136" s="137"/>
+      <c r="K136" s="137"/>
+      <c r="L136" s="137"/>
+      <c r="M136" s="137"/>
+      <c r="N136" s="137"/>
+      <c r="O136" s="137"/>
+      <c r="P136" s="137"/>
+      <c r="Q136" s="137"/>
+      <c r="R136" s="137"/>
+      <c r="S136" s="137"/>
+      <c r="T136" s="137"/>
+      <c r="U136" s="137"/>
+      <c r="V136" s="137"/>
+      <c r="W136" s="137"/>
+      <c r="X136" s="137"/>
+      <c r="Y136" s="137"/>
+      <c r="Z136" s="137"/>
+      <c r="AA136" s="137"/>
+      <c r="AB136" s="137"/>
+      <c r="AC136" s="137"/>
+      <c r="AD136" s="137"/>
+      <c r="AE136" s="137"/>
+      <c r="AF136" s="137"/>
+      <c r="AG136" s="137"/>
+      <c r="AH136" s="138"/>
       <c r="AK136" s="128"/>
       <c r="AL136" s="128"/>
       <c r="AM136" s="128"/>
@@ -10722,33 +10744,37 @@
       <c r="BG136" s="128"/>
     </row>
     <row r="137" spans="5:59" x14ac:dyDescent="0.25">
-      <c r="H137" s="144"/>
-      <c r="I137" s="145"/>
-      <c r="J137" s="145"/>
-      <c r="K137" s="145"/>
-      <c r="L137" s="145"/>
-      <c r="M137" s="146"/>
-      <c r="N137" s="146"/>
-      <c r="O137" s="145"/>
-      <c r="P137" s="145"/>
-      <c r="Q137" s="145"/>
-      <c r="R137" s="145"/>
-      <c r="S137" s="145"/>
-      <c r="T137" s="145"/>
-      <c r="U137" s="145"/>
-      <c r="V137" s="145"/>
-      <c r="W137" s="147"/>
-      <c r="X137" s="145"/>
-      <c r="Y137" s="145"/>
-      <c r="Z137" s="145"/>
-      <c r="AA137" s="145"/>
-      <c r="AB137" s="147"/>
-      <c r="AC137" s="145"/>
-      <c r="AD137" s="147"/>
-      <c r="AE137" s="145"/>
-      <c r="AF137" s="147"/>
-      <c r="AG137" s="145"/>
-      <c r="AH137" s="148"/>
+      <c r="H137" s="139"/>
+      <c r="I137" s="140" t="s">
+        <v>172</v>
+      </c>
+      <c r="J137" s="140"/>
+      <c r="K137" s="140"/>
+      <c r="L137" s="140"/>
+      <c r="M137" s="141"/>
+      <c r="O137" s="140"/>
+      <c r="P137" s="141" t="s">
+        <v>115</v>
+      </c>
+      <c r="R137" s="140" t="s">
+        <v>178</v>
+      </c>
+      <c r="S137" s="140"/>
+      <c r="T137" s="140"/>
+      <c r="U137" s="140"/>
+      <c r="V137" s="140"/>
+      <c r="W137" s="142"/>
+      <c r="X137" s="140"/>
+      <c r="Y137" s="140"/>
+      <c r="Z137" s="140"/>
+      <c r="AA137" s="140"/>
+      <c r="AB137" s="142"/>
+      <c r="AC137" s="140"/>
+      <c r="AD137" s="142"/>
+      <c r="AE137" s="140"/>
+      <c r="AF137" s="142"/>
+      <c r="AG137" s="140"/>
+      <c r="AH137" s="143"/>
       <c r="AK137" s="128"/>
       <c r="AL137" s="128"/>
       <c r="AM137" s="128"/>
@@ -10774,10 +10800,33 @@
       <c r="BG137" s="128"/>
     </row>
     <row r="138" spans="5:59" x14ac:dyDescent="0.25">
-      <c r="E138" s="66"/>
-      <c r="F138" s="129"/>
-      <c r="G138" s="66"/>
-      <c r="AJ138" s="128"/>
+      <c r="H138" s="144"/>
+      <c r="I138" s="145"/>
+      <c r="J138" s="145"/>
+      <c r="K138" s="145"/>
+      <c r="L138" s="145"/>
+      <c r="M138" s="146"/>
+      <c r="N138" s="146"/>
+      <c r="O138" s="145"/>
+      <c r="P138" s="145"/>
+      <c r="Q138" s="145"/>
+      <c r="R138" s="145"/>
+      <c r="S138" s="145"/>
+      <c r="T138" s="145"/>
+      <c r="U138" s="145"/>
+      <c r="V138" s="145"/>
+      <c r="W138" s="147"/>
+      <c r="X138" s="145"/>
+      <c r="Y138" s="145"/>
+      <c r="Z138" s="145"/>
+      <c r="AA138" s="145"/>
+      <c r="AB138" s="147"/>
+      <c r="AC138" s="145"/>
+      <c r="AD138" s="147"/>
+      <c r="AE138" s="145"/>
+      <c r="AF138" s="147"/>
+      <c r="AG138" s="145"/>
+      <c r="AH138" s="148"/>
       <c r="AK138" s="128"/>
       <c r="AL138" s="128"/>
       <c r="AM138" s="128"/>
@@ -10800,39 +10849,12 @@
       <c r="BD138" s="128"/>
       <c r="BE138" s="128"/>
       <c r="BF138" s="128"/>
+      <c r="BG138" s="128"/>
     </row>
     <row r="139" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E139" s="66"/>
       <c r="F139" s="129"/>
-      <c r="G139" s="379" t="s">
-        <v>130</v>
-      </c>
-      <c r="H139" s="379"/>
-      <c r="I139" s="379"/>
-      <c r="J139" s="379"/>
-      <c r="K139" s="379"/>
-      <c r="L139" s="379"/>
-      <c r="M139" s="379"/>
-      <c r="N139" s="379"/>
-      <c r="O139" s="379"/>
-      <c r="P139" s="379"/>
-      <c r="Q139" s="379"/>
-      <c r="R139" s="379"/>
-      <c r="S139" s="379"/>
-      <c r="T139" s="379"/>
-      <c r="U139" s="379"/>
-      <c r="V139" s="379"/>
-      <c r="W139" s="379"/>
-      <c r="X139" s="379"/>
-      <c r="Y139" s="379"/>
-      <c r="Z139" s="379"/>
-      <c r="AA139" s="379"/>
-      <c r="AB139" s="379"/>
-      <c r="AC139" s="379"/>
-      <c r="AD139" s="379"/>
-      <c r="AE139" s="379"/>
-      <c r="AF139" s="379"/>
-      <c r="AG139" s="379"/>
+      <c r="G139" s="66"/>
       <c r="AJ139" s="128"/>
       <c r="AK139" s="128"/>
       <c r="AL139" s="128"/>
@@ -10860,33 +10882,35 @@
     <row r="140" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E140" s="66"/>
       <c r="F140" s="129"/>
-      <c r="G140" s="379"/>
-      <c r="H140" s="379"/>
-      <c r="I140" s="379"/>
-      <c r="J140" s="379"/>
-      <c r="K140" s="379"/>
-      <c r="L140" s="379"/>
-      <c r="M140" s="379"/>
-      <c r="N140" s="379"/>
-      <c r="O140" s="379"/>
-      <c r="P140" s="379"/>
-      <c r="Q140" s="379"/>
-      <c r="R140" s="379"/>
-      <c r="S140" s="379"/>
-      <c r="T140" s="379"/>
-      <c r="U140" s="379"/>
-      <c r="V140" s="379"/>
-      <c r="W140" s="379"/>
-      <c r="X140" s="379"/>
-      <c r="Y140" s="379"/>
-      <c r="Z140" s="379"/>
-      <c r="AA140" s="379"/>
-      <c r="AB140" s="379"/>
-      <c r="AC140" s="379"/>
-      <c r="AD140" s="379"/>
-      <c r="AE140" s="379"/>
-      <c r="AF140" s="379"/>
-      <c r="AG140" s="379"/>
+      <c r="G140" s="284" t="s">
+        <v>129</v>
+      </c>
+      <c r="H140" s="284"/>
+      <c r="I140" s="284"/>
+      <c r="J140" s="284"/>
+      <c r="K140" s="284"/>
+      <c r="L140" s="284"/>
+      <c r="M140" s="284"/>
+      <c r="N140" s="284"/>
+      <c r="O140" s="284"/>
+      <c r="P140" s="284"/>
+      <c r="Q140" s="284"/>
+      <c r="R140" s="284"/>
+      <c r="S140" s="284"/>
+      <c r="T140" s="284"/>
+      <c r="U140" s="284"/>
+      <c r="V140" s="284"/>
+      <c r="W140" s="284"/>
+      <c r="X140" s="284"/>
+      <c r="Y140" s="284"/>
+      <c r="Z140" s="284"/>
+      <c r="AA140" s="284"/>
+      <c r="AB140" s="284"/>
+      <c r="AC140" s="284"/>
+      <c r="AD140" s="284"/>
+      <c r="AE140" s="284"/>
+      <c r="AF140" s="284"/>
+      <c r="AG140" s="284"/>
       <c r="AJ140" s="128"/>
       <c r="AK140" s="128"/>
       <c r="AL140" s="128"/>
@@ -10911,129 +10935,144 @@
       <c r="BE140" s="128"/>
       <c r="BF140" s="128"/>
     </row>
-    <row r="141" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H141" s="332" t="s">
+    <row r="141" spans="5:59" x14ac:dyDescent="0.25">
+      <c r="E141" s="66"/>
+      <c r="F141" s="129"/>
+      <c r="G141" s="284"/>
+      <c r="H141" s="284"/>
+      <c r="I141" s="284"/>
+      <c r="J141" s="284"/>
+      <c r="K141" s="284"/>
+      <c r="L141" s="284"/>
+      <c r="M141" s="284"/>
+      <c r="N141" s="284"/>
+      <c r="O141" s="284"/>
+      <c r="P141" s="284"/>
+      <c r="Q141" s="284"/>
+      <c r="R141" s="284"/>
+      <c r="S141" s="284"/>
+      <c r="T141" s="284"/>
+      <c r="U141" s="284"/>
+      <c r="V141" s="284"/>
+      <c r="W141" s="284"/>
+      <c r="X141" s="284"/>
+      <c r="Y141" s="284"/>
+      <c r="Z141" s="284"/>
+      <c r="AA141" s="284"/>
+      <c r="AB141" s="284"/>
+      <c r="AC141" s="284"/>
+      <c r="AD141" s="284"/>
+      <c r="AE141" s="284"/>
+      <c r="AF141" s="284"/>
+      <c r="AG141" s="284"/>
+      <c r="AJ141" s="128"/>
+      <c r="AK141" s="128"/>
+      <c r="AL141" s="128"/>
+      <c r="AM141" s="128"/>
+      <c r="AN141" s="128"/>
+      <c r="AO141" s="128"/>
+      <c r="AP141" s="128"/>
+      <c r="AQ141" s="128"/>
+      <c r="AR141" s="128"/>
+      <c r="AS141" s="128"/>
+      <c r="AT141" s="128"/>
+      <c r="AU141" s="128"/>
+      <c r="AV141" s="128"/>
+      <c r="AW141" s="128"/>
+      <c r="AX141" s="128"/>
+      <c r="AY141" s="128"/>
+      <c r="AZ141" s="128"/>
+      <c r="BA141" s="128"/>
+      <c r="BB141" s="128"/>
+      <c r="BC141" s="128"/>
+      <c r="BD141" s="128"/>
+      <c r="BE141" s="128"/>
+      <c r="BF141" s="128"/>
+    </row>
+    <row r="142" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H142" s="291" t="s">
         <v>30</v>
       </c>
-      <c r="I141" s="266" t="s">
+      <c r="I142" s="267" t="s">
+        <v>126</v>
+      </c>
+      <c r="J142" s="268"/>
+      <c r="K142" s="268"/>
+      <c r="L142" s="268"/>
+      <c r="M142" s="268"/>
+      <c r="N142" s="269"/>
+      <c r="O142" s="293" t="s">
         <v>127</v>
       </c>
-      <c r="J141" s="267"/>
-      <c r="K141" s="267"/>
-      <c r="L141" s="267"/>
-      <c r="M141" s="267"/>
-      <c r="N141" s="268"/>
-      <c r="O141" s="384" t="s">
+      <c r="P142" s="294"/>
+      <c r="Q142" s="294"/>
+      <c r="R142" s="294"/>
+      <c r="S142" s="294"/>
+      <c r="T142" s="294"/>
+      <c r="U142" s="294"/>
+      <c r="V142" s="294"/>
+      <c r="W142" s="294"/>
+      <c r="X142" s="294"/>
+      <c r="Y142" s="295"/>
+      <c r="Z142" s="267" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA142" s="268"/>
+      <c r="AB142" s="268"/>
+      <c r="AC142" s="268"/>
+      <c r="AD142" s="268"/>
+      <c r="AE142" s="269"/>
+      <c r="AF142" s="151" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG142" s="152"/>
+      <c r="AH142" s="153"/>
+    </row>
+    <row r="143" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H143" s="292"/>
+      <c r="I143" s="273"/>
+      <c r="J143" s="274"/>
+      <c r="K143" s="274"/>
+      <c r="L143" s="274"/>
+      <c r="M143" s="274"/>
+      <c r="N143" s="275"/>
+      <c r="O143" s="293" t="s">
+        <v>62</v>
+      </c>
+      <c r="P143" s="294"/>
+      <c r="Q143" s="294"/>
+      <c r="R143" s="294"/>
+      <c r="S143" s="295"/>
+      <c r="T143" s="296" t="s">
         <v>128</v>
       </c>
-      <c r="P141" s="385"/>
-      <c r="Q141" s="385"/>
-      <c r="R141" s="385"/>
-      <c r="S141" s="385"/>
-      <c r="T141" s="385"/>
-      <c r="U141" s="385"/>
-      <c r="V141" s="385"/>
-      <c r="W141" s="385"/>
-      <c r="X141" s="385"/>
-      <c r="Y141" s="386"/>
-      <c r="Z141" s="266" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA141" s="267"/>
-      <c r="AB141" s="267"/>
-      <c r="AC141" s="267"/>
-      <c r="AD141" s="267"/>
-      <c r="AE141" s="268"/>
-      <c r="AF141" s="151" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG141" s="152"/>
-      <c r="AH141" s="153"/>
-    </row>
-    <row r="142" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H142" s="334"/>
-      <c r="I142" s="272"/>
-      <c r="J142" s="273"/>
-      <c r="K142" s="273"/>
-      <c r="L142" s="273"/>
-      <c r="M142" s="273"/>
-      <c r="N142" s="274"/>
-      <c r="O142" s="384" t="s">
-        <v>62</v>
-      </c>
-      <c r="P142" s="385"/>
-      <c r="Q142" s="385"/>
-      <c r="R142" s="385"/>
-      <c r="S142" s="386"/>
-      <c r="T142" s="370" t="s">
-        <v>129</v>
-      </c>
-      <c r="U142" s="371"/>
-      <c r="V142" s="371"/>
-      <c r="W142" s="371"/>
-      <c r="X142" s="371"/>
-      <c r="Y142" s="372"/>
-      <c r="Z142" s="272"/>
-      <c r="AA142" s="273"/>
-      <c r="AB142" s="273"/>
-      <c r="AC142" s="273"/>
-      <c r="AD142" s="273"/>
-      <c r="AE142" s="274"/>
-      <c r="AF142" s="154"/>
-      <c r="AG142" s="155"/>
-      <c r="AH142" s="156"/>
-    </row>
-    <row r="143" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H143" s="104">
-        <v>1</v>
-      </c>
-      <c r="I143" s="380" t="s">
-        <v>180</v>
-      </c>
-      <c r="J143" s="381"/>
-      <c r="K143" s="381"/>
-      <c r="L143" s="381"/>
-      <c r="M143" s="381"/>
-      <c r="N143" s="382"/>
-      <c r="O143" s="157" t="s">
-        <v>39</v>
-      </c>
-      <c r="P143" s="158"/>
-      <c r="Q143" s="158"/>
-      <c r="R143" s="158"/>
-      <c r="S143" s="159"/>
-      <c r="T143" s="380" t="s">
-        <v>39</v>
-      </c>
-      <c r="U143" s="381"/>
-      <c r="V143" s="381"/>
-      <c r="W143" s="381"/>
-      <c r="X143" s="381"/>
-      <c r="Y143" s="382"/>
-      <c r="Z143" s="383" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA143" s="297"/>
-      <c r="AB143" s="297"/>
-      <c r="AC143" s="297"/>
-      <c r="AD143" s="297"/>
-      <c r="AE143" s="298"/>
-      <c r="AF143" s="160"/>
-      <c r="AG143" s="161"/>
-      <c r="AH143" s="162"/>
+      <c r="U143" s="297"/>
+      <c r="V143" s="297"/>
+      <c r="W143" s="297"/>
+      <c r="X143" s="297"/>
+      <c r="Y143" s="298"/>
+      <c r="Z143" s="273"/>
+      <c r="AA143" s="274"/>
+      <c r="AB143" s="274"/>
+      <c r="AC143" s="274"/>
+      <c r="AD143" s="274"/>
+      <c r="AE143" s="275"/>
+      <c r="AF143" s="154"/>
+      <c r="AG143" s="155"/>
+      <c r="AH143" s="156"/>
     </row>
     <row r="144" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H144" s="104">
-        <v>2</v>
-      </c>
-      <c r="I144" s="380" t="s">
-        <v>176</v>
-      </c>
-      <c r="J144" s="381"/>
-      <c r="K144" s="381"/>
-      <c r="L144" s="381"/>
-      <c r="M144" s="381"/>
-      <c r="N144" s="382"/>
+        <v>1</v>
+      </c>
+      <c r="I144" s="285" t="s">
+        <v>179</v>
+      </c>
+      <c r="J144" s="286"/>
+      <c r="K144" s="286"/>
+      <c r="L144" s="286"/>
+      <c r="M144" s="286"/>
+      <c r="N144" s="287"/>
       <c r="O144" s="157" t="s">
         <v>39</v>
       </c>
@@ -11041,108 +11080,95 @@
       <c r="Q144" s="158"/>
       <c r="R144" s="158"/>
       <c r="S144" s="159"/>
-      <c r="T144" s="380" t="s">
+      <c r="T144" s="285" t="s">
         <v>39</v>
       </c>
-      <c r="U144" s="381"/>
-      <c r="V144" s="381"/>
-      <c r="W144" s="381"/>
-      <c r="X144" s="381"/>
-      <c r="Y144" s="382"/>
-      <c r="Z144" s="383">
-        <v>0</v>
-      </c>
-      <c r="AA144" s="297"/>
-      <c r="AB144" s="297"/>
-      <c r="AC144" s="297"/>
-      <c r="AD144" s="297"/>
-      <c r="AE144" s="298"/>
+      <c r="U144" s="286"/>
+      <c r="V144" s="286"/>
+      <c r="W144" s="286"/>
+      <c r="X144" s="286"/>
+      <c r="Y144" s="287"/>
+      <c r="Z144" s="288" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA144" s="289"/>
+      <c r="AB144" s="289"/>
+      <c r="AC144" s="289"/>
+      <c r="AD144" s="289"/>
+      <c r="AE144" s="290"/>
       <c r="AF144" s="160"/>
       <c r="AG144" s="161"/>
       <c r="AH144" s="162"/>
     </row>
-    <row r="145" spans="5:59" x14ac:dyDescent="0.25">
-      <c r="H145" s="163" t="s">
-        <v>115</v>
-      </c>
-      <c r="I145" s="164"/>
-      <c r="J145" s="164"/>
-      <c r="K145" s="164"/>
-      <c r="L145" s="164"/>
-      <c r="M145" s="164"/>
-      <c r="N145" s="164"/>
-      <c r="O145" s="164"/>
-      <c r="P145" s="164"/>
-      <c r="Q145" s="164"/>
-      <c r="R145" s="164"/>
-      <c r="S145" s="164"/>
-      <c r="T145" s="164"/>
-      <c r="U145" s="164"/>
-      <c r="V145" s="164"/>
-      <c r="W145" s="164"/>
-      <c r="X145" s="164"/>
-      <c r="Y145" s="164"/>
-      <c r="Z145" s="164"/>
-      <c r="AA145" s="164"/>
-      <c r="AB145" s="164"/>
-      <c r="AC145" s="164"/>
-      <c r="AD145" s="164"/>
-      <c r="AE145" s="164"/>
-      <c r="AF145" s="164"/>
-      <c r="AG145" s="164"/>
-      <c r="AH145" s="165"/>
-      <c r="AK145" s="128"/>
-      <c r="AL145" s="128"/>
-      <c r="AM145" s="128"/>
-      <c r="AN145" s="128"/>
-      <c r="AO145" s="128"/>
-      <c r="AP145" s="128"/>
-      <c r="AQ145" s="128"/>
-      <c r="AR145" s="128"/>
-      <c r="AS145" s="128"/>
-      <c r="AT145" s="128"/>
-      <c r="AU145" s="128"/>
-      <c r="AV145" s="128"/>
-      <c r="AW145" s="128"/>
-      <c r="AX145" s="128"/>
-      <c r="AY145" s="128"/>
-      <c r="AZ145" s="128"/>
-      <c r="BA145" s="128"/>
-      <c r="BB145" s="128"/>
-      <c r="BC145" s="128"/>
-      <c r="BD145" s="128"/>
-      <c r="BE145" s="128"/>
-      <c r="BF145" s="128"/>
-      <c r="BG145" s="128"/>
+    <row r="145" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H145" s="104">
+        <v>2</v>
+      </c>
+      <c r="I145" s="285" t="s">
+        <v>175</v>
+      </c>
+      <c r="J145" s="286"/>
+      <c r="K145" s="286"/>
+      <c r="L145" s="286"/>
+      <c r="M145" s="286"/>
+      <c r="N145" s="287"/>
+      <c r="O145" s="157" t="s">
+        <v>39</v>
+      </c>
+      <c r="P145" s="158"/>
+      <c r="Q145" s="158"/>
+      <c r="R145" s="158"/>
+      <c r="S145" s="159"/>
+      <c r="T145" s="285" t="s">
+        <v>39</v>
+      </c>
+      <c r="U145" s="286"/>
+      <c r="V145" s="286"/>
+      <c r="W145" s="286"/>
+      <c r="X145" s="286"/>
+      <c r="Y145" s="287"/>
+      <c r="Z145" s="288">
+        <v>0</v>
+      </c>
+      <c r="AA145" s="289"/>
+      <c r="AB145" s="289"/>
+      <c r="AC145" s="289"/>
+      <c r="AD145" s="289"/>
+      <c r="AE145" s="290"/>
+      <c r="AF145" s="160"/>
+      <c r="AG145" s="161"/>
+      <c r="AH145" s="162"/>
     </row>
     <row r="146" spans="5:59" x14ac:dyDescent="0.25">
-      <c r="H146" s="136"/>
-      <c r="I146" s="137"/>
-      <c r="J146" s="137"/>
-      <c r="K146" s="137"/>
-      <c r="L146" s="137"/>
-      <c r="M146" s="137"/>
-      <c r="N146" s="137"/>
-      <c r="O146" s="137"/>
-      <c r="P146" s="137"/>
-      <c r="Q146" s="137"/>
-      <c r="R146" s="137"/>
-      <c r="S146" s="137"/>
-      <c r="T146" s="137"/>
-      <c r="U146" s="137"/>
-      <c r="V146" s="137"/>
-      <c r="W146" s="137"/>
-      <c r="X146" s="137"/>
-      <c r="Y146" s="137"/>
-      <c r="Z146" s="137"/>
-      <c r="AA146" s="137"/>
-      <c r="AB146" s="137"/>
-      <c r="AC146" s="137"/>
-      <c r="AD146" s="137"/>
-      <c r="AE146" s="137"/>
-      <c r="AF146" s="137"/>
-      <c r="AG146" s="137"/>
-      <c r="AH146" s="138"/>
+      <c r="H146" s="163" t="s">
+        <v>114</v>
+      </c>
+      <c r="I146" s="164"/>
+      <c r="J146" s="164"/>
+      <c r="K146" s="164"/>
+      <c r="L146" s="164"/>
+      <c r="M146" s="164"/>
+      <c r="N146" s="164"/>
+      <c r="O146" s="164"/>
+      <c r="P146" s="164"/>
+      <c r="Q146" s="164"/>
+      <c r="R146" s="164"/>
+      <c r="S146" s="164"/>
+      <c r="T146" s="164"/>
+      <c r="U146" s="164"/>
+      <c r="V146" s="164"/>
+      <c r="W146" s="164"/>
+      <c r="X146" s="164"/>
+      <c r="Y146" s="164"/>
+      <c r="Z146" s="164"/>
+      <c r="AA146" s="164"/>
+      <c r="AB146" s="164"/>
+      <c r="AC146" s="164"/>
+      <c r="AD146" s="164"/>
+      <c r="AE146" s="164"/>
+      <c r="AF146" s="164"/>
+      <c r="AG146" s="164"/>
+      <c r="AH146" s="165"/>
       <c r="AK146" s="128"/>
       <c r="AL146" s="128"/>
       <c r="AM146" s="128"/>
@@ -11168,37 +11194,33 @@
       <c r="BG146" s="128"/>
     </row>
     <row r="147" spans="5:59" x14ac:dyDescent="0.25">
-      <c r="H147" s="139"/>
-      <c r="I147" s="140" t="s">
-        <v>173</v>
-      </c>
-      <c r="J147" s="140"/>
-      <c r="K147" s="140"/>
-      <c r="L147" s="140"/>
-      <c r="M147" s="141"/>
-      <c r="O147" s="140"/>
-      <c r="P147" s="141" t="s">
-        <v>116</v>
-      </c>
-      <c r="R147" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="S147" s="140"/>
-      <c r="T147" s="140"/>
-      <c r="U147" s="140"/>
-      <c r="V147" s="140"/>
-      <c r="W147" s="142"/>
-      <c r="X147" s="140"/>
-      <c r="Y147" s="140"/>
-      <c r="Z147" s="140"/>
-      <c r="AA147" s="140"/>
-      <c r="AB147" s="142"/>
-      <c r="AC147" s="140"/>
-      <c r="AD147" s="142"/>
-      <c r="AE147" s="140"/>
-      <c r="AF147" s="142"/>
-      <c r="AG147" s="140"/>
-      <c r="AH147" s="143"/>
+      <c r="H147" s="136"/>
+      <c r="I147" s="137"/>
+      <c r="J147" s="137"/>
+      <c r="K147" s="137"/>
+      <c r="L147" s="137"/>
+      <c r="M147" s="137"/>
+      <c r="N147" s="137"/>
+      <c r="O147" s="137"/>
+      <c r="P147" s="137"/>
+      <c r="Q147" s="137"/>
+      <c r="R147" s="137"/>
+      <c r="S147" s="137"/>
+      <c r="T147" s="137"/>
+      <c r="U147" s="137"/>
+      <c r="V147" s="137"/>
+      <c r="W147" s="137"/>
+      <c r="X147" s="137"/>
+      <c r="Y147" s="137"/>
+      <c r="Z147" s="137"/>
+      <c r="AA147" s="137"/>
+      <c r="AB147" s="137"/>
+      <c r="AC147" s="137"/>
+      <c r="AD147" s="137"/>
+      <c r="AE147" s="137"/>
+      <c r="AF147" s="137"/>
+      <c r="AG147" s="137"/>
+      <c r="AH147" s="138"/>
       <c r="AK147" s="128"/>
       <c r="AL147" s="128"/>
       <c r="AM147" s="128"/>
@@ -11224,33 +11246,37 @@
       <c r="BG147" s="128"/>
     </row>
     <row r="148" spans="5:59" x14ac:dyDescent="0.25">
-      <c r="H148" s="144"/>
-      <c r="I148" s="145"/>
-      <c r="J148" s="145"/>
-      <c r="K148" s="145"/>
-      <c r="L148" s="145"/>
-      <c r="M148" s="146"/>
-      <c r="N148" s="146"/>
-      <c r="O148" s="145"/>
-      <c r="P148" s="145"/>
-      <c r="Q148" s="145"/>
-      <c r="R148" s="145"/>
-      <c r="S148" s="145"/>
-      <c r="T148" s="145"/>
-      <c r="U148" s="145"/>
-      <c r="V148" s="145"/>
-      <c r="W148" s="147"/>
-      <c r="X148" s="145"/>
-      <c r="Y148" s="145"/>
-      <c r="Z148" s="145"/>
-      <c r="AA148" s="145"/>
-      <c r="AB148" s="147"/>
-      <c r="AC148" s="145"/>
-      <c r="AD148" s="147"/>
-      <c r="AE148" s="145"/>
-      <c r="AF148" s="147"/>
-      <c r="AG148" s="145"/>
-      <c r="AH148" s="148"/>
+      <c r="H148" s="139"/>
+      <c r="I148" s="140" t="s">
+        <v>172</v>
+      </c>
+      <c r="J148" s="140"/>
+      <c r="K148" s="140"/>
+      <c r="L148" s="140"/>
+      <c r="M148" s="141"/>
+      <c r="O148" s="140"/>
+      <c r="P148" s="141" t="s">
+        <v>115</v>
+      </c>
+      <c r="R148" s="140" t="s">
+        <v>178</v>
+      </c>
+      <c r="S148" s="140"/>
+      <c r="T148" s="140"/>
+      <c r="U148" s="140"/>
+      <c r="V148" s="140"/>
+      <c r="W148" s="142"/>
+      <c r="X148" s="140"/>
+      <c r="Y148" s="140"/>
+      <c r="Z148" s="140"/>
+      <c r="AA148" s="140"/>
+      <c r="AB148" s="142"/>
+      <c r="AC148" s="140"/>
+      <c r="AD148" s="142"/>
+      <c r="AE148" s="140"/>
+      <c r="AF148" s="142"/>
+      <c r="AG148" s="140"/>
+      <c r="AH148" s="143"/>
       <c r="AK148" s="128"/>
       <c r="AL148" s="128"/>
       <c r="AM148" s="128"/>
@@ -11276,10 +11302,33 @@
       <c r="BG148" s="128"/>
     </row>
     <row r="149" spans="5:59" x14ac:dyDescent="0.25">
-      <c r="E149" s="66"/>
-      <c r="F149" s="129"/>
-      <c r="G149" s="66"/>
-      <c r="AJ149" s="128"/>
+      <c r="H149" s="144"/>
+      <c r="I149" s="145"/>
+      <c r="J149" s="145"/>
+      <c r="K149" s="145"/>
+      <c r="L149" s="145"/>
+      <c r="M149" s="146"/>
+      <c r="N149" s="146"/>
+      <c r="O149" s="145"/>
+      <c r="P149" s="145"/>
+      <c r="Q149" s="145"/>
+      <c r="R149" s="145"/>
+      <c r="S149" s="145"/>
+      <c r="T149" s="145"/>
+      <c r="U149" s="145"/>
+      <c r="V149" s="145"/>
+      <c r="W149" s="147"/>
+      <c r="X149" s="145"/>
+      <c r="Y149" s="145"/>
+      <c r="Z149" s="145"/>
+      <c r="AA149" s="145"/>
+      <c r="AB149" s="147"/>
+      <c r="AC149" s="145"/>
+      <c r="AD149" s="147"/>
+      <c r="AE149" s="145"/>
+      <c r="AF149" s="147"/>
+      <c r="AG149" s="145"/>
+      <c r="AH149" s="148"/>
       <c r="AK149" s="128"/>
       <c r="AL149" s="128"/>
       <c r="AM149" s="128"/>
@@ -11302,13 +11351,12 @@
       <c r="BD149" s="128"/>
       <c r="BE149" s="128"/>
       <c r="BF149" s="128"/>
+      <c r="BG149" s="128"/>
     </row>
     <row r="150" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E150" s="66"/>
       <c r="F150" s="129"/>
-      <c r="G150" s="66" t="s">
-        <v>132</v>
-      </c>
+      <c r="G150" s="66"/>
       <c r="AJ150" s="128"/>
       <c r="AK150" s="128"/>
       <c r="AL150" s="128"/>
@@ -11336,7 +11384,9 @@
     <row r="151" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E151" s="66"/>
       <c r="F151" s="129"/>
-      <c r="G151" s="66"/>
+      <c r="G151" s="66" t="s">
+        <v>131</v>
+      </c>
       <c r="AJ151" s="128"/>
       <c r="AK151" s="128"/>
       <c r="AL151" s="128"/>
@@ -11363,9 +11413,8 @@
     </row>
     <row r="152" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E152" s="66"/>
-      <c r="F152" s="66" t="s">
-        <v>133</v>
-      </c>
+      <c r="F152" s="129"/>
+      <c r="G152" s="66"/>
       <c r="AJ152" s="128"/>
       <c r="AK152" s="128"/>
       <c r="AL152" s="128"/>
@@ -11392,8 +11441,9 @@
     </row>
     <row r="153" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E153" s="66"/>
-      <c r="F153" s="129"/>
-      <c r="G153" s="66"/>
+      <c r="F153" s="66" t="s">
+        <v>132</v>
+      </c>
       <c r="AJ153" s="128"/>
       <c r="AK153" s="128"/>
       <c r="AL153" s="128"/>
@@ -11420,7 +11470,8 @@
     </row>
     <row r="154" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E154" s="66"/>
-      <c r="F154" s="66"/>
+      <c r="F154" s="129"/>
+      <c r="G154" s="66"/>
       <c r="AJ154" s="128"/>
       <c r="AK154" s="128"/>
       <c r="AL154" s="128"/>
@@ -11447,8 +11498,7 @@
     </row>
     <row r="155" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E155" s="66"/>
-      <c r="F155" s="129"/>
-      <c r="G155" s="66"/>
+      <c r="F155" s="66"/>
       <c r="AJ155" s="128"/>
       <c r="AK155" s="128"/>
       <c r="AL155" s="128"/>
@@ -11503,6 +11553,8 @@
     </row>
     <row r="157" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E157" s="66"/>
+      <c r="F157" s="129"/>
+      <c r="G157" s="66"/>
       <c r="AJ157" s="128"/>
       <c r="AK157" s="128"/>
       <c r="AL157" s="128"/>
@@ -11527,99 +11579,34 @@
       <c r="BE157" s="128"/>
       <c r="BF157" s="128"/>
     </row>
+    <row r="158" spans="5:59" x14ac:dyDescent="0.25">
+      <c r="E158" s="66"/>
+      <c r="AJ158" s="128"/>
+      <c r="AK158" s="128"/>
+      <c r="AL158" s="128"/>
+      <c r="AM158" s="128"/>
+      <c r="AN158" s="128"/>
+      <c r="AO158" s="128"/>
+      <c r="AP158" s="128"/>
+      <c r="AQ158" s="128"/>
+      <c r="AR158" s="128"/>
+      <c r="AS158" s="128"/>
+      <c r="AT158" s="128"/>
+      <c r="AU158" s="128"/>
+      <c r="AV158" s="128"/>
+      <c r="AW158" s="128"/>
+      <c r="AX158" s="128"/>
+      <c r="AY158" s="128"/>
+      <c r="AZ158" s="128"/>
+      <c r="BA158" s="128"/>
+      <c r="BB158" s="128"/>
+      <c r="BC158" s="128"/>
+      <c r="BD158" s="128"/>
+      <c r="BE158" s="128"/>
+      <c r="BF158" s="128"/>
+    </row>
   </sheetData>
-  <mergeCells count="115">
-    <mergeCell ref="G139:AG140"/>
-    <mergeCell ref="G127:AG128"/>
-    <mergeCell ref="G119:AG120"/>
-    <mergeCell ref="I144:N144"/>
-    <mergeCell ref="T144:Y144"/>
-    <mergeCell ref="Z144:AE144"/>
-    <mergeCell ref="I143:N143"/>
-    <mergeCell ref="T143:Y143"/>
-    <mergeCell ref="Z143:AE143"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:N142"/>
-    <mergeCell ref="O141:Y141"/>
-    <mergeCell ref="Z141:AE142"/>
-    <mergeCell ref="O142:S142"/>
-    <mergeCell ref="T142:Y142"/>
-    <mergeCell ref="I133:N133"/>
-    <mergeCell ref="T133:Y133"/>
-    <mergeCell ref="Z133:AE133"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:N132"/>
-    <mergeCell ref="O131:Y131"/>
-    <mergeCell ref="Z131:AE132"/>
-    <mergeCell ref="O132:S132"/>
-    <mergeCell ref="T132:Y132"/>
-    <mergeCell ref="G98:P103"/>
-    <mergeCell ref="Q98:Z98"/>
-    <mergeCell ref="Q103:Z103"/>
-    <mergeCell ref="G106:Z106"/>
-    <mergeCell ref="AD87:AG87"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="G87:L87"/>
-    <mergeCell ref="G88:L88"/>
-    <mergeCell ref="M87:V87"/>
-    <mergeCell ref="W88:Y88"/>
-    <mergeCell ref="Q102:Z102"/>
-    <mergeCell ref="G104:P105"/>
-    <mergeCell ref="Q104:Z104"/>
-    <mergeCell ref="Q105:Z105"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="Z87:AC87"/>
-    <mergeCell ref="M88:V88"/>
-    <mergeCell ref="G97:P97"/>
-    <mergeCell ref="Q97:Z97"/>
-    <mergeCell ref="W87:Y87"/>
-    <mergeCell ref="V44:AC44"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:J59"/>
-    <mergeCell ref="K58:N59"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="R65:Y65"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:AH60"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="R66:Y66"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="AE67:AH67"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="AE65:AH65"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="AE66:AH66"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="R67:Y67"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
+  <mergeCells count="119">
     <mergeCell ref="E43:M43"/>
     <mergeCell ref="N43:P43"/>
     <mergeCell ref="Q43:U43"/>
@@ -11644,6 +11631,101 @@
     <mergeCell ref="M53:T53"/>
     <mergeCell ref="M52:T52"/>
     <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AE68:AH68"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="AE66:AH66"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="AE67:AH67"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="R68:Y68"/>
+    <mergeCell ref="Z68:AD68"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="V61:AH61"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:J59"/>
+    <mergeCell ref="K58:N59"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="R66:Y66"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:AH60"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="R67:Y67"/>
+    <mergeCell ref="Z67:AD67"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="G99:P104"/>
+    <mergeCell ref="Q99:Z99"/>
+    <mergeCell ref="Q104:Z104"/>
+    <mergeCell ref="G107:Z107"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="AD89:AG89"/>
+    <mergeCell ref="G88:L88"/>
+    <mergeCell ref="G89:L89"/>
+    <mergeCell ref="M88:V88"/>
+    <mergeCell ref="W89:Y89"/>
+    <mergeCell ref="Q103:Z103"/>
+    <mergeCell ref="G105:P106"/>
+    <mergeCell ref="Q105:Z105"/>
+    <mergeCell ref="Q106:Z106"/>
+    <mergeCell ref="Z89:AC89"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="M89:V89"/>
+    <mergeCell ref="G98:P98"/>
+    <mergeCell ref="Q98:Z98"/>
+    <mergeCell ref="W88:Y88"/>
+    <mergeCell ref="G140:AG141"/>
+    <mergeCell ref="G128:AG129"/>
+    <mergeCell ref="G120:AG121"/>
+    <mergeCell ref="I145:N145"/>
+    <mergeCell ref="T145:Y145"/>
+    <mergeCell ref="Z145:AE145"/>
+    <mergeCell ref="I144:N144"/>
+    <mergeCell ref="T144:Y144"/>
+    <mergeCell ref="Z144:AE144"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="I142:N143"/>
+    <mergeCell ref="O142:Y142"/>
+    <mergeCell ref="Z142:AE143"/>
+    <mergeCell ref="O143:S143"/>
+    <mergeCell ref="T143:Y143"/>
+    <mergeCell ref="I134:N134"/>
+    <mergeCell ref="T134:Y134"/>
+    <mergeCell ref="Z134:AE134"/>
+    <mergeCell ref="H132:H133"/>
+    <mergeCell ref="I132:N133"/>
+    <mergeCell ref="O132:Y132"/>
+    <mergeCell ref="Z132:AE133"/>
+    <mergeCell ref="O133:S133"/>
+    <mergeCell ref="T133:Y133"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="4">
@@ -11653,10 +11735,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I52:I53" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>画面項目種類</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K60:N60" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K60:N61" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>種別一覧</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O60" xr:uid="{00000000-0002-0000-0400-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O60:O61" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>"I,O"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11668,8 +11750,8 @@
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="34" man="1"/>
-    <brk id="69" max="34" man="1"/>
-    <brk id="110" max="34" man="1"/>
+    <brk id="70" max="34" man="1"/>
+    <brk id="111" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -11680,7 +11762,7 @@
           <x14:formula1>
             <xm:f>Data!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AH68 AE66:AH67</xm:sqref>
+          <xm:sqref>AH69 AE67:AH68</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11708,16 +11790,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="166" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="167" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="168" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="167" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="168" t="s">
-        <v>135</v>
-      </c>
       <c r="D1" s="168" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11725,27 +11807,27 @@
         <v>39</v>
       </c>
       <c r="B2" s="169" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="170" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="114" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="114" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="169" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="169" t="s">
+      <c r="C3" s="114" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="114" t="s">
         <v>138</v>
-      </c>
-      <c r="C3" s="114" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="114" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -11753,55 +11835,55 @@
         <v>67</v>
       </c>
       <c r="B4" s="114" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="D4" s="114" t="s">
         <v>141</v>
-      </c>
-      <c r="D4" s="114" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="114" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="C5" s="114" t="s">
         <v>144</v>
-      </c>
-      <c r="C5" s="114" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="114" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="114" t="s">
         <v>146</v>
-      </c>
-      <c r="C6" s="114" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="114" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="114" t="s">
         <v>148</v>
-      </c>
-      <c r="C7" s="114" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="114" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="114" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -11811,7 +11893,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="114" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10101_Login.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10101_Login.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617263D8-CE63-497E-A138-4C8A5A36D370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CC304D-6A0F-4FFC-A76C-5FA0693958FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="690" windowWidth="24000" windowHeight="10260" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="345" windowWidth="17790" windowHeight="14370" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2. WA10101 (Login screen)'!#REF!</definedName>
     <definedName name="_Toc46209822" localSheetId="3">'1 Screen subfunction definition'!$B$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1 Screen subfunction definition'!$A$1:$AI$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10101 (Login screen)'!$A$1:$AI$156</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10101 (Login screen)'!$A$1:$AI$180</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Data!$A$1:$E$13</definedName>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="180">
   <si>
     <t>No.</t>
   </si>
@@ -465,9 +465,6 @@
     <t>(2) Display processing</t>
   </si>
   <si>
-    <t>2.6.2. Login event</t>
-  </si>
-  <si>
     <t>Validation name</t>
   </si>
   <si>
@@ -528,21 +525,9 @@
     <t>Message ID: errors.login</t>
   </si>
   <si>
-    <t>(b) Account expiration date check</t>
-  </si>
-  <si>
-    <t>If the expiration date (FROM) ≤ system date ≤ expiration date (TO) is not satisfied based on the search result of "(2) Search processing", an error message is displayed and subsequent processing is stopped.</t>
-  </si>
-  <si>
-    <t>(c) Authentication failed count check</t>
-  </si>
-  <si>
     <t>If the authentication failed count based on the "(2) Search processing" is &gt; 3, an error message is displayed and subsequent processing is canceled.</t>
   </si>
   <si>
-    <t>(d) Password authentication</t>
-  </si>
-  <si>
     <t>A. Encrypt the password input on the screen and compare with the password of the search result of "(2) Search processing". If they do not match, authentication failure count given below is updated, an error message is displayed, and the subsequent processing is canceled.</t>
   </si>
   <si>
@@ -559,12 +544,6 @@
   </si>
   <si>
     <t>System date</t>
-  </si>
-  <si>
-    <t>C. Add the search results of "(2) Search processing" to the session as authentication information.</t>
-  </si>
-  <si>
-    <t>(e) Transitions to the TOP menu screen.</t>
   </si>
   <si>
     <t>Screen item type</t>
@@ -873,6 +852,164 @@
     <t>Classification</t>
     <phoneticPr fontId="11"/>
   </si>
+  <si>
+    <t>(b) User search conditions</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>USERS.USER_ID</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>User_ID (obtained in (a))</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>AND Current Date :BETWEEN to_date(EFFECTIVE_DATE_FROM, 'YYYYMIDD') AND to_date(EFFECTIVE_DATE_TO, 'YYYYMIDD')</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>(b) Authentication failed count check</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>(c) Password authentication</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>(d) Transitions to the TOP menu screen.</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>F. Add the search results of "(2) Search processing" to the session as authentication information.</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>E. CSRF token issuance</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>D. Change the session ID as a measure against session fixations.</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>C. If the password expiration date is previous day before the current date, an error message is displayed as an invalid account and subsequent processing is canceled.</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Discard the session and transition to the login screen.</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Version
+1.1</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>Modfy</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>2.6.2. Login event</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2.6.3. Logout event</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Screen subfunction definition
+2.6.2. Login event
+2.6.3. Logout event
+</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> ・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(2) DB access (search processing): modifying search criteria to suit implementation
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(3) Display processing: Add password expiration judgment.
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(3) Display processing: Add security measures for successful password authentication
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> ・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Modify logout processing to match table column names to the manual enable definition </t>
+    </r>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>When logout processing is performed, the session is discarded and the screen is shifted to the login screen.</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>PASSWORD_EXPIRATION_DATE</t>
+    <phoneticPr fontId="11"/>
+  </si>
 </sst>
 </file>
 
@@ -882,7 +1019,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1035,6 +1172,18 @@
       <color indexed="81"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1490,7 +1639,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="359">
+  <cellXfs count="368">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1782,7 +1931,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="18" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1893,6 +2041,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1974,6 +2132,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2058,6 +2219,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2175,30 +2339,9 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2206,24 +2349,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2238,6 +2363,48 @@
     <xf numFmtId="49" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2271,15 +2438,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2298,9 +2456,6 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2309,6 +2464,15 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3275,7 +3439,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="11"/>
       <c r="J23" s="10" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -3293,12 +3457,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="168">
+      <c r="I25" s="175">
         <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
-        <v>43656</v>
-      </c>
-      <c r="J25" s="168"/>
-      <c r="K25" s="168"/>
+        <v>44796</v>
+      </c>
+      <c r="J25" s="175"/>
+      <c r="K25" s="175"/>
       <c r="L25" s="11"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3928,1217 +4092,1231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="220" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="172" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="226" t="s">
-        <v>162</v>
-      </c>
-      <c r="T1" s="227"/>
-      <c r="U1" s="227"/>
-      <c r="V1" s="227"/>
-      <c r="W1" s="227"/>
-      <c r="X1" s="227"/>
-      <c r="Y1" s="227"/>
-      <c r="Z1" s="228"/>
-      <c r="AA1" s="169" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="208" t="str">
+      <c r="A1" s="176" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="228" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="230"/>
+      <c r="O1" s="179" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="235" t="s">
+        <v>155</v>
+      </c>
+      <c r="T1" s="236"/>
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+      <c r="Y1" s="236"/>
+      <c r="Z1" s="237"/>
+      <c r="AA1" s="176" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="216" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="209"/>
-      <c r="AE1" s="209"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="214">
+      <c r="AD1" s="217"/>
+      <c r="AE1" s="217"/>
+      <c r="AF1" s="218"/>
+      <c r="AG1" s="222">
         <f>IF(D8="","",D8)</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="215"/>
-      <c r="AI1" s="216"/>
-      <c r="AJ1" s="158"/>
-      <c r="AK1" s="158"/>
-      <c r="AL1" s="158"/>
-      <c r="AM1" s="158"/>
-      <c r="AN1" s="159"/>
+      <c r="AH1" s="223"/>
+      <c r="AI1" s="224"/>
+      <c r="AJ1" s="157"/>
+      <c r="AK1" s="157"/>
+      <c r="AL1" s="157"/>
+      <c r="AM1" s="157"/>
+      <c r="AN1" s="158"/>
     </row>
     <row r="2" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="176" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="228" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="238"/>
+      <c r="T2" s="239"/>
+      <c r="U2" s="239"/>
+      <c r="V2" s="239"/>
+      <c r="W2" s="239"/>
+      <c r="X2" s="239"/>
+      <c r="Y2" s="239"/>
+      <c r="Z2" s="240"/>
+      <c r="AA2" s="176" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="225" t="str">
+        <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="226"/>
+      <c r="AE2" s="226"/>
+      <c r="AF2" s="227"/>
+      <c r="AG2" s="222">
+        <f>IF(D9="","",MAX(D9:F33))</f>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="223"/>
+      <c r="AI2" s="224"/>
+      <c r="AJ2" s="157"/>
+      <c r="AK2" s="157"/>
+      <c r="AL2" s="157"/>
+      <c r="AM2" s="157"/>
+      <c r="AN2" s="157"/>
+    </row>
+    <row r="3" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="176" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="228" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="230"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="241"/>
+      <c r="T3" s="242"/>
+      <c r="U3" s="242"/>
+      <c r="V3" s="242"/>
+      <c r="W3" s="242"/>
+      <c r="X3" s="242"/>
+      <c r="Y3" s="242"/>
+      <c r="Z3" s="243"/>
+      <c r="AA3" s="188"/>
+      <c r="AB3" s="189"/>
+      <c r="AC3" s="216"/>
+      <c r="AD3" s="217"/>
+      <c r="AE3" s="217"/>
+      <c r="AF3" s="218"/>
+      <c r="AG3" s="222"/>
+      <c r="AH3" s="223"/>
+      <c r="AI3" s="224"/>
+      <c r="AJ3" s="157"/>
+      <c r="AK3" s="157"/>
+      <c r="AL3" s="157"/>
+      <c r="AM3" s="157"/>
+      <c r="AN3" s="157"/>
+    </row>
+    <row r="5" spans="1:40" s="159" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="160" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA5" s="161"/>
+      <c r="AB5" s="161"/>
+      <c r="AC5" s="162"/>
+      <c r="AD5" s="163"/>
+      <c r="AE5" s="163"/>
+      <c r="AF5" s="163"/>
+      <c r="AG5" s="161"/>
+      <c r="AH5" s="161"/>
+      <c r="AI5" s="161"/>
+    </row>
+    <row r="6" spans="1:40" s="159" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="160"/>
+      <c r="AA6" s="161"/>
+      <c r="AB6" s="161"/>
+      <c r="AC6" s="162"/>
+      <c r="AD6" s="163"/>
+      <c r="AE6" s="163"/>
+      <c r="AF6" s="163"/>
+      <c r="AG6" s="161"/>
+      <c r="AH6" s="161"/>
+      <c r="AI6" s="161"/>
+    </row>
+    <row r="7" spans="1:40" s="164" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="203" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="204"/>
+      <c r="D7" s="205" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="206"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="205" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="206"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="205" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="220" t="s">
+      <c r="K7" s="206"/>
+      <c r="L7" s="206"/>
+      <c r="M7" s="206"/>
+      <c r="N7" s="206"/>
+      <c r="O7" s="206"/>
+      <c r="P7" s="207"/>
+      <c r="Q7" s="205" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="229"/>
-      <c r="T2" s="230"/>
-      <c r="U2" s="230"/>
-      <c r="V2" s="230"/>
-      <c r="W2" s="230"/>
-      <c r="X2" s="230"/>
-      <c r="Y2" s="230"/>
-      <c r="Z2" s="231"/>
-      <c r="AA2" s="169" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="217" t="str">
-        <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="218"/>
-      <c r="AE2" s="218"/>
-      <c r="AF2" s="219"/>
-      <c r="AG2" s="214" t="str">
-        <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
-      </c>
-      <c r="AH2" s="215"/>
-      <c r="AI2" s="216"/>
-      <c r="AJ2" s="158"/>
-      <c r="AK2" s="158"/>
-      <c r="AL2" s="158"/>
-      <c r="AM2" s="158"/>
-      <c r="AN2" s="158"/>
-    </row>
-    <row r="3" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="169" t="s">
+      <c r="R7" s="206"/>
+      <c r="S7" s="206"/>
+      <c r="T7" s="206"/>
+      <c r="U7" s="206"/>
+      <c r="V7" s="206"/>
+      <c r="W7" s="206"/>
+      <c r="X7" s="206"/>
+      <c r="Y7" s="206"/>
+      <c r="Z7" s="206"/>
+      <c r="AA7" s="206"/>
+      <c r="AB7" s="206"/>
+      <c r="AC7" s="206"/>
+      <c r="AD7" s="206"/>
+      <c r="AE7" s="207"/>
+      <c r="AF7" s="205" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="220" t="s">
+      <c r="AG7" s="206"/>
+      <c r="AH7" s="206"/>
+      <c r="AI7" s="207"/>
+    </row>
+    <row r="8" spans="1:40" s="164" customFormat="1" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="165">
+        <v>1</v>
+      </c>
+      <c r="B8" s="208" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="222"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="232"/>
-      <c r="T3" s="233"/>
-      <c r="U3" s="233"/>
-      <c r="V3" s="233"/>
-      <c r="W3" s="233"/>
-      <c r="X3" s="233"/>
-      <c r="Y3" s="233"/>
-      <c r="Z3" s="234"/>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="182"/>
-      <c r="AC3" s="208"/>
-      <c r="AD3" s="209"/>
-      <c r="AE3" s="209"/>
-      <c r="AF3" s="210"/>
-      <c r="AG3" s="214"/>
-      <c r="AH3" s="215"/>
-      <c r="AI3" s="216"/>
-      <c r="AJ3" s="158"/>
-      <c r="AK3" s="158"/>
-      <c r="AL3" s="158"/>
-      <c r="AM3" s="158"/>
-      <c r="AN3" s="158"/>
-    </row>
-    <row r="5" spans="1:40" s="160" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N5" s="161" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA5" s="162"/>
-      <c r="AB5" s="162"/>
-      <c r="AC5" s="163"/>
-      <c r="AD5" s="164"/>
-      <c r="AE5" s="164"/>
-      <c r="AF5" s="164"/>
-      <c r="AG5" s="162"/>
-      <c r="AH5" s="162"/>
-      <c r="AI5" s="162"/>
-    </row>
-    <row r="6" spans="1:40" s="160" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N6" s="161"/>
-      <c r="AA6" s="162"/>
-      <c r="AB6" s="162"/>
-      <c r="AC6" s="163"/>
-      <c r="AD6" s="164"/>
-      <c r="AE6" s="164"/>
-      <c r="AF6" s="164"/>
-      <c r="AG6" s="162"/>
-      <c r="AH6" s="162"/>
-      <c r="AI6" s="162"/>
-    </row>
-    <row r="7" spans="1:40" s="165" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="195" t="s">
+      <c r="C8" s="209"/>
+      <c r="D8" s="210">
+        <v>43656</v>
+      </c>
+      <c r="E8" s="211"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="213" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="214"/>
+      <c r="I8" s="215"/>
+      <c r="J8" s="232" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="233"/>
+      <c r="L8" s="233"/>
+      <c r="M8" s="233"/>
+      <c r="N8" s="233"/>
+      <c r="O8" s="233"/>
+      <c r="P8" s="234"/>
+      <c r="Q8" s="219" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="197" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="198"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="197" t="s">
-        <v>165</v>
-      </c>
-      <c r="H7" s="198"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="197" t="s">
-        <v>155</v>
-      </c>
-      <c r="K7" s="198"/>
-      <c r="L7" s="198"/>
-      <c r="M7" s="198"/>
-      <c r="N7" s="198"/>
-      <c r="O7" s="198"/>
-      <c r="P7" s="199"/>
-      <c r="Q7" s="197" t="s">
-        <v>156</v>
-      </c>
-      <c r="R7" s="198"/>
-      <c r="S7" s="198"/>
-      <c r="T7" s="198"/>
-      <c r="U7" s="198"/>
-      <c r="V7" s="198"/>
-      <c r="W7" s="198"/>
-      <c r="X7" s="198"/>
-      <c r="Y7" s="198"/>
-      <c r="Z7" s="198"/>
-      <c r="AA7" s="198"/>
-      <c r="AB7" s="198"/>
-      <c r="AC7" s="198"/>
-      <c r="AD7" s="198"/>
-      <c r="AE7" s="199"/>
-      <c r="AF7" s="197" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG7" s="198"/>
-      <c r="AH7" s="198"/>
-      <c r="AI7" s="199"/>
-    </row>
-    <row r="8" spans="1:40" s="165" customFormat="1" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="166">
-        <v>1</v>
-      </c>
-      <c r="B8" s="200" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="201"/>
-      <c r="D8" s="202">
-        <v>43656</v>
-      </c>
-      <c r="E8" s="203"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="205" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" s="206"/>
-      <c r="I8" s="207"/>
-      <c r="J8" s="223" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="224"/>
-      <c r="L8" s="224"/>
-      <c r="M8" s="224"/>
-      <c r="N8" s="224"/>
-      <c r="O8" s="224"/>
-      <c r="P8" s="225"/>
-      <c r="Q8" s="211" t="s">
-        <v>160</v>
-      </c>
-      <c r="R8" s="212"/>
-      <c r="S8" s="212"/>
-      <c r="T8" s="212"/>
-      <c r="U8" s="212"/>
-      <c r="V8" s="212"/>
-      <c r="W8" s="212"/>
-      <c r="X8" s="212"/>
-      <c r="Y8" s="212"/>
-      <c r="Z8" s="212"/>
-      <c r="AA8" s="212"/>
-      <c r="AB8" s="212"/>
-      <c r="AC8" s="212"/>
-      <c r="AD8" s="212"/>
-      <c r="AE8" s="213"/>
-      <c r="AF8" s="223" t="s">
+      <c r="R8" s="220"/>
+      <c r="S8" s="220"/>
+      <c r="T8" s="220"/>
+      <c r="U8" s="220"/>
+      <c r="V8" s="220"/>
+      <c r="W8" s="220"/>
+      <c r="X8" s="220"/>
+      <c r="Y8" s="220"/>
+      <c r="Z8" s="220"/>
+      <c r="AA8" s="220"/>
+      <c r="AB8" s="220"/>
+      <c r="AC8" s="220"/>
+      <c r="AD8" s="220"/>
+      <c r="AE8" s="221"/>
+      <c r="AF8" s="232" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="224"/>
-      <c r="AH8" s="224"/>
-      <c r="AI8" s="225"/>
-    </row>
-    <row r="9" spans="1:40" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="167"/>
-      <c r="B9" s="189"/>
-      <c r="C9" s="190"/>
-      <c r="D9" s="191"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="190"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="187"/>
-      <c r="M9" s="187"/>
-      <c r="N9" s="187"/>
-      <c r="O9" s="187"/>
-      <c r="P9" s="188"/>
-      <c r="Q9" s="183"/>
-      <c r="R9" s="184"/>
-      <c r="S9" s="184"/>
-      <c r="T9" s="184"/>
-      <c r="U9" s="184"/>
-      <c r="V9" s="184"/>
-      <c r="W9" s="184"/>
-      <c r="X9" s="184"/>
-      <c r="Y9" s="184"/>
-      <c r="Z9" s="184"/>
-      <c r="AA9" s="184"/>
-      <c r="AB9" s="184"/>
-      <c r="AC9" s="184"/>
-      <c r="AD9" s="184"/>
-      <c r="AE9" s="185"/>
-      <c r="AF9" s="186"/>
-      <c r="AG9" s="187"/>
-      <c r="AH9" s="187"/>
-      <c r="AI9" s="188"/>
-    </row>
-    <row r="10" spans="1:40" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="167"/>
-      <c r="B10" s="189"/>
-      <c r="C10" s="190"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="190"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="187"/>
-      <c r="O10" s="187"/>
-      <c r="P10" s="188"/>
-      <c r="Q10" s="183"/>
-      <c r="R10" s="184"/>
-      <c r="S10" s="184"/>
-      <c r="T10" s="184"/>
-      <c r="U10" s="184"/>
-      <c r="V10" s="184"/>
-      <c r="W10" s="184"/>
-      <c r="X10" s="184"/>
-      <c r="Y10" s="184"/>
-      <c r="Z10" s="184"/>
-      <c r="AA10" s="184"/>
-      <c r="AB10" s="184"/>
-      <c r="AC10" s="184"/>
-      <c r="AD10" s="184"/>
-      <c r="AE10" s="185"/>
-      <c r="AF10" s="186"/>
-      <c r="AG10" s="187"/>
-      <c r="AH10" s="187"/>
-      <c r="AI10" s="188"/>
-    </row>
-    <row r="11" spans="1:40" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="167"/>
-      <c r="B11" s="189"/>
-      <c r="C11" s="190"/>
-      <c r="D11" s="191"/>
-      <c r="E11" s="192"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="190"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="187"/>
-      <c r="L11" s="187"/>
-      <c r="M11" s="187"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="187"/>
-      <c r="P11" s="188"/>
-      <c r="Q11" s="183"/>
-      <c r="R11" s="184"/>
-      <c r="S11" s="184"/>
-      <c r="T11" s="184"/>
-      <c r="U11" s="184"/>
-      <c r="V11" s="184"/>
-      <c r="W11" s="184"/>
-      <c r="X11" s="184"/>
-      <c r="Y11" s="184"/>
-      <c r="Z11" s="184"/>
-      <c r="AA11" s="184"/>
-      <c r="AB11" s="184"/>
-      <c r="AC11" s="184"/>
-      <c r="AD11" s="184"/>
-      <c r="AE11" s="185"/>
-      <c r="AF11" s="186"/>
-      <c r="AG11" s="187"/>
-      <c r="AH11" s="187"/>
-      <c r="AI11" s="188"/>
-    </row>
-    <row r="12" spans="1:40" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="167"/>
-      <c r="B12" s="189"/>
-      <c r="C12" s="190"/>
-      <c r="D12" s="191"/>
-      <c r="E12" s="192"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="190"/>
-      <c r="J12" s="186"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="187"/>
-      <c r="M12" s="187"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="187"/>
-      <c r="P12" s="188"/>
-      <c r="Q12" s="183"/>
-      <c r="R12" s="184"/>
-      <c r="S12" s="184"/>
-      <c r="T12" s="184"/>
-      <c r="U12" s="184"/>
-      <c r="V12" s="184"/>
-      <c r="W12" s="184"/>
-      <c r="X12" s="184"/>
-      <c r="Y12" s="184"/>
-      <c r="Z12" s="184"/>
-      <c r="AA12" s="184"/>
-      <c r="AB12" s="184"/>
-      <c r="AC12" s="184"/>
-      <c r="AD12" s="184"/>
-      <c r="AE12" s="185"/>
-      <c r="AF12" s="186"/>
-      <c r="AG12" s="187"/>
-      <c r="AH12" s="187"/>
-      <c r="AI12" s="188"/>
-    </row>
-    <row r="13" spans="1:40" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="167"/>
-      <c r="B13" s="189"/>
-      <c r="C13" s="190"/>
-      <c r="D13" s="191"/>
-      <c r="E13" s="192"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="190"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="187"/>
-      <c r="M13" s="187"/>
-      <c r="N13" s="187"/>
-      <c r="O13" s="187"/>
-      <c r="P13" s="188"/>
-      <c r="Q13" s="183"/>
-      <c r="R13" s="184"/>
-      <c r="S13" s="184"/>
-      <c r="T13" s="184"/>
-      <c r="U13" s="184"/>
-      <c r="V13" s="184"/>
-      <c r="W13" s="184"/>
-      <c r="X13" s="184"/>
-      <c r="Y13" s="184"/>
-      <c r="Z13" s="184"/>
-      <c r="AA13" s="184"/>
-      <c r="AB13" s="184"/>
-      <c r="AC13" s="184"/>
-      <c r="AD13" s="184"/>
-      <c r="AE13" s="185"/>
-      <c r="AF13" s="186"/>
-      <c r="AG13" s="187"/>
-      <c r="AH13" s="187"/>
-      <c r="AI13" s="188"/>
-    </row>
-    <row r="14" spans="1:40" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="167"/>
-      <c r="B14" s="189"/>
-      <c r="C14" s="190"/>
-      <c r="D14" s="191"/>
-      <c r="E14" s="192"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="187"/>
-      <c r="N14" s="187"/>
-      <c r="O14" s="187"/>
-      <c r="P14" s="188"/>
-      <c r="Q14" s="183"/>
-      <c r="R14" s="184"/>
-      <c r="S14" s="184"/>
-      <c r="T14" s="184"/>
-      <c r="U14" s="184"/>
-      <c r="V14" s="184"/>
-      <c r="W14" s="184"/>
-      <c r="X14" s="184"/>
-      <c r="Y14" s="184"/>
-      <c r="Z14" s="184"/>
-      <c r="AA14" s="184"/>
-      <c r="AB14" s="184"/>
-      <c r="AC14" s="184"/>
-      <c r="AD14" s="184"/>
-      <c r="AE14" s="185"/>
-      <c r="AF14" s="186"/>
-      <c r="AG14" s="187"/>
-      <c r="AH14" s="187"/>
-      <c r="AI14" s="188"/>
-    </row>
-    <row r="15" spans="1:40" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="167"/>
-      <c r="B15" s="189"/>
-      <c r="C15" s="190"/>
-      <c r="D15" s="191"/>
-      <c r="E15" s="192"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="190"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="187"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="187"/>
-      <c r="N15" s="187"/>
-      <c r="O15" s="187"/>
-      <c r="P15" s="188"/>
-      <c r="Q15" s="183"/>
-      <c r="R15" s="184"/>
-      <c r="S15" s="184"/>
-      <c r="T15" s="184"/>
-      <c r="U15" s="184"/>
-      <c r="V15" s="184"/>
-      <c r="W15" s="184"/>
-      <c r="X15" s="184"/>
-      <c r="Y15" s="184"/>
-      <c r="Z15" s="184"/>
-      <c r="AA15" s="184"/>
-      <c r="AB15" s="184"/>
-      <c r="AC15" s="184"/>
-      <c r="AD15" s="184"/>
-      <c r="AE15" s="185"/>
-      <c r="AF15" s="186"/>
-      <c r="AG15" s="187"/>
-      <c r="AH15" s="187"/>
-      <c r="AI15" s="188"/>
-    </row>
-    <row r="16" spans="1:40" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="167"/>
-      <c r="B16" s="189"/>
-      <c r="C16" s="190"/>
-      <c r="D16" s="191"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="189"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="187"/>
-      <c r="L16" s="187"/>
-      <c r="M16" s="187"/>
-      <c r="N16" s="187"/>
-      <c r="O16" s="187"/>
-      <c r="P16" s="188"/>
-      <c r="Q16" s="183"/>
-      <c r="R16" s="184"/>
-      <c r="S16" s="184"/>
-      <c r="T16" s="184"/>
-      <c r="U16" s="184"/>
-      <c r="V16" s="184"/>
-      <c r="W16" s="184"/>
-      <c r="X16" s="184"/>
-      <c r="Y16" s="184"/>
-      <c r="Z16" s="184"/>
-      <c r="AA16" s="184"/>
-      <c r="AB16" s="184"/>
-      <c r="AC16" s="184"/>
-      <c r="AD16" s="184"/>
-      <c r="AE16" s="185"/>
-      <c r="AF16" s="186"/>
-      <c r="AG16" s="187"/>
-      <c r="AH16" s="187"/>
-      <c r="AI16" s="188"/>
-    </row>
-    <row r="17" spans="1:35" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="167"/>
-      <c r="B17" s="189"/>
-      <c r="C17" s="190"/>
-      <c r="D17" s="191"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="189"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="187"/>
-      <c r="L17" s="187"/>
-      <c r="M17" s="187"/>
-      <c r="N17" s="187"/>
-      <c r="O17" s="187"/>
-      <c r="P17" s="188"/>
-      <c r="Q17" s="183"/>
-      <c r="R17" s="184"/>
-      <c r="S17" s="184"/>
-      <c r="T17" s="184"/>
-      <c r="U17" s="184"/>
-      <c r="V17" s="184"/>
-      <c r="W17" s="184"/>
-      <c r="X17" s="184"/>
-      <c r="Y17" s="184"/>
-      <c r="Z17" s="184"/>
-      <c r="AA17" s="184"/>
-      <c r="AB17" s="184"/>
-      <c r="AC17" s="184"/>
-      <c r="AD17" s="184"/>
-      <c r="AE17" s="185"/>
-      <c r="AF17" s="186"/>
-      <c r="AG17" s="187"/>
-      <c r="AH17" s="187"/>
-      <c r="AI17" s="188"/>
-    </row>
-    <row r="18" spans="1:35" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="167"/>
-      <c r="B18" s="189"/>
-      <c r="C18" s="190"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="190"/>
-      <c r="J18" s="186"/>
-      <c r="K18" s="187"/>
-      <c r="L18" s="187"/>
-      <c r="M18" s="187"/>
-      <c r="N18" s="187"/>
-      <c r="O18" s="187"/>
-      <c r="P18" s="188"/>
-      <c r="Q18" s="183"/>
-      <c r="R18" s="184"/>
-      <c r="S18" s="184"/>
-      <c r="T18" s="184"/>
-      <c r="U18" s="184"/>
-      <c r="V18" s="184"/>
-      <c r="W18" s="184"/>
-      <c r="X18" s="184"/>
-      <c r="Y18" s="184"/>
-      <c r="Z18" s="184"/>
-      <c r="AA18" s="184"/>
-      <c r="AB18" s="184"/>
-      <c r="AC18" s="184"/>
-      <c r="AD18" s="184"/>
-      <c r="AE18" s="185"/>
-      <c r="AF18" s="186"/>
-      <c r="AG18" s="187"/>
-      <c r="AH18" s="187"/>
-      <c r="AI18" s="188"/>
-    </row>
-    <row r="19" spans="1:35" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="167"/>
-      <c r="B19" s="189"/>
-      <c r="C19" s="190"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="189"/>
-      <c r="H19" s="194"/>
-      <c r="I19" s="190"/>
-      <c r="J19" s="186"/>
-      <c r="K19" s="187"/>
-      <c r="L19" s="187"/>
-      <c r="M19" s="187"/>
-      <c r="N19" s="187"/>
-      <c r="O19" s="187"/>
-      <c r="P19" s="188"/>
-      <c r="Q19" s="183"/>
-      <c r="R19" s="184"/>
-      <c r="S19" s="184"/>
-      <c r="T19" s="184"/>
-      <c r="U19" s="184"/>
-      <c r="V19" s="184"/>
-      <c r="W19" s="184"/>
-      <c r="X19" s="184"/>
-      <c r="Y19" s="184"/>
-      <c r="Z19" s="184"/>
-      <c r="AA19" s="184"/>
-      <c r="AB19" s="184"/>
-      <c r="AC19" s="184"/>
-      <c r="AD19" s="184"/>
-      <c r="AE19" s="185"/>
-      <c r="AF19" s="186"/>
-      <c r="AG19" s="187"/>
-      <c r="AH19" s="187"/>
-      <c r="AI19" s="188"/>
-    </row>
-    <row r="20" spans="1:35" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="167"/>
-      <c r="B20" s="189"/>
-      <c r="C20" s="190"/>
-      <c r="D20" s="191"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="189"/>
-      <c r="H20" s="194"/>
-      <c r="I20" s="190"/>
-      <c r="J20" s="186"/>
-      <c r="K20" s="187"/>
-      <c r="L20" s="187"/>
-      <c r="M20" s="187"/>
-      <c r="N20" s="187"/>
-      <c r="O20" s="187"/>
-      <c r="P20" s="188"/>
-      <c r="Q20" s="183"/>
-      <c r="R20" s="184"/>
-      <c r="S20" s="184"/>
-      <c r="T20" s="184"/>
-      <c r="U20" s="184"/>
-      <c r="V20" s="184"/>
-      <c r="W20" s="184"/>
-      <c r="X20" s="184"/>
-      <c r="Y20" s="184"/>
-      <c r="Z20" s="184"/>
-      <c r="AA20" s="184"/>
-      <c r="AB20" s="184"/>
-      <c r="AC20" s="184"/>
-      <c r="AD20" s="184"/>
-      <c r="AE20" s="185"/>
-      <c r="AF20" s="186"/>
-      <c r="AG20" s="187"/>
-      <c r="AH20" s="187"/>
-      <c r="AI20" s="188"/>
-    </row>
-    <row r="21" spans="1:35" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="167"/>
-      <c r="B21" s="189"/>
-      <c r="C21" s="190"/>
-      <c r="D21" s="191"/>
-      <c r="E21" s="192"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="194"/>
-      <c r="I21" s="190"/>
-      <c r="J21" s="186"/>
-      <c r="K21" s="187"/>
-      <c r="L21" s="187"/>
-      <c r="M21" s="187"/>
-      <c r="N21" s="187"/>
-      <c r="O21" s="187"/>
-      <c r="P21" s="188"/>
-      <c r="Q21" s="183"/>
-      <c r="R21" s="184"/>
-      <c r="S21" s="184"/>
-      <c r="T21" s="184"/>
-      <c r="U21" s="184"/>
-      <c r="V21" s="184"/>
-      <c r="W21" s="184"/>
-      <c r="X21" s="184"/>
-      <c r="Y21" s="184"/>
-      <c r="Z21" s="184"/>
-      <c r="AA21" s="184"/>
-      <c r="AB21" s="184"/>
-      <c r="AC21" s="184"/>
-      <c r="AD21" s="184"/>
-      <c r="AE21" s="185"/>
-      <c r="AF21" s="186"/>
-      <c r="AG21" s="187"/>
-      <c r="AH21" s="187"/>
-      <c r="AI21" s="188"/>
-    </row>
-    <row r="22" spans="1:35" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="167"/>
-      <c r="B22" s="189"/>
-      <c r="C22" s="190"/>
-      <c r="D22" s="191"/>
-      <c r="E22" s="192"/>
-      <c r="F22" s="193"/>
-      <c r="G22" s="189"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="190"/>
-      <c r="J22" s="186"/>
-      <c r="K22" s="187"/>
-      <c r="L22" s="187"/>
-      <c r="M22" s="187"/>
-      <c r="N22" s="187"/>
-      <c r="O22" s="187"/>
-      <c r="P22" s="188"/>
-      <c r="Q22" s="183"/>
-      <c r="R22" s="184"/>
-      <c r="S22" s="184"/>
-      <c r="T22" s="184"/>
-      <c r="U22" s="184"/>
-      <c r="V22" s="184"/>
-      <c r="W22" s="184"/>
-      <c r="X22" s="184"/>
-      <c r="Y22" s="184"/>
-      <c r="Z22" s="184"/>
-      <c r="AA22" s="184"/>
-      <c r="AB22" s="184"/>
-      <c r="AC22" s="184"/>
-      <c r="AD22" s="184"/>
-      <c r="AE22" s="185"/>
-      <c r="AF22" s="186"/>
-      <c r="AG22" s="187"/>
-      <c r="AH22" s="187"/>
-      <c r="AI22" s="188"/>
-    </row>
-    <row r="23" spans="1:35" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="167"/>
-      <c r="B23" s="189"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="191"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="189"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="190"/>
-      <c r="J23" s="186"/>
-      <c r="K23" s="187"/>
-      <c r="L23" s="187"/>
-      <c r="M23" s="187"/>
-      <c r="N23" s="187"/>
-      <c r="O23" s="187"/>
-      <c r="P23" s="188"/>
-      <c r="Q23" s="183"/>
-      <c r="R23" s="184"/>
-      <c r="S23" s="184"/>
-      <c r="T23" s="184"/>
-      <c r="U23" s="184"/>
-      <c r="V23" s="184"/>
-      <c r="W23" s="184"/>
-      <c r="X23" s="184"/>
-      <c r="Y23" s="184"/>
-      <c r="Z23" s="184"/>
-      <c r="AA23" s="184"/>
-      <c r="AB23" s="184"/>
-      <c r="AC23" s="184"/>
-      <c r="AD23" s="184"/>
-      <c r="AE23" s="185"/>
-      <c r="AF23" s="186"/>
-      <c r="AG23" s="187"/>
-      <c r="AH23" s="187"/>
-      <c r="AI23" s="188"/>
-    </row>
-    <row r="24" spans="1:35" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="167"/>
-      <c r="B24" s="189"/>
-      <c r="C24" s="190"/>
-      <c r="D24" s="191"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="193"/>
-      <c r="G24" s="189"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="190"/>
-      <c r="J24" s="186"/>
-      <c r="K24" s="187"/>
-      <c r="L24" s="187"/>
-      <c r="M24" s="187"/>
-      <c r="N24" s="187"/>
-      <c r="O24" s="187"/>
-      <c r="P24" s="188"/>
-      <c r="Q24" s="183"/>
-      <c r="R24" s="184"/>
-      <c r="S24" s="184"/>
-      <c r="T24" s="184"/>
-      <c r="U24" s="184"/>
-      <c r="V24" s="184"/>
-      <c r="W24" s="184"/>
-      <c r="X24" s="184"/>
-      <c r="Y24" s="184"/>
-      <c r="Z24" s="184"/>
-      <c r="AA24" s="184"/>
-      <c r="AB24" s="184"/>
-      <c r="AC24" s="184"/>
-      <c r="AD24" s="184"/>
-      <c r="AE24" s="185"/>
-      <c r="AF24" s="186"/>
-      <c r="AG24" s="187"/>
-      <c r="AH24" s="187"/>
-      <c r="AI24" s="188"/>
-    </row>
-    <row r="25" spans="1:35" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="167"/>
-      <c r="B25" s="189"/>
-      <c r="C25" s="190"/>
-      <c r="D25" s="191"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="189"/>
-      <c r="H25" s="194"/>
-      <c r="I25" s="190"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="187"/>
-      <c r="L25" s="187"/>
-      <c r="M25" s="187"/>
-      <c r="N25" s="187"/>
-      <c r="O25" s="187"/>
-      <c r="P25" s="188"/>
-      <c r="Q25" s="183"/>
-      <c r="R25" s="184"/>
-      <c r="S25" s="184"/>
-      <c r="T25" s="184"/>
-      <c r="U25" s="184"/>
-      <c r="V25" s="184"/>
-      <c r="W25" s="184"/>
-      <c r="X25" s="184"/>
-      <c r="Y25" s="184"/>
-      <c r="Z25" s="184"/>
-      <c r="AA25" s="184"/>
-      <c r="AB25" s="184"/>
-      <c r="AC25" s="184"/>
-      <c r="AD25" s="184"/>
-      <c r="AE25" s="185"/>
-      <c r="AF25" s="186"/>
-      <c r="AG25" s="187"/>
-      <c r="AH25" s="187"/>
-      <c r="AI25" s="188"/>
-    </row>
-    <row r="26" spans="1:35" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="167"/>
-      <c r="B26" s="189"/>
-      <c r="C26" s="190"/>
-      <c r="D26" s="191"/>
-      <c r="E26" s="192"/>
-      <c r="F26" s="193"/>
-      <c r="G26" s="189"/>
-      <c r="H26" s="194"/>
-      <c r="I26" s="190"/>
-      <c r="J26" s="186"/>
-      <c r="K26" s="187"/>
-      <c r="L26" s="187"/>
-      <c r="M26" s="187"/>
-      <c r="N26" s="187"/>
-      <c r="O26" s="187"/>
-      <c r="P26" s="188"/>
-      <c r="Q26" s="183"/>
-      <c r="R26" s="184"/>
-      <c r="S26" s="184"/>
-      <c r="T26" s="184"/>
-      <c r="U26" s="184"/>
-      <c r="V26" s="184"/>
-      <c r="W26" s="184"/>
-      <c r="X26" s="184"/>
-      <c r="Y26" s="184"/>
-      <c r="Z26" s="184"/>
-      <c r="AA26" s="184"/>
-      <c r="AB26" s="184"/>
-      <c r="AC26" s="184"/>
-      <c r="AD26" s="184"/>
-      <c r="AE26" s="185"/>
-      <c r="AF26" s="186"/>
-      <c r="AG26" s="187"/>
-      <c r="AH26" s="187"/>
-      <c r="AI26" s="188"/>
-    </row>
-    <row r="27" spans="1:35" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="167"/>
-      <c r="B27" s="189"/>
-      <c r="C27" s="190"/>
-      <c r="D27" s="191"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="193"/>
-      <c r="G27" s="189"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="190"/>
-      <c r="J27" s="186"/>
-      <c r="K27" s="187"/>
-      <c r="L27" s="187"/>
-      <c r="M27" s="187"/>
-      <c r="N27" s="187"/>
-      <c r="O27" s="187"/>
-      <c r="P27" s="188"/>
-      <c r="Q27" s="183"/>
-      <c r="R27" s="184"/>
-      <c r="S27" s="184"/>
-      <c r="T27" s="184"/>
-      <c r="U27" s="184"/>
-      <c r="V27" s="184"/>
-      <c r="W27" s="184"/>
-      <c r="X27" s="184"/>
-      <c r="Y27" s="184"/>
-      <c r="Z27" s="184"/>
-      <c r="AA27" s="184"/>
-      <c r="AB27" s="184"/>
-      <c r="AC27" s="184"/>
-      <c r="AD27" s="184"/>
-      <c r="AE27" s="185"/>
-      <c r="AF27" s="186"/>
-      <c r="AG27" s="187"/>
-      <c r="AH27" s="187"/>
-      <c r="AI27" s="188"/>
-    </row>
-    <row r="28" spans="1:35" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="167"/>
-      <c r="B28" s="189"/>
-      <c r="C28" s="190"/>
-      <c r="D28" s="191"/>
-      <c r="E28" s="192"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="189"/>
-      <c r="H28" s="194"/>
-      <c r="I28" s="190"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="187"/>
-      <c r="L28" s="187"/>
-      <c r="M28" s="187"/>
-      <c r="N28" s="187"/>
-      <c r="O28" s="187"/>
-      <c r="P28" s="188"/>
-      <c r="Q28" s="183"/>
-      <c r="R28" s="184"/>
-      <c r="S28" s="184"/>
-      <c r="T28" s="184"/>
-      <c r="U28" s="184"/>
-      <c r="V28" s="184"/>
-      <c r="W28" s="184"/>
-      <c r="X28" s="184"/>
-      <c r="Y28" s="184"/>
-      <c r="Z28" s="184"/>
-      <c r="AA28" s="184"/>
-      <c r="AB28" s="184"/>
-      <c r="AC28" s="184"/>
-      <c r="AD28" s="184"/>
-      <c r="AE28" s="185"/>
-      <c r="AF28" s="186"/>
-      <c r="AG28" s="187"/>
-      <c r="AH28" s="187"/>
-      <c r="AI28" s="188"/>
-    </row>
-    <row r="29" spans="1:35" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="167"/>
-      <c r="B29" s="189"/>
-      <c r="C29" s="190"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="189"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="190"/>
-      <c r="J29" s="186"/>
-      <c r="K29" s="187"/>
-      <c r="L29" s="187"/>
-      <c r="M29" s="187"/>
-      <c r="N29" s="187"/>
-      <c r="O29" s="187"/>
-      <c r="P29" s="188"/>
-      <c r="Q29" s="183"/>
-      <c r="R29" s="184"/>
-      <c r="S29" s="184"/>
-      <c r="T29" s="184"/>
-      <c r="U29" s="184"/>
-      <c r="V29" s="184"/>
-      <c r="W29" s="184"/>
-      <c r="X29" s="184"/>
-      <c r="Y29" s="184"/>
-      <c r="Z29" s="184"/>
-      <c r="AA29" s="184"/>
-      <c r="AB29" s="184"/>
-      <c r="AC29" s="184"/>
-      <c r="AD29" s="184"/>
-      <c r="AE29" s="185"/>
-      <c r="AF29" s="186"/>
-      <c r="AG29" s="187"/>
-      <c r="AH29" s="187"/>
-      <c r="AI29" s="188"/>
-    </row>
-    <row r="30" spans="1:35" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="167"/>
-      <c r="B30" s="189"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="191"/>
-      <c r="E30" s="192"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="189"/>
-      <c r="H30" s="194"/>
-      <c r="I30" s="190"/>
-      <c r="J30" s="186"/>
-      <c r="K30" s="187"/>
-      <c r="L30" s="187"/>
-      <c r="M30" s="187"/>
-      <c r="N30" s="187"/>
-      <c r="O30" s="187"/>
-      <c r="P30" s="188"/>
-      <c r="Q30" s="183"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="184"/>
-      <c r="AC30" s="184"/>
-      <c r="AD30" s="184"/>
-      <c r="AE30" s="185"/>
-      <c r="AF30" s="186"/>
-      <c r="AG30" s="187"/>
-      <c r="AH30" s="187"/>
-      <c r="AI30" s="188"/>
-    </row>
-    <row r="31" spans="1:35" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="167"/>
-      <c r="B31" s="189"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="191"/>
-      <c r="E31" s="192"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="194"/>
-      <c r="I31" s="190"/>
-      <c r="J31" s="186"/>
-      <c r="K31" s="187"/>
-      <c r="L31" s="187"/>
-      <c r="M31" s="187"/>
-      <c r="N31" s="187"/>
-      <c r="O31" s="187"/>
-      <c r="P31" s="188"/>
-      <c r="Q31" s="183"/>
-      <c r="R31" s="184"/>
-      <c r="S31" s="184"/>
-      <c r="T31" s="184"/>
-      <c r="U31" s="184"/>
-      <c r="V31" s="184"/>
-      <c r="W31" s="184"/>
-      <c r="X31" s="184"/>
-      <c r="Y31" s="184"/>
-      <c r="Z31" s="184"/>
-      <c r="AA31" s="184"/>
-      <c r="AB31" s="184"/>
-      <c r="AC31" s="184"/>
-      <c r="AD31" s="184"/>
-      <c r="AE31" s="185"/>
-      <c r="AF31" s="186"/>
-      <c r="AG31" s="187"/>
-      <c r="AH31" s="187"/>
-      <c r="AI31" s="188"/>
-    </row>
-    <row r="32" spans="1:35" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="167"/>
-      <c r="B32" s="189"/>
-      <c r="C32" s="190"/>
-      <c r="D32" s="191"/>
-      <c r="E32" s="192"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="189"/>
-      <c r="H32" s="194"/>
-      <c r="I32" s="190"/>
-      <c r="J32" s="186"/>
-      <c r="K32" s="187"/>
-      <c r="L32" s="187"/>
-      <c r="M32" s="187"/>
-      <c r="N32" s="187"/>
-      <c r="O32" s="187"/>
-      <c r="P32" s="188"/>
-      <c r="Q32" s="183"/>
-      <c r="R32" s="184"/>
-      <c r="S32" s="184"/>
-      <c r="T32" s="184"/>
-      <c r="U32" s="184"/>
-      <c r="V32" s="184"/>
-      <c r="W32" s="184"/>
-      <c r="X32" s="184"/>
-      <c r="Y32" s="184"/>
-      <c r="Z32" s="184"/>
-      <c r="AA32" s="184"/>
-      <c r="AB32" s="184"/>
-      <c r="AC32" s="184"/>
-      <c r="AD32" s="184"/>
-      <c r="AE32" s="185"/>
-      <c r="AF32" s="186"/>
-      <c r="AG32" s="187"/>
-      <c r="AH32" s="187"/>
-      <c r="AI32" s="188"/>
-    </row>
-    <row r="33" spans="1:35" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="167"/>
-      <c r="B33" s="189"/>
-      <c r="C33" s="190"/>
-      <c r="D33" s="191"/>
-      <c r="E33" s="192"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="190"/>
-      <c r="J33" s="186"/>
-      <c r="K33" s="187"/>
-      <c r="L33" s="187"/>
-      <c r="M33" s="187"/>
-      <c r="N33" s="187"/>
-      <c r="O33" s="187"/>
-      <c r="P33" s="188"/>
-      <c r="Q33" s="183"/>
-      <c r="R33" s="184"/>
-      <c r="S33" s="184"/>
-      <c r="T33" s="184"/>
-      <c r="U33" s="184"/>
-      <c r="V33" s="184"/>
-      <c r="W33" s="184"/>
-      <c r="X33" s="184"/>
-      <c r="Y33" s="184"/>
-      <c r="Z33" s="184"/>
-      <c r="AA33" s="184"/>
-      <c r="AB33" s="184"/>
-      <c r="AC33" s="184"/>
-      <c r="AD33" s="184"/>
-      <c r="AE33" s="185"/>
-      <c r="AF33" s="186"/>
-      <c r="AG33" s="187"/>
-      <c r="AH33" s="187"/>
-      <c r="AI33" s="188"/>
-    </row>
-    <row r="34" spans="1:35" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG8" s="233"/>
+      <c r="AH8" s="233"/>
+      <c r="AI8" s="234"/>
+    </row>
+    <row r="9" spans="1:40" s="164" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="166">
+        <v>2</v>
+      </c>
+      <c r="B9" s="202" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="197"/>
+      <c r="D9" s="198">
+        <v>44796</v>
+      </c>
+      <c r="E9" s="199"/>
+      <c r="F9" s="200"/>
+      <c r="G9" s="196" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="201"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="190" t="s">
+        <v>175</v>
+      </c>
+      <c r="K9" s="194"/>
+      <c r="L9" s="194"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="194"/>
+      <c r="O9" s="194"/>
+      <c r="P9" s="195"/>
+      <c r="Q9" s="231" t="s">
+        <v>177</v>
+      </c>
+      <c r="R9" s="191"/>
+      <c r="S9" s="191"/>
+      <c r="T9" s="191"/>
+      <c r="U9" s="191"/>
+      <c r="V9" s="191"/>
+      <c r="W9" s="191"/>
+      <c r="X9" s="191"/>
+      <c r="Y9" s="191"/>
+      <c r="Z9" s="191"/>
+      <c r="AA9" s="191"/>
+      <c r="AB9" s="191"/>
+      <c r="AC9" s="191"/>
+      <c r="AD9" s="191"/>
+      <c r="AE9" s="192"/>
+      <c r="AF9" s="193" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG9" s="194"/>
+      <c r="AH9" s="194"/>
+      <c r="AI9" s="195"/>
+    </row>
+    <row r="10" spans="1:40" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="166"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="194"/>
+      <c r="O10" s="194"/>
+      <c r="P10" s="195"/>
+      <c r="Q10" s="190"/>
+      <c r="R10" s="191"/>
+      <c r="S10" s="191"/>
+      <c r="T10" s="191"/>
+      <c r="U10" s="191"/>
+      <c r="V10" s="191"/>
+      <c r="W10" s="191"/>
+      <c r="X10" s="191"/>
+      <c r="Y10" s="191"/>
+      <c r="Z10" s="191"/>
+      <c r="AA10" s="191"/>
+      <c r="AB10" s="191"/>
+      <c r="AC10" s="191"/>
+      <c r="AD10" s="191"/>
+      <c r="AE10" s="192"/>
+      <c r="AF10" s="193"/>
+      <c r="AG10" s="194"/>
+      <c r="AH10" s="194"/>
+      <c r="AI10" s="195"/>
+    </row>
+    <row r="11" spans="1:40" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="166"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="197"/>
+      <c r="D11" s="198"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="197"/>
+      <c r="J11" s="193"/>
+      <c r="K11" s="194"/>
+      <c r="L11" s="194"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="194"/>
+      <c r="O11" s="194"/>
+      <c r="P11" s="195"/>
+      <c r="Q11" s="190"/>
+      <c r="R11" s="191"/>
+      <c r="S11" s="191"/>
+      <c r="T11" s="191"/>
+      <c r="U11" s="191"/>
+      <c r="V11" s="191"/>
+      <c r="W11" s="191"/>
+      <c r="X11" s="191"/>
+      <c r="Y11" s="191"/>
+      <c r="Z11" s="191"/>
+      <c r="AA11" s="191"/>
+      <c r="AB11" s="191"/>
+      <c r="AC11" s="191"/>
+      <c r="AD11" s="191"/>
+      <c r="AE11" s="192"/>
+      <c r="AF11" s="193"/>
+      <c r="AG11" s="194"/>
+      <c r="AH11" s="194"/>
+      <c r="AI11" s="195"/>
+    </row>
+    <row r="12" spans="1:40" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="166"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="197"/>
+      <c r="D12" s="198"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="200"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="201"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="193"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="194"/>
+      <c r="O12" s="194"/>
+      <c r="P12" s="195"/>
+      <c r="Q12" s="190"/>
+      <c r="R12" s="191"/>
+      <c r="S12" s="191"/>
+      <c r="T12" s="191"/>
+      <c r="U12" s="191"/>
+      <c r="V12" s="191"/>
+      <c r="W12" s="191"/>
+      <c r="X12" s="191"/>
+      <c r="Y12" s="191"/>
+      <c r="Z12" s="191"/>
+      <c r="AA12" s="191"/>
+      <c r="AB12" s="191"/>
+      <c r="AC12" s="191"/>
+      <c r="AD12" s="191"/>
+      <c r="AE12" s="192"/>
+      <c r="AF12" s="193"/>
+      <c r="AG12" s="194"/>
+      <c r="AH12" s="194"/>
+      <c r="AI12" s="195"/>
+    </row>
+    <row r="13" spans="1:40" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="166"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="198"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="200"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="201"/>
+      <c r="I13" s="197"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="194"/>
+      <c r="O13" s="194"/>
+      <c r="P13" s="195"/>
+      <c r="Q13" s="190"/>
+      <c r="R13" s="191"/>
+      <c r="S13" s="191"/>
+      <c r="T13" s="191"/>
+      <c r="U13" s="191"/>
+      <c r="V13" s="191"/>
+      <c r="W13" s="191"/>
+      <c r="X13" s="191"/>
+      <c r="Y13" s="191"/>
+      <c r="Z13" s="191"/>
+      <c r="AA13" s="191"/>
+      <c r="AB13" s="191"/>
+      <c r="AC13" s="191"/>
+      <c r="AD13" s="191"/>
+      <c r="AE13" s="192"/>
+      <c r="AF13" s="193"/>
+      <c r="AG13" s="194"/>
+      <c r="AH13" s="194"/>
+      <c r="AI13" s="195"/>
+    </row>
+    <row r="14" spans="1:40" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="166"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="197"/>
+      <c r="D14" s="198"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="197"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="194"/>
+      <c r="M14" s="194"/>
+      <c r="N14" s="194"/>
+      <c r="O14" s="194"/>
+      <c r="P14" s="195"/>
+      <c r="Q14" s="190"/>
+      <c r="R14" s="191"/>
+      <c r="S14" s="191"/>
+      <c r="T14" s="191"/>
+      <c r="U14" s="191"/>
+      <c r="V14" s="191"/>
+      <c r="W14" s="191"/>
+      <c r="X14" s="191"/>
+      <c r="Y14" s="191"/>
+      <c r="Z14" s="191"/>
+      <c r="AA14" s="191"/>
+      <c r="AB14" s="191"/>
+      <c r="AC14" s="191"/>
+      <c r="AD14" s="191"/>
+      <c r="AE14" s="192"/>
+      <c r="AF14" s="193"/>
+      <c r="AG14" s="194"/>
+      <c r="AH14" s="194"/>
+      <c r="AI14" s="195"/>
+    </row>
+    <row r="15" spans="1:40" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="166"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="197"/>
+      <c r="D15" s="198"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="197"/>
+      <c r="J15" s="193"/>
+      <c r="K15" s="194"/>
+      <c r="L15" s="194"/>
+      <c r="M15" s="194"/>
+      <c r="N15" s="194"/>
+      <c r="O15" s="194"/>
+      <c r="P15" s="195"/>
+      <c r="Q15" s="190"/>
+      <c r="R15" s="191"/>
+      <c r="S15" s="191"/>
+      <c r="T15" s="191"/>
+      <c r="U15" s="191"/>
+      <c r="V15" s="191"/>
+      <c r="W15" s="191"/>
+      <c r="X15" s="191"/>
+      <c r="Y15" s="191"/>
+      <c r="Z15" s="191"/>
+      <c r="AA15" s="191"/>
+      <c r="AB15" s="191"/>
+      <c r="AC15" s="191"/>
+      <c r="AD15" s="191"/>
+      <c r="AE15" s="192"/>
+      <c r="AF15" s="193"/>
+      <c r="AG15" s="194"/>
+      <c r="AH15" s="194"/>
+      <c r="AI15" s="195"/>
+    </row>
+    <row r="16" spans="1:40" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="166"/>
+      <c r="B16" s="196"/>
+      <c r="C16" s="197"/>
+      <c r="D16" s="198"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="201"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="194"/>
+      <c r="O16" s="194"/>
+      <c r="P16" s="195"/>
+      <c r="Q16" s="190"/>
+      <c r="R16" s="191"/>
+      <c r="S16" s="191"/>
+      <c r="T16" s="191"/>
+      <c r="U16" s="191"/>
+      <c r="V16" s="191"/>
+      <c r="W16" s="191"/>
+      <c r="X16" s="191"/>
+      <c r="Y16" s="191"/>
+      <c r="Z16" s="191"/>
+      <c r="AA16" s="191"/>
+      <c r="AB16" s="191"/>
+      <c r="AC16" s="191"/>
+      <c r="AD16" s="191"/>
+      <c r="AE16" s="192"/>
+      <c r="AF16" s="193"/>
+      <c r="AG16" s="194"/>
+      <c r="AH16" s="194"/>
+      <c r="AI16" s="195"/>
+    </row>
+    <row r="17" spans="1:35" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="166"/>
+      <c r="B17" s="196"/>
+      <c r="C17" s="197"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="200"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="194"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="194"/>
+      <c r="P17" s="195"/>
+      <c r="Q17" s="190"/>
+      <c r="R17" s="191"/>
+      <c r="S17" s="191"/>
+      <c r="T17" s="191"/>
+      <c r="U17" s="191"/>
+      <c r="V17" s="191"/>
+      <c r="W17" s="191"/>
+      <c r="X17" s="191"/>
+      <c r="Y17" s="191"/>
+      <c r="Z17" s="191"/>
+      <c r="AA17" s="191"/>
+      <c r="AB17" s="191"/>
+      <c r="AC17" s="191"/>
+      <c r="AD17" s="191"/>
+      <c r="AE17" s="192"/>
+      <c r="AF17" s="193"/>
+      <c r="AG17" s="194"/>
+      <c r="AH17" s="194"/>
+      <c r="AI17" s="195"/>
+    </row>
+    <row r="18" spans="1:35" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="166"/>
+      <c r="B18" s="196"/>
+      <c r="C18" s="197"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="201"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="194"/>
+      <c r="O18" s="194"/>
+      <c r="P18" s="195"/>
+      <c r="Q18" s="190"/>
+      <c r="R18" s="191"/>
+      <c r="S18" s="191"/>
+      <c r="T18" s="191"/>
+      <c r="U18" s="191"/>
+      <c r="V18" s="191"/>
+      <c r="W18" s="191"/>
+      <c r="X18" s="191"/>
+      <c r="Y18" s="191"/>
+      <c r="Z18" s="191"/>
+      <c r="AA18" s="191"/>
+      <c r="AB18" s="191"/>
+      <c r="AC18" s="191"/>
+      <c r="AD18" s="191"/>
+      <c r="AE18" s="192"/>
+      <c r="AF18" s="193"/>
+      <c r="AG18" s="194"/>
+      <c r="AH18" s="194"/>
+      <c r="AI18" s="195"/>
+    </row>
+    <row r="19" spans="1:35" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="166"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="193"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="194"/>
+      <c r="P19" s="195"/>
+      <c r="Q19" s="190"/>
+      <c r="R19" s="191"/>
+      <c r="S19" s="191"/>
+      <c r="T19" s="191"/>
+      <c r="U19" s="191"/>
+      <c r="V19" s="191"/>
+      <c r="W19" s="191"/>
+      <c r="X19" s="191"/>
+      <c r="Y19" s="191"/>
+      <c r="Z19" s="191"/>
+      <c r="AA19" s="191"/>
+      <c r="AB19" s="191"/>
+      <c r="AC19" s="191"/>
+      <c r="AD19" s="191"/>
+      <c r="AE19" s="192"/>
+      <c r="AF19" s="193"/>
+      <c r="AG19" s="194"/>
+      <c r="AH19" s="194"/>
+      <c r="AI19" s="195"/>
+    </row>
+    <row r="20" spans="1:35" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="166"/>
+      <c r="B20" s="196"/>
+      <c r="C20" s="197"/>
+      <c r="D20" s="198"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="200"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="197"/>
+      <c r="J20" s="193"/>
+      <c r="K20" s="194"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="194"/>
+      <c r="P20" s="195"/>
+      <c r="Q20" s="190"/>
+      <c r="R20" s="191"/>
+      <c r="S20" s="191"/>
+      <c r="T20" s="191"/>
+      <c r="U20" s="191"/>
+      <c r="V20" s="191"/>
+      <c r="W20" s="191"/>
+      <c r="X20" s="191"/>
+      <c r="Y20" s="191"/>
+      <c r="Z20" s="191"/>
+      <c r="AA20" s="191"/>
+      <c r="AB20" s="191"/>
+      <c r="AC20" s="191"/>
+      <c r="AD20" s="191"/>
+      <c r="AE20" s="192"/>
+      <c r="AF20" s="193"/>
+      <c r="AG20" s="194"/>
+      <c r="AH20" s="194"/>
+      <c r="AI20" s="195"/>
+    </row>
+    <row r="21" spans="1:35" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="166"/>
+      <c r="B21" s="196"/>
+      <c r="C21" s="197"/>
+      <c r="D21" s="198"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="193"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="194"/>
+      <c r="M21" s="194"/>
+      <c r="N21" s="194"/>
+      <c r="O21" s="194"/>
+      <c r="P21" s="195"/>
+      <c r="Q21" s="190"/>
+      <c r="R21" s="191"/>
+      <c r="S21" s="191"/>
+      <c r="T21" s="191"/>
+      <c r="U21" s="191"/>
+      <c r="V21" s="191"/>
+      <c r="W21" s="191"/>
+      <c r="X21" s="191"/>
+      <c r="Y21" s="191"/>
+      <c r="Z21" s="191"/>
+      <c r="AA21" s="191"/>
+      <c r="AB21" s="191"/>
+      <c r="AC21" s="191"/>
+      <c r="AD21" s="191"/>
+      <c r="AE21" s="192"/>
+      <c r="AF21" s="193"/>
+      <c r="AG21" s="194"/>
+      <c r="AH21" s="194"/>
+      <c r="AI21" s="195"/>
+    </row>
+    <row r="22" spans="1:35" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="166"/>
+      <c r="B22" s="196"/>
+      <c r="C22" s="197"/>
+      <c r="D22" s="198"/>
+      <c r="E22" s="199"/>
+      <c r="F22" s="200"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="201"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="193"/>
+      <c r="K22" s="194"/>
+      <c r="L22" s="194"/>
+      <c r="M22" s="194"/>
+      <c r="N22" s="194"/>
+      <c r="O22" s="194"/>
+      <c r="P22" s="195"/>
+      <c r="Q22" s="190"/>
+      <c r="R22" s="191"/>
+      <c r="S22" s="191"/>
+      <c r="T22" s="191"/>
+      <c r="U22" s="191"/>
+      <c r="V22" s="191"/>
+      <c r="W22" s="191"/>
+      <c r="X22" s="191"/>
+      <c r="Y22" s="191"/>
+      <c r="Z22" s="191"/>
+      <c r="AA22" s="191"/>
+      <c r="AB22" s="191"/>
+      <c r="AC22" s="191"/>
+      <c r="AD22" s="191"/>
+      <c r="AE22" s="192"/>
+      <c r="AF22" s="193"/>
+      <c r="AG22" s="194"/>
+      <c r="AH22" s="194"/>
+      <c r="AI22" s="195"/>
+    </row>
+    <row r="23" spans="1:35" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="166"/>
+      <c r="B23" s="196"/>
+      <c r="C23" s="197"/>
+      <c r="D23" s="198"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="200"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="197"/>
+      <c r="J23" s="193"/>
+      <c r="K23" s="194"/>
+      <c r="L23" s="194"/>
+      <c r="M23" s="194"/>
+      <c r="N23" s="194"/>
+      <c r="O23" s="194"/>
+      <c r="P23" s="195"/>
+      <c r="Q23" s="190"/>
+      <c r="R23" s="191"/>
+      <c r="S23" s="191"/>
+      <c r="T23" s="191"/>
+      <c r="U23" s="191"/>
+      <c r="V23" s="191"/>
+      <c r="W23" s="191"/>
+      <c r="X23" s="191"/>
+      <c r="Y23" s="191"/>
+      <c r="Z23" s="191"/>
+      <c r="AA23" s="191"/>
+      <c r="AB23" s="191"/>
+      <c r="AC23" s="191"/>
+      <c r="AD23" s="191"/>
+      <c r="AE23" s="192"/>
+      <c r="AF23" s="193"/>
+      <c r="AG23" s="194"/>
+      <c r="AH23" s="194"/>
+      <c r="AI23" s="195"/>
+    </row>
+    <row r="24" spans="1:35" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="166"/>
+      <c r="B24" s="196"/>
+      <c r="C24" s="197"/>
+      <c r="D24" s="198"/>
+      <c r="E24" s="199"/>
+      <c r="F24" s="200"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="201"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="194"/>
+      <c r="L24" s="194"/>
+      <c r="M24" s="194"/>
+      <c r="N24" s="194"/>
+      <c r="O24" s="194"/>
+      <c r="P24" s="195"/>
+      <c r="Q24" s="190"/>
+      <c r="R24" s="191"/>
+      <c r="S24" s="191"/>
+      <c r="T24" s="191"/>
+      <c r="U24" s="191"/>
+      <c r="V24" s="191"/>
+      <c r="W24" s="191"/>
+      <c r="X24" s="191"/>
+      <c r="Y24" s="191"/>
+      <c r="Z24" s="191"/>
+      <c r="AA24" s="191"/>
+      <c r="AB24" s="191"/>
+      <c r="AC24" s="191"/>
+      <c r="AD24" s="191"/>
+      <c r="AE24" s="192"/>
+      <c r="AF24" s="193"/>
+      <c r="AG24" s="194"/>
+      <c r="AH24" s="194"/>
+      <c r="AI24" s="195"/>
+    </row>
+    <row r="25" spans="1:35" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="166"/>
+      <c r="B25" s="196"/>
+      <c r="C25" s="197"/>
+      <c r="D25" s="198"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="200"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="201"/>
+      <c r="I25" s="197"/>
+      <c r="J25" s="193"/>
+      <c r="K25" s="194"/>
+      <c r="L25" s="194"/>
+      <c r="M25" s="194"/>
+      <c r="N25" s="194"/>
+      <c r="O25" s="194"/>
+      <c r="P25" s="195"/>
+      <c r="Q25" s="190"/>
+      <c r="R25" s="191"/>
+      <c r="S25" s="191"/>
+      <c r="T25" s="191"/>
+      <c r="U25" s="191"/>
+      <c r="V25" s="191"/>
+      <c r="W25" s="191"/>
+      <c r="X25" s="191"/>
+      <c r="Y25" s="191"/>
+      <c r="Z25" s="191"/>
+      <c r="AA25" s="191"/>
+      <c r="AB25" s="191"/>
+      <c r="AC25" s="191"/>
+      <c r="AD25" s="191"/>
+      <c r="AE25" s="192"/>
+      <c r="AF25" s="193"/>
+      <c r="AG25" s="194"/>
+      <c r="AH25" s="194"/>
+      <c r="AI25" s="195"/>
+    </row>
+    <row r="26" spans="1:35" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="166"/>
+      <c r="B26" s="196"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="198"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="200"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="201"/>
+      <c r="I26" s="197"/>
+      <c r="J26" s="193"/>
+      <c r="K26" s="194"/>
+      <c r="L26" s="194"/>
+      <c r="M26" s="194"/>
+      <c r="N26" s="194"/>
+      <c r="O26" s="194"/>
+      <c r="P26" s="195"/>
+      <c r="Q26" s="190"/>
+      <c r="R26" s="191"/>
+      <c r="S26" s="191"/>
+      <c r="T26" s="191"/>
+      <c r="U26" s="191"/>
+      <c r="V26" s="191"/>
+      <c r="W26" s="191"/>
+      <c r="X26" s="191"/>
+      <c r="Y26" s="191"/>
+      <c r="Z26" s="191"/>
+      <c r="AA26" s="191"/>
+      <c r="AB26" s="191"/>
+      <c r="AC26" s="191"/>
+      <c r="AD26" s="191"/>
+      <c r="AE26" s="192"/>
+      <c r="AF26" s="193"/>
+      <c r="AG26" s="194"/>
+      <c r="AH26" s="194"/>
+      <c r="AI26" s="195"/>
+    </row>
+    <row r="27" spans="1:35" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="166"/>
+      <c r="B27" s="196"/>
+      <c r="C27" s="197"/>
+      <c r="D27" s="198"/>
+      <c r="E27" s="199"/>
+      <c r="F27" s="200"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="201"/>
+      <c r="I27" s="197"/>
+      <c r="J27" s="193"/>
+      <c r="K27" s="194"/>
+      <c r="L27" s="194"/>
+      <c r="M27" s="194"/>
+      <c r="N27" s="194"/>
+      <c r="O27" s="194"/>
+      <c r="P27" s="195"/>
+      <c r="Q27" s="190"/>
+      <c r="R27" s="191"/>
+      <c r="S27" s="191"/>
+      <c r="T27" s="191"/>
+      <c r="U27" s="191"/>
+      <c r="V27" s="191"/>
+      <c r="W27" s="191"/>
+      <c r="X27" s="191"/>
+      <c r="Y27" s="191"/>
+      <c r="Z27" s="191"/>
+      <c r="AA27" s="191"/>
+      <c r="AB27" s="191"/>
+      <c r="AC27" s="191"/>
+      <c r="AD27" s="191"/>
+      <c r="AE27" s="192"/>
+      <c r="AF27" s="193"/>
+      <c r="AG27" s="194"/>
+      <c r="AH27" s="194"/>
+      <c r="AI27" s="195"/>
+    </row>
+    <row r="28" spans="1:35" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="166"/>
+      <c r="B28" s="196"/>
+      <c r="C28" s="197"/>
+      <c r="D28" s="198"/>
+      <c r="E28" s="199"/>
+      <c r="F28" s="200"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="201"/>
+      <c r="I28" s="197"/>
+      <c r="J28" s="193"/>
+      <c r="K28" s="194"/>
+      <c r="L28" s="194"/>
+      <c r="M28" s="194"/>
+      <c r="N28" s="194"/>
+      <c r="O28" s="194"/>
+      <c r="P28" s="195"/>
+      <c r="Q28" s="190"/>
+      <c r="R28" s="191"/>
+      <c r="S28" s="191"/>
+      <c r="T28" s="191"/>
+      <c r="U28" s="191"/>
+      <c r="V28" s="191"/>
+      <c r="W28" s="191"/>
+      <c r="X28" s="191"/>
+      <c r="Y28" s="191"/>
+      <c r="Z28" s="191"/>
+      <c r="AA28" s="191"/>
+      <c r="AB28" s="191"/>
+      <c r="AC28" s="191"/>
+      <c r="AD28" s="191"/>
+      <c r="AE28" s="192"/>
+      <c r="AF28" s="193"/>
+      <c r="AG28" s="194"/>
+      <c r="AH28" s="194"/>
+      <c r="AI28" s="195"/>
+    </row>
+    <row r="29" spans="1:35" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="166"/>
+      <c r="B29" s="196"/>
+      <c r="C29" s="197"/>
+      <c r="D29" s="198"/>
+      <c r="E29" s="199"/>
+      <c r="F29" s="200"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="197"/>
+      <c r="J29" s="193"/>
+      <c r="K29" s="194"/>
+      <c r="L29" s="194"/>
+      <c r="M29" s="194"/>
+      <c r="N29" s="194"/>
+      <c r="O29" s="194"/>
+      <c r="P29" s="195"/>
+      <c r="Q29" s="190"/>
+      <c r="R29" s="191"/>
+      <c r="S29" s="191"/>
+      <c r="T29" s="191"/>
+      <c r="U29" s="191"/>
+      <c r="V29" s="191"/>
+      <c r="W29" s="191"/>
+      <c r="X29" s="191"/>
+      <c r="Y29" s="191"/>
+      <c r="Z29" s="191"/>
+      <c r="AA29" s="191"/>
+      <c r="AB29" s="191"/>
+      <c r="AC29" s="191"/>
+      <c r="AD29" s="191"/>
+      <c r="AE29" s="192"/>
+      <c r="AF29" s="193"/>
+      <c r="AG29" s="194"/>
+      <c r="AH29" s="194"/>
+      <c r="AI29" s="195"/>
+    </row>
+    <row r="30" spans="1:35" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="166"/>
+      <c r="B30" s="196"/>
+      <c r="C30" s="197"/>
+      <c r="D30" s="198"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="200"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="201"/>
+      <c r="I30" s="197"/>
+      <c r="J30" s="193"/>
+      <c r="K30" s="194"/>
+      <c r="L30" s="194"/>
+      <c r="M30" s="194"/>
+      <c r="N30" s="194"/>
+      <c r="O30" s="194"/>
+      <c r="P30" s="195"/>
+      <c r="Q30" s="190"/>
+      <c r="R30" s="191"/>
+      <c r="S30" s="191"/>
+      <c r="T30" s="191"/>
+      <c r="U30" s="191"/>
+      <c r="V30" s="191"/>
+      <c r="W30" s="191"/>
+      <c r="X30" s="191"/>
+      <c r="Y30" s="191"/>
+      <c r="Z30" s="191"/>
+      <c r="AA30" s="191"/>
+      <c r="AB30" s="191"/>
+      <c r="AC30" s="191"/>
+      <c r="AD30" s="191"/>
+      <c r="AE30" s="192"/>
+      <c r="AF30" s="193"/>
+      <c r="AG30" s="194"/>
+      <c r="AH30" s="194"/>
+      <c r="AI30" s="195"/>
+    </row>
+    <row r="31" spans="1:35" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="166"/>
+      <c r="B31" s="196"/>
+      <c r="C31" s="197"/>
+      <c r="D31" s="198"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="200"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="201"/>
+      <c r="I31" s="197"/>
+      <c r="J31" s="193"/>
+      <c r="K31" s="194"/>
+      <c r="L31" s="194"/>
+      <c r="M31" s="194"/>
+      <c r="N31" s="194"/>
+      <c r="O31" s="194"/>
+      <c r="P31" s="195"/>
+      <c r="Q31" s="190"/>
+      <c r="R31" s="191"/>
+      <c r="S31" s="191"/>
+      <c r="T31" s="191"/>
+      <c r="U31" s="191"/>
+      <c r="V31" s="191"/>
+      <c r="W31" s="191"/>
+      <c r="X31" s="191"/>
+      <c r="Y31" s="191"/>
+      <c r="Z31" s="191"/>
+      <c r="AA31" s="191"/>
+      <c r="AB31" s="191"/>
+      <c r="AC31" s="191"/>
+      <c r="AD31" s="191"/>
+      <c r="AE31" s="192"/>
+      <c r="AF31" s="193"/>
+      <c r="AG31" s="194"/>
+      <c r="AH31" s="194"/>
+      <c r="AI31" s="195"/>
+    </row>
+    <row r="32" spans="1:35" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="166"/>
+      <c r="B32" s="196"/>
+      <c r="C32" s="197"/>
+      <c r="D32" s="198"/>
+      <c r="E32" s="199"/>
+      <c r="F32" s="200"/>
+      <c r="G32" s="196"/>
+      <c r="H32" s="201"/>
+      <c r="I32" s="197"/>
+      <c r="J32" s="193"/>
+      <c r="K32" s="194"/>
+      <c r="L32" s="194"/>
+      <c r="M32" s="194"/>
+      <c r="N32" s="194"/>
+      <c r="O32" s="194"/>
+      <c r="P32" s="195"/>
+      <c r="Q32" s="190"/>
+      <c r="R32" s="191"/>
+      <c r="S32" s="191"/>
+      <c r="T32" s="191"/>
+      <c r="U32" s="191"/>
+      <c r="V32" s="191"/>
+      <c r="W32" s="191"/>
+      <c r="X32" s="191"/>
+      <c r="Y32" s="191"/>
+      <c r="Z32" s="191"/>
+      <c r="AA32" s="191"/>
+      <c r="AB32" s="191"/>
+      <c r="AC32" s="191"/>
+      <c r="AD32" s="191"/>
+      <c r="AE32" s="192"/>
+      <c r="AF32" s="193"/>
+      <c r="AG32" s="194"/>
+      <c r="AH32" s="194"/>
+      <c r="AI32" s="195"/>
+    </row>
+    <row r="33" spans="1:35" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="166"/>
+      <c r="B33" s="196"/>
+      <c r="C33" s="197"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="199"/>
+      <c r="F33" s="200"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="201"/>
+      <c r="I33" s="197"/>
+      <c r="J33" s="193"/>
+      <c r="K33" s="194"/>
+      <c r="L33" s="194"/>
+      <c r="M33" s="194"/>
+      <c r="N33" s="194"/>
+      <c r="O33" s="194"/>
+      <c r="P33" s="195"/>
+      <c r="Q33" s="190"/>
+      <c r="R33" s="191"/>
+      <c r="S33" s="191"/>
+      <c r="T33" s="191"/>
+      <c r="U33" s="191"/>
+      <c r="V33" s="191"/>
+      <c r="W33" s="191"/>
+      <c r="X33" s="191"/>
+      <c r="Y33" s="191"/>
+      <c r="Z33" s="191"/>
+      <c r="AA33" s="191"/>
+      <c r="AB33" s="191"/>
+      <c r="AC33" s="191"/>
+      <c r="AD33" s="191"/>
+      <c r="AE33" s="192"/>
+      <c r="AF33" s="193"/>
+      <c r="AG33" s="194"/>
+      <c r="AH33" s="194"/>
+      <c r="AI33" s="195"/>
+    </row>
+    <row r="34" spans="1:35" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="38"/>
       <c r="B34" s="38"/>
       <c r="C34" s="38"/>
@@ -5511,158 +5689,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A1" s="169" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="220" t="str">
+      <c r="A1" s="176" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="228" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="172" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="226" t="str">
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="230"/>
+      <c r="O1" s="179" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="235" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Function Design Document (Screen)
 WA10101/Login</v>
       </c>
-      <c r="T1" s="235"/>
-      <c r="U1" s="235"/>
-      <c r="V1" s="235"/>
-      <c r="W1" s="235"/>
-      <c r="X1" s="235"/>
-      <c r="Y1" s="235"/>
-      <c r="Z1" s="236"/>
-      <c r="AA1" s="169" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="208" t="str">
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="245"/>
+      <c r="AA1" s="176" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="216" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="209"/>
-      <c r="AE1" s="209"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="243">
+      <c r="AD1" s="217"/>
+      <c r="AE1" s="217"/>
+      <c r="AF1" s="218"/>
+      <c r="AG1" s="252">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="244"/>
-      <c r="AI1" s="245"/>
+      <c r="AH1" s="253"/>
+      <c r="AI1" s="254"/>
     </row>
     <row r="2" spans="1:35" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A2" s="169" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="220" t="str">
+      <c r="A2" s="176" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="228" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="237"/>
-      <c r="T2" s="238"/>
-      <c r="U2" s="238"/>
-      <c r="V2" s="238"/>
-      <c r="W2" s="238"/>
-      <c r="X2" s="238"/>
-      <c r="Y2" s="238"/>
-      <c r="Z2" s="239"/>
-      <c r="AA2" s="169" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="208" t="str">
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="247"/>
+      <c r="V2" s="247"/>
+      <c r="W2" s="247"/>
+      <c r="X2" s="247"/>
+      <c r="Y2" s="247"/>
+      <c r="Z2" s="248"/>
+      <c r="AA2" s="176" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="216" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="209"/>
-      <c r="AE2" s="209"/>
-      <c r="AF2" s="210"/>
-      <c r="AG2" s="243" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="217"/>
+      <c r="AE2" s="217"/>
+      <c r="AF2" s="218"/>
+      <c r="AG2" s="252">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="244"/>
-      <c r="AI2" s="245"/>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="253"/>
+      <c r="AI2" s="254"/>
     </row>
     <row r="3" spans="1:35" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A3" s="169" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="220" t="str">
+      <c r="A3" s="176" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="228" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="222"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="240"/>
-      <c r="T3" s="241"/>
-      <c r="U3" s="241"/>
-      <c r="V3" s="241"/>
-      <c r="W3" s="241"/>
-      <c r="X3" s="241"/>
-      <c r="Y3" s="241"/>
-      <c r="Z3" s="242"/>
-      <c r="AA3" s="169"/>
-      <c r="AB3" s="171"/>
-      <c r="AC3" s="208" t="str">
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="230"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="250"/>
+      <c r="U3" s="250"/>
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="X3" s="250"/>
+      <c r="Y3" s="250"/>
+      <c r="Z3" s="251"/>
+      <c r="AA3" s="176"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="216" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="209"/>
-      <c r="AE3" s="209"/>
-      <c r="AF3" s="210"/>
-      <c r="AG3" s="243" t="str">
+      <c r="AD3" s="217"/>
+      <c r="AE3" s="217"/>
+      <c r="AF3" s="218"/>
+      <c r="AG3" s="252" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="244"/>
-      <c r="AI3" s="245"/>
+      <c r="AH3" s="253"/>
+      <c r="AI3" s="254"/>
     </row>
     <row r="4" spans="1:35" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
@@ -5719,7 +5897,7 @@
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="25" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
@@ -5780,7 +5958,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
       <c r="B7" s="27" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
@@ -5820,7 +5998,7 @@
       <c r="A8" s="26"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -5895,7 +6073,7 @@
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26"/>
       <c r="B10" s="37" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="26"/>
@@ -6586,255 +6764,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="169" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="220" t="str">
+      <c r="A1" s="176" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="228" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="172" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="226" t="str">
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="230"/>
+      <c r="O1" s="179" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="235" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Function Design Document (Screen)
 WA10101/Login</v>
       </c>
-      <c r="T1" s="235"/>
-      <c r="U1" s="235"/>
-      <c r="V1" s="235"/>
-      <c r="W1" s="235"/>
-      <c r="X1" s="235"/>
-      <c r="Y1" s="235"/>
-      <c r="Z1" s="236"/>
-      <c r="AA1" s="169" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="208" t="str">
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="245"/>
+      <c r="AA1" s="176" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="216" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="209"/>
-      <c r="AE1" s="209"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="243">
+      <c r="AD1" s="217"/>
+      <c r="AE1" s="217"/>
+      <c r="AF1" s="218"/>
+      <c r="AG1" s="252">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="244"/>
-      <c r="AI1" s="245"/>
+      <c r="AH1" s="253"/>
+      <c r="AI1" s="254"/>
     </row>
     <row r="2" spans="1:35" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="169" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="220" t="str">
+      <c r="A2" s="176" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="228" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="237"/>
-      <c r="T2" s="238"/>
-      <c r="U2" s="238"/>
-      <c r="V2" s="238"/>
-      <c r="W2" s="238"/>
-      <c r="X2" s="238"/>
-      <c r="Y2" s="238"/>
-      <c r="Z2" s="239"/>
-      <c r="AA2" s="169" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="208" t="str">
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="247"/>
+      <c r="V2" s="247"/>
+      <c r="W2" s="247"/>
+      <c r="X2" s="247"/>
+      <c r="Y2" s="247"/>
+      <c r="Z2" s="248"/>
+      <c r="AA2" s="176" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="216" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="209"/>
-      <c r="AE2" s="209"/>
-      <c r="AF2" s="210"/>
-      <c r="AG2" s="243" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="217"/>
+      <c r="AE2" s="217"/>
+      <c r="AF2" s="218"/>
+      <c r="AG2" s="252">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="244"/>
-      <c r="AI2" s="245"/>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="253"/>
+      <c r="AI2" s="254"/>
     </row>
     <row r="3" spans="1:35" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="169" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="220" t="str">
+      <c r="A3" s="176" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="228" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="222"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="240"/>
-      <c r="T3" s="241"/>
-      <c r="U3" s="241"/>
-      <c r="V3" s="241"/>
-      <c r="W3" s="241"/>
-      <c r="X3" s="241"/>
-      <c r="Y3" s="241"/>
-      <c r="Z3" s="242"/>
-      <c r="AA3" s="169"/>
-      <c r="AB3" s="171"/>
-      <c r="AC3" s="208" t="str">
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="230"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="250"/>
+      <c r="U3" s="250"/>
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="X3" s="250"/>
+      <c r="Y3" s="250"/>
+      <c r="Z3" s="251"/>
+      <c r="AA3" s="176"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="216" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="209"/>
-      <c r="AE3" s="209"/>
-      <c r="AF3" s="210"/>
-      <c r="AG3" s="243" t="str">
+      <c r="AD3" s="217"/>
+      <c r="AE3" s="217"/>
+      <c r="AF3" s="218"/>
+      <c r="AG3" s="252" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="244"/>
-      <c r="AI3" s="245"/>
+      <c r="AH3" s="253"/>
+      <c r="AI3" s="254"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="42" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="42" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="65"/>
-      <c r="C8" s="256" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="257"/>
-      <c r="E8" s="257"/>
-      <c r="F8" s="258"/>
-      <c r="G8" s="186" t="s">
+      <c r="C8" s="265" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="267"/>
+      <c r="G8" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
-      <c r="J8" s="187"/>
-      <c r="K8" s="187"/>
-      <c r="L8" s="257"/>
-      <c r="M8" s="257"/>
-      <c r="N8" s="257"/>
-      <c r="O8" s="257"/>
-      <c r="P8" s="257"/>
-      <c r="Q8" s="257"/>
-      <c r="R8" s="257"/>
-      <c r="S8" s="257"/>
-      <c r="T8" s="257"/>
-      <c r="U8" s="257"/>
-      <c r="V8" s="257"/>
-      <c r="W8" s="257"/>
-      <c r="X8" s="257"/>
-      <c r="Y8" s="257"/>
-      <c r="Z8" s="257"/>
-      <c r="AA8" s="257"/>
-      <c r="AB8" s="257"/>
-      <c r="AC8" s="257"/>
-      <c r="AD8" s="257"/>
-      <c r="AE8" s="257"/>
-      <c r="AF8" s="257"/>
-      <c r="AG8" s="258"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="266"/>
+      <c r="M8" s="266"/>
+      <c r="N8" s="266"/>
+      <c r="O8" s="266"/>
+      <c r="P8" s="266"/>
+      <c r="Q8" s="266"/>
+      <c r="R8" s="266"/>
+      <c r="S8" s="266"/>
+      <c r="T8" s="266"/>
+      <c r="U8" s="266"/>
+      <c r="V8" s="266"/>
+      <c r="W8" s="266"/>
+      <c r="X8" s="266"/>
+      <c r="Y8" s="266"/>
+      <c r="Z8" s="266"/>
+      <c r="AA8" s="266"/>
+      <c r="AB8" s="266"/>
+      <c r="AC8" s="266"/>
+      <c r="AD8" s="266"/>
+      <c r="AE8" s="266"/>
+      <c r="AF8" s="266"/>
+      <c r="AG8" s="267"/>
     </row>
     <row r="9" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="65"/>
-      <c r="C9" s="259" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="260"/>
-      <c r="E9" s="260"/>
-      <c r="F9" s="261"/>
-      <c r="G9" s="186" t="s">
+      <c r="C9" s="268" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="269"/>
+      <c r="E9" s="269"/>
+      <c r="F9" s="270"/>
+      <c r="G9" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="257"/>
-      <c r="I9" s="257"/>
-      <c r="J9" s="257"/>
-      <c r="K9" s="257"/>
-      <c r="L9" s="257"/>
-      <c r="M9" s="257"/>
-      <c r="N9" s="257"/>
-      <c r="O9" s="257"/>
-      <c r="P9" s="257"/>
-      <c r="Q9" s="257"/>
-      <c r="R9" s="257"/>
-      <c r="S9" s="257"/>
-      <c r="T9" s="257"/>
-      <c r="U9" s="257"/>
-      <c r="V9" s="257"/>
-      <c r="W9" s="257"/>
-      <c r="X9" s="257"/>
-      <c r="Y9" s="257"/>
-      <c r="Z9" s="257"/>
-      <c r="AA9" s="257"/>
-      <c r="AB9" s="257"/>
-      <c r="AC9" s="257"/>
-      <c r="AD9" s="257"/>
-      <c r="AE9" s="257"/>
-      <c r="AF9" s="257"/>
-      <c r="AG9" s="258"/>
+      <c r="H9" s="266"/>
+      <c r="I9" s="266"/>
+      <c r="J9" s="266"/>
+      <c r="K9" s="266"/>
+      <c r="L9" s="266"/>
+      <c r="M9" s="266"/>
+      <c r="N9" s="266"/>
+      <c r="O9" s="266"/>
+      <c r="P9" s="266"/>
+      <c r="Q9" s="266"/>
+      <c r="R9" s="266"/>
+      <c r="S9" s="266"/>
+      <c r="T9" s="266"/>
+      <c r="U9" s="266"/>
+      <c r="V9" s="266"/>
+      <c r="W9" s="266"/>
+      <c r="X9" s="266"/>
+      <c r="Y9" s="266"/>
+      <c r="Z9" s="266"/>
+      <c r="AA9" s="266"/>
+      <c r="AB9" s="266"/>
+      <c r="AC9" s="266"/>
+      <c r="AD9" s="266"/>
+      <c r="AE9" s="266"/>
+      <c r="AF9" s="266"/>
+      <c r="AG9" s="267"/>
     </row>
     <row r="10" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="65"/>
-      <c r="C10" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="248"/>
-      <c r="E10" s="248"/>
-      <c r="F10" s="249"/>
+      <c r="C10" s="256" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="257"/>
+      <c r="E10" s="257"/>
+      <c r="F10" s="258"/>
       <c r="G10" s="66" t="s">
         <v>11</v>
       </c>
@@ -6867,11 +7045,13 @@
     </row>
     <row r="11" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="65"/>
-      <c r="C11" s="250"/>
-      <c r="D11" s="251"/>
-      <c r="E11" s="251"/>
-      <c r="F11" s="252"/>
-      <c r="G11" s="69"/>
+      <c r="C11" s="259"/>
+      <c r="D11" s="260"/>
+      <c r="E11" s="260"/>
+      <c r="F11" s="261"/>
+      <c r="G11" s="69" t="s">
+        <v>178</v>
+      </c>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
@@ -6901,10 +7081,10 @@
     </row>
     <row r="12" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="65"/>
-      <c r="C12" s="250"/>
-      <c r="D12" s="251"/>
-      <c r="E12" s="251"/>
-      <c r="F12" s="252"/>
+      <c r="C12" s="259"/>
+      <c r="D12" s="260"/>
+      <c r="E12" s="260"/>
+      <c r="F12" s="261"/>
       <c r="G12" s="71"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
@@ -6935,10 +7115,10 @@
     </row>
     <row r="13" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="65"/>
-      <c r="C13" s="253"/>
-      <c r="D13" s="254"/>
-      <c r="E13" s="254"/>
-      <c r="F13" s="255"/>
+      <c r="C13" s="262"/>
+      <c r="D13" s="263"/>
+      <c r="E13" s="263"/>
+      <c r="F13" s="264"/>
       <c r="G13" s="72"/>
       <c r="H13" s="73"/>
       <c r="I13" s="73"/>
@@ -6969,12 +7149,12 @@
     </row>
     <row r="14" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="65"/>
-      <c r="C14" s="246" t="s">
+      <c r="C14" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="246"/>
-      <c r="E14" s="246"/>
-      <c r="F14" s="246"/>
+      <c r="D14" s="255"/>
+      <c r="E14" s="255"/>
+      <c r="F14" s="255"/>
       <c r="G14" s="75" t="s">
         <v>13</v>
       </c>
@@ -7084,7 +7264,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BG158"/>
+  <dimension ref="A1:BG177"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -7098,166 +7278,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="220" t="str">
+      <c r="A1" s="176" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="228" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="172" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="226" t="str">
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="230"/>
+      <c r="O1" s="179" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="235" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Function Design Document (Screen)
 WA10101/Login</v>
       </c>
-      <c r="T1" s="235"/>
-      <c r="U1" s="235"/>
-      <c r="V1" s="235"/>
-      <c r="W1" s="235"/>
-      <c r="X1" s="235"/>
-      <c r="Y1" s="235"/>
-      <c r="Z1" s="236"/>
-      <c r="AA1" s="169" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="208" t="str">
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="245"/>
+      <c r="AA1" s="176" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="216" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="209"/>
-      <c r="AE1" s="209"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="347">
+      <c r="AD1" s="217"/>
+      <c r="AE1" s="217"/>
+      <c r="AF1" s="218"/>
+      <c r="AG1" s="356">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="348"/>
-      <c r="AI1" s="349"/>
+      <c r="AH1" s="357"/>
+      <c r="AI1" s="358"/>
       <c r="AJ1" s="78"/>
     </row>
     <row r="2" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="169" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="220" t="str">
+      <c r="A2" s="176" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="228" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="237"/>
-      <c r="T2" s="238"/>
-      <c r="U2" s="238"/>
-      <c r="V2" s="238"/>
-      <c r="W2" s="238"/>
-      <c r="X2" s="238"/>
-      <c r="Y2" s="238"/>
-      <c r="Z2" s="239"/>
-      <c r="AA2" s="169" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="208" t="str">
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="247"/>
+      <c r="V2" s="247"/>
+      <c r="W2" s="247"/>
+      <c r="X2" s="247"/>
+      <c r="Y2" s="247"/>
+      <c r="Z2" s="248"/>
+      <c r="AA2" s="176" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="216" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="209"/>
-      <c r="AE2" s="209"/>
-      <c r="AF2" s="210"/>
-      <c r="AG2" s="347" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="217"/>
+      <c r="AE2" s="217"/>
+      <c r="AF2" s="218"/>
+      <c r="AG2" s="356">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="348"/>
-      <c r="AI2" s="349"/>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="357"/>
+      <c r="AI2" s="358"/>
       <c r="AJ2" s="78"/>
     </row>
     <row r="3" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="169" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="220" t="str">
+      <c r="A3" s="176" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="228" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="222"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="240"/>
-      <c r="T3" s="241"/>
-      <c r="U3" s="241"/>
-      <c r="V3" s="241"/>
-      <c r="W3" s="241"/>
-      <c r="X3" s="241"/>
-      <c r="Y3" s="241"/>
-      <c r="Z3" s="242"/>
-      <c r="AA3" s="169"/>
-      <c r="AB3" s="171"/>
-      <c r="AC3" s="208" t="str">
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="230"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="250"/>
+      <c r="U3" s="250"/>
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="X3" s="250"/>
+      <c r="Y3" s="250"/>
+      <c r="Z3" s="251"/>
+      <c r="AA3" s="176"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="216" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="209"/>
-      <c r="AE3" s="209"/>
-      <c r="AF3" s="210"/>
-      <c r="AG3" s="347" t="str">
+      <c r="AD3" s="217"/>
+      <c r="AE3" s="217"/>
+      <c r="AF3" s="218"/>
+      <c r="AG3" s="356" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="348"/>
-      <c r="AI3" s="349"/>
+      <c r="AH3" s="357"/>
+      <c r="AI3" s="358"/>
       <c r="AJ3" s="78"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="79" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -7403,39 +7583,39 @@
       <c r="D43" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="350" t="s">
+      <c r="E43" s="359" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="350"/>
-      <c r="G43" s="350"/>
-      <c r="H43" s="350"/>
-      <c r="I43" s="350"/>
-      <c r="J43" s="350"/>
-      <c r="K43" s="350"/>
-      <c r="L43" s="350"/>
-      <c r="M43" s="350"/>
-      <c r="N43" s="350" t="s">
+      <c r="F43" s="359"/>
+      <c r="G43" s="359"/>
+      <c r="H43" s="359"/>
+      <c r="I43" s="359"/>
+      <c r="J43" s="359"/>
+      <c r="K43" s="359"/>
+      <c r="L43" s="359"/>
+      <c r="M43" s="359"/>
+      <c r="N43" s="359" t="s">
         <v>15</v>
       </c>
-      <c r="O43" s="350"/>
-      <c r="P43" s="350"/>
-      <c r="Q43" s="350" t="s">
+      <c r="O43" s="359"/>
+      <c r="P43" s="359"/>
+      <c r="Q43" s="359" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="350"/>
-      <c r="S43" s="350"/>
-      <c r="T43" s="350"/>
-      <c r="U43" s="350"/>
-      <c r="V43" s="350" t="s">
+      <c r="R43" s="359"/>
+      <c r="S43" s="359"/>
+      <c r="T43" s="359"/>
+      <c r="U43" s="359"/>
+      <c r="V43" s="359" t="s">
         <v>17</v>
       </c>
-      <c r="W43" s="350"/>
-      <c r="X43" s="350"/>
-      <c r="Y43" s="350"/>
-      <c r="Z43" s="350"/>
-      <c r="AA43" s="350"/>
-      <c r="AB43" s="350"/>
-      <c r="AC43" s="350"/>
+      <c r="W43" s="359"/>
+      <c r="X43" s="359"/>
+      <c r="Y43" s="359"/>
+      <c r="Z43" s="359"/>
+      <c r="AA43" s="359"/>
+      <c r="AB43" s="359"/>
+      <c r="AC43" s="359"/>
       <c r="AD43" s="80"/>
       <c r="AE43" s="80"/>
       <c r="AF43" s="80"/>
@@ -7446,39 +7626,39 @@
       <c r="D44" s="82">
         <v>1</v>
       </c>
-      <c r="E44" s="351" t="s">
+      <c r="E44" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="F44" s="351"/>
-      <c r="G44" s="351"/>
-      <c r="H44" s="351"/>
-      <c r="I44" s="351"/>
-      <c r="J44" s="351"/>
-      <c r="K44" s="351"/>
-      <c r="L44" s="351"/>
-      <c r="M44" s="351"/>
-      <c r="N44" s="351" t="s">
+      <c r="F44" s="360"/>
+      <c r="G44" s="360"/>
+      <c r="H44" s="360"/>
+      <c r="I44" s="360"/>
+      <c r="J44" s="360"/>
+      <c r="K44" s="360"/>
+      <c r="L44" s="360"/>
+      <c r="M44" s="360"/>
+      <c r="N44" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="O44" s="351"/>
-      <c r="P44" s="351"/>
-      <c r="Q44" s="313" t="s">
+      <c r="O44" s="360"/>
+      <c r="P44" s="360"/>
+      <c r="Q44" s="322" t="s">
         <v>1</v>
       </c>
-      <c r="R44" s="313"/>
-      <c r="S44" s="313"/>
-      <c r="T44" s="313"/>
-      <c r="U44" s="313"/>
-      <c r="V44" s="313" t="s">
+      <c r="R44" s="322"/>
+      <c r="S44" s="322"/>
+      <c r="T44" s="322"/>
+      <c r="U44" s="322"/>
+      <c r="V44" s="322" t="s">
         <v>1</v>
       </c>
-      <c r="W44" s="313"/>
-      <c r="X44" s="313"/>
-      <c r="Y44" s="313"/>
-      <c r="Z44" s="313"/>
-      <c r="AA44" s="313"/>
-      <c r="AB44" s="313"/>
-      <c r="AC44" s="313"/>
+      <c r="W44" s="322"/>
+      <c r="X44" s="322"/>
+      <c r="Y44" s="322"/>
+      <c r="Z44" s="322"/>
+      <c r="AA44" s="322"/>
+      <c r="AB44" s="322"/>
+      <c r="AC44" s="322"/>
       <c r="AM44" s="24"/>
     </row>
     <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7555,42 +7735,42 @@
       <c r="AZ48" s="33"/>
     </row>
     <row r="49" spans="3:53" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="267" t="s">
+      <c r="D49" s="288" t="s">
         <v>0</v>
       </c>
-      <c r="E49" s="343" t="s">
+      <c r="E49" s="352" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="344"/>
-      <c r="G49" s="344"/>
-      <c r="H49" s="344"/>
-      <c r="I49" s="344"/>
-      <c r="J49" s="344"/>
-      <c r="K49" s="344"/>
-      <c r="L49" s="344"/>
-      <c r="M49" s="344"/>
-      <c r="N49" s="344"/>
-      <c r="O49" s="344"/>
-      <c r="P49" s="344"/>
-      <c r="Q49" s="344"/>
-      <c r="R49" s="344"/>
-      <c r="S49" s="344"/>
-      <c r="T49" s="344"/>
-      <c r="U49" s="344"/>
-      <c r="V49" s="344"/>
-      <c r="W49" s="344"/>
-      <c r="X49" s="344"/>
-      <c r="Y49" s="344"/>
-      <c r="Z49" s="344"/>
-      <c r="AA49" s="344"/>
-      <c r="AB49" s="344"/>
-      <c r="AC49" s="345"/>
-      <c r="AD49" s="247" t="s">
+      <c r="F49" s="353"/>
+      <c r="G49" s="353"/>
+      <c r="H49" s="353"/>
+      <c r="I49" s="353"/>
+      <c r="J49" s="353"/>
+      <c r="K49" s="353"/>
+      <c r="L49" s="353"/>
+      <c r="M49" s="353"/>
+      <c r="N49" s="353"/>
+      <c r="O49" s="353"/>
+      <c r="P49" s="353"/>
+      <c r="Q49" s="353"/>
+      <c r="R49" s="353"/>
+      <c r="S49" s="353"/>
+      <c r="T49" s="353"/>
+      <c r="U49" s="353"/>
+      <c r="V49" s="353"/>
+      <c r="W49" s="353"/>
+      <c r="X49" s="353"/>
+      <c r="Y49" s="353"/>
+      <c r="Z49" s="353"/>
+      <c r="AA49" s="353"/>
+      <c r="AB49" s="353"/>
+      <c r="AC49" s="354"/>
+      <c r="AD49" s="256" t="s">
         <v>19</v>
       </c>
-      <c r="AE49" s="248"/>
-      <c r="AF49" s="248"/>
-      <c r="AG49" s="249"/>
+      <c r="AE49" s="257"/>
+      <c r="AF49" s="257"/>
+      <c r="AG49" s="258"/>
       <c r="AH49" s="33"/>
       <c r="AI49" s="33"/>
       <c r="AJ49" s="33"/>
@@ -7602,48 +7782,48 @@
       <c r="AN49" s="33"/>
     </row>
     <row r="50" spans="3:53" s="42" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="314"/>
-      <c r="E50" s="247" t="s">
+      <c r="D50" s="323"/>
+      <c r="E50" s="256" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="248"/>
-      <c r="G50" s="248"/>
-      <c r="H50" s="249"/>
-      <c r="I50" s="315" t="s">
+      <c r="F50" s="257"/>
+      <c r="G50" s="257"/>
+      <c r="H50" s="258"/>
+      <c r="I50" s="324" t="s">
         <v>22</v>
       </c>
-      <c r="J50" s="316"/>
-      <c r="K50" s="316"/>
-      <c r="L50" s="317"/>
-      <c r="M50" s="315" t="s">
+      <c r="J50" s="325"/>
+      <c r="K50" s="325"/>
+      <c r="L50" s="326"/>
+      <c r="M50" s="324" t="s">
         <v>23</v>
       </c>
-      <c r="N50" s="316"/>
-      <c r="O50" s="316"/>
-      <c r="P50" s="316"/>
-      <c r="Q50" s="316"/>
-      <c r="R50" s="316"/>
-      <c r="S50" s="316"/>
-      <c r="T50" s="317"/>
-      <c r="U50" s="247" t="s">
+      <c r="N50" s="325"/>
+      <c r="O50" s="325"/>
+      <c r="P50" s="325"/>
+      <c r="Q50" s="325"/>
+      <c r="R50" s="325"/>
+      <c r="S50" s="325"/>
+      <c r="T50" s="326"/>
+      <c r="U50" s="256" t="s">
         <v>24</v>
       </c>
-      <c r="V50" s="248"/>
-      <c r="W50" s="248"/>
-      <c r="X50" s="248"/>
-      <c r="Y50" s="249"/>
-      <c r="Z50" s="247" t="s">
+      <c r="V50" s="257"/>
+      <c r="W50" s="257"/>
+      <c r="X50" s="257"/>
+      <c r="Y50" s="258"/>
+      <c r="Z50" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="AA50" s="248"/>
-      <c r="AB50" s="249"/>
-      <c r="AC50" s="356" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD50" s="250"/>
-      <c r="AE50" s="251"/>
-      <c r="AF50" s="251"/>
-      <c r="AG50" s="252"/>
+      <c r="AA50" s="257"/>
+      <c r="AB50" s="258"/>
+      <c r="AC50" s="365" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD50" s="259"/>
+      <c r="AE50" s="260"/>
+      <c r="AF50" s="260"/>
+      <c r="AG50" s="261"/>
       <c r="AH50" s="33"/>
       <c r="AI50" s="33"/>
       <c r="AJ50" s="33"/>
@@ -7659,36 +7839,36 @@
       <c r="AT50" s="33"/>
     </row>
     <row r="51" spans="3:53" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="268"/>
-      <c r="E51" s="253"/>
-      <c r="F51" s="254"/>
-      <c r="G51" s="254"/>
-      <c r="H51" s="255"/>
-      <c r="I51" s="318"/>
-      <c r="J51" s="319"/>
-      <c r="K51" s="319"/>
-      <c r="L51" s="320"/>
-      <c r="M51" s="318"/>
-      <c r="N51" s="319"/>
-      <c r="O51" s="319"/>
-      <c r="P51" s="319"/>
-      <c r="Q51" s="319"/>
-      <c r="R51" s="319"/>
-      <c r="S51" s="319"/>
-      <c r="T51" s="320"/>
-      <c r="U51" s="253"/>
-      <c r="V51" s="254"/>
-      <c r="W51" s="254"/>
-      <c r="X51" s="254"/>
-      <c r="Y51" s="255"/>
-      <c r="Z51" s="253"/>
-      <c r="AA51" s="254"/>
-      <c r="AB51" s="255"/>
-      <c r="AC51" s="357"/>
-      <c r="AD51" s="253"/>
-      <c r="AE51" s="254"/>
-      <c r="AF51" s="254"/>
-      <c r="AG51" s="255"/>
+      <c r="D51" s="289"/>
+      <c r="E51" s="262"/>
+      <c r="F51" s="263"/>
+      <c r="G51" s="263"/>
+      <c r="H51" s="264"/>
+      <c r="I51" s="327"/>
+      <c r="J51" s="328"/>
+      <c r="K51" s="328"/>
+      <c r="L51" s="329"/>
+      <c r="M51" s="327"/>
+      <c r="N51" s="328"/>
+      <c r="O51" s="328"/>
+      <c r="P51" s="328"/>
+      <c r="Q51" s="328"/>
+      <c r="R51" s="328"/>
+      <c r="S51" s="328"/>
+      <c r="T51" s="329"/>
+      <c r="U51" s="262"/>
+      <c r="V51" s="263"/>
+      <c r="W51" s="263"/>
+      <c r="X51" s="263"/>
+      <c r="Y51" s="264"/>
+      <c r="Z51" s="262"/>
+      <c r="AA51" s="263"/>
+      <c r="AB51" s="264"/>
+      <c r="AC51" s="366"/>
+      <c r="AD51" s="262"/>
+      <c r="AE51" s="263"/>
+      <c r="AF51" s="263"/>
+      <c r="AG51" s="264"/>
       <c r="AH51" s="33"/>
       <c r="AI51" s="33"/>
       <c r="AJ51" s="33"/>
@@ -7709,49 +7889,49 @@
       <c r="D52" s="88">
         <v>1</v>
       </c>
-      <c r="E52" s="186" t="s">
-        <v>138</v>
-      </c>
-      <c r="F52" s="187"/>
-      <c r="G52" s="187"/>
-      <c r="H52" s="188"/>
-      <c r="I52" s="346" t="s">
+      <c r="E52" s="193" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="194"/>
+      <c r="G52" s="194"/>
+      <c r="H52" s="195"/>
+      <c r="I52" s="355" t="s">
         <v>28</v>
       </c>
-      <c r="J52" s="346"/>
-      <c r="K52" s="346"/>
-      <c r="L52" s="346"/>
-      <c r="M52" s="358" t="s">
+      <c r="J52" s="355"/>
+      <c r="K52" s="355"/>
+      <c r="L52" s="355"/>
+      <c r="M52" s="367" t="s">
         <v>1</v>
       </c>
-      <c r="N52" s="358"/>
-      <c r="O52" s="358"/>
-      <c r="P52" s="358"/>
-      <c r="Q52" s="358"/>
-      <c r="R52" s="358"/>
-      <c r="S52" s="358"/>
-      <c r="T52" s="358"/>
-      <c r="U52" s="336" t="s">
+      <c r="N52" s="367"/>
+      <c r="O52" s="367"/>
+      <c r="P52" s="367"/>
+      <c r="Q52" s="367"/>
+      <c r="R52" s="367"/>
+      <c r="S52" s="367"/>
+      <c r="T52" s="367"/>
+      <c r="U52" s="345" t="s">
         <v>1</v>
       </c>
-      <c r="V52" s="336"/>
-      <c r="W52" s="336"/>
-      <c r="X52" s="336"/>
-      <c r="Y52" s="336"/>
-      <c r="Z52" s="336" t="s">
+      <c r="V52" s="345"/>
+      <c r="W52" s="345"/>
+      <c r="X52" s="345"/>
+      <c r="Y52" s="345"/>
+      <c r="Z52" s="345" t="s">
         <v>1</v>
       </c>
-      <c r="AA52" s="336"/>
-      <c r="AB52" s="336"/>
+      <c r="AA52" s="345"/>
+      <c r="AB52" s="345"/>
       <c r="AC52" s="89" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD52" s="183" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD52" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="AE52" s="184"/>
-      <c r="AF52" s="184"/>
-      <c r="AG52" s="185"/>
+      <c r="AE52" s="191"/>
+      <c r="AF52" s="191"/>
+      <c r="AG52" s="192"/>
       <c r="AH52" s="33"/>
       <c r="AI52" s="33"/>
       <c r="AJ52" s="33"/>
@@ -7772,49 +7952,49 @@
       <c r="D53" s="88">
         <v>2</v>
       </c>
-      <c r="E53" s="186" t="s">
+      <c r="E53" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="187"/>
-      <c r="G53" s="187"/>
-      <c r="H53" s="188"/>
-      <c r="I53" s="346" t="s">
+      <c r="F53" s="194"/>
+      <c r="G53" s="194"/>
+      <c r="H53" s="195"/>
+      <c r="I53" s="355" t="s">
         <v>31</v>
       </c>
-      <c r="J53" s="346"/>
-      <c r="K53" s="346"/>
-      <c r="L53" s="346"/>
-      <c r="M53" s="290" t="s">
+      <c r="J53" s="355"/>
+      <c r="K53" s="355"/>
+      <c r="L53" s="355"/>
+      <c r="M53" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="N53" s="291"/>
-      <c r="O53" s="291"/>
-      <c r="P53" s="291"/>
-      <c r="Q53" s="291"/>
-      <c r="R53" s="291"/>
-      <c r="S53" s="291"/>
-      <c r="T53" s="292"/>
-      <c r="U53" s="183" t="s">
+      <c r="N53" s="303"/>
+      <c r="O53" s="303"/>
+      <c r="P53" s="303"/>
+      <c r="Q53" s="303"/>
+      <c r="R53" s="303"/>
+      <c r="S53" s="303"/>
+      <c r="T53" s="304"/>
+      <c r="U53" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="V53" s="184"/>
-      <c r="W53" s="184"/>
-      <c r="X53" s="184"/>
-      <c r="Y53" s="185"/>
-      <c r="Z53" s="336" t="s">
+      <c r="V53" s="191"/>
+      <c r="W53" s="191"/>
+      <c r="X53" s="191"/>
+      <c r="Y53" s="192"/>
+      <c r="Z53" s="345" t="s">
         <v>1</v>
       </c>
-      <c r="AA53" s="336"/>
-      <c r="AB53" s="336"/>
+      <c r="AA53" s="345"/>
+      <c r="AB53" s="345"/>
       <c r="AC53" s="89" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD53" s="183" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE53" s="184"/>
-      <c r="AF53" s="184"/>
-      <c r="AG53" s="185"/>
+        <v>127</v>
+      </c>
+      <c r="AD53" s="190" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE53" s="191"/>
+      <c r="AF53" s="191"/>
+      <c r="AG53" s="192"/>
       <c r="AH53" s="33"/>
       <c r="AI53" s="33"/>
       <c r="AJ53" s="33"/>
@@ -7939,24 +8119,24 @@
       <c r="AW57" s="26"/>
     </row>
     <row r="58" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D58" s="321" t="s">
+      <c r="D58" s="330" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="323" t="s">
+      <c r="E58" s="332" t="s">
         <v>34</v>
       </c>
-      <c r="F58" s="324"/>
-      <c r="G58" s="324"/>
-      <c r="H58" s="324"/>
-      <c r="I58" s="324"/>
-      <c r="J58" s="325"/>
-      <c r="K58" s="323" t="s">
+      <c r="F58" s="333"/>
+      <c r="G58" s="333"/>
+      <c r="H58" s="333"/>
+      <c r="I58" s="333"/>
+      <c r="J58" s="334"/>
+      <c r="K58" s="332" t="s">
         <v>35</v>
       </c>
-      <c r="L58" s="324"/>
-      <c r="M58" s="324"/>
-      <c r="N58" s="325"/>
-      <c r="O58" s="352" t="s">
+      <c r="L58" s="333"/>
+      <c r="M58" s="333"/>
+      <c r="N58" s="334"/>
+      <c r="O58" s="361" t="s">
         <v>36</v>
       </c>
       <c r="P58" s="94" t="s">
@@ -7967,21 +8147,21 @@
       <c r="S58" s="95"/>
       <c r="T58" s="95"/>
       <c r="U58" s="95"/>
-      <c r="V58" s="323" t="s">
+      <c r="V58" s="332" t="s">
         <v>17</v>
       </c>
-      <c r="W58" s="324"/>
-      <c r="X58" s="324"/>
-      <c r="Y58" s="324"/>
-      <c r="Z58" s="324"/>
-      <c r="AA58" s="324"/>
-      <c r="AB58" s="324"/>
-      <c r="AC58" s="324"/>
-      <c r="AD58" s="324"/>
-      <c r="AE58" s="324"/>
-      <c r="AF58" s="324"/>
-      <c r="AG58" s="324"/>
-      <c r="AH58" s="325"/>
+      <c r="W58" s="333"/>
+      <c r="X58" s="333"/>
+      <c r="Y58" s="333"/>
+      <c r="Z58" s="333"/>
+      <c r="AA58" s="333"/>
+      <c r="AB58" s="333"/>
+      <c r="AC58" s="333"/>
+      <c r="AD58" s="333"/>
+      <c r="AE58" s="333"/>
+      <c r="AF58" s="333"/>
+      <c r="AG58" s="333"/>
+      <c r="AH58" s="334"/>
       <c r="AK58" s="26"/>
       <c r="AL58" s="26"/>
       <c r="AM58" s="26"/>
@@ -7997,18 +8177,18 @@
       <c r="AW58" s="26"/>
     </row>
     <row r="59" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D59" s="322"/>
-      <c r="E59" s="326"/>
-      <c r="F59" s="327"/>
-      <c r="G59" s="327"/>
-      <c r="H59" s="327"/>
-      <c r="I59" s="327"/>
-      <c r="J59" s="328"/>
-      <c r="K59" s="326"/>
-      <c r="L59" s="327"/>
-      <c r="M59" s="327"/>
-      <c r="N59" s="328"/>
-      <c r="O59" s="353"/>
+      <c r="D59" s="331"/>
+      <c r="E59" s="335"/>
+      <c r="F59" s="336"/>
+      <c r="G59" s="336"/>
+      <c r="H59" s="336"/>
+      <c r="I59" s="336"/>
+      <c r="J59" s="337"/>
+      <c r="K59" s="335"/>
+      <c r="L59" s="336"/>
+      <c r="M59" s="336"/>
+      <c r="N59" s="337"/>
+      <c r="O59" s="362"/>
       <c r="P59" s="96" t="s">
         <v>38</v>
       </c>
@@ -8021,23 +8201,23 @@
       <c r="S59" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="T59" s="354" t="s">
+      <c r="T59" s="363" t="s">
         <v>42</v>
       </c>
-      <c r="U59" s="355"/>
-      <c r="V59" s="326"/>
-      <c r="W59" s="327"/>
-      <c r="X59" s="327"/>
-      <c r="Y59" s="327"/>
-      <c r="Z59" s="327"/>
-      <c r="AA59" s="327"/>
-      <c r="AB59" s="327"/>
-      <c r="AC59" s="327"/>
-      <c r="AD59" s="327"/>
-      <c r="AE59" s="327"/>
-      <c r="AF59" s="327"/>
-      <c r="AG59" s="327"/>
-      <c r="AH59" s="328"/>
+      <c r="U59" s="364"/>
+      <c r="V59" s="335"/>
+      <c r="W59" s="336"/>
+      <c r="X59" s="336"/>
+      <c r="Y59" s="336"/>
+      <c r="Z59" s="336"/>
+      <c r="AA59" s="336"/>
+      <c r="AB59" s="336"/>
+      <c r="AC59" s="336"/>
+      <c r="AD59" s="336"/>
+      <c r="AE59" s="336"/>
+      <c r="AF59" s="336"/>
+      <c r="AG59" s="336"/>
+      <c r="AH59" s="337"/>
       <c r="AK59" s="26"/>
       <c r="AL59" s="26"/>
       <c r="AM59" s="26"/>
@@ -8056,20 +8236,20 @@
       <c r="D60" s="97">
         <v>1</v>
       </c>
-      <c r="E60" s="281" t="s">
+      <c r="E60" s="277" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="282"/>
-      <c r="G60" s="282"/>
-      <c r="H60" s="282"/>
-      <c r="I60" s="282"/>
-      <c r="J60" s="283"/>
-      <c r="K60" s="183" t="s">
+      <c r="F60" s="278"/>
+      <c r="G60" s="278"/>
+      <c r="H60" s="278"/>
+      <c r="I60" s="278"/>
+      <c r="J60" s="279"/>
+      <c r="K60" s="190" t="s">
         <v>44</v>
       </c>
-      <c r="L60" s="184"/>
-      <c r="M60" s="184"/>
-      <c r="N60" s="185"/>
+      <c r="L60" s="191"/>
+      <c r="M60" s="191"/>
+      <c r="N60" s="192"/>
       <c r="O60" s="98" t="s">
         <v>45</v>
       </c>
@@ -8077,33 +8257,33 @@
         <v>1</v>
       </c>
       <c r="Q60" s="99" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R60" s="99" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="S60" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="T60" s="331" t="s">
+      <c r="T60" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="U60" s="332"/>
-      <c r="V60" s="183" t="s">
+      <c r="U60" s="341"/>
+      <c r="V60" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="W60" s="184"/>
-      <c r="X60" s="184"/>
-      <c r="Y60" s="184"/>
-      <c r="Z60" s="184"/>
-      <c r="AA60" s="184"/>
-      <c r="AB60" s="184"/>
-      <c r="AC60" s="184"/>
-      <c r="AD60" s="184"/>
-      <c r="AE60" s="184"/>
-      <c r="AF60" s="184"/>
-      <c r="AG60" s="184"/>
-      <c r="AH60" s="185"/>
+      <c r="W60" s="191"/>
+      <c r="X60" s="191"/>
+      <c r="Y60" s="191"/>
+      <c r="Z60" s="191"/>
+      <c r="AA60" s="191"/>
+      <c r="AB60" s="191"/>
+      <c r="AC60" s="191"/>
+      <c r="AD60" s="191"/>
+      <c r="AE60" s="191"/>
+      <c r="AF60" s="191"/>
+      <c r="AG60" s="191"/>
+      <c r="AH60" s="192"/>
       <c r="AK60" s="26"/>
       <c r="AL60" s="26"/>
       <c r="AM60" s="26"/>
@@ -8122,54 +8302,54 @@
       <c r="D61" s="97">
         <v>2</v>
       </c>
-      <c r="E61" s="281" t="s">
-        <v>144</v>
-      </c>
-      <c r="F61" s="282"/>
-      <c r="G61" s="282"/>
-      <c r="H61" s="282"/>
-      <c r="I61" s="282"/>
-      <c r="J61" s="283"/>
-      <c r="K61" s="183" t="s">
+      <c r="E61" s="277" t="s">
+        <v>137</v>
+      </c>
+      <c r="F61" s="278"/>
+      <c r="G61" s="278"/>
+      <c r="H61" s="278"/>
+      <c r="I61" s="278"/>
+      <c r="J61" s="279"/>
+      <c r="K61" s="190" t="s">
         <v>44</v>
       </c>
-      <c r="L61" s="184"/>
-      <c r="M61" s="184"/>
-      <c r="N61" s="185"/>
+      <c r="L61" s="191"/>
+      <c r="M61" s="191"/>
+      <c r="N61" s="192"/>
       <c r="O61" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="P61" s="156" t="s">
+      <c r="P61" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="Q61" s="156" t="s">
-        <v>134</v>
-      </c>
-      <c r="R61" s="156" t="s">
-        <v>142</v>
-      </c>
-      <c r="S61" s="156" t="s">
+      <c r="Q61" s="155" t="s">
+        <v>127</v>
+      </c>
+      <c r="R61" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="S61" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="T61" s="331" t="s">
+      <c r="T61" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="U61" s="332"/>
-      <c r="V61" s="183" t="s">
+      <c r="U61" s="341"/>
+      <c r="V61" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="W61" s="184"/>
-      <c r="X61" s="184"/>
-      <c r="Y61" s="184"/>
-      <c r="Z61" s="184"/>
-      <c r="AA61" s="184"/>
-      <c r="AB61" s="184"/>
-      <c r="AC61" s="184"/>
-      <c r="AD61" s="184"/>
-      <c r="AE61" s="184"/>
-      <c r="AF61" s="184"/>
-      <c r="AG61" s="184"/>
-      <c r="AH61" s="185"/>
+      <c r="W61" s="191"/>
+      <c r="X61" s="191"/>
+      <c r="Y61" s="191"/>
+      <c r="Z61" s="191"/>
+      <c r="AA61" s="191"/>
+      <c r="AB61" s="191"/>
+      <c r="AC61" s="191"/>
+      <c r="AD61" s="191"/>
+      <c r="AE61" s="191"/>
+      <c r="AF61" s="191"/>
+      <c r="AG61" s="191"/>
+      <c r="AH61" s="192"/>
       <c r="AK61" s="26"/>
       <c r="AL61" s="26"/>
       <c r="AM61" s="26"/>
@@ -8295,136 +8475,136 @@
       <c r="D66" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="329" t="s">
+      <c r="E66" s="338" t="s">
         <v>46</v>
       </c>
-      <c r="F66" s="293"/>
-      <c r="G66" s="293"/>
-      <c r="H66" s="293"/>
-      <c r="I66" s="293"/>
-      <c r="J66" s="330"/>
-      <c r="K66" s="329" t="s">
+      <c r="F66" s="305"/>
+      <c r="G66" s="305"/>
+      <c r="H66" s="305"/>
+      <c r="I66" s="305"/>
+      <c r="J66" s="339"/>
+      <c r="K66" s="338" t="s">
         <v>47</v>
       </c>
-      <c r="L66" s="293"/>
-      <c r="M66" s="293"/>
-      <c r="N66" s="293"/>
-      <c r="O66" s="293"/>
-      <c r="P66" s="293"/>
-      <c r="Q66" s="294"/>
-      <c r="R66" s="256" t="s">
+      <c r="L66" s="305"/>
+      <c r="M66" s="305"/>
+      <c r="N66" s="305"/>
+      <c r="O66" s="305"/>
+      <c r="P66" s="305"/>
+      <c r="Q66" s="306"/>
+      <c r="R66" s="265" t="s">
         <v>48</v>
       </c>
-      <c r="S66" s="293"/>
-      <c r="T66" s="293"/>
-      <c r="U66" s="293"/>
-      <c r="V66" s="293"/>
-      <c r="W66" s="293"/>
-      <c r="X66" s="293"/>
-      <c r="Y66" s="294"/>
-      <c r="Z66" s="343" t="s">
+      <c r="S66" s="305"/>
+      <c r="T66" s="305"/>
+      <c r="U66" s="305"/>
+      <c r="V66" s="305"/>
+      <c r="W66" s="305"/>
+      <c r="X66" s="305"/>
+      <c r="Y66" s="306"/>
+      <c r="Z66" s="352" t="s">
         <v>49</v>
       </c>
-      <c r="AA66" s="344"/>
-      <c r="AB66" s="344"/>
-      <c r="AC66" s="344"/>
-      <c r="AD66" s="345"/>
-      <c r="AE66" s="340" t="s">
+      <c r="AA66" s="353"/>
+      <c r="AB66" s="353"/>
+      <c r="AC66" s="353"/>
+      <c r="AD66" s="354"/>
+      <c r="AE66" s="349" t="s">
         <v>50</v>
       </c>
-      <c r="AF66" s="341"/>
-      <c r="AG66" s="341"/>
-      <c r="AH66" s="342"/>
+      <c r="AF66" s="350"/>
+      <c r="AG66" s="350"/>
+      <c r="AH66" s="351"/>
     </row>
     <row r="67" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D67" s="105">
         <v>1</v>
       </c>
-      <c r="E67" s="333" t="s">
+      <c r="E67" s="342" t="s">
         <v>51</v>
       </c>
-      <c r="F67" s="334"/>
-      <c r="G67" s="334"/>
-      <c r="H67" s="334"/>
-      <c r="I67" s="334"/>
-      <c r="J67" s="335"/>
-      <c r="K67" s="183" t="s">
+      <c r="F67" s="343"/>
+      <c r="G67" s="343"/>
+      <c r="H67" s="343"/>
+      <c r="I67" s="343"/>
+      <c r="J67" s="344"/>
+      <c r="K67" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="L67" s="184"/>
-      <c r="M67" s="184"/>
-      <c r="N67" s="184"/>
-      <c r="O67" s="184"/>
-      <c r="P67" s="184"/>
-      <c r="Q67" s="185"/>
-      <c r="R67" s="183" t="s">
+      <c r="L67" s="191"/>
+      <c r="M67" s="191"/>
+      <c r="N67" s="191"/>
+      <c r="O67" s="191"/>
+      <c r="P67" s="191"/>
+      <c r="Q67" s="192"/>
+      <c r="R67" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="S67" s="184"/>
-      <c r="T67" s="184"/>
-      <c r="U67" s="184"/>
-      <c r="V67" s="184"/>
-      <c r="W67" s="184"/>
-      <c r="X67" s="184"/>
-      <c r="Y67" s="185"/>
-      <c r="Z67" s="183" t="s">
+      <c r="S67" s="191"/>
+      <c r="T67" s="191"/>
+      <c r="U67" s="191"/>
+      <c r="V67" s="191"/>
+      <c r="W67" s="191"/>
+      <c r="X67" s="191"/>
+      <c r="Y67" s="192"/>
+      <c r="Z67" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="AA67" s="184"/>
-      <c r="AB67" s="184"/>
-      <c r="AC67" s="184"/>
-      <c r="AD67" s="185"/>
-      <c r="AE67" s="337" t="s">
+      <c r="AA67" s="191"/>
+      <c r="AB67" s="191"/>
+      <c r="AC67" s="191"/>
+      <c r="AD67" s="192"/>
+      <c r="AE67" s="346" t="s">
         <v>53</v>
       </c>
-      <c r="AF67" s="338"/>
-      <c r="AG67" s="338"/>
-      <c r="AH67" s="339"/>
+      <c r="AF67" s="347"/>
+      <c r="AG67" s="347"/>
+      <c r="AH67" s="348"/>
     </row>
     <row r="68" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D68" s="105">
         <v>2</v>
       </c>
-      <c r="E68" s="333" t="s">
+      <c r="E68" s="342" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="334"/>
-      <c r="G68" s="334"/>
-      <c r="H68" s="334"/>
-      <c r="I68" s="334"/>
-      <c r="J68" s="335"/>
-      <c r="K68" s="183" t="s">
-        <v>135</v>
-      </c>
-      <c r="L68" s="184"/>
-      <c r="M68" s="184"/>
-      <c r="N68" s="184"/>
-      <c r="O68" s="184"/>
-      <c r="P68" s="184"/>
-      <c r="Q68" s="185"/>
-      <c r="R68" s="183" t="s">
+      <c r="F68" s="343"/>
+      <c r="G68" s="343"/>
+      <c r="H68" s="343"/>
+      <c r="I68" s="343"/>
+      <c r="J68" s="344"/>
+      <c r="K68" s="190" t="s">
+        <v>128</v>
+      </c>
+      <c r="L68" s="191"/>
+      <c r="M68" s="191"/>
+      <c r="N68" s="191"/>
+      <c r="O68" s="191"/>
+      <c r="P68" s="191"/>
+      <c r="Q68" s="192"/>
+      <c r="R68" s="190" t="s">
         <v>54</v>
       </c>
-      <c r="S68" s="184"/>
-      <c r="T68" s="184"/>
-      <c r="U68" s="184"/>
-      <c r="V68" s="184"/>
-      <c r="W68" s="184"/>
-      <c r="X68" s="184"/>
-      <c r="Y68" s="185"/>
-      <c r="Z68" s="183" t="s">
+      <c r="S68" s="191"/>
+      <c r="T68" s="191"/>
+      <c r="U68" s="191"/>
+      <c r="V68" s="191"/>
+      <c r="W68" s="191"/>
+      <c r="X68" s="191"/>
+      <c r="Y68" s="192"/>
+      <c r="Z68" s="190" t="s">
         <v>55</v>
       </c>
-      <c r="AA68" s="184"/>
-      <c r="AB68" s="184"/>
-      <c r="AC68" s="184"/>
-      <c r="AD68" s="185"/>
-      <c r="AE68" s="337" t="s">
+      <c r="AA68" s="191"/>
+      <c r="AB68" s="191"/>
+      <c r="AC68" s="191"/>
+      <c r="AD68" s="192"/>
+      <c r="AE68" s="346" t="s">
         <v>53</v>
       </c>
-      <c r="AF68" s="338"/>
-      <c r="AG68" s="338"/>
-      <c r="AH68" s="339"/>
+      <c r="AF68" s="347"/>
+      <c r="AG68" s="347"/>
+      <c r="AH68" s="348"/>
     </row>
     <row r="69" spans="1:58" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D69" s="106"/>
@@ -8808,7 +8988,7 @@
     <row r="84" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="26"/>
       <c r="D84" s="108" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="E84" s="108"/>
       <c r="AP84" s="26"/>
@@ -8867,43 +9047,43 @@
       <c r="F88" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="G88" s="256" t="s">
+      <c r="G88" s="265" t="s">
+        <v>60</v>
+      </c>
+      <c r="H88" s="305"/>
+      <c r="I88" s="305"/>
+      <c r="J88" s="305"/>
+      <c r="K88" s="305"/>
+      <c r="L88" s="306"/>
+      <c r="M88" s="265" t="s">
         <v>61</v>
       </c>
-      <c r="H88" s="293"/>
-      <c r="I88" s="293"/>
-      <c r="J88" s="293"/>
-      <c r="K88" s="293"/>
-      <c r="L88" s="294"/>
-      <c r="M88" s="256" t="s">
+      <c r="N88" s="305"/>
+      <c r="O88" s="305"/>
+      <c r="P88" s="305"/>
+      <c r="Q88" s="305"/>
+      <c r="R88" s="305"/>
+      <c r="S88" s="305"/>
+      <c r="T88" s="305"/>
+      <c r="U88" s="305"/>
+      <c r="V88" s="306"/>
+      <c r="W88" s="316" t="s">
         <v>62</v>
       </c>
-      <c r="N88" s="293"/>
-      <c r="O88" s="293"/>
-      <c r="P88" s="293"/>
-      <c r="Q88" s="293"/>
-      <c r="R88" s="293"/>
-      <c r="S88" s="293"/>
-      <c r="T88" s="293"/>
-      <c r="U88" s="293"/>
-      <c r="V88" s="294"/>
-      <c r="W88" s="310" t="s">
+      <c r="X88" s="317"/>
+      <c r="Y88" s="318"/>
+      <c r="Z88" s="313" t="s">
         <v>63</v>
       </c>
-      <c r="X88" s="311"/>
-      <c r="Y88" s="312"/>
-      <c r="Z88" s="304" t="s">
+      <c r="AA88" s="314"/>
+      <c r="AB88" s="314"/>
+      <c r="AC88" s="315"/>
+      <c r="AD88" s="299" t="s">
         <v>64</v>
       </c>
-      <c r="AA88" s="305"/>
-      <c r="AB88" s="305"/>
-      <c r="AC88" s="306"/>
-      <c r="AD88" s="287" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE88" s="288"/>
-      <c r="AF88" s="288"/>
-      <c r="AG88" s="289"/>
+      <c r="AE88" s="300"/>
+      <c r="AF88" s="300"/>
+      <c r="AG88" s="301"/>
       <c r="AJ88" s="111"/>
       <c r="AK88" s="111"/>
       <c r="AL88" s="111"/>
@@ -8933,43 +9113,43 @@
       <c r="F89" s="115">
         <v>1</v>
       </c>
-      <c r="G89" s="290" t="s">
+      <c r="G89" s="302" t="s">
+        <v>65</v>
+      </c>
+      <c r="H89" s="303"/>
+      <c r="I89" s="303"/>
+      <c r="J89" s="303"/>
+      <c r="K89" s="303"/>
+      <c r="L89" s="304"/>
+      <c r="M89" s="302" t="s">
         <v>66</v>
       </c>
-      <c r="H89" s="291"/>
-      <c r="I89" s="291"/>
-      <c r="J89" s="291"/>
-      <c r="K89" s="291"/>
-      <c r="L89" s="292"/>
-      <c r="M89" s="290" t="s">
+      <c r="N89" s="303"/>
+      <c r="O89" s="303"/>
+      <c r="P89" s="303"/>
+      <c r="Q89" s="303"/>
+      <c r="R89" s="303"/>
+      <c r="S89" s="303"/>
+      <c r="T89" s="303"/>
+      <c r="U89" s="303"/>
+      <c r="V89" s="304"/>
+      <c r="W89" s="307" t="s">
         <v>67</v>
       </c>
-      <c r="N89" s="291"/>
-      <c r="O89" s="291"/>
-      <c r="P89" s="291"/>
-      <c r="Q89" s="291"/>
-      <c r="R89" s="291"/>
-      <c r="S89" s="291"/>
-      <c r="T89" s="291"/>
-      <c r="U89" s="291"/>
-      <c r="V89" s="292"/>
-      <c r="W89" s="295" t="s">
+      <c r="X89" s="308"/>
+      <c r="Y89" s="309"/>
+      <c r="Z89" s="310" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA89" s="311"/>
+      <c r="AB89" s="311"/>
+      <c r="AC89" s="312"/>
+      <c r="AD89" s="302" t="s">
         <v>68</v>
       </c>
-      <c r="X89" s="296"/>
-      <c r="Y89" s="297"/>
-      <c r="Z89" s="301" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA89" s="302"/>
-      <c r="AB89" s="302"/>
-      <c r="AC89" s="303"/>
-      <c r="AD89" s="290" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE89" s="291"/>
-      <c r="AF89" s="291"/>
-      <c r="AG89" s="292"/>
+      <c r="AE89" s="303"/>
+      <c r="AF89" s="303"/>
+      <c r="AG89" s="304"/>
       <c r="AI89" s="111"/>
       <c r="AJ89" s="111"/>
       <c r="AK89" s="111"/>
@@ -9054,7 +9234,7 @@
       <c r="D91" s="22"/>
       <c r="E91" s="108"/>
       <c r="F91" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:58" s="40" customFormat="1" x14ac:dyDescent="0.2">
@@ -9099,89 +9279,127 @@
       <c r="AI93" s="110"/>
       <c r="AJ93" s="91"/>
     </row>
-    <row r="94" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C94" s="26"/>
-      <c r="D94" s="108"/>
-      <c r="E94" s="108"/>
-      <c r="AP94" s="26"/>
+    <row r="94" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="E94" s="38" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="95" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="E95" s="38" t="s">
+      <c r="F95" s="38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="F96" s="38" t="s">
+    <row r="97" spans="6:58" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G97" s="274" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="98" spans="7:58" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G98" s="272" t="s">
+      <c r="H97" s="275"/>
+      <c r="I97" s="275"/>
+      <c r="J97" s="275"/>
+      <c r="K97" s="275"/>
+      <c r="L97" s="275"/>
+      <c r="M97" s="275"/>
+      <c r="N97" s="275"/>
+      <c r="O97" s="275"/>
+      <c r="P97" s="276"/>
+      <c r="Q97" s="319" t="s">
         <v>73</v>
       </c>
-      <c r="H98" s="273"/>
-      <c r="I98" s="273"/>
-      <c r="J98" s="273"/>
-      <c r="K98" s="273"/>
-      <c r="L98" s="273"/>
-      <c r="M98" s="273"/>
-      <c r="N98" s="273"/>
-      <c r="O98" s="273"/>
-      <c r="P98" s="274"/>
-      <c r="Q98" s="307" t="s">
-        <v>74</v>
-      </c>
-      <c r="R98" s="308"/>
-      <c r="S98" s="308"/>
-      <c r="T98" s="308"/>
-      <c r="U98" s="308"/>
-      <c r="V98" s="308"/>
-      <c r="W98" s="308"/>
-      <c r="X98" s="308"/>
-      <c r="Y98" s="308"/>
-      <c r="Z98" s="309"/>
-    </row>
-    <row r="99" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G99" s="275" t="s">
-        <v>124</v>
-      </c>
-      <c r="H99" s="276"/>
-      <c r="I99" s="276"/>
-      <c r="J99" s="276"/>
-      <c r="K99" s="276"/>
-      <c r="L99" s="276"/>
-      <c r="M99" s="276"/>
-      <c r="N99" s="276"/>
-      <c r="O99" s="276"/>
-      <c r="P99" s="277"/>
-      <c r="Q99" s="281" t="s">
-        <v>125</v>
-      </c>
-      <c r="R99" s="282"/>
-      <c r="S99" s="282"/>
-      <c r="T99" s="282"/>
-      <c r="U99" s="282"/>
-      <c r="V99" s="282"/>
-      <c r="W99" s="282"/>
-      <c r="X99" s="282"/>
-      <c r="Y99" s="282"/>
-      <c r="Z99" s="283"/>
+      <c r="R97" s="320"/>
+      <c r="S97" s="320"/>
+      <c r="T97" s="320"/>
+      <c r="U97" s="320"/>
+      <c r="V97" s="320"/>
+      <c r="W97" s="320"/>
+      <c r="X97" s="320"/>
+      <c r="Y97" s="320"/>
+      <c r="Z97" s="320"/>
+      <c r="AA97" s="320"/>
+      <c r="AB97" s="320"/>
+      <c r="AC97" s="320"/>
+      <c r="AD97" s="320"/>
+      <c r="AE97" s="320"/>
+      <c r="AF97" s="321"/>
+    </row>
+    <row r="98" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G98" s="293" t="s">
+        <v>117</v>
+      </c>
+      <c r="H98" s="294"/>
+      <c r="I98" s="294"/>
+      <c r="J98" s="294"/>
+      <c r="K98" s="294"/>
+      <c r="L98" s="294"/>
+      <c r="M98" s="294"/>
+      <c r="N98" s="294"/>
+      <c r="O98" s="294"/>
+      <c r="P98" s="295"/>
+      <c r="Q98" s="277" t="s">
+        <v>118</v>
+      </c>
+      <c r="R98" s="278"/>
+      <c r="S98" s="278"/>
+      <c r="T98" s="278"/>
+      <c r="U98" s="278"/>
+      <c r="V98" s="278"/>
+      <c r="W98" s="278"/>
+      <c r="X98" s="278"/>
+      <c r="Y98" s="278"/>
+      <c r="Z98" s="278"/>
+      <c r="AA98" s="170"/>
+      <c r="AB98" s="170"/>
+      <c r="AC98" s="170"/>
+      <c r="AD98" s="170"/>
+      <c r="AE98" s="170"/>
+      <c r="AF98" s="171"/>
+      <c r="AG98" s="116"/>
+      <c r="AH98" s="116"/>
+    </row>
+    <row r="99" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G99" s="296"/>
+      <c r="H99" s="297"/>
+      <c r="I99" s="297"/>
+      <c r="J99" s="297"/>
+      <c r="K99" s="297"/>
+      <c r="L99" s="297"/>
+      <c r="M99" s="297"/>
+      <c r="N99" s="297"/>
+      <c r="O99" s="297"/>
+      <c r="P99" s="298"/>
+      <c r="Q99" s="117" t="s">
+        <v>119</v>
+      </c>
+      <c r="R99" s="118"/>
+      <c r="S99" s="118"/>
+      <c r="T99" s="118"/>
+      <c r="U99" s="118"/>
+      <c r="V99" s="118"/>
+      <c r="W99" s="118"/>
+      <c r="X99" s="118"/>
+      <c r="Y99" s="118"/>
+      <c r="Z99" s="167"/>
+      <c r="AA99" s="170"/>
+      <c r="AB99" s="170"/>
+      <c r="AC99" s="170"/>
+      <c r="AD99" s="170"/>
+      <c r="AE99" s="170"/>
+      <c r="AF99" s="171"/>
       <c r="AG99" s="116"/>
       <c r="AH99" s="116"/>
     </row>
-    <row r="100" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G100" s="278"/>
-      <c r="H100" s="279"/>
-      <c r="I100" s="279"/>
-      <c r="J100" s="279"/>
-      <c r="K100" s="279"/>
-      <c r="L100" s="279"/>
-      <c r="M100" s="279"/>
-      <c r="N100" s="279"/>
-      <c r="O100" s="279"/>
-      <c r="P100" s="280"/>
+    <row r="100" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G100" s="296"/>
+      <c r="H100" s="297"/>
+      <c r="I100" s="297"/>
+      <c r="J100" s="297"/>
+      <c r="K100" s="297"/>
+      <c r="L100" s="297"/>
+      <c r="M100" s="297"/>
+      <c r="N100" s="297"/>
+      <c r="O100" s="297"/>
+      <c r="P100" s="298"/>
       <c r="Q100" s="117" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="R100" s="118"/>
       <c r="S100" s="118"/>
@@ -9191,49 +9409,61 @@
       <c r="W100" s="118"/>
       <c r="X100" s="118"/>
       <c r="Y100" s="118"/>
-      <c r="Z100" s="119"/>
+      <c r="Z100" s="167"/>
+      <c r="AA100" s="170"/>
+      <c r="AB100" s="170"/>
+      <c r="AC100" s="170"/>
+      <c r="AD100" s="170"/>
+      <c r="AE100" s="170"/>
+      <c r="AF100" s="171"/>
       <c r="AG100" s="116"/>
       <c r="AH100" s="116"/>
     </row>
-    <row r="101" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G101" s="278"/>
-      <c r="H101" s="279"/>
-      <c r="I101" s="279"/>
-      <c r="J101" s="279"/>
-      <c r="K101" s="279"/>
-      <c r="L101" s="279"/>
-      <c r="M101" s="279"/>
-      <c r="N101" s="279"/>
-      <c r="O101" s="279"/>
-      <c r="P101" s="280"/>
-      <c r="Q101" s="117" t="s">
-        <v>127</v>
-      </c>
-      <c r="R101" s="118"/>
-      <c r="S101" s="118"/>
-      <c r="T101" s="118"/>
-      <c r="U101" s="118"/>
-      <c r="V101" s="118"/>
-      <c r="W101" s="118"/>
-      <c r="X101" s="118"/>
-      <c r="Y101" s="118"/>
-      <c r="Z101" s="119"/>
+    <row r="101" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G101" s="296"/>
+      <c r="H101" s="297"/>
+      <c r="I101" s="297"/>
+      <c r="J101" s="297"/>
+      <c r="K101" s="297"/>
+      <c r="L101" s="297"/>
+      <c r="M101" s="297"/>
+      <c r="N101" s="297"/>
+      <c r="O101" s="297"/>
+      <c r="P101" s="298"/>
+      <c r="Q101" s="168" t="s">
+        <v>179</v>
+      </c>
+      <c r="R101" s="169"/>
+      <c r="S101" s="169"/>
+      <c r="T101" s="169"/>
+      <c r="U101" s="169"/>
+      <c r="V101" s="169"/>
+      <c r="W101" s="169"/>
+      <c r="X101" s="169"/>
+      <c r="Y101" s="169"/>
+      <c r="Z101" s="169"/>
+      <c r="AA101" s="170"/>
+      <c r="AB101" s="170"/>
+      <c r="AC101" s="170"/>
+      <c r="AD101" s="170"/>
+      <c r="AE101" s="170"/>
+      <c r="AF101" s="171"/>
       <c r="AG101" s="116"/>
       <c r="AH101" s="116"/>
     </row>
-    <row r="102" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G102" s="278"/>
-      <c r="H102" s="279"/>
-      <c r="I102" s="279"/>
-      <c r="J102" s="279"/>
-      <c r="K102" s="279"/>
-      <c r="L102" s="279"/>
-      <c r="M102" s="279"/>
-      <c r="N102" s="279"/>
-      <c r="O102" s="279"/>
-      <c r="P102" s="280"/>
-      <c r="Q102" s="155" t="s">
-        <v>136</v>
+    <row r="102" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G102" s="296"/>
+      <c r="H102" s="297"/>
+      <c r="I102" s="297"/>
+      <c r="J102" s="297"/>
+      <c r="K102" s="297"/>
+      <c r="L102" s="297"/>
+      <c r="M102" s="297"/>
+      <c r="N102" s="297"/>
+      <c r="O102" s="297"/>
+      <c r="P102" s="298"/>
+      <c r="Q102" s="154" t="s">
+        <v>129</v>
       </c>
       <c r="R102" s="118"/>
       <c r="S102" s="118"/>
@@ -9243,63 +9473,77 @@
       <c r="W102" s="118"/>
       <c r="X102" s="118"/>
       <c r="Y102" s="118"/>
-      <c r="Z102" s="119"/>
+      <c r="Z102" s="167"/>
+      <c r="AA102" s="170"/>
+      <c r="AB102" s="170"/>
+      <c r="AC102" s="170"/>
+      <c r="AD102" s="170"/>
+      <c r="AE102" s="170"/>
+      <c r="AF102" s="171"/>
       <c r="AG102" s="116"/>
       <c r="AH102" s="116"/>
     </row>
-    <row r="103" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G103" s="278"/>
-      <c r="H103" s="279"/>
-      <c r="I103" s="279"/>
-      <c r="J103" s="279"/>
-      <c r="K103" s="279"/>
-      <c r="L103" s="279"/>
-      <c r="M103" s="279"/>
-      <c r="N103" s="279"/>
-      <c r="O103" s="279"/>
-      <c r="P103" s="280"/>
-      <c r="Q103" s="281" t="s">
-        <v>128</v>
-      </c>
-      <c r="R103" s="282"/>
-      <c r="S103" s="282"/>
-      <c r="T103" s="282"/>
-      <c r="U103" s="282"/>
-      <c r="V103" s="282"/>
-      <c r="W103" s="282"/>
-      <c r="X103" s="282"/>
-      <c r="Y103" s="282"/>
-      <c r="Z103" s="283"/>
+    <row r="103" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G103" s="296"/>
+      <c r="H103" s="297"/>
+      <c r="I103" s="297"/>
+      <c r="J103" s="297"/>
+      <c r="K103" s="297"/>
+      <c r="L103" s="297"/>
+      <c r="M103" s="297"/>
+      <c r="N103" s="297"/>
+      <c r="O103" s="297"/>
+      <c r="P103" s="298"/>
+      <c r="Q103" s="277" t="s">
+        <v>121</v>
+      </c>
+      <c r="R103" s="278"/>
+      <c r="S103" s="278"/>
+      <c r="T103" s="278"/>
+      <c r="U103" s="278"/>
+      <c r="V103" s="278"/>
+      <c r="W103" s="278"/>
+      <c r="X103" s="278"/>
+      <c r="Y103" s="278"/>
+      <c r="Z103" s="278"/>
+      <c r="AA103" s="170"/>
+      <c r="AB103" s="170"/>
+      <c r="AC103" s="170"/>
+      <c r="AD103" s="170"/>
+      <c r="AE103" s="170"/>
+      <c r="AF103" s="171"/>
       <c r="AG103" s="116"/>
       <c r="AH103" s="116"/>
     </row>
-    <row r="104" spans="7:58" x14ac:dyDescent="0.2">
-      <c r="G104" s="278"/>
-      <c r="H104" s="279"/>
-      <c r="I104" s="279"/>
-      <c r="J104" s="279"/>
-      <c r="K104" s="279"/>
-      <c r="L104" s="279"/>
-      <c r="M104" s="279"/>
-      <c r="N104" s="279"/>
-      <c r="O104" s="279"/>
-      <c r="P104" s="280"/>
-      <c r="Q104" s="281" t="s">
-        <v>129</v>
-      </c>
-      <c r="R104" s="282"/>
-      <c r="S104" s="282"/>
-      <c r="T104" s="282"/>
-      <c r="U104" s="282"/>
-      <c r="V104" s="282"/>
-      <c r="W104" s="282"/>
-      <c r="X104" s="282"/>
-      <c r="Y104" s="282"/>
-      <c r="Z104" s="283"/>
-      <c r="AC104" s="112"/>
-      <c r="AD104" s="112"/>
-      <c r="AE104" s="112"/>
-      <c r="AF104" s="112"/>
+    <row r="104" spans="6:58" x14ac:dyDescent="0.2">
+      <c r="G104" s="296"/>
+      <c r="H104" s="297"/>
+      <c r="I104" s="297"/>
+      <c r="J104" s="297"/>
+      <c r="K104" s="297"/>
+      <c r="L104" s="297"/>
+      <c r="M104" s="297"/>
+      <c r="N104" s="297"/>
+      <c r="O104" s="297"/>
+      <c r="P104" s="298"/>
+      <c r="Q104" s="277" t="s">
+        <v>122</v>
+      </c>
+      <c r="R104" s="278"/>
+      <c r="S104" s="278"/>
+      <c r="T104" s="278"/>
+      <c r="U104" s="278"/>
+      <c r="V104" s="278"/>
+      <c r="W104" s="278"/>
+      <c r="X104" s="278"/>
+      <c r="Y104" s="278"/>
+      <c r="Z104" s="278"/>
+      <c r="AA104" s="170"/>
+      <c r="AB104" s="170"/>
+      <c r="AC104" s="170"/>
+      <c r="AD104" s="170"/>
+      <c r="AE104" s="170"/>
+      <c r="AF104" s="171"/>
       <c r="AG104" s="116"/>
       <c r="AH104" s="116"/>
       <c r="AP104" s="112"/>
@@ -9313,37 +9557,41 @@
       <c r="AX104" s="112"/>
       <c r="AY104" s="112"/>
     </row>
-    <row r="105" spans="7:58" x14ac:dyDescent="0.2">
-      <c r="G105" s="275" t="s">
-        <v>130</v>
-      </c>
-      <c r="H105" s="276"/>
-      <c r="I105" s="276"/>
-      <c r="J105" s="276"/>
-      <c r="K105" s="276"/>
-      <c r="L105" s="276"/>
-      <c r="M105" s="276"/>
-      <c r="N105" s="276"/>
-      <c r="O105" s="276"/>
-      <c r="P105" s="277"/>
-      <c r="Q105" s="281" t="s">
-        <v>131</v>
-      </c>
-      <c r="R105" s="282"/>
-      <c r="S105" s="282"/>
-      <c r="T105" s="282"/>
-      <c r="U105" s="282"/>
-      <c r="V105" s="282"/>
-      <c r="W105" s="282"/>
-      <c r="X105" s="282"/>
-      <c r="Y105" s="282"/>
-      <c r="Z105" s="283"/>
-      <c r="AC105" s="112"/>
-      <c r="AD105" s="112"/>
-      <c r="AE105" s="112"/>
-      <c r="AF105" s="112"/>
-      <c r="AG105" s="116"/>
-      <c r="AH105" s="116"/>
+    <row r="105" spans="6:58" x14ac:dyDescent="0.2">
+      <c r="G105" s="280" t="s">
+        <v>74</v>
+      </c>
+      <c r="H105" s="281"/>
+      <c r="I105" s="281"/>
+      <c r="J105" s="281"/>
+      <c r="K105" s="281"/>
+      <c r="L105" s="281"/>
+      <c r="M105" s="281"/>
+      <c r="N105" s="281"/>
+      <c r="O105" s="281"/>
+      <c r="P105" s="281"/>
+      <c r="Q105" s="281"/>
+      <c r="R105" s="281"/>
+      <c r="S105" s="281"/>
+      <c r="T105" s="281"/>
+      <c r="U105" s="281"/>
+      <c r="V105" s="281"/>
+      <c r="W105" s="281"/>
+      <c r="X105" s="281"/>
+      <c r="Y105" s="281"/>
+      <c r="Z105" s="281"/>
+      <c r="AA105" s="281"/>
+      <c r="AB105" s="281"/>
+      <c r="AC105" s="281"/>
+      <c r="AD105" s="281"/>
+      <c r="AE105" s="281"/>
+      <c r="AF105" s="282"/>
+      <c r="AJ105" s="112"/>
+      <c r="AK105" s="112"/>
+      <c r="AL105" s="112"/>
+      <c r="AM105" s="112"/>
+      <c r="AN105" s="112"/>
+      <c r="AO105" s="112"/>
       <c r="AP105" s="112"/>
       <c r="AQ105" s="112"/>
       <c r="AR105" s="112"/>
@@ -9354,36 +9602,47 @@
       <c r="AW105" s="112"/>
       <c r="AX105" s="112"/>
       <c r="AY105" s="112"/>
-    </row>
-    <row r="106" spans="7:58" x14ac:dyDescent="0.2">
-      <c r="G106" s="298"/>
-      <c r="H106" s="299"/>
-      <c r="I106" s="299"/>
-      <c r="J106" s="299"/>
-      <c r="K106" s="299"/>
-      <c r="L106" s="299"/>
-      <c r="M106" s="299"/>
-      <c r="N106" s="299"/>
-      <c r="O106" s="299"/>
-      <c r="P106" s="300"/>
-      <c r="Q106" s="281" t="s">
-        <v>132</v>
-      </c>
-      <c r="R106" s="282"/>
-      <c r="S106" s="282"/>
-      <c r="T106" s="282"/>
-      <c r="U106" s="282"/>
-      <c r="V106" s="282"/>
-      <c r="W106" s="282"/>
-      <c r="X106" s="282"/>
-      <c r="Y106" s="282"/>
-      <c r="Z106" s="283"/>
-      <c r="AC106" s="112"/>
-      <c r="AD106" s="112"/>
-      <c r="AE106" s="112"/>
-      <c r="AF106" s="112"/>
-      <c r="AG106" s="116"/>
-      <c r="AH106" s="116"/>
+      <c r="AZ105" s="112"/>
+      <c r="BA105" s="112"/>
+      <c r="BB105" s="112"/>
+      <c r="BC105" s="112"/>
+      <c r="BD105" s="112"/>
+      <c r="BE105" s="112"/>
+      <c r="BF105" s="112"/>
+    </row>
+    <row r="106" spans="6:58" x14ac:dyDescent="0.2">
+      <c r="G106" s="119"/>
+      <c r="H106" s="120"/>
+      <c r="I106" s="120"/>
+      <c r="J106" s="120"/>
+      <c r="K106" s="120"/>
+      <c r="L106" s="120"/>
+      <c r="M106" s="120"/>
+      <c r="N106" s="120"/>
+      <c r="O106" s="120"/>
+      <c r="P106" s="120"/>
+      <c r="Q106" s="120"/>
+      <c r="R106" s="120"/>
+      <c r="S106" s="120"/>
+      <c r="T106" s="120"/>
+      <c r="U106" s="120"/>
+      <c r="V106" s="120"/>
+      <c r="W106" s="120"/>
+      <c r="X106" s="120"/>
+      <c r="Y106" s="120"/>
+      <c r="Z106" s="120"/>
+      <c r="AA106" s="173"/>
+      <c r="AB106" s="173"/>
+      <c r="AC106" s="173"/>
+      <c r="AD106" s="173"/>
+      <c r="AE106" s="173"/>
+      <c r="AF106" s="121"/>
+      <c r="AJ106" s="112"/>
+      <c r="AK106" s="112"/>
+      <c r="AL106" s="112"/>
+      <c r="AM106" s="112"/>
+      <c r="AN106" s="112"/>
+      <c r="AO106" s="112"/>
       <c r="AP106" s="112"/>
       <c r="AQ106" s="112"/>
       <c r="AR106" s="112"/>
@@ -9394,30 +9653,45 @@
       <c r="AW106" s="112"/>
       <c r="AX106" s="112"/>
       <c r="AY106" s="112"/>
-    </row>
-    <row r="107" spans="7:58" x14ac:dyDescent="0.2">
-      <c r="G107" s="284" t="s">
+      <c r="AZ106" s="112"/>
+      <c r="BA106" s="112"/>
+      <c r="BB106" s="112"/>
+      <c r="BC106" s="112"/>
+      <c r="BD106" s="112"/>
+      <c r="BE106" s="112"/>
+      <c r="BF106" s="112"/>
+    </row>
+    <row r="107" spans="6:58" x14ac:dyDescent="0.2">
+      <c r="G107" s="122"/>
+      <c r="H107" s="123" t="s">
+        <v>126</v>
+      </c>
+      <c r="I107" s="123"/>
+      <c r="J107" s="123"/>
+      <c r="K107" s="123"/>
+      <c r="L107" s="124"/>
+      <c r="N107" s="123"/>
+      <c r="O107" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="H107" s="285"/>
-      <c r="I107" s="285"/>
-      <c r="J107" s="285"/>
-      <c r="K107" s="285"/>
-      <c r="L107" s="285"/>
-      <c r="M107" s="285"/>
-      <c r="N107" s="285"/>
-      <c r="O107" s="285"/>
-      <c r="P107" s="285"/>
-      <c r="Q107" s="285"/>
-      <c r="R107" s="285"/>
-      <c r="S107" s="285"/>
-      <c r="T107" s="285"/>
-      <c r="U107" s="285"/>
-      <c r="V107" s="285"/>
-      <c r="W107" s="285"/>
-      <c r="X107" s="285"/>
-      <c r="Y107" s="285"/>
-      <c r="Z107" s="286"/>
+      <c r="Q107" s="123" t="s">
+        <v>132</v>
+      </c>
+      <c r="R107" s="123"/>
+      <c r="S107" s="123"/>
+      <c r="T107" s="123"/>
+      <c r="U107" s="123"/>
+      <c r="V107" s="125"/>
+      <c r="W107" s="123"/>
+      <c r="X107" s="123"/>
+      <c r="Y107" s="123"/>
+      <c r="Z107" s="132"/>
+      <c r="AA107" s="40"/>
+      <c r="AB107" s="40"/>
+      <c r="AC107" s="40"/>
+      <c r="AD107" s="40"/>
+      <c r="AE107" s="40"/>
+      <c r="AF107" s="126"/>
       <c r="AJ107" s="112"/>
       <c r="AK107" s="112"/>
       <c r="AL107" s="112"/>
@@ -9442,27 +9716,31 @@
       <c r="BE107" s="112"/>
       <c r="BF107" s="112"/>
     </row>
-    <row r="108" spans="7:58" x14ac:dyDescent="0.2">
-      <c r="G108" s="120"/>
-      <c r="H108" s="121"/>
-      <c r="I108" s="121"/>
-      <c r="J108" s="121"/>
-      <c r="K108" s="121"/>
-      <c r="L108" s="121"/>
-      <c r="M108" s="121"/>
-      <c r="N108" s="121"/>
-      <c r="O108" s="121"/>
-      <c r="P108" s="121"/>
-      <c r="Q108" s="121"/>
-      <c r="R108" s="121"/>
-      <c r="S108" s="121"/>
-      <c r="T108" s="121"/>
-      <c r="U108" s="121"/>
-      <c r="V108" s="121"/>
-      <c r="W108" s="121"/>
-      <c r="X108" s="121"/>
-      <c r="Y108" s="121"/>
-      <c r="Z108" s="122"/>
+    <row r="108" spans="6:58" x14ac:dyDescent="0.2">
+      <c r="G108" s="122"/>
+      <c r="H108" s="123"/>
+      <c r="I108" s="123"/>
+      <c r="J108" s="123"/>
+      <c r="K108" s="123"/>
+      <c r="L108" s="124"/>
+      <c r="N108" s="123"/>
+      <c r="O108" s="124"/>
+      <c r="Q108" s="123"/>
+      <c r="R108" s="123"/>
+      <c r="S108" s="123"/>
+      <c r="T108" s="123"/>
+      <c r="U108" s="123"/>
+      <c r="V108" s="125"/>
+      <c r="W108" s="123"/>
+      <c r="X108" s="123"/>
+      <c r="Y108" s="123"/>
+      <c r="Z108" s="132"/>
+      <c r="AA108" s="40"/>
+      <c r="AB108" s="40"/>
+      <c r="AC108" s="40"/>
+      <c r="AD108" s="40"/>
+      <c r="AE108" s="40"/>
+      <c r="AF108" s="126"/>
       <c r="AJ108" s="112"/>
       <c r="AK108" s="112"/>
       <c r="AL108" s="112"/>
@@ -9487,31 +9765,33 @@
       <c r="BE108" s="112"/>
       <c r="BF108" s="112"/>
     </row>
-    <row r="109" spans="7:58" x14ac:dyDescent="0.2">
-      <c r="G109" s="123"/>
-      <c r="H109" s="124" t="s">
-        <v>133</v>
-      </c>
-      <c r="I109" s="124"/>
-      <c r="J109" s="124"/>
-      <c r="K109" s="124"/>
-      <c r="L109" s="125"/>
-      <c r="N109" s="124"/>
-      <c r="O109" s="125" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q109" s="124" t="s">
-        <v>139</v>
-      </c>
-      <c r="R109" s="124"/>
-      <c r="S109" s="124"/>
-      <c r="T109" s="124"/>
-      <c r="U109" s="124"/>
-      <c r="V109" s="126"/>
-      <c r="W109" s="124"/>
-      <c r="X109" s="124"/>
-      <c r="Y109" s="124"/>
-      <c r="Z109" s="127"/>
+    <row r="109" spans="6:58" x14ac:dyDescent="0.2">
+      <c r="G109" s="122"/>
+      <c r="H109" s="123" t="s">
+        <v>162</v>
+      </c>
+      <c r="I109" s="123"/>
+      <c r="J109" s="123"/>
+      <c r="K109" s="123"/>
+      <c r="L109" s="124"/>
+      <c r="N109" s="123"/>
+      <c r="O109" s="124"/>
+      <c r="Q109" s="123"/>
+      <c r="R109" s="123"/>
+      <c r="S109" s="123"/>
+      <c r="T109" s="123"/>
+      <c r="U109" s="123"/>
+      <c r="V109" s="125"/>
+      <c r="W109" s="123"/>
+      <c r="X109" s="123"/>
+      <c r="Y109" s="123"/>
+      <c r="Z109" s="132"/>
+      <c r="AA109" s="40"/>
+      <c r="AB109" s="40"/>
+      <c r="AC109" s="40"/>
+      <c r="AD109" s="40"/>
+      <c r="AE109" s="40"/>
+      <c r="AF109" s="126"/>
       <c r="AJ109" s="112"/>
       <c r="AK109" s="112"/>
       <c r="AL109" s="112"/>
@@ -9536,27 +9816,33 @@
       <c r="BE109" s="112"/>
       <c r="BF109" s="112"/>
     </row>
-    <row r="110" spans="7:58" x14ac:dyDescent="0.2">
-      <c r="G110" s="128"/>
-      <c r="H110" s="129"/>
-      <c r="I110" s="129"/>
-      <c r="J110" s="129"/>
-      <c r="K110" s="129"/>
-      <c r="L110" s="130"/>
-      <c r="M110" s="130"/>
-      <c r="N110" s="129"/>
-      <c r="O110" s="129"/>
-      <c r="P110" s="129"/>
-      <c r="Q110" s="129"/>
-      <c r="R110" s="129"/>
-      <c r="S110" s="129"/>
-      <c r="T110" s="129"/>
-      <c r="U110" s="129"/>
-      <c r="V110" s="131"/>
-      <c r="W110" s="129"/>
-      <c r="X110" s="129"/>
-      <c r="Y110" s="129"/>
-      <c r="Z110" s="132"/>
+    <row r="110" spans="6:58" x14ac:dyDescent="0.2">
+      <c r="G110" s="127"/>
+      <c r="H110" s="128"/>
+      <c r="I110" s="128"/>
+      <c r="J110" s="128"/>
+      <c r="K110" s="128"/>
+      <c r="L110" s="129"/>
+      <c r="M110" s="129"/>
+      <c r="N110" s="128"/>
+      <c r="O110" s="128"/>
+      <c r="P110" s="128"/>
+      <c r="Q110" s="128"/>
+      <c r="R110" s="128"/>
+      <c r="S110" s="128"/>
+      <c r="T110" s="128"/>
+      <c r="U110" s="128"/>
+      <c r="V110" s="130"/>
+      <c r="W110" s="128"/>
+      <c r="X110" s="128"/>
+      <c r="Y110" s="128"/>
+      <c r="Z110" s="172"/>
+      <c r="AA110" s="174"/>
+      <c r="AB110" s="174"/>
+      <c r="AC110" s="174"/>
+      <c r="AD110" s="174"/>
+      <c r="AE110" s="174"/>
+      <c r="AF110" s="131"/>
       <c r="AJ110" s="112"/>
       <c r="AK110" s="112"/>
       <c r="AL110" s="112"/>
@@ -9581,27 +9867,27 @@
       <c r="BE110" s="112"/>
       <c r="BF110" s="112"/>
     </row>
-    <row r="111" spans="7:58" x14ac:dyDescent="0.2">
-      <c r="G111" s="124"/>
-      <c r="H111" s="124"/>
-      <c r="I111" s="124"/>
-      <c r="J111" s="124"/>
-      <c r="K111" s="124"/>
-      <c r="L111" s="125"/>
-      <c r="M111" s="125"/>
-      <c r="N111" s="124"/>
-      <c r="O111" s="124"/>
-      <c r="P111" s="124"/>
-      <c r="Q111" s="124"/>
-      <c r="R111" s="124"/>
-      <c r="S111" s="124"/>
-      <c r="T111" s="124"/>
-      <c r="U111" s="124"/>
-      <c r="V111" s="126"/>
-      <c r="W111" s="124"/>
-      <c r="X111" s="124"/>
-      <c r="Y111" s="124"/>
-      <c r="Z111" s="133"/>
+    <row r="111" spans="6:58" x14ac:dyDescent="0.2">
+      <c r="G111" s="123"/>
+      <c r="H111" s="123"/>
+      <c r="I111" s="123"/>
+      <c r="J111" s="123"/>
+      <c r="K111" s="123"/>
+      <c r="L111" s="124"/>
+      <c r="M111" s="124"/>
+      <c r="N111" s="123"/>
+      <c r="O111" s="123"/>
+      <c r="P111" s="123"/>
+      <c r="Q111" s="123"/>
+      <c r="R111" s="123"/>
+      <c r="S111" s="123"/>
+      <c r="T111" s="123"/>
+      <c r="U111" s="123"/>
+      <c r="V111" s="125"/>
+      <c r="W111" s="123"/>
+      <c r="X111" s="123"/>
+      <c r="Y111" s="123"/>
+      <c r="Z111" s="132"/>
       <c r="AJ111" s="112"/>
       <c r="AK111" s="112"/>
       <c r="AL111" s="112"/>
@@ -9626,36 +9912,75 @@
       <c r="BE111" s="112"/>
       <c r="BF111" s="112"/>
     </row>
-    <row r="112" spans="7:58" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="AI112" s="111"/>
-      <c r="AJ112" s="111"/>
-      <c r="AK112" s="111"/>
-      <c r="AL112" s="111"/>
-      <c r="AM112" s="111"/>
-      <c r="AN112" s="111"/>
-      <c r="AO112" s="111"/>
-      <c r="AP112" s="111"/>
-      <c r="AQ112" s="111"/>
-      <c r="AR112" s="111"/>
-      <c r="AS112" s="111"/>
-      <c r="AT112" s="111"/>
-      <c r="AU112" s="111"/>
-      <c r="AV112" s="111"/>
-      <c r="AW112" s="111"/>
-      <c r="AX112" s="111"/>
-      <c r="AY112" s="111"/>
-      <c r="AZ112" s="111"/>
-      <c r="BA112" s="111"/>
-      <c r="BB112" s="111"/>
-      <c r="BC112" s="111"/>
-      <c r="BD112" s="111"/>
-      <c r="BE112" s="111"/>
+    <row r="112" spans="6:58" x14ac:dyDescent="0.2">
+      <c r="F112" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="G112" s="123"/>
+      <c r="H112" s="123"/>
+      <c r="I112" s="123"/>
+      <c r="J112" s="123"/>
+      <c r="K112" s="123"/>
+      <c r="L112" s="124"/>
+      <c r="M112" s="124"/>
+      <c r="N112" s="123"/>
+      <c r="O112" s="123"/>
+      <c r="P112" s="123"/>
+      <c r="Q112" s="123"/>
+      <c r="R112" s="123"/>
+      <c r="S112" s="123"/>
+      <c r="T112" s="123"/>
+      <c r="U112" s="123"/>
+      <c r="V112" s="125"/>
+      <c r="W112" s="123"/>
+      <c r="X112" s="123"/>
+      <c r="Y112" s="123"/>
+      <c r="Z112" s="132"/>
+      <c r="AJ112" s="112"/>
+      <c r="AK112" s="112"/>
+      <c r="AL112" s="112"/>
+      <c r="AM112" s="112"/>
+      <c r="AN112" s="112"/>
+      <c r="AO112" s="112"/>
+      <c r="AP112" s="112"/>
+      <c r="AQ112" s="112"/>
+      <c r="AR112" s="112"/>
+      <c r="AS112" s="112"/>
+      <c r="AT112" s="112"/>
+      <c r="AU112" s="112"/>
+      <c r="AV112" s="112"/>
+      <c r="AW112" s="112"/>
+      <c r="AX112" s="112"/>
+      <c r="AY112" s="112"/>
+      <c r="AZ112" s="112"/>
+      <c r="BA112" s="112"/>
+      <c r="BB112" s="112"/>
+      <c r="BC112" s="112"/>
+      <c r="BD112" s="112"/>
+      <c r="BE112" s="112"/>
+      <c r="BF112" s="112"/>
     </row>
     <row r="113" spans="4:58" x14ac:dyDescent="0.2">
-      <c r="E113" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="G113" s="28"/>
+      <c r="G113" s="123"/>
+      <c r="H113" s="123"/>
+      <c r="I113" s="123"/>
+      <c r="J113" s="123"/>
+      <c r="K113" s="123"/>
+      <c r="L113" s="124"/>
+      <c r="M113" s="124"/>
+      <c r="N113" s="123"/>
+      <c r="O113" s="123"/>
+      <c r="P113" s="123"/>
+      <c r="Q113" s="123"/>
+      <c r="R113" s="123"/>
+      <c r="S113" s="123"/>
+      <c r="T113" s="123"/>
+      <c r="U113" s="123"/>
+      <c r="V113" s="125"/>
+      <c r="W113" s="123"/>
+      <c r="X113" s="123"/>
+      <c r="Y113" s="123"/>
+      <c r="Z113" s="132"/>
       <c r="AJ113" s="112"/>
       <c r="AK113" s="112"/>
       <c r="AL113" s="112"/>
@@ -9680,15 +10005,80 @@
       <c r="BE113" s="112"/>
       <c r="BF113" s="112"/>
     </row>
-    <row r="114" spans="4:58" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D114" s="22"/>
-      <c r="E114" s="108"/>
+    <row r="114" spans="4:58" x14ac:dyDescent="0.2">
+      <c r="G114" s="274" t="s">
+        <v>72</v>
+      </c>
+      <c r="H114" s="275"/>
+      <c r="I114" s="275"/>
+      <c r="J114" s="275"/>
+      <c r="K114" s="275"/>
+      <c r="L114" s="275"/>
+      <c r="M114" s="275"/>
+      <c r="N114" s="275"/>
+      <c r="O114" s="275"/>
+      <c r="P114" s="276"/>
+      <c r="Q114" s="271" t="s">
+        <v>73</v>
+      </c>
+      <c r="R114" s="272"/>
+      <c r="S114" s="272"/>
+      <c r="T114" s="272"/>
+      <c r="U114" s="272"/>
+      <c r="V114" s="272"/>
+      <c r="W114" s="272"/>
+      <c r="X114" s="272"/>
+      <c r="Y114" s="272"/>
+      <c r="Z114" s="273"/>
+      <c r="AJ114" s="112"/>
+      <c r="AK114" s="112"/>
+      <c r="AL114" s="112"/>
+      <c r="AM114" s="112"/>
+      <c r="AN114" s="112"/>
+      <c r="AO114" s="112"/>
+      <c r="AP114" s="112"/>
+      <c r="AQ114" s="112"/>
+      <c r="AR114" s="112"/>
+      <c r="AS114" s="112"/>
+      <c r="AT114" s="112"/>
+      <c r="AU114" s="112"/>
+      <c r="AV114" s="112"/>
+      <c r="AW114" s="112"/>
+      <c r="AX114" s="112"/>
+      <c r="AY114" s="112"/>
+      <c r="AZ114" s="112"/>
+      <c r="BA114" s="112"/>
+      <c r="BB114" s="112"/>
+      <c r="BC114" s="112"/>
+      <c r="BD114" s="112"/>
+      <c r="BE114" s="112"/>
+      <c r="BF114" s="112"/>
     </row>
     <row r="115" spans="4:58" x14ac:dyDescent="0.2">
-      <c r="E115" s="50"/>
-      <c r="F115" s="50" t="s">
-        <v>78</v>
-      </c>
+      <c r="G115" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="H115" s="67"/>
+      <c r="I115" s="67"/>
+      <c r="J115" s="67"/>
+      <c r="K115" s="67"/>
+      <c r="L115" s="67"/>
+      <c r="M115" s="67"/>
+      <c r="N115" s="67"/>
+      <c r="O115" s="67"/>
+      <c r="P115" s="68"/>
+      <c r="Q115" s="277" t="s">
+        <v>124</v>
+      </c>
+      <c r="R115" s="278"/>
+      <c r="S115" s="278"/>
+      <c r="T115" s="278"/>
+      <c r="U115" s="278"/>
+      <c r="V115" s="278"/>
+      <c r="W115" s="278"/>
+      <c r="X115" s="278"/>
+      <c r="Y115" s="278"/>
+      <c r="Z115" s="279"/>
       <c r="AJ115" s="112"/>
       <c r="AK115" s="112"/>
       <c r="AL115" s="112"/>
@@ -9714,11 +10104,28 @@
       <c r="BF115" s="112"/>
     </row>
     <row r="116" spans="4:58" x14ac:dyDescent="0.2">
-      <c r="E116" s="50"/>
-      <c r="F116" s="113"/>
-      <c r="G116" s="50" t="s">
-        <v>79</v>
-      </c>
+      <c r="G116" s="69"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="24"/>
+      <c r="J116" s="24"/>
+      <c r="K116" s="24"/>
+      <c r="L116" s="24"/>
+      <c r="M116" s="24"/>
+      <c r="N116" s="24"/>
+      <c r="O116" s="24"/>
+      <c r="P116" s="70"/>
+      <c r="Q116" s="277" t="s">
+        <v>125</v>
+      </c>
+      <c r="R116" s="278"/>
+      <c r="S116" s="278"/>
+      <c r="T116" s="278"/>
+      <c r="U116" s="278"/>
+      <c r="V116" s="278"/>
+      <c r="W116" s="278"/>
+      <c r="X116" s="278"/>
+      <c r="Y116" s="278"/>
+      <c r="Z116" s="279"/>
       <c r="AJ116" s="112"/>
       <c r="AK116" s="112"/>
       <c r="AL116" s="112"/>
@@ -9744,18 +10151,28 @@
       <c r="BF116" s="112"/>
     </row>
     <row r="117" spans="4:58" x14ac:dyDescent="0.2">
-      <c r="E117" s="50"/>
-      <c r="F117" s="113"/>
-      <c r="H117" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="I117" s="134"/>
-      <c r="J117" s="134"/>
-      <c r="K117" s="134"/>
-      <c r="L117" s="134"/>
-      <c r="M117" s="134"/>
-      <c r="N117" s="134"/>
-      <c r="O117" s="134"/>
+      <c r="G117" s="280" t="s">
+        <v>74</v>
+      </c>
+      <c r="H117" s="281"/>
+      <c r="I117" s="281"/>
+      <c r="J117" s="281"/>
+      <c r="K117" s="281"/>
+      <c r="L117" s="281"/>
+      <c r="M117" s="281"/>
+      <c r="N117" s="281"/>
+      <c r="O117" s="281"/>
+      <c r="P117" s="281"/>
+      <c r="Q117" s="281"/>
+      <c r="R117" s="281"/>
+      <c r="S117" s="281"/>
+      <c r="T117" s="281"/>
+      <c r="U117" s="281"/>
+      <c r="V117" s="281"/>
+      <c r="W117" s="281"/>
+      <c r="X117" s="281"/>
+      <c r="Y117" s="281"/>
+      <c r="Z117" s="282"/>
       <c r="AJ117" s="112"/>
       <c r="AK117" s="112"/>
       <c r="AL117" s="112"/>
@@ -9781,9 +10198,26 @@
       <c r="BF117" s="112"/>
     </row>
     <row r="118" spans="4:58" x14ac:dyDescent="0.2">
-      <c r="E118" s="50"/>
-      <c r="F118" s="113"/>
-      <c r="G118" s="50"/>
+      <c r="G118" s="119"/>
+      <c r="H118" s="120"/>
+      <c r="I118" s="120"/>
+      <c r="J118" s="120"/>
+      <c r="K118" s="120"/>
+      <c r="L118" s="120"/>
+      <c r="M118" s="120"/>
+      <c r="N118" s="120"/>
+      <c r="O118" s="120"/>
+      <c r="P118" s="120"/>
+      <c r="Q118" s="120"/>
+      <c r="R118" s="120"/>
+      <c r="S118" s="120"/>
+      <c r="T118" s="120"/>
+      <c r="U118" s="120"/>
+      <c r="V118" s="120"/>
+      <c r="W118" s="120"/>
+      <c r="X118" s="120"/>
+      <c r="Y118" s="120"/>
+      <c r="Z118" s="121"/>
       <c r="AJ118" s="112"/>
       <c r="AK118" s="112"/>
       <c r="AL118" s="112"/>
@@ -9809,10 +10243,30 @@
       <c r="BF118" s="112"/>
     </row>
     <row r="119" spans="4:58" x14ac:dyDescent="0.2">
-      <c r="E119" s="50"/>
-      <c r="F119" s="50" t="s">
-        <v>81</v>
-      </c>
+      <c r="G119" s="122"/>
+      <c r="H119" s="123" t="s">
+        <v>160</v>
+      </c>
+      <c r="I119" s="123"/>
+      <c r="J119" s="123"/>
+      <c r="K119" s="123"/>
+      <c r="L119" s="124"/>
+      <c r="N119" s="123"/>
+      <c r="O119" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q119" s="123" t="s">
+        <v>161</v>
+      </c>
+      <c r="R119" s="123"/>
+      <c r="S119" s="123"/>
+      <c r="T119" s="123"/>
+      <c r="U119" s="123"/>
+      <c r="V119" s="125"/>
+      <c r="W119" s="123"/>
+      <c r="X119" s="123"/>
+      <c r="Y119" s="123"/>
+      <c r="Z119" s="126"/>
       <c r="AJ119" s="112"/>
       <c r="AK119" s="112"/>
       <c r="AL119" s="112"/>
@@ -9838,37 +10292,26 @@
       <c r="BF119" s="112"/>
     </row>
     <row r="120" spans="4:58" x14ac:dyDescent="0.2">
-      <c r="E120" s="50"/>
-      <c r="F120" s="113"/>
-      <c r="G120" s="262" t="s">
-        <v>82</v>
-      </c>
-      <c r="H120" s="262"/>
-      <c r="I120" s="262"/>
-      <c r="J120" s="262"/>
-      <c r="K120" s="262"/>
-      <c r="L120" s="262"/>
-      <c r="M120" s="262"/>
-      <c r="N120" s="262"/>
-      <c r="O120" s="262"/>
-      <c r="P120" s="262"/>
-      <c r="Q120" s="262"/>
-      <c r="R120" s="262"/>
-      <c r="S120" s="262"/>
-      <c r="T120" s="262"/>
-      <c r="U120" s="262"/>
-      <c r="V120" s="262"/>
-      <c r="W120" s="262"/>
-      <c r="X120" s="262"/>
-      <c r="Y120" s="262"/>
-      <c r="Z120" s="262"/>
-      <c r="AA120" s="262"/>
-      <c r="AB120" s="262"/>
-      <c r="AC120" s="262"/>
-      <c r="AD120" s="262"/>
-      <c r="AE120" s="262"/>
-      <c r="AF120" s="262"/>
-      <c r="AG120" s="262"/>
+      <c r="G120" s="127"/>
+      <c r="H120" s="128"/>
+      <c r="I120" s="128"/>
+      <c r="J120" s="128"/>
+      <c r="K120" s="128"/>
+      <c r="L120" s="129"/>
+      <c r="M120" s="129"/>
+      <c r="N120" s="128"/>
+      <c r="O120" s="128"/>
+      <c r="P120" s="128"/>
+      <c r="Q120" s="128"/>
+      <c r="R120" s="128"/>
+      <c r="S120" s="128"/>
+      <c r="T120" s="128"/>
+      <c r="U120" s="128"/>
+      <c r="V120" s="130"/>
+      <c r="W120" s="128"/>
+      <c r="X120" s="128"/>
+      <c r="Y120" s="128"/>
+      <c r="Z120" s="131"/>
       <c r="AJ120" s="112"/>
       <c r="AK120" s="112"/>
       <c r="AL120" s="112"/>
@@ -9894,35 +10337,26 @@
       <c r="BF120" s="112"/>
     </row>
     <row r="121" spans="4:58" x14ac:dyDescent="0.2">
-      <c r="E121" s="50"/>
-      <c r="F121" s="113"/>
-      <c r="G121" s="262"/>
-      <c r="H121" s="262"/>
-      <c r="I121" s="262"/>
-      <c r="J121" s="262"/>
-      <c r="K121" s="262"/>
-      <c r="L121" s="262"/>
-      <c r="M121" s="262"/>
-      <c r="N121" s="262"/>
-      <c r="O121" s="262"/>
-      <c r="P121" s="262"/>
-      <c r="Q121" s="262"/>
-      <c r="R121" s="262"/>
-      <c r="S121" s="262"/>
-      <c r="T121" s="262"/>
-      <c r="U121" s="262"/>
-      <c r="V121" s="262"/>
-      <c r="W121" s="262"/>
-      <c r="X121" s="262"/>
-      <c r="Y121" s="262"/>
-      <c r="Z121" s="262"/>
-      <c r="AA121" s="262"/>
-      <c r="AB121" s="262"/>
-      <c r="AC121" s="262"/>
-      <c r="AD121" s="262"/>
-      <c r="AE121" s="262"/>
-      <c r="AF121" s="262"/>
-      <c r="AG121" s="262"/>
+      <c r="G121" s="123"/>
+      <c r="H121" s="123"/>
+      <c r="I121" s="123"/>
+      <c r="J121" s="123"/>
+      <c r="K121" s="123"/>
+      <c r="L121" s="124"/>
+      <c r="M121" s="124"/>
+      <c r="N121" s="123"/>
+      <c r="O121" s="123"/>
+      <c r="P121" s="123"/>
+      <c r="Q121" s="123"/>
+      <c r="R121" s="123"/>
+      <c r="S121" s="123"/>
+      <c r="T121" s="123"/>
+      <c r="U121" s="123"/>
+      <c r="V121" s="125"/>
+      <c r="W121" s="123"/>
+      <c r="X121" s="123"/>
+      <c r="Y121" s="123"/>
+      <c r="Z121" s="132"/>
       <c r="AJ121" s="112"/>
       <c r="AK121" s="112"/>
       <c r="AL121" s="112"/>
@@ -9947,42 +10381,36 @@
       <c r="BE121" s="112"/>
       <c r="BF121" s="112"/>
     </row>
-    <row r="122" spans="4:58" x14ac:dyDescent="0.2">
-      <c r="E122" s="50"/>
-      <c r="F122" s="113"/>
-      <c r="G122" s="50"/>
-      <c r="H122" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ122" s="112"/>
-      <c r="AK122" s="112"/>
-      <c r="AL122" s="112"/>
-      <c r="AM122" s="112"/>
-      <c r="AN122" s="112"/>
-      <c r="AO122" s="112"/>
-      <c r="AP122" s="112"/>
-      <c r="AQ122" s="112"/>
-      <c r="AR122" s="112"/>
-      <c r="AS122" s="112"/>
-      <c r="AT122" s="112"/>
-      <c r="AU122" s="112"/>
-      <c r="AV122" s="112"/>
-      <c r="AW122" s="112"/>
-      <c r="AX122" s="112"/>
-      <c r="AY122" s="112"/>
-      <c r="AZ122" s="112"/>
-      <c r="BA122" s="112"/>
-      <c r="BB122" s="112"/>
-      <c r="BC122" s="112"/>
-      <c r="BD122" s="112"/>
-      <c r="BE122" s="112"/>
-      <c r="BF122" s="112"/>
+    <row r="122" spans="4:58" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI122" s="111"/>
+      <c r="AJ122" s="111"/>
+      <c r="AK122" s="111"/>
+      <c r="AL122" s="111"/>
+      <c r="AM122" s="111"/>
+      <c r="AN122" s="111"/>
+      <c r="AO122" s="111"/>
+      <c r="AP122" s="111"/>
+      <c r="AQ122" s="111"/>
+      <c r="AR122" s="111"/>
+      <c r="AS122" s="111"/>
+      <c r="AT122" s="111"/>
+      <c r="AU122" s="111"/>
+      <c r="AV122" s="111"/>
+      <c r="AW122" s="111"/>
+      <c r="AX122" s="111"/>
+      <c r="AY122" s="111"/>
+      <c r="AZ122" s="111"/>
+      <c r="BA122" s="111"/>
+      <c r="BB122" s="111"/>
+      <c r="BC122" s="111"/>
+      <c r="BD122" s="111"/>
+      <c r="BE122" s="111"/>
     </row>
     <row r="123" spans="4:58" x14ac:dyDescent="0.2">
-      <c r="E123" s="50"/>
-      <c r="F123" s="50" t="s">
-        <v>83</v>
-      </c>
+      <c r="E123" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G123" s="28"/>
       <c r="AJ123" s="112"/>
       <c r="AK123" s="112"/>
       <c r="AL123" s="112"/>
@@ -10007,48 +10435,15 @@
       <c r="BE123" s="112"/>
       <c r="BF123" s="112"/>
     </row>
-    <row r="124" spans="4:58" x14ac:dyDescent="0.2">
-      <c r="E124" s="50"/>
-      <c r="F124" s="113"/>
-      <c r="G124" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ124" s="112"/>
-      <c r="AK124" s="112"/>
-      <c r="AL124" s="112"/>
-      <c r="AM124" s="112"/>
-      <c r="AN124" s="112"/>
-      <c r="AO124" s="112"/>
-      <c r="AP124" s="112"/>
-      <c r="AQ124" s="112"/>
-      <c r="AR124" s="112"/>
-      <c r="AS124" s="112"/>
-      <c r="AT124" s="112"/>
-      <c r="AU124" s="112"/>
-      <c r="AV124" s="112"/>
-      <c r="AW124" s="112"/>
-      <c r="AX124" s="112"/>
-      <c r="AY124" s="112"/>
-      <c r="AZ124" s="112"/>
-      <c r="BA124" s="112"/>
-      <c r="BB124" s="112"/>
-      <c r="BC124" s="112"/>
-      <c r="BD124" s="112"/>
-      <c r="BE124" s="112"/>
-      <c r="BF124" s="112"/>
+    <row r="124" spans="4:58" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D124" s="22"/>
+      <c r="E124" s="108"/>
     </row>
     <row r="125" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E125" s="50"/>
-      <c r="F125" s="113"/>
-      <c r="H125" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="I125" s="134"/>
-      <c r="J125" s="134"/>
-      <c r="K125" s="134"/>
-      <c r="L125" s="134"/>
-      <c r="M125" s="134"/>
-      <c r="N125" s="134"/>
+      <c r="F125" s="50" t="s">
+        <v>77</v>
+      </c>
       <c r="AJ125" s="112"/>
       <c r="AK125" s="112"/>
       <c r="AL125" s="112"/>
@@ -10076,7 +10471,9 @@
     <row r="126" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E126" s="50"/>
       <c r="F126" s="113"/>
-      <c r="G126" s="50"/>
+      <c r="G126" s="50" t="s">
+        <v>78</v>
+      </c>
       <c r="AJ126" s="112"/>
       <c r="AK126" s="112"/>
       <c r="AL126" s="112"/>
@@ -10103,9 +10500,17 @@
     </row>
     <row r="127" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E127" s="50"/>
-      <c r="F127" s="50" t="s">
-        <v>85</v>
-      </c>
+      <c r="F127" s="113"/>
+      <c r="H127" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="I127" s="133"/>
+      <c r="J127" s="133"/>
+      <c r="K127" s="133"/>
+      <c r="L127" s="133"/>
+      <c r="M127" s="133"/>
+      <c r="N127" s="133"/>
+      <c r="O127" s="133"/>
       <c r="AJ127" s="112"/>
       <c r="AK127" s="112"/>
       <c r="AL127" s="112"/>
@@ -10133,35 +10538,7 @@
     <row r="128" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E128" s="50"/>
       <c r="F128" s="113"/>
-      <c r="G128" s="262" t="s">
-        <v>86</v>
-      </c>
-      <c r="H128" s="262"/>
-      <c r="I128" s="262"/>
-      <c r="J128" s="262"/>
-      <c r="K128" s="262"/>
-      <c r="L128" s="262"/>
-      <c r="M128" s="262"/>
-      <c r="N128" s="262"/>
-      <c r="O128" s="262"/>
-      <c r="P128" s="262"/>
-      <c r="Q128" s="262"/>
-      <c r="R128" s="262"/>
-      <c r="S128" s="262"/>
-      <c r="T128" s="262"/>
-      <c r="U128" s="262"/>
-      <c r="V128" s="262"/>
-      <c r="W128" s="262"/>
-      <c r="X128" s="262"/>
-      <c r="Y128" s="262"/>
-      <c r="Z128" s="262"/>
-      <c r="AA128" s="262"/>
-      <c r="AB128" s="262"/>
-      <c r="AC128" s="262"/>
-      <c r="AD128" s="262"/>
-      <c r="AE128" s="262"/>
-      <c r="AF128" s="262"/>
-      <c r="AG128" s="262"/>
+      <c r="G128" s="50"/>
       <c r="AJ128" s="112"/>
       <c r="AK128" s="112"/>
       <c r="AL128" s="112"/>
@@ -10188,34 +10565,9 @@
     </row>
     <row r="129" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E129" s="50"/>
-      <c r="F129" s="113"/>
-      <c r="G129" s="262"/>
-      <c r="H129" s="262"/>
-      <c r="I129" s="262"/>
-      <c r="J129" s="262"/>
-      <c r="K129" s="262"/>
-      <c r="L129" s="262"/>
-      <c r="M129" s="262"/>
-      <c r="N129" s="262"/>
-      <c r="O129" s="262"/>
-      <c r="P129" s="262"/>
-      <c r="Q129" s="262"/>
-      <c r="R129" s="262"/>
-      <c r="S129" s="262"/>
-      <c r="T129" s="262"/>
-      <c r="U129" s="262"/>
-      <c r="V129" s="262"/>
-      <c r="W129" s="262"/>
-      <c r="X129" s="262"/>
-      <c r="Y129" s="262"/>
-      <c r="Z129" s="262"/>
-      <c r="AA129" s="262"/>
-      <c r="AB129" s="262"/>
-      <c r="AC129" s="262"/>
-      <c r="AD129" s="262"/>
-      <c r="AE129" s="262"/>
-      <c r="AF129" s="262"/>
-      <c r="AG129" s="262"/>
+      <c r="F129" s="50" t="s">
+        <v>163</v>
+      </c>
       <c r="AJ129" s="112"/>
       <c r="AK129" s="112"/>
       <c r="AL129" s="112"/>
@@ -10243,15 +10595,9 @@
     <row r="130" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E130" s="50"/>
       <c r="F130" s="113"/>
-      <c r="H130" s="57" t="s">
+      <c r="G130" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="I130" s="134"/>
-      <c r="J130" s="134"/>
-      <c r="K130" s="134"/>
-      <c r="L130" s="134"/>
-      <c r="M130" s="134"/>
-      <c r="N130" s="134"/>
       <c r="AJ130" s="112"/>
       <c r="AK130" s="112"/>
       <c r="AL130" s="112"/>
@@ -10279,7 +10625,15 @@
     <row r="131" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E131" s="50"/>
       <c r="F131" s="113"/>
-      <c r="G131" s="50"/>
+      <c r="H131" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="I131" s="133"/>
+      <c r="J131" s="133"/>
+      <c r="K131" s="133"/>
+      <c r="L131" s="133"/>
+      <c r="M131" s="133"/>
+      <c r="N131" s="133"/>
       <c r="AJ131" s="112"/>
       <c r="AK131" s="112"/>
       <c r="AL131" s="112"/>
@@ -10304,147 +10658,150 @@
       <c r="BE131" s="112"/>
       <c r="BF131" s="112"/>
     </row>
-    <row r="132" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H132" s="267" t="s">
-        <v>0</v>
-      </c>
-      <c r="I132" s="247" t="s">
-        <v>87</v>
-      </c>
-      <c r="J132" s="248"/>
-      <c r="K132" s="248"/>
-      <c r="L132" s="248"/>
-      <c r="M132" s="248"/>
-      <c r="N132" s="249"/>
-      <c r="O132" s="269" t="s">
-        <v>88</v>
-      </c>
-      <c r="P132" s="270"/>
-      <c r="Q132" s="270"/>
-      <c r="R132" s="270"/>
-      <c r="S132" s="270"/>
-      <c r="T132" s="270"/>
-      <c r="U132" s="270"/>
-      <c r="V132" s="270"/>
-      <c r="W132" s="270"/>
-      <c r="X132" s="270"/>
-      <c r="Y132" s="271"/>
-      <c r="Z132" s="247" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA132" s="248"/>
-      <c r="AB132" s="248"/>
-      <c r="AC132" s="248"/>
-      <c r="AD132" s="248"/>
-      <c r="AE132" s="249"/>
-      <c r="AF132" s="135" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG132" s="136"/>
-      <c r="AH132" s="137"/>
-    </row>
-    <row r="133" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H133" s="268"/>
-      <c r="I133" s="253"/>
-      <c r="J133" s="254"/>
-      <c r="K133" s="254"/>
-      <c r="L133" s="254"/>
-      <c r="M133" s="254"/>
-      <c r="N133" s="255"/>
-      <c r="O133" s="269" t="s">
-        <v>23</v>
-      </c>
-      <c r="P133" s="270"/>
-      <c r="Q133" s="270"/>
-      <c r="R133" s="270"/>
-      <c r="S133" s="271"/>
-      <c r="T133" s="272" t="s">
-        <v>89</v>
-      </c>
-      <c r="U133" s="273"/>
-      <c r="V133" s="273"/>
-      <c r="W133" s="273"/>
-      <c r="X133" s="273"/>
-      <c r="Y133" s="274"/>
-      <c r="Z133" s="253"/>
-      <c r="AA133" s="254"/>
-      <c r="AB133" s="254"/>
-      <c r="AC133" s="254"/>
-      <c r="AD133" s="254"/>
-      <c r="AE133" s="255"/>
-      <c r="AF133" s="138"/>
-      <c r="AG133" s="139"/>
-      <c r="AH133" s="140"/>
-    </row>
-    <row r="134" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H134" s="88">
-        <v>1</v>
-      </c>
-      <c r="I134" s="263" t="s">
-        <v>136</v>
-      </c>
-      <c r="J134" s="264"/>
-      <c r="K134" s="264"/>
-      <c r="L134" s="264"/>
-      <c r="M134" s="264"/>
-      <c r="N134" s="265"/>
-      <c r="O134" s="141" t="s">
-        <v>124</v>
-      </c>
-      <c r="P134" s="142"/>
-      <c r="Q134" s="142"/>
-      <c r="R134" s="142"/>
-      <c r="S134" s="143"/>
-      <c r="T134" s="263" t="s">
-        <v>1</v>
-      </c>
-      <c r="U134" s="264"/>
-      <c r="V134" s="264"/>
-      <c r="W134" s="264"/>
-      <c r="X134" s="264"/>
-      <c r="Y134" s="265"/>
-      <c r="Z134" s="266" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA134" s="184"/>
-      <c r="AB134" s="184"/>
-      <c r="AC134" s="184"/>
-      <c r="AD134" s="184"/>
-      <c r="AE134" s="185"/>
-      <c r="AF134" s="144"/>
-      <c r="AG134" s="145"/>
-      <c r="AH134" s="146"/>
+    <row r="132" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="E132" s="50"/>
+      <c r="F132" s="113"/>
+      <c r="G132" s="50"/>
+      <c r="AJ132" s="112"/>
+      <c r="AK132" s="112"/>
+      <c r="AL132" s="112"/>
+      <c r="AM132" s="112"/>
+      <c r="AN132" s="112"/>
+      <c r="AO132" s="112"/>
+      <c r="AP132" s="112"/>
+      <c r="AQ132" s="112"/>
+      <c r="AR132" s="112"/>
+      <c r="AS132" s="112"/>
+      <c r="AT132" s="112"/>
+      <c r="AU132" s="112"/>
+      <c r="AV132" s="112"/>
+      <c r="AW132" s="112"/>
+      <c r="AX132" s="112"/>
+      <c r="AY132" s="112"/>
+      <c r="AZ132" s="112"/>
+      <c r="BA132" s="112"/>
+      <c r="BB132" s="112"/>
+      <c r="BC132" s="112"/>
+      <c r="BD132" s="112"/>
+      <c r="BE132" s="112"/>
+      <c r="BF132" s="112"/>
+    </row>
+    <row r="133" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="E133" s="50"/>
+      <c r="F133" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ133" s="112"/>
+      <c r="AK133" s="112"/>
+      <c r="AL133" s="112"/>
+      <c r="AM133" s="112"/>
+      <c r="AN133" s="112"/>
+      <c r="AO133" s="112"/>
+      <c r="AP133" s="112"/>
+      <c r="AQ133" s="112"/>
+      <c r="AR133" s="112"/>
+      <c r="AS133" s="112"/>
+      <c r="AT133" s="112"/>
+      <c r="AU133" s="112"/>
+      <c r="AV133" s="112"/>
+      <c r="AW133" s="112"/>
+      <c r="AX133" s="112"/>
+      <c r="AY133" s="112"/>
+      <c r="AZ133" s="112"/>
+      <c r="BA133" s="112"/>
+      <c r="BB133" s="112"/>
+      <c r="BC133" s="112"/>
+      <c r="BD133" s="112"/>
+      <c r="BE133" s="112"/>
+      <c r="BF133" s="112"/>
+    </row>
+    <row r="134" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="E134" s="50"/>
+      <c r="F134" s="113"/>
+      <c r="G134" s="283" t="s">
+        <v>81</v>
+      </c>
+      <c r="H134" s="283"/>
+      <c r="I134" s="283"/>
+      <c r="J134" s="283"/>
+      <c r="K134" s="283"/>
+      <c r="L134" s="283"/>
+      <c r="M134" s="283"/>
+      <c r="N134" s="283"/>
+      <c r="O134" s="283"/>
+      <c r="P134" s="283"/>
+      <c r="Q134" s="283"/>
+      <c r="R134" s="283"/>
+      <c r="S134" s="283"/>
+      <c r="T134" s="283"/>
+      <c r="U134" s="283"/>
+      <c r="V134" s="283"/>
+      <c r="W134" s="283"/>
+      <c r="X134" s="283"/>
+      <c r="Y134" s="283"/>
+      <c r="Z134" s="283"/>
+      <c r="AA134" s="283"/>
+      <c r="AB134" s="283"/>
+      <c r="AC134" s="283"/>
+      <c r="AD134" s="283"/>
+      <c r="AE134" s="283"/>
+      <c r="AF134" s="283"/>
+      <c r="AG134" s="283"/>
+      <c r="AJ134" s="112"/>
+      <c r="AK134" s="112"/>
+      <c r="AL134" s="112"/>
+      <c r="AM134" s="112"/>
+      <c r="AN134" s="112"/>
+      <c r="AO134" s="112"/>
+      <c r="AP134" s="112"/>
+      <c r="AQ134" s="112"/>
+      <c r="AR134" s="112"/>
+      <c r="AS134" s="112"/>
+      <c r="AT134" s="112"/>
+      <c r="AU134" s="112"/>
+      <c r="AV134" s="112"/>
+      <c r="AW134" s="112"/>
+      <c r="AX134" s="112"/>
+      <c r="AY134" s="112"/>
+      <c r="AZ134" s="112"/>
+      <c r="BA134" s="112"/>
+      <c r="BB134" s="112"/>
+      <c r="BC134" s="112"/>
+      <c r="BD134" s="112"/>
+      <c r="BE134" s="112"/>
+      <c r="BF134" s="112"/>
     </row>
     <row r="135" spans="5:59" x14ac:dyDescent="0.2">
-      <c r="H135" s="147" t="s">
-        <v>75</v>
-      </c>
-      <c r="I135" s="148"/>
-      <c r="J135" s="148"/>
-      <c r="K135" s="148"/>
-      <c r="L135" s="148"/>
-      <c r="M135" s="148"/>
-      <c r="N135" s="148"/>
-      <c r="O135" s="148"/>
-      <c r="P135" s="148"/>
-      <c r="Q135" s="148"/>
-      <c r="R135" s="148"/>
-      <c r="S135" s="148"/>
-      <c r="T135" s="148"/>
-      <c r="U135" s="148"/>
-      <c r="V135" s="148"/>
-      <c r="W135" s="148"/>
-      <c r="X135" s="148"/>
-      <c r="Y135" s="148"/>
-      <c r="Z135" s="148"/>
-      <c r="AA135" s="148"/>
-      <c r="AB135" s="148"/>
-      <c r="AC135" s="148"/>
-      <c r="AD135" s="148"/>
-      <c r="AE135" s="148"/>
-      <c r="AF135" s="148"/>
-      <c r="AG135" s="148"/>
-      <c r="AH135" s="149"/>
+      <c r="E135" s="50"/>
+      <c r="F135" s="113"/>
+      <c r="G135" s="283"/>
+      <c r="H135" s="283"/>
+      <c r="I135" s="283"/>
+      <c r="J135" s="283"/>
+      <c r="K135" s="283"/>
+      <c r="L135" s="283"/>
+      <c r="M135" s="283"/>
+      <c r="N135" s="283"/>
+      <c r="O135" s="283"/>
+      <c r="P135" s="283"/>
+      <c r="Q135" s="283"/>
+      <c r="R135" s="283"/>
+      <c r="S135" s="283"/>
+      <c r="T135" s="283"/>
+      <c r="U135" s="283"/>
+      <c r="V135" s="283"/>
+      <c r="W135" s="283"/>
+      <c r="X135" s="283"/>
+      <c r="Y135" s="283"/>
+      <c r="Z135" s="283"/>
+      <c r="AA135" s="283"/>
+      <c r="AB135" s="283"/>
+      <c r="AC135" s="283"/>
+      <c r="AD135" s="283"/>
+      <c r="AE135" s="283"/>
+      <c r="AF135" s="283"/>
+      <c r="AG135" s="283"/>
+      <c r="AJ135" s="112"/>
       <c r="AK135" s="112"/>
       <c r="AL135" s="112"/>
       <c r="AM135" s="112"/>
@@ -10467,36 +10824,20 @@
       <c r="BD135" s="112"/>
       <c r="BE135" s="112"/>
       <c r="BF135" s="11